--- a/bert/word embeddings and similarity matrix/model/results.xlsx
+++ b/bert/word embeddings and similarity matrix/model/results.xlsx
@@ -66,27 +66,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">5- The accessible places like side walks and footpaths are all taken up by the shop.keepers and advertising boards. What is left is then taken up for Gurkha and paan shops. Can we please have the side walks back for use by Bangaloreans.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14- It would be wonderful to have flat, usable pavements on every street with NO access to bikes and cars since this happens too often and pedestrians, particularly senior citizens, have great difficulty walking.  Rather than building ugly, expensive foot over bridges, the authorities must ensure that zebra crossings are respected and vehicles that don't stop are heavily fined.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15- The plan must quantify the developments needed whether it is footpaths, FoBs or any other such facilities for pedestrians. There is a huge difference between what the officials consider footpaths that are in a condition to use, apathy to footpaths that are broken/encroached. Apathy among officials and vehicle users towards pedestrians wanting to cross roads is very high. Both of these issues need to be addressed with highest priority in a transparent and time bound manner.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19- All footpath encroachment should be cleared. All footpaths should be repaired. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27- Even, well planned footpaths (no ups and downs), no encroachment by shops, prevent misuse of footpath for dumping stuff or as parking.
-</t>
-  </si>
-  <si>
-    <t>['4- To create gardens more.parks in each locality. Good roads without potholes. To grow trees on either side of the road. Escalator to be installed at sky walk for senior citizens. Good conveyance in the form of bus. Auto. Cabs. Metro. And rail. Good drainage without over flowing in rainy season. Good shelter near bus stop. Wash rooms or toilet near bus stop. With good maintainance.\n', '21- Though there has been efforts to improve the standard of footpaths, they end up being encroached by the illegal vendors and petty shops and forcing the pedestrians to walk on the roads and risk their lives. On many newly laid footpaths, the existing telephone exchange boxes or other utilities are not removed or relocated. These again forces pedestrians to walk on road.\n', '18- Build big arterial roads for sub urban networks\n']</t>
+    <t>{'response': '5- The accessible places like side walks and footpaths are all taken up by the shop.keepers and advertising boards. What is left is then taken up for Gurkha and paan shops. Can we please have the side walks back for use by Bangaloreans.\n', 'score': 0.5988247269531625}</t>
+  </si>
+  <si>
+    <t>{'response': "14- It would be wonderful to have flat, usable pavements on every street with NO access to bikes and cars since this happens too often and pedestrians, particularly senior citizens, have great difficulty walking.  Rather than building ugly, expensive foot over bridges, the authorities must ensure that zebra crossings are respected and vehicles that don't stop are heavily fined.\n", 'score': 0.7132509361109471}</t>
+  </si>
+  <si>
+    <t>{'response': '15- The plan must quantify the developments needed whether it is footpaths, FoBs or any other such facilities for pedestrians. There is a huge difference between what the officials consider footpaths that are in a condition to use, apathy to footpaths that are broken/encroached. Apathy among officials and vehicle users towards pedestrians wanting to cross roads is very high. Both of these issues need to be addressed with highest priority in a transparent and time bound manner.\n', 'score': 0.639119639327004}</t>
+  </si>
+  <si>
+    <t>{'response': '19- All footpath encroachment should be cleared. All footpaths should be repaired. \n', 'score': 0.4692986141717593}</t>
+  </si>
+  <si>
+    <t>{'response': '27- Even, well planned footpaths (no ups and downs), no encroachment by shops, prevent misuse of footpath for dumping stuff or as parking.\n', 'score': 0.4969128915946865}</t>
+  </si>
+  <si>
+    <t>['4- To create gardens more.parks in each locality. Good roads without potholes. To grow trees on either side of the road. Escalator to be installed at sky walk for senior citizens. Good conveyance in the form of bus. Auto. Cabs. Metro. And rail. Good drainage without over flowing in rainy season. Good shelter near bus stop. Wash rooms or toilet near bus stop. With good maintainance.\n', '18- Build big arterial roads for sub urban networks\n', '21- Though there has been efforts to improve the standard of footpaths, they end up being encroached by the illegal vendors and petty shops and forcing the pedestrians to walk on the roads and risk their lives. On many newly laid footpaths, the existing telephone exchange boxes or other utilities are not removed or relocated. These again forces pedestrians to walk on road.\n']</t>
   </si>
   <si>
     <t>['6- Bangalore need to be planned properly \n']</t>
@@ -101,60 +96,46 @@
     <t>['25- Good thoughts, and will be helpful if implemented in a time bound manner.\n']</t>
   </si>
   <si>
-    <t xml:space="preserve">7- The plan looks nice. Will have to implement properly. Permission should be taken from local RWA before any relevant infrastructure is dismantled/dug up. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26- The proposal is really good, but before implementing those, we need to find the existing problems in all the footpaths in Bengaluru and solve using the universal design principles and without harming the environmental beauty.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Happy but wondering, why do we need time till 2031 to do this. Cant we divide the city into zone and start the up gradation of these and complete it 2 years? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2- When normal people walk on Bengaluru footpaths they become differently abled in a couple of days. Can't imagine how these poor people will manage. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3- Keep connectivity between metro stations with major hubs using shared vehicle or other means.Though the metro service is so good and better,when it comes with the other transportation system in the city the comfort and gility provided by metro totally nullifies. Apply tocken system to cabs and vehicles which interconnects the major destinations through metro stations
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10- As stated in my previous feedback. It's a great plan but it all comes down to its execution. Please make sure, honest people are involved in this and no corruption should be there.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12- In normal city bus, it's impossible to move wheel chair inside the bus but in ac bus it's good and the bus is not stopping properly it's risky for elder people to get in and out into the running bus 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13- Even though the poles are there to prevent people from driving on footpaths, still people dive on them.... So it would be more helpful if that is kept in check
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16- Bus, Trains and other government and private office should have special attention to differently abled and senior citizens
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17- Over the last 3 decades we have scored very poorly in creating  infrastructure that ensured differently abled people were able to enjoy the city and move around with easy. The BDA plan envisaged is good, only that rigorous and ruthless implementation will ensure that this project takes off and gets completed within time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20- 1. There is a concept in the western world called a "power weekend“. Big projects are handled on the weekend when there is less traffic. And alternate arrangements/ routes are made in advance and citizens informed through all channels. 2. Make water/sewage pipes have a surface that can be opened when needed, so roads don’t need to be dug up time and again. If an agency digs the road, it has to ensure it‘s repaired. 3. Ensure the wheel chair access is not used by motorists. 4. Widen roads. Most broad roads in Bangalore end up in tiny alleys!! 5. Use the best people for the project, don’t go by least quoted amount, value quality.  6. Maintenance will decide how long the quality lasts. Ensure regular checks. 7. Be incorruptible. Money is transitory, the name of the person making a difference will be remembered forever!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22- Mass Transportation not available from sarjapur road to electronic city and roads are preety narrow
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24- Right now a physically handicapped person cannot walk on the road. No proper accessibility any of the government building. There are so much to for differently abled people
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8- Need more facilities for the disabled to travel through the city.
-</t>
+    <t>{'response': '7- The plan looks nice. Will have to implement properly. Permission should be taken from local RWA before any relevant infrastructure is dismantled/dug up. \n', 'score': 0.3394738718177475}</t>
+  </si>
+  <si>
+    <t>{'response': '26- The proposal is really good, but before implementing those, we need to find the existing problems in all the footpaths in Bengaluru and solve using the universal design principles and without harming the environmental beauty.\n', 'score': 0.5066485315289067}</t>
+  </si>
+  <si>
+    <t>{'response': '1- Happy but wondering, why do we need time till 2031 to do this. Cant we divide the city into zone and start the up gradation of these and complete it 2 years? \n', 'score': 0.4943022294754004}</t>
+  </si>
+  <si>
+    <t>{'response': "2- When normal people walk on Bengaluru footpaths they become differently abled in a couple of days. Can't imagine how these poor people will manage. \n", 'score': 0.7265030243338139}</t>
+  </si>
+  <si>
+    <t>{'response': '3- Keep connectivity between metro stations with major hubs using shared vehicle or other means.Though the metro service is so good and better,when it comes with the other transportation system in the city the comfort and gility provided by metro totally nullifies. Apply tocken system to cabs and vehicles which interconnects the major destinations through metro stations\n', 'score': 0.5004975229098635}</t>
+  </si>
+  <si>
+    <t>{'response': "10- As stated in my previous feedback. It's a great plan but it all comes down to its execution. Please make sure, honest people are involved in this and no corruption should be there.  \n", 'score': 0.4913103375234361}</t>
+  </si>
+  <si>
+    <t>{'response': "12- In normal city bus, it's impossible to move wheel chair inside the bus but in ac bus it's good and the bus is not stopping properly it's risky for elder people to get in and out into the running bus \n", 'score': 0.6635530415289946}</t>
+  </si>
+  <si>
+    <t>{'response': '13- Even though the poles are there to prevent people from driving on footpaths, still people dive on them.... So it would be more helpful if that is kept in check\n', 'score': 0.5723784894889719}</t>
+  </si>
+  <si>
+    <t>{'response': '16- Bus, Trains and other government and private office should have special attention to differently abled and senior citizens\n', 'score': 0.637160089490381}</t>
+  </si>
+  <si>
+    <t>{'response': '17- Over the last 3 decades we have scored very poorly in creating  infrastructure that ensured differently abled people were able to enjoy the city and move around with easy. The BDA plan envisaged is good, only that rigorous and ruthless implementation will ensure that this project takes off and gets completed within time.\n', 'score': 0.6646829219274063}</t>
+  </si>
+  <si>
+    <t>{'response': '20- 1. There is a concept in the western world called a "power weekend“. Big projects are handled on the weekend when there is less traffic. And alternate arrangements/ routes are made in advance and citizens informed through all channels. 2. Make water/sewage pipes have a surface that can be opened when needed, so roads don’t need to be dug up time and again. If an agency digs the road, it has to ensure it‘s repaired. 3. Ensure the wheel chair access is not used by motorists. 4. Widen roads. Most broad roads in Bangalore end up in tiny alleys!! 5. Use the best people for the project, don’t go by least quoted amount, value quality.  6. Maintenance will decide how long the quality lasts. Ensure regular checks. 7. Be incorruptible. Money is transitory, the name of the person making a difference will be remembered forever!\n', 'score': 0.5928211628034226}</t>
+  </si>
+  <si>
+    <t>{'response': '22- Mass Transportation not available from sarjapur road to electronic city and roads are preety narrow\n', 'score': 0.37539976762914207}</t>
+  </si>
+  <si>
+    <t>{'response': '24- Right now a physically handicapped person cannot walk on the road. No proper accessibility any of the government building. There are so much to for differently abled people\n', 'score': 0.705154552253784}</t>
+  </si>
+  <si>
+    <t>{'response': '8- Need more facilities for the disabled to travel through the city.\n', 'score': 0.46360791851001026}</t>
   </si>
   <si>
     <t xml:space="preserve">16 new fire stations are required in the city to make sure there is one fire station for every 10.5 sq.km
@@ -172,22 +153,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">3- Train citizens on how to act when a fire /flood other event occurs 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4- (1) Can you ensure every locality has two or more roads with free access for one ambulance, 2 fire engines with access to water in case of an emergency. (2) Remember the 2010 Carlton Tower old airport road fire when 8 fire engines could hardly reach to the spot in time and most did not have enough water and roads were blocked by passer-byes. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6- Nowhere in the Master plan, I see that the infrastructure for emergency teams such as ambulances. we increasingly see that the infra for such we have is very bad, infact my personal experience is seeing the ambulances and fire engines going so slow, I personally was able to comfortably overtake them without adding any effort. Also rules around emergency vehicles and general vehicles making path for them
-</t>
+    <t>{'response': '3- Train citizens on how to act when a fire /flood other event occurs \n', 'score': 0.48983952121942037}</t>
+  </si>
+  <si>
+    <t>{'response': '4- (1) Can you ensure every locality has two or more roads with free access for one ambulance, 2 fire engines with access to water in case of an emergency. (2) Remember the 2010 Carlton Tower old airport road fire when 8 fire engines could hardly reach to the spot in time and most did not have enough water and roads were blocked by passer-byes. \n', 'score': 0.7264708650384374}</t>
+  </si>
+  <si>
+    <t>{'response': '6- Nowhere in the Master plan, I see that the infrastructure for emergency teams such as ambulances. we increasingly see that the infra for such we have is very bad, infact my personal experience is seeing the ambulances and fire engines going so slow, I personally was able to comfortably overtake them without adding any effort. Also rules around emergency vehicles and general vehicles making path for them\n', 'score': 0.6240196180183947}</t>
   </si>
   <si>
     <t>['2- 1. In volume 3- Master plan document, Clause no 13.3.1 Earthquake - old IS 1893 -2002 Is mentioned, but latest code is IS 1893- 2016. Kindly update. 2. In clause 13.3.1 under mitigation following can be included " softstory in a structure to be designed considering all codal requirements". 3. SUGGESTION:  sanction submission document by owner/developer shall contain structural drawings and design report (structural framing with sizes ,column positions with sizes, expansion joint, footing type and layout....etc) \n']</t>
   </si>
   <si>
-    <t>['11- Build roads that absorb water.it is helpful to manage water in roads in rainy season\n', "7- Blocked Rajakaluve is making disaster in the sorounding area in the rainy season. The drinage water enters into the sorounding house's. \n", '5- The proposal for secondary stream in  HSR sector 3 is unscientific and illogical.  This is only going to create a bigger disaster given the design and location of the secondary stream and will not solve any problem.  Appears like either enough thought process has not gone in while designing or the design is made in the interest of greedy bureaucrats and rally Estate people. Close to 100 objections have been made in this regard. \n']</t>
+    <t>["7- Blocked Rajakaluve is making disaster in the sorounding area in the rainy season. The drinage water enters into the sorounding house's. \n", '5- The proposal for secondary stream in  HSR sector 3 is unscientific and illogical.  This is only going to create a bigger disaster given the design and location of the secondary stream and will not solve any problem.  Appears like either enough thought process has not gone in while designing or the design is made in the interest of greedy bureaucrats and rally Estate people. Close to 100 objections have been made in this regard. \n', '11- Build roads that absorb water.it is helpful to manage water in roads in rainy season\n']</t>
   </si>
   <si>
     <t>['9- Action needed on land encroachment\n']</t>
@@ -202,20 +180,16 @@
     <t>['15- The hazard risk assessment does not identify terrorist attack as a risk. \n']</t>
   </si>
   <si>
-    <t xml:space="preserve">1- Happy with the plan but implementation is very important.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8- personally, I do not feel that the city is well equipped with enough rescue team nor plan in the time of a disaster. eg, even when the rain had played havoc it was very evident that there is no planning but just buildings coming up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13- Rain water drains should be monitored.  Water stagnated areas should be identified.  Lakes enchrochers should be punished severely.  Roads and buildings should be accessed by Fire fighting vehicles
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14- The plan is good...please give approvals only to construction which obey the rules for safety
-</t>
+    <t>{'response': '1- Happy with the plan but implementation is very important.\n', 'score': 0.3603179343985956}</t>
+  </si>
+  <si>
+    <t>{'response': '8- personally, I do not feel that the city is well equipped with enough rescue team nor plan in the time of a disaster. eg, even when the rain had played havoc it was very evident that there is no planning but just buildings coming up.\n', 'score': 0.6256876474745312}</t>
+  </si>
+  <si>
+    <t>{'response': '13- Rain water drains should be monitored.  Water stagnated areas should be identified.  Lakes enchrochers should be punished severely.  Roads and buildings should be accessed by Fire fighting vehicles\n', 'score': 0.6223193149494272}</t>
+  </si>
+  <si>
+    <t>{'response': '14- The plan is good...please give approvals only to construction which obey the rules for safety\n', 'score': 0.4782528987463542}</t>
   </si>
   <si>
     <t xml:space="preserve">Bengaluru’s education needs are met for primary and higher education
@@ -241,16 +215,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">17- First of all education system must change I think it is the solution for all the problems.we must change the way of teaching and the syllabus(considering the present scope) for primary and secondary education
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22- To cater the healthcare problems, this city needs 4-5 world class medical colleges. These should produce around 1000 doctors minimum every year. Every govt hospital should be corruption free and should charge a amount which can be affordable to lower society of the city.  Govt should start a health insurance  for every resident of Bangalore by charging a minimal premium. This can bring down the health cost to govt and the people. Since not every person will be sick at the same time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32- Quality of Education needs to be improved
-</t>
+    <t>{'response': '17- First of all education system must change I think it is the solution for all the problems.we must change the way of teaching and the syllabus(considering the present scope) for primary and secondary education\n', 'score': 0.6725170989230987}</t>
+  </si>
+  <si>
+    <t>{'response': '22- To cater the healthcare problems, this city needs 4-5 world class medical colleges. These should produce around 1000 doctors minimum every year. Every govt hospital should be corruption free and should charge a amount which can be affordable to lower society of the city.  Govt should start a health insurance  for every resident of Bangalore by charging a minimal premium. This can bring down the health cost to govt and the people. Since not every person will be sick at the same time.\n', 'score': 0.5545200145643276}</t>
+  </si>
+  <si>
+    <t>{'response': '32- Quality of Education needs to be improved\n', 'score': 0.5857613234167562}</t>
   </si>
   <si>
     <t>['14- System is not good\n']</t>
@@ -274,180 +245,136 @@
     <t>['55- Education must be made affordable by capping the fees structure\n']</t>
   </si>
   <si>
-    <t xml:space="preserve">16- Please include a subject on(C.P.C.R)for the school kids.Which includes about first aid to be given to an accident victim.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Education is something which every kid in d society needs. But our society is such dat only ppl wit money get education. Y is d fee for schools so high in Bangalore pls make a change by 2031.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2- None of the above says anything about improving the quality of education in the govt schools.Sad. Increasing the number of schools is not going to solve the problem. One example is , in kadugodi area even a daily laborer is sending their kids to private schools as the quality of education in govt schools is not good.  Primary goal should be to increase the quality in the govt schools.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3- Besides just setting up of schools, There needs to be monitoring of what's being taught in the school. The curriculum needs to be more streamlined and focused with government schools having someone to oversee them. Such that all funds are being used correctly and that the fund are being received by the schools. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4- Govt schools don't exisit
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- Private schools should not be allowed to implement fees on their own. An educational body should be constituted and recommend the fees that can be charged.l
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6- In any city only privates schools are good not the government ones. Even though fees are high, quality of education provided is better than the government schools. This is my opinion. Some kids don't even know basic addition. So they can't be blamed. We need to get teachers trained too. Not just female teachers, but male teachers too. Nowadays, teachers don't get the respect that they should. Karnataka can follow the Delhi model wherein public schools are getting improved, also more kids are leaving private schools to join public schools. Improve the infrastructure of the government schools. Digitize all sorts of necessary processes both in government and in private. Education in karnataka is not merely equal to education in Bengaluru. Develop schools in the other districts as well. Don't make school children burden by  carrying such heavy bags. It would be better if this is implemented. Nowadays, school is not a place to learn, but to get a 10th certificate. Let all schools tie up with edu start-ups. Same goes to colleges and universities also. Let certain universities have a MOU with foreign universities. Truly speaking graduating from a VTU college is not worth it compared to NITs and IITs even though considering the fact that karnataka is an educational hub of India. Make the students industry ready. Improve research facilities. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7- Teachers have to be in schools
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8- Why are govt schools maintained bad. Why there is no effort in making better then private. Why let thrive private institutions rule the Roost in such a advance city?? Why Education has become business?? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9- Shoud make all the public goverment schools to same standard as equal to Pvt schools.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10- Govt should plan for transportation facilities to provide  all primary and higher education students above 1 kms. There should be free of cost.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11- The fee in private schools needs to be monitored by the government. As of now the fees are too high for no reason.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12- What is the performance level of the govt. schools? Are they satisfactory? Why are the govt. schools primarily for the poorer sections of the society?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13- Take care of government schools
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15- I am an active volunteer in the educational background and I've been to government schools on a regular basis for around 3 years to engage students in certain recreational activities and also outside the syllabus learning. I have observed that the government schools lacks: 1. complete infrastructure,  2. awareness about the importance of education among the students,  3. interest among teachers.   The first issue needs urgent attention as few schools lack toilets for students and thus creates an impact on their attendance.  There's also need for basic laboratory facilities so that the students learn science with the help of experiments under supervision. This creates interest among students to pursue the career of their choice.  There needs to be a well stacked library for the students so that they can read inspirational books to develop a good character and become a responsible citizen in the society.   The students should also be provided with facilities to support their extra-curricular activities like sports, dance, singing, art among others. This gives a great platform and confidence for the students to follow their passion.  The second issue is solved when we provide enough opportunities for the students by solving the first issue. The importance of education should be known to every student and their parents because lot of students drop out of school due to financial or social issues. This needs to addressed by counseling the parents and informing them about the facilities provided by government to promote education.  And the lack of interest among the teachers is a well known issue in government schools. This needs quick attention since a student learns from their teacher.  Teachers need to be selected based on merit and their interest for teaching. If this is done, the government is successful in promoting education for all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18- Apart from this there needs to be compulsory practice of cleanliness as well as good environmental practices to be done at school levels, educating children and in turn educating parents for a better education and a better Bangalore 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20- It is not enough if more Govt Schools are set up. Problem is no one including economically weaker sections of the society would like to send their children to Govt Schools. So quality of schools should be better. Environmental studies in greater detail should be essential part of curriculum. Children should be made aware of noise and air pollution. There can be incentive for children who walk to schools or use public transport as opposed to getting dropped by parents. This way children will become aware of using public transport. Parents too should be educated on environmental issues periodically.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21- Their should be a control over the fee structures of Colleges. The common people of bangalore can't afford the education nowadays 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25- Education management in government schools should be at par with private institutions. Replicate American methodology to improve government schools. Infrastructure should be improved by using JNuRm funds, adopt CBSE curriculum, train teachers, monitor with access control for Teachers, improve sports facilities in government schools, uniform and shoes should be freely given to children, neat and higenic etiquette to children, security, activities, online education should be introduced to government schools. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26- Good idea. This means access to quality education by everyone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27- Apart from having a sufficient number of schools accessible to all, it is really necessary to focus on quality so that public schools have more uniform standards, making it possible for children to neighbourhood schools thereby reducing traffic. It is also imperative to educate children about the history, language and culture of Bengaluru so that they are better integrated in the city unlike the current situation where there is a complete cultural and linguistic erosion. More effort needs to be made to make children citizens of the city who contribute to its betterment.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28- Ours is the worst education system as the students are under immense pressure only to score high marks .They are not focused on practical and logical knowledge and generally never encouraged on deep thinking and new ideas.Also good education is very expensive.An well educated society will definitely make a better world. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29- We have to make education affordable to common man with amenities to encourage sports etc apart from studies which is very expensive today
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30- Need to regulate the fees for pvt school as well, The education is like a business now. Need to have some cap on this
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31- How about the school fees. Parents who want to give good education to their children back out in sending them to good schools due to the fees charged by these institutions
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33- Instead of increasing the number of schools, focus should be on improving the quality of education in the current schools. To ensure teachers come to schools regularly and take the classes. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34- I hope these will be implemented. There is a need of competitive government schools. Every ward should at least one good government school.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35- I am part of a voluntary group that teaches science, Math and English to govt/community schools. The quality of teachers and education imparted is below the required standard. Stidents need a life cach who will change thir attitude towards life in general and learning will happen as a positive bye product.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37- The conditions of government schools are beyond pathetic.  It's not only about accessibility, it is also about the quality of education and a quality conditions of the schools.  You must pay attention and take into account increasing the funds to the government schools and put in place a system to monitor those funds are effectively utilised by the authorities of the schools.  Not everyone can afford private schools and hence the future of many children is at risk due to lack of quality education and health 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39- Good plan but also private schools fee annually 10 to 30%hike it is really a burden for parents even if both are working try to get to a standard less than 10% across all the private schools 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40- The fee structure is too high nowadays for school.  Please try to limit the school fees it's getting high year after year,  not everybody can afford the amount private schools are offering 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41- The statement or details at a superficial level might make sense but specific details and policies are required to implement this. How is BDA going to ensure playgrounds are provided when they themselves have sold these so called playgrounds for other private parties all these years? How are they going to ensure, such encroachment is prevented? How are they ensuring that all such facilities are provided equally and not as an eyewash?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43- There aren’t many options for children with special needs. Need a mandate for most of mainstream schools to include facilities for special needs as well. Also need monetary support from government and private institutions to support special needs children as its really expensive to support their needs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44- Education and Health needs Must be at very very low cost and the future is like the private schools shd start compete with govt schools.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45- Schools are there but is the curriculum right to teach empathy and social and ecological responsibility to children? We need to make sure we are bringing up responcible children who through mandatory social projects get involved on a daily basis. And yes make the schools simpler and more child friendly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46- Quality of governament schools should be improved and try to bring it to par with private schools
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47- The current education system starting from Primary to x &amp; then to XII today is commercialized and is a business. This needs to stop and true merit needs to be recognized. All Schools/Colleges/Institutions should be banned of any kind of donation. All Primary education in Bangalore should be made free across all levels &amp; fee structure should only be accepted from Standard 4 onwards. Private schools/colleges should also not be exempted from this rule. EDUCATION IS A RIGHT FOR EVERY CHILD AND SHOULD NOT GET COMMERCIALIZED. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48- Government schools need to be equipped with modern facilities and updated with technology. The standard of education needs to be raised. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49- Education institutions are seen as money making centers...give schools should be strong enough to compete with private school.. Rich n poor both should b able to afford same kind of education in the society.... teacher recruitment procedure should b changed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50- Education has become a business which is more profitable. Alternate education system should come up
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51- Upgrade government schools to at least to satisfaction level where one can breath easily and send their children to schools. Policy may be done to restrict fee structure of private schools. Encourage government employees to join their children to government schools and get tax exemption and other benefits. Educating government school children about the future opportunities in various sectors.  Link some of the volunteer companies to schools so that they can incorporate various programmes at schools.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52- The focus of the Education has to shift from information to creating interest. From competition to inclusion. Education system to be tweaked so that children learn and enjoy the process of learning rather than focussing on getting marks. This is required if we are really bothered about the future of our children and the future of our country.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53- Do we really need so many kinder gardens and primary schools. It is an burden on children as children as young as 2 years are put into care homes or kinder gardens. As an result more institutions are created for making money and are often industries or factories processing kids. On an average at least one of the married couple husband or wife will have an minimum qualification of graduation. Hence they can educate them at home until they are 5 or 6yrs old which is safe for parents and kids, it will discourage the greedy education industry, no risk of transport or crime or unhealthy food. So if the government comes up with an online certification or common examination centre where it can provide some assessments or grades for kids especially age 3 to 5 years annually and make it completely legal which will help them in entering primary schools. Many problems can be solved. An policy needs to be developed for home based education.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54- There needs to be a ceiling on school fees in private schools following the Indian syllabus
-</t>
+    <t>{'response': '16- Please include a subject on(C.P.C.R)for the school kids.Which includes about first aid to be given to an accident victim.\n', 'score': 0.45697240101079434}</t>
+  </si>
+  <si>
+    <t>{'response': '1- Education is something which every kid in d society needs. But our society is such dat only ppl wit money get education. Y is d fee for schools so high in Bangalore pls make a change by 2031.\n', 'score': 0.5720303175664261}</t>
+  </si>
+  <si>
+    <t>{'response': '2- None of the above says anything about improving the quality of education in the govt schools.Sad. Increasing the number of schools is not going to solve the problem. One example is , in kadugodi area even a daily laborer is sending their kids to private schools as the quality of education in govt schools is not good.  Primary goal should be to increase the quality in the govt schools.\n', 'score': 0.666713562643139}</t>
+  </si>
+  <si>
+    <t>{'response': "3- Besides just setting up of schools, There needs to be monitoring of what's being taught in the school. The curriculum needs to be more streamlined and focused with government schools having someone to oversee them. Such that all funds are being used correctly and that the fund are being received by the schools. \n", 'score': 0.6622525189620376}</t>
+  </si>
+  <si>
+    <t>{'response': "4- Govt schools don't exisit\n", 'score': 0.5215492593453563}</t>
+  </si>
+  <si>
+    <t>{'response': '5- Private schools should not be allowed to implement fees on their own. An educational body should be constituted and recommend the fees that can be charged.l\n', 'score': 0.6457274015796545}</t>
+  </si>
+  <si>
+    <t>{'response': "6- In any city only privates schools are good not the government ones. Even though fees are high, quality of education provided is better than the government schools. This is my opinion. Some kids don't even know basic addition. So they can't be blamed. We need to get teachers trained too. Not just female teachers, but male teachers too. Nowadays, teachers don't get the respect that they should. Karnataka can follow the Delhi model wherein public schools are getting improved, also more kids are leaving private schools to join public schools. Improve the infrastructure of the government schools. Digitize all sorts of necessary processes both in government and in private. Education in karnataka is not merely equal to education in Bengaluru. Develop schools in the other districts as well. Don't make school children burden by  carrying such heavy bags. It would be better if this is implemented. Nowadays, school is not a place to learn, but to get a 10th certificate. Let all schools tie up with edu start-ups. Same goes to colleges and universities also. Let certain universities have a MOU with foreign universities. Truly speaking graduating from a VTU college is not worth it compared to NITs and IITs even though considering the fact that karnataka is an educational hub of India. Make the students industry ready. Improve research facilities. \n", 'score': 0.7125694475991866}</t>
+  </si>
+  <si>
+    <t>{'response': '7- Teachers have to be in schools\n', 'score': 0.5227054303659098}</t>
+  </si>
+  <si>
+    <t>{'response': '8- Why are govt schools maintained bad. Why there is no effort in making better then private. Why let thrive private institutions rule the Roost in such a advance city?? Why Education has become business?? \n', 'score': 0.7399368098599405}</t>
+  </si>
+  <si>
+    <t>{'response': '9- Shoud make all the public goverment schools to same standard as equal to Pvt schools.\n', 'score': 0.6318763380528021}</t>
+  </si>
+  <si>
+    <t>{'response': '10- Govt should plan for transportation facilities to provide  all primary and higher education students above 1 kms. There should be free of cost.\n', 'score': 0.7145749215365299}</t>
+  </si>
+  <si>
+    <t>{'response': '11- The fee in private schools needs to be monitored by the government. As of now the fees are too high for no reason.\n', 'score': 0.5595677303316162}</t>
+  </si>
+  <si>
+    <t>{'response': '12- What is the performance level of the govt. schools? Are they satisfactory? Why are the govt. schools primarily for the poorer sections of the society?\n', 'score': 0.5241488386101412}</t>
+  </si>
+  <si>
+    <t>{'response': '13- Take care of government schools\n', 'score': 0.6409971793967181}</t>
+  </si>
+  <si>
+    <t>{'response': "15- I am an active volunteer in the educational background and I've been to government schools on a regular basis for around 3 years to engage students in certain recreational activities and also outside the syllabus learning. I have observed that the government schools lacks: 1. complete infrastructure,  2. awareness about the importance of education among the students,  3. interest among teachers.   The first issue needs urgent attention as few schools lack toilets for students and thus creates an impact on their attendance.  There's also need for basic laboratory facilities so that the students learn science with the help of experiments under supervision. This creates interest among students to pursue the career of their choice.  There needs to be a well stacked library for the students so that they can read inspirational books to develop a good character and become a responsible citizen in the society.   The students should also be provided with facilities to support their extra-curricular activities like sports, dance, singing, art among others. This gives a great platform and confidence for the students to follow their passion.  The second issue is solved when we provide enough opportunities for the students by solving the first issue. The importance of education should be known to every student and their parents because lot of students drop out of school due to financial or social issues. This needs to addressed by counseling the parents and informing them about the facilities provided by government to promote education.  And the lack of interest among the teachers is a well known issue in government schools. This needs quick attention since a student learns from their teacher.  Teachers need to be selected based on merit and their interest for teaching. If this is done, the government is successful in promoting education for all.\n", 'score': 0.7075483529259755}</t>
+  </si>
+  <si>
+    <t>{'response': '18- Apart from this there needs to be compulsory practice of cleanliness as well as good environmental practices to be done at school levels, educating children and in turn educating parents for a better education and a better Bangalore \n', 'score': 0.6528932556627356}</t>
+  </si>
+  <si>
+    <t>{'response': '20- It is not enough if more Govt Schools are set up. Problem is no one including economically weaker sections of the society would like to send their children to Govt Schools. So quality of schools should be better. Environmental studies in greater detail should be essential part of curriculum. Children should be made aware of noise and air pollution. There can be incentive for children who walk to schools or use public transport as opposed to getting dropped by parents. This way children will become aware of using public transport. Parents too should be educated on environmental issues periodically.\n', 'score': 0.7247867023928124}</t>
+  </si>
+  <si>
+    <t>{'response': "21- Their should be a control over the fee structures of Colleges. The common people of bangalore can't afford the education nowadays \n", 'score': 0.5629830899732878}</t>
+  </si>
+  <si>
+    <t>{'response': '25- Education management in government schools should be at par with private institutions. Replicate American methodology to improve government schools. Infrastructure should be improved by using JNuRm funds, adopt CBSE curriculum, train teachers, monitor with access control for Teachers, improve sports facilities in government schools, uniform and shoes should be freely given to children, neat and higenic etiquette to children, security, activities, online education should be introduced to government schools. \n', 'score': 0.7020082602469441}</t>
+  </si>
+  <si>
+    <t>{'response': '26- Good idea. This means access to quality education by everyone.\n', 'score': 0.6048112255937006}</t>
+  </si>
+  <si>
+    <t>{'response': '27- Apart from having a sufficient number of schools accessible to all, it is really necessary to focus on quality so that public schools have more uniform standards, making it possible for children to neighbourhood schools thereby reducing traffic. It is also imperative to educate children about the history, language and culture of Bengaluru so that they are better integrated in the city unlike the current situation where there is a complete cultural and linguistic erosion. More effort needs to be made to make children citizens of the city who contribute to its betterment.\n', 'score': 0.74407324111983}</t>
+  </si>
+  <si>
+    <t>{'response': '28- Ours is the worst education system as the students are under immense pressure only to score high marks .They are not focused on practical and logical knowledge and generally never encouraged on deep thinking and new ideas.Also good education is very expensive.An well educated society will definitely make a better world. \n', 'score': 0.6121654114186612}</t>
+  </si>
+  <si>
+    <t>{'response': '29- We have to make education affordable to common man with amenities to encourage sports etc apart from studies which is very expensive today\n', 'score': 0.685899611945862}</t>
+  </si>
+  <si>
+    <t>{'response': '30- Need to regulate the fees for pvt school as well, The education is like a business now. Need to have some cap on this\n', 'score': 0.5662703152719492}</t>
+  </si>
+  <si>
+    <t>{'response': '31- How about the school fees. Parents who want to give good education to their children back out in sending them to good schools due to the fees charged by these institutions\n', 'score': 0.7086547071486544}</t>
+  </si>
+  <si>
+    <t>{'response': '33- Instead of increasing the number of schools, focus should be on improving the quality of education in the current schools. To ensure teachers come to schools regularly and take the classes. \n', 'score': 0.6962509382462455}</t>
+  </si>
+  <si>
+    <t>{'response': '34- I hope these will be implemented. There is a need of competitive government schools. Every ward should at least one good government school.\n', 'score': 0.5184507682122522}</t>
+  </si>
+  <si>
+    <t>{'response': '35- I am part of a voluntary group that teaches science, Math and English to govt/community schools. The quality of teachers and education imparted is below the required standard. Stidents need a life cach who will change thir attitude towards life in general and learning will happen as a positive bye product.\n', 'score': 0.6362837917631944}</t>
+  </si>
+  <si>
+    <t>{'response': "37- The conditions of government schools are beyond pathetic.  It's not only about accessibility, it is also about the quality of education and a quality conditions of the schools.  You must pay attention and take into account increasing the funds to the government schools and put in place a system to monitor those funds are effectively utilised by the authorities of the schools.  Not everyone can afford private schools and hence the future of many children is at risk due to lack of quality education and health \n", 'score': 0.7109617985955444}</t>
+  </si>
+  <si>
+    <t>{'response': '39- Good plan but also private schools fee annually 10 to 30%hike it is really a burden for parents even if both are working try to get to a standard less than 10% across all the private schools \n', 'score': 0.6634726413885872}</t>
+  </si>
+  <si>
+    <t>{'response': "40- The fee structure is too high nowadays for school.  Please try to limit the school fees it's getting high year after year,  not everybody can afford the amount private schools are offering \n", 'score': 0.6539595656428774}</t>
+  </si>
+  <si>
+    <t>{'response': '41- The statement or details at a superficial level might make sense but specific details and policies are required to implement this. How is BDA going to ensure playgrounds are provided when they themselves have sold these so called playgrounds for other private parties all these years? How are they going to ensure, such encroachment is prevented? How are they ensuring that all such facilities are provided equally and not as an eyewash?\n', 'score': 0.6727795646375881}</t>
+  </si>
+  <si>
+    <t>{'response': '43- There aren’t many options for children with special needs. Need a mandate for most of mainstream schools to include facilities for special needs as well. Also need monetary support from government and private institutions to support special needs children as its really expensive to support their needs.\n', 'score': 0.7212025078963892}</t>
+  </si>
+  <si>
+    <t>{'response': '44- Education and Health needs Must be at very very low cost and the future is like the private schools shd start compete with govt schools.\n', 'score': 0.6718454502978392}</t>
+  </si>
+  <si>
+    <t>{'response': '45- Schools are there but is the curriculum right to teach empathy and social and ecological responsibility to children? We need to make sure we are bringing up responcible children who through mandatory social projects get involved on a daily basis. And yes make the schools simpler and more child friendly.\n', 'score': 0.7308273353969839}</t>
+  </si>
+  <si>
+    <t>{'response': '46- Quality of governament schools should be improved and try to bring it to par with private schools\n', 'score': 0.6111337715441344}</t>
+  </si>
+  <si>
+    <t>{'response': '47- The current education system starting from Primary to x &amp; then to XII today is commercialized and is a business. This needs to stop and true merit needs to be recognized. All Schools/Colleges/Institutions should be banned of any kind of donation. All Primary education in Bangalore should be made free across all levels &amp; fee structure should only be accepted from Standard 4 onwards. Private schools/colleges should also not be exempted from this rule. EDUCATION IS A RIGHT FOR EVERY CHILD AND SHOULD NOT GET COMMERCIALIZED. \n', 'score': 0.5116110550663912}</t>
+  </si>
+  <si>
+    <t>{'response': '48- Government schools need to be equipped with modern facilities and updated with technology. The standard of education needs to be raised. \n', 'score': 0.722879284335694}</t>
+  </si>
+  <si>
+    <t>{'response': '49- Education institutions are seen as money making centers...give schools should be strong enough to compete with private school.. Rich n poor both should b able to afford same kind of education in the society.... teacher recruitment procedure should b changed\n', 'score': 0.7443398240089827}</t>
+  </si>
+  <si>
+    <t>{'response': '50- Education has become a business which is more profitable. Alternate education system should come up\n', 'score': 0.6522006227309186}</t>
+  </si>
+  <si>
+    <t>{'response': '51- Upgrade government schools to at least to satisfaction level where one can breath easily and send their children to schools. Policy may be done to restrict fee structure of private schools. Encourage government employees to join their children to government schools and get tax exemption and other benefits. Educating government school children about the future opportunities in various sectors.  Link some of the volunteer companies to schools so that they can incorporate various programmes at schools.\n', 'score': 0.710860558879521}</t>
+  </si>
+  <si>
+    <t>{'response': '52- The focus of the Education has to shift from information to creating interest. From competition to inclusion. Education system to be tweaked so that children learn and enjoy the process of learning rather than focussing on getting marks. This is required if we are really bothered about the future of our children and the future of our country.\n', 'score': 0.6090597509581723}</t>
+  </si>
+  <si>
+    <t>{'response': '53- Do we really need so many kinder gardens and primary schools. It is an burden on children as children as young as 2 years are put into care homes or kinder gardens. As an result more institutions are created for making money and are often industries or factories processing kids. On an average at least one of the married couple husband or wife will have an minimum qualification of graduation. Hence they can educate them at home until they are 5 or 6yrs old which is safe for parents and kids, it will discourage the greedy education industry, no risk of transport or crime or unhealthy food. So if the government comes up with an online certification or common examination centre where it can provide some assessments or grades for kids especially age 3 to 5 years annually and make it completely legal which will help them in entering primary schools. Many problems can be solved. An policy needs to be developed for home based education.\n', 'score': 0.6814753477979077}</t>
+  </si>
+  <si>
+    <t>{'response': '54- There needs to be a ceiling on school fees in private schools following the Indian syllabus\n', 'score': 0.6700956997881945}</t>
   </si>
   <si>
     <t xml:space="preserve">All heavily polluting industries will be moved outside the city
@@ -501,122 +428,97 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">3- All plants and trees needs to be tracked. Plan alternative options instead of cutting trees in City. The lung space is reducing heavily. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20- Move the polluting industries from areas such as peenya to further places designated for them away from populated areas
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21- All roads should be sand free dry. Sand is causing air pollution. Manholes should be designed in a way it is in level with the road, no elevation or depression of the man holes. Too many two wheeler accidents and death is caused by un even level of the man holes on the roads. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22- All pollutants from Industrial waste need comphrensive outlook. Electric Autos and all vehicles mandatory in next 5 years. Household waste management, BBMP need to follow NGT guideliness. Rules to be created by govt and implementation to be done by right monitoring authorities.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24- There are places still in core city of Bangalore which needs immediate action on environment management and caring
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25- Every single citizen should be educated about the Global warming. Use of plastic bags should be banned completely, burning plastics &amp; tires should also be banned. Old vehicles which produces lot of C02 should be scraped. Bycycle should be distributed at all metro stations to reduce the usage of other transports. All the polluting factories should be monitored for any chemical discharge into the lakes or rivers. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32- The maximum impact to nature and environmental factors is due to the unhandled waste from the posters, ads, paper flyers all littered all around the city. We need a law against littering in the public spaces. We build beautiful bridges and the pillars are full of movie posters and political ads. The trees are also not spared. People put up pins and nails on trees to put there posters of PG ads and other things. Can we please have our city back, beautiful and green and clean without all these litter every where we see.?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37- These are ideals cannot see any movement on the ground ideally we should do these things but lakes are still getting encroached heavily polluting industries are still pumping effluents to lakes and other water bodies.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41- Lands of lakes should be reclaimed in full force. Also the reclaimed land has to be turned back into lakes and the water catchment area of the lakes have to be taken over and turned green. This has to happen by force else water will be a major crisis for Bangalore in another 2 years. If we think about using force now we will be left with a city with no water
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42- Need to keep the city Clean
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48- highly polluted city 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62- Everything is good but there should be compulsory CSR responsibility given to every company residing in Bengaluru for managing the environment in the city here by reducing the stress for the BBMP to look after each and everything
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69- While all of this sounds great on paper, implementation has always been an issue. The preparation for a Master Plan for the future must reflect in the attitudes of the authorities in the present and the authorities currently seem hell bent on making decisions that are not in favour of the ecology and aesthetics of the city.  The rampant construction of skywalks in the city is a case in point. These skywalks serve more as advertisement platforms than public utilities.  Also, integration of public transport in terms of accessibility and convenience goes a long way in incentivising the population to forego their private vehicles.   The authorities have completely neglected this factor while deciding the location of the Cantonment Metro Station despite many valid counters to their technical arguments by select and credible individuals from the society.  The Kempegowda International Airport is 11 years old but we still don’t have a fully functional Metro/Rail system traversing the 40 km distance from the city to the airport. Reliance on private vehicles to reach the airport is expected in such a situation. However, the authorities are more interested in widening Jaymahal Road by removing it’s green cover instead of fast tracking and prioritising the Airport Metro Line.  Transplantation of trees saves the trees. However, it leaves their former/original location bereft of the benefits of their presence and hence causes immense ecological damage.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87- Bangalore has lost 80% of It's greenery.  Where there is a will there is a way, we can definitely restore the greenery. You need to fix a date and begin the awareness campaign 6 months earlier so there is enough hype and awareness is created for all to participate. Make lakhs of saplings available and start a "each plant a tree" campaign. In 10 years time a lot of greenery will be restored.   Also if the land around Airport can be beautifully landscaped, the entire City should have such landscaping. Let each builder take up the job of landscaping a few areas, in return the govt can offer them advertising space such that it doesn't spoil the beauty of the landscaped area.   Also we see so many illegal bills stuck all over the city especially flyover pillars. Make it illegal and fine those companies that advertise on walls. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97- Do not make the situation that are facing big city like Bombay.... Dehil 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100- Plant more trees in the bhanergatta forests and make all the bridges green by introducing more of hanging plants. Industries into more of pollution shuld be asd to pay heavy penalty and asd to be shifted to the outskirts....penalty shuld be nlmade compulsory to any industry within and outskirts of banglore.... The lakes in the city must be cleaned and shuld take enough preventions that they do not get polluted again after cleaning 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116- The 2.2% forested area estimated to be in the Bangalore urban region is absurdly optimistic, and of this most is outside the core area. Look at the Banerghata National Park for an illustration of the problem: its entire north-eastern and northern boundaries are densely built-up right to the park boundary. The BDA's approach to green cover (pg 79) is simply copied and pasted from a best practice elsewhere to give a semblance of concern, as the commercial zoning currently (mal)practiced recognises no need for ever a ward green space. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121- Environment also means the how the city looks to people- currently ministers and other high ranked officials deface the looks of this city by putting up illegal wooden hoarding everywhere. This is criminal. Sometimes these hoardings are so much in your way that it causes inconvenience to a common man in his/her day-to-day life. This must stop. Levy heavy taxes/charges on these hoardings. Why can't we be like any other international country. They do not use such illegal and ugly looking things in their cities, why should we?, they respect their citizens, do we? This will be a major change in my opinion and restore Bangalore's beauty. A STRICT RULE TO ERADICATE ALL POLITICAL, NON-POLITICAL BANNERS FROM OUR LOVELY BANGALORE CITY. Let us set an example.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139- There is no clear mandate from where citizens can access data. The scare in Delhi and Mumbai is a clear lesson for urban developers that incessant development without planning will have an adverse affect on the economy sooner or later.   First and foremost, we need real time monitoring systems that can be accessed online. This will ensure accountability.   Cycling and renewables needs a focus in the city. Bangalore is one of those cities in our country which can easily be converted to the ways of cycling with minimal effort. We need cycling lanes and public sharing systems. The city needs docking points so that people can dock their cycles effectively. There should be days when vehicular traffic is limited to cycles (for healthy people). This will promote a new kind of culture, and will benefit the city in the long run.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149- Many of the building construction are illegal. Only Bangalore was concentrated for development and many of the projects should have been moved to other cities. Over population and illegal construction and cutting down trees, no waste management. All these issue needs to be addressed. 1. All the lakes should be rejuvenated.  2. No more projects in Bangalore, convince the company to open in Mysore or any other cities.  3. Promote e bicycle, since the cost of living near to office is high we stay far and use bike or car. If cost of living reduced we can stay near to office and go by bicycle it's healthy and good for environment.  I am happy to suggest and participate in any initiative. Feel free to reach out at ananda.palani@gmail.com 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157- Why it doesn’t shook our conscious to see our lakes disappear and tree cover vanish? The city that gave us so much, we took away everything from it in just 2 decades. Is there no end to human greed? The air quality index has broken the scale to worst and still administration is busy minting money by shielding land/sand mafia. We have only one earth, one motherland  , one hometown... let’s get together and we can bring back the glorious days. Don’t let us down please. Even poorer countries score better than us in environmentally sustainable development of infrastructure. Don’t make it ghost city. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158- Banning of setting fire to dry waste (dry leaves, paper, garbage). I have complained many times on I change my city app. The regular offenders being the Government Institutions and the BBMP Garbage Contractors/Handlers.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172- The available resources like parks, lakes, encroachments, which are not maintained are not mentioned, how they will be rejuvenated and or returned back to its natural state. Environment and other aspects of the city go hand in hand and needs to be considered together.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186- First, for tree planting, There needs to be a plan based on population growth expected, increase in pollution due to transportation usage, Ward wise plan for the same.   Second, The green area cannot be only on the peripheries. They have to be evenly distributed throughout the city to have an impact.   Third, flyover and metro pillars need to employ vertical gardens.   Fourth, dust and sand cleaning needs to be implemented using machines that are used internationally.   Fifth, Desilting and cleaning of lakes and interconnectivity of lakes needs to be introduced if not already existent. Flooding of low lying areas can be dramatically reduced if these are implemented.   Sixth, charging stations cannot be small establishments and at localised points. They need to be interconnected at metro stations, malls, airport.    Seventh, garbage disposal and waste management activities have to be carried out in the night to reduce impact on traffic and decongest roads during peak work hours.   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188- Nice vision but practicality seems lacking... how are you going to move heavy polluting industries? Why not start with things like banning the heavily polluting buses and requiring all taxis and autos to run on cng.  Solar... ok but storage is more important. How about stopping the burning of leaves and garbage?  Heavy fines? Enforcement of existing laws?
-</t>
+    <t>{'response': '3- All plants and trees needs to be tracked. Plan alternative options instead of cutting trees in City. The lung space is reducing heavily. \n', 'score': 0.48337786798227866}</t>
+  </si>
+  <si>
+    <t>{'response': '20- Move the polluting industries from areas such as peenya to further places designated for them away from populated areas\n', 'score': 0.7338903049076254}</t>
+  </si>
+  <si>
+    <t>{'response': '21- All roads should be sand free dry. Sand is causing air pollution. Manholes should be designed in a way it is in level with the road, no elevation or depression of the man holes. Too many two wheeler accidents and death is caused by un even level of the man holes on the roads. \n', 'score': 0.4676186427349412}</t>
+  </si>
+  <si>
+    <t>{'response': '22- All pollutants from Industrial waste need comphrensive outlook. Electric Autos and all vehicles mandatory in next 5 years. Household waste management, BBMP need to follow NGT guideliness. Rules to be created by govt and implementation to be done by right monitoring authorities.\n', 'score': 0.5040070349728047}</t>
+  </si>
+  <si>
+    <t>{'response': '24- There are places still in core city of Bangalore which needs immediate action on environment management and caring\n', 'score': 0.49625643250401685}</t>
+  </si>
+  <si>
+    <t>{'response': '25- Every single citizen should be educated about the Global warming. Use of plastic bags should be banned completely, burning plastics &amp; tires should also be banned. Old vehicles which produces lot of C02 should be scraped. Bycycle should be distributed at all metro stations to reduce the usage of other transports. All the polluting factories should be monitored for any chemical discharge into the lakes or rivers. \n', 'score': 0.637491775943475}</t>
+  </si>
+  <si>
+    <t>{'response': '32- The maximum impact to nature and environmental factors is due to the unhandled waste from the posters, ads, paper flyers all littered all around the city. We need a law against littering in the public spaces. We build beautiful bridges and the pillars are full of movie posters and political ads. The trees are also not spared. People put up pins and nails on trees to put there posters of PG ads and other things. Can we please have our city back, beautiful and green and clean without all these litter every where we see.?\n', 'score': 0.5601808077914753}</t>
+  </si>
+  <si>
+    <t>{'response': '37- These are ideals cannot see any movement on the ground ideally we should do these things but lakes are still getting encroached heavily polluting industries are still pumping effluents to lakes and other water bodies.\n', 'score': 0.6927411168904972}</t>
+  </si>
+  <si>
+    <t>{'response': '41- Lands of lakes should be reclaimed in full force. Also the reclaimed land has to be turned back into lakes and the water catchment area of the lakes have to be taken over and turned green. This has to happen by force else water will be a major crisis for Bangalore in another 2 years. If we think about using force now we will be left with a city with no water\n', 'score': 0.5678190294402903}</t>
+  </si>
+  <si>
+    <t>{'response': '42- Need to keep the city Clean\n', 'score': 0.4084260277995812}</t>
+  </si>
+  <si>
+    <t>{'response': '48- highly polluted city \n', 'score': 0.5929966063321708}</t>
+  </si>
+  <si>
+    <t>{'response': '62- Everything is good but there should be compulsory CSR responsibility given to every company residing in Bengaluru for managing the environment in the city here by reducing the stress for the BBMP to look after each and everything\n', 'score': 0.4765149966136355}</t>
+  </si>
+  <si>
+    <t>{'response': '69- While all of this sounds great on paper, implementation has always been an issue. The preparation for a Master Plan for the future must reflect in the attitudes of the authorities in the present and the authorities currently seem hell bent on making decisions that are not in favour of the ecology and aesthetics of the city.  The rampant construction of skywalks in the city is a case in point. These skywalks serve more as advertisement platforms than public utilities.  Also, integration of public transport in terms of accessibility and convenience goes a long way in incentivising the population to forego their private vehicles.   The authorities have completely neglected this factor while deciding the location of the Cantonment Metro Station despite many valid counters to their technical arguments by select and credible individuals from the society.  The Kempegowda International Airport is 11 years old but we still don’t have a fully functional Metro/Rail system traversing the 40 km distance from the city to the airport. Reliance on private vehicles to reach the airport is expected in such a situation. However, the authorities are more interested in widening Jaymahal Road by removing it’s green cover instead of fast tracking and prioritising the Airport Metro Line.  Transplantation of trees saves the trees. However, it leaves their former/original location bereft of the benefits of their presence and hence causes immense ecological damage.\n', 'score': 0.5863465786220021}</t>
+  </si>
+  <si>
+    <t>{'response': '87- Bangalore has lost 80% of It\'s greenery.  Where there is a will there is a way, we can definitely restore the greenery. You need to fix a date and begin the awareness campaign 6 months earlier so there is enough hype and awareness is created for all to participate. Make lakhs of saplings available and start a "each plant a tree" campaign. In 10 years time a lot of greenery will be restored.   Also if the land around Airport can be beautifully landscaped, the entire City should have such landscaping. Let each builder take up the job of landscaping a few areas, in return the govt can offer them advertising space such that it doesn\'t spoil the beauty of the landscaped area.   Also we see so many illegal bills stuck all over the city especially flyover pillars. Make it illegal and fine those companies that advertise on walls. \n', 'score': 0.5525984763929022}</t>
+  </si>
+  <si>
+    <t>{'response': '97- Do not make the situation that are facing big city like Bombay.... Dehil \n', 'score': 0.44577179249839327}</t>
+  </si>
+  <si>
+    <t>{'response': '100- Plant more trees in the bhanergatta forests and make all the bridges green by introducing more of hanging plants. Industries into more of pollution shuld be asd to pay heavy penalty and asd to be shifted to the outskirts....penalty shuld be nlmade compulsory to any industry within and outskirts of banglore.... The lakes in the city must be cleaned and shuld take enough preventions that they do not get polluted again after cleaning \n', 'score': 0.6824512119791957}</t>
+  </si>
+  <si>
+    <t>{'response': "116- The 2.2% forested area estimated to be in the Bangalore urban region is absurdly optimistic, and of this most is outside the core area. Look at the Banerghata National Park for an illustration of the problem: its entire north-eastern and northern boundaries are densely built-up right to the park boundary. The BDA's approach to green cover (pg 79) is simply copied and pasted from a best practice elsewhere to give a semblance of concern, as the commercial zoning currently (mal)practiced recognises no need for ever a ward green space. \n", 'score': 0.5161612387240734}</t>
+  </si>
+  <si>
+    <t>{'response': "121- Environment also means the how the city looks to people- currently ministers and other high ranked officials deface the looks of this city by putting up illegal wooden hoarding everywhere. This is criminal. Sometimes these hoardings are so much in your way that it causes inconvenience to a common man in his/her day-to-day life. This must stop. Levy heavy taxes/charges on these hoardings. Why can't we be like any other international country. They do not use such illegal and ugly looking things in their cities, why should we?, they respect their citizens, do we? This will be a major change in my opinion and restore Bangalore's beauty. A STRICT RULE TO ERADICATE ALL POLITICAL, NON-POLITICAL BANNERS FROM OUR LOVELY BANGALORE CITY. Let us set an example.\n", 'score': 0.4958792752331791}</t>
+  </si>
+  <si>
+    <t>{'response': '139- There is no clear mandate from where citizens can access data. The scare in Delhi and Mumbai is a clear lesson for urban developers that incessant development without planning will have an adverse affect on the economy sooner or later.   First and foremost, we need real time monitoring systems that can be accessed online. This will ensure accountability.   Cycling and renewables needs a focus in the city. Bangalore is one of those cities in our country which can easily be converted to the ways of cycling with minimal effort. We need cycling lanes and public sharing systems. The city needs docking points so that people can dock their cycles effectively. There should be days when vehicular traffic is limited to cycles (for healthy people). This will promote a new kind of culture, and will benefit the city in the long run.\n', 'score': 0.5739326864384264}</t>
+  </si>
+  <si>
+    <t>{'response': "149- Many of the building construction are illegal. Only Bangalore was concentrated for development and many of the projects should have been moved to other cities. Over population and illegal construction and cutting down trees, no waste management. All these issue needs to be addressed. 1. All the lakes should be rejuvenated.  2. No more projects in Bangalore, convince the company to open in Mysore or any other cities.  3. Promote e bicycle, since the cost of living near to office is high we stay far and use bike or car. If cost of living reduced we can stay near to office and go by bicycle it's healthy and good for environment.  I am happy to suggest and participate in any initiative. Feel free to reach out at ananda.palani@gmail.com \n", 'score': 0.6041793238818595}</t>
+  </si>
+  <si>
+    <t>{'response': '157- Why it doesn’t shook our conscious to see our lakes disappear and tree cover vanish? The city that gave us so much, we took away everything from it in just 2 decades. Is there no end to human greed? The air quality index has broken the scale to worst and still administration is busy minting money by shielding land/sand mafia. We have only one earth, one motherland  , one hometown... let’s get together and we can bring back the glorious days. Don’t let us down please. Even poorer countries score better than us in environmentally sustainable development of infrastructure. Don’t make it ghost city. \n', 'score': 0.579424367482847}</t>
+  </si>
+  <si>
+    <t>{'response': '158- Banning of setting fire to dry waste (dry leaves, paper, garbage). I have complained many times on I change my city app. The regular offenders being the Government Institutions and the BBMP Garbage Contractors/Handlers.\n', 'score': 0.5478248819447106}</t>
+  </si>
+  <si>
+    <t>{'response': '172- The available resources like parks, lakes, encroachments, which are not maintained are not mentioned, how they will be rejuvenated and or returned back to its natural state. Environment and other aspects of the city go hand in hand and needs to be considered together.\n', 'score': 0.5451297937298627}</t>
+  </si>
+  <si>
+    <t>{'response': '186- First, for tree planting, There needs to be a plan based on population growth expected, increase in pollution due to transportation usage, Ward wise plan for the same.   Second, The green area cannot be only on the peripheries. They have to be evenly distributed throughout the city to have an impact.   Third, flyover and metro pillars need to employ vertical gardens.   Fourth, dust and sand cleaning needs to be implemented using machines that are used internationally.   Fifth, Desilting and cleaning of lakes and interconnectivity of lakes needs to be introduced if not already existent. Flooding of low lying areas can be dramatically reduced if these are implemented.   Sixth, charging stations cannot be small establishments and at localised points. They need to be interconnected at metro stations, malls, airport.    Seventh, garbage disposal and waste management activities have to be carried out in the night to reduce impact on traffic and decongest roads during peak work hours.   \n', 'score': 0.6275262100489556}</t>
+  </si>
+  <si>
+    <t>{'response': '188- Nice vision but practicality seems lacking... how are you going to move heavy polluting industries? Why not start with things like banning the heavily polluting buses and requiring all taxis and autos to run on cng.  Solar... ok but storage is more important. How about stopping the burning of leaves and garbage?  Heavy fines? Enforcement of existing laws?\n', 'score': 0.6401307543212295}</t>
   </si>
   <si>
     <t>['8- https://www.linkedin.com/pulse/5-things-saved-city-r-k-shenoy/  I had written this blog which highlights the top ideas, good to know many of these are being considered !\n']</t>
   </si>
   <si>
-    <t>['46- Please install many public garbage bins.\n', '9- Please have more dustbins\n']</t>
-  </si>
-  <si>
-    <t>['162- No good roads.very pathetic road from Doddamara to mahaveer orchids.there are many incidents happened of slip during rainy season and normal time also.\n', '10- Promote Terrace gardening along with all the above.. Will bring in additional 10% pollution free environment.. \n', '19- Wat about no. of vehicles on road? Wat about illegal constructions? Concrete city. \n', '152- I am very concerned about AIR POLLUTION. BDA can set up a small small AIR Purifier towers where pollution is high. \n', '67- Please put down commercialisation of residential areas with an iron hand. This will save our environment greatly and help children to study and play more. Please increase play area for children as at present even branded schools have small play area. Please ban honking by vehicles other than ambulances in the City. There is no need for honking with in the city. Please have one hour study for children every day on environment protection. Their parents are a spoilt lot who also need environmental education. Please Make it compulsory. \n', '114- Most of the public transport is on diesel and the vehicles keep emitting dark black smoke at a very high rate, be it normal bus, Volvo or autos. This needs serious attention as the day is not far when we will be shutdown like Delhi !  Just do not go by the air quality index as it is good due to high altitude and powerful wind which sweeps away these toxic fumes.\n', '102- You are playing with environment\n', '145- This sounds like a good plan, please implement \n', '144- Looks good \n', '29- Becoming worst than ever. Not good for Bangalore\n', '75- Rather than plantaing small plants which only serve the purpose of aesthetics please opt for big shrubs that grow upto a height of 10-12 feet in between dividers and under the flyovers..\n', '94- if we keep environment clean then we can have everything intact\n', '166- Environment to be sustained at all cost. More &amp; more tress to be planted to increase green cover\n', '18- More Gardens, Parks need to be developed if possible every area must have a big garden so that we save environment also this wil control pollution a bit.\n', '187- Water bodies, very critical to protect from pollution\n', '151- We need to educate people from the grassroot level aggressively regarding our mother earth and how to nurture it.\n', '54- Please check into the the increasing noise pollution specially in the housing areas. Many small garbage collection/ welding shops have opened up in Radha Reddy Layout, Doddakanelli, Off Sarjapur Road. One of them is next to Mana Jardin. \n', '107- What about the emission of the vehicles? What about age old vehicles causing problems?\n', '129- Asking people to cultivate and grow terrace garden in apartments and buildings. \n']</t>
-  </si>
-  <si>
-    <t>['117- Need lot improvement and it should be an agenda of development rather religion.\n', '38- Need to walk the talk\n', '108- Need to plan around the environment\n', '154- Need to come out with a comprehensive plan  for preventing flooding during monsoons...especially in the areas such as koramangala\n']</t>
+    <t>['9- Please have more dustbins\n', '46- Please install many public garbage bins.\n']</t>
+  </si>
+  <si>
+    <t>['144- Looks good \n', '10- Promote Terrace gardening along with all the above.. Will bring in additional 10% pollution free environment.. \n', '151- We need to educate people from the grassroot level aggressively regarding our mother earth and how to nurture it.\n', '54- Please check into the the increasing noise pollution specially in the housing areas. Many small garbage collection/ welding shops have opened up in Radha Reddy Layout, Doddakanelli, Off Sarjapur Road. One of them is next to Mana Jardin. \n', '107- What about the emission of the vehicles? What about age old vehicles causing problems?\n', '94- if we keep environment clean then we can have everything intact\n', '75- Rather than plantaing small plants which only serve the purpose of aesthetics please opt for big shrubs that grow upto a height of 10-12 feet in between dividers and under the flyovers..\n', '102- You are playing with environment\n', '129- Asking people to cultivate and grow terrace garden in apartments and buildings. \n', '152- I am very concerned about AIR POLLUTION. BDA can set up a small small AIR Purifier towers where pollution is high. \n', '18- More Gardens, Parks need to be developed if possible every area must have a big garden so that we save environment also this wil control pollution a bit.\n', '114- Most of the public transport is on diesel and the vehicles keep emitting dark black smoke at a very high rate, be it normal bus, Volvo or autos. This needs serious attention as the day is not far when we will be shutdown like Delhi !  Just do not go by the air quality index as it is good due to high altitude and powerful wind which sweeps away these toxic fumes.\n', '145- This sounds like a good plan, please implement \n', '162- No good roads.very pathetic road from Doddamara to mahaveer orchids.there are many incidents happened of slip during rainy season and normal time also.\n', '29- Becoming worst than ever. Not good for Bangalore\n', '19- Wat about no. of vehicles on road? Wat about illegal constructions? Concrete city. \n', '67- Please put down commercialisation of residential areas with an iron hand. This will save our environment greatly and help children to study and play more. Please increase play area for children as at present even branded schools have small play area. Please ban honking by vehicles other than ambulances in the City. There is no need for honking with in the city. Please have one hour study for children every day on environment protection. Their parents are a spoilt lot who also need environmental education. Please Make it compulsory. \n', '187- Water bodies, very critical to protect from pollution\n', '166- Environment to be sustained at all cost. More &amp; more tress to be planted to increase green cover\n']</t>
+  </si>
+  <si>
+    <t>['108- Need to plan around the environment\n', '154- Need to come out with a comprehensive plan  for preventing flooding during monsoons...especially in the areas such as koramangala\n', '38- Need to walk the talk\n', '117- Need lot improvement and it should be an agenda of development rather religion.\n']</t>
   </si>
   <si>
     <t>['50- Dissatisfied\n']</t>
   </si>
   <si>
-    <t>['53- Great initiative.I hope this gets implemented irrespective of which government rules.Let me know if i could be helpful.\n', '175- Proper town planning needs to be developed, in order to get the befit of the nature which we blessed with!!\n', '170- need to stand on words  \n', "168- More trees! More trees! I cannot emphasize more on this. I grew up in a Bangalore filled with trees. They've all disappeared in the name of real estate! We definitely need more trees!\n", '63- I wonder to what extent this would be implemented, most of these laws already exist and no one care. Its vital to take legal actions.\n', '113- More can b done .. \n', "99- I hope whatever things that has been mentioned here won't get limited to paper only. I hope it will honestly get implemented\n", "190- Proper information channel to let citizens know about these schemes to be provided. Also accountability to be transparent. Responsible person should be clear. So we can contact and get support and if they don't support what to be done next. Citizen should rate the work done by govt. \n"]</t>
+    <t>['53- Great initiative.I hope this gets implemented irrespective of which government rules.Let me know if i could be helpful.\n', '113- More can b done .. \n', '175- Proper town planning needs to be developed, in order to get the befit of the nature which we blessed with!!\n', "168- More trees! More trees! I cannot emphasize more on this. I grew up in a Bangalore filled with trees. They've all disappeared in the name of real estate! We definitely need more trees!\n", "99- I hope whatever things that has been mentioned here won't get limited to paper only. I hope it will honestly get implemented\n", "190- Proper information channel to let citizens know about these schemes to be provided. Also accountability to be transparent. Responsible person should be clear. So we can contact and get support and if they don't support what to be done next. Citizen should rate the work done by govt. \n", '170- need to stand on words  \n', '63- I wonder to what extent this would be implemented, most of these laws already exist and no one care. Its vital to take legal actions.\n']</t>
   </si>
   <si>
     <t>['65- Should stop New extension for construction of buildings.\n']</t>
@@ -625,10 +527,10 @@
     <t>['73- -Ban petrol and diesel 4-wheelers inside the city -Heavily subsidise electric vehicles (busses, cars, and two wheelers/bicycles ) -Build electric charging infrastructure -Make Rain water harvesting, electricity generation via solar panels mandatory for medium to large scale housing projects. \n']</t>
   </si>
   <si>
-    <t>['103- Should look at the sustainability of the plan \n', '125- Good plan should be realistic\n', '74- good plan\n']</t>
-  </si>
-  <si>
-    <t>['76- Good idea\n', '178- Good\n', '177- Good\n']</t>
+    <t>['74- good plan\n', '103- Should look at the sustainability of the plan \n', '125- Good plan should be realistic\n']</t>
+  </si>
+  <si>
+    <t>['177- Good\n', '178- Good\n', '76- Good idea\n']</t>
   </si>
   <si>
     <t>['78- Everyone should take responsibility \n']</t>
@@ -652,7 +554,7 @@
     <t>['123- Ban on chewing gums and any non bio degradable food item\n']</t>
   </si>
   <si>
-    <t>['183- Pollution at its height\n', '128- Pollution\n']</t>
+    <t>['128- Pollution\n', '183- Pollution at its height\n']</t>
   </si>
   <si>
     <t>['135- Tackle bio-degradable waste AT SOURCE. Make composting mandatory for all households and residential societies. Alleppey has done it. All plastic to be washed and collected separately and reused or recycled. Ban on plastic needs to be implemented as far as possible. Deter industries from plastic packaging. Stress on producing less waste. Educate society about segregation and waste management. You need everyone with you to succeed. Rest waste can be segregated and sorted more easily then. And no garbage collection on roads please!! Good luck!\n']</t>
@@ -661,448 +563,337 @@
     <t>['163- Yellachanahalli Lake has been landfilled by land mafia, and removed from Bangalore map by BDA, can you reinstate the lak\n']</t>
   </si>
   <si>
-    <t xml:space="preserve">16- The plan sounds very vague at the moment. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17- Sound like unrealistic aims for our governments. Battery operated cars have yet to reach that level of sophistication, though it is possible by 2031. Getting people to move on from petrol and diesel will be harder. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23- The park and road should be monitored by the Area Authority on monthly basis.They should install proper lighting and maintenance of the platform as well.Tress should be planted more and government should encourage citizen to use cycle more.They should even plan events for cycling and should have Cycle stand and Cycles on rent installed so that the pollution level can come down as well as the parking space issue can be solved.This should start with our Elite Government officials first,so that more and more people will be encouraged by this gesture.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35- Cutting of trees for absolutely unnecessary reasons makes me furious. The trees are cut for road widening purposes where after couple of metres, the road merges back into a 2 lane road. What is the point? And the size of the trees being cut are enormous (easily 30-50 years old)  and are done in the night so that it is not noticed by any one who is  against it. The amount of shade and protection that these trees give is so much that the road makes you feel like home itself. But so many trees are cut, no one feels to come out during the day time. There is no point in chanting sustainability, saving of water, pollution free, or whatever it is if trees are going to be cut down like this. And after all the cutting, I have never seen any replacement efforts and it hurts me as I cannot do anything alone. Are human beings so selfish that we only care about our present comforts? Are we so stupid that we can't see what this is doing to our earth? I don't mind contributing to make out planet a much greener place. Everyone is so selfish and greedy and lazy that no one wants to do work and only wants money. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40- The master plan look promising. But I hope there would be action. IT Projects getting approved in Brookfield area without concerned about traffic. Noise and pollution on the rise. Bad roads are one of the main reason for pollution. Govt can try odd/even formula at least once a week. Private vehicles(unpooled) are allowed at 10AM. Buses should connect IT park.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66- Because of the recent changes in Bangalore roads. The roads have been dug up... And many people have fallen sick most of 2017 or have faced breathing problems. Dust gathers everywhere and commuting doesnt only turn hard but next to impossible. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106- * maintainace of existing lakes,  bus depot should not acquire the lakes to construct it.   * no waste should be released to lakes,  * government should provide subsidies to buy electric vehicles and make mandatory electric vehicles for students ( cycle or electric vehicle),  * provide attractive exchange offers to buy electric vehicles( on old petrol/diesel vehicles)   * all public transport with in the city should be electric vehicles.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140- The BBMP and BDA are imposing rules but not taking appropriate steps to ensure everyone is adhering to it. Also people get away with not following the set regulations by bribing the authorities which needs to stop.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146- The environment must not just be limited to plants and lakes, animals form a huge component.Poor stray animals wander about( and it actually isnt their mistake, where are they gonna go if their.land is encroached by bangalorean in making houses and roads) They share this land as much as we do.It is painful to see these poor animals being chased away from almost anywhere.What happened to the green city? what happned to the nature of ayiti devo bhava? Where humbleness and generosity was part in each citizen?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173- The Decision is good, but only if administration and maintenance becomes really strict, without any corruption.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44- Please educate house members, especially house wives about waste segregation and not to tie  garbage in plastic cover and throw. Please ban plastic, before banning please provide ideas and alternatives for groceries packing . All the vendors in Prashanth Nagar areas have plastic.. worst !!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71- Implementation of plants should be done in every places as it enhances the reducing in the pollution also helps in reducing the health care problems which are associated with the pollition there are several new techniques for implementation purpose not one to discuss it's better to discuss by speaking with each other 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138- Waste water and other waste treatment plant should be there in the apartments.  Proper arrangements should be made in the factories for chemical waste disposal instead of channeling to the lakes and other water bodies.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150- No construction  n no industry waste flowing strictly into lake beds. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164- We need to make hard rules and should follow them without any if and but. We have do some public gathering to encourage people to contribute for the better environment. Even plastic ban in Bangalore, we can easily find that people are using it (even it has reduced but not fully). I am agree that only Gov body can do until people are not supporting so we have to make the Clean India Healthy India Campaign more frequently. We can start some program like Swach Bharat Ambassador for a particular area. It may help other people to participate in this actively. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167- Use of green technologies and solar power must be definitely looked into. We need to live a plastic free life and make sure we dont create waste at all thereby altogether avoiding waste disposal needs. Bio degradable way of life what is followed in Indian villages - eating on leaf plates for example - must be followed. Defecating or Urinating in public must be severely dealt with and people should be heavily fined. Use of public toilets should be encouraged in line with "Swacch Bharat" from PM Sri Narendra Modi. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2- Make plastic free Bangalore that will biggest contribution towards environment, Where free land is there government can lease out NGO or interested people to plant trees with financial aids so that it will create environment and creates job opportunities
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15- Complete disregard for the environment.  There should be more green spaces in the city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26- Bangalore is name for trees/plants, parks and beautiful lakes inside city. BBMP is cutting down all plants, covering all lakes in the name of development is not acceptable. We do not need such development where there is no good environment. Do not cut down trees and do development with the available resources only.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56- Adequate spaces for pavements, and to be raised so that vehicles are detered from using it. And lighting should be adequate.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124- These plans are very generic. There needs to be a timeline, budget, name of person accountable, place where it plans to be implemented.  Please provide us with an open forum where we CAN TRACK WHAT ALL IS GETTING IMPLEMENTED
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137- Why BBMP is allowing individual house owners to build houses wall to wall or even the builders without thinking of the parks and trees to be planted at home and apartments. Wherez the initiative to ncourage by providing grow bags and seeds to grow at home eg terrace garden, waste composting.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184- There are lot of open plots that have Parthenium and other Pollen plants which cause harm to health of everyone. We should have a rule of the owners cleaning their plots or BBMP charge them a nominal fee for the upkeep
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12- Vertical gardening and envirnmt structures must be mandated for tech parks..as the glass panes heats up the city..the encroached lakes must be tackled sternly..firstly BDA land allotment must be corruption free and must not allot lands which have issues
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43- In the masterplan these ideas looks good unless executed to the true core. We are seeing lakes dying, temperature rising due to warming effects caused by less greenery in our surroundings, Vehicles causing noise and air pollution leading to poor quality of breathable air around us. Not only municipality has to plant more trees it has to be an individual's responsibility to contribute towards the society.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118- We should try to reserve the lakes of the city 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169- Would like all the lakes to have adopted wet land cultivation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7- Water harvesting needs to be forced on people , just encouraging it wont help. Its ok to force if it is for common good.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58- Bangalore has more borewells and many residential property has more then one and in particular places borewells goes up to 2000 meters approx.it's not right way,as bottom surface get dry due to no water.government need to restrict with borewells after certain meters(*very strictly*) and need to supply water so as to save ground water and need to give awareness the advantages of solar energy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85- One of the major issue of continuous urbanisation is the decrease of green coverage. The concrete areas formed by the roofs, roads, parkings create heat islands. Putting trees on the roads might help but the main built area (flat roofs) remain. Why not encouraging green roofs and roof  top cultivation? Coupling this with grey water recycling, will tackle the issue of water scarcity to maintain a green cover.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96- Some major steps must be taken to avoid water wastage 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111- Unavailability of ground water is an issue of grave concern 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133- Use of Solar electric power, rain water harvesting and home composting should be encouraged. We need to educate public in these areas. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148- A larger comprehensive policy detail needs to be included. Planting trees is fine or water harvesting is also fine. How are we going to achieve them? What is the strategy behind the same? A lot of water is wasted just via drains. How do we use that to recharge our ground water levels? None of this is covered and just a statement does not help.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155- We also need to work on drainages water logging issue in Bangalore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182- Ensure that existing trees &amp; area around the trees are not covered with concrete and there is space for ground water to be replenished when it rains
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- Every new building should leave space to plant new trees. Care must be taken to see that they grow well. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6- Everything is fine but y is dat e1 after planning, u dig roads which r fine n make no roads for d people n coz of digging thrs so much of pollution n traffic n so much of health hazards for people staying thr n ppl commuting by dat road daily. Pls at least now plan properly don't just say Master Plan for name sake it shld ve sm serious good plan for d city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13- There should be more specifics of how are they going to achieve this. There should be some deadlines and some Targets associated with each item. 2031 will be too late for such measures as we have habit of working towards the end of Goal. Some Immediate steps should be taken to get Environment, Back on Track. Relive all the lakes, make all the lakes Non-Toxic, plant more trees around the Lake. Create Green Zones across the Cities, where there should be only plants and no other activities should happen. Work on providing 24*7 Electricity to all the offices and apartments, so that usage of Gensets can be minimized. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14- Not only plant but also monitor the growth of trees. Plant more Banyan for larger distribution of trees, and higher o2 content. Also, we have a huge termite problem so we are in dire need of tree doctors at every ward. Lastly, give more breathing space for trees and not choke it with cement. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27- Need to make strict rules for not chopping the trees.  BBMP keeps chopping /trimming the trees to keep the electric cables safe.  Instead they can do underground cabling.  Also,  instead of chopping huge trees,  they can use new technologies and relocate those trees.   Strictly plant 2trees each house.  (breadth and length should be mentioned in guidelines). 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30- The Green Belt is reducing by cutting trees and uncountable constructions. There is no plan to road but big builders make the apartment for possession.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31- How about planting trees with fruits like mango n al...this would b great if v are able to get food in the road 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33- Mainly have to stop cutting down the trees, if necessary try to replant those trees to another location where necessary. Contact me for planting tree sampling where necessary for joining hands.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39- The sooner you start the better it is because planting tree you need minimum of 5years for the tree to grow 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49- Instead of planting trees, trees are being cut. The proud thing of Bengaluru was trees and alot of trees which is being cut, Bengaluru is losing its pride,its temperature is changed only because of this, IT sectors other people are coming to B'lore and there's no much space left so trees are being cut but when you chop one tree its like taking alot of lives, I request you to please make B'lore as before. Please..
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52- 1. The newly planted tree saplings will take minimum 10 years to become a tree, so the aim should be to preserve the existing flora. 2. While planting new trees, the trees should be sturdy, in the sense, it should not succumb for mild wind guesses after 10 years.  3. At least 3:1 ratio of plantation should be done for each and every tree that is brought down in the name of development. 4. BDA should restrain from cutting trees just because someone built a shopping complex with the entrance placed in front of the tree. The shopping complex or any building should have been planned to avoid tree felling. 5. Everyone in the city-limit should take prior permission from the environment board before cutting any tree that is there in private or in public areas. The reason and plan of the building should be reviewed and maximum number of trees should be saved. Moreover, for every tree they cut, they should plant at least 2 tree saplings and show then as grown trees at the time of completing the construction project. To conclude: Aim should be to save the existing trees, rather than planting and waiting for another 10-15 years for them to become trees again. NOTE: BDA can consider relocation of trees with the latest technology and machines available and followed in few countries. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59- Although all these ideas are novel and can make an impact when implemented properly, no assurance what so ever has been given regarding this and the method of implementation is again up for speculation. Another major drawback is that these measures prevent future degradation but do not include any steps for rehabilitating the currently degrading environment
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60- It's important to educate as well as make people practice to plant trees only then will the city improve in. Environmental issues
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70- Tree planting has never been successful. Saplings are planted, money is spent and forgotten. They just wilt away after a few months due to lack of care.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72- Need to stop demolishing Bigg biggg trees,you can't plant a 1plant instead of 1bigg tree 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79- What is the meaning of "will plant more trees". Instead of that make mandatory to all who are living in Bangalore that they plant 40 trees and by the next 10 years 10 trees should grow to their full health  It should be their responsibility that they should take care of these plants. Those who can make survive 30+ plant reward them. I think there are 8 million people in Bangalore. Let's take 4 million are adult in this. So this count after 10 years  there would be 40 million tree at least. And this would be a great thing for this beautiful and important city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80- We should ideally stop new construction it will bring in more deforestation 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84- Just planting is not sufficient, sustaining the existing and maintaining the new plants is the necessary of the hour
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86- Plant small trees along all roads in around Bangalore and make a dense forest kind of plan so that city gets back it's old charm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89- If this follows exactly what has been mentioned here, they Bangalore will become a great city. I would just like to add a point regarding allocation of land space for new construction, there should be a gap to plant trees.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90- BDA has done good job in assessing environment. A simple and more effective solution would be to involve public in environment protection. Issue a Government Order mandating 1 Tree for every House with minimum of 1200 sq.ft area of land. Apartment complexes can also abide this rule. This will ensure quick implementation of tree cover, and reduce temperature, and increase water resources through rain fall.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91- Very good view and thoughts from the government. Cutting down of trees must be made difficult for everyone. The must be guidelines and rules regarding cutting of trees. Just planting new trees will not help unless the old ones are preserved.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92- regulate garbage. invest in recycling plants or outsource it. make it licensed and legal. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95- Tree planting should be made mandatory and vehicles should be made electrified, no more fossil fuel vehicles to be run on the roads
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98- Tree are cut irresponsibly,the trees must be planted in 1:10 ratio ,if one tree is cut in the same locality 10 trees must be planted ,the parks ,lakes must be surrounded by trees ,the roades must be maintained, proper drainage system must be in place , public toilet system must be in each locality,where not possible temporary modern public toilet system should be made , where public density is more and traffic is intense no vehicle zone or only pedestrian roads to be made ,like these issues must be addressed 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101- Making residents to mandate planting plants at home at least 1 plant per person
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105- Roof top gardens and Skywalker with plantation in localities that would have housing next to next, also in case of It company offices. Flats and row houses must mandatory have garden space with trees. BDA must increase public transport including metro and publicize lesser usage of personal cars. Also, prohibit the use of personal cars within Bangalore during peak office hours. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109- Please make it mandatory for all buildings to have rooftop gardens.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112- 1. Planting trees will just not help because they will be chopped of my the Govt for road widening Or for Metro Or any other reasons. Why cant we enable Vertical gardening. Its consumes less space and more effective. Infact the space below the Metro lane is now becoming a dumping yard. It can be well maintained too. 2. Maintaining the water beds should be thought off. we see the lakes are been converted to land . Eg: JP nagar Puttenhalli lake which was once a wide spread lake, today is making way for a big apartment to come up. Even with heavy rains this year, there were no signs of water in it. One side the govt passed order to demolish the buildings built on the water bed, and other side the govt itself is granting permissions for covering  the lake.   3.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115- Tree cutting should be kept to a minimum. During Road widening and flyover construction work, environmental aspects should have a greater say than the financial aspects. Buildings rather than a line of trees should be the first to go for any widening work and during budgeting this should be taken care of. A value has to be places on every tree just like market values are placed on property. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122- Make mandatory for residents/companies/corporates, in fact all to plant trees and also maintain them till they grow. Moving Polluted industries outside city does not look like a good idea, working around controlling and reducing them shd be part. Forest and water bodies shd not be touched but to be maintained. Solar power to be in use immediately and let go others for preservation. Very clear demarcation on usage of public property- roads for driving, footpaths for walking etc
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127- Pollution cannot be curbed just by installing tree, reduce the reduction of diesel cars for private use. Also make footpaths that support trees and store rainwater during raining season, this will replenish ground water, also ban bore-wells that are destroying the water table in Bangalore
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130- please stop cutting trees and Govt. should bring rules such as for every one new building permit they should have plant sapled and they should take care. Now they are giving subsidy on current, if solar plants is installed similarly they should give subsidy on current or water if they have a tree planted which is recorded by government for that individual house/building, so that people will concentrate on that.   Only planting saplings will not help all these ...it should be taken care properly, so that it grows big instead dying as saplings itself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131- Good to see planting tree point in the plan.. this was there earlier in 80s when one could see roadside plants with plant gaurds .. after IT revolution started, this became another photo op or event instead of being a regular activity by the concerned department. Please ensure no big trees are cut or if they have to, should be translocate else where. Have a immediate movement called "Bring back Greenery" and go on offensive planting trees as part of or outside this plan. Definite need of the hour else we will all choke to severe health problems and die
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132- Planting of trees is an ongoing task. During the tenure of Mr. Ramakrishna Hegde it was encouraged by distributing free saplings in each ward. People who had open spaces and interest in planting were encouraged.  Over a period of time, everyone is interested in deviating the plan of their homes and building complete space of the site. Hence, there is no space for planting. This is leading to lot of air pollution in many areas and thus causing health issues for many people residing in Bangalore.  If you want to still retain Bangalore as "Green City" tag, then now is the time to change it. Please take some serious look.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136- Trees should be planted all roads not only major roads.  Ensure minimum one tree per house should be achieved. Segregation of waste and wet waste should be converted in to manure and used for the plantation of trees
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142- Also make sure to plant a tree with every cut down of a tree used for houses and carpentry 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143- The idea is awesome but will it be really executed or possible in this corrupt state. Every new plan come comes with a heavy cost which end of the day is bared by common public. How? Means XYZ authority take cost approval from respective authorities in the name of development which includes bribe for each and every person. This needs to be properly mapped and monitored before executing any plans which will help to have cost effective and qualitative execution. Also there should be strict sessions/syllabus in every school.  Me being from Kerala State, but feel so bad hearing sarcastic fun on laughing at Bangalore being called garden of the city as it isn't really green. We should give this job to Army personals who are good and maintaining and managing green. Examples - HAL Stretch, Jalahalli Stretch, Ramaiah College Stretch, Brigade  Road towards Kormangala stretch. Entire road and area should beautiful like our Devanahalli Airport Road that should be our target and focus.   Clean all lakes esp sarjapur lake. If one cuts one trees they should plant 5 trees in return. There should be proper count and agreement on trees. Every garden should be properly managed.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156- Planting trees in every house should be mandatory 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160- Community and public toilets are an absolute need. The details of toilet construction is not sufficient enough. Please make adequate provision to build a four seat toilet complex every two km on main roads. A public private partnership initiative may be taken up in this regard.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171- make proper layout for residential area, every 2 Km square meter provide 1, 1 acre area park. Destroy all illegal buildings.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174- Plant trees of future use and which absorbs more pollution. Advice to plant flowering plants of local varieties rather costly foreign varieties on road sides. May plant tree species of long growing rather wider growing on roadsides and plant trees growing wider on roadsides which have less traffic. This samplings after planted have to be taken care until it grows for 2 years. Planting should be done before monsoon season arrival. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176- Many Places cutting the tree due to infrastructures development. Yes we need infrastructures but we have to do proper plan for this. (Dont cut the tree)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179- Make sure each house has one tree planted for themselves so to maintain the greenery from house, make sure the new layouts/roads are approved with proper dimensions to have enough space for plantation in front of their homes. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189- Should increase the green cover by planting more fruit bearing trees as it will help birds. Also water bodies must be protected and rain water harvesting made mandatory at specific layout level so as to make them serif sufficient for their water needs. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Please stop drying lakes and using it for buildings. Stop cutting trees.. it pains whenever i see anyone cutting any trees. The Bengaluru i lived 10 years ago was a paradise.. its been ruined coz of human greed. Please ban cutting any trees in and around bangalore
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11- This plan should be implemented now for next 15 years there will be a lot of population in Bengaluru. Please protect the nature in Bengaluru and do it now
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55- I really wish the promises made by the municipality will be executed. Bengaluru misses it's greenery!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82- Need to properly streamline all the projects and complete them within the deadline. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180- Not enough done for Bengaluru environment
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36- Even though a lot of effort is being done to improve the environment , we still have a filthy  environment. This is due to the indifference and ignorance of the public. We have to use a lot of publicity about achieving a clean and healthy place to live in. TV, Radio , Movie theaters,  all the Government offices, Hospitals, Schools and colleges can be used for conveying strong messages about the donts -like, littering, defecating, urinating, SPITTING,  in public places,  and  heavy fines have to be charged when rules are violated.  Even though  thin  plastic bags are banned shops and vendors are still using them.  Emission tests are not carried out by many vehicles .  How do they escape the scrutiny of the police! There are many BBMP buses emitting black smoke . There should be periodical checks .  Educationg the public is the first step . 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45- Please avoid using some expensive flower plant or ornamental plants. Try to use convenientional trees which which we used to plant in old Bangalore areas. Vertical gardening is also a good idea
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51- The problem with a democratic national is that the development plans for the next few decades look brilliant on paper. At the top level of hierarchy, the problems are jot down and addressed with a practical solution.  But it's equally hopeless when it comes to the execution as we move down in the hierarchy.  There needs to be a strict evaluation of the ongoing plans to curb the wrongdoings and also promote the need for development among the citizens so that the general public can enforce the same by being a part of it voluntarily.  Gone are the days where we sit idle and blame the government. If we need to see the changes around us, we need to change as well. Just wishing the government promotes active participation of citizens for the development of cities. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126- Please ban use of polybags and disposable cutlery. Road side hawkers attract IT population and have no proper disposal of garbage. Garbage of disposable and polythene goes in drains and on foot paths
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4- Chopping of trees should be stopped unless it's a matter of concern to life. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34- Banglore should go for strong trees than the exisiting thin and strongless trees breaks down when heavy rain fall.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47- there are ample trees being planted nor are there any proper maintenance of parks and lakes. some immense drives should be held to plant more trees along with tech parks every month(suggestion)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57- make it mandatory to plant trees by all the citizens around their houses. lake should be protected and proper sewage system should be maintained
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64- Planting more and more trees isn't a option anymore, it's become a necessity
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68- Their should small jungle in every part of bangalore the technique of this jungle is used by HAL where a small 10*20 place will be filled with trees and managed in such a way that their is no place inside by setting up of small mini size to huge trees in a orderly way this will fight pollution and save greenery
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77- Stop cutting trees, start growing trees
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88- Save trees
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104- Who will maintain the planted trees? Till now all the planted trees are died without no Maintanance and water supply
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110- Bangalore is especially known for its green art and named as garden city....so I request to plant trees along the road side,provide clean footpaths with benches and some decorative things like that which makes the city look beautiful...and also a request to not allow anyone spit chewing gums and pan and all
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134- Ensure each housing society has trees planted, roof top gardens and zero discharge
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147- Please do plant more trees and maintain the name given to us as a garden city 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153- Unsatisfied with the development and need to show intrest and improve the grenery plant the trees where it is required in every road with plan 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161- stop cutting the trees 1st
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181- Where is the space to plant trees, footpaths have been trimmed and will become non-existent with the expansion of road to accommodate more vehicles, electric poles, transformers and traffic signs. My opinion would be to have an lane entirely dedicated for pedestrians and trees. At least the minimum we can think of is having an elevated footpath in places of dense and dangerous traffic or if we are more kind and generous towards saving environment make elevated cycle tracks.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185- The garden city is becoming  hotter. More trees to be planted in boundaries of the layout,road sides and gardens.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28- Ban of Diesel Vehicles before the city becomes like the National Capital of India
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141- Don't increase urbanization.. Don't increase FAR for construction.  Move further out only and have wide signal free road to commute to city or metro extension
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165- Bangalore has been turned from garden city to garbage city
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61- Well, I think solar energy should be widely supported by many people.. and each house should start taking this very seriously. Tesla as a company is doing so much better to the earth through sustainable energy. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159- Needs more green spaces. Make use of solar energy in existing areas. Plant trees on the opposite sides of the electricity poles (better to channelize all wires underground). So trees can grow without being chopped off. Make open spaces in every ward, parks with trees a must!
-</t>
+    <t>{'response': '16- The plan sounds very vague at the moment. \n', 'score': 0.31281294995469827}</t>
+  </si>
+  <si>
+    <t>{'response': '17- Sound like unrealistic aims for our governments. Battery operated cars have yet to reach that level of sophistication, though it is possible by 2031. Getting people to move on from petrol and diesel will be harder. \n', 'score': 0.6190139212147658}</t>
+  </si>
+  <si>
+    <t>{'response': '23- The park and road should be monitored by the Area Authority on monthly basis.They should install proper lighting and maintenance of the platform as well.Tress should be planted more and government should encourage citizen to use cycle more.They should even plan events for cycling and should have Cycle stand and Cycles on rent installed so that the pollution level can come down as well as the parking space issue can be solved.This should start with our Elite Government officials first,so that more and more people will be encouraged by this gesture.\n', 'score': 0.5758833142270208}</t>
+  </si>
+  <si>
+    <t>{'response': "35- Cutting of trees for absolutely unnecessary reasons makes me furious. The trees are cut for road widening purposes where after couple of metres, the road merges back into a 2 lane road. What is the point? And the size of the trees being cut are enormous (easily 30-50 years old)  and are done in the night so that it is not noticed by any one who is  against it. The amount of shade and protection that these trees give is so much that the road makes you feel like home itself. But so many trees are cut, no one feels to come out during the day time. There is no point in chanting sustainability, saving of water, pollution free, or whatever it is if trees are going to be cut down like this. And after all the cutting, I have never seen any replacement efforts and it hurts me as I cannot do anything alone. Are human beings so selfish that we only care about our present comforts? Are we so stupid that we can't see what this is doing to our earth? I don't mind contributing to make out planet a much greener place. Everyone is so selfish and greedy and lazy that no one wants to do work and only wants money. \n", 'score': 0.3837617823678437}</t>
+  </si>
+  <si>
+    <t>{'response': '40- The master plan look promising. But I hope there would be action. IT Projects getting approved in Brookfield area without concerned about traffic. Noise and pollution on the rise. Bad roads are one of the main reason for pollution. Govt can try odd/even formula at least once a week. Private vehicles(unpooled) are allowed at 10AM. Buses should connect IT park.\n', 'score': 0.4851304785792646}</t>
+  </si>
+  <si>
+    <t>{'response': '66- Because of the recent changes in Bangalore roads. The roads have been dug up... And many people have fallen sick most of 2017 or have faced breathing problems. Dust gathers everywhere and commuting doesnt only turn hard but next to impossible. \n', 'score': 0.41534631129083177}</t>
+  </si>
+  <si>
+    <t>{'response': '106- * maintainace of existing lakes,  bus depot should not acquire the lakes to construct it.   * no waste should be released to lakes,  * government should provide subsidies to buy electric vehicles and make mandatory electric vehicles for students ( cycle or electric vehicle),  * provide attractive exchange offers to buy electric vehicles( on old petrol/diesel vehicles)   * all public transport with in the city should be electric vehicles.\n', 'score': 0.584290199069825}</t>
+  </si>
+  <si>
+    <t>{'response': '140- The BBMP and BDA are imposing rules but not taking appropriate steps to ensure everyone is adhering to it. Also people get away with not following the set regulations by bribing the authorities which needs to stop.\n', 'score': 0.3546586572603309}</t>
+  </si>
+  <si>
+    <t>{'response': '146- The environment must not just be limited to plants and lakes, animals form a huge component.Poor stray animals wander about( and it actually isnt their mistake, where are they gonna go if their.land is encroached by bangalorean in making houses and roads) They share this land as much as we do.It is painful to see these poor animals being chased away from almost anywhere.What happened to the green city? what happned to the nature of ayiti devo bhava? Where humbleness and generosity was part in each citizen?\n', 'score': 0.3861393681260231}</t>
+  </si>
+  <si>
+    <t>{'response': '173- The Decision is good, but only if administration and maintenance becomes really strict, without any corruption.\n', 'score': 0.32001403668878564}</t>
+  </si>
+  <si>
+    <t>{'response': '44- Please educate house members, especially house wives about waste segregation and not to tie  garbage in plastic cover and throw. Please ban plastic, before banning please provide ideas and alternatives for groceries packing . All the vendors in Prashanth Nagar areas have plastic.. worst !!\n', 'score': 0.5423781859644473}</t>
+  </si>
+  <si>
+    <t>{'response': "71- Implementation of plants should be done in every places as it enhances the reducing in the pollution also helps in reducing the health care problems which are associated with the pollition there are several new techniques for implementation purpose not one to discuss it's better to discuss by speaking with each other \n", 'score': 0.5901707524328476}</t>
+  </si>
+  <si>
+    <t>{'response': '138- Waste water and other waste treatment plant should be there in the apartments.  Proper arrangements should be made in the factories for chemical waste disposal instead of channeling to the lakes and other water bodies.\n', 'score': 0.6253592734416454}</t>
+  </si>
+  <si>
+    <t>{'response': '150- No construction  n no industry waste flowing strictly into lake beds. \n', 'score': 0.4905941987814242}</t>
+  </si>
+  <si>
+    <t>{'response': '164- We need to make hard rules and should follow them without any if and but. We have do some public gathering to encourage people to contribute for the better environment. Even plastic ban in Bangalore, we can easily find that people are using it (even it has reduced but not fully). I am agree that only Gov body can do until people are not supporting so we have to make the Clean India Healthy India Campaign more frequently. We can start some program like Swach Bharat Ambassador for a particular area. It may help other people to participate in this actively. \n', 'score': 0.548480655849855}</t>
+  </si>
+  <si>
+    <t>{'response': '167- Use of green technologies and solar power must be definitely looked into. We need to live a plastic free life and make sure we dont create waste at all thereby altogether avoiding waste disposal needs. Bio degradable way of life what is followed in Indian villages - eating on leaf plates for example - must be followed. Defecating or Urinating in public must be severely dealt with and people should be heavily fined. Use of public toilets should be encouraged in line with "Swacch Bharat" from PM Sri Narendra Modi. \n', 'score': 0.6232798127400554}</t>
+  </si>
+  <si>
+    <t>{'response': '2- Make plastic free Bangalore that will biggest contribution towards environment, Where free land is there government can lease out NGO or interested people to plant trees with financial aids so that it will create environment and creates job opportunities\n', 'score': 0.5366903644480723}</t>
+  </si>
+  <si>
+    <t>{'response': '15- Complete disregard for the environment.  There should be more green spaces in the city.\n', 'score': 0.5315892124806739}</t>
+  </si>
+  <si>
+    <t>{'response': '26- Bangalore is name for trees/plants, parks and beautiful lakes inside city. BBMP is cutting down all plants, covering all lakes in the name of development is not acceptable. We do not need such development where there is no good environment. Do not cut down trees and do development with the available resources only.\n', 'score': 0.5953718919177607}</t>
+  </si>
+  <si>
+    <t>{'response': '56- Adequate spaces for pavements, and to be raised so that vehicles are detered from using it. And lighting should be adequate.\n', 'score': 0.5070705841744232}</t>
+  </si>
+  <si>
+    <t>{'response': '124- These plans are very generic. There needs to be a timeline, budget, name of person accountable, place where it plans to be implemented.  Please provide us with an open forum where we CAN TRACK WHAT ALL IS GETTING IMPLEMENTED\n', 'score': 0.34414701058936326}</t>
+  </si>
+  <si>
+    <t>{'response': '137- Why BBMP is allowing individual house owners to build houses wall to wall or even the builders without thinking of the parks and trees to be planted at home and apartments. Wherez the initiative to ncourage by providing grow bags and seeds to grow at home eg terrace garden, waste composting.\n', 'score': 0.5779390320454647}</t>
+  </si>
+  <si>
+    <t>{'response': '184- There are lot of open plots that have Parthenium and other Pollen plants which cause harm to health of everyone. We should have a rule of the owners cleaning their plots or BBMP charge them a nominal fee for the upkeep\n', 'score': 0.5222775144290255}</t>
+  </si>
+  <si>
+    <t>{'response': '12- Vertical gardening and envirnmt structures must be mandated for tech parks..as the glass panes heats up the city..the encroached lakes must be tackled sternly..firstly BDA land allotment must be corruption free and must not allot lands which have issues\n', 'score': 0.47411412176427425}</t>
+  </si>
+  <si>
+    <t>{'response': "43- In the masterplan these ideas looks good unless executed to the true core. We are seeing lakes dying, temperature rising due to warming effects caused by less greenery in our surroundings, Vehicles causing noise and air pollution leading to poor quality of breathable air around us. Not only municipality has to plant more trees it has to be an individual's responsibility to contribute towards the society.\n", 'score': 0.48803853473600795}</t>
+  </si>
+  <si>
+    <t>{'response': '118- We should try to reserve the lakes of the city \n', 'score': 0.5522426589815854}</t>
+  </si>
+  <si>
+    <t>{'response': '169- Would like all the lakes to have adopted wet land cultivation.\n', 'score': 0.5026236492341065}</t>
+  </si>
+  <si>
+    <t>{'response': '7- Water harvesting needs to be forced on people , just encouraging it wont help. Its ok to force if it is for common good.\n', 'score': 0.6148023249539386}</t>
+  </si>
+  <si>
+    <t>{'response': "58- Bangalore has more borewells and many residential property has more then one and in particular places borewells goes up to 2000 meters approx.it's not right way,as bottom surface get dry due to no water.government need to restrict with borewells after certain meters(*very strictly*) and need to supply water so as to save ground water and need to give awareness the advantages of solar energy\n", 'score': 0.6106942759508206}</t>
+  </si>
+  <si>
+    <t>{'response': '85- One of the major issue of continuous urbanisation is the decrease of green coverage. The concrete areas formed by the roofs, roads, parkings create heat islands. Putting trees on the roads might help but the main built area (flat roofs) remain. Why not encouraging green roofs and roof  top cultivation? Coupling this with grey water recycling, will tackle the issue of water scarcity to maintain a green cover.\n', 'score': 0.575722114936218}</t>
+  </si>
+  <si>
+    <t>{'response': '96- Some major steps must be taken to avoid water wastage \n', 'score': 0.5281764017659116}</t>
+  </si>
+  <si>
+    <t>{'response': '111- Unavailability of ground water is an issue of grave concern \n', 'score': 0.44055795549888205}</t>
+  </si>
+  <si>
+    <t>{'response': '133- Use of Solar electric power, rain water harvesting and home composting should be encouraged. We need to educate public in these areas. \n', 'score': 0.7432393760290409}</t>
+  </si>
+  <si>
+    <t>{'response': '148- A larger comprehensive policy detail needs to be included. Planting trees is fine or water harvesting is also fine. How are we going to achieve them? What is the strategy behind the same? A lot of water is wasted just via drains. How do we use that to recharge our ground water levels? None of this is covered and just a statement does not help.\n', 'score': 0.5707592557524194}</t>
+  </si>
+  <si>
+    <t>{'response': '155- We also need to work on drainages water logging issue in Bangalore.\n', 'score': 0.5814699147511105}</t>
+  </si>
+  <si>
+    <t>{'response': '182- Ensure that existing trees &amp; area around the trees are not covered with concrete and there is space for ground water to be replenished when it rains\n', 'score': 0.5814492847785776}</t>
+  </si>
+  <si>
+    <t>{'response': '5- Every new building should leave space to plant new trees. Care must be taken to see that they grow well. \n', 'score': 0.5516501223604487}</t>
+  </si>
+  <si>
+    <t>{'response': "6- Everything is fine but y is dat e1 after planning, u dig roads which r fine n make no roads for d people n coz of digging thrs so much of pollution n traffic n so much of health hazards for people staying thr n ppl commuting by dat road daily. Pls at least now plan properly don't just say Master Plan for name sake it shld ve sm serious good plan for d city.\n", 'score': 0.38683729055000543}</t>
+  </si>
+  <si>
+    <t>{'response': '13- There should be more specifics of how are they going to achieve this. There should be some deadlines and some Targets associated with each item. 2031 will be too late for such measures as we have habit of working towards the end of Goal. Some Immediate steps should be taken to get Environment, Back on Track. Relive all the lakes, make all the lakes Non-Toxic, plant more trees around the Lake. Create Green Zones across the Cities, where there should be only plants and no other activities should happen. Work on providing 24*7 Electricity to all the offices and apartments, so that usage of Gensets can be minimized. \n', 'score': 0.44742142213547714}</t>
+  </si>
+  <si>
+    <t>{'response': '14- Not only plant but also monitor the growth of trees. Plant more Banyan for larger distribution of trees, and higher o2 content. Also, we have a huge termite problem so we are in dire need of tree doctors at every ward. Lastly, give more breathing space for trees and not choke it with cement. \n', 'score': 0.6351790424239746}</t>
+  </si>
+  <si>
+    <t>{'response': '27- Need to make strict rules for not chopping the trees.  BBMP keeps chopping /trimming the trees to keep the electric cables safe.  Instead they can do underground cabling.  Also,  instead of chopping huge trees,  they can use new technologies and relocate those trees.   Strictly plant 2trees each house.  (breadth and length should be mentioned in guidelines). \n', 'score': 0.6386245365199026}</t>
+  </si>
+  <si>
+    <t>{'response': '30- The Green Belt is reducing by cutting trees and uncountable constructions. There is no plan to road but big builders make the apartment for possession.\n', 'score': 0.6270310521075877}</t>
+  </si>
+  <si>
+    <t>{'response': '31- How about planting trees with fruits like mango n al...this would b great if v are able to get food in the road \n', 'score': 0.5733897822228903}</t>
+  </si>
+  <si>
+    <t>{'response': '33- Mainly have to stop cutting down the trees, if necessary try to replant those trees to another location where necessary. Contact me for planting tree sampling where necessary for joining hands.\n', 'score': 0.7200754373218631}</t>
+  </si>
+  <si>
+    <t>{'response': '39- The sooner you start the better it is because planting tree you need minimum of 5years for the tree to grow \n', 'score': 0.6837320345976114}</t>
+  </si>
+  <si>
+    <t>{'response': "49- Instead of planting trees, trees are being cut. The proud thing of Bengaluru was trees and alot of trees which is being cut, Bengaluru is losing its pride,its temperature is changed only because of this, IT sectors other people are coming to B'lore and there's no much space left so trees are being cut but when you chop one tree its like taking alot of lives, I request you to please make B'lore as before. Please..\n", 'score': 0.6230865564369344}</t>
+  </si>
+  <si>
+    <t>{'response': '52- 1. The newly planted tree saplings will take minimum 10 years to become a tree, so the aim should be to preserve the existing flora. 2. While planting new trees, the trees should be sturdy, in the sense, it should not succumb for mild wind guesses after 10 years.  3. At least 3:1 ratio of plantation should be done for each and every tree that is brought down in the name of development. 4. BDA should restrain from cutting trees just because someone built a shopping complex with the entrance placed in front of the tree. The shopping complex or any building should have been planned to avoid tree felling. 5. Everyone in the city-limit should take prior permission from the environment board before cutting any tree that is there in private or in public areas. The reason and plan of the building should be reviewed and maximum number of trees should be saved. Moreover, for every tree they cut, they should plant at least 2 tree saplings and show then as grown trees at the time of completing the construction project. To conclude: Aim should be to save the existing trees, rather than planting and waiting for another 10-15 years for them to become trees again. NOTE: BDA can consider relocation of trees with the latest technology and machines available and followed in few countries. \n', 'score': 0.7424298103477207}</t>
+  </si>
+  <si>
+    <t>{'response': '59- Although all these ideas are novel and can make an impact when implemented properly, no assurance what so ever has been given regarding this and the method of implementation is again up for speculation. Another major drawback is that these measures prevent future degradation but do not include any steps for rehabilitating the currently degrading environment\n', 'score': 0.4509992034143682}</t>
+  </si>
+  <si>
+    <t>{'response': "60- It's important to educate as well as make people practice to plant trees only then will the city improve in. Environmental issues\n", 'score': 0.6136095977324163}</t>
+  </si>
+  <si>
+    <t>{'response': '70- Tree planting has never been successful. Saplings are planted, money is spent and forgotten. They just wilt away after a few months due to lack of care.\n', 'score': 0.6010409133703356}</t>
+  </si>
+  <si>
+    <t>{'response': "72- Need to stop demolishing Bigg biggg trees,you can't plant a 1plant instead of 1bigg tree \n", 'score': 0.5707620324452393}</t>
+  </si>
+  <si>
+    <t>{'response': '79- What is the meaning of "will plant more trees". Instead of that make mandatory to all who are living in Bangalore that they plant 40 trees and by the next 10 years 10 trees should grow to their full health  It should be their responsibility that they should take care of these plants. Those who can make survive 30+ plant reward them. I think there are 8 million people in Bangalore. Let\'s take 4 million are adult in this. So this count after 10 years  there would be 40 million tree at least. And this would be a great thing for this beautiful and important city.\n', 'score': 0.5908516721065988}</t>
+  </si>
+  <si>
+    <t>{'response': '80- We should ideally stop new construction it will bring in more deforestation \n', 'score': 0.5220013951333361}</t>
+  </si>
+  <si>
+    <t>{'response': '84- Just planting is not sufficient, sustaining the existing and maintaining the new plants is the necessary of the hour\n', 'score': 0.6642515123784307}</t>
+  </si>
+  <si>
+    <t>{'response': "86- Plant small trees along all roads in around Bangalore and make a dense forest kind of plan so that city gets back it's old charm\n", 'score': 0.6352489828459187}</t>
+  </si>
+  <si>
+    <t>{'response': '89- If this follows exactly what has been mentioned here, they Bangalore will become a great city. I would just like to add a point regarding allocation of land space for new construction, there should be a gap to plant trees.\n', 'score': 0.5017902201102131}</t>
+  </si>
+  <si>
+    <t>{'response': '90- BDA has done good job in assessing environment. A simple and more effective solution would be to involve public in environment protection. Issue a Government Order mandating 1 Tree for every House with minimum of 1200 sq.ft area of land. Apartment complexes can also abide this rule. This will ensure quick implementation of tree cover, and reduce temperature, and increase water resources through rain fall.\n', 'score': 0.6388808975026553}</t>
+  </si>
+  <si>
+    <t>{'response': '91- Very good view and thoughts from the government. Cutting down of trees must be made difficult for everyone. The must be guidelines and rules regarding cutting of trees. Just planting new trees will not help unless the old ones are preserved.\n', 'score': 0.6491707199638873}</t>
+  </si>
+  <si>
+    <t>{'response': '92- regulate garbage. invest in recycling plants or outsource it. make it licensed and legal. \n', 'score': 0.42648903735030547}</t>
+  </si>
+  <si>
+    <t>{'response': '95- Tree planting should be made mandatory and vehicles should be made electrified, no more fossil fuel vehicles to be run on the roads\n', 'score': 0.72333803995563}</t>
+  </si>
+  <si>
+    <t>{'response': '98- Tree are cut irresponsibly,the trees must be planted in 1:10 ratio ,if one tree is cut in the same locality 10 trees must be planted ,the parks ,lakes must be surrounded by trees ,the roades must be maintained, proper drainage system must be in place , public toilet system must be in each locality,where not possible temporary modern public toilet system should be made , where public density is more and traffic is intense no vehicle zone or only pedestrian roads to be made ,like these issues must be addressed \n', 'score': 0.706386438134537}</t>
+  </si>
+  <si>
+    <t>{'response': '101- Making residents to mandate planting plants at home at least 1 plant per person\n', 'score': 0.6395293020226004}</t>
+  </si>
+  <si>
+    <t>{'response': '105- Roof top gardens and Skywalker with plantation in localities that would have housing next to next, also in case of It company offices. Flats and row houses must mandatory have garden space with trees. BDA must increase public transport including metro and publicize lesser usage of personal cars. Also, prohibit the use of personal cars within Bangalore during peak office hours. \n', 'score': 0.656389252976835}</t>
+  </si>
+  <si>
+    <t>{'response': '109- Please make it mandatory for all buildings to have rooftop gardens.\n', 'score': 0.6428397833460576}</t>
+  </si>
+  <si>
+    <t>{'response': '112- 1. Planting trees will just not help because they will be chopped of my the Govt for road widening Or for Metro Or any other reasons. Why cant we enable Vertical gardening. Its consumes less space and more effective. Infact the space below the Metro lane is now becoming a dumping yard. It can be well maintained too. 2. Maintaining the water beds should be thought off. we see the lakes are been converted to land . Eg: JP nagar Puttenhalli lake which was once a wide spread lake, today is making way for a big apartment to come up. Even with heavy rains this year, there were no signs of water in it. One side the govt passed order to demolish the buildings built on the water bed, and other side the govt itself is granting permissions for covering  the lake.   3.  \n', 'score': 0.6205868756125686}</t>
+  </si>
+  <si>
+    <t>{'response': '115- Tree cutting should be kept to a minimum. During Road widening and flyover construction work, environmental aspects should have a greater say than the financial aspects. Buildings rather than a line of trees should be the first to go for any widening work and during budgeting this should be taken care of. A value has to be places on every tree just like market values are placed on property. \n', 'score': 0.6640322996005916}</t>
+  </si>
+  <si>
+    <t>{'response': '122- Make mandatory for residents/companies/corporates, in fact all to plant trees and also maintain them till they grow. Moving Polluted industries outside city does not look like a good idea, working around controlling and reducing them shd be part. Forest and water bodies shd not be touched but to be maintained. Solar power to be in use immediately and let go others for preservation. Very clear demarcation on usage of public property- roads for driving, footpaths for walking etc\n', 'score': 0.6230316123469718}</t>
+  </si>
+  <si>
+    <t>{'response': '127- Pollution cannot be curbed just by installing tree, reduce the reduction of diesel cars for private use. Also make footpaths that support trees and store rainwater during raining season, this will replenish ground water, also ban bore-wells that are destroying the water table in Bangalore\n', 'score': 0.6406457942933325}</t>
+  </si>
+  <si>
+    <t>{'response': '130- please stop cutting trees and Govt. should bring rules such as for every one new building permit they should have plant sapled and they should take care. Now they are giving subsidy on current, if solar plants is installed similarly they should give subsidy on current or water if they have a tree planted which is recorded by government for that individual house/building, so that people will concentrate on that.   Only planting saplings will not help all these ...it should be taken care properly, so that it grows big instead dying as saplings itself.\n', 'score': 0.761660687271892}</t>
+  </si>
+  <si>
+    <t>{'response': '131- Good to see planting tree point in the plan.. this was there earlier in 80s when one could see roadside plants with plant gaurds .. after IT revolution started, this became another photo op or event instead of being a regular activity by the concerned department. Please ensure no big trees are cut or if they have to, should be translocate else where. Have a immediate movement called "Bring back Greenery" and go on offensive planting trees as part of or outside this plan. Definite need of the hour else we will all choke to severe health problems and die\n', 'score': 0.6413785707591434}</t>
+  </si>
+  <si>
+    <t>{'response': '132- Planting of trees is an ongoing task. During the tenure of Mr. Ramakrishna Hegde it was encouraged by distributing free saplings in each ward. People who had open spaces and interest in planting were encouraged.  Over a period of time, everyone is interested in deviating the plan of their homes and building complete space of the site. Hence, there is no space for planting. This is leading to lot of air pollution in many areas and thus causing health issues for many people residing in Bangalore.  If you want to still retain Bangalore as "Green City" tag, then now is the time to change it. Please take some serious look.\n', 'score': 0.6404429767065125}</t>
+  </si>
+  <si>
+    <t>{'response': '136- Trees should be planted all roads not only major roads.  Ensure minimum one tree per house should be achieved. Segregation of waste and wet waste should be converted in to manure and used for the plantation of trees\n', 'score': 0.7187968736598488}</t>
+  </si>
+  <si>
+    <t>{'response': '142- Also make sure to plant a tree with every cut down of a tree used for houses and carpentry \n', 'score': 0.6990512299190684}</t>
+  </si>
+  <si>
+    <t>{'response': "143- The idea is awesome but will it be really executed or possible in this corrupt state. Every new plan come comes with a heavy cost which end of the day is bared by common public. How? Means XYZ authority take cost approval from respective authorities in the name of development which includes bribe for each and every person. This needs to be properly mapped and monitored before executing any plans which will help to have cost effective and qualitative execution. Also there should be strict sessions/syllabus in every school.  Me being from Kerala State, but feel so bad hearing sarcastic fun on laughing at Bangalore being called garden of the city as it isn't really green. We should give this job to Army personals who are good and maintaining and managing green. Examples - HAL Stretch, Jalahalli Stretch, Ramaiah College Stretch, Brigade  Road towards Kormangala stretch. Entire road and area should beautiful like our Devanahalli Airport Road that should be our target and focus.   Clean all lakes esp sarjapur lake. If one cuts one trees they should plant 5 trees in return. There should be proper count and agreement on trees. Every garden should be properly managed.  \n", 'score': 0.5197045366022368}</t>
+  </si>
+  <si>
+    <t>{'response': '156- Planting trees in every house should be mandatory \n', 'score': 0.8049171465230706}</t>
+  </si>
+  <si>
+    <t>{'response': '160- Community and public toilets are an absolute need. The details of toilet construction is not sufficient enough. Please make adequate provision to build a four seat toilet complex every two km on main roads. A public private partnership initiative may be taken up in this regard.\n', 'score': 0.50373852688408}</t>
+  </si>
+  <si>
+    <t>{'response': '171- make proper layout for residential area, every 2 Km square meter provide 1, 1 acre area park. Destroy all illegal buildings.  \n', 'score': 0.5096888305418702}</t>
+  </si>
+  <si>
+    <t>{'response': '174- Plant trees of future use and which absorbs more pollution. Advice to plant flowering plants of local varieties rather costly foreign varieties on road sides. May plant tree species of long growing rather wider growing on roadsides and plant trees growing wider on roadsides which have less traffic. This samplings after planted have to be taken care until it grows for 2 years. Planting should be done before monsoon season arrival. \n', 'score': 0.701379166482805}</t>
+  </si>
+  <si>
+    <t>{'response': '176- Many Places cutting the tree due to infrastructures development. Yes we need infrastructures but we have to do proper plan for this. (Dont cut the tree)\n', 'score': 0.5982535925733795}</t>
+  </si>
+  <si>
+    <t>{'response': '179- Make sure each house has one tree planted for themselves so to maintain the greenery from house, make sure the new layouts/roads are approved with proper dimensions to have enough space for plantation in front of their homes. \n', 'score': 0.7712531204774526}</t>
+  </si>
+  <si>
+    <t>{'response': '189- Should increase the green cover by planting more fruit bearing trees as it will help birds. Also water bodies must be protected and rain water harvesting made mandatory at specific layout level so as to make them serif sufficient for their water needs. \n', 'score': 0.7658238910455046}</t>
+  </si>
+  <si>
+    <t>{'response': '1- Please stop drying lakes and using it for buildings. Stop cutting trees.. it pains whenever i see anyone cutting any trees. The Bengaluru i lived 10 years ago was a paradise.. its been ruined coz of human greed. Please ban cutting any trees in and around bangalore\n', 'score': 0.4869526491276455}</t>
+  </si>
+  <si>
+    <t>{'response': '11- This plan should be implemented now for next 15 years there will be a lot of population in Bengaluru. Please protect the nature in Bengaluru and do it now\n', 'score': 0.43271635199746744}</t>
+  </si>
+  <si>
+    <t>{'response': "55- I really wish the promises made by the municipality will be executed. Bengaluru misses it's greenery!\n", 'score': 0.3717276540996428}</t>
+  </si>
+  <si>
+    <t>{'response': '82- Need to properly streamline all the projects and complete them within the deadline. \n', 'score': 0.3133156451502066}</t>
+  </si>
+  <si>
+    <t>{'response': '180- Not enough done for Bengaluru environment\n', 'score': 0.41858110545910643}</t>
+  </si>
+  <si>
+    <t>{'response': '36- Even though a lot of effort is being done to improve the environment , we still have a filthy  environment. This is due to the indifference and ignorance of the public. We have to use a lot of publicity about achieving a clean and healthy place to live in. TV, Radio , Movie theaters,  all the Government offices, Hospitals, Schools and colleges can be used for conveying strong messages about the donts -like, littering, defecating, urinating, SPITTING,  in public places,  and  heavy fines have to be charged when rules are violated.  Even though  thin  plastic bags are banned shops and vendors are still using them.  Emission tests are not carried out by many vehicles .  How do they escape the scrutiny of the police! There are many BBMP buses emitting black smoke . There should be periodical checks .  Educationg the public is the first step . \n', 'score': 0.47501217329138745}</t>
+  </si>
+  <si>
+    <t>{'response': '45- Please avoid using some expensive flower plant or ornamental plants. Try to use convenientional trees which which we used to plant in old Bangalore areas. Vertical gardening is also a good idea\n', 'score': 0.5144956802850988}</t>
+  </si>
+  <si>
+    <t>{'response': "51- The problem with a democratic national is that the development plans for the next few decades look brilliant on paper. At the top level of hierarchy, the problems are jot down and addressed with a practical solution.  But it's equally hopeless when it comes to the execution as we move down in the hierarchy.  There needs to be a strict evaluation of the ongoing plans to curb the wrongdoings and also promote the need for development among the citizens so that the general public can enforce the same by being a part of it voluntarily.  Gone are the days where we sit idle and blame the government. If we need to see the changes around us, we need to change as well. Just wishing the government promotes active participation of citizens for the development of cities. \n", 'score': 0.4181724710031251}</t>
+  </si>
+  <si>
+    <t>{'response': '126- Please ban use of polybags and disposable cutlery. Road side hawkers attract IT population and have no proper disposal of garbage. Garbage of disposable and polythene goes in drains and on foot paths\n', 'score': 0.5675630729540997}</t>
+  </si>
+  <si>
+    <t>{'response': "4- Chopping of trees should be stopped unless it's a matter of concern to life. \n", 'score': 0.4465009273332145}</t>
+  </si>
+  <si>
+    <t>{'response': '34- Banglore should go for strong trees than the exisiting thin and strongless trees breaks down when heavy rain fall.\n', 'score': 0.3583770606250103}</t>
+  </si>
+  <si>
+    <t>{'response': '47- there are ample trees being planted nor are there any proper maintenance of parks and lakes. some immense drives should be held to plant more trees along with tech parks every month(suggestion)\n', 'score': 0.5948775513271068}</t>
+  </si>
+  <si>
+    <t>{'response': '57- make it mandatory to plant trees by all the citizens around their houses. lake should be protected and proper sewage system should be maintained\n', 'score': 0.6760052875182292}</t>
+  </si>
+  <si>
+    <t>{'response': "64- Planting more and more trees isn't a option anymore, it's become a necessity\n", 'score': 0.5061364675223519}</t>
+  </si>
+  <si>
+    <t>{'response': '68- Their should small jungle in every part of bangalore the technique of this jungle is used by HAL where a small 10*20 place will be filled with trees and managed in such a way that their is no place inside by setting up of small mini size to huge trees in a orderly way this will fight pollution and save greenery\n', 'score': 0.39532977138738995}</t>
+  </si>
+  <si>
+    <t>{'response': '77- Stop cutting trees, start growing trees\n', 'score': 0.4540965832542282}</t>
+  </si>
+  <si>
+    <t>{'response': '88- Save trees\n', 'score': 0.5054496311225406}</t>
+  </si>
+  <si>
+    <t>{'response': '104- Who will maintain the planted trees? Till now all the planted trees are died without no Maintanance and water supply\n', 'score': 0.5440557497858012}</t>
+  </si>
+  <si>
+    <t>{'response': '110- Bangalore is especially known for its green art and named as garden city....so I request to plant trees along the road side,provide clean footpaths with benches and some decorative things like that which makes the city look beautiful...and also a request to not allow anyone spit chewing gums and pan and all\n', 'score': 0.5072966279519041}</t>
+  </si>
+  <si>
+    <t>{'response': '134- Ensure each housing society has trees planted, roof top gardens and zero discharge\n', 'score': 0.5565491554536066}</t>
+  </si>
+  <si>
+    <t>{'response': '147- Please do plant more trees and maintain the name given to us as a garden city \n', 'score': 0.6547641317847285}</t>
+  </si>
+  <si>
+    <t>{'response': '153- Unsatisfied with the development and need to show intrest and improve the grenery plant the trees where it is required in every road with plan \n', 'score': 0.5524073632412307}</t>
+  </si>
+  <si>
+    <t>{'response': '161- stop cutting the trees 1st\n', 'score': 0.4899448877096215}</t>
+  </si>
+  <si>
+    <t>{'response': '181- Where is the space to plant trees, footpaths have been trimmed and will become non-existent with the expansion of road to accommodate more vehicles, electric poles, transformers and traffic signs. My opinion would be to have an lane entirely dedicated for pedestrians and trees. At least the minimum we can think of is having an elevated footpath in places of dense and dangerous traffic or if we are more kind and generous towards saving environment make elevated cycle tracks.\n', 'score': 0.4554801443045929}</t>
+  </si>
+  <si>
+    <t>{'response': '185- The garden city is becoming  hotter. More trees to be planted in boundaries of the layout,road sides and gardens.\n', 'score': 0.5687681835072821}</t>
+  </si>
+  <si>
+    <t>{'response': '28- Ban of Diesel Vehicles before the city becomes like the National Capital of India\n', 'score': 0.4748929272853932}</t>
+  </si>
+  <si>
+    <t>{'response': "141- Don't increase urbanization.. Don't increase FAR for construction.  Move further out only and have wide signal free road to commute to city or metro extension\n", 'score': 0.41525887939032785}</t>
+  </si>
+  <si>
+    <t>{'response': '165- Bangalore has been turned from garden city to garbage city\n', 'score': 0.45410720759575224}</t>
+  </si>
+  <si>
+    <t>{'response': '61- Well, I think solar energy should be widely supported by many people.. and each house should start taking this very seriously. Tesla as a company is doing so much better to the earth through sustainable energy. \n', 'score': 0.6261226375986495}</t>
+  </si>
+  <si>
+    <t>{'response': '159- Needs more green spaces. Make use of solar energy in existing areas. Plant trees on the opposite sides of the electricity poles (better to channelize all wires underground). So trees can grow without being chopped off. Make open spaces in every ward, parks with trees a must!\n', 'score': 0.6475393091802908}</t>
   </si>
   <si>
     <t xml:space="preserve">Currently, there are some parts of the city that are more than 5 kilometres away from a healthcare facility - traffic congestion makes reaching these facilities that much harder
@@ -1120,34 +911,28 @@
     <t>there should be burial grounds, cemeteries and crematoriums in every planning district</t>
   </si>
   <si>
-    <t xml:space="preserve">2- Stop coming up with new pathetic solutions. Start working on whats in your hand. First make current healthcare infra better. Every govt. sector should collaborate with corporates and there should be stocks for healthcare companies which is regulated and controlled by govt. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3- Government should try to work on the Model of Mohalla Clinic, which can provide Free and High Standard Medical Facilities for all the citizens. if there are such facilities available, the Low Supply is not able to cater to high demands in the City. BDA Complexes or Existing IT Parks can be used to open such clinics, this will avoid looking for more space in the City and would prove economical to setup a clinic.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4- ಆರೋಗ್ಯ ವೆ ಭಾಗ್ಯ Hygiene is most important.Atleast provide some sophisticated equipment to clean the drainage and make sure that drainage doesn't mix with the drinking water.Healthcare isn't just about constructing hospitals but also providing access to clean drinking water,fresh eatables and proper waste management.Provide all these facilities to the people so that they don't need any hospitals.Provide clean facilities and you don't have to construct many hospitals
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7- There needs to be better signage of healthcare centers (in all major languages used in the city) so that people know where the govt. healthcare facilities are.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17- Every ward should have a primary health center with full facilities to cater the primary health needs of citizens. One should learn from the KERALA government which has primary health center in almost all wards of panchayat, municipalities and corporations in the state.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20- Government hospitals should be more encouraged by providing good class services so that the poor also gets the best medical facilities 
-</t>
+    <t>{'response': '2- Stop coming up with new pathetic solutions. Start working on whats in your hand. First make current healthcare infra better. Every govt. sector should collaborate with corporates and there should be stocks for healthcare companies which is regulated and controlled by govt. \n', 'score': 0.4815591248648885}</t>
+  </si>
+  <si>
+    <t>{'response': '3- Government should try to work on the Model of Mohalla Clinic, which can provide Free and High Standard Medical Facilities for all the citizens. if there are such facilities available, the Low Supply is not able to cater to high demands in the City. BDA Complexes or Existing IT Parks can be used to open such clinics, this will avoid looking for more space in the City and would prove economical to setup a clinic.\n', 'score': 0.5996182289951711}</t>
+  </si>
+  <si>
+    <t>{'response': "4- ಆರೋಗ್ಯ ವೆ ಭಾಗ್ಯ Hygiene is most important.Atleast provide some sophisticated equipment to clean the drainage and make sure that drainage doesn't mix with the drinking water.Healthcare isn't just about constructing hospitals but also providing access to clean drinking water,fresh eatables and proper waste management.Provide all these facilities to the people so that they don't need any hospitals.Provide clean facilities and you don't have to construct many hospitals\n", 'score': 0.6571428253170556}</t>
+  </si>
+  <si>
+    <t>{'response': '7- There needs to be better signage of healthcare centers (in all major languages used in the city) so that people know where the govt. healthcare facilities are.\n', 'score': 0.6605692520072247}</t>
+  </si>
+  <si>
+    <t>{'response': '17- Every ward should have a primary health center with full facilities to cater the primary health needs of citizens. One should learn from the KERALA government which has primary health center in almost all wards of panchayat, municipalities and corporations in the state.\n', 'score': 0.6285290246685794}</t>
+  </si>
+  <si>
+    <t>{'response': '20- Government hospitals should be more encouraged by providing good class services so that the poor also gets the best medical facilities \n', 'score': 0.6268559946090052}</t>
   </si>
   <si>
     <t>['8- Dissatisfied\n']</t>
   </si>
   <si>
-    <t>['22- Traffic management certainly needs more attention. We need to bring in discipline in the minds of Indians. Trees are cut for whatever reasons, we need a dust free and clean India. Healthcare is very poor. Healthcare focus currently is making money. Is it possible to change their focus on treating the poor and creating a healthy environment.   Mera Bhrath Mahan.\n', '26- focus on making existing assets function rather than building more dysfunctional assets. Adopt patient management and accountability systems... look at what AAP is doing in Delhi to ensure assets are functioning well and well utilized\n', "9- How about making a team which gets educated about basic first aid to be given to the victim.Lets take a common accident.People start moving the person met with an accident with their own knowledge and make them drink water without knowing whether,is he breathing sufficiently or not.If he isn't then what needs to be done till he is hospitalized?(C.P.C.R) The team if can achieve this target of educating people about basic first aid and (C.P.C.R). This will bring massive change in saving lives of many.This isn't about just educating people by awareness programs.This should be taught right from the primary school not even as an awareness program which lasts in mind for few days.NO... Better to make it as a part of their subjects.PLEASE.\n"]</t>
+    <t>["9- How about making a team which gets educated about basic first aid to be given to the victim.Lets take a common accident.People start moving the person met with an accident with their own knowledge and make them drink water without knowing whether,is he breathing sufficiently or not.If he isn't then what needs to be done till he is hospitalized?(C.P.C.R) The team if can achieve this target of educating people about basic first aid and (C.P.C.R). This will bring massive change in saving lives of many.This isn't about just educating people by awareness programs.This should be taught right from the primary school not even as an awareness program which lasts in mind for few days.NO... Better to make it as a part of their subjects.PLEASE.\n", '26- focus on making existing assets function rather than building more dysfunctional assets. Adopt patient management and accountability systems... look at what AAP is doing in Delhi to ensure assets are functioning well and well utilized\n', '22- Traffic management certainly needs more attention. We need to bring in discipline in the minds of Indians. Trees are cut for whatever reasons, we need a dust free and clean India. Healthcare is very poor. Healthcare focus currently is making money. Is it possible to change their focus on treating the poor and creating a healthy environment.   Mera Bhrath Mahan.\n']</t>
   </si>
   <si>
     <t>['10- Private hospitals should be more regularised\n']</t>
@@ -1177,32 +962,25 @@
     <t>['25- Fully equipped Govt hospitals at a radius of 5km should be  provided.\n']</t>
   </si>
   <si>
-    <t xml:space="preserve">1- Again, how many people are using the govt run hospitals. This is purely due to the pathetic quality of treatment provided by them. We go to private hospitals knowing that they loot us because it is health. Charge a nominal amount in the govt hospital and provide good health care. Run them at No profit No loss. People are ready to pay for a quality health care.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- All government hospitals should be checked every month... And there should be an online review system which would be regulated n shown for public
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6- Government hospitals should be improved. Government should keep an eye on the prices charged at the private hospitals and to keep it reasonable. Government should start a health insurance.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12- Technology has be implemented into helath care for the pirpose of better serving of patients ,health care services should be provided to the  patients with in no delay in time  and utmost care should be enhanced with older people with the use of technology with help of which we can assess the problem of the patient and hence improve the patient condition this would help us in improving the health of elderly patients especially but not only this there s a lot in the health care systems to be changed. The main important thing is implentation of role of clinical pharmacist in the health care field which has proved to be very effective in other countries in reducing cost and the adverse effects if treating drugs..  There's alot more points to be discussed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18- No adquate health clinics managed by govt. No community health centre
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13- Govt hospital are there in every ward,but there not available for common man 24/7 doctors &amp; nurses are not available all the time &amp; ignorant attitude of them are the reason why people go towards Private hospital.Kindly rework on quality of hospitality you provide.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24- With the accessibility of the hospitals, it should also consider affordability aspects for every level of people
-</t>
+    <t>{'response': '1- Again, how many people are using the govt run hospitals. This is purely due to the pathetic quality of treatment provided by them. We go to private hospitals knowing that they loot us because it is health. Charge a nominal amount in the govt hospital and provide good health care. Run them at No profit No loss. People are ready to pay for a quality health care.\n', 'score': 0.47025512853737095}</t>
+  </si>
+  <si>
+    <t>{'response': '5- All government hospitals should be checked every month... And there should be an online review system which would be regulated n shown for public\n', 'score': 0.5226358461165981}</t>
+  </si>
+  <si>
+    <t>{'response': '6- Government hospitals should be improved. Government should keep an eye on the prices charged at the private hospitals and to keep it reasonable. Government should start a health insurance.\n', 'score': 0.5528266570320377}</t>
+  </si>
+  <si>
+    <t>{'response': "12- Technology has be implemented into helath care for the pirpose of better serving of patients ,health care services should be provided to the  patients with in no delay in time  and utmost care should be enhanced with older people with the use of technology with help of which we can assess the problem of the patient and hence improve the patient condition this would help us in improving the health of elderly patients especially but not only this there s a lot in the health care systems to be changed. The main important thing is implentation of role of clinical pharmacist in the health care field which has proved to be very effective in other countries in reducing cost and the adverse effects if treating drugs..  There's alot more points to be discussed\n", 'score': 0.5268684953397444}</t>
+  </si>
+  <si>
+    <t>{'response': '18- No adquate health clinics managed by govt. No community health centre\n', 'score': 0.5736740473632199}</t>
+  </si>
+  <si>
+    <t>{'response': '13- Govt hospital are there in every ward,but there not available for common man 24/7 doctors &amp; nurses are not available all the time &amp; ignorant attitude of them are the reason why people go towards Private hospital.Kindly rework on quality of hospitality you provide.\n', 'score': 0.39052818565675596}</t>
+  </si>
+  <si>
+    <t>{'response': '24- With the accessibility of the hospitals, it should also consider affordability aspects for every level of people\n', 'score': 0.2595326513894521}</t>
   </si>
   <si>
     <t>The 12 heritage zones identified are: Central Administrative Heritage Zone, Petta and Bangalore Fort, Gavipuram, Basavanagudi and VV Puram, M.G.Road, Shivajinagar, Cleveland Town, Richards Town, Malleshwaram, Ulsoor, Whitefield Inner Circle, Begur Temple and Bangalore Palace Heritage Zone</t>
@@ -1224,16 +1002,13 @@
     <t>['6- Very good\n']</t>
   </si>
   <si>
-    <t xml:space="preserve">4- Heritage to maintain as we have given space 70% to outsiders only
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- Repeating heritage structure designs should not be encouraged. Example is the vikas soudha. It is a poor copy of the Vidhana Soudha and by sitting next to it, it spoils the heritage value of Vidhana Soudha.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7- As far I see,  most of the listed have already been destroyed in the name of development. e.g. MG road,  what's left of this place anymore.  The Metro has ruined it's character and the skyscrapers are not doing it any good 
-</t>
+    <t>{'response': '4- Heritage to maintain as we have given space 70% to outsiders only\n', 'score': 0.4199423816871522}</t>
+  </si>
+  <si>
+    <t>{'response': '5- Repeating heritage structure designs should not be encouraged. Example is the vikas soudha. It is a poor copy of the Vidhana Soudha and by sitting next to it, it spoils the heritage value of Vidhana Soudha.  \n', 'score': 0.4759643390195567}</t>
+  </si>
+  <si>
+    <t>{'response': "7- As far I see,  most of the listed have already been destroyed in the name of development. e.g. MG road,  what's left of this place anymore.  The Metro has ruined it's character and the skyscrapers are not doing it any good \n", 'score': 0.3845326036252949}</t>
   </si>
   <si>
     <t xml:space="preserve">All government land meant for housing will be used to build EWS houses
@@ -1263,74 +1038,58 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2- Plans for the future housing solution look amazing, especially the sharing of 5% for EWS. But every house must ensure to have some environmental impact, on the good side though. What I mean to say is that buildings must be termed as green buildings by using green materials, etc etc
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6- All the building information like approval details etc should be made public on e-portal. This will help people.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7- Who all are fall under general merit category and also for widows, EWS housing should reserve at least 16 to 21%.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9- While approving the new housing initiated by government or private should be after considering the water resources and safety of water Bodies. Bengaluru lost lot of lakes already, without water resources no human can live. Also the bbmp and bda authorities should Concentrate on the construction which should not have any deviation. Why the deviation should be allowed by authorities the approve with penalties?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13- Higher FAR is the only solution to the growing needs of the city. The city can now grow only vertically as the empty land space for development is going to decline.We will  end up with no space for development in the future. We also have to provide proportionate lung space for the city. So vacant land is the key to future development. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22- Bar commercial activity in residential zones. Bar massive trees in residential zones. (Huge trees belong in parks). Provide housing to corporate employees near work place(old idea - similar to PSU housing colonies-HMT,HAL,BEL,ITI)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26- Property registration is nightmare. There is no online process. All are dominates by agents. Need to have online way of registering alongwith some identifiers like Aadhar/PAN
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27- EWS housing should be taken up as pure government work rather than involving private parties. Land acquisition from private developers by giving incentives is a good idea, but asking for a share of the flats for EWS is not so good, developers will be wary of doing that. For large scale developers the CSR initiative may be used and ask them to spend the CSR amount on EWS housing, Land should belong to Government and buildings made by developers. Similar to the initiative taken by the Police department years ago to build good quality police station through various developers. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29- All illegal Apartments those are blocked lake and rain water .
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36- Reference is drawn to the proposed land use Map of revised Master Plan for 2031 for planning district 2, Indiranagar- Kagadaspura, where Domlur 2nd Stage is shown. The map does not show the BDA MIG flats as residential area (shown in white instead of yellow) and also does not include the service road adjacent to the flats. These flats and road are constructed by BDA.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37- All big residential apartments need to have a 80 ft road accessing the apartment. Each new construction to contribute to some land for road construction
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39- There are pockets where Housing is extremely expensive. And areas which have proper connectivity is really booming. the goons who have grabbed the Lake lands and other Illegal areas should be recovered by the government
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41- Currently the new housing layout's are not up to planned cities in other parts of India. We need to provide enough space to infrastructure like Roads, public utility, (thinking 50 years ahead), sports facilities for the young generation and open space to grow trees and waste water management.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46- Housing layouts should be provided with adequate transportation feeder services.  Neighbourhood planning should be considered. Waste management should begin at this level.  This section does not seem to be viable... seems like trying to dump responsibility without any study...  It would be better for certain locations across the city to be identified as government housing for EWS.  and the government invests in maintaining these to adequate standards. Instead of making blanket statements like all government land will be used for EWS housing.   neighbourhood security and cctv cover to be improved 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23- Please do not give permissions to bigger projects(6000 flats) if there is no good road accessbility. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38- Every building in Bangalore should be provided with mandatory parking area. No compromise to any citizen irrespective of power and positions. There should not be more than 6 to 9 flats in a building.. 
-</t>
-  </si>
-  <si>
-    <t>['33- There ia should be rules for renting houses. Owners charging too much and biggest concern is advance of 11 months.this is too much\n', '4- Need to ensure there is no parking done in front of the houses. Start taking stringent action on all the 4 wheeler that are parked outside the premises. The city would look very clean and safer to commute.\n', '8- Lot of illegal constructions everywhere. Need to demolish illegal structures to widen the road. Make Strictly no parking on roads.  Make residents make their own parking arrangements. \n', '1- Car owners should have  a mandatory car parking space in the house/building planned \n', '40- Car parking slot  dimensions has been increased in width from 2.5 m to 2.75m. When all new vehicles are coming with much better maneuverability and tighter turning radii. this puts a requirement for additional area to be constructed in parking basements and MLCPs and affects the column planning grids negatively and causes the unnecessary construction of additional floor area for a given count of parking. 2.5m width is an internationally accepted standard.\n']</t>
-  </si>
-  <si>
-    <t>['16- high rises in Central business district should be stopped as it is creating more congestion and we dont have infrastructure to sustain the vertical growth. No more approval from high rises in centre of bangalore. We need to put a stop to our greed where we are harming ourself without understanding the consquences beneath it. So, city should expand in outskirts not in centre. \n', "5- Don't permit multi storey buildings without leaving the needed 5-6 feet open space around the buildings. Make it compulsory to leave enough open space and restrict too many buildings in small areas as the water from bore wells are dried up too quickly.\n", '44- I check all house the House construction plan and Tender BDA approve plan is totally different. This should be stop and bring there notice.\n', "31- Bda is alloting plots in Kempegowda layout block 2 and its very clear from the master plan that the sites are falling under buffer area from lake/primary/secondary rajakaluve and violating ngt and bda's own terms. But assessing officers from bda are turning blind eye and claiming their allotments are legal. If the responsibile organisation itself is faltering like this, who else will follow the guidelines and also who will be responsible if the allotted sites run into issues because of this in future? THIS HAS ALREADY HAPPENED IN THE PAST AND YET NO INTENTION BY BDA TO CORRECT IT\n", '17- At present there is too much commercialization in residential areas. Too many shops and too little business. Hurts both residents as well as these commercial establishments. Clear demarcation for commercial activity should be made and commercial use in residential areas should be put down with iron hand. At present particularly in BDA formed layouts there is too much of commercialization as RWAs are non existent in BDA layouts.  \n', '21- Housing is getting more and more expensive. Buying a house in Bangalore has nearly become impossible for a common man.\n', '10- Link BESCOM RR Nos. with PID Nos. of all Residential and Commercial buildings in Bangalore and any non payment of BBMP taxes for more than one year should result in disconnection of power supply to such buildings. This will improve Tax collection.  It is a well known fact to the Mayor, Chief Engineers and every bodu oin BBMP that more than 30 % of properties in Bangalore are not paying Taxes at all for the last more than 25 years. When\n', '45- I think the plan is a good start. But I think we need to be more ambitious and think out of the box on housing. \n']</t>
+    <t>{'response': '2- Plans for the future housing solution look amazing, especially the sharing of 5% for EWS. But every house must ensure to have some environmental impact, on the good side though. What I mean to say is that buildings must be termed as green buildings by using green materials, etc etc\n', 'score': 0.6465773884690472}</t>
+  </si>
+  <si>
+    <t>{'response': '6- All the building information like approval details etc should be made public on e-portal. This will help people.\n', 'score': 0.5029957515102255}</t>
+  </si>
+  <si>
+    <t>{'response': '7- Who all are fall under general merit category and also for widows, EWS housing should reserve at least 16 to 21%.\n', 'score': 0.609205472149567}</t>
+  </si>
+  <si>
+    <t>{'response': '9- While approving the new housing initiated by government or private should be after considering the water resources and safety of water Bodies. Bengaluru lost lot of lakes already, without water resources no human can live. Also the bbmp and bda authorities should Concentrate on the construction which should not have any deviation. Why the deviation should be allowed by authorities the approve with penalties?\n', 'score': 0.6528381531532242}</t>
+  </si>
+  <si>
+    <t>{'response': '13- Higher FAR is the only solution to the growing needs of the city. The city can now grow only vertically as the empty land space for development is going to decline.We will  end up with no space for development in the future. We also have to provide proportionate lung space for the city. So vacant land is the key to future development. \n', 'score': 0.6499407678061241}</t>
+  </si>
+  <si>
+    <t>{'response': '22- Bar commercial activity in residential zones. Bar massive trees in residential zones. (Huge trees belong in parks). Provide housing to corporate employees near work place(old idea - similar to PSU housing colonies-HMT,HAL,BEL,ITI)\n', 'score': 0.6293501250868286}</t>
+  </si>
+  <si>
+    <t>{'response': '26- Property registration is nightmare. There is no online process. All are dominates by agents. Need to have online way of registering alongwith some identifiers like Aadhar/PAN\n', 'score': 0.44606254264165895}</t>
+  </si>
+  <si>
+    <t>{'response': '27- EWS housing should be taken up as pure government work rather than involving private parties. Land acquisition from private developers by giving incentives is a good idea, but asking for a share of the flats for EWS is not so good, developers will be wary of doing that. For large scale developers the CSR initiative may be used and ask them to spend the CSR amount on EWS housing, Land should belong to Government and buildings made by developers. Similar to the initiative taken by the Police department years ago to build good quality police station through various developers. \n', 'score': 0.7598843138645954}</t>
+  </si>
+  <si>
+    <t>{'response': '29- All illegal Apartments those are blocked lake and rain water .\n', 'score': 0.4180281349931865}</t>
+  </si>
+  <si>
+    <t>{'response': '36- Reference is drawn to the proposed land use Map of revised Master Plan for 2031 for planning district 2, Indiranagar- Kagadaspura, where Domlur 2nd Stage is shown. The map does not show the BDA MIG flats as residential area (shown in white instead of yellow) and also does not include the service road adjacent to the flats. These flats and road are constructed by BDA.\n', 'score': 0.47169129467057136}</t>
+  </si>
+  <si>
+    <t>{'response': '37- All big residential apartments need to have a 80 ft road accessing the apartment. Each new construction to contribute to some land for road construction\n', 'score': 0.727326278382765}</t>
+  </si>
+  <si>
+    <t>{'response': '39- There are pockets where Housing is extremely expensive. And areas which have proper connectivity is really booming. the goons who have grabbed the Lake lands and other Illegal areas should be recovered by the government\n', 'score': 0.6099878022526347}</t>
+  </si>
+  <si>
+    <t>{'response': "41- Currently the new housing layout's are not up to planned cities in other parts of India. We need to provide enough space to infrastructure like Roads, public utility, (thinking 50 years ahead), sports facilities for the young generation and open space to grow trees and waste water management.\n", 'score': 0.6746745712068136}</t>
+  </si>
+  <si>
+    <t>{'response': '46- Housing layouts should be provided with adequate transportation feeder services.  Neighbourhood planning should be considered. Waste management should begin at this level.  This section does not seem to be viable... seems like trying to dump responsibility without any study...  It would be better for certain locations across the city to be identified as government housing for EWS.  and the government invests in maintaining these to adequate standards. Instead of making blanket statements like all government land will be used for EWS housing.   neighbourhood security and cctv cover to be improved \n', 'score': 0.7310673978312722}</t>
+  </si>
+  <si>
+    <t>{'response': '23- Please do not give permissions to bigger projects(6000 flats) if there is no good road accessbility. \n', 'score': 0.43010517842211565}</t>
+  </si>
+  <si>
+    <t>{'response': '38- Every building in Bangalore should be provided with mandatory parking area. No compromise to any citizen irrespective of power and positions. There should not be more than 6 to 9 flats in a building.. \n', 'score': 0.49499953142229614}</t>
+  </si>
+  <si>
+    <t>['33- There ia should be rules for renting houses. Owners charging too much and biggest concern is advance of 11 months.this is too much\n', '40- Car parking slot  dimensions has been increased in width from 2.5 m to 2.75m. When all new vehicles are coming with much better maneuverability and tighter turning radii. this puts a requirement for additional area to be constructed in parking basements and MLCPs and affects the column planning grids negatively and causes the unnecessary construction of additional floor area for a given count of parking. 2.5m width is an internationally accepted standard.\n', '8- Lot of illegal constructions everywhere. Need to demolish illegal structures to widen the road. Make Strictly no parking on roads.  Make residents make their own parking arrangements. \n', '1- Car owners should have  a mandatory car parking space in the house/building planned \n', '4- Need to ensure there is no parking done in front of the houses. Start taking stringent action on all the 4 wheeler that are parked outside the premises. The city would look very clean and safer to commute.\n']</t>
+  </si>
+  <si>
+    <t>['17- At present there is too much commercialization in residential areas. Too many shops and too little business. Hurts both residents as well as these commercial establishments. Clear demarcation for commercial activity should be made and commercial use in residential areas should be put down with iron hand. At present particularly in BDA formed layouts there is too much of commercialization as RWAs are non existent in BDA layouts.  \n', '16- high rises in Central business district should be stopped as it is creating more congestion and we dont have infrastructure to sustain the vertical growth. No more approval from high rises in centre of bangalore. We need to put a stop to our greed where we are harming ourself without understanding the consquences beneath it. So, city should expand in outskirts not in centre. \n', '10- Link BESCOM RR Nos. with PID Nos. of all Residential and Commercial buildings in Bangalore and any non payment of BBMP taxes for more than one year should result in disconnection of power supply to such buildings. This will improve Tax collection.  It is a well known fact to the Mayor, Chief Engineers and every bodu oin BBMP that more than 30 % of properties in Bangalore are not paying Taxes at all for the last more than 25 years. When\n', '21- Housing is getting more and more expensive. Buying a house in Bangalore has nearly become impossible for a common man.\n', '44- I check all house the House construction plan and Tender BDA approve plan is totally different. This should be stop and bring there notice.\n', '45- I think the plan is a good start. But I think we need to be more ambitious and think out of the box on housing. \n', "31- Bda is alloting plots in Kempegowda layout block 2 and its very clear from the master plan that the sites are falling under buffer area from lake/primary/secondary rajakaluve and violating ngt and bda's own terms. But assessing officers from bda are turning blind eye and claiming their allotments are legal. If the responsibile organisation itself is faltering like this, who else will follow the guidelines and also who will be responsible if the allotted sites run into issues because of this in future? THIS HAS ALREADY HAPPENED IN THE PAST AND YET NO INTENTION BY BDA TO CORRECT IT\n", "5- Don't permit multi storey buildings without leaving the needed 5-6 feet open space around the buildings. Make it compulsory to leave enough open space and restrict too many buildings in small areas as the water from bore wells are dried up too quickly.\n"]</t>
   </si>
   <si>
     <t>['12- It is not at all futuristic. \n']</t>
@@ -1360,36 +1119,28 @@
     <t>['43- # 46/C, Sai Krupa, Fair Field Layout, Race Course Road, Bengaluru - 0, we are residing in this layout for last 25 years and all of a sudden you have made this layout as commercial zone which is highly unacceptable and objectable, we request you kindly consider the above layout as residential zone.\n']</t>
   </si>
   <si>
-    <t xml:space="preserve">11- One of the major trends in recent construction is the rise of 'matchbox' style buildings that are painted in ugly 'vaastu' colours. Why can't there be a council for every ward in the city that consists of well educated urban planners under whose scrutiny, building plans are evaluated and better planned buildings with proper ventilation is built. Also, other things like rain water harvesting, solar exterior lighting and water heating systems must be encouraged to be included in building plans (although not mandatory, at least such councils must advise building owners to make room for future upgrades in this direction.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32- Expand city limits to ensure that more land is available for housing thereby reducing the stress on existing areas and bringing down cost of housing
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30- What is the criterion for affordable housing is not clear. Nothing planned for people not looking for affordable housing?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3- The maximum no of floor needs to be checked..and economic weaker sections must be identified correctly..the builders must get maximum punishment if they violate the conditions
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18- In my opinion, Govt should restrict giving permission to multi story buildings. As more people residing in small area resulting in more traffic, more pollution, more water consumption, more garbage creation and more parking of vehicles problem.  At least should not give permission to apartments above 4th Floor. Only Ground + 3 floor can be allowed. It will be difficult to manage by any Govt. Already area within BBMP are overcrowded due to maximum multi storied buildings. No Kaveri water, No 24X7 power supply, No Drainage (UGD) and heavy traffic problem. Govt should plan to restrict population congestion within BBMP limits. Build more satellite townships with all the facilities to decongest  the city central areas.   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25- Not clear how permission has been given to construct by destruction of nature be it lakes park's or forest area. This has to stop. Need to create more green cover for the city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28- People start living and building their own house even before the facilities are made available. License to build should be given only after all the facilities are completed, for which the betterment charges are levied.  Any change or demolition should have the approval of the residents and neighbourhood. Better to have high rise buildings with a clear vacant space in between the buildings for landscaping and safety purposes, like approach for a fire tender. The dimensions could be decided by the competent persons . Multistorey building should be promoted as this would increase the lung space availability.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35- Get all of the property to be government owned. This removes corruption completely since not 1 person owns land. Then, lease land out to people who own for their life time. This in itself will remove a lot of the corruption and land grabbing that happens today and reduces the amount of effort spent in trying to recover it back.
-</t>
+    <t>{'response': "11- One of the major trends in recent construction is the rise of 'matchbox' style buildings that are painted in ugly 'vaastu' colours. Why can't there be a council for every ward in the city that consists of well educated urban planners under whose scrutiny, building plans are evaluated and better planned buildings with proper ventilation is built. Also, other things like rain water harvesting, solar exterior lighting and water heating systems must be encouraged to be included in building plans (although not mandatory, at least such councils must advise building owners to make room for future upgrades in this direction.)\n", 'score': 0.5950268027166142}</t>
+  </si>
+  <si>
+    <t>{'response': '32- Expand city limits to ensure that more land is available for housing thereby reducing the stress on existing areas and bringing down cost of housing\n', 'score': 0.6337096915249792}</t>
+  </si>
+  <si>
+    <t>{'response': '30- What is the criterion for affordable housing is not clear. Nothing planned for people not looking for affordable housing?\n', 'score': 0.6012617834255457}</t>
+  </si>
+  <si>
+    <t>{'response': '3- The maximum no of floor needs to be checked..and economic weaker sections must be identified correctly..the builders must get maximum punishment if they violate the conditions\n', 'score': 0.6248962531701305}</t>
+  </si>
+  <si>
+    <t>{'response': '18- In my opinion, Govt should restrict giving permission to multi story buildings. As more people residing in small area resulting in more traffic, more pollution, more water consumption, more garbage creation and more parking of vehicles problem.  At least should not give permission to apartments above 4th Floor. Only Ground + 3 floor can be allowed. It will be difficult to manage by any Govt. Already area within BBMP are overcrowded due to maximum multi storied buildings. No Kaveri water, No 24X7 power supply, No Drainage (UGD) and heavy traffic problem. Govt should plan to restrict population congestion within BBMP limits. Build more satellite townships with all the facilities to decongest  the city central areas.   \n', 'score': 0.6837834158688327}</t>
+  </si>
+  <si>
+    <t>{'response': "25- Not clear how permission has been given to construct by destruction of nature be it lakes park's or forest area. This has to stop. Need to create more green cover for the city.\n", 'score': 0.6063035368566545}</t>
+  </si>
+  <si>
+    <t>{'response': '28- People start living and building their own house even before the facilities are made available. License to build should be given only after all the facilities are completed, for which the betterment charges are levied.  Any change or demolition should have the approval of the residents and neighbourhood. Better to have high rise buildings with a clear vacant space in between the buildings for landscaping and safety purposes, like approach for a fire tender. The dimensions could be decided by the competent persons . Multistorey building should be promoted as this would increase the lung space availability.\n', 'score': 0.7040143041213694}</t>
+  </si>
+  <si>
+    <t>{'response': '35- Get all of the property to be government owned. This removes corruption completely since not 1 person owns land. Then, lease land out to people who own for their life time. This in itself will remove a lot of the corruption and land grabbing that happens today and reduces the amount of effort spent in trying to recover it back.\n', 'score': 0.6423228091061185}</t>
   </si>
   <si>
     <t xml:space="preserve">Extension of the city along the highways and parts of the city
@@ -1416,50 +1167,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">11- Large parts of HSR Layout is already used mainly for highly commercial activities e.g the full stretch of 17th Cross Road. But the plan does not recognise this. It would be better to designate all sites on such roads as permitted for commercial activities to minimise corruption. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21- For any approval for any building, one need to see whether its leaving the space for greenery or not, Waste management in place or not, Rain water harvesting is there or not. Few of them are already in place but not followed religiously, More stringent actions are needed to implement it. Green cover &amp; trees on any house premises should be must.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23- Where is Tumkur Road in the plan!!!There is so much abundance of land and also it's connected by metro and good roads.Now the metro being built till international exhibition centre there is connectivity for industries to be set up there.Also NICE road being attached is added advantage.Kindly do not overcrowd Bengaluru along Hosur Road,Bellary Road and sarjapura road
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31- Land use in residential area unclear. Most of residential is thickly commercialized.   No breathing space ,no peace, no security of life. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38- BDA needs to hear that its method of 'planning' begins with a faulty premise: that it writes a draft plan and then asks for inputs. A metropolitan city's municipal corporation, public services agencies, planning agency must have enough of a budget to foster citizen direction (not 'inclusion', we are not serfs) to all the sectors (environment, education, health, etc) listed at the start of this document. Planning includes discrading, halting, capping, recognising limits and adjusting behaviours to those limits. BDA has made none of these possible.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56- While division of districts for specific use is a good Idea, however considering people move around in from various parts of the city for work specific spaces should be allocated within each district/location for common multi level parkings, and feeder transport provided from that point.  As an example, AECS Layout Brookefiled has a significant space allocated to government offices like Bangalore one, Corporator  office and others. This land should be converted as a Multi level parking cum Bus Stand cum Government offices. All nationalised banks, Nationalised Insurance and other such government and semi government services should be encouraged to have offices there.   Ground floor can be Bus-Bay, Basement can be Food court,  3-4 floors for parking and rest for offices. The is similar to the Multi use bus stand built in many part of Bangalore, but needs to be replicated on a smaller scale in other places as well.  Feeder transport in form of electric buses, shared taxies and Hire a bike services should also be made available for people to be able to move around in those areas for shopping and other chores. Pavements should be well maintained for people who may want to walk.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59- 4.22 % of land  for parks and open spaces and 3.84 % for water bodies and streams is negligible compared to areas allowed for other units like transport and communication. Looks like our future generation will have not good air to breath and enough ground water.
-</t>
-  </si>
-  <si>
-    <t>['24- Please allow big sky scrappers in this city. this will save land and allow to create big parks. But these buildings should be earthquake proof for a eathquake as powerful as 8.5 on Richter scale.\n', '35- If land use is given prime concern like alloting the right proportions for housing,green cover,roadways,garbage and sewage management etc. then automatically so many issues are taken care of.\n', '42- Footpaths are encroached all over the city. Build barriers for vehicles  to enter footpaths. Food vendors have taken up Whitefield foot paths totally. I have raised complains like 6 times. Complain was closed without doing anything. Food vendors dirty the place and throw garbage on footpaths and roads. Chances of pedestrians meeting accident due to vehicular movement on roads.\n', '19- Not maintained, not used or maintained for the specific purpose. Most of the land encroached or dumped the garbage.\n', '18- it sounds great but we need to awarer of the land using as if there is no tomorrow  try planting as much as tree , like  at the traffic signals,bus stops and the area where people roam around more. We can always take this forward without even seeing it as a huge step.\n', '49- Objection to widening of Borewell Road, Whitefield  Our homes will be destroyed with any further road widening.  We are senior citizens and built/ bought these homes as our retirement homes.  Also, with earlier road widening, we have already lost 8-10 feet of land and boundary walls, trees and garden for which we were never compensated.  Also, no authority has acknowledged this loss or taken responsibility.  The government needs to protect its citizens who are regular taxpayers and abide by rules and regulations.   We’re already too close to the road and are now suffering from air and noise pollution, which has lead to skin, respiratory diseases, allergies and further hearing loss. KnP Sridharan, 244 Borewell Road, Whitefield, Bangalore 560066\n', '1- every house/township/apartment newly build should be mandated to plant minimum 5 times the tress destroyed in that area. Because all plants planted might now grow so if it is planted in higher number 30% of it will grow.\n', "27- Everyday new vehicles are causing parking hazards while the number of no parking boards increase. Why no solution for these things? Let me suggest you - please utilise manekshaw parade grounds and the outer part of chinnaswamy stadium for parking. Also you may discuss with school authorities of schools with huge playgrounds to allow parking between 6 pm to 10 pm. This will not affect the school's daily activities and solve parking problems. Thanks \n", '47- Poor land use, illegal occupation by the powerful and Corrupt and an extremely unhealthy situation is created in the city.\n', '62- BOREWELL ROAD, WHITEFIELD SHOULD NOT BE WIDENED AGAIN 1) We are senior citizens who have already lost over 8 -10 feet of land and boundary walls (2005) that had to be rebuilt at our own expense.  Todate, no authority has made the effort to compensate us or recognise the seizure of our lands.  2) due to the above, our houses are dangerously close to the road - air and noise pollution that has lead to ailments such as allergies, skin and respiratory diseases and greater loss of hearing.  3) last but equally important, our homes will be destroyed when further widening happens.  These are our homes built with hard earned money for our lifetime.  Where are we to go?  These periodical threats have made us feel very insecure in our sunset years.  We are responsible taxpayers and law abiding citizens.   Similarly, we expect the government to protect our interests before they consider such ‘developmental’ plans. Khurshid Balsara, 265 Borewell Road, Whitefield, Bangalore 560066\n']</t>
+    <t>{'response': '11- Large parts of HSR Layout is already used mainly for highly commercial activities e.g the full stretch of 17th Cross Road. But the plan does not recognise this. It would be better to designate all sites on such roads as permitted for commercial activities to minimise corruption. \n', 'score': 0.6343044600100975}</t>
+  </si>
+  <si>
+    <t>{'response': '21- For any approval for any building, one need to see whether its leaving the space for greenery or not, Waste management in place or not, Rain water harvesting is there or not. Few of them are already in place but not followed religiously, More stringent actions are needed to implement it. Green cover &amp; trees on any house premises should be must.  \n', 'score': 0.50132501742671}</t>
+  </si>
+  <si>
+    <t>{'response': "23- Where is Tumkur Road in the plan!!!There is so much abundance of land and also it's connected by metro and good roads.Now the metro being built till international exhibition centre there is connectivity for industries to be set up there.Also NICE road being attached is added advantage.Kindly do not overcrowd Bengaluru along Hosur Road,Bellary Road and sarjapura road\n", 'score': 0.5979856761288288}</t>
+  </si>
+  <si>
+    <t>{'response': '31- Land use in residential area unclear. Most of residential is thickly commercialized.   No breathing space ,no peace, no security of life. \n', 'score': 0.5087905634042021}</t>
+  </si>
+  <si>
+    <t>{'response': "38- BDA needs to hear that its method of 'planning' begins with a faulty premise: that it writes a draft plan and then asks for inputs. A metropolitan city's municipal corporation, public services agencies, planning agency must have enough of a budget to foster citizen direction (not 'inclusion', we are not serfs) to all the sectors (environment, education, health, etc) listed at the start of this document. Planning includes discrading, halting, capping, recognising limits and adjusting behaviours to those limits. BDA has made none of these possible.\n", 'score': 0.4860220321954189}</t>
+  </si>
+  <si>
+    <t>{'response': '56- While division of districts for specific use is a good Idea, however considering people move around in from various parts of the city for work specific spaces should be allocated within each district/location for common multi level parkings, and feeder transport provided from that point.  As an example, AECS Layout Brookefiled has a significant space allocated to government offices like Bangalore one, Corporator  office and others. This land should be converted as a Multi level parking cum Bus Stand cum Government offices. All nationalised banks, Nationalised Insurance and other such government and semi government services should be encouraged to have offices there.   Ground floor can be Bus-Bay, Basement can be Food court,  3-4 floors for parking and rest for offices. The is similar to the Multi use bus stand built in many part of Bangalore, but needs to be replicated on a smaller scale in other places as well.  Feeder transport in form of electric buses, shared taxies and Hire a bike services should also be made available for people to be able to move around in those areas for shopping and other chores. Pavements should be well maintained for people who may want to walk.  \n', 'score': 0.647660482038348}</t>
+  </si>
+  <si>
+    <t>{'response': '59- 4.22 % of land  for parks and open spaces and 3.84 % for water bodies and streams is negligible compared to areas allowed for other units like transport and communication. Looks like our future generation will have not good air to breath and enough ground water.\n', 'score': 0.5947723590913324}</t>
+  </si>
+  <si>
+    <t>['62- BOREWELL ROAD, WHITEFIELD SHOULD NOT BE WIDENED AGAIN 1) We are senior citizens who have already lost over 8 -10 feet of land and boundary walls (2005) that had to be rebuilt at our own expense.  Todate, no authority has made the effort to compensate us or recognise the seizure of our lands.  2) due to the above, our houses are dangerously close to the road - air and noise pollution that has lead to ailments such as allergies, skin and respiratory diseases and greater loss of hearing.  3) last but equally important, our homes will be destroyed when further widening happens.  These are our homes built with hard earned money for our lifetime.  Where are we to go?  These periodical threats have made us feel very insecure in our sunset years.  We are responsible taxpayers and law abiding citizens.   Similarly, we expect the government to protect our interests before they consider such ‘developmental’ plans. Khurshid Balsara, 265 Borewell Road, Whitefield, Bangalore 560066\n', '24- Please allow big sky scrappers in this city. this will save land and allow to create big parks. But these buildings should be earthquake proof for a eathquake as powerful as 8.5 on Richter scale.\n', '47- Poor land use, illegal occupation by the powerful and Corrupt and an extremely unhealthy situation is created in the city.\n', '35- If land use is given prime concern like alloting the right proportions for housing,green cover,roadways,garbage and sewage management etc. then automatically so many issues are taken care of.\n', '42- Footpaths are encroached all over the city. Build barriers for vehicles  to enter footpaths. Food vendors have taken up Whitefield foot paths totally. I have raised complains like 6 times. Complain was closed without doing anything. Food vendors dirty the place and throw garbage on footpaths and roads. Chances of pedestrians meeting accident due to vehicular movement on roads.\n', '1- every house/township/apartment newly build should be mandated to plant minimum 5 times the tress destroyed in that area. Because all plants planted might now grow so if it is planted in higher number 30% of it will grow.\n', "27- Everyday new vehicles are causing parking hazards while the number of no parking boards increase. Why no solution for these things? Let me suggest you - please utilise manekshaw parade grounds and the outer part of chinnaswamy stadium for parking. Also you may discuss with school authorities of schools with huge playgrounds to allow parking between 6 pm to 10 pm. This will not affect the school's daily activities and solve parking problems. Thanks \n", '19- Not maintained, not used or maintained for the specific purpose. Most of the land encroached or dumped the garbage.\n', '18- it sounds great but we need to awarer of the land using as if there is no tomorrow  try planting as much as tree , like  at the traffic signals,bus stops and the area where people roam around more. We can always take this forward without even seeing it as a huge step.\n', '49- Objection to widening of Borewell Road, Whitefield  Our homes will be destroyed with any further road widening.  We are senior citizens and built/ bought these homes as our retirement homes.  Also, with earlier road widening, we have already lost 8-10 feet of land and boundary walls, trees and garden for which we were never compensated.  Also, no authority has acknowledged this loss or taken responsibility.  The government needs to protect its citizens who are regular taxpayers and abide by rules and regulations.   We’re already too close to the road and are now suffering from air and noise pollution, which has lead to skin, respiratory diseases, allergies and further hearing loss. KnP Sridharan, 244 Borewell Road, Whitefield, Bangalore 560066\n']</t>
   </si>
   <si>
     <t>['2- Water bodies encroachment should be reversed and all the land should be taken  back \n', '39- Encroachment of lands by builders which are lakes or water bodies creates water shortage and decreases ground water level.\n']</t>
   </si>
   <si>
-    <t>['3- Dissolve BDA and BBMP permanently. \n', '64- Great Initiative by BDA\n', '52- Great \n']</t>
-  </si>
-  <si>
-    <t>['4- some places which were residential in old CDP have changed to other like semi public, or park without any reason even after they have been converted from agriculutur. \n', '17- Land marked in RMP 2015 as residential use is marked as transport use in RMP 2031\n', '36- I have noticed that the sy no for which BDA has issued NOC for conversion of land from agriculture to residential purpose and the DC has already converted the sy no to residential purpose based on the NOC issued by BDA have been changed to Public and semi public with out issuing Notices land owners regarding the same\n']</t>
+    <t>['52- Great \n', '64- Great Initiative by BDA\n', '3- Dissolve BDA and BBMP permanently. \n']</t>
+  </si>
+  <si>
+    <t>['4- some places which were residential in old CDP have changed to other like semi public, or park without any reason even after they have been converted from agriculutur. \n', '36- I have noticed that the sy no for which BDA has issued NOC for conversion of land from agriculture to residential purpose and the DC has already converted the sy no to residential purpose based on the NOC issued by BDA have been changed to Public and semi public with out issuing Notices land owners regarding the same\n', '17- Land marked in RMP 2015 as residential use is marked as transport use in RMP 2031\n']</t>
   </si>
   <si>
     <t>['6- Please don’t allow commercial activities in purely resedential areas in the Name of mixed use . All bye lanes of Koramangala and indiranagar have already been spoiled . HSR layout is next in line \n', '54- Redefine category of commercial property. Should a Kirana store be considered as commercial property? Residential areas will have small stores which is essential for the community. Increase use of mixed purpose use of property.\n', '13- Need to reduce the mixed use of land. Meaning, BDA need to separate the commercial versus residential areas.\n']</t>
   </si>
   <si>
-    <t>['7- Got an unique plan for Namma Bengaluru to go vertical! No need to revise the CDP for every 15years, without completing 80% of work!  My plan is for 100years and complete the whole CDP on ground reality (Work done within 5years.) With no loss for land lords and profitable for Government!!! More over it would be a study model for developed western countries!!!!!! To know more fix up a meet with Mr. CM, BDA Chairman &amp; BDA Commissioner.  With warm regards Syed Hassan Naazir Abedi +91 9620463836 Email: naazirabedi@gmail.com\n', '29- Ok. But use more land for growing trees. Make Bangalore airial view prior to 1991.\n', '30- CA sites are not properly marked as public/semi public sites at HMT Layout R T Nagar, HMT Layout is not marked as Visvesvaraya Nagar (V V Nagar) a slum is named as Visvesvarayanagar\n', '9- BDA it self is violating green belt norms, added to that even after development is allowed in Green belt still May shows in green which is ridiculous,... secondly BDA plan states 100ft road for certain areas in 2015 plan, but its not implemented... master plan has last its value, its a wasteful expenditure exercise... \n', "50- Existing parks in Defence Colony, PD 2, have not been marked correctly. These are the senior citizen's park (4th cross, 4th main) and the small playground adjacent to the 6th main maidan on the link road. These are parks/grounds currently and needs to be corrected and recognised as parks in the 2031 plan instead of as residential.\n", '57- Proposed compensation for existing structures is not fair. There should be compensation in correctness to the market value. Any unfair comp would be not add value to the master plan of making Bangalore better by cheating people. \n']</t>
+    <t>['9- BDA it self is violating green belt norms, added to that even after development is allowed in Green belt still May shows in green which is ridiculous,... secondly BDA plan states 100ft road for certain areas in 2015 plan, but its not implemented... master plan has last its value, its a wasteful expenditure exercise... \n', "50- Existing parks in Defence Colony, PD 2, have not been marked correctly. These are the senior citizen's park (4th cross, 4th main) and the small playground adjacent to the 6th main maidan on the link road. These are parks/grounds currently and needs to be corrected and recognised as parks in the 2031 plan instead of as residential.\n", '7- Got an unique plan for Namma Bengaluru to go vertical! No need to revise the CDP for every 15years, without completing 80% of work!  My plan is for 100years and complete the whole CDP on ground reality (Work done within 5years.) With no loss for land lords and profitable for Government!!! More over it would be a study model for developed western countries!!!!!! To know more fix up a meet with Mr. CM, BDA Chairman &amp; BDA Commissioner.  With warm regards Syed Hassan Naazir Abedi +91 9620463836 Email: naazirabedi@gmail.com\n', '29- Ok. But use more land for growing trees. Make Bangalore airial view prior to 1991.\n', '30- CA sites are not properly marked as public/semi public sites at HMT Layout R T Nagar, HMT Layout is not marked as Visvesvaraya Nagar (V V Nagar) a slum is named as Visvesvarayanagar\n', '57- Proposed compensation for existing structures is not fair. There should be compensation in correctness to the market value. Any unfair comp would be not add value to the master plan of making Bangalore better by cheating people. \n']</t>
   </si>
   <si>
     <t>['22- Hi\n']</t>
@@ -1483,96 +1227,73 @@
     <t>['63- Good\n']</t>
   </si>
   <si>
-    <t xml:space="preserve">12- On ground reality and the plan does not match. It looks certain that the planning team never visited locations and made plans sitting in the office with out getting real time situation. The tragic traffic situation in Bangalore is haphazard approval or unauthorised development of SMALL scale residential layouts and apartment complexes. At least one the areas planned for residential purposes should be in a mega scale like PRIVATE CLUSTER OF LANDS AND WHOLESOME PLANNING OF HUDREDS OF ACRES IN A PLANNED TOWNSHIP AND ACCESSABILITY. DO NOT PERMIT  A FEW ACRES FOR PIECE MEAL DEVELOPMENT AND CONSOLIDATE HUNDREDS OR EVEN THOSANDS OF ACRES IN TO ONE TOWNSHIP PLANNING. LIKE WHO EVER PLANNED JAYANAGAR N JP NAGAR ROAD FRON SOUTH END CIRCLE TO BANASHANKARI_SILK BOARD ROAD, 30 YEARS AGO.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15- Please make a rule that all new buildings constructed in Bangalore especially in crowded areas, market places, Highways etc to strictly and compulsorily make provisions for public toilets inside their building to be maintained by BBMP. The area of the Toilet should be not less than 200 Sft. BBMP will provide extra FAR for the area of the toilet of double the same For EX. if toilet area is 200 sft, Builder gets increase in FAR of say 400 to 500 sft which can be added to the building in any Floor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26- Residential buildings within Survey #77 are being shown as being either on the Chikkalasandra lake or in the buffer zone. This is a big change from previous bda master plan, where they were shown as legitimate residential buildings. Please rectify this error.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28- Some area like chokasandra village, which is around 2 km from Sarjapura main Road should have been considered for yellow zone since there are good schools and other facilities so that people can build houses and leave peacefully from the city.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32- Lake boundaries buffer zone in not possible in developed areas 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37- This is pretty neat. Well thought out. Hope the implementation is taken up with same vigor as the green buffer mostly gets occupies illegally. There needs to be a punishable law to take action against those who occupy green belts illegally. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40- There is NO consensus taken from public and there is NO awareness about CDP 2031. The NGT increased the Buffer zone to 70 mts for all lakes in bangalore. NGT is referring to maps which are based on 1905 British survey. most of these lakes have dried up in 1970's and 1980's and there is no source of any water in these lakes left. BDA has converted these lakes and areas around lakes for residential use to be sold to public. now what is the point of looking at old non-existent lakes. NGT should do a current survey to outline current lakes and try to save them instead. It is duty of BDA to protect the rights of public who have legally purchased the sites based on their life savings and have being pay property tax regularly. If the CDP is approved most of the areas around lakes will lose it's value, BDA should look to compensate to public via its market value as many people have already constructed houses in this areas. BDA should deal this matter very delicately otherwise it will be a catastrophe for all bangaloreans and it will destroy 1/3 bangalore. people will not trust and invest in bangalore anymore.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41- Survey #77 at Chikkalasandra is now in buffer zone which is huge deviation from previous plan
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45- The village yellow zone limits has to be increased by actual as the development has been more in that area 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46- Sir please take out buffer zone near lake as our plots will have no value and we had bought in 2002 and if you add 75mts around the lake our resale market value of the plots will become zero value Area chikkalsandra lake 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51- Rajakaluve buffer zone is too much. And should maintain the old buffer zone... People buy sites by all hard earned money..why BDA gives approval for such areas.  So its can't be changed just like that. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14- The city needs more lungs. There are places like Ramamurthy nagar which has no park. Every inch is covered by buildings. Buildings jutting into the foot paths. , no place for children to play, or adults to walk. The foot paths are in terrible state . with gaps opening into drainage, vendors blocking the foot paths completely.The city is choking and all of us , Bangaloreans feel our health is deteriorating because of the over crowding and all other things that follow mushrooming of buildings. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16- Government should stop approving Big Apartments and Tech parks construction where already the traffic and population density is high.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25- Illegal constructions and constructing buildings very close to each other is resulting in less water. For every building, there should be at least one tree planted.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43- Stop any further urbanization, ask government to leverage other cities, stop migration of people , if continue to allow any more building , city will die due shortage of water, road, air, 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44- Plot no. 2 in LIC Colony, Jivan Bima Nagar is marked as Post Office. the post office already exists in the earmarked area.. Also Kittur Rani Chennamma park exists is a small corner.. this whole area is the only Green area in the colony and is surrounded by 30 feet roads.. by keeping it as public utility spaces, you are creating additional traffic and footfalls in an already crowded colony.. Also there is no other playground/park for a 1 km surrounding and this is the only lungspace available for the colony residents.. Do not trade the lung space and environment of the colony for noise polluting concrete jungles and spoil the lives of the citizens around.. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48- The city is already extremely densely populated, we need to expand the municipal boundaries by at least 15 kms in all directions so that more areas open up to development 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53- Shift the industries and software parks with in central city limits. This will make people move to city outskirts for housing needs there by decongestion in the central city. I don't understand how can NDA give permission to open software parks in main city and expect traffic to reduce and nearby already cramped neighborhood to be in livable conditions. Please use land near Nelamagala so that city can grow towards other cities and help the locals maximum rather developing areas near Karanataka border. It's very disappointing to know that Nelamagala area has never been considered for industrial parks though the access to new airport is much better compared to other areas. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61- During 1995, Bangalore was city of Parks, Gardens, Lakes. By 2018 unfortunately it has be come polluted cement and traffic city. We should use afforestation and restore greenery of Bangalore. One way to make space in existing land, is by political intervention, convert single story homes spread out in a layout to multi-story building and use the space which gets created for planting trees. It will take a strong political will and discussion with residents to bring about this change. City should be designed to support a population of 4-5 million people in 1000 km square. We are (as of 2018) 8.4 million in 700 km square. We should develop sisters cities such as Tumkur and Ramanagar instead of over populating Bangalore. Whether it is pollution, traffic, the root cause of the problem is Population! Whenever an apartment or mall is constructed, area on which trees should be planted should be indicated and made sure of by BDA/BBMP. Bangalore should have world class roads - not pot hole roads. Please request big companies with track records of creating great infrastructure such as L&amp;T and HCC to build roads for Bangalore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- Many existing roads have not been shown.I have seen Planning Districts 1 &amp; 2 and have seen many existing roads not shown.It appears that due diligence has not been followed.In Planning District 1,portions of  earlier Residential (Main) are shown as "Unclassified".These were originally(in CDP) shown as Residential and have not changed in any way.But in RMP 2031 Draft they are shown as Unclassified.The same blunder is being made again and again reflecting the laxity in preparing the Existing Land Use Map.If this is incorrect then how can the Proposed Land Use Map make sense?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8- All major roads footpaths in residential roads are occupied by vendors and hawkers, which hinders the smooth movement of public on footpaths. My request is to earmark specific open areas for vendors and hawkers for their trade and make free footpath for movement of public
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10- In plan the roads are passing through the apartments without proper planning
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20- Land aqusation for roads not satisfied
-</t>
+    <t>{'response': '12- On ground reality and the plan does not match. It looks certain that the planning team never visited locations and made plans sitting in the office with out getting real time situation. The tragic traffic situation in Bangalore is haphazard approval or unauthorised development of SMALL scale residential layouts and apartment complexes. At least one the areas planned for residential purposes should be in a mega scale like PRIVATE CLUSTER OF LANDS AND WHOLESOME PLANNING OF HUDREDS OF ACRES IN A PLANNED TOWNSHIP AND ACCESSABILITY. DO NOT PERMIT  A FEW ACRES FOR PIECE MEAL DEVELOPMENT AND CONSOLIDATE HUNDREDS OR EVEN THOSANDS OF ACRES IN TO ONE TOWNSHIP PLANNING. LIKE WHO EVER PLANNED JAYANAGAR N JP NAGAR ROAD FRON SOUTH END CIRCLE TO BANASHANKARI_SILK BOARD ROAD, 30 YEARS AGO.\n', 'score': 0.29559080402832305}</t>
+  </si>
+  <si>
+    <t>{'response': '15- Please make a rule that all new buildings constructed in Bangalore especially in crowded areas, market places, Highways etc to strictly and compulsorily make provisions for public toilets inside their building to be maintained by BBMP. The area of the Toilet should be not less than 200 Sft. BBMP will provide extra FAR for the area of the toilet of double the same For EX. if toilet area is 200 sft, Builder gets increase in FAR of say 400 to 500 sft which can be added to the building in any Floor.\n', 'score': 0.5044962140204103}</t>
+  </si>
+  <si>
+    <t>{'response': '26- Residential buildings within Survey #77 are being shown as being either on the Chikkalasandra lake or in the buffer zone. This is a big change from previous bda master plan, where they were shown as legitimate residential buildings. Please rectify this error.\n', 'score': 0.5611229723731106}</t>
+  </si>
+  <si>
+    <t>{'response': '28- Some area like chokasandra village, which is around 2 km from Sarjapura main Road should have been considered for yellow zone since there are good schools and other facilities so that people can build houses and leave peacefully from the city.  \n', 'score': 0.5845656221489116}</t>
+  </si>
+  <si>
+    <t>{'response': '32- Lake boundaries buffer zone in not possible in developed areas \n', 'score': 0.6503839186421505}</t>
+  </si>
+  <si>
+    <t>{'response': '37- This is pretty neat. Well thought out. Hope the implementation is taken up with same vigor as the green buffer mostly gets occupies illegally. There needs to be a punishable law to take action against those who occupy green belts illegally. \n', 'score': 0.5310775028358354}</t>
+  </si>
+  <si>
+    <t>{'response': "40- There is NO consensus taken from public and there is NO awareness about CDP 2031. The NGT increased the Buffer zone to 70 mts for all lakes in bangalore. NGT is referring to maps which are based on 1905 British survey. most of these lakes have dried up in 1970's and 1980's and there is no source of any water in these lakes left. BDA has converted these lakes and areas around lakes for residential use to be sold to public. now what is the point of looking at old non-existent lakes. NGT should do a current survey to outline current lakes and try to save them instead. It is duty of BDA to protect the rights of public who have legally purchased the sites based on their life savings and have being pay property tax regularly. If the CDP is approved most of the areas around lakes will lose it's value, BDA should look to compensate to public via its market value as many people have already constructed houses in this areas. BDA should deal this matter very delicately otherwise it will be a catastrophe for all bangaloreans and it will destroy 1/3 bangalore. people will not trust and invest in bangalore anymore.  \n", 'score': 0.5927211932351577}</t>
+  </si>
+  <si>
+    <t>{'response': '41- Survey #77 at Chikkalasandra is now in buffer zone which is huge deviation from previous plan\n', 'score': 0.6134008574154938}</t>
+  </si>
+  <si>
+    <t>{'response': '45- The village yellow zone limits has to be increased by actual as the development has been more in that area \n', 'score': 0.6546650381897038}</t>
+  </si>
+  <si>
+    <t>{'response': '46- Sir please take out buffer zone near lake as our plots will have no value and we had bought in 2002 and if you add 75mts around the lake our resale market value of the plots will become zero value Area chikkalsandra lake \n', 'score': 0.5816171635785528}</t>
+  </si>
+  <si>
+    <t>{'response': "51- Rajakaluve buffer zone is too much. And should maintain the old buffer zone... People buy sites by all hard earned money..why BDA gives approval for such areas.  So its can't be changed just like that. \n", 'score': 0.4565582184692661}</t>
+  </si>
+  <si>
+    <t>{'response': '14- The city needs more lungs. There are places like Ramamurthy nagar which has no park. Every inch is covered by buildings. Buildings jutting into the foot paths. , no place for children to play, or adults to walk. The foot paths are in terrible state . with gaps opening into drainage, vendors blocking the foot paths completely.The city is choking and all of us , Bangaloreans feel our health is deteriorating because of the over crowding and all other things that follow mushrooming of buildings. \n', 'score': 0.5775199292456462}</t>
+  </si>
+  <si>
+    <t>{'response': '16- Government should stop approving Big Apartments and Tech parks construction where already the traffic and population density is high.\n', 'score': 0.5400690438454602}</t>
+  </si>
+  <si>
+    <t>{'response': '25- Illegal constructions and constructing buildings very close to each other is resulting in less water. For every building, there should be at least one tree planted.\n', 'score': 0.49084525916644195}</t>
+  </si>
+  <si>
+    <t>{'response': '43- Stop any further urbanization, ask government to leverage other cities, stop migration of people , if continue to allow any more building , city will die due shortage of water, road, air, \n', 'score': 0.5470709953835003}</t>
+  </si>
+  <si>
+    <t>{'response': '44- Plot no. 2 in LIC Colony, Jivan Bima Nagar is marked as Post Office. the post office already exists in the earmarked area.. Also Kittur Rani Chennamma park exists is a small corner.. this whole area is the only Green area in the colony and is surrounded by 30 feet roads.. by keeping it as public utility spaces, you are creating additional traffic and footfalls in an already crowded colony.. Also there is no other playground/park for a 1 km surrounding and this is the only lungspace available for the colony residents.. Do not trade the lung space and environment of the colony for noise polluting concrete jungles and spoil the lives of the citizens around.. \n', 'score': 0.5873743944738706}</t>
+  </si>
+  <si>
+    <t>{'response': '48- The city is already extremely densely populated, we need to expand the municipal boundaries by at least 15 kms in all directions so that more areas open up to development \n', 'score': 0.6853469926457824}</t>
+  </si>
+  <si>
+    <t>{'response': "53- Shift the industries and software parks with in central city limits. This will make people move to city outskirts for housing needs there by decongestion in the central city. I don't understand how can NDA give permission to open software parks in main city and expect traffic to reduce and nearby already cramped neighborhood to be in livable conditions. Please use land near Nelamagala so that city can grow towards other cities and help the locals maximum rather developing areas near Karanataka border. It's very disappointing to know that Nelamagala area has never been considered for industrial parks though the access to new airport is much better compared to other areas. \n", 'score': 0.6944094423931523}</t>
+  </si>
+  <si>
+    <t>{'response': '61- During 1995, Bangalore was city of Parks, Gardens, Lakes. By 2018 unfortunately it has be come polluted cement and traffic city. We should use afforestation and restore greenery of Bangalore. One way to make space in existing land, is by political intervention, convert single story homes spread out in a layout to multi-story building and use the space which gets created for planting trees. It will take a strong political will and discussion with residents to bring about this change. City should be designed to support a population of 4-5 million people in 1000 km square. We are (as of 2018) 8.4 million in 700 km square. We should develop sisters cities such as Tumkur and Ramanagar instead of over populating Bangalore. Whether it is pollution, traffic, the root cause of the problem is Population! Whenever an apartment or mall is constructed, area on which trees should be planted should be indicated and made sure of by BDA/BBMP. Bangalore should have world class roads - not pot hole roads. Please request big companies with track records of creating great infrastructure such as L&amp;T and HCC to build roads for Bangalore.\n', 'score': 0.5803938579440661}</t>
+  </si>
+  <si>
+    <t>{'response': '5- Many existing roads have not been shown.I have seen Planning Districts 1 &amp; 2 and have seen many existing roads not shown.It appears that due diligence has not been followed.In Planning District 1,portions of  earlier Residential (Main) are shown as "Unclassified".These were originally(in CDP) shown as Residential and have not changed in any way.But in RMP 2031 Draft they are shown as Unclassified.The same blunder is being made again and again reflecting the laxity in preparing the Existing Land Use Map.If this is incorrect then how can the Proposed Land Use Map make sense?\n', 'score': 0.3515463461997804}</t>
+  </si>
+  <si>
+    <t>{'response': '8- All major roads footpaths in residential roads are occupied by vendors and hawkers, which hinders the smooth movement of public on footpaths. My request is to earmark specific open areas for vendors and hawkers for their trade and make free footpath for movement of public\n', 'score': 0.5976335086047693}</t>
+  </si>
+  <si>
+    <t>{'response': '10- In plan the roads are passing through the apartments without proper planning\n', 'score': 0.5125335522973197}</t>
+  </si>
+  <si>
+    <t>{'response': '20- Land aqusation for roads not satisfied\n', 'score': 0.5356829917905839}</t>
   </si>
   <si>
     <t xml:space="preserve">Each park will have facilities for sports, and four large sports complexes will be built across the city
@@ -1591,80 +1312,61 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4- It is not clear how what has not been able to do over last 70 years (no new big parks built after independence) , can be done in next 12 years. There is no clear idea on how to procure land for these. At periphery even if done, it cannot be accessed by majority population.  The  best way for Bangalore to create more parks and recreation is create spaces from defense and govt lands. It would be good if govt can convince defense establishments in and around Bangalore to move out and establish their centers in other districts. Govt should provide enough incentives, land for defense to vacate their land in prime areas of Bangalore. The vacated land can be converted to parks and recreation centers. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12- More and more maintenance needed.Proper installation of sports facility as well.Badminton courts and all should be maintained,Install Open Gyms and maintaining it properly.Also there should be some Affordable clubs where people can register themselves and play as per their interest basis.There is no Swimming pool in BTM 2nd stage.I request the government to please look into this corner.Citizens are getting health conscious day by day and this can lead bengaluru to live upto its expectation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14- Actually everything is paper only. We are not seeing anything in action like dustbin distribution to all APL and BPL house holds across all wards and changing all the street lights to LED lights. Where are funds gone which were allocated in the last year BBMP budgets?. Everything is published on the news papers but nothing is being implemented. We are living in a layout near veerannapalya  and there is no park for walking and road are stinking because of opendefacation. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19- children parks are very very less compared to normal city's. For kids entertainment option is available is artificial environment created in commercial  multiplex malls.Green city can accommodate some space for parks which is very useful for kids and oldage people which is not finding in Banflore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26- Recreation center in every square km is need of the hour. I see people doesn't have space for sports and even for morning or evening walk.  This is very necessary to make people physically and mentally healthy and fit so that they can contribute for this city and the nation. This is one of the most urgently implemented plan.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27- The encroachment of plots reserved for parks and sports as per earliar plans should be removed developed along with new proposals.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31- Open playgrounds are awfully inadequate. Even schools lack enough playgrounds forcing children to take to roads. Playgrounds should be spread across the entire city so that long travel is avoided. Sports equipment may be made available on rent out basis at these grounds for the benefit of youth who cannot afford but have an inclination for sports.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35- Mandatory one park for every 25000 people will help grow greenery over the city and Increase oxygen in city
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40- Every city in India and the world plans some recreational, parks, open spaces for children and everyone to relax, enjoy fresh air, interact with community etc but in Bengaluru, there is no provision of any such facilities especially on the outer sides of the city where the land is just being converted to buildings around narrow lanes without any open space being left.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45- There is a need for smaller parks in localities. People cant always access the large parks. Empty sites could be identified and turned into parks for people to walk in the morning and for kids to play. BDA should ensure that every locality/layout has a small park. Also micro forests could be made to have greenery. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48- Can we residents of Roopena Agrahara residing near Madiwala lake have a small park besides lake at 5th cross. This corner is being ignored completely as sewage gutter flows just next to it. Also the park at ViratNagar is quite far for residents staying in 2,3,4,5 th cross. Kids are forced to play on roads which is unsafe due to fast running vehicles and roads are without standardized bumps/ Speed breakers. Think of having a park in our area too. Thank you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54- Instead of large works please plan for many smaller ones
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63- The existing lakes, that are encroached and sizes are greatly reduced, needs clear boundary to be set up. A park along periphery can only happen then. The yele mallappa shetty lake, is a classic example, one of the biggest in Bangalore, one of the major roads cross it, and there is so much negligence that a huge pocket of greenery and lung space is slowly dying. A timely step to address such challenges will help the city in the long term.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64- in the Cosmo city where the city operates for 24 hours, people have different schedules. hence night shift people have no access for parks, so measures should be taken to operate parks for 24hours with strict security , solar powered lighting, with CCTV's
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68- I have seen Bengaluru spread like virus. In this coarse, the entire structure has changed bringing about a lot of change and reduction in the amenities around certain areas. One such amenity is a playground. I have lived in Malleswaram for 20 years and have seen the change taken place. This ground was once a most wanted field for Football matches, Kabaddi tourney's, Cricket tourney's. But now every ground around Bengaluru is occupied either for some political event or by educational institutions. These should have their restrictions and the BBMP should ensure that a playground id used for a specific purpose and not for any personal event. Although few smaller grounds are converted to walking parks, it is also important to ensure that there is a decent amount of place left for outdoor sports to be played.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11- Need to increase Park space and available timings to general public with proper security and toilets.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13- No Park in bangalore except the older part. I stayed in e-city, now in panathur, Balagere. There is no plan of park here. It must be included in all the areas.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38- Park sanctioned in Kanaka Nagar area near raily crossing gate , But still the work has not begun from past 4 years. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69- More parks are to created in CA sites.
-</t>
+    <t>{'response': '4- It is not clear how what has not been able to do over last 70 years (no new big parks built after independence) , can be done in next 12 years. There is no clear idea on how to procure land for these. At periphery even if done, it cannot be accessed by majority population.  The  best way for Bangalore to create more parks and recreation is create spaces from defense and govt lands. It would be good if govt can convince defense establishments in and around Bangalore to move out and establish their centers in other districts. Govt should provide enough incentives, land for defense to vacate their land in prime areas of Bangalore. The vacated land can be converted to parks and recreation centers. \n', 'score': 0.660261617731406}</t>
+  </si>
+  <si>
+    <t>{'response': '12- More and more maintenance needed.Proper installation of sports facility as well.Badminton courts and all should be maintained,Install Open Gyms and maintaining it properly.Also there should be some Affordable clubs where people can register themselves and play as per their interest basis.There is no Swimming pool in BTM 2nd stage.I request the government to please look into this corner.Citizens are getting health conscious day by day and this can lead bengaluru to live upto its expectation.\n', 'score': 0.5928612661025137}</t>
+  </si>
+  <si>
+    <t>{'response': '14- Actually everything is paper only. We are not seeing anything in action like dustbin distribution to all APL and BPL house holds across all wards and changing all the street lights to LED lights. Where are funds gone which were allocated in the last year BBMP budgets?. Everything is published on the news papers but nothing is being implemented. We are living in a layout near veerannapalya  and there is no park for walking and road are stinking because of opendefacation. \n', 'score': 0.5812481317881141}</t>
+  </si>
+  <si>
+    <t>{'response': "19- children parks are very very less compared to normal city's. For kids entertainment option is available is artificial environment created in commercial  multiplex malls.Green city can accommodate some space for parks which is very useful for kids and oldage people which is not finding in Banflore.\n", 'score': 0.6179796330378088}</t>
+  </si>
+  <si>
+    <t>{'response': "26- Recreation center in every square km is need of the hour. I see people doesn't have space for sports and even for morning or evening walk.  This is very necessary to make people physically and mentally healthy and fit so that they can contribute for this city and the nation. This is one of the most urgently implemented plan.\n", 'score': 0.5941994297619257}</t>
+  </si>
+  <si>
+    <t>{'response': '27- The encroachment of plots reserved for parks and sports as per earliar plans should be removed developed along with new proposals.\n', 'score': 0.6838199646379794}</t>
+  </si>
+  <si>
+    <t>{'response': '31- Open playgrounds are awfully inadequate. Even schools lack enough playgrounds forcing children to take to roads. Playgrounds should be spread across the entire city so that long travel is avoided. Sports equipment may be made available on rent out basis at these grounds for the benefit of youth who cannot afford but have an inclination for sports.\n', 'score': 0.6239294894096813}</t>
+  </si>
+  <si>
+    <t>{'response': '35- Mandatory one park for every 25000 people will help grow greenery over the city and Increase oxygen in city\n', 'score': 0.5658009387176065}</t>
+  </si>
+  <si>
+    <t>{'response': '40- Every city in India and the world plans some recreational, parks, open spaces for children and everyone to relax, enjoy fresh air, interact with community etc but in Bengaluru, there is no provision of any such facilities especially on the outer sides of the city where the land is just being converted to buildings around narrow lanes without any open space being left.\n', 'score': 0.7062113551425635}</t>
+  </si>
+  <si>
+    <t>{'response': '45- There is a need for smaller parks in localities. People cant always access the large parks. Empty sites could be identified and turned into parks for people to walk in the morning and for kids to play. BDA should ensure that every locality/layout has a small park. Also micro forests could be made to have greenery. \n', 'score': 0.6147472326400986}</t>
+  </si>
+  <si>
+    <t>{'response': '48- Can we residents of Roopena Agrahara residing near Madiwala lake have a small park besides lake at 5th cross. This corner is being ignored completely as sewage gutter flows just next to it. Also the park at ViratNagar is quite far for residents staying in 2,3,4,5 th cross. Kids are forced to play on roads which is unsafe due to fast running vehicles and roads are without standardized bumps/ Speed breakers. Think of having a park in our area too. Thank you.\n', 'score': 0.548155768046401}</t>
+  </si>
+  <si>
+    <t>{'response': '54- Instead of large works please plan for many smaller ones\n', 'score': 0.5072088482934074}</t>
+  </si>
+  <si>
+    <t>{'response': '63- The existing lakes, that are encroached and sizes are greatly reduced, needs clear boundary to be set up. A park along periphery can only happen then. The yele mallappa shetty lake, is a classic example, one of the biggest in Bangalore, one of the major roads cross it, and there is so much negligence that a huge pocket of greenery and lung space is slowly dying. A timely step to address such challenges will help the city in the long term.\n', 'score': 0.6461276456979433}</t>
+  </si>
+  <si>
+    <t>{'response': "64- in the Cosmo city where the city operates for 24 hours, people have different schedules. hence night shift people have no access for parks, so measures should be taken to operate parks for 24hours with strict security , solar powered lighting, with CCTV's\n", 'score': 0.6433953521239881}</t>
+  </si>
+  <si>
+    <t>{'response': "68- I have seen Bengaluru spread like virus. In this coarse, the entire structure has changed bringing about a lot of change and reduction in the amenities around certain areas. One such amenity is a playground. I have lived in Malleswaram for 20 years and have seen the change taken place. This ground was once a most wanted field for Football matches, Kabaddi tourney's, Cricket tourney's. But now every ground around Bengaluru is occupied either for some political event or by educational institutions. These should have their restrictions and the BBMP should ensure that a playground id used for a specific purpose and not for any personal event. Although few smaller grounds are converted to walking parks, it is also important to ensure that there is a decent amount of place left for outdoor sports to be played.\n", 'score': 0.6723835162814011}</t>
+  </si>
+  <si>
+    <t>{'response': '11- Need to increase Park space and available timings to general public with proper security and toilets.\n', 'score': 0.40539230667658777}</t>
+  </si>
+  <si>
+    <t>{'response': '13- No Park in bangalore except the older part. I stayed in e-city, now in panathur, Balagere. There is no plan of park here. It must be included in all the areas.\n', 'score': 0.3913609743913304}</t>
+  </si>
+  <si>
+    <t>{'response': '38- Park sanctioned in Kanaka Nagar area near raily crossing gate , But still the work has not begun from past 4 years. \n', 'score': 0.5362677073512374}</t>
+  </si>
+  <si>
+    <t>{'response': '69- More parks are to created in CA sites.\n', 'score': 0.5030706372055608}</t>
   </si>
   <si>
     <t>['2- Although the plan is good to build around 8 parks, care must be taken to ensure that they are not harmed in the future (like 5-10 years into the future). I saw this with experience because, now during the metro construction, many parks have been removed and i do not see any possibilities to recreate them. This must not happen in the future. If there is no option available, it must be ensured that there will be a seamless integration of the two.  Also, one more aspect would be to allow some portion of the parks to be reserved for pets so that even our pets can enjoy the greenery and meet many furry friends. Ensuring the cleanliness of this place must be undertaken by both the pet owners and the government.\n']</t>
@@ -1685,7 +1387,7 @@
     <t>['25- Build more\n']</t>
   </si>
   <si>
-    <t>['65- Thank you for building and maintaining parks, its really helping to keep Bangalore - Garden City\n', "32- Teenagers should get enough of space near their house so that they can play cricket, football or any other outdoor game. This is extremely important for their physical and mental growth. Also, parents can keep a watch on their children's friend's circle. Currently, I see all teenagers sitting and talking or whatsapping or commenting at the dresses of passer-by. Green parks are there but only for walking and jogging, and that too one park for every 10000 people. Look at BTM Layout, HSR, Jayanagar, Koramangala. In New Delhi, every group of 15-20 house has a dedicated play-ground. Additionally, there are Green parks and Community centers for library with play ground.\n", "28- We need to create free of cost recreational or sport areas for kids. I don't see any place where kids can go and play they need to pay heftier amount for artificial grounds. All we can see is buildings. The concrete jungle\n"]</t>
+    <t>["28- We need to create free of cost recreational or sport areas for kids. I don't see any place where kids can go and play they need to pay heftier amount for artificial grounds. All we can see is buildings. The concrete jungle\n", '65- Thank you for building and maintaining parks, its really helping to keep Bangalore - Garden City\n', "32- Teenagers should get enough of space near their house so that they can play cricket, football or any other outdoor game. This is extremely important for their physical and mental growth. Also, parents can keep a watch on their children's friend's circle. Currently, I see all teenagers sitting and talking or whatsapping or commenting at the dresses of passer-by. Green parks are there but only for walking and jogging, and that too one park for every 10000 people. Look at BTM Layout, HSR, Jayanagar, Koramangala. In New Delhi, every group of 15-20 house has a dedicated play-ground. Additionally, there are Green parks and Community centers for library with play ground.\n"]</t>
   </si>
   <si>
     <t>['33- There should be a way to have proper safety of people while in the public parks.\n']</t>
@@ -1700,156 +1402,118 @@
     <t>['67- It is worth thinking about something along the lines of Miyawaki forest to create zones that will absorb carbon dioxide.\n']</t>
   </si>
   <si>
-    <t xml:space="preserve">24- Need more lung spaces planned with real good tree cover to nullify the carbon monoxide and CO2 emissions by the BMTC Volvo buses
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29- We need to maintain our lakes, disconnect drainage lines connected to lakes, increase number of trees in my city. Please let us know if we(public) can take some initiative to grown plants under namma metro. If yes, please let us know how can we do it.   We would like so see Bengaluru as a garden city rather than Silicon City.  Thanks, Nithya - 9964002090
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34- Parks are the main king space  Children’s these days are stuck to computers, mobiles and other indoor games mainly because there is no adequate parks or play grounds for their outings  Parks and gardens are the main places where elders get fresh air, peace of mind and new contacts and also source for passing time.  Therefore enough space has to b ear marked for opening parks with proper seating arrangements , security and staff to maintain them with sincerity. Above all it shd be seen that most of the time these parks and gardens are kept opened as different sections of the people get chance at different timings depending on their business activities or working hours.  Fountains shd b compulsorily installed and maintained.  Simultaneously it shd b seen that these lung spaces are not utilised for parties or political events or any other functions not even religious activities 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44- Public spaces are the most important. Hope this takes care of that. But getting land is going to be challenge. Most people throw cases at the government and these cases take for ever to complete. There needs to be good mechanism and specific committee looking into land acquisition. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50- We need to work on providing sufficient public toilets at regular distance throughout the city. It should be made compulsory to have toilets in all commercial buildings. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- I am sure that we will have all the above plans intact in the master plan of 2041 as well. Man, Bangalore has the best of natural resources in the form of multiple lakes and we need to learn to use them. Control the pollution flowing into the lakes and make them the recreational places. We dont need huge 200-300 acres of land for it use the land around the existing lakes. You can give a develop and operate contract to any private builders without any big bribes going out of their pockets, which will compromise the quality and increase the prices for the general public.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- Area surrounding lakes can be used for parks and recreation. For example, varthur lake road is such a beautiful view if only it was maintained properly. It could be converted to receation area something similar to hyderabad’s necklace road or marine drive with parks foot paths.. food streets, water sports  and amphitheatre for piblic events.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8- Make the parks disabled friendly and wheelchair accessible and plan for maintenance .  Also an idea for recycling old vehicle carriages/cars etc - refurbish existing damaged vehicles and place them in parks to use as seating, or grow plants inside for decorative purposes. artists can spray paint on them on the outside. Just a thought. .
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9- There is no concrete plan of regional parks mentioned apart from just a number i.e. 8. This shows the level of planning done to still keep bangloreans breathing. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10- Building large parks is great, but we should also implement small measures now.  Like making sure neighbourhood parks are safe and clean, and planting trees and shrubs on road dividers.  They look good, and also help while driving by shielding the eyes from oncoming high beam lights.  But most importantly, you should make sure Parks are SAFE for kids, women and everyone, and have ample bathrooms so people don’t urinate here and there. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15- The currently peripheral areas such as Mahadevpura, Marathahalli, Whitefield, etc. do not have any usable parks whatsoever. Parks should be mandated and the land earmarked well before real estate starts picking up in the newer areas.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16- We need to build parks along side all future roads atleast on a 1-3 metres width and also on medians.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17- as part of building parks, pls allow spaces where children can play. these days we are seeing parts with walking lanes and grass lwns with no space to play. older parks like MN Krishnarao park that used to have large playarea has been converted and much of it is now turned into lawns. allowing kids to play will help their physical development.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18- And also concentrate on small parks in and around the locality. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20- I am little surprised that we dont have any sports facilities spead across the city. Only few are concentrated at Kantiveera area. I think we need to encourage people to take up sports by creating better parks, or running trails around lakes and preserve them. More sports facilities like Swimming pool, bedminton courts, TT etc need to be setup . So, common man can also use it. This is the area which is completely ignored. Many private players,gyms are making huge money.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22- There is a need to maintain the current parks well. It is an urgent requirement to stop the flow of traffic in Cubbon Park (24*7) just like in Lalbagh so as to protect the sanctity and ecology of the lung space.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23- The existing parks need to be cleaned and maintained first. Lots of parks lack lighting, do not have proper fencing and has become dumping grounds. Creation of new parks is appreciated but funds must be allocated for the effective maintenance of the existing parks as well. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30- Parks, squares, open plaza is what makes life in the city bearable or even pleasant. Large parks are important but smaller such public open spaces are essentials! They allow kids to play safely outside,close to their homes , they give a ground for social interactions and strengthen community bonds. They are missing in many areas of Bangalore.This goes in par with guaranteeing safe pedestrian routes and accesses. Instead ofspending so much money on fancy fences and complexe ornemental plantations and paved paths, let the parks be simple and open with a few good trees ( why not fruit trees). There could also be deals between private land owner of empty plots and the municipality to use and maintain those plots as play grounds / parks against a small retribution, for a given duration.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37- One of the parks in my area named Taverekere park (Tank Bund Rd, Bhavani Nagar, Suddagunte Palya) would be replaced by the lake. It's important to make more storm water drains but replacing a park for it doesn't make ecological sense. Moreover, the lake would be surrounded by building which is against the developmental norms. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39- Existing parks need better maintainace and they must all contain clean toilets at every toilets. The parks must have open through the day and not dictate us as to when we must use the park. Also, if there are artificial ponds in these parks, those must be cleaned regularly and throwing of garbage and plastics must be banned and made a punishable offence.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41- Cannot ignore the smaller parks in the city hub as need green cover there also and don't encroach these areas come what may.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42- We have small parks in every locality. They are left ill-maintained.i believe we can convert them for the toddlers use. Making them like play parks with safe materials and not the metal ones. Kids are future. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43- Apart from the large parks, smaller parks in each locality are needed as it provides breathing space and recreation venue for all. Also the parks have to be kept children safe with good rubber mattings, sand pits for kids
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46- Successive governments have failed its people to provide good parks and recreation. Over the last 25 years parks and lakes have systematically disappeared - rampant corruption, false promises and the goonda factor ensured ensured that we were denied this very simple facility which in a democracy is akin to a fundamental right. The governments  'intent' has always been questionable.......someone has to ensure that such projects are completed in time and sustained all through!!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47- Most park areas were recently converted to Indira canteens, while it is ok, but please develop parks wherever they were planned. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49- Try to build more parks in residential areas 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51- Open spaces, parks and recreation areas are getting illegally encroached upon by the Corrupt arm of the society including the Politicians. Need more open space, greenery, water bodies for healthy living
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52- We need more parks and playgrounds near residential areas where kids can go and play everyday. Marathahalli area has zero parks. Large parks will make it like a amusement park and weekend visits.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53- Eight parks is a good start but we need to ensure that the development of these parks is transparent and accountable. We don't want to be in a situation wherein the parks take forever to complete. Prefarably the parks should have cycling tracks, running tracks and lots of free space and should be modelled like Cubbon Park.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55- the more the better. even small parks will help. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56- I moved to Bengaluru because it was called the Garden City, but most of this greenery is limited to the Old Bengaluru area (Cubbon Park, etc.). THe other side of the ORR (Mahadevpura, Hoodi, Whitefield and other areas) do not have sufficient green cover. We need more public parks, children's play areas, jogging/walking tracks etc. in these areas. This will help to increase tree cover and oxygen levels, which is vital, but will also reduce overall temperature, which in turn will reduce power consumption and also invite more rainfall to aid the water problem.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57- Plead you to develop atleast one lush green public park with rain trees. We need natural lungs in every layout or the population will be sick with asthma. Just having accessible clean parks and playgrounds will go long way to up the happiness quotient of the city. Please show the will power and reclaim abandoned land to build parks and gardens . The city will thank you and restore its prestige in international community.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58- Park timings: Many of public parks and gardens within the localities are closed for public between 11am - 5pm. All the public parks whether it is maintained by the Government bodies or Resident Welfare Associations, should be open and accessible to public all day long (5am - 10pm).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59- In Naganathapura There is No parks or Playgrounds for Children or elders to play or walk or relax (singasandra Ward)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60- Need more open area and parks for the citizens to use. Should avoid parking on roads of colonies. Kids are unable go out and play.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61- No parks no greenery 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66- We are from green city! but we've more parks and recreational area but we do not have the proper maintenance programs. "we build parks and forget"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70- make sure parks are dog friendly and you might earn a 10
-</t>
+    <t>{'response': '24- Need more lung spaces planned with real good tree cover to nullify the carbon monoxide and CO2 emissions by the BMTC Volvo buses\n', 'score': 0.4162806129617628}</t>
+  </si>
+  <si>
+    <t>{'response': '29- We need to maintain our lakes, disconnect drainage lines connected to lakes, increase number of trees in my city. Please let us know if we(public) can take some initiative to grown plants under namma metro. If yes, please let us know how can we do it.   We would like so see Bengaluru as a garden city rather than Silicon City.  Thanks, Nithya - 9964002090\n', 'score': 0.4823588643513205}</t>
+  </si>
+  <si>
+    <t>{'response': '34- Parks are the main king space  Children’s these days are stuck to computers, mobiles and other indoor games mainly because there is no adequate parks or play grounds for their outings  Parks and gardens are the main places where elders get fresh air, peace of mind and new contacts and also source for passing time.  Therefore enough space has to b ear marked for opening parks with proper seating arrangements , security and staff to maintain them with sincerity. Above all it shd be seen that most of the time these parks and gardens are kept opened as different sections of the people get chance at different timings depending on their business activities or working hours.  Fountains shd b compulsorily installed and maintained.  Simultaneously it shd b seen that these lung spaces are not utilised for parties or political events or any other functions not even religious activities \n', 'score': 0.6295961121449084}</t>
+  </si>
+  <si>
+    <t>{'response': '44- Public spaces are the most important. Hope this takes care of that. But getting land is going to be challenge. Most people throw cases at the government and these cases take for ever to complete. There needs to be good mechanism and specific committee looking into land acquisition. \n', 'score': 0.5051402123992123}</t>
+  </si>
+  <si>
+    <t>{'response': '50- We need to work on providing sufficient public toilets at regular distance throughout the city. It should be made compulsory to have toilets in all commercial buildings. \n', 'score': 0.49862528310740534}</t>
+  </si>
+  <si>
+    <t>{'response': '1- I am sure that we will have all the above plans intact in the master plan of 2041 as well. Man, Bangalore has the best of natural resources in the form of multiple lakes and we need to learn to use them. Control the pollution flowing into the lakes and make them the recreational places. We dont need huge 200-300 acres of land for it use the land around the existing lakes. You can give a develop and operate contract to any private builders without any big bribes going out of their pockets, which will compromise the quality and increase the prices for the general public.\n', 'score': 0.6416763537754087}</t>
+  </si>
+  <si>
+    <t>{'response': '5- Area surrounding lakes can be used for parks and recreation. For example, varthur lake road is such a beautiful view if only it was maintained properly. It could be converted to receation area something similar to hyderabad’s necklace road or marine drive with parks foot paths.. food streets, water sports  and amphitheatre for piblic events.\n', 'score': 0.7644454466107176}</t>
+  </si>
+  <si>
+    <t>{'response': '8- Make the parks disabled friendly and wheelchair accessible and plan for maintenance .  Also an idea for recycling old vehicle carriages/cars etc - refurbish existing damaged vehicles and place them in parks to use as seating, or grow plants inside for decorative purposes. artists can spray paint on them on the outside. Just a thought. .\n', 'score': 0.5338322719710951}</t>
+  </si>
+  <si>
+    <t>{'response': '9- There is no concrete plan of regional parks mentioned apart from just a number i.e. 8. This shows the level of planning done to still keep bangloreans breathing. \n', 'score': 0.5691593167892804}</t>
+  </si>
+  <si>
+    <t>{'response': '10- Building large parks is great, but we should also implement small measures now.  Like making sure neighbourhood parks are safe and clean, and planting trees and shrubs on road dividers.  They look good, and also help while driving by shielding the eyes from oncoming high beam lights.  But most importantly, you should make sure Parks are SAFE for kids, women and everyone, and have ample bathrooms so people don’t urinate here and there. \n', 'score': 0.6446348873019335}</t>
+  </si>
+  <si>
+    <t>{'response': '15- The currently peripheral areas such as Mahadevpura, Marathahalli, Whitefield, etc. do not have any usable parks whatsoever. Parks should be mandated and the land earmarked well before real estate starts picking up in the newer areas.\n', 'score': 0.6728835651280346}</t>
+  </si>
+  <si>
+    <t>{'response': '16- We need to build parks along side all future roads atleast on a 1-3 metres width and also on medians.\n', 'score': 0.6490608861403798}</t>
+  </si>
+  <si>
+    <t>{'response': '17- as part of building parks, pls allow spaces where children can play. these days we are seeing parts with walking lanes and grass lwns with no space to play. older parks like MN Krishnarao park that used to have large playarea has been converted and much of it is now turned into lawns. allowing kids to play will help their physical development.\n', 'score': 0.6692810591561803}</t>
+  </si>
+  <si>
+    <t>{'response': '18- And also concentrate on small parks in and around the locality. \n', 'score': 0.61883013298418}</t>
+  </si>
+  <si>
+    <t>{'response': '20- I am little surprised that we dont have any sports facilities spead across the city. Only few are concentrated at Kantiveera area. I think we need to encourage people to take up sports by creating better parks, or running trails around lakes and preserve them. More sports facilities like Swimming pool, bedminton courts, TT etc need to be setup . So, common man can also use it. This is the area which is completely ignored. Many private players,gyms are making huge money.\n', 'score': 0.6282604379278046}</t>
+  </si>
+  <si>
+    <t>{'response': '22- There is a need to maintain the current parks well. It is an urgent requirement to stop the flow of traffic in Cubbon Park (24*7) just like in Lalbagh so as to protect the sanctity and ecology of the lung space.\n', 'score': 0.671009776987207}</t>
+  </si>
+  <si>
+    <t>{'response': '23- The existing parks need to be cleaned and maintained first. Lots of parks lack lighting, do not have proper fencing and has become dumping grounds. Creation of new parks is appreciated but funds must be allocated for the effective maintenance of the existing parks as well. \n', 'score': 0.5969239926096055}</t>
+  </si>
+  <si>
+    <t>{'response': '30- Parks, squares, open plaza is what makes life in the city bearable or even pleasant. Large parks are important but smaller such public open spaces are essentials! They allow kids to play safely outside,close to their homes , they give a ground for social interactions and strengthen community bonds. They are missing in many areas of Bangalore.This goes in par with guaranteeing safe pedestrian routes and accesses. Instead ofspending so much money on fancy fences and complexe ornemental plantations and paved paths, let the parks be simple and open with a few good trees ( why not fruit trees). There could also be deals between private land owner of empty plots and the municipality to use and maintain those plots as play grounds / parks against a small retribution, for a given duration.\n', 'score': 0.6823651637013014}</t>
+  </si>
+  <si>
+    <t>{'response': "37- One of the parks in my area named Taverekere park (Tank Bund Rd, Bhavani Nagar, Suddagunte Palya) would be replaced by the lake. It's important to make more storm water drains but replacing a park for it doesn't make ecological sense. Moreover, the lake would be surrounded by building which is against the developmental norms. \n", 'score': 0.6689048223454039}</t>
+  </si>
+  <si>
+    <t>{'response': '39- Existing parks need better maintainace and they must all contain clean toilets at every toilets. The parks must have open through the day and not dictate us as to when we must use the park. Also, if there are artificial ponds in these parks, those must be cleaned regularly and throwing of garbage and plastics must be banned and made a punishable offence.\n', 'score': 0.6308760244940907}</t>
+  </si>
+  <si>
+    <t>{'response': "41- Cannot ignore the smaller parks in the city hub as need green cover there also and don't encroach these areas come what may.\n", 'score': 0.6859939773640522}</t>
+  </si>
+  <si>
+    <t>{'response': '42- We have small parks in every locality. They are left ill-maintained.i believe we can convert them for the toddlers use. Making them like play parks with safe materials and not the metal ones. Kids are future. \n', 'score': 0.548737406595819}</t>
+  </si>
+  <si>
+    <t>{'response': '43- Apart from the large parks, smaller parks in each locality are needed as it provides breathing space and recreation venue for all. Also the parks have to be kept children safe with good rubber mattings, sand pits for kids\n', 'score': 0.6890461675026951}</t>
+  </si>
+  <si>
+    <t>{'response': "46- Successive governments have failed its people to provide good parks and recreation. Over the last 25 years parks and lakes have systematically disappeared - rampant corruption, false promises and the goonda factor ensured ensured that we were denied this very simple facility which in a democracy is akin to a fundamental right. The governments  'intent' has always been questionable.......someone has to ensure that such projects are completed in time and sustained all through!!\n", 'score': 0.5781009259863595}</t>
+  </si>
+  <si>
+    <t>{'response': '47- Most park areas were recently converted to Indira canteens, while it is ok, but please develop parks wherever they were planned. \n', 'score': 0.6744869314655377}</t>
+  </si>
+  <si>
+    <t>{'response': '49- Try to build more parks in residential areas \n', 'score': 0.6332208340675618}</t>
+  </si>
+  <si>
+    <t>{'response': '51- Open spaces, parks and recreation areas are getting illegally encroached upon by the Corrupt arm of the society including the Politicians. Need more open space, greenery, water bodies for healthy living\n', 'score': 0.6177647787496097}</t>
+  </si>
+  <si>
+    <t>{'response': '52- We need more parks and playgrounds near residential areas where kids can go and play everyday. Marathahalli area has zero parks. Large parks will make it like a amusement park and weekend visits.\n', 'score': 0.7124126162840951}</t>
+  </si>
+  <si>
+    <t>{'response': "53- Eight parks is a good start but we need to ensure that the development of these parks is transparent and accountable. We don't want to be in a situation wherein the parks take forever to complete. Prefarably the parks should have cycling tracks, running tracks and lots of free space and should be modelled like Cubbon Park.\n", 'score': 0.6022877917037123}</t>
+  </si>
+  <si>
+    <t>{'response': '55- the more the better. even small parks will help. \n', 'score': 0.6425431851108531}</t>
+  </si>
+  <si>
+    <t>{'response': "56- I moved to Bengaluru because it was called the Garden City, but most of this greenery is limited to the Old Bengaluru area (Cubbon Park, etc.). THe other side of the ORR (Mahadevpura, Hoodi, Whitefield and other areas) do not have sufficient green cover. We need more public parks, children's play areas, jogging/walking tracks etc. in these areas. This will help to increase tree cover and oxygen levels, which is vital, but will also reduce overall temperature, which in turn will reduce power consumption and also invite more rainfall to aid the water problem.\n", 'score': 0.5975080149333606}</t>
+  </si>
+  <si>
+    <t>{'response': '57- Plead you to develop atleast one lush green public park with rain trees. We need natural lungs in every layout or the population will be sick with asthma. Just having accessible clean parks and playgrounds will go long way to up the happiness quotient of the city. Please show the will power and reclaim abandoned land to build parks and gardens . The city will thank you and restore its prestige in international community.\n', 'score': 0.632980297705519}</t>
+  </si>
+  <si>
+    <t>{'response': '58- Park timings: Many of public parks and gardens within the localities are closed for public between 11am - 5pm. All the public parks whether it is maintained by the Government bodies or Resident Welfare Associations, should be open and accessible to public all day long (5am - 10pm).\n', 'score': 0.6576141746851362}</t>
+  </si>
+  <si>
+    <t>{'response': '59- In Naganathapura There is No parks or Playgrounds for Children or elders to play or walk or relax (singasandra Ward)\n', 'score': 0.5642118368494076}</t>
+  </si>
+  <si>
+    <t>{'response': '60- Need more open area and parks for the citizens to use. Should avoid parking on roads of colonies. Kids are unable go out and play.\n', 'score': 0.5747896093593086}</t>
+  </si>
+  <si>
+    <t>{'response': '61- No parks no greenery \n', 'score': 0.6022190264718604}</t>
+  </si>
+  <si>
+    <t>{'response': '66- We are from green city! but we\'ve more parks and recreational area but we do not have the proper maintenance programs. "we build parks and forget"\n', 'score': 0.6808751565968963}</t>
+  </si>
+  <si>
+    <t>{'response': '70- make sure parks are dog friendly and you might earn a 10\n', 'score': 0.5320081434983286}</t>
   </si>
   <si>
     <t xml:space="preserve">109 additional substations and 2 large substations potentially in Devanahalli and Jigani
@@ -1880,64 +1544,49 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">21- Just increasing the no of substations in the City to cope up with the spurt in the energy demand is not going to serve the purpose. Being the silicon city of India, Multi-pronged approach with advance technologies(like I-DAS) has to be adopted to keep up the pace with the uninterruptible and increasing energy supply. Firstly, to ensure that supply meets demand, sufficient measures should be taken to encourage &amp; augment the  energy sources (preferably renewable energy resources) to incorporate sustainable development agenda 2030. Secondly, to experience uninterruptible power supply BESCOM must take pro-active approaches to arrest the unnecessary shutdown and See that the power is supplied at all times within the prescribed limits. Finally, stringent measures should be adopted to reduce the cost on consumption of electricity and make it affordable &amp; available for everyone in the city by reducing AT&amp;C losses, mitigating Administrative lapses, metering DTC's, avoiding power theft, replacing conductors, suitable locations of sub-stations, etc., For this to happen more colloborative holistic approach is the need of the hour.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Installation of small solar panels with battery like signal lights to be avoided. Grid connected solar panels should be installed on sky-walk, metro / bus stations &amp; private roof tops.  AC usage should be minimized by roof top cooling with solar panels / garden and no approval for glass facade buildings which heat-up inside !!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10- Setting up new power plants is a great initiative.We should move over to renewable energy resources now.As solar water heaters are compulsory in every new RCC houses built why doesn't the government provide solar panels for electricity that's enough for houses depending upon the number of floors.There will be very less energy needed and also money for the government from the solar panels that are manufactured.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14- Improvement in distribution with underground cabling and LT ring should be fully explored to give uninterrupted supply. Also aggregating rooftops to install solar panels can be explored.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18- Have a complete solar homes is the solution to reduce pressure on water resources and serve them to agriculture 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23- I would like to suggest make underground wirings. Because overhead wirings are not safe and required more maintenance in comparison to underground wirings. And try to go with privatisation in power supply like with Tata and Reliance company. This will help. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25- Can Bangalore tie up with company like Tesla and have solar roof tiles installed across the city high rise buildings. The amount of power generated just by these should be sufficient to cover the energy needs of the city as compared to going back to traditional electricity generation. Water saved in such activities needs to be prioritized for drinking while recycled water is used for all other activities. Power and Water go hand in hand considering water is used to generate power and power is used to pump water. So, a comprehensive plan covering both is required and not look at these in silos.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26- There must be effective use of Solar power. Large solar power plants should be set up. All IT parks should be asked to set up solar power plants or fuel cell technology plants and use power for common areas from there. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28- Suggest new power lines  to be drawn underground
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29- More focus on solar Panels and Centralised Setup of Solar Usage should be encouraged. Power charges should come down, but all should be charged. so the load on BESCOM Reduces.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30- Carbon fiber technology along with Electric hybrid should be used for construction of BTS (Bangalore Transportation System) vehicles so that they are as light as possible and and energy conserving as possible. This technology can be got from NAL, ISRO and HAL.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34- Very weak.  Power breaks and such significant use of generators are unacceptable in a modern city and "encouraging energy efficiency" and solar is not enough. deisel generators should be outlawed with a 5 year phase out. focus should be on renewables and storage... it also helps with the environment and requirements for petrol 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11- Idea: your meter should have a small backup battery &amp; a sim or somthing to report a power cut to you and bescom automatically. + a sms should be sent or the meter should display msgs such as down for maintainance from this hour to this hour.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19- Frequent power cut in my area
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22- Every year there are power cuts in summer. Can we plan for these today and solve the problem of shortage of power. 
-</t>
+    <t>{'response': "21- Just increasing the no of substations in the City to cope up with the spurt in the energy demand is not going to serve the purpose. Being the silicon city of India, Multi-pronged approach with advance technologies(like I-DAS) has to be adopted to keep up the pace with the uninterruptible and increasing energy supply. Firstly, to ensure that supply meets demand, sufficient measures should be taken to encourage &amp; augment the  energy sources (preferably renewable energy resources) to incorporate sustainable development agenda 2030. Secondly, to experience uninterruptible power supply BESCOM must take pro-active approaches to arrest the unnecessary shutdown and See that the power is supplied at all times within the prescribed limits. Finally, stringent measures should be adopted to reduce the cost on consumption of electricity and make it affordable &amp; available for everyone in the city by reducing AT&amp;C losses, mitigating Administrative lapses, metering DTC's, avoiding power theft, replacing conductors, suitable locations of sub-stations, etc., For this to happen more colloborative holistic approach is the need of the hour.\n", 'score': 0.5048233409524981}</t>
+  </si>
+  <si>
+    <t>{'response': '1- Installation of small solar panels with battery like signal lights to be avoided. Grid connected solar panels should be installed on sky-walk, metro / bus stations &amp; private roof tops.  AC usage should be minimized by roof top cooling with solar panels / garden and no approval for glass facade buildings which heat-up inside !!\n', 'score': 0.6774041191941563}</t>
+  </si>
+  <si>
+    <t>{'response': "10- Setting up new power plants is a great initiative.We should move over to renewable energy resources now.As solar water heaters are compulsory in every new RCC houses built why doesn't the government provide solar panels for electricity that's enough for houses depending upon the number of floors.There will be very less energy needed and also money for the government from the solar panels that are manufactured.\n", 'score': 0.7285752425489197}</t>
+  </si>
+  <si>
+    <t>{'response': '14- Improvement in distribution with underground cabling and LT ring should be fully explored to give uninterrupted supply. Also aggregating rooftops to install solar panels can be explored.\n', 'score': 0.6196367642120348}</t>
+  </si>
+  <si>
+    <t>{'response': '18- Have a complete solar homes is the solution to reduce pressure on water resources and serve them to agriculture \n', 'score': 0.6191938558438642}</t>
+  </si>
+  <si>
+    <t>{'response': '23- I would like to suggest make underground wirings. Because overhead wirings are not safe and required more maintenance in comparison to underground wirings. And try to go with privatisation in power supply like with Tata and Reliance company. This will help. \n', 'score': 0.5445220385796241}</t>
+  </si>
+  <si>
+    <t>{'response': '25- Can Bangalore tie up with company like Tesla and have solar roof tiles installed across the city high rise buildings. The amount of power generated just by these should be sufficient to cover the energy needs of the city as compared to going back to traditional electricity generation. Water saved in such activities needs to be prioritized for drinking while recycled water is used for all other activities. Power and Water go hand in hand considering water is used to generate power and power is used to pump water. So, a comprehensive plan covering both is required and not look at these in silos.\n', 'score': 0.682079440307132}</t>
+  </si>
+  <si>
+    <t>{'response': '26- There must be effective use of Solar power. Large solar power plants should be set up. All IT parks should be asked to set up solar power plants or fuel cell technology plants and use power for common areas from there. \n', 'score': 0.7405259627667721}</t>
+  </si>
+  <si>
+    <t>{'response': '28- Suggest new power lines  to be drawn underground\n', 'score': 0.48607064263503236}</t>
+  </si>
+  <si>
+    <t>{'response': '29- More focus on solar Panels and Centralised Setup of Solar Usage should be encouraged. Power charges should come down, but all should be charged. so the load on BESCOM Reduces.\n', 'score': 0.6312577858037132}</t>
+  </si>
+  <si>
+    <t>{'response': '30- Carbon fiber technology along with Electric hybrid should be used for construction of BTS (Bangalore Transportation System) vehicles so that they are as light as possible and and energy conserving as possible. This technology can be got from NAL, ISRO and HAL.\n', 'score': 0.6395931667935586}</t>
+  </si>
+  <si>
+    <t>{'response': '34- Very weak.  Power breaks and such significant use of generators are unacceptable in a modern city and "encouraging energy efficiency" and solar is not enough. deisel generators should be outlawed with a 5 year phase out. focus should be on renewables and storage... it also helps with the environment and requirements for petrol \n', 'score': 0.7224704578279366}</t>
+  </si>
+  <si>
+    <t>{'response': '11- Idea: your meter should have a small backup battery &amp; a sim or somthing to report a power cut to you and bescom automatically. + a sms should be sent or the meter should display msgs such as down for maintainance from this hour to this hour.\n', 'score': 0.46848957833676563}</t>
+  </si>
+  <si>
+    <t>{'response': '19- Frequent power cut in my area\n', 'score': 0.4521357062477917}</t>
+  </si>
+  <si>
+    <t>{'response': '22- Every year there are power cuts in summer. Can we plan for these today and solve the problem of shortage of power. \n', 'score': 0.4145111006290853}</t>
   </si>
   <si>
     <t>['3- Steer lights needs more and bright and better maintainance\n']</t>
@@ -1949,68 +1598,52 @@
     <t>['32- since the entire city is filled with buildings, BDA should utilise the roof areas of the individual property with proper legal and financial benefits and install roof panels.\n']</t>
   </si>
   <si>
-    <t xml:space="preserve">2- All power lines, telephone, Internet and cable lines have separate small gutter along the roads or over the footpaths.  This reduces accidents,theft,Internet cables tied to trees and over houses,traffic being interupted when drilling for ofc and damaging the roads.  The bbmp can charge the private Internet companies for laying their line in the gutter.  Damaged lines can be replaced easily. smart and cities of the future all have underground networks.  Providing a dedicated gutter for all these service lines will be a better solution for this rapidly growing city.    
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- The street lights are not on in whitefield area. Even the main roads and main junctions doesnt have enough street lights.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15- Having a mesh of electric poles with connecting wires is a thing of past. In big cities like Mumbai and New Delhi they have replaced electric poles with underground cables, which is safe and easier to manage and also power theft can reduced by large extent.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16- Please go in for GIS gas insulated substation as done in the gulf countries. The performance iso very good. Engineers from karnataka are experienced in this as they are doing this in gulf.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24- The lack of a consolidated plan for renewables is disheatening. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27- The authorities may be looking at increasing power generation and coverage, but there needs to be equal focus on the power infrastructure ... transformers, cabling etc. I live in Whitefield and most of the transformers are exposed with very primitive looking cabling. Street lighting is also missing in a lot of places. I have seen constant sparking in many of the transformers here and many times, BESCOM voluntarily switches off the electricity as soon as they sense a shower coming. Also, there is a lot of power fluctuation. The authorities need to redesign the grid for the recent, but fast developing regions in and around Whitefield.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31- It is important that BESCOM and BDA jointly look at going underground for power cabling and transmission. A high transmission loss due to overhead poles and wires coupled with weather incidents impact power outages on a regular basis. Not to mention, every time the road infrastructure is improved, some person from BESCOM (among others) starts digging. All new layouts including government and private layouts, need to be established with underground electricity connectivity. This ensures that the ground level infrastructure is not disturbed and also this method is proven to be more robust and easier to maintain. BESCOM should jointly work with BDA to first build ducts / passages along major roads (e.g. ORR) and ensure that all power systems and transmission lines are laid underground. This will help sustain any widening or repair of the roads without shifting electricity poles. Not to mention, this will also vastly improve the livelihood of our electricians / linemen who bravely go up poles to repair any issues. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33- Now a days some how they improved the electricity improve. but still we have to do proper plan and re-alignment for Electrical. better all electrical supply should be underground. so we can avoid more work and less maintenance 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17- The best way to encourage companies and individuals to shift to solar energy is by: 1. Make it legally easy to setup a solar energy unit. 2. Ask them to merge the excess energy units into the grid. 3. Provide compensation on land tax based on the number of units merged into the grid. 4. Relax land taxes and setup costs of establishing renewable energy sources around Bangalore: this will invite many international agencies to setup unit here.  I am just a student with ideas and enthusiasm to do something for my Bangalore. Pardon me if some of it already exists.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9- I think Use of solar and wind energy rather than using nuclear power must be followed strictly in states
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12- Need lot of improvements in using the renewable resources and also the maintenance towards the transformers and wirings in residential areas.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4- There needs to be rules set to avoid wastage of power especially during the celebrations, uncontrolled street lights, etc.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6- It should be mandatory for all apartments n commercial buildings to have solar power..similarly every street light should b solar powered.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7- Maintenance of cables and posts that lean and is hazardous to be in check. And possibly real time monitoring of power usage for consumers and business people could be included in the age of Internet. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8- Irregular power cuts and power fluctuations. We are feeling that ,are we staying in Metro politan city or remote villege?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13- In all the cities power cuts vl hapn .. But in places lik chikka gubbi students lik us are not able to stdy fr exams at night... Power goes n wnt cm... 
-</t>
+    <t>{'response': '2- All power lines, telephone, Internet and cable lines have separate small gutter along the roads or over the footpaths.  This reduces accidents,theft,Internet cables tied to trees and over houses,traffic being interupted when drilling for ofc and damaging the roads.  The bbmp can charge the private Internet companies for laying their line in the gutter.  Damaged lines can be replaced easily. smart and cities of the future all have underground networks.  Providing a dedicated gutter for all these service lines will be a better solution for this rapidly growing city.    \n', 'score': 0.6818093008146731}</t>
+  </si>
+  <si>
+    <t>{'response': '5- The street lights are not on in whitefield area. Even the main roads and main junctions doesnt have enough street lights.\n', 'score': 0.6377323690969418}</t>
+  </si>
+  <si>
+    <t>{'response': '15- Having a mesh of electric poles with connecting wires is a thing of past. In big cities like Mumbai and New Delhi they have replaced electric poles with underground cables, which is safe and easier to manage and also power theft can reduced by large extent.\n', 'score': 0.6343352584604548}</t>
+  </si>
+  <si>
+    <t>{'response': '16- Please go in for GIS gas insulated substation as done in the gulf countries. The performance iso very good. Engineers from karnataka are experienced in this as they are doing this in gulf.\n', 'score': 0.49380032363833304}</t>
+  </si>
+  <si>
+    <t>{'response': '24- The lack of a consolidated plan for renewables is disheatening. \n', 'score': 0.4245688161771987}</t>
+  </si>
+  <si>
+    <t>{'response': '27- The authorities may be looking at increasing power generation and coverage, but there needs to be equal focus on the power infrastructure ... transformers, cabling etc. I live in Whitefield and most of the transformers are exposed with very primitive looking cabling. Street lighting is also missing in a lot of places. I have seen constant sparking in many of the transformers here and many times, BESCOM voluntarily switches off the electricity as soon as they sense a shower coming. Also, there is a lot of power fluctuation. The authorities need to redesign the grid for the recent, but fast developing regions in and around Whitefield.\n', 'score': 0.6430707342382765}</t>
+  </si>
+  <si>
+    <t>{'response': '31- It is important that BESCOM and BDA jointly look at going underground for power cabling and transmission. A high transmission loss due to overhead poles and wires coupled with weather incidents impact power outages on a regular basis. Not to mention, every time the road infrastructure is improved, some person from BESCOM (among others) starts digging. All new layouts including government and private layouts, need to be established with underground electricity connectivity. This ensures that the ground level infrastructure is not disturbed and also this method is proven to be more robust and easier to maintain. BESCOM should jointly work with BDA to first build ducts / passages along major roads (e.g. ORR) and ensure that all power systems and transmission lines are laid underground. This will help sustain any widening or repair of the roads without shifting electricity poles. Not to mention, this will also vastly improve the livelihood of our electricians / linemen who bravely go up poles to repair any issues. \n', 'score': 0.6939913309687138}</t>
+  </si>
+  <si>
+    <t>{'response': '33- Now a days some how they improved the electricity improve. but still we have to do proper plan and re-alignment for Electrical. better all electrical supply should be underground. so we can avoid more work and less maintenance \n', 'score': 0.5103864808414604}</t>
+  </si>
+  <si>
+    <t>{'response': '17- The best way to encourage companies and individuals to shift to solar energy is by: 1. Make it legally easy to setup a solar energy unit. 2. Ask them to merge the excess energy units into the grid. 3. Provide compensation on land tax based on the number of units merged into the grid. 4. Relax land taxes and setup costs of establishing renewable energy sources around Bangalore: this will invite many international agencies to setup unit here.  I am just a student with ideas and enthusiasm to do something for my Bangalore. Pardon me if some of it already exists.\n', 'score': 0.5909134047048497}</t>
+  </si>
+  <si>
+    <t>{'response': '9- I think Use of solar and wind energy rather than using nuclear power must be followed strictly in states\n', 'score': 0.6639301799813472}</t>
+  </si>
+  <si>
+    <t>{'response': '12- Need lot of improvements in using the renewable resources and also the maintenance towards the transformers and wirings in residential areas.\n', 'score': 0.6241645281867629}</t>
+  </si>
+  <si>
+    <t>{'response': '4- There needs to be rules set to avoid wastage of power especially during the celebrations, uncontrolled street lights, etc.\n', 'score': 0.5256705784078441}</t>
+  </si>
+  <si>
+    <t>{'response': '6- It should be mandatory for all apartments n commercial buildings to have solar power..similarly every street light should b solar powered.\n', 'score': 0.6455193466645495}</t>
+  </si>
+  <si>
+    <t>{'response': '7- Maintenance of cables and posts that lean and is hazardous to be in check. And possibly real time monitoring of power usage for consumers and business people could be included in the age of Internet. \n', 'score': 0.5674062915728352}</t>
+  </si>
+  <si>
+    <t>{'response': '8- Irregular power cuts and power fluctuations. We are feeling that ,are we staying in Metro politan city or remote villege?\n', 'score': 0.4681798057800061}</t>
+  </si>
+  <si>
+    <t>{'response': '13- In all the cities power cuts vl hapn .. But in places lik chikka gubbi students lik us are not able to stdy fr exams at night... Power goes n wnt cm... \n', 'score': 0.43228946022440323}</t>
   </si>
   <si>
     <t xml:space="preserve">6 Intercity bus terminals at the outskirts of Bengaluru will ensure that outstation traffic doesn’t cause traffic jams
@@ -2052,311 +1685,238 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">7- The plan is good coz Bengaluru is a lovely place to be in i'm a bengalurian by birth and I'm proud of my city. Traffic during these transition must be managed properly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10- Bangalore is unique in the sense that it has so many one way roads. Suddenly, on one fine day, the road gets converted to one way. What about building bridges? What about building underpasses/overpasses for pedestrians crossing on these ring roads? What's the plan to unclog major residential areas such as Hennur, Indira nagar, koramangala, Marathahalli which are seeing increasing traffic congestions? Why can't we impose no entry for big commercial vehicles?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26- Road quality has to be ensured when giving contracts to contractors . All agencies like BWSSB, BBMP, KPTCL, traffic police , Namma metro have to work together to ensure newly laid roads are not digged . There should be ban of minimum 18 months once a road is relaid . This should ensure better coordination among these agencies .
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37- Bengaluru badly require a cycling track from btm to itpl to check pollution, traffic and also it keeps people fit
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56- When new roads are built, then proper Lane signs are to be drawn. The same as well should be done for existing roads. Following Lane discipline should be followed as a strict rule for all drivers. BMTC bus drivers must be highly educated on following disciplines. Majority are traffic pile up starts in the Bus stops. Bus drivers should following exact timings on when the trip should start, to avoid ending up with 4-5 busses at the same time in a single bus stop. The roads should be widened along the bus stops with dedicated space for buses to pick/drop passengers. Private buses should not be given permission to conducted bus services. They stop whenever and wherever they want to pick passengers, which adds more fuel to the traffic chaos.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63- As the bangalore population keeps on increasing we need to focus on proper usage of existing road infrastructure. Heavy rules and fines  need to be imposed on people not following it. Infrastructure need to be made to support rules. Make mini BMTC buses to easy maneuverability. Have good lane discipline. Create right infra to avoid traffic on merging and dividing traffic. Put more traffic places in high congestion areas all over bangalore. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64- As long as there is an inconsistency on road widths (lanes), you will be creating bottle necks. Which are one of the major cause of traffic. Similarly every major junction, flyover, underpass, bridge, signal.... a bus stop is provided right after or before these places. public stand covering half of the road, then autos stand at bus stops, forcing buses to stop in middle of the road... all this adds to the traffic snarls.  In addition to these proper pedestrian crossings are not provided to public, forcing them to take risky route to cross. Even after all this problem wont be solved, unless proper education is not given to citizen. Hope these suggestions help Bengaluru in making a world class city
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83- It should be made mandatory for all BMTC buses to stop only at the designated bus shelter. the drivers should be strictly penalized for stopping at the wrong place. Automatic card reader should be installed at the front door and only from the front door the passengers must alight the but and get down from the rear side
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86- Plz stick with your plan for traffic free Bangalore and  you must expand local area too 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93- Roads are not good, speed breakers are not required because pot holes are doing the job well, this all makes the traffic slow, and road jams. No lighting, I was surprised a day seeing a street in Koramangala with no street lights.   If road will be well, traffic will run fast and there will be no jams.  Bangalore is pathetic city in India in terms of traffic management and roads development.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95- My feedback is on metro people traffic. I recently saw a video on how people are stuffed into metro carriages...I feel it's a safety issue.... we need to get double decker metro trains from Silk Board to electronic city and from Silk Board to marhathahalli. we the the traffic from these IT zones will be crazy...we need to plan and get double decker trains for these routes. these double decker trains are currently available in Sydney Australia already. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106- Setting up metros,more buses etc all are a great initiative however when lane discipline isn't maintained the traffic congestion is bound to happen.Lane disciple does not only mean the vehicle movement in a single lane but also parking if buses in allocated bus stops.illogical u turns made by commuters.Lane discipline should be enforced as a hard n fast rule and fines slapped to the impatient drivers 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110- Please fast track the metro project. All the new buses inducted in this city should be all electric and phase out the existing BMTC buses and allow only electric buses for environment goodness. By 2031 no cars on Bangalore's street should be of fossil fuel users. I think mtero connectivity is very necessary to resolve traffic problem. Try to connect all the areas with metro.   And one most important thing all the new metro project should be under ground PLEASE. This is good for environment.  One other way to resolve traffic issues is by scalling up the adjacent  small cities of Bangalore. Don't over crowed Bangalore likes of Delhi Kolkata and Mumbai. Please.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120- Buses actually cause more traffic jam
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138- Put a rule that single person can't travel in car during traffic hours 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142- No proper roads, cabs parks where ever they want, that creates traffic jam
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144- Ramamurthinagar nagar Channasandra bridge is a known place for traffic jam and there was a plan proposed for parallel bridge but it is not initiated .  Even other areas like KR PURAM , MARATHAHALLI , 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147- A railway under pass required in kanaka nagar area, nearly  30000 vehicles run every day the road connecting veerannapalya mayata tech park and RT Nagar which is creating huge traffic jam for hours when the railway gate is closed. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163- 1. Metro work should be expedited. Its a very slow process which is actually the main cause of traffic. Area which needs the metro to be completed fast. eg near the whitefield phase to be completed on priority While the work is being done, there has to be alternate plans for diverting the traffic which the govt should have planned for. Every Metro phase completion atleat takes 5-6 years. I guess, we should have done a better job there.   2. The BBMP work on the road repairs is again pain point. the repairs takes 2-3 months to complete. We do not see people working at all no matter at what time of the day you come in there. (eg: JP nagar. signal Near Nandini hotel). Same is the case with laying a drainage line. does it really take 2 months to complete?  3. Closing all the potholes to be done much early in the year. this activity is take up just before the rains  and it hardly lasts for 3 -4 monts.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165- Increasing BMTC busses to 15K will surely help public transport domain, but on the other hand this will lead to traffic blocks. As you see Outer Ring Road and most of  the roads in Bangalore, 80% of the traffic is caused by BMTC busses as they don't follow the rules.  Lets take ORR first, BMTC bus stops are on the roads. These busses does not moved to the sides when they stop. During peak traffic hours, even if the bus stop on the side on the ORR, there will be huge traffic congestion.  One solution for the problem is to make ORR free from BMTC busses, and to have proper connective of service roads in ORR. Once that's done, all BMTC busses  can run via service roads and make free traffic flow on ORR. This will help to reduce traffic to a great extend 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171- These BMTC buses always stops at diagonal of the road blocking all the traffic, yes ALL the traffic that too at junction which is very painful. You dont need to wait till 2031 or new busstation to fix this small issues as it needs small education and tight monitoring of the driver patterns.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186- Build parking places at crowded areas, Bus stops should be shifted from main road to inside lanes wherever possible so the main traffic doesn't stop. Strict action for blocking traffic for private buses and cabs. Most cabs are parked on roads which causes congestion. Encourage public transport by increasing bus/volvo connectivity. Right now there is no proper connectivity on Old madras road from TC palya. Make new roads via tech parks and societies wherever possible, only 2 entry exit roads to whitefield is causing sever issues while commuting to office.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199- Pl pay attention to pedestrians by providing underpasses at almost every junction, road crossings. We also need to have bmtc bus stands at least 100 meters away from traffic junction and it must be made compulsory for buses so stop at bus stops and not elsewhere. All vehicles including autos taxis should park at least 100 meters away from junction.  Alternate  routes near main routes need to be widened and developed to decongest the traffic. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204- Traffic management should be organised. Lane disciplines, usage of skywalkers should be made mandatory. BMTC and all private buses should stop only at dedicated bus stops. Bus stops should be made in an extended portion of the roads. No stops should be allowed next to signals, next to start and end of flyovers or next to cross sections.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208- 1. Whenever cleaning happens, the waste is laid out in dumps on the footpath.  2. The bus almost never stops at the bus  stop. They will stop just after  the signal causing all sorts of honking and all by the drivers behind.  3.Roads not wide enough (and tech parks after tech parks on the same outer ring road).  4. There was flyover construction work(digging for a pillar) at Ejipura signal. Now there is no work for past 15 days but the still the barriers are there, making the road a single lane road just after the signal. The flyover will take 2,3 years to complete atleast. Will the road be still half closed till then?  5. Please take strict actions against bike driving on footpaths, going on the wrong side just to save 100m or so.  6. Strict action against jaywalking, especially when people crossing road under a overbridge. Eg. Marathalli overbridge, Domlur overbridge. Also, more and more overbridges are needed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213- Looks good on infrastructure on paper. The designs of all underpasses over bridges, flyovers are very bad, no proper access, access and exit at midway of wide roads explains lack of knowledge of BBMP on design. The entire plan should be designed by leading designers, and strict supervision by design firm on execution by BBMP.  The traffic staff unaware of rules, more often chat with colleagues at traffic intersections All traffic staff should be trained by competent training firms with authority to suggest unsuitable staff to BBMP. BBMP should commit to this with suitable action on inefficient staff. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214- Kindly complete all Metro Phase works at the earliest by having connectivity for entire city. Connect long stretch metros like Devanahalli to Majestic,  Majestic to Whitfield, ITPL/ Sarjapur/Marathahalli to Bypanahalli, MG Road to Electronic City/Hosur, Electronic City to Devanahalli, Nagwara/ehlanka to MG Road etc  Secondly remove all outstation bus stations like Madivala to some empty/unused grounds.   Third - Proper management of traffic signal as apt for the hour rather going for automatic mode where it waste lots of peoples time who waits unnecessarily in signals without having any importance if waiting when there isn't any movements of vehicle in opposite direction.   Fourth - Stop all festival/wedding/house/political/commercial events related stuffs to be conducted on roads by blocking the same.  Fifth - Categorize company into different parts and one catagory should follow one day of the week compulsory to avoid taking there personal vechiles on road with also giving leverage of 1 hr late punch in the morning as they need to commute in metro/bus only.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217- Kindly include a bus timetable in bus stops
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224- The problem of Bangalore roads is that we have very few main roads and invariably the whole traffic comes to these roads. We should identify these roads and sub-roads and categorize them as A,B,C... etc . Each category road should have a template. Ex A category being highest should be something like, it should be  1. One way road. 2. 2 lane road. 3. Signal Free. 4. After every few kilometers it should have a system where traffic can take turns into any 4 direction. 5. Entry into these roads from B and lower category roads to be restricted and should have very well defined way of merging traffic. 6. Heavy penalty on drivers who break rules on these A category roads.  Same way we can form guidelines for other category roads and see to it that when a road is categorized it follows these guidelines.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">229- remove bottlenecks on ORR, 5 KMs takes 40 min .1)expand service roads near flyovers 2) remove divider between service road and main road 3)create bus bays which are NOT right on the road but inside 4) create sky tracks for bicycles over the road dividers 5) Put metro for entire ORR 6) create flyover near KR puram to connect ORR and from old madras rd near new underpass 7) create flyover for ORR traffic to pass through KR puram 8) create alternative diagonal roads for critical junctions 9) sky walks need to be many more with escalators which are in working condition 10) complete PRR , ASAP with traffic speed target of 100 kmph. 11) connect Electronic city , Sarjapur , Whitefield via Budigere and second airport entrance near Begur. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238- The entire Outer Ring Road of Bangalore should have multiple levels of speedways connecting the South to East to North. Traffic coming from Silk board to Hebbal should be made a speed way &amp; like wise traffic coming from Hebbal to Whitefield. Make that a Paid Toll Speed way across the city - which will avoid traffic to a very large extend. More over the usual road infrastructure need to also improve drastically.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">244- Just increasing the BMTC buses will not help, these are the reason also for congestion as roads are narrow. Please look for mini bus options, frequency can be increased. Also improve the connectivity with Metros/ long route transport by using buses as efficient feeders only not to compete with them. Please make it convenient that people feel tempted to leave their cars and use public transport, currently majority of Metro goers are those who switched from 2 wheelers or buses, not from cars because of the inconvenience and not because they're not willing to.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">246- Immediately the Intercity Buses to be stopped coming inside the city, needs to be feed from some place taken on hire basis &amp; get feed through Public Transport
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252- In City Neverdays More traffic, Above you mention that BMTC Buses will be increase to 15000, but i don't think that it will work, because if More buses is there in city than traffic will be more not less, if our government can do the work like, Richmond Road Bridge they can connect to K R Market Bridge because whoever want to go to Mysore Road they can go easily,  And main is Corporation Circle near Halsuru Traffic Police Station, in this area traffic is more, government have to take some action for traffic issue.............
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">269- Traffic congestion is one of the biggest problem Bengaluru is facing as of now. Please focus on to the Solution which improves the traffic.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">281- Roads are completely logged... both in weekdays and weekends... we really need to do something really fast! I believe that we are significantly underinvesting and we will start losing our competitive edge (with respect to other cities) fast! Namma Bengaluru - lets take action!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">282- No bus connectivity from certain areas to Electronics City and Whitefield.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">292- We keep hearing plans but nothing concrete in reality. There are always delays. What will govt do to ensure projects complete on time with quality.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69- These measures would be of little help. There should be an exclusive elevated Express way to International Airport wherein people from all parts of the city can converage into this expressway. Current route is going to explode in the next few years. 2-3 Express ways would be advisable. One from Marathahalli-Whitefield side and another from MG road.and one from Tumkur Road.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73- no planning at all just flyovers wont help before giving permission to the new it hubs think about all the factors 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209- metro planning is pathetic. IT places like whitefield, ORR, electronic city and sarjapur road should be given priority. Rather than seeing where vote bank is more government to put money in where it is necessary. metro network has to be increased. whitefield has to be connected to electronic city via varthur. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249- All Corporate companies can move out of the cities, where the Metro can connect to that particular location from all the part of the city
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">258- The more important thing is to expand city limits and distribution of companies based on no of employees 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3- Promote Bus transportation than private vehicle, More buses with proper cleaniliness and allow only passengers depends available seats like other coutry, Adopt GPS tracking for all busses so that passengers can plan 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102- BMTC bus as well as other buses body size does not fit to enter certain road. Recheck illegal body size of the buses.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11- Make smooth dust free widened road for bangalore as per population growth.Pathetic plans need to be reviewed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13- Planning of road every thing should change I have a plan 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21- Problem: Main problem is BMTC stops on main roads. They stop anywhere and do rash driving. Suggestion: Construct nice bus stops every 5km with bicycle to rent. No stop of BMTC bus every few meters on main road. Strictly follow lane rules Better to have seperate road oy for BMTC bus. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45- Especially for ladies there should be separate lane for driving zone and gents also separate driving zone. it will be helpfull for smooth driving. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48- There is no mention of multi level parkings being planned. BDA owns so many buildings and if properly planned they could add atleast 2 floors of parking which could save space on the road. Currently we see 30% of the road used for parking
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57- Sir / Madam  The plan is good but it is mentioned for only ring road where in we have lots of traffic problem  in ulsoor area also the roads are narrow  and now it has become four side lane road so is their any possibility to look into the expansion of road in ulsoor area near the gurdwara
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67- I am not giving feedback on the masterplan. I am just giving my opinion. Actually new houses are being built with 3+ floors without any car parking and the tenants are parking on the road which causes a big inconvenience to the residences. Road is for driving and not parking. Why can't they build a house with car parking. Why is the BBMP silent on these matters?. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80- Tree conservation and road expansion doesn't hold good together. How do they maintain a balance? And more sky walks on fast moving roads such as Ring Roads and Airport roads along with barricades on the divider. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81- Repair and better quality roads must be laid. To have a porthole free road in Bangalore must be priority one of any administration. Garbage collection and prevention of dumping materials and garbage on roads and public area. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85- Roads must be we'll maintained and no promise regarding that has been given and must be ensured so that private cars also don't face any hassle
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97- Parallely, we need to work on existing infrastructure also. Make a person on a self driven wheel chair the datum. He should be able to independently move around. Do our pavements and pedestrian crossings comply to this requirement?   Lane marking and signage to indicate, which lane to be maintained for the next turn/straight. Also mark out parking places on the road side.  Zebra crossings are mostly non-existent. Where they are, they end in a fence or a bush in the divider. Stop lines at red lights with the word STOP not marked.   Level of assurance of a penalty needs to be much higher. Presently it is so low that people can break the law and get away with it. We need to reduce the probability of getting away.   Doing future planning and creating new infrastructure is all good. But first take care of the existing.   Our biggest hinderance to traffic woes is the rate of traffic movement at a junction. We need to work towards increasing the average speed on a green light. Case in point being Marathahalli Bridge. There is no Red light, and the traffic is still clearing very slowly. Address problems like these first.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103- This is good , but there is also a problem of signalling . It would be more helpful if signals are replaced by roundabouts like in Brazil , and the remaining signals be synchronised to avoid multiple stops on the same stretch of road 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123- All these things are required and very good vision from the government. But construction of flyovers must be considered as the cause of delays are more because of jams at the road intersection / junction. More and more flyovers should be made.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129- Separate walkway for pedestrians and separate road for 2 wheelers should be provided in order to safeguard the people and avoid accidents which  also reduces traffic jams. And also cycling should be promoted more to reduce air pollution.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155- Along with traffic need to control how permission is given to construct new places with no amenities to park the traffic is a major issue that would also mean enough roads
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160- The roads are very narrow and the vehicles are so more that the road gets blocked and it gets jammed at Hebbal flyover...not only here but many other place and too...so firstly I would like to suggest to widen the roads 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187- Traffic and good roads go in parrallel, unscientific speed breakers need to be removed and regularized properly. For Eg: The speed breaker near Ashoka Pillar Jayanagar is near a 1 feet high!! Do not allow road digging after asphalting the roads, this is a pukka con job of the corporaters! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206- Special lane needs to be constructed for ambulance in which it can move without stucking
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211- I found during road widening across  Bangalore  lot of trees were cut. I would want to plant lot's of trees. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219- Wide roads are required in the residential areas around the IT tech parks. For example the Panathur main road which is the main connectivity road in the ECO space outer ring road is very narrow and this leads to daily traffic jams.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221- Footh paths are a MUST. We have so much pedestrian traffic but no proper walking spaces designated to just pedestrians. It will encourage people to walk more if the foothpaths are maintained well leading to less congestion, and yes expansion of roads, properly planned flyovers to tackle the monstrous travel time within the city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225- Traffic is a big topic  Here i only mentioning about road condition Most of the roads are in very bad condition with dangerous path hole  Need a concerned person to have survey give them the ETA and fix asap if not fixed by the concerned team penalise them and make this process transparent  Evry area should have the concerned person details mentioned somewhere in that area to let prople know and easily complaint about tbe road condition
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232- Firstly the space allocated to roads, dividers, footpath are inadequate. For main arterial roads they should be 6 lane. The divider should be wide enough to provide for additional lane at crossing signals for right turning vehicles while there should be free left turning lane separating before turning and merging gradually with main traffic after turning. Secondly, lane discipline should be enforced and offenders to be booked with heavy penalty. Cameras at all crossings for monitoring and speed cameras in long stretches are must. Thirdly, all humps must be painted black and white for easy visibility. Footpaths should be cleared of vendors, transformers, uncovered drains so that padestrians do not have to walk on the road slowing traffic. Fourthly more skywalks on busy roads with escalators for senior citizens and differently abled. Fifthly, separate fenced lanes for two wheelers and making all major roads out of bound for autorickshaws.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250- Love the idea of foot paths and cycle paths. But i would give up using my car if the public transport is made easy and fast, maybe dedicated BUS lanes and make the private vehicles lane smaller so that public transport if faster. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256- Poor road management 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">271- I Am a cyclist, and every day commuting in cycle in the busy traffic is a problem.. for an eco friendly city green transport has to be deployed. hence having Cycle friendly roads are very much necessary. Along with this, the roads especially at the traffic signal junctions should be in good conditions, as I have observed the stretch of the road will be more or less good, but exactly after the signal, the roads will be dug up or have pot holes, which tends for slow exit of traffic from the signals.. this condition is in many signals. Another request is to ban old/Vehicles with more pollution, inhaling more exhaust of the vehicle while cycling becomes difficult.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275- Traffic is the main concern in Bangalore. and also road pavement should be good.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">286- Details are missing. Badly designed roads. ORR has bus stops on the main road and the service roads are not used properly. Exit from ORR and entry into ORR through the same exit point is a blunder in design. What is being done to remedy the major flaws in the road designs, at least the main arterial roads.
-</t>
-  </si>
-  <si>
-    <t>['2- Please include checks and balances in place ( i.e accountability) to make sure that is will be completed ,tested and approved within the given deadline.Also move the deadline to 2025 instead of 2031 to complete work in phases\n', '179- Please provide a forum where we can track what all changes are being made, who is accountable for it, what is the budget \n', '50- Please plan well for diversions before construction of roads. And the pace of work to be fast for diversion at important roads. \n']</t>
-  </si>
-  <si>
-    <t>['140- The Master Plan 2031 brought out by the BDA and citizens is very comprehensive and covers all the aspects that one can think of. But I do feel that the number of proposed public playgrounds and sporting facilities does fall short in number, considering the expected population of Bangalore in 2031.\n', '152- City has congestion at junctions, they need be redesigned to allow the free flow of traffic.  I see no provision for it in the master plan\n', '253- Bangalore should have "Traffic free spots" each with multi-level parking with many towers.  In the "Traffic free spots" only vehicles allowed must be BTS, Ambulance, Police and Fire brigade vehicles. People must use BTS, go to multi-level parking, take their vehicles and travel to other traffic free spots so that inside the traffic free spot, there is greenery, peace, people can walk, breathe, play and live. Each traffic free spot must contain a school, hospital, post-office, mall, so that people rarely should travel out of traffic free spot. This must work in conjunction with Metro Rail of Bangalore. ISRO is giving electric battery/motor technology to anybody interested to develop green city. Bangalore must utilize this tech to have electric hybrids for BTS using electric charging and solar power capabilities. Life of a vehicle must be mapped - where it originates and where it has to stop. Most of traffic problems in Bangalore is because of improper parking on already narrow roads. In traffic free spot, multi-level parking with many towers should make sure vehicles are parked in parking spots only. Advanced drivers assistance systems and Self driving cars technology should be given a thought.\n', '273- Faster Implementation of the plans will be key for the Bangalore in next few years\n', '288- There should be a extra toll fee levied on the people who travel single in a car.\n', '180- No amount of infrastructure improvements will help WITHOUT infrastructure efforts to improve COMPLIANCE with rules and safe driving practices\n', '6- Master plan 2015 is not implemented it is mandatory to implement previous version \n', '68- There is nothing innovative in the proposal. I propose that we mark U-turn  lanes wherever possible. Also, lot of traffic jams in smaller roads happen because there is no traffic light. Since having traffic light at every intersection is not a possibility, we should implement stop signs that allow traffic from all sides to take turn and progress instead of the current situation of drivers trying to muscle their way through.   We need to recruit more traffic police for better enforcement of traffic rules. The traffic police should be respected and violators should fear them.\n', '242- There is a need for a drastic change\n', '104- The plan should have started by now and the time-frame of 15years is very long as Bangalore is exploding right now so why to wait for another 15 years for its recovery...\n', "185- Why can't the government think of improving railway network in and around Bangalore? Government should plan a comprehensive commuter rail network besides Namma Metro.\n", '237- The real woos of the transportation is lack of last mile connectivity. The current plans are isolated developments and do not bother to simless integration. It is very simple... Give priority to pedestrian,  they want unhindered, safe passage way. The walkways are unscientific... Keep them horizontal... No abrupt ups and downs... Appropriately design crossings... No open gutters... I mean no rocket science... Simple commonsense design!!!! \n', '146- This master needs to be corrected -like bringing highly sustainable and fast moving rapid transit system with high carrying capacity \n']</t>
-  </si>
-  <si>
-    <t>['44- natural is must need if fallow the onether countery our land will get lose you oeople must think the saftey and natural\n', '192- If it is implemented properly then it is very good\n', '121- This is to police officers plz follow the rules and help us to follow the rules  If rules r broke by the rides punishment r penalty should be given even if it is a high officials \n', '182- Rules are not good way  \n', '154- Plan Is good but it should not be in paper. Implementation should be properly executed  and should be maintained. But still it looks dream \n', '125- Again to be implemented strictly \n', '15- if it implemented in time matters more.\n', "116- Traffic issue in bengaluru is well known issue to the whole world, we must work towards resolution. I admit we cannot get rid of it but if we don't act now then there will be never ending for this issue. Bangalore should be back to it's form.\n", '265- Traffic issues should have to be resolved by proper planning and taking consideration for measurement whoever may be require.\n', '111- Nice plan! But it has to be implemented as it is. I highly doubt the above plan would be implemented in the way it is as of now \n', '118- If it is implemented the way they have planned ..... its just awesome \n']</t>
+    <t>{'response': "7- The plan is good coz Bengaluru is a lovely place to be in i'm a bengalurian by birth and I'm proud of my city. Traffic during these transition must be managed properly.\n", 'score': 0.466220116540979}</t>
+  </si>
+  <si>
+    <t>{'response': "10- Bangalore is unique in the sense that it has so many one way roads. Suddenly, on one fine day, the road gets converted to one way. What about building bridges? What about building underpasses/overpasses for pedestrians crossing on these ring roads? What's the plan to unclog major residential areas such as Hennur, Indira nagar, koramangala, Marathahalli which are seeing increasing traffic congestions? Why can't we impose no entry for big commercial vehicles?\n", 'score': 0.6092606923198483}</t>
+  </si>
+  <si>
+    <t>{'response': '26- Road quality has to be ensured when giving contracts to contractors . All agencies like BWSSB, BBMP, KPTCL, traffic police , Namma metro have to work together to ensure newly laid roads are not digged . There should be ban of minimum 18 months once a road is relaid . This should ensure better coordination among these agencies .\n', 'score': 0.6242749048423339}</t>
+  </si>
+  <si>
+    <t>{'response': '37- Bengaluru badly require a cycling track from btm to itpl to check pollution, traffic and also it keeps people fit\n', 'score': 0.5712870437161868}</t>
+  </si>
+  <si>
+    <t>{'response': '56- When new roads are built, then proper Lane signs are to be drawn. The same as well should be done for existing roads. Following Lane discipline should be followed as a strict rule for all drivers. BMTC bus drivers must be highly educated on following disciplines. Majority are traffic pile up starts in the Bus stops. Bus drivers should following exact timings on when the trip should start, to avoid ending up with 4-5 busses at the same time in a single bus stop. The roads should be widened along the bus stops with dedicated space for buses to pick/drop passengers. Private buses should not be given permission to conducted bus services. They stop whenever and wherever they want to pick passengers, which adds more fuel to the traffic chaos.\n', 'score': 0.6383695311299284}</t>
+  </si>
+  <si>
+    <t>{'response': '63- As the bangalore population keeps on increasing we need to focus on proper usage of existing road infrastructure. Heavy rules and fines  need to be imposed on people not following it. Infrastructure need to be made to support rules. Make mini BMTC buses to easy maneuverability. Have good lane discipline. Create right infra to avoid traffic on merging and dividing traffic. Put more traffic places in high congestion areas all over bangalore. \n', 'score': 0.6179816111714}</t>
+  </si>
+  <si>
+    <t>{'response': '64- As long as there is an inconsistency on road widths (lanes), you will be creating bottle necks. Which are one of the major cause of traffic. Similarly every major junction, flyover, underpass, bridge, signal.... a bus stop is provided right after or before these places. public stand covering half of the road, then autos stand at bus stops, forcing buses to stop in middle of the road... all this adds to the traffic snarls.  In addition to these proper pedestrian crossings are not provided to public, forcing them to take risky route to cross. Even after all this problem wont be solved, unless proper education is not given to citizen. Hope these suggestions help Bengaluru in making a world class city\n', 'score': 0.6170548501110255}</t>
+  </si>
+  <si>
+    <t>{'response': '83- It should be made mandatory for all BMTC buses to stop only at the designated bus shelter. the drivers should be strictly penalized for stopping at the wrong place. Automatic card reader should be installed at the front door and only from the front door the passengers must alight the but and get down from the rear side\n', 'score': 0.6078310545692805}</t>
+  </si>
+  <si>
+    <t>{'response': '86- Plz stick with your plan for traffic free Bangalore and  you must expand local area too \n', 'score': 0.6024348240411271}</t>
+  </si>
+  <si>
+    <t>{'response': '93- Roads are not good, speed breakers are not required because pot holes are doing the job well, this all makes the traffic slow, and road jams. No lighting, I was surprised a day seeing a street in Koramangala with no street lights.   If road will be well, traffic will run fast and there will be no jams.  Bangalore is pathetic city in India in terms of traffic management and roads development.\n', 'score': 0.6239795197804573}</t>
+  </si>
+  <si>
+    <t>{'response': "95- My feedback is on metro people traffic. I recently saw a video on how people are stuffed into metro carriages...I feel it's a safety issue.... we need to get double decker metro trains from Silk Board to electronic city and from Silk Board to marhathahalli. we the the traffic from these IT zones will be crazy...we need to plan and get double decker trains for these routes. these double decker trains are currently available in Sydney Australia already. \n", 'score': 0.6166216831267567}</t>
+  </si>
+  <si>
+    <t>{'response': "106- Setting up metros,more buses etc all are a great initiative however when lane discipline isn't maintained the traffic congestion is bound to happen.Lane disciple does not only mean the vehicle movement in a single lane but also parking if buses in allocated bus stops.illogical u turns made by commuters.Lane discipline should be enforced as a hard n fast rule and fines slapped to the impatient drivers \n", 'score': 0.6252054230957382}</t>
+  </si>
+  <si>
+    <t>{'response': "110- Please fast track the metro project. All the new buses inducted in this city should be all electric and phase out the existing BMTC buses and allow only electric buses for environment goodness. By 2031 no cars on Bangalore's street should be of fossil fuel users. I think mtero connectivity is very necessary to resolve traffic problem. Try to connect all the areas with metro.   And one most important thing all the new metro project should be under ground PLEASE. This is good for environment.  One other way to resolve traffic issues is by scalling up the adjacent  small cities of Bangalore. Don't over crowed Bangalore likes of Delhi Kolkata and Mumbai. Please.\n", 'score': 0.6399845262345415}</t>
+  </si>
+  <si>
+    <t>{'response': '120- Buses actually cause more traffic jam\n', 'score': 0.6668182391438197}</t>
+  </si>
+  <si>
+    <t>{'response': "138- Put a rule that single person can't travel in car during traffic hours \n", 'score': 0.4681941865940145}</t>
+  </si>
+  <si>
+    <t>{'response': '142- No proper roads, cabs parks where ever they want, that creates traffic jam\n', 'score': 0.5699312490170537}</t>
+  </si>
+  <si>
+    <t>{'response': '144- Ramamurthinagar nagar Channasandra bridge is a known place for traffic jam and there was a plan proposed for parallel bridge but it is not initiated .  Even other areas like KR PURAM , MARATHAHALLI , \n', 'score': 0.5832890172813041}</t>
+  </si>
+  <si>
+    <t>{'response': '147- A railway under pass required in kanaka nagar area, nearly  30000 vehicles run every day the road connecting veerannapalya mayata tech park and RT Nagar which is creating huge traffic jam for hours when the railway gate is closed. \n', 'score': 0.7101417739767906}</t>
+  </si>
+  <si>
+    <t>{'response': '163- 1. Metro work should be expedited. Its a very slow process which is actually the main cause of traffic. Area which needs the metro to be completed fast. eg near the whitefield phase to be completed on priority While the work is being done, there has to be alternate plans for diverting the traffic which the govt should have planned for. Every Metro phase completion atleat takes 5-6 years. I guess, we should have done a better job there.   2. The BBMP work on the road repairs is again pain point. the repairs takes 2-3 months to complete. We do not see people working at all no matter at what time of the day you come in there. (eg: JP nagar. signal Near Nandini hotel). Same is the case with laying a drainage line. does it really take 2 months to complete?  3. Closing all the potholes to be done much early in the year. this activity is take up just before the rains  and it hardly lasts for 3 -4 monts.  \n', 'score': 0.5676688104970478}</t>
+  </si>
+  <si>
+    <t>{'response': "165- Increasing BMTC busses to 15K will surely help public transport domain, but on the other hand this will lead to traffic blocks. As you see Outer Ring Road and most of  the roads in Bangalore, 80% of the traffic is caused by BMTC busses as they don't follow the rules.  Lets take ORR first, BMTC bus stops are on the roads. These busses does not moved to the sides when they stop. During peak traffic hours, even if the bus stop on the side on the ORR, there will be huge traffic congestion.  One solution for the problem is to make ORR free from BMTC busses, and to have proper connective of service roads in ORR. Once that's done, all BMTC busses  can run via service roads and make free traffic flow on ORR. This will help to reduce traffic to a great extend \n", 'score': 0.6363363343822286}</t>
+  </si>
+  <si>
+    <t>{'response': '171- These BMTC buses always stops at diagonal of the road blocking all the traffic, yes ALL the traffic that too at junction which is very painful. You dont need to wait till 2031 or new busstation to fix this small issues as it needs small education and tight monitoring of the driver patterns.\n', 'score': 0.6143008369234293}</t>
+  </si>
+  <si>
+    <t>{'response': "186- Build parking places at crowded areas, Bus stops should be shifted from main road to inside lanes wherever possible so the main traffic doesn't stop. Strict action for blocking traffic for private buses and cabs. Most cabs are parked on roads which causes congestion. Encourage public transport by increasing bus/volvo connectivity. Right now there is no proper connectivity on Old madras road from TC palya. Make new roads via tech parks and societies wherever possible, only 2 entry exit roads to whitefield is causing sever issues while commuting to office.\n", 'score': 0.7062234038697713}</t>
+  </si>
+  <si>
+    <t>{'response': '199- Pl pay attention to pedestrians by providing underpasses at almost every junction, road crossings. We also need to have bmtc bus stands at least 100 meters away from traffic junction and it must be made compulsory for buses so stop at bus stops and not elsewhere. All vehicles including autos taxis should park at least 100 meters away from junction.  Alternate  routes near main routes need to be widened and developed to decongest the traffic. \n', 'score': 0.7057647756413058}</t>
+  </si>
+  <si>
+    <t>{'response': '204- Traffic management should be organised. Lane disciplines, usage of skywalkers should be made mandatory. BMTC and all private buses should stop only at dedicated bus stops. Bus stops should be made in an extended portion of the roads. No stops should be allowed next to signals, next to start and end of flyovers or next to cross sections.\n', 'score': 0.6877153372492449}</t>
+  </si>
+  <si>
+    <t>{'response': '208- 1. Whenever cleaning happens, the waste is laid out in dumps on the footpath.  2. The bus almost never stops at the bus  stop. They will stop just after  the signal causing all sorts of honking and all by the drivers behind.  3.Roads not wide enough (and tech parks after tech parks on the same outer ring road).  4. There was flyover construction work(digging for a pillar) at Ejipura signal. Now there is no work for past 15 days but the still the barriers are there, making the road a single lane road just after the signal. The flyover will take 2,3 years to complete atleast. Will the road be still half closed till then?  5. Please take strict actions against bike driving on footpaths, going on the wrong side just to save 100m or so.  6. Strict action against jaywalking, especially when people crossing road under a overbridge. Eg. Marathalli overbridge, Domlur overbridge. Also, more and more overbridges are needed.\n', 'score': 0.6257932923015203}</t>
+  </si>
+  <si>
+    <t>{'response': '213- Looks good on infrastructure on paper. The designs of all underpasses over bridges, flyovers are very bad, no proper access, access and exit at midway of wide roads explains lack of knowledge of BBMP on design. The entire plan should be designed by leading designers, and strict supervision by design firm on execution by BBMP.  The traffic staff unaware of rules, more often chat with colleagues at traffic intersections All traffic staff should be trained by competent training firms with authority to suggest unsuitable staff to BBMP. BBMP should commit to this with suitable action on inefficient staff. \n', 'score': 0.573654641860806}</t>
+  </si>
+  <si>
+    <t>{'response': "214- Kindly complete all Metro Phase works at the earliest by having connectivity for entire city. Connect long stretch metros like Devanahalli to Majestic,  Majestic to Whitfield, ITPL/ Sarjapur/Marathahalli to Bypanahalli, MG Road to Electronic City/Hosur, Electronic City to Devanahalli, Nagwara/ehlanka to MG Road etc  Secondly remove all outstation bus stations like Madivala to some empty/unused grounds.   Third - Proper management of traffic signal as apt for the hour rather going for automatic mode where it waste lots of peoples time who waits unnecessarily in signals without having any importance if waiting when there isn't any movements of vehicle in opposite direction.   Fourth - Stop all festival/wedding/house/political/commercial events related stuffs to be conducted on roads by blocking the same.  Fifth - Categorize company into different parts and one catagory should follow one day of the week compulsory to avoid taking there personal vechiles on road with also giving leverage of 1 hr late punch in the morning as they need to commute in metro/bus only.  \n", 'score': 0.7219682095219054}</t>
+  </si>
+  <si>
+    <t>{'response': '217- Kindly include a bus timetable in bus stops\n', 'score': 0.4719929808179516}</t>
+  </si>
+  <si>
+    <t>{'response': '224- The problem of Bangalore roads is that we have very few main roads and invariably the whole traffic comes to these roads. We should identify these roads and sub-roads and categorize them as A,B,C... etc . Each category road should have a template. Ex A category being highest should be something like, it should be  1. One way road. 2. 2 lane road. 3. Signal Free. 4. After every few kilometers it should have a system where traffic can take turns into any 4 direction. 5. Entry into these roads from B and lower category roads to be restricted and should have very well defined way of merging traffic. 6. Heavy penalty on drivers who break rules on these A category roads.  Same way we can form guidelines for other category roads and see to it that when a road is categorized it follows these guidelines.  \n', 'score': 0.609903306811368}</t>
+  </si>
+  <si>
+    <t>{'response': '229- remove bottlenecks on ORR, 5 KMs takes 40 min .1)expand service roads near flyovers 2) remove divider between service road and main road 3)create bus bays which are NOT right on the road but inside 4) create sky tracks for bicycles over the road dividers 5) Put metro for entire ORR 6) create flyover near KR puram to connect ORR and from old madras rd near new underpass 7) create flyover for ORR traffic to pass through KR puram 8) create alternative diagonal roads for critical junctions 9) sky walks need to be many more with escalators which are in working condition 10) complete PRR , ASAP with traffic speed target of 100 kmph. 11) connect Electronic city , Sarjapur , Whitefield via Budigere and second airport entrance near Begur. \n', 'score': 0.7271448721497845}</t>
+  </si>
+  <si>
+    <t>{'response': '238- The entire Outer Ring Road of Bangalore should have multiple levels of speedways connecting the South to East to North. Traffic coming from Silk board to Hebbal should be made a speed way &amp; like wise traffic coming from Hebbal to Whitefield. Make that a Paid Toll Speed way across the city - which will avoid traffic to a very large extend. More over the usual road infrastructure need to also improve drastically.  \n', 'score': 0.6420100721806113}</t>
+  </si>
+  <si>
+    <t>{'response': "244- Just increasing the BMTC buses will not help, these are the reason also for congestion as roads are narrow. Please look for mini bus options, frequency can be increased. Also improve the connectivity with Metros/ long route transport by using buses as efficient feeders only not to compete with them. Please make it convenient that people feel tempted to leave their cars and use public transport, currently majority of Metro goers are those who switched from 2 wheelers or buses, not from cars because of the inconvenience and not because they're not willing to.\n", 'score': 0.67296011931937}</t>
+  </si>
+  <si>
+    <t>{'response': '246- Immediately the Intercity Buses to be stopped coming inside the city, needs to be feed from some place taken on hire basis &amp; get feed through Public Transport\n', 'score': 0.6040924131124227}</t>
+  </si>
+  <si>
+    <t>{'response': "252- In City Neverdays More traffic, Above you mention that BMTC Buses will be increase to 15000, but i don't think that it will work, because if More buses is there in city than traffic will be more not less, if our government can do the work like, Richmond Road Bridge they can connect to K R Market Bridge because whoever want to go to Mysore Road they can go easily,  And main is Corporation Circle near Halsuru Traffic Police Station, in this area traffic is more, government have to take some action for traffic issue.............\n", 'score': 0.677650356463091}</t>
+  </si>
+  <si>
+    <t>{'response': '269- Traffic congestion is one of the biggest problem Bengaluru is facing as of now. Please focus on to the Solution which improves the traffic.\n', 'score': 0.5704180097120807}</t>
+  </si>
+  <si>
+    <t>{'response': '281- Roads are completely logged... both in weekdays and weekends... we really need to do something really fast! I believe that we are significantly underinvesting and we will start losing our competitive edge (with respect to other cities) fast! Namma Bengaluru - lets take action!\n', 'score': 0.4841286398706916}</t>
+  </si>
+  <si>
+    <t>{'response': '282- No bus connectivity from certain areas to Electronics City and Whitefield.\n', 'score': 0.5718063294901322}</t>
+  </si>
+  <si>
+    <t>{'response': '292- We keep hearing plans but nothing concrete in reality. There are always delays. What will govt do to ensure projects complete on time with quality.\n', 'score': 0.37824462044338103}</t>
+  </si>
+  <si>
+    <t>{'response': '69- These measures would be of little help. There should be an exclusive elevated Express way to International Airport wherein people from all parts of the city can converage into this expressway. Current route is going to explode in the next few years. 2-3 Express ways would be advisable. One from Marathahalli-Whitefield side and another from MG road.and one from Tumkur Road.\n', 'score': 0.5274860436113611}</t>
+  </si>
+  <si>
+    <t>{'response': '73- no planning at all just flyovers wont help before giving permission to the new it hubs think about all the factors \n', 'score': 0.5074365927706442}</t>
+  </si>
+  <si>
+    <t>{'response': '209- metro planning is pathetic. IT places like whitefield, ORR, electronic city and sarjapur road should be given priority. Rather than seeing where vote bank is more government to put money in where it is necessary. metro network has to be increased. whitefield has to be connected to electronic city via varthur. \n', 'score': 0.5366196136410729}</t>
+  </si>
+  <si>
+    <t>{'response': '249- All Corporate companies can move out of the cities, where the Metro can connect to that particular location from all the part of the city\n', 'score': 0.548026354642823}</t>
+  </si>
+  <si>
+    <t>{'response': '258- The more important thing is to expand city limits and distribution of companies based on no of employees \n', 'score': 0.52722338545381}</t>
+  </si>
+  <si>
+    <t>{'response': '3- Promote Bus transportation than private vehicle, More buses with proper cleaniliness and allow only passengers depends available seats like other coutry, Adopt GPS tracking for all busses so that passengers can plan \n', 'score': 0.6040117392808997}</t>
+  </si>
+  <si>
+    <t>{'response': '102- BMTC bus as well as other buses body size does not fit to enter certain road. Recheck illegal body size of the buses.\n', 'score': 0.6683486858885678}</t>
+  </si>
+  <si>
+    <t>{'response': '11- Make smooth dust free widened road for bangalore as per population growth.Pathetic plans need to be reviewed\n', 'score': 0.46442437589089214}</t>
+  </si>
+  <si>
+    <t>{'response': '13- Planning of road every thing should change I have a plan \n', 'score': 0.44616493082069225}</t>
+  </si>
+  <si>
+    <t>{'response': '21- Problem: Main problem is BMTC stops on main roads. They stop anywhere and do rash driving. Suggestion: Construct nice bus stops every 5km with bicycle to rent. No stop of BMTC bus every few meters on main road. Strictly follow lane rules Better to have seperate road oy for BMTC bus. \n', 'score': 0.601531823412614}</t>
+  </si>
+  <si>
+    <t>{'response': '45- Especially for ladies there should be separate lane for driving zone and gents also separate driving zone. it will be helpfull for smooth driving. \n', 'score': 0.49431656749091235}</t>
+  </si>
+  <si>
+    <t>{'response': '48- There is no mention of multi level parkings being planned. BDA owns so many buildings and if properly planned they could add atleast 2 floors of parking which could save space on the road. Currently we see 30% of the road used for parking\n', 'score': 0.5124169207697916}</t>
+  </si>
+  <si>
+    <t>{'response': '57- Sir / Madam  The plan is good but it is mentioned for only ring road where in we have lots of traffic problem  in ulsoor area also the roads are narrow  and now it has become four side lane road so is their any possibility to look into the expansion of road in ulsoor area near the gurdwara\n', 'score': 0.6493663020338032}</t>
+  </si>
+  <si>
+    <t>{'response': "67- I am not giving feedback on the masterplan. I am just giving my opinion. Actually new houses are being built with 3+ floors without any car parking and the tenants are parking on the road which causes a big inconvenience to the residences. Road is for driving and not parking. Why can't they build a house with car parking. Why is the BBMP silent on these matters?. \n", 'score': 0.5749104232677366}</t>
+  </si>
+  <si>
+    <t>{'response': "80- Tree conservation and road expansion doesn't hold good together. How do they maintain a balance? And more sky walks on fast moving roads such as Ring Roads and Airport roads along with barricades on the divider. \n", 'score': 0.6384478511685717}</t>
+  </si>
+  <si>
+    <t>{'response': '81- Repair and better quality roads must be laid. To have a porthole free road in Bangalore must be priority one of any administration. Garbage collection and prevention of dumping materials and garbage on roads and public area. \n', 'score': 0.5157301213853338}</t>
+  </si>
+  <si>
+    <t>{'response': "85- Roads must be we'll maintained and no promise regarding that has been given and must be ensured so that private cars also don't face any hassle\n", 'score': 0.4830292064007389}</t>
+  </si>
+  <si>
+    <t>{'response': '97- Parallely, we need to work on existing infrastructure also. Make a person on a self driven wheel chair the datum. He should be able to independently move around. Do our pavements and pedestrian crossings comply to this requirement?   Lane marking and signage to indicate, which lane to be maintained for the next turn/straight. Also mark out parking places on the road side.  Zebra crossings are mostly non-existent. Where they are, they end in a fence or a bush in the divider. Stop lines at red lights with the word STOP not marked.   Level of assurance of a penalty needs to be much higher. Presently it is so low that people can break the law and get away with it. We need to reduce the probability of getting away.   Doing future planning and creating new infrastructure is all good. But first take care of the existing.   Our biggest hinderance to traffic woes is the rate of traffic movement at a junction. We need to work towards increasing the average speed on a green light. Case in point being Marathahalli Bridge. There is no Red light, and the traffic is still clearing very slowly. Address problems like these first.\n', 'score': 0.6693738798022713}</t>
+  </si>
+  <si>
+    <t>{'response': '103- This is good , but there is also a problem of signalling . It would be more helpful if signals are replaced by roundabouts like in Brazil , and the remaining signals be synchronised to avoid multiple stops on the same stretch of road \n', 'score': 0.5591232010341465}</t>
+  </si>
+  <si>
+    <t>{'response': '123- All these things are required and very good vision from the government. But construction of flyovers must be considered as the cause of delays are more because of jams at the road intersection / junction. More and more flyovers should be made.\n', 'score': 0.5615280933242005}</t>
+  </si>
+  <si>
+    <t>{'response': '129- Separate walkway for pedestrians and separate road for 2 wheelers should be provided in order to safeguard the people and avoid accidents which  also reduces traffic jams. And also cycling should be promoted more to reduce air pollution.\n', 'score': 0.6355492017672342}</t>
+  </si>
+  <si>
+    <t>{'response': '155- Along with traffic need to control how permission is given to construct new places with no amenities to park the traffic is a major issue that would also mean enough roads\n', 'score': 0.5861828670112154}</t>
+  </si>
+  <si>
+    <t>{'response': '160- The roads are very narrow and the vehicles are so more that the road gets blocked and it gets jammed at Hebbal flyover...not only here but many other place and too...so firstly I would like to suggest to widen the roads \n', 'score': 0.644229185290386}</t>
+  </si>
+  <si>
+    <t>{'response': '187- Traffic and good roads go in parrallel, unscientific speed breakers need to be removed and regularized properly. For Eg: The speed breaker near Ashoka Pillar Jayanagar is near a 1 feet high!! Do not allow road digging after asphalting the roads, this is a pukka con job of the corporaters! \n', 'score': 0.6024724318048839}</t>
+  </si>
+  <si>
+    <t>{'response': '206- Special lane needs to be constructed for ambulance in which it can move without stucking\n', 'score': 0.5141859086137538}</t>
+  </si>
+  <si>
+    <t>{'response': "211- I found during road widening across  Bangalore  lot of trees were cut. I would want to plant lot's of trees. \n", 'score': 0.5561140626430595}</t>
+  </si>
+  <si>
+    <t>{'response': '219- Wide roads are required in the residential areas around the IT tech parks. For example the Panathur main road which is the main connectivity road in the ECO space outer ring road is very narrow and this leads to daily traffic jams.\n', 'score': 0.6039970069233569}</t>
+  </si>
+  <si>
+    <t>{'response': '221- Footh paths are a MUST. We have so much pedestrian traffic but no proper walking spaces designated to just pedestrians. It will encourage people to walk more if the foothpaths are maintained well leading to less congestion, and yes expansion of roads, properly planned flyovers to tackle the monstrous travel time within the city.\n', 'score': 0.6490681496727103}</t>
+  </si>
+  <si>
+    <t>{'response': '225- Traffic is a big topic  Here i only mentioning about road condition Most of the roads are in very bad condition with dangerous path hole  Need a concerned person to have survey give them the ETA and fix asap if not fixed by the concerned team penalise them and make this process transparent  Evry area should have the concerned person details mentioned somewhere in that area to let prople know and easily complaint about tbe road condition\n', 'score': 0.5008276662063066}</t>
+  </si>
+  <si>
+    <t>{'response': '232- Firstly the space allocated to roads, dividers, footpath are inadequate. For main arterial roads they should be 6 lane. The divider should be wide enough to provide for additional lane at crossing signals for right turning vehicles while there should be free left turning lane separating before turning and merging gradually with main traffic after turning. Secondly, lane discipline should be enforced and offenders to be booked with heavy penalty. Cameras at all crossings for monitoring and speed cameras in long stretches are must. Thirdly, all humps must be painted black and white for easy visibility. Footpaths should be cleared of vendors, transformers, uncovered drains so that padestrians do not have to walk on the road slowing traffic. Fourthly more skywalks on busy roads with escalators for senior citizens and differently abled. Fifthly, separate fenced lanes for two wheelers and making all major roads out of bound for autorickshaws.\n', 'score': 0.6893325510531327}</t>
+  </si>
+  <si>
+    <t>{'response': '250- Love the idea of foot paths and cycle paths. But i would give up using my car if the public transport is made easy and fast, maybe dedicated BUS lanes and make the private vehicles lane smaller so that public transport if faster. \n', 'score': 0.6482125061701645}</t>
+  </si>
+  <si>
+    <t>{'response': '256- Poor road management \n', 'score': 0.45639844446397976}</t>
+  </si>
+  <si>
+    <t>{'response': '271- I Am a cyclist, and every day commuting in cycle in the busy traffic is a problem.. for an eco friendly city green transport has to be deployed. hence having Cycle friendly roads are very much necessary. Along with this, the roads especially at the traffic signal junctions should be in good conditions, as I have observed the stretch of the road will be more or less good, but exactly after the signal, the roads will be dug up or have pot holes, which tends for slow exit of traffic from the signals.. this condition is in many signals. Another request is to ban old/Vehicles with more pollution, inhaling more exhaust of the vehicle while cycling becomes difficult.\n', 'score': 0.6218336273222758}</t>
+  </si>
+  <si>
+    <t>{'response': '275- Traffic is the main concern in Bangalore. and also road pavement should be good.\n', 'score': 0.6170590077545451}</t>
+  </si>
+  <si>
+    <t>{'response': '286- Details are missing. Badly designed roads. ORR has bus stops on the main road and the service roads are not used properly. Exit from ORR and entry into ORR through the same exit point is a blunder in design. What is being done to remedy the major flaws in the road designs, at least the main arterial roads.\n', 'score': 0.5932965143864616}</t>
+  </si>
+  <si>
+    <t>['50- Please plan well for diversions before construction of roads. And the pace of work to be fast for diversion at important roads. \n', '2- Please include checks and balances in place ( i.e accountability) to make sure that is will be completed ,tested and approved within the given deadline.Also move the deadline to 2025 instead of 2031 to complete work in phases\n', '179- Please provide a forum where we can track what all changes are being made, who is accountable for it, what is the budget \n']</t>
+  </si>
+  <si>
+    <t>['273- Faster Implementation of the plans will be key for the Bangalore in next few years\n', '140- The Master Plan 2031 brought out by the BDA and citizens is very comprehensive and covers all the aspects that one can think of. But I do feel that the number of proposed public playgrounds and sporting facilities does fall short in number, considering the expected population of Bangalore in 2031.\n', "185- Why can't the government think of improving railway network in and around Bangalore? Government should plan a comprehensive commuter rail network besides Namma Metro.\n", '288- There should be a extra toll fee levied on the people who travel single in a car.\n', '152- City has congestion at junctions, they need be redesigned to allow the free flow of traffic.  I see no provision for it in the master plan\n', '6- Master plan 2015 is not implemented it is mandatory to implement previous version \n', '146- This master needs to be corrected -like bringing highly sustainable and fast moving rapid transit system with high carrying capacity \n', '237- The real woos of the transportation is lack of last mile connectivity. The current plans are isolated developments and do not bother to simless integration. It is very simple... Give priority to pedestrian,  they want unhindered, safe passage way. The walkways are unscientific... Keep them horizontal... No abrupt ups and downs... Appropriately design crossings... No open gutters... I mean no rocket science... Simple commonsense design!!!! \n', '242- There is a need for a drastic change\n', '180- No amount of infrastructure improvements will help WITHOUT infrastructure efforts to improve COMPLIANCE with rules and safe driving practices\n', '68- There is nothing innovative in the proposal. I propose that we mark U-turn  lanes wherever possible. Also, lot of traffic jams in smaller roads happen because there is no traffic light. Since having traffic light at every intersection is not a possibility, we should implement stop signs that allow traffic from all sides to take turn and progress instead of the current situation of drivers trying to muscle their way through.   We need to recruit more traffic police for better enforcement of traffic rules. The traffic police should be respected and violators should fear them.\n', '104- The plan should have started by now and the time-frame of 15years is very long as Bangalore is exploding right now so why to wait for another 15 years for its recovery...\n', '253- Bangalore should have "Traffic free spots" each with multi-level parking with many towers.  In the "Traffic free spots" only vehicles allowed must be BTS, Ambulance, Police and Fire brigade vehicles. People must use BTS, go to multi-level parking, take their vehicles and travel to other traffic free spots so that inside the traffic free spot, there is greenery, peace, people can walk, breathe, play and live. Each traffic free spot must contain a school, hospital, post-office, mall, so that people rarely should travel out of traffic free spot. This must work in conjunction with Metro Rail of Bangalore. ISRO is giving electric battery/motor technology to anybody interested to develop green city. Bangalore must utilize this tech to have electric hybrids for BTS using electric charging and solar power capabilities. Life of a vehicle must be mapped - where it originates and where it has to stop. Most of traffic problems in Bangalore is because of improper parking on already narrow roads. In traffic free spot, multi-level parking with many towers should make sure vehicles are parked in parking spots only. Advanced drivers assistance systems and Self driving cars technology should be given a thought.\n']</t>
+  </si>
+  <si>
+    <t>['44- natural is must need if fallow the onether countery our land will get lose you oeople must think the saftey and natural\n', '118- If it is implemented the way they have planned ..... its just awesome \n', '111- Nice plan! But it has to be implemented as it is. I highly doubt the above plan would be implemented in the way it is as of now \n', '121- This is to police officers plz follow the rules and help us to follow the rules  If rules r broke by the rides punishment r penalty should be given even if it is a high officials \n', '265- Traffic issues should have to be resolved by proper planning and taking consideration for measurement whoever may be require.\n', '182- Rules are not good way  \n', '125- Again to be implemented strictly \n', '192- If it is implemented properly then it is very good\n', '15- if it implemented in time matters more.\n', "116- Traffic issue in bengaluru is well known issue to the whole world, we must work towards resolution. I admit we cannot get rid of it but if we don't act now then there will be never ending for this issue. Bangalore should be back to it's form.\n", '154- Plan Is good but it should not be in paper. Implementation should be properly executed  and should be maintained. But still it looks dream \n']</t>
   </si>
   <si>
     <t>['17- - Nothing mentioned on the types of buses. Will the current buses be upgrated? They are a nightmare in terms of pollution, danger to travelers and other riders, and roads.    - Can we look at a card system for public transports such as bus and metro like Singapore or Paris? Reduces the need for a conductor and more convenient for users and there is absolutely no need to carry change!\n']</t>
   </si>
   <si>
-    <t>['20- Basic facilities needs to be proper\n', '220- Basic things first - better co-ordination required between all agencies and make sure that once the road is asphalted, it is not dug up within few days which is happening now causing lot of traffic snarls and injuring the motorists, strict law should be enforced and the agency should be heavily fined/suspended who breaks the rule; Secondly - The height of the concrete median constructed on all the roads should be half to one foot high, the current new medians are built at 2-3 feet high and blocks emergency vehicles like ambulances and police vans to move faster, also senior citizens. disabled are facing inconvenience while crossing these high medians when crossing the roads - Thank you!\n']</t>
+    <t>['220- Basic things first - better co-ordination required between all agencies and make sure that once the road is asphalted, it is not dug up within few days which is happening now causing lot of traffic snarls and injuring the motorists, strict law should be enforced and the agency should be heavily fined/suspended who breaks the rule; Secondly - The height of the concrete median constructed on all the roads should be half to one foot high, the current new medians are built at 2-3 feet high and blocks emergency vehicles like ambulances and police vans to move faster, also senior citizens. disabled are facing inconvenience while crossing these high medians when crossing the roads - Thank you!\n', '20- Basic facilities needs to be proper\n']</t>
   </si>
   <si>
     <t>['32- Metro needs to connect KIAL, Cantt station, ITPL and KR Puram\n']</t>
@@ -2368,7 +1928,7 @@
     <t>['43- Plz Make Some Alternate Ways. Until th Project gets Completed. Vry HelpFull..\n']</t>
   </si>
   <si>
-    <t>["257- Very bad management of traffic. White topping of kasturinagar to kalyannagar stretch not well planned. Too many potholes. It's dangerous for the two wheeler riders. Traffic at tin factory to kr puram is always jam packed. It's really difficult for the commuters.\n", '196- Very bad\n', '164- Not a convincing plan. Too good to be true. \n', '201- Traffic management is at an appalling state with crumbling infrastructure\n', '91- Thanks Very good plan with detailed overview\n', "107- 1.  Busstops in highways are not properly designed , there is no space to stop 2-3 buses at a time which in turn leads to buses stopping in roads for passengers in a way  obstructing moving traffic.  This emphasis the need of redesigning busstops so that buses don't obstruct traffic. 2. Large amount of work force works in electronic city and it is fast developing. Nearest railway station is 25 km away and in Current traffic and railway stations. Developing railway stations near electronic city and push for more trains to stop allow stops there will help .\n", "49- Traffic management is worst and most of people don't obey the rules. Please take it serious and implement a good solution. For 2 KMs, it take 30 mins on so many routes.\n"]</t>
+    <t>['201- Traffic management is at an appalling state with crumbling infrastructure\n', "257- Very bad management of traffic. White topping of kasturinagar to kalyannagar stretch not well planned. Too many potholes. It's dangerous for the two wheeler riders. Traffic at tin factory to kr puram is always jam packed. It's really difficult for the commuters.\n", '196- Very bad\n', '91- Thanks Very good plan with detailed overview\n', "107- 1.  Busstops in highways are not properly designed , there is no space to stop 2-3 buses at a time which in turn leads to buses stopping in roads for passengers in a way  obstructing moving traffic.  This emphasis the need of redesigning busstops so that buses don't obstruct traffic. 2. Large amount of work force works in electronic city and it is fast developing. Nearest railway station is 25 km away and in Current traffic and railway stations. Developing railway stations near electronic city and push for more trains to stop allow stops there will help .\n", '164- Not a convincing plan. Too good to be true. \n', "49- Traffic management is worst and most of people don't obey the rules. Please take it serious and implement a good solution. For 2 KMs, it take 30 mins on so many routes.\n"]</t>
   </si>
   <si>
     <t>['61- Get some real engineers \n']</t>
@@ -2392,7 +1952,7 @@
     <t>['200- scope of lot of improvement is needed \n', '135- Better planning needed\n']</t>
   </si>
   <si>
-    <t>['170- More emphasis of public transportation and suburban trains to reduce private vehicular movement. Wider, well maintained, pot-hole free roads which are safe to drive\n', '245- More than Metro, If feasible parallel interconnect with Airport, Suburban railways should be planned. \n', '151- There should be a stronger Rail (Metro) connectivity across the City\n', '175- Better connectivity and cheaper transportation charges. More buses to be introduced \n']</t>
+    <t>['175- Better connectivity and cheaper transportation charges. More buses to be introduced \n', '170- More emphasis of public transportation and suburban trains to reduce private vehicular movement. Wider, well maintained, pot-hole free roads which are safe to drive\n', '245- More than Metro, If feasible parallel interconnect with Airport, Suburban railways should be planned. \n', '151- There should be a stronger Rail (Metro) connectivity across the City\n']</t>
   </si>
   <si>
     <t>['261- Traffic can be organized well by :  Firstly targeting at the RTO Officers as they issue Driving Licenses blindly, they have to Re-Test all the Drivers Licenses and they will end up correcting the fault in cancelling 50% of illegal licenses issued.  Secondly they should target on all Driving Schools as they provide Driving License in just 20 Hrs of classes which can be opted in 1hr/day for 20 days basis or whichever is convenient but it should sum upto 20 Hours which is totally insane, by this inexperienced riders and drivers on roads there will be only improper lane discipline.\n', '176- Driving- Roads do not have markings for lane driving, dividers etc.? We need road markers. Safety- For the safety of all road users (young and elderly) we need proper coverage of CCTVs so that any incident can be traced back to the vehicle and its perpetrators. Traffic rules: Most drivers follow traffic rule- but more recently it has become a fashion to jump signals and many people ride their bikes on the footpath especially if they are late. No one should be doing such things in civilised societies. I wonder how authorities are letting this happen without any strict fines/punishments. A number of lives can be saved in such instances. Speed limits: All of Bangalore should have speed limits- clearly indicated and strictly enforced. In and around Educational institutions, public offices, hospitals and many other crowded places should see speed reduction. Let us give people the priority. Horn usage: Heavy fines should be enforced on drivers using horns! Horns must be banned within the city limits- everyone needs to get somewhere, so using a horn to express agony in traffic is ridiculous bullying behaviour. Spitting on Roads: All road users should be fined heavily for dirtying common spaces in the form of spitting and other atrocities! Autos: Autos are the face of Bangalore, they must be taught discipline when it comes to using his meters, driving safely, reliability and language. They must follow lane traffic.\n']</t>
@@ -2410,644 +1970,484 @@
     <t>['243- Ok, but not impressive.\n']</t>
   </si>
   <si>
-    <t xml:space="preserve">18- Overall development plan looks good. But still oriented towards meeting the traffic density. The focus on reducing personal vehicle usage has to be made more clear. Cycle lanes, share transport has to be addressed clearly. Also the BMTC has to become more tech and introduce smaller buses instead big body buses .  Parking has to be made more clear and city to generate more revenue from parking. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19- pls make Good roads wide roads ,and also nice transport system like suburban train.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27- Please expedite Metro/Tram/SkyRail/Pods projects to improve reliable long distance public commute by studying effecting implementation in other developing cities like Bangkok and Singapore. Have strict enforcement of traffic rules by using technology. Make using public transport convenient by using selfcheckin kiosks using unified payment cards and having vending machines for same, for all means of transport. Design traffic with essentials on the way like parks, hospitals, schools etc so that everyone uses public transport for such amenities. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28- Auto should run on sharing basis only and no private auto. Stop to stop sharing auto like Kolkata.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33- The issue for our population is maintaining the cleanliness of all of these facilities, namely footpaths and cycle paths. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35- Focus on smart and efficient public transport will encourage people to not bring their cars on the road. So focus must be on that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41- Make White topping on priority to all arterial roads, completion by 2020. Strict implementation of no commercial estabilishment on roads less than 40ft width. Pod Taxis to completed as announced. No road works to be initiated without informing local public 15 days prior to the start by Gazette notification, posters, news articles. Rules to made to implement it with spirit of law. Respective authorities to work with local RWA for all road works. Engineer and contractor to be held responsible for finished roads, for upto 3 years.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54- All deisel vechiles and buses should be immeditly replaced either with CNG or electric buses/cars/scooters, This is creating huge pollution in traffic. Metro rail work should speed up with frequent connectivity to all TECH parks either on road or underground nearly 50per traffic will be controlled. People should be encouraged more to use public trasnport and also Banglore should come up with a policy for all pvt Companies to mandidatorily use public services than individual pvt vehicles.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55- No matter how many metro will be constructed, according to data, everyday 122 to 1600 new vehicle registrations happen in Bangalore. Personal cars should be mandated for pooling and no single travel per car.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59- 1.   Choose atleast 6 roads running north to South (one example KAMARAJ Road which runs from Chandapurar in south to other end or north Bangalore) and 6 roads running East to West (Example M.G. Road running from Hoskote to Nelamangala) making a square net work.  2.   Declare TDR and give a good rate of not less than 3 times the Land area and even upto 4 or 5 times to lure land owners to easily opt for vacating and surrendering the Land. The bureaucrats are spoiling the scheme by suggesting 1.25/ 1.5 etc as if the Government is paying from its own pockets. 3.    Please expand the Roads to 200 Ft. wide 16 to 20 lane roads, with continuous signal free  provisions for vehicles to freely and quickly move. All cross roads to be over or under these 150 Ft. wide roads. This is the cheapest and positive way of solving traffic since it does not cause the exchequer much as compared to Bridges and Flyovers. Every one will immediately after leaving their houses heading for their destination, will take one of these 200ft roads and exit from these roads at  the nearest point of destinations. 4.   While acquiring land  Please make provision for additional land to create parking infrastructure at several places.  5. These Roads should provide for minimum 8 = 8 lanes of preferably 10 = 10 lanes in which devoted lanes for police and ambulance vehicles, separate lanes for public transport vehicles including KSRTC and BMTC vehicles should be made.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75- Traffic rules not enforced. Two wheelers are the worst violators. Wrong side driving,no helmet, unlicensed youngsters driving with 3 or more passengers, signal violatio etc. ,Violation occurs in front of policemen. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76- Smaller electric buses from metro stations will help to meet last mile connectivity issues
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94- Firstly the traffic condition in our city is going worse. I think people are getting into our city more and more as time goes by. Well, it's high time for us to use electric vehicles. In this era the technology is being developed so well that I feel it's high time for us to shift to the eco friendly vehicles.. HEMP also produces fuel to the vehicle where the environment wouldn't be polluted so there is no need of petrol because it creates too much pollution compared to hemp fuel. Please government, please do take HEMP very seriously. IT CSN CHANGE THE ENTIRE WORLD.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96- Should reduce the police checking in every corners.. that makes lot of traffic blocks as well. And build parking areas as well .. so that people won't park on roadside.. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100- Plan share vehicle policies for people traveling in same direction and start odd even day policy for 4 wheeler vehicle holders.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112- Mini buses should be introduced by BMTC to cater around all metro rail stations within radius of 3 to 5 km.so that it can cover all narrow roads.This will reduce the noice and other polutions of auto and two wheelers,.if CNG or electric mini buses are used.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131- Discourage private vehicle use. Improve public transport systems. Revive 2 way traffic wherever feasible.(London roads are narrow but traffic is 2 way). Rationalise 1 way traffic directions - e.g. - interchange 1 way directions of Margosa &amp; Sampige roads, Malleshwaram. Provide emergency vehicles lane across city bypassing congested zones. Bar hawkers from roads. Implement traffic rules with CCTV surveillance. Encourage bicycles with dedicated lanes. Provide pedestrian space, ensure safety.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141- Well, Bangalore is growing tremendously without any doubt. But still proper Engineering is required to avoid traffic. Proper flyovers underpass metro stations etc.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156- Please do not even consider building one way flyovers. Public transport needs to improve heavily.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158- Why don’t MNC companies stop giving parking slots for the employees who are getting their own cars and ask them to use public transport or car pooling.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168- Plan is good but it has to be implemented on warfooting as everyday I spend around 3 to 4 hrs only in commuting
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194- Metro, Bus, Rail have to be integrated.. looking at current metro plan, wonder if any detail plan have been done as bus stations and rail stations are not integrated ..and commuters are forced to walk across with their luggage. So integration is important. 2. Keep cost of mass transport affordable (don't look at profit always).. by keeping cost, utilization will go up and this will automatically result in profit by increase volume and utilization and also traffic mess will be solved automatically. No mention of technology is seen here.. use sensors, cameras and intelligent traffic systems to streamline traffic, synchronize traffic lights and also have good pedestrian system. Most important, penalize traffic offenders heavily.. and without any corruption line Singapore and other countries. Drunken driving should result in minimum 10 years jail or more.. and traffic courts should function super efficiently and quickly.. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198- I agrer with the points mentioned in documents mentioned above. But we should look and think out of the box to reduce traffic. Bengaluru is having very good channel of Rail Tracks. Its just we are not looking or considering that channel. We can  think of running local trains between stations on at least hourly or half hourly basis (like Mumbai, Kolkata, Chennai etc.). This will reduce traffic on roads and will not incur extra costs of maintaining roads. Day by day population is increasing in Bengaluru. Local trains will help a lot not only today but in future also to reduce road traffic. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203- The bridges should be integrated.  The bottlenecks/Slow moving places should be identified.  The signals should be integrated.  100% Camera surveillance should be implemented.  The local transport timing should be strictly implemented with technologies like GPS, cashless ticketing, IOT etc., which will enable to reduce the no. of individual vehicles in the city.  Online payment of toll gate should be implemented.  Speed breakers should be minimized scientifically.  Traffic violation should be handled strictly 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207- We need congestion charges on private vehicles like London has. No private vehicle can enter the core areas of the city without paying these congestion charges. This will help curb vehicles on important roads.  The metro needs accountability and last mile connectivity. Public cycle sharing systems should work like magic.  Moonshoots like pod taxis are a waste of the tax payers money and should be abandoned as soon as possible
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228- We could have separate lanes for two wheelers and others so two wheelers green signals can start a few seconds earlier and then for the rest.  This is being used in Chandigarh for cycle rickshaws. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">233- Please consider the following input to be included in the  Revised Master Plan(RMP) 2031, if you think it is relevant.  In Bangalore,  wherever we go, we find cable TV wires or internet wires loosely hanging on road sides from electric/telephone posts or trees. These cables are laid either by cable TV operators or internet companies. Cables are haphazardly pulled through tree tops and telephone/electric posts to houses/buildings. The left over or unused wires are rolled and kept hanging loosely. Among these there are plenty of unused wires, broken ones dangling touching heads of pedestrians. A child running carelessly or a two wheeler can get entangled with these wires and fall. These companies do not care to remove the old wires/unused wires, laid by them.    To me it seems, at the present scenario, none of the service providers have a secure stable method of carrying the overhead wires to consumers, other than using electric posts/telephone and trees. A stable infrastructure will be useful for both the companies and to their customers  Otherwise, in the years to come such wires will be on the increase creating mayhem, inconveniencing residents, pedestrians and vehicle drivers.     Suggest BBMP or any other agency to provide a permanent/stable infrastructure or  a special  bay for accommodating such cables/wires and rent it out to service providers.  None should be allowed to use electric post or trees for laying cables or internet  wires. You may consider including this item in the master plan, if not already included under any other heads.  Thanking you.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234- Please invest in building dedicated safe cycle tracks through out the city. Road/ traffic / parking problems will all become easy to solve. Imagine public taking cars for office a km away just because there are no footpaths or cycle paths and in turn causing , miles of traffic pile up on bad roads. One solution will solve many problems. Please lower your commission/profit targets and give citizens a chance to better life.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">251- could have combine near by IT companies transportation.for example L&amp;T,Mindtree,UST all near bu companies.they all are using third party cab services.but independent cab services for each company.in each maximum 2 or 3 employers will be ther.My suggestion is Why cant we club near by IT companies transportation.anyhow companies workings time and all almost same.so if we can club the transportation atlset the cab will be full,less traffic,cost can share among by these IT companies . 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260- One of the major problems faced in Bangalore is parking. Regardless of how well our roads are laid and how much effort our policemen put to regulate traffic, the basic need to park our car doesn't exist in Bangalore. People even park on busy roads and immediately jam traffic. It is important that BDA places high priority in identifying parking garages near Metro stations and bus terminals. Without which, any public transport system is bound to fail. Since public transport is not a door to door facility, it's important to help people park their vehicles safely while they avail the public transport. If these are rolled into a Metro payment card, it will enhance the attractiveness of taking public transportation.   The other area where BDA and our BTP can help with is to understand traffic patterns and proactively managing traffic lights. In many cases, until and after traffic piles up, people park haphazardly and drive erratically causing the traffic jams. Then when the traffic is piled up, cops try to sort it out. If we have policemen on beats ensuring vehicles are moving along and not blocking traffic early in the day, it could definitely help. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">262- Reducing the 4 vehicle usage may reduce the traffic and increase the metro lines. bus transportation should be increased
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">263- There be some Bus only routes and entire city to be covered by electric only buses. connectivity is a big issue in city and to airport and need to be properly connected possibly with open roof electric buses.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287- The following are basic reasons for traffic problems in the city:  1. Quality of roads 2. Non accountability of contractors for poor roads 3. Constant digging of roads 4. Poor patch work of roads 5. Delay in inspection of roads and hence greater damage 6. Lack of incentive to use public transport 7. Poor last mile connectivity 8. Major surge in taxi operators and hence 4 wheelers 9. Non existence of limiting vehicle ownership policy 10. Upsurge in 2 wheeler traffic 11. Lack of incentive to walk 12. Existence of corridors of converging traffic and narrowing roads 13. Traffic police is busy fining people than controlling traffic  Here are possible solutions to the above points:  1. Public Accountability of the contractor and the office responsible to ensure road quality - timely inspection and repair, minimum time guarantee being imposed,  usage of apps with location to be able to tag the location of problem and response mechanism along with auto escalation matrix   2. Build and Incentivise public transport use to major hubs of traffic movement - this includes safe and regular last mile connectivity options, incentivising walking via well kept footpaths, overhead bridges, cycle routes. Without last mile, people will still use private transport or autos and taxis   3. Phase out 3 wheelers and introduce 4 wheeler autos - the driving behaviour can be curtailed this way  4. Dedicated bus lanes and non private transport areas within the city - de congest rings to increase public transport utilisation  5. Phase out privately owned 2 wheelers. Only logistics organisations can own them. Provided subsidised public transport usage to this part of public.   6. Private organisations to be forced to implement no 2 wheeler policy.   7. Employ strict policing mechanisms to ensure smooth traffic flow. Move to digitally secure payments to disband bribes, AI And visual tech for infringement identification, safety driving mechanisms such as high pricing of insurance for drivers based on driving style  8. Identification of traffic flow to specific locations such as tech parks and regulate time of travel. E.g Manyata tech park can operate only after 11 am, while ITPL can operate starting 7 am. These can split peak traffic load  9. Relocation of tech parks to separate small townships that encompass a complete habitat. Will cause responsible development of the area. SEZs need to be identified to incentivise movement, affordable development to be undertaken 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">290- Public transport should be strengthened and incentivise people who are using public transport by means of tax waiver etc. Interconnectivity with different modes of transport must be made efficient. Footpaths and sky walks should be made GU i
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291- Each shopping area should have multi level car parking. Also all metro stations should have parking for 200-500 cars
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4- There should be analyzing committee to upgrade this plan based on changing needs which i dont see it here. It is needed because by the time this plan is approved there will be Some development and plan might need update.Plan with dates has to be put up. There should be a clear plan of when this plan will be approved, when each work will start and when each will close. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22- Maximum road are in Bangalore 80 to 100 Feets only. In respect of population increased in Bangalore development is zero.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29- (1) Like most cities in the world and now New Delhi, the metro and Bus must use pre-loaded smart cards for seamless travel. (2) Also Metro terminals must have seamless integration with Railway stations for ease of movement. Byiappanahlli must become a new Bengaluru east terminal and the (3) Bus terminal built next to it must be become operational for outstations buses. (4) Buses must not stop at the base of flyovers or bridges causing inconvenience to commuters and potential accidents.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114- Connect metro rail to every corner
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122- We need metro trains all over the city. Also, it should be a little cheaper.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124- metro work is done very slowly.    due to metro constructions there is always huge traffic in the city
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134- Construction is needed. More work on flyovers and metro should be done to reduce the traffic
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157- Check on feeder busses and metro too
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191- Involve BMRTC Namma metro and have their future plan, also NHAI for considering new highways..
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230- The metro coverage and pace of completion is real concern
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24- There needs to be more focus on existing infrastructiure
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47- There are lot of inner roads like Haralur road developed a lot. Those roads are should be expanded and a frequent public transportation also should start
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53- Information above is far from reality, just we have to imagine, mainly many roads have to be potholes free, signals should be free from waiting for hours, many flyovers and underpass have to be constructed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101- Old Road's development project are taken without planning for the existing traffic which is causing more problems, we'll pre-planned projects should be taken
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105- I do not agree with the proposal to widen roads with out stating how rehabilitation is budgeted and managed for people who will be negatively impacted. Land Acquisitions must follow the Namma Metro model or the Delhi Metro model to ensure that people voluntarily and happily give away the properties for the larger interest of the city. But not by imposing paltry compensation or notional compensation
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115- Very poor planning in case of construction as well as quality of roads. Hopefully whitetopping will do what you promise. But poor planning the roads are horrible and the bottleneck in kalyan Nagar area is very very bad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136- Widen the existing roads. Build more flyovers and under passes.syncronice the traffic signals. Aspalting and maintain periodically.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137- Instead of flyover and bridges we need more of underpass and wide roads with tree plantation
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153- Widen roads in CBD (like cottonpet &amp; Avenue road)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161- Peripheral ring road has been in the pipeline for ever.. metro construction has been at snails pace.. plan for 30 years ahead... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162- I am  suggesting decongest many roads like hebbal and many roads to decongest many roads from city to airport to city and vic a versa
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172- Better roads and faster completion of ongoing project 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177- Expanding roads and building ring road is fine but the problem is maintainance of the roads. After the roads are built people dig/cut the roads which creates delays and traffic in addition to degrading the aesthetic view of the city. There should be some rules for digging/cutting the roads. Heavy fines should be imposed on the violators.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189- not clear on how the existing ring roads will be expanded with constructions on both sides!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255- City admin and urban planners seem to forget bangalore roads have limited capacity and no matter how many more flyovers are added or existing roads are widened.. it will be able to catchup with the explosive growth in vehicular traffic. It will serve the residents better if urban planners can focus on optimal and judicious of this precious and limited resource - Roads!!!  In the absence of a strong public transport system , people rely on their private vehicle clogging the roads and resulting in wasted time, fuel, pollution and stress. This approach can continue forever without crippling bengaluru for ever.  While Metro contrsuction will take another decade to complete to cater to a significant chunk of the road traffic.. in the interim there is a need to implement  Introduction of BusLanes : For faster movement of BMTC buses on major roads  like ORR ,so that residents can make the shift to public transport. Congestion charges : On single occupant cars during peak house Last mile connectivity :  BMTC or other players should provide last mile connectivity for people to shed their cars in favour of public transport. Parking : Adequate parking spaces at Metro stations for Cars/Bikes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">268- can be improvised with expansion of roads and if well planned
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">272- Currently the existing roads are not enough to hold the vehicle. When extending the roads, pls plan for next 50 years and expand, the same think to be done while developing the new layout/place
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Parking of vehicles on small roads 25 feet should be made on one/single side only to allow free movement of vehicles 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9- While no of buses will be increased there does not seem to be mention of any priority lanes which promote smoother movement of public vehicles as compared to private cars. Multi-modal concept is missing, which will promote people to easily switch between modes of transport including last mile connectivity using auto/2W.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12- Please have wider roads and dont allow vehicles to be parked on main/service roads.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42- Rather than stopping vehicle in the middle of the road and taking key from the vehicle Traffic police should me more friendly to all.But in the same they should be strict and should impose huge fines to one and all who violates traffic rules. Allow BMTC and department  approved vehicles during peak time which will reduce traffic upto an extent Put more buses on track where it feels more commuters traveling.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46- Need a quick effort from the authorities. I recommend taking a drastic action to reduce the number of vehicles in the city (including the peripheral roads) by the following recommendations: 1) impose a restriction / heavy permit charge for vehicles entering the city area 2) introduce more buses and streamline the flow - make the buses also bound by laws, dedicated bus lanes, no overtaking, speeding etc. 3) restrict movement of large vehicles, but prioritize those needed to move the infra development effort faster
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58- We have necessary traffic rules but the public does not have the discipline to follow the rules. Driving license is given to people who have no understanding of traffic rules. and road signs. Parked vehicles take away half of some of our narrow roads. It is extremely frustrating to commute every day to work and back with many hours stuck in traffic  in highly polluted roads. Can we encourage our young people to use bicycles but also provide safe road to ride. I find it extremely difficult to cross a road. The vehicles are not aware of the Zebra lines. Pedestrians do get injured by vehicles.   A patient in an Ambulance has to be considered as the V V V V I P - all vehicles no matter who is in it should give way to the Ambulance.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66- Safety of pedestrians should be given utmost importance, which is not the case today in Bangalore. All roads in the city must have continuous footpaths. No road in the city shall be built without footpaths (in places where there is a need for walking). Footpath should be included as a primary part of road construction. It should be like, road = road for vehicles + footpath. Please see the examples from developed countries. If you take up Germany as an example, a person can walk safely and without getting mud on the shoes almost anywhere in German cities. City development should be from a pedestrian first approach. Only then will people try to use public transport more. There should be safe road crossing facilities in all roads at locations where people need it.  Also please do not try to force impractical traffic rules. Traffic rules should be for the benefit of all, not for fining people more.  Thank you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79- Well as you have mentioned regarding building hubs for heavy vehicles outside the city is a good plan.I would like to mention about the problems caused to the ambulances as well.Well its hard to construct a separate lane for ambulance, especially within the city.So how about painting one side of the road with one color which should be cleared by the people for an ambulance when it comes with a loud siren.which avoids confusion among people i.e, which side of the road to is to be left for the ambulance.Well i ain't know that how cool is this suggestion but at least a cop present there(at the signal) should clear the road in well advance for the ambulance in well advance and report to the next signal. Vip and politicians do get such road clearance right? Not much difference between them and an ambulance both are in hurry and also worried about their life.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84- Well it's a nice plan but it's not going to stop the traffic because people never stop buying vehicles it's better government restrict more vehicles,buy increasing the road tax(well every one has a car even if there annual income is below 6lakhs).I think government has to restrict buying of cars below certain income so that it may reduce the traffic and environment pollution
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99- Bangalorean's perception of city traffic and use of road is like a villager's. It has not gone in to minds of people that this is a megacity and citizens have to behave responsibly. Traffic is a zoo in the city. Master Plan says increasing road density and number of buses. Previous master plans also did this. Did that help? We have ring roads smaller in width than side lanes. Ring roads on commercial complexes on either side. Mega marriage halls on ring roads with no parking basements. Basements in sanctioned plans but either no basement or that is used as shops with help of corrupt officials. BDA makes plan but BBMP sanctions plans for individual complexes, houses etc. My suggestion is start a massive campaign for educating public that this is a mega city and it is doomed if they drive and use private vehicles as they do now. Make parking expensive and put up banners for avoiding loud honks, driving without silencers, over speeding etc. On all main roads, close the medians so that erratic turning is avoided and make exit points atleast one km from each other. Make it compulsory for even high end schools to ferry children through school vans and prohibit their rich parents to ferry them in their Mercs, BMWs. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119- You need to regulate the effective way of monitoring the traffic violates, have a heavy spot fine , have a massive check on sound pollution and emission check on all vehicles with a huge team including volunteer
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126- I have one suggestion to avoid tragic at peak times  As you know long back Delhi gov tried to implement even odd rule which is not that successful, however in Bangalore it will not work and yet we want to overcome the issue Here is my suggestion   We can try to implement 1car min 2persons at peak time, if any men coming in traffic alone in car then fine has to give and for women's you can just give warnings. from this we are trying to risk there freedom however if we try this only on trafficky areas like silk board etc   It will impact a lot and many empty cars will not come n struck in traffic, if they want to go office or home or some entertainment places they can go with there friends n family in 1 car.. And for worst case government can create one app so can the car owners can share there route in map if any riders are present they will get to ride in it for that if necessary involve money or some good credits like you did something to Bangalore u earn this something like that  One more advantage is we will get to save the petrol also 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127- Please make the development of roads a high priority, because it affects the economy badly and for the culture of the city. Broader roads to be built which would be future ready to randomly accommodate the increasing migration to this city.. Being a silicon valley of India... It should portray the development like any other world class foreign cities... And also metro connectivity to airport is to be planned like in kuala Lumpur where u can check in your luggage from your metro station and the luggage would directly reach the flight... These types of things would make life more easy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132- Different bus terminals and truck terminals are ok. but the reason for traffic here in Bengaluru is the travellers are not following the traffic the traffic rules. Due to some extend the cops are not doing there proper work. Fine should be imposed heavily to make traffic rules compulsory. Make all these vehicles to follow the path &amp; use proper indicators , Use more patrol to make the public must follow traffic rules. Make a toll free number where a person can call and update on the issue over traffic and alone and the department has to reach the place within 5min of time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139- Please ban honking in Bangalore and make Lane disciple mandatory. Also heavy penalties like 2 warnings and 3rd time wrong doer license cancelled for life and no alternative. Life ban on driving for people involved in accidents even a minor one. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148- I installed app and sent pics of wrong parking vehicles. Still i can find a different vehicles daily(since 1 year) at the same place. I think this move is waste of time for Citizens.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166- Before any organization touches any road for digging/repair, they need to have Traffic police plan and clearance. Currently Traffic is mess as White topping, BWSSB work, GAIL pipeline all are going together. Who makes plan like this with all together. Traffic police have their hands full. Yesterday all road going out of Babusapalya were blocked due to that. Who takes ownership of traffic???
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195- We know that till today no Government has fast paced anything. This looks good after next 10 years or 15 years. Not immediate solution. The need of the hour is to stop particular vehicles causing congestion in heart of the city.  For example in Mumbai, Autos are not allowed in all areas. The areas where high class people reside does not require Auto to ply. You can restrict same in Bangalore.  Next big thing is Yellow Cabs. Permissions are given to any body who can start service. Latest to include is TGYR cabs other than Ola and Uber.  Traffic checking is very poor. People without license, pollution certificate are allowed to ply causing Air Pollution and rash/hapazard driving.  Please look into stream lining current problems rather than showing Master Plan.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202- It's not about increasing number of buses or roads , it's all about people's mindset and attitude. For example BMTC authorities should be more disciplined in sticking to schedules , routes , returning change , commuters must not use private vehicles if it is a single person. In such cases heavy toll must be charged..
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215- This sounds like a good plan, please  implement 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222- Requesting all concerned authorities to please plan ample space for parking vehicles &amp; separate way for ambulance.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227- Although we have quite a lot money earning AC buses, Government vehicles are the ones that causes heavy traffic. You can check this during bandh or on the day of RTC dharna They don't stop the buses with discipline. These has to be streamlined.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">241- All roads have a right turn and crossing the incoming traffic should have a central bifurcation of road, so that the vehicles wait in the bifurcation for right turn and don't obstruct the straight traffic.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254- What about the old vehicles?  Government vehicles are old and polluting.  The new BMTC buses are very bad and cannot be used by public.  With th new infrastructure planned above, there needs to be a regulation on the old vehicles.  Create more cycling paths - dont see this as a reality 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">259- The city should have pedestrian friendly roads. Some parts of the city should be devoid of any vehicular traffic.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">276- Everything Should not be only on Papers and Proposals. It should come in action quick. Seeing the rate of new vehicles getting registered in Namma Bengaluru. It will definitely be a nightmare to drive in the city by 2020. if nothing gets implemented, it will not be fit for living for sure. Also New technology should be implemented in development rather than using the same old techniques and skills. Work Contracts awarding should be centralized to one company instead of splitting it to many contractors, so that he can be questioned for any quality issues.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">277- One major reason for traffic jam in BLR lack of alternative road. There is often only one road for one particular area. No alternate road is oresent or if its there its too far. In other cities e.g.Pune there are multiple entry and exit points going into any area, spreading traffic evenly. With only single main entry/exit point all traffic is forced to pass through one choking point. For example, Panathur villege area has only one proper entry/exit from ORR. No small roads connecting inner gallis/roads. Everyone who wants to to in Panathur is forced through a small main road. In any other city there would have been multiple entry and exit roads planned for this area. Sadly BLR city planning didnot consider this while approving layouts. This neds to change.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- PEDESTRIAN MOBILITY must be designed and implemented in all traffic infrastructure. Policing a must at ward/BBMP level. Traffic rules enforcement is not to place cops for fine collection but save lives. Scientifically designed footpaths, pedestrian crossings, pedestrian traffic signals, zebra crossing, skywalks, long-skywalks from public transport transit points a MUST. Please collaborate with Israel/Japan/ Germany/ Singapore for design and have a profit-sharing model using public pedestrian works towards generating revenue for the city. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8- All the above are the big plans which we all know will not kick off. If you really want to do any change seriously, we can give you better solutions. All you need is to implement the present rules strictly. BTP even though doing a great job, there is a long way to go which is not being taken seriously. Ask me for solutions and i can give easy ways to ease the traffic problems. At the first place we need to ease the traffic problems and then think of eradicating it. Some sample suggesstions:  1) Uturn Management: where ever there is a uturn , the traffic is held up by rouge cab drivers occcupying all the lanes to take the u turn. All we need to do is setup a barricade  not to let them take that u turn unless they are in the right lane for it.  2) Bus bays: We need to create bus bays whereever they are not there. Using bus bays avoids the blockages by the BMTC buses near the bus stops. 3) Usage of Bus Bays: We are glad that we have bus bays in some areas. Unfortunately  none of the BMTC drivers use them. They fell that it is their right to block the road. Hosnetly if you set right the BMTC drivers by teaching them some road manners, 20% of Bangalore traffic issues will be resolved. Especially the Volvo drivers, just because they have a high end bus, they feel like they own the road. 4) Foot paths: Foot paths should be cleared of all the encroachments. Especially near the bus stops.   ETC ETC. A normal engineer working in Bangalore can give multiple suggesstions to de congest the city. Some dedication to implement them is all is needed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14- Answer to the plan is :  the prevailing traffic conditions are NOT new. This pathetic condition has been there for years. if the authorities really want to do something, forget 2031. please please take steps to regulate traffic and fix the roads NOW, not next year, not in 2031, not in 2050. NOW.  by 2031 there will be no companies or jobs left in bangalore due to the pathetic infrastructure we have. People would prefer migrating to a different state where they can provide better infrastructure. Driving 2 hours to cover 7 kms is the state of roads and traffic we are in now and we are planning for 2031 ????  when the authorities couldn't solve issues all these years, what will they do in 2031? so, all this master plan seems so fake... and there is no substance in this. sorry. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16- The earliar CDP has not been implemeted with respect to Road widening, and you change in the new CDP you have made broder just to harass without sintific approach and practically seeing the situation of the roads proposed width and where it statrs and ends.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23- Join the remaining part of nice road to reduce the the traffic flow in City.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25- Any new residential or commercial development needs to have traffic assessment done and approved. Approvals should consider infrastructure to accommodate new traffic generated by development and if infrastructure can handle it. Capability of the development to accommodate parking within itself should also be given prime importance.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31- I am concerned about all the new construction and whether it will cause more traffic than is already there. BBMP has to find a way to do that somehow. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34- A well implementation of discipline will help a better commuting.  1. Strict enforcement of traffic laws. 2. Parking/ No Parking Zones defined should be strictly controlled. 3. Enforce people to follow lanes strictly 4. Make roadside parking only with payment to BDA/ BBMP 5. Promote paid parking in areas where sufficient parking spaces are not available. Provide expert agencies to handle paid parking. 6. Traffic violators should be tracked - both vehicle number and licence number. 7. Recommend to increase the insurance premium in the subsequent premium payment for violators.  Implementation of these international rules will improve the journey speed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36- Land acquisition policy should be given 45 days deadline with immediate release of money to private owners or else inflation and appreciation value will be concern. And all contractors should come under transparent rating system and new contracts it should be awarded only if ranking improves.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39- The last mile from metro needs to be addressed with different methods. One of them could be to provide huge 2 wheeler parking space at metro stations. We are predominantly a 2 wheeler majority country. If this characteristic of the population is used effectively, this can be a high impact solution to the traffic issue. People will start using metro by default, bringing down the traffic congestion.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40- The most common sight on the road is of the slowest moving vehicles like autos, goods vehicles, LORRIES, CONTAINER LORRIES, All driving on the right side of the road. This causes a huge disrupsency to the traffic. The right side is for the fast moving vehicles. The slow moving traffic should stay on the left. Bangalore traffic does a good job to catch those vehicles that are overspeeding but what about those who go very slowly and cause traffic block to everyone else. That is equally important. Please fine the people causing traffic jams as well. Without these steps, our city will never be congestion free. It’s a shame that the first thing that anyone relates to when they think of Bangalore is the traffic jams here. It’s very sad to hear as a bangalore citizen. Without some strict actions being taken, we will spend most of our lives sitting in traffic jams and wasting time.   I am sure there will be good agencies available to help in finding ways to reduce traffic jams in our city. That is the need of the hour currently. Please take it seriously. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52- Traffic is the biggest challenge for all Bangaloreans. The state government should work at a war footing speed to resolve the burning  problem we Bangaloreans face every day. The government apathy and insensitive further worsen the situation. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60- The local BMTC count should not be increase so much. Karnataka Transport Department has proposed slab rates based on the cost of the car, this is not good. Government should not fix these rates I feel. We should try to make use the existing railway tracks to start local trains wherever possible with in Bangalore. Strict punishment or fine should be put on those who are breaking traffic rules. Government should make more Mobile apps and websites so that Public can post complaints if they see somebody breaking the traffic rules.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62- Spending on ring roads and signal free corridors and ramp intersections is one thing, enforcing traffic rules and making sure that it is strictly followed is another. There needs to be more focus on better planned roads and pavements - yes but equal focus must be given towards improving traffic police conditions and more traffic patrolling to ensure that rules are followed. Stricter motor vehicle license tests and proper training for public transport vehicle operators, drivers and private cabs must be put in place along with clear speed limit signs throughout the road network. Not to forget clear lane markings, proper maintenance of roads and making sure that the road works are carried out effectively is also essential and severely lacking at the moment. Parking management is again very crucial. Illegal parking on junctions with underpasses and street markets that are illegally set up on pavements and other main roads must be discouraged with pro-activeness. Also, most new areas that are developed have no proper planning of roads - most cross roads are dead-ends and have no adequate connectivity. There must be properly designed footpaths for pedestrians to encourage local commute on foot for short trips. With dead-end roads without allowance for even foot journey, the most convenient choice is obviously personal vehicles. Lack of parking facilities means vehicles are parked on roads blocking traffic movement and hence more congestion. Restricting parking without providing alternatives is a pointless thing to do. Enforcing these basic things and emphasis on pedestrian and cycle commutes are a great way to build smart cities.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65- Need strict implementation of obeying traffic rules, keeping the lane. Sometimes traffic signals causes jams. Every signal needs to be studied to see if it is causing jam, how many actual seconds of each lane traffic and pedestrian crossing is required. This can avoid unnecessary jams at the signals.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70- Penalty for traffic offences should be increased at least 3-fold from present rates  to let the public know that they need to maintain traffic discipline.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72- Majority of the traffic issues are due to poor driving skills and not following traffic discipline 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74- how is the current traffic situation being handled while new development happens? I already see the white topping and the metro development is triggering gaping holes and ensuring roads are clogged throughout the day.  Atleast, plan things in a way that all the development does not happen at once and you pick things up in parts. so that the impact is regionalised and people can opt for alternate routes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82- Adoption of smart traffic road
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87- Traffic problems make our lifes in HELL.Mainly this is due to the absense\not assigned traffic polices in some areas .Traiffic polices present in main roads and can see them only in first and last week of every months(might be showing or meeting their targets)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88- Despite what is the popular trend, the bulk of India's traffic is on two wheelers. Our climate allows it and it is also a good compromise on affordability and flexibility. What is critically important is to make the roads safer for two wheelers. Few suggestions: 1. Create two-wheelers only lanes on main roads. Do not allow cars or other heavy vehicles in those areas 2. No two wheelers allowed in other lanes. It is for their safety as well 3. Additional safety measures to prevent serious injuries from accidents - shatter proof strong plastic shield in front, storage baskets for luggage, bike lane limited to vehicles 200 CC or lesser
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89- Good traffic management
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90- You have ignored the prominent issues, There should be flyover from Hope farm till varthur kodi , also from Varthur kodi to cross Varthur. Its already saturated and government is planning to widen the road of varthur to varthur kodi. It will not solve the purpose. I think 1 flyover can solve this problem at varthur kodi junction.  Flyover from Hope farm till varthur kodi if you are thinking of future else it will be mess as you might build just bridge or underpass at hope farm, it will solve the short term problem not the long term. Density of popluation in whitefield working in IT/ITES/ manufacturing is quite high. You need to think ahead of 10 years.  I felt bad when i see the current situation where even 1 underpass at kundlahalli takes years . How will you achieve the infra problem.  There should be peripheral metro also to connect the city which will solve 2 problems traffic, pollution . Like - Whitefield to Electronic city, Electronic city to Nagwara, and hebal to whitefield. That is the only way to control the traffic mess.  You also need to implement other feeder systems like Rapid transport . I am sure people are ready to pay as we know the everyday struggle to reach to office.  Few proposals you should pay attention rather than discarding :)  1. Peripheral metro to connect the city as city expand , it will be more mess. That one should not ignore. ( This is the best solution to solve long term problem not the roads) 2. Build Nice road - Electronic city to Whitefield and whitefield to Hebal.  3. Flyover from hope farm to varthur kodi to Varthur  , It getting messier 4.Rapid transport - Pod taxis - ( it can be implemented at congested places)- Proposed but need some action on ground.  5. More training to traffic cops as i find them uneducated about the congestion of traffic.  6. Kundlahalli junction underpass pending from last 5 years ( if we cant build 1 flyover ,how we will improve the infra )  7. Underpass or overbridge at yamlur signal. Its not managable by traffic cops now. I am sure no one paid the attention also.  8. Tin factory - k.r. puram till 100 feet road indranagar, ( need to have less signals )   9.Also underpass at HAL signal ,ISRO signal and Leela palace . It is proposed but need to be implemented quickly otherwise it will loose its importance.    I stay in this part of city east part of city and travel to Indranagar from Whitefield.  These are few suggestions which you can look upon. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92- With the plan on paper, it's a good plan. The the problem arises in the implementation of the plan. The progress speed and the quality of work provided. We should aim that whatever is being constructed now, may it be roads or anything should easily last for next 20 years. That should be the aim, try to do all the work in the night time, so it's less traffic in the day time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98- Heavy traffic
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108- Please bring some strict actions and rules so that in one home only one car and one 2 wheeler to be used which in turn reduces the traffic as there would be no one using a car for a single occupancy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113- There seems to be no article about signal free junctions for current peak traffic areas
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117- The planned activities for 2031 should have been available by now. These won't be enough to suffice the future traffic issues.  - More connectivity with monorail to the metro stations from internal areas. - Signal free junctions within the city. Better connectivity to the IT corridors  are required . - Parking issues - smart system for parking and more parking stations at various locations across the city required - Initiative to move to e-bikes electric vehicles, smart sharing of automobile, better public transport.  - Innovative and futuristic technologies like Bullet trains, hyperloop to connect to satellite towns and citues to Bengaluru
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130- More than anything else main 2 things are to b kept in mind and implemented.  1. Foot over bridges to b made with a different design and with less number of steps on all the major traffic prone roads - but shd see that invariably lift or escalator is installed failing which the purpose of making the bridge will b defeated.  2. Almost all the main junctions where 3 or 4 roads meet traffic signals are to b installed with proper syscronization and with sensors to automatically change the lights if traffic is less at any point of time . In addition to this there shd b pedestrian crossing signals which again will b syscronized with the main traffic signals. Lastly if at all they r planning to reduce the congestion , like in other countries flyovers are to b built in above the other to lead the traffic to different destinations 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133- Always getting stuck in traffic
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145- To avoid traffic Road should be widend also reducing unnecessary humps nd making sufficient parking 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149- The traffic authorities should also be involved actively to introduce penalties offences that are not currently in place. The authorities must also put an effort in booking the offenders. Lot of traffic jams happen because of lane disciplines not being followed, signals being jumped and people flouting many such traffic rules. Greater effort should be put in identifying such offences and the penalty amounts for such offences must be made very steep. The licenses of repeat offenders must be suspended. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150- The focus should be on traffic flow rather than road widening which is a never ending cycle. If people drive in wrong direction and don't follow lanes for turning left or right then any length of width of roads is insufficient. There should be a drive to educate people and enforcement to follow traffic rules. The speed of vehicular movement is slowed down by unauthorized parking on any spot including near the turns, pedestrians crossing every where, vehicles coming in wrong direction, vehicle turning right from the left most lane and left from the right most lane leading to chaos on turnings, very slow movement on traffic signals, un-managed auto movements in every direction. The planned infrastructure looks good on paper but it cannot be sustained without people participation and for that discipline and enforcement is the basic need that is prevalent in every developed country except in India. The master plan should also include a chapter how they plan to handle this basic issue which will increase further with additional number of vehicles on road if not tackled properly. In that case any amount of modern infrastructure will just add to chaos on the roads.  Also, when granting permission to build multistory apartments on narrow lanes of the outer areas, capacity of the roads should be measured and only appropriate number of buildings be allowed or the road capacity should be increased beforehand as it is next to impossible to demolish and residential apartment or other buildings at a later stage and residents have to suffer the never ending traffic blockages throughout the day.  There is no mention of handling this issue in the plan. You may have multiple ring roads but if the roads connecting to these and and other major roads in the city are so congested it will take hours to reach the main roads from small narrow by lanes. There is no concept of parallel roads in Bangalore and everyone has to pass through same main road example outer ring road or Whitefield road and all other roads leading to these are very narrow.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159- Roads need to maintain well then link roads may be help to control traffic wherever it is necessary...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167- 1. If people/commuter can identify and alarm the system, for the offenders, a lot of violation can be taken care. e.g, I can capture (video etc.) and upload to the authority and they penalizes the offender, basis the offense done. This way a personnel need not be deployed on junctions and breathe smoke. 2. If the bus/auto stands can be moved out of roads, probably on an elevated station, out of the roads can avoid stopping/slowing of traffic, this can also help authority to do away of the speed breakers. 3. A lot of vehicles, mostly cab drivers, drives on high beam on their headlights which causes a lot of distraction for the fellow commuters. 4. Riders/Drivers should be educated on usage of horns, many honks without any reason and causes distress for the fellow commuters.  Can explain all these points and many more in details, if these are worth a workable points 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169- While so much is being done for us, we as a citizen should also have responsibility. What is the measure taken to stop citizens from following wrong traffic rules like going on one ways, talking on mobile while in a two wheeler, not following signals. How do we change the mindset. People only want to rush irrespective of what happens behind them. They have an attitude of I hv to move front, I am not bothered about the rest. By following basic rules, most of the problems are sorted
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173- Accidents happen to the active breadwinner of the family, loss of such life spells a disaster for the family. 1. Strict enforcement of traffic rules and violaters should be penalized. 2. CCTV at all points and ward wise traffic control rooms, thereby minimising the physical need for traffic constables. 3. Educating all the drivers while procuring the license itself which should be made compulsory and visits to Hospital or video recording of accident victims. 4. Lane discipline should be followed. 5. Roads should be of good standards, proper warning to be displayed if there were some repairs of the roads or potholes. 6. Cases of traffic violation to be disposed off as soon as possible, long delay in judiciary is bound to embolden the offenders. 8. Roads should have prelaid pipes for cables and water or drain , or gas pipes, frequent digging to be avoided. 8. Any digging subsequent to proper laying of the road should be penalized or the charges levied for such activity should be so high that it itself will be deterrent.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174- Horrible traffic with worst management
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178- It is not very clear in what way they are going to widen the roads identified in the master plan. What is the strategy to curb construction of multistory complexes and the  traffic generated by them adding chaos and traffic jams (example: Manyata park and other such IT complexes). In order to reduce congestion it is very important to decentralize the activity centers like whole sale markets, vegetable markets, other such activities. There is not much information of traffic management systems.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181- Please put a traffic cameras to study the traffic conditions, all traffic lights timeouts should be based on real time feeds and not on time based timeouts, this only increases traffic, ensure that potholes are duly filled on time
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184- road dividers should not be opened in between to ramp up city speed. this in mid road dividers results in traffic due to no signals and no traffic controller.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188- One way to check traffic
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190- Half of the traffic related problems can be solved simply by providing good, long-lasting roads, and by completing all ongoing infrastructure tasks in a time-bound fashion. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197- The question is of quick evacuation of traffic &amp; how. Vehicular population will keep growing. So, we need multi layer uninterrupted traffic flow underground. This is an expensive solution, but is good for the next 25-50 years. Longer distance traffic will not disrupt short distance vehicles &amp; vice versa. Entries/exits can be planned every km. Availability of space is not an issue at all. All areas under existing roads can be used &amp; more. We don't have to cut down trees. In addition gardens &amp; playing areas, garbage disposal, sewage treatment etc can be planned. PLASTIC SHOULD DEFINITELY BE BANNED.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212- Better management of traffic
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216- Poor management by traffic cops. They do not regulate traffic... they only stand in groups by the roadside,  chatting &amp; drinking tea. They pounce on vehicles even if no rule is broken, &amp; threaten with high fines, thereafter pressurise the drivers/owners to pay a lesser amount,  without receipts. If this style is stopped and they do their job sincerely,  traffic would improve considerably. It requires a sea change in attitude of an entire generation of cops.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218- I know our cops are doing the best appreciate that but every one has to reach before time. It will be great if we follow the traffic like the other countries do follow a lane and continue the same till you cross the road and maintain a speed limit 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223- I am sure the responses for this segment would be in the thousands. Basics: 1. Remove illegal speed breakers and proper marking on Speed Breakers. Most breakers are not visible until you are almost upon them, especially at night 2.a. On major roads like the ORR, have a 3 ft hedge of shrubs on the divider. This will increase greenery, plus helps night driving as the opposite high beam does not blind drivers. Will reduce night accidents 2.b. Alternatively setup proper signals at major crossings like Kalamandir, JP Morgan, Oriental College etc., to ensure safe crossing for pedestrians. 3. Build FOB at all major pedestrian crossings and setup grills on the divider (at least 150m on each side of the FOB) in the middle to ensure pedestrians will definitely take the FOB 4. Monitor and close gaps forcibly created in dividers by 2 wheelers for a quick U turn. 5. Have small (fixed traffic cone type) dividers setup near turns so that those who need to turn will go into the correct lane and not obstruct the traffic going straight by occupying all the lanes 6. Remove the compulsory helmet rule as it is only facilitating traffic cops to make a quick buck. Taking care of their safety is the rider's responsibility and not the traffic department's. The seat belt and helmet rules are useless in the current Indian mindset. The cops should instead focus on stopping and penalizing those who break other traffic laws like jumping a red light, driving in the opposite lane, etc. as these could prove harmful to other drivers who are following traffic rules. 7. Use good quality material for tarring or white-topping roads, so that they last longer and allow traffic to flow smoothly. I feel that at least 40% of the traffic jams in Bengaluru will be avoided, if the roads are in good condition.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226- I feel the law enforcement is very low in Bangalore overall, for example when a commercial complex is built, no measure taken by the BBMP or BDA before approving it, least bothered about the parking space is available for the multi storied buildings, the residents end up parking on the footpaths and on the roads, you can see this culture everywhere in bangalore, people build independent houses but park their cars/bikes on the roads, there is no safety measures taken for the people walking, they are forced to walk on the roads risking their safety. What about elders and kids, where they walk? where are the footpaths? even a medical shop puts their bill board on the footpath, footpaths are not meant for people to walk, I think this is a serious issue in Bangalore. I do not see this point in your master plan.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231- Need to plan all constructions properly as the entire city is dugged up throughout the year. The condition of roads cause more traffic and traffic police needs to be more strict with people not obeying traffic rules.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235- Our Traffic system is in a pathetic state. Average peak hour speed between 8:30am-11:30am is about 10-12kms/hr.  Firstly I do not blame the government alone for this problem as citizens are equally responsible for this as we do not follow even the basic traffice rules and common sense is just thrown out of the window when we are in the driving seat, but we should also recognise much of the problems need government to take first initiatives.  So what I propose is that, better traffic management and augmented common services are need of the hour.  1. Traffic violations should be severely dealt with with Impounding of vehicle for weeks or months and the safe keep cost added to fines. Community services should be made part of the fine and repeat violators should be subjected to naming and shaming.  2. Methods should be divised to improve lane driving diciplin and specific training and orientation for 2 wheeler drivers.  3. Corporates occupying large office complexes should be encouraged to devise staggered reporting times for employees to ensure less number of  vehicles at a give time. Further Corporates should also be encouraged to work towards a 30% population of employees working from Home on any give day, unless absolutely required to work from office. Having been in Corporates for 22 years I am confident that it is possible if they try, yes it will have some cost impact but I am confident it will only improve the productivity, which effectively can offset some additional cost.  4. Management and coordination of our shared commute modes like bus and metro needs to improve. Metro where available is a boon but Feeder bus and general bus commute still takes a long time. Traveling on ORR or Richmond road averages between 5-10kms/hr most of t he time during the day, this needs to improve dramatically.  5. Quality of roads are PATHETIC.  However to be positive I believe white topping should improve situation and needs to be done much faster pace, plastic based mix for interior roads should become a norm. And most of all contractors doing the road or civic works should be held accountable which is not the case leading to awful patchwork that doesn't even last a month.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239- Metro work is too delayed and till the time it will be completed there will be chaotic situation in the city, pollution and traffic is already at peak, how are we going to deal till then?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240- Building roads alone will not fix the traffic issue. There are tonnes of other problems and trouble makers on the road. Fix those issues first. People riding/driving in one ways and in the opposite direction of traffic, illegally parked vehicles, street hawkers and vendors, slow moving vehicles in the fast lane, lack of discipline... I could go on.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247- Very bad traffic management. And not planned constructions
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">248- traffic is the one of the biggest issues. Hope they come up with some innovative yet simplistic solutions
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264- Below factors aggravate traffic problem in the city - a)Traffic violations by auto, cabs in a menace 2) Lack of substantial CCTV surveillance 3) No prior information about road blocks or redirection to public. 4)Lack of proper planning when it comes to road works
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266- Provide traffic less track for bicycles, and educate traffic police. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267- Request to sync the traffic signal across main corridor of city.., it will help commuters to move without stopping frequently at every junction, considering syncing speed of 30kmph .
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270- The time scales for addressing the traffic and congestion problem is not there. Inadequate parking facility and ways to address that is missing. Park and ride facility should be a norm and reducing traffic in central business district might be considered. Heavy vehicles entrance to city should be controlled. Bottlenecks in traffic flow like KR Puram bridge, Indira Nagar, and many such areas are immediate concerns and needs quick response.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">274- Recycle Products can be used in transportation. and to avoid the traffic issue's we have to update our-self,  and we have to follow the roles and regulations too! so the management and user contribution is most important.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278- The govt. should be strengthen the traffic rules and make the people abide them. And at the same time it is our responsibility to follow the rules for our own benefit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">279- Heavy use of technology for traffic management. Sensor based signalling system, clear road markings, removal of road hazards for e.g. unscientific speed bumps, unplanned dividers, barricades, creation of multi-level parking, foot-over bridge at regular interval, proper feeder network to metro and emphasis on last mile connectivity.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">280- Good thought, however I think we can increase metro connections to the old city areas which will reduce the general traffic drastically.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">283- Progress of planning and implementation is very slow
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284- Pretty decent plan this. However, the most important thing is to take care of the quality of build. Any construction should withstand for at least 10 years. This also means that the plan should include the increase in traffic towards the end of 10 years before the maintenance phase takes its turn.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">289- Start with enforcement of traffic laws... make roads walkable by enforcing crossing and observance of foot paths, levy heavy fines for blocking the intersection due to red lights. prohibit unnecessary honking and traffic in residential areas. Keep separate lanes for motorcycles, scooters and rickshaws
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30- Make railway Line along outermosy ring road. This is very cost effective
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51- The existing flyover construction is very unscientific and requires a proper planning. We leave space in the centre and on the side both being under utilised. Without either being used properly. Both are clogging the traffic. We still continue building such flyovers all over the ring roads.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143- First increase the width of the inner roads. Do not care for votes. This is very much required. Acquire the land and increase the road size to 40 ft. Also do not give permission to people build houses next to each other. As a mandate, everyone has to leave 3 ft all around their plot. It looks ugly there. pls acquire don't hear the public. You guys stop taking bribes and concentrate and pay the people wherever the land is acquired. Things will get in order.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205- Its all in theory, wherez the metro to serve the IT crowd of todays bangalore. Peripheral ring road has been on paper for last 10 years, where is the action? What is the plan on nice road-stalled.. what is the plan for congestion and pot holed roads to drive on everyday. Parking charges is only a scam by the people who take 20 to 40 rupees from every car or bike user with tax. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210- The infrastructure that is being built are not future focused and take a lot of time to complete 
-</t>
+    <t>{'response': '18- Overall development plan looks good. But still oriented towards meeting the traffic density. The focus on reducing personal vehicle usage has to be made more clear. Cycle lanes, share transport has to be addressed clearly. Also the BMTC has to become more tech and introduce smaller buses instead big body buses .  Parking has to be made more clear and city to generate more revenue from parking. \n', 'score': 0.6338350576863013}</t>
+  </si>
+  <si>
+    <t>{'response': '19- pls make Good roads wide roads ,and also nice transport system like suburban train.\n', 'score': 0.5068443426203733}</t>
+  </si>
+  <si>
+    <t>{'response': '27- Please expedite Metro/Tram/SkyRail/Pods projects to improve reliable long distance public commute by studying effecting implementation in other developing cities like Bangkok and Singapore. Have strict enforcement of traffic rules by using technology. Make using public transport convenient by using selfcheckin kiosks using unified payment cards and having vending machines for same, for all means of transport. Design traffic with essentials on the way like parks, hospitals, schools etc so that everyone uses public transport for such amenities. \n', 'score': 0.6096348290830091}</t>
+  </si>
+  <si>
+    <t>{'response': '28- Auto should run on sharing basis only and no private auto. Stop to stop sharing auto like Kolkata.\n', 'score': 0.5010267697455499}</t>
+  </si>
+  <si>
+    <t>{'response': '33- The issue for our population is maintaining the cleanliness of all of these facilities, namely footpaths and cycle paths. \n', 'score': 0.4552221122511574}</t>
+  </si>
+  <si>
+    <t>{'response': '35- Focus on smart and efficient public transport will encourage people to not bring their cars on the road. So focus must be on that.\n', 'score': 0.5459436445819408}</t>
+  </si>
+  <si>
+    <t>{'response': '41- Make White topping on priority to all arterial roads, completion by 2020. Strict implementation of no commercial estabilishment on roads less than 40ft width. Pod Taxis to completed as announced. No road works to be initiated without informing local public 15 days prior to the start by Gazette notification, posters, news articles. Rules to made to implement it with spirit of law. Respective authorities to work with local RWA for all road works. Engineer and contractor to be held responsible for finished roads, for upto 3 years.\n', 'score': 0.5834454348609854}</t>
+  </si>
+  <si>
+    <t>{'response': '54- All deisel vechiles and buses should be immeditly replaced either with CNG or electric buses/cars/scooters, This is creating huge pollution in traffic. Metro rail work should speed up with frequent connectivity to all TECH parks either on road or underground nearly 50per traffic will be controlled. People should be encouraged more to use public trasnport and also Banglore should come up with a policy for all pvt Companies to mandidatorily use public services than individual pvt vehicles.  \n', 'score': 0.7360299588445264}</t>
+  </si>
+  <si>
+    <t>{'response': '55- No matter how many metro will be constructed, according to data, everyday 122 to 1600 new vehicle registrations happen in Bangalore. Personal cars should be mandated for pooling and no single travel per car.\n', 'score': 0.6444425668168765}</t>
+  </si>
+  <si>
+    <t>{'response': '59- 1.   Choose atleast 6 roads running north to South (one example KAMARAJ Road which runs from Chandapurar in south to other end or north Bangalore) and 6 roads running East to West (Example M.G. Road running from Hoskote to Nelamangala) making a square net work.  2.   Declare TDR and give a good rate of not less than 3 times the Land area and even upto 4 or 5 times to lure land owners to easily opt for vacating and surrendering the Land. The bureaucrats are spoiling the scheme by suggesting 1.25/ 1.5 etc as if the Government is paying from its own pockets. 3.    Please expand the Roads to 200 Ft. wide 16 to 20 lane roads, with continuous signal free  provisions for vehicles to freely and quickly move. All cross roads to be over or under these 150 Ft. wide roads. This is the cheapest and positive way of solving traffic since it does not cause the exchequer much as compared to Bridges and Flyovers. Every one will immediately after leaving their houses heading for their destination, will take one of these 200ft roads and exit from these roads at  the nearest point of destinations. 4.   While acquiring land  Please make provision for additional land to create parking infrastructure at several places.  5. These Roads should provide for minimum 8 = 8 lanes of preferably 10 = 10 lanes in which devoted lanes for police and ambulance vehicles, separate lanes for public transport vehicles including KSRTC and BMTC vehicles should be made.  \n', 'score': 0.6831345708148654}</t>
+  </si>
+  <si>
+    <t>{'response': '75- Traffic rules not enforced. Two wheelers are the worst violators. Wrong side driving,no helmet, unlicensed youngsters driving with 3 or more passengers, signal violatio etc. ,Violation occurs in front of policemen. \n', 'score': 0.5518387559370885}</t>
+  </si>
+  <si>
+    <t>{'response': '76- Smaller electric buses from metro stations will help to meet last mile connectivity issues\n', 'score': 0.7119458141743691}</t>
+  </si>
+  <si>
+    <t>{'response': "94- Firstly the traffic condition in our city is going worse. I think people are getting into our city more and more as time goes by. Well, it's high time for us to use electric vehicles. In this era the technology is being developed so well that I feel it's high time for us to shift to the eco friendly vehicles.. HEMP also produces fuel to the vehicle where the environment wouldn't be polluted so there is no need of petrol because it creates too much pollution compared to hemp fuel. Please government, please do take HEMP very seriously. IT CSN CHANGE THE ENTIRE WORLD.\n", 'score': 0.5626954546404702}</t>
+  </si>
+  <si>
+    <t>{'response': "96- Should reduce the police checking in every corners.. that makes lot of traffic blocks as well. And build parking areas as well .. so that people won't park on roadside.. \n", 'score': 0.5579121016816707}</t>
+  </si>
+  <si>
+    <t>{'response': '100- Plan share vehicle policies for people traveling in same direction and start odd even day policy for 4 wheeler vehicle holders.\n', 'score': 0.5756200322445133}</t>
+  </si>
+  <si>
+    <t>{'response': '112- Mini buses should be introduced by BMTC to cater around all metro rail stations within radius of 3 to 5 km.so that it can cover all narrow roads.This will reduce the noice and other polutions of auto and two wheelers,.if CNG or electric mini buses are used.\n', 'score': 0.7417850492747844}</t>
+  </si>
+  <si>
+    <t>{'response': '131- Discourage private vehicle use. Improve public transport systems. Revive 2 way traffic wherever feasible.(London roads are narrow but traffic is 2 way). Rationalise 1 way traffic directions - e.g. - interchange 1 way directions of Margosa &amp; Sampige roads, Malleshwaram. Provide emergency vehicles lane across city bypassing congested zones. Bar hawkers from roads. Implement traffic rules with CCTV surveillance. Encourage bicycles with dedicated lanes. Provide pedestrian space, ensure safety.\n', 'score': 0.6264199242883368}</t>
+  </si>
+  <si>
+    <t>{'response': '141- Well, Bangalore is growing tremendously without any doubt. But still proper Engineering is required to avoid traffic. Proper flyovers underpass metro stations etc.\n', 'score': 0.56979409670056}</t>
+  </si>
+  <si>
+    <t>{'response': '156- Please do not even consider building one way flyovers. Public transport needs to improve heavily.\n', 'score': 0.5205958877708025}</t>
+  </si>
+  <si>
+    <t>{'response': '158- Why don’t MNC companies stop giving parking slots for the employees who are getting their own cars and ask them to use public transport or car pooling.\n', 'score': 0.6464997514492316}</t>
+  </si>
+  <si>
+    <t>{'response': '168- Plan is good but it has to be implemented on warfooting as everyday I spend around 3 to 4 hrs only in commuting\n', 'score': 0.5545030423623124}</t>
+  </si>
+  <si>
+    <t>{'response': "194- Metro, Bus, Rail have to be integrated.. looking at current metro plan, wonder if any detail plan have been done as bus stations and rail stations are not integrated ..and commuters are forced to walk across with their luggage. So integration is important. 2. Keep cost of mass transport affordable (don't look at profit always).. by keeping cost, utilization will go up and this will automatically result in profit by increase volume and utilization and also traffic mess will be solved automatically. No mention of technology is seen here.. use sensors, cameras and intelligent traffic systems to streamline traffic, synchronize traffic lights and also have good pedestrian system. Most important, penalize traffic offenders heavily.. and without any corruption line Singapore and other countries. Drunken driving should result in minimum 10 years jail or more.. and traffic courts should function super efficiently and quickly.. \n", 'score': 0.6696734411701599}</t>
+  </si>
+  <si>
+    <t>{'response': '198- I agrer with the points mentioned in documents mentioned above. But we should look and think out of the box to reduce traffic. Bengaluru is having very good channel of Rail Tracks. Its just we are not looking or considering that channel. We can  think of running local trains between stations on at least hourly or half hourly basis (like Mumbai, Kolkata, Chennai etc.). This will reduce traffic on roads and will not incur extra costs of maintaining roads. Day by day population is increasing in Bengaluru. Local trains will help a lot not only today but in future also to reduce road traffic. \n', 'score': 0.6117430309831633}</t>
+  </si>
+  <si>
+    <t>{'response': '203- The bridges should be integrated.  The bottlenecks/Slow moving places should be identified.  The signals should be integrated.  100% Camera surveillance should be implemented.  The local transport timing should be strictly implemented with technologies like GPS, cashless ticketing, IOT etc., which will enable to reduce the no. of individual vehicles in the city.  Online payment of toll gate should be implemented.  Speed breakers should be minimized scientifically.  Traffic violation should be handled strictly \n', 'score': 0.6413500883611667}</t>
+  </si>
+  <si>
+    <t>{'response': '207- We need congestion charges on private vehicles like London has. No private vehicle can enter the core areas of the city without paying these congestion charges. This will help curb vehicles on important roads.  The metro needs accountability and last mile connectivity. Public cycle sharing systems should work like magic.  Moonshoots like pod taxis are a waste of the tax payers money and should be abandoned as soon as possible\n', 'score': 0.718630413385808}</t>
+  </si>
+  <si>
+    <t>{'response': '228- We could have separate lanes for two wheelers and others so two wheelers green signals can start a few seconds earlier and then for the rest.  This is being used in Chandigarh for cycle rickshaws. \n', 'score': 0.541720366715116}</t>
+  </si>
+  <si>
+    <t>{'response': '233- Please consider the following input to be included in the  Revised Master Plan(RMP) 2031, if you think it is relevant.  In Bangalore,  wherever we go, we find cable TV wires or internet wires loosely hanging on road sides from electric/telephone posts or trees. These cables are laid either by cable TV operators or internet companies. Cables are haphazardly pulled through tree tops and telephone/electric posts to houses/buildings. The left over or unused wires are rolled and kept hanging loosely. Among these there are plenty of unused wires, broken ones dangling touching heads of pedestrians. A child running carelessly or a two wheeler can get entangled with these wires and fall. These companies do not care to remove the old wires/unused wires, laid by them.    To me it seems, at the present scenario, none of the service providers have a secure stable method of carrying the overhead wires to consumers, other than using electric posts/telephone and trees. A stable infrastructure will be useful for both the companies and to their customers  Otherwise, in the years to come such wires will be on the increase creating mayhem, inconveniencing residents, pedestrians and vehicle drivers.     Suggest BBMP or any other agency to provide a permanent/stable infrastructure or  a special  bay for accommodating such cables/wires and rent it out to service providers.  None should be allowed to use electric post or trees for laying cables or internet  wires. You may consider including this item in the master plan, if not already included under any other heads.  Thanking you.  \n', 'score': 0.621494016703523}</t>
+  </si>
+  <si>
+    <t>{'response': '234- Please invest in building dedicated safe cycle tracks through out the city. Road/ traffic / parking problems will all become easy to solve. Imagine public taking cars for office a km away just because there are no footpaths or cycle paths and in turn causing , miles of traffic pile up on bad roads. One solution will solve many problems. Please lower your commission/profit targets and give citizens a chance to better life.\n', 'score': 0.6014069561274399}</t>
+  </si>
+  <si>
+    <t>{'response': '251- could have combine near by IT companies transportation.for example L&amp;T,Mindtree,UST all near bu companies.they all are using third party cab services.but independent cab services for each company.in each maximum 2 or 3 employers will be ther.My suggestion is Why cant we club near by IT companies transportation.anyhow companies workings time and all almost same.so if we can club the transportation atlset the cab will be full,less traffic,cost can share among by these IT companies . \n', 'score': 0.6321741161534981}</t>
+  </si>
+  <si>
+    <t>{'response': "260- One of the major problems faced in Bangalore is parking. Regardless of how well our roads are laid and how much effort our policemen put to regulate traffic, the basic need to park our car doesn't exist in Bangalore. People even park on busy roads and immediately jam traffic. It is important that BDA places high priority in identifying parking garages near Metro stations and bus terminals. Without which, any public transport system is bound to fail. Since public transport is not a door to door facility, it's important to help people park their vehicles safely while they avail the public transport. If these are rolled into a Metro payment card, it will enhance the attractiveness of taking public transportation.   The other area where BDA and our BTP can help with is to understand traffic patterns and proactively managing traffic lights. In many cases, until and after traffic piles up, people park haphazardly and drive erratically causing the traffic jams. Then when the traffic is piled up, cops try to sort it out. If we have policemen on beats ensuring vehicles are moving along and not blocking traffic early in the day, it could definitely help. \n", 'score': 0.6383632636873884}</t>
+  </si>
+  <si>
+    <t>{'response': '262- Reducing the 4 vehicle usage may reduce the traffic and increase the metro lines. bus transportation should be increased\n', 'score': 0.658710721253025}</t>
+  </si>
+  <si>
+    <t>{'response': '263- There be some Bus only routes and entire city to be covered by electric only buses. connectivity is a big issue in city and to airport and need to be properly connected possibly with open roof electric buses.\n', 'score': 0.6580476264592658}</t>
+  </si>
+  <si>
+    <t>{'response': '287- The following are basic reasons for traffic problems in the city:  1. Quality of roads 2. Non accountability of contractors for poor roads 3. Constant digging of roads 4. Poor patch work of roads 5. Delay in inspection of roads and hence greater damage 6. Lack of incentive to use public transport 7. Poor last mile connectivity 8. Major surge in taxi operators and hence 4 wheelers 9. Non existence of limiting vehicle ownership policy 10. Upsurge in 2 wheeler traffic 11. Lack of incentive to walk 12. Existence of corridors of converging traffic and narrowing roads 13. Traffic police is busy fining people than controlling traffic  Here are possible solutions to the above points:  1. Public Accountability of the contractor and the office responsible to ensure road quality - timely inspection and repair, minimum time guarantee being imposed,  usage of apps with location to be able to tag the location of problem and response mechanism along with auto escalation matrix   2. Build and Incentivise public transport use to major hubs of traffic movement - this includes safe and regular last mile connectivity options, incentivising walking via well kept footpaths, overhead bridges, cycle routes. Without last mile, people will still use private transport or autos and taxis   3. Phase out 3 wheelers and introduce 4 wheeler autos - the driving behaviour can be curtailed this way  4. Dedicated bus lanes and non private transport areas within the city - de congest rings to increase public transport utilisation  5. Phase out privately owned 2 wheelers. Only logistics organisations can own them. Provided subsidised public transport usage to this part of public.   6. Private organisations to be forced to implement no 2 wheeler policy.   7. Employ strict policing mechanisms to ensure smooth traffic flow. Move to digitally secure payments to disband bribes, AI And visual tech for infringement identification, safety driving mechanisms such as high pricing of insurance for drivers based on driving style  8. Identification of traffic flow to specific locations such as tech parks and regulate time of travel. E.g Manyata tech park can operate only after 11 am, while ITPL can operate starting 7 am. These can split peak traffic load  9. Relocation of tech parks to separate small townships that encompass a complete habitat. Will cause responsible development of the area. SEZs need to be identified to incentivise movement, affordable development to be undertaken \n', 'score': 0.6792628555067848}</t>
+  </si>
+  <si>
+    <t>{'response': '290- Public transport should be strengthened and incentivise people who are using public transport by means of tax waiver etc. Interconnectivity with different modes of transport must be made efficient. Footpaths and sky walks should be made GU i\n', 'score': 0.5944816714136313}</t>
+  </si>
+  <si>
+    <t>{'response': '291- Each shopping area should have multi level car parking. Also all metro stations should have parking for 200-500 cars\n', 'score': 0.6380488546081844}</t>
+  </si>
+  <si>
+    <t>{'response': '4- There should be analyzing committee to upgrade this plan based on changing needs which i dont see it here. It is needed because by the time this plan is approved there will be Some development and plan might need update.Plan with dates has to be put up. There should be a clear plan of when this plan will be approved, when each work will start and when each will close. \n', 'score': 0.27780967647412685}</t>
+  </si>
+  <si>
+    <t>{'response': '22- Maximum road are in Bangalore 80 to 100 Feets only. In respect of population increased in Bangalore development is zero.\n', 'score': 0.478397515079834}</t>
+  </si>
+  <si>
+    <t>{'response': '29- (1) Like most cities in the world and now New Delhi, the metro and Bus must use pre-loaded smart cards for seamless travel. (2) Also Metro terminals must have seamless integration with Railway stations for ease of movement. Byiappanahlli must become a new Bengaluru east terminal and the (3) Bus terminal built next to it must be become operational for outstations buses. (4) Buses must not stop at the base of flyovers or bridges causing inconvenience to commuters and potential accidents.\n', 'score': 0.5433449080342629}</t>
+  </si>
+  <si>
+    <t>{'response': '114- Connect metro rail to every corner\n', 'score': 0.5802770021147861}</t>
+  </si>
+  <si>
+    <t>{'response': '122- We need metro trains all over the city. Also, it should be a little cheaper.\n', 'score': 0.5354320846895692}</t>
+  </si>
+  <si>
+    <t>{'response': '124- metro work is done very slowly.    due to metro constructions there is always huge traffic in the city\n', 'score': 0.5818135919086519}</t>
+  </si>
+  <si>
+    <t>{'response': '134- Construction is needed. More work on flyovers and metro should be done to reduce the traffic\n', 'score': 0.5497440856746879}</t>
+  </si>
+  <si>
+    <t>{'response': '157- Check on feeder busses and metro too\n', 'score': 0.49625344493311485}</t>
+  </si>
+  <si>
+    <t>{'response': '191- Involve BMRTC Namma metro and have their future plan, also NHAI for considering new highways..\n', 'score': 0.5321865220180437}</t>
+  </si>
+  <si>
+    <t>{'response': '230- The metro coverage and pace of completion is real concern\n', 'score': 0.5358603043918024}</t>
+  </si>
+  <si>
+    <t>{'response': '24- There needs to be more focus on existing infrastructiure\n', 'score': 0.41612597475975444}</t>
+  </si>
+  <si>
+    <t>{'response': '47- There are lot of inner roads like Haralur road developed a lot. Those roads are should be expanded and a frequent public transportation also should start\n', 'score': 0.6015327542327792}</t>
+  </si>
+  <si>
+    <t>{'response': '53- Information above is far from reality, just we have to imagine, mainly many roads have to be potholes free, signals should be free from waiting for hours, many flyovers and underpass have to be constructed.\n', 'score': 0.5223696951600418}</t>
+  </si>
+  <si>
+    <t>{'response': "101- Old Road's development project are taken without planning for the existing traffic which is causing more problems, we'll pre-planned projects should be taken\n", 'score': 0.49593613592487956}</t>
+  </si>
+  <si>
+    <t>{'response': '105- I do not agree with the proposal to widen roads with out stating how rehabilitation is budgeted and managed for people who will be negatively impacted. Land Acquisitions must follow the Namma Metro model or the Delhi Metro model to ensure that people voluntarily and happily give away the properties for the larger interest of the city. But not by imposing paltry compensation or notional compensation\n', 'score': 0.49116311092814363}</t>
+  </si>
+  <si>
+    <t>{'response': '115- Very poor planning in case of construction as well as quality of roads. Hopefully whitetopping will do what you promise. But poor planning the roads are horrible and the bottleneck in kalyan Nagar area is very very bad.\n', 'score': 0.4578236900212243}</t>
+  </si>
+  <si>
+    <t>{'response': '136- Widen the existing roads. Build more flyovers and under passes.syncronice the traffic signals. Aspalting and maintain periodically.\n', 'score': 0.5587175971164535}</t>
+  </si>
+  <si>
+    <t>{'response': '137- Instead of flyover and bridges we need more of underpass and wide roads with tree plantation\n', 'score': 0.5444294743855044}</t>
+  </si>
+  <si>
+    <t>{'response': '153- Widen roads in CBD (like cottonpet &amp; Avenue road)\n', 'score': 0.537643951102478}</t>
+  </si>
+  <si>
+    <t>{'response': '161- Peripheral ring road has been in the pipeline for ever.. metro construction has been at snails pace.. plan for 30 years ahead... \n', 'score': 0.6260845576799023}</t>
+  </si>
+  <si>
+    <t>{'response': '162- I am  suggesting decongest many roads like hebbal and many roads to decongest many roads from city to airport to city and vic a versa\n', 'score': 0.500607097709051}</t>
+  </si>
+  <si>
+    <t>{'response': '172- Better roads and faster completion of ongoing project \n', 'score': 0.5395438545648651}</t>
+  </si>
+  <si>
+    <t>{'response': '177- Expanding roads and building ring road is fine but the problem is maintainance of the roads. After the roads are built people dig/cut the roads which creates delays and traffic in addition to degrading the aesthetic view of the city. There should be some rules for digging/cutting the roads. Heavy fines should be imposed on the violators.\n', 'score': 0.5758730349482449}</t>
+  </si>
+  <si>
+    <t>{'response': '189- not clear on how the existing ring roads will be expanded with constructions on both sides!\n', 'score': 0.8907360857389843}</t>
+  </si>
+  <si>
+    <t>{'response': '255- City admin and urban planners seem to forget bangalore roads have limited capacity and no matter how many more flyovers are added or existing roads are widened.. it will be able to catchup with the explosive growth in vehicular traffic. It will serve the residents better if urban planners can focus on optimal and judicious of this precious and limited resource - Roads!!!  In the absence of a strong public transport system , people rely on their private vehicle clogging the roads and resulting in wasted time, fuel, pollution and stress. This approach can continue forever without crippling bengaluru for ever.  While Metro contrsuction will take another decade to complete to cater to a significant chunk of the road traffic.. in the interim there is a need to implement  Introduction of BusLanes : For faster movement of BMTC buses on major roads  like ORR ,so that residents can make the shift to public transport. Congestion charges : On single occupant cars during peak house Last mile connectivity :  BMTC or other players should provide last mile connectivity for people to shed their cars in favour of public transport. Parking : Adequate parking spaces at Metro stations for Cars/Bikes\n', 'score': 0.5687882630235795}</t>
+  </si>
+  <si>
+    <t>{'response': '268- can be improvised with expansion of roads and if well planned\n', 'score': 0.6229558219487367}</t>
+  </si>
+  <si>
+    <t>{'response': '272- Currently the existing roads are not enough to hold the vehicle. When extending the roads, pls plan for next 50 years and expand, the same think to be done while developing the new layout/place\n', 'score': 0.5333032538553247}</t>
+  </si>
+  <si>
+    <t>{'response': '1- Parking of vehicles on small roads 25 feet should be made on one/single side only to allow free movement of vehicles \n', 'score': 0.6338482713869374}</t>
+  </si>
+  <si>
+    <t>{'response': '9- While no of buses will be increased there does not seem to be mention of any priority lanes which promote smoother movement of public vehicles as compared to private cars. Multi-modal concept is missing, which will promote people to easily switch between modes of transport including last mile connectivity using auto/2W.\n', 'score': 0.5953428161567375}</t>
+  </si>
+  <si>
+    <t>{'response': '12- Please have wider roads and dont allow vehicles to be parked on main/service roads.\n', 'score': 0.6271814498181923}</t>
+  </si>
+  <si>
+    <t>{'response': '42- Rather than stopping vehicle in the middle of the road and taking key from the vehicle Traffic police should me more friendly to all.But in the same they should be strict and should impose huge fines to one and all who violates traffic rules. Allow BMTC and department  approved vehicles during peak time which will reduce traffic upto an extent Put more buses on track where it feels more commuters traveling.\n', 'score': 0.6784011023889411}</t>
+  </si>
+  <si>
+    <t>{'response': '46- Need a quick effort from the authorities. I recommend taking a drastic action to reduce the number of vehicles in the city (including the peripheral roads) by the following recommendations: 1) impose a restriction / heavy permit charge for vehicles entering the city area 2) introduce more buses and streamline the flow - make the buses also bound by laws, dedicated bus lanes, no overtaking, speeding etc. 3) restrict movement of large vehicles, but prioritize those needed to move the infra development effort faster\n', 'score': 0.66315490660757}</t>
+  </si>
+  <si>
+    <t>{'response': '58- We have necessary traffic rules but the public does not have the discipline to follow the rules. Driving license is given to people who have no understanding of traffic rules. and road signs. Parked vehicles take away half of some of our narrow roads. It is extremely frustrating to commute every day to work and back with many hours stuck in traffic  in highly polluted roads. Can we encourage our young people to use bicycles but also provide safe road to ride. I find it extremely difficult to cross a road. The vehicles are not aware of the Zebra lines. Pedestrians do get injured by vehicles.   A patient in an Ambulance has to be considered as the V V V V I P - all vehicles no matter who is in it should give way to the Ambulance.  \n', 'score': 0.6248749606470756}</t>
+  </si>
+  <si>
+    <t>{'response': '66- Safety of pedestrians should be given utmost importance, which is not the case today in Bangalore. All roads in the city must have continuous footpaths. No road in the city shall be built without footpaths (in places where there is a need for walking). Footpath should be included as a primary part of road construction. It should be like, road = road for vehicles + footpath. Please see the examples from developed countries. If you take up Germany as an example, a person can walk safely and without getting mud on the shoes almost anywhere in German cities. City development should be from a pedestrian first approach. Only then will people try to use public transport more. There should be safe road crossing facilities in all roads at locations where people need it.  Also please do not try to force impractical traffic rules. Traffic rules should be for the benefit of all, not for fining people more.  Thank you!\n', 'score': 0.6139049395486628}</t>
+  </si>
+  <si>
+    <t>{'response': "79- Well as you have mentioned regarding building hubs for heavy vehicles outside the city is a good plan.I would like to mention about the problems caused to the ambulances as well.Well its hard to construct a separate lane for ambulance, especially within the city.So how about painting one side of the road with one color which should be cleared by the people for an ambulance when it comes with a loud siren.which avoids confusion among people i.e, which side of the road to is to be left for the ambulance.Well i ain't know that how cool is this suggestion but at least a cop present there(at the signal) should clear the road in well advance for the ambulance in well advance and report to the next signal. Vip and politicians do get such road clearance right? Not much difference between them and an ambulance both are in hurry and also worried about their life.\n", 'score': 0.6412781955798266}</t>
+  </si>
+  <si>
+    <t>{'response': "84- Well it's a nice plan but it's not going to stop the traffic because people never stop buying vehicles it's better government restrict more vehicles,buy increasing the road tax(well every one has a car even if there annual income is below 6lakhs).I think government has to restrict buying of cars below certain income so that it may reduce the traffic and environment pollution\n", 'score': 0.6417937618226144}</t>
+  </si>
+  <si>
+    <t>{'response': "99- Bangalorean's perception of city traffic and use of road is like a villager's. It has not gone in to minds of people that this is a megacity and citizens have to behave responsibly. Traffic is a zoo in the city. Master Plan says increasing road density and number of buses. Previous master plans also did this. Did that help? We have ring roads smaller in width than side lanes. Ring roads on commercial complexes on either side. Mega marriage halls on ring roads with no parking basements. Basements in sanctioned plans but either no basement or that is used as shops with help of corrupt officials. BDA makes plan but BBMP sanctions plans for individual complexes, houses etc. My suggestion is start a massive campaign for educating public that this is a mega city and it is doomed if they drive and use private vehicles as they do now. Make parking expensive and put up banners for avoiding loud honks, driving without silencers, over speeding etc. On all main roads, close the medians so that erratic turning is avoided and make exit points atleast one km from each other. Make it compulsory for even high end schools to ferry children through school vans and prohibit their rich parents to ferry them in their Mercs, BMWs. \n", 'score': 0.6584259470718193}</t>
+  </si>
+  <si>
+    <t>{'response': '119- You need to regulate the effective way of monitoring the traffic violates, have a heavy spot fine , have a massive check on sound pollution and emission check on all vehicles with a huge team including volunteer\n', 'score': 0.6298954508242195}</t>
+  </si>
+  <si>
+    <t>{'response': "126- I have one suggestion to avoid tragic at peak times  As you know long back Delhi gov tried to implement even odd rule which is not that successful, however in Bangalore it will not work and yet we want to overcome the issue Here is my suggestion   We can try to implement 1car min 2persons at peak time, if any men coming in traffic alone in car then fine has to give and for women's you can just give warnings. from this we are trying to risk there freedom however if we try this only on trafficky areas like silk board etc   It will impact a lot and many empty cars will not come n struck in traffic, if they want to go office or home or some entertainment places they can go with there friends n family in 1 car.. And for worst case government can create one app so can the car owners can share there route in map if any riders are present they will get to ride in it for that if necessary involve money or some good credits like you did something to Bangalore u earn this something like that  One more advantage is we will get to save the petrol also \n", 'score': 0.5661190278614073}</t>
+  </si>
+  <si>
+    <t>{'response': '127- Please make the development of roads a high priority, because it affects the economy badly and for the culture of the city. Broader roads to be built which would be future ready to randomly accommodate the increasing migration to this city.. Being a silicon valley of India... It should portray the development like any other world class foreign cities... And also metro connectivity to airport is to be planned like in kuala Lumpur where u can check in your luggage from your metro station and the luggage would directly reach the flight... These types of things would make life more easy\n', 'score': 0.53837684639509}</t>
+  </si>
+  <si>
+    <t>{'response': '132- Different bus terminals and truck terminals are ok. but the reason for traffic here in Bengaluru is the travellers are not following the traffic the traffic rules. Due to some extend the cops are not doing there proper work. Fine should be imposed heavily to make traffic rules compulsory. Make all these vehicles to follow the path &amp; use proper indicators , Use more patrol to make the public must follow traffic rules. Make a toll free number where a person can call and update on the issue over traffic and alone and the department has to reach the place within 5min of time.\n', 'score': 0.6340116961311604}</t>
+  </si>
+  <si>
+    <t>{'response': '139- Please ban honking in Bangalore and make Lane disciple mandatory. Also heavy penalties like 2 warnings and 3rd time wrong doer license cancelled for life and no alternative. Life ban on driving for people involved in accidents even a minor one. \n', 'score': 0.49501417735932846}</t>
+  </si>
+  <si>
+    <t>{'response': '148- I installed app and sent pics of wrong parking vehicles. Still i can find a different vehicles daily(since 1 year) at the same place. I think this move is waste of time for Citizens.\n', 'score': 0.5344685920793144}</t>
+  </si>
+  <si>
+    <t>{'response': '166- Before any organization touches any road for digging/repair, they need to have Traffic police plan and clearance. Currently Traffic is mess as White topping, BWSSB work, GAIL pipeline all are going together. Who makes plan like this with all together. Traffic police have their hands full. Yesterday all road going out of Babusapalya were blocked due to that. Who takes ownership of traffic???\n', 'score': 0.4914464165143852}</t>
+  </si>
+  <si>
+    <t>{'response': '195- We know that till today no Government has fast paced anything. This looks good after next 10 years or 15 years. Not immediate solution. The need of the hour is to stop particular vehicles causing congestion in heart of the city.  For example in Mumbai, Autos are not allowed in all areas. The areas where high class people reside does not require Auto to ply. You can restrict same in Bangalore.  Next big thing is Yellow Cabs. Permissions are given to any body who can start service. Latest to include is TGYR cabs other than Ola and Uber.  Traffic checking is very poor. People without license, pollution certificate are allowed to ply causing Air Pollution and rash/hapazard driving.  Please look into stream lining current problems rather than showing Master Plan.\n', 'score': 0.5997664679694119}</t>
+  </si>
+  <si>
+    <t>{'response': "202- It's not about increasing number of buses or roads , it's all about people's mindset and attitude. For example BMTC authorities should be more disciplined in sticking to schedules , routes , returning change , commuters must not use private vehicles if it is a single person. In such cases heavy toll must be charged..\n", 'score': 0.6475594288805528}</t>
+  </si>
+  <si>
+    <t>{'response': '215- This sounds like a good plan, please  implement \n', 'score': 0.323924880285993}</t>
+  </si>
+  <si>
+    <t>{'response': '222- Requesting all concerned authorities to please plan ample space for parking vehicles &amp; separate way for ambulance.\n', 'score': 0.5632859031986066}</t>
+  </si>
+  <si>
+    <t>{'response': "227- Although we have quite a lot money earning AC buses, Government vehicles are the ones that causes heavy traffic. You can check this during bandh or on the day of RTC dharna They don't stop the buses with discipline. These has to be streamlined.\n", 'score': 0.5423329072178256}</t>
+  </si>
+  <si>
+    <t>{'response': "241- All roads have a right turn and crossing the incoming traffic should have a central bifurcation of road, so that the vehicles wait in the bifurcation for right turn and don't obstruct the straight traffic.\n", 'score': 0.6018460336031011}</t>
+  </si>
+  <si>
+    <t>{'response': '254- What about the old vehicles?  Government vehicles are old and polluting.  The new BMTC buses are very bad and cannot be used by public.  With th new infrastructure planned above, there needs to be a regulation on the old vehicles.  Create more cycling paths - dont see this as a reality \n', 'score': 0.5768904485863703}</t>
+  </si>
+  <si>
+    <t>{'response': '259- The city should have pedestrian friendly roads. Some parts of the city should be devoid of any vehicular traffic.\n', 'score': 0.49688275327131803}</t>
+  </si>
+  <si>
+    <t>{'response': '276- Everything Should not be only on Papers and Proposals. It should come in action quick. Seeing the rate of new vehicles getting registered in Namma Bengaluru. It will definitely be a nightmare to drive in the city by 2020. if nothing gets implemented, it will not be fit for living for sure. Also New technology should be implemented in development rather than using the same old techniques and skills. Work Contracts awarding should be centralized to one company instead of splitting it to many contractors, so that he can be questioned for any quality issues.\n', 'score': 0.529733004404873}</t>
+  </si>
+  <si>
+    <t>{'response': '277- One major reason for traffic jam in BLR lack of alternative road. There is often only one road for one particular area. No alternate road is oresent or if its there its too far. In other cities e.g.Pune there are multiple entry and exit points going into any area, spreading traffic evenly. With only single main entry/exit point all traffic is forced to pass through one choking point. For example, Panathur villege area has only one proper entry/exit from ORR. No small roads connecting inner gallis/roads. Everyone who wants to to in Panathur is forced through a small main road. In any other city there would have been multiple entry and exit roads planned for this area. Sadly BLR city planning didnot consider this while approving layouts. This neds to change.\n', 'score': 0.5535040552612361}</t>
+  </si>
+  <si>
+    <t>{'response': '5- PEDESTRIAN MOBILITY must be designed and implemented in all traffic infrastructure. Policing a must at ward/BBMP level. Traffic rules enforcement is not to place cops for fine collection but save lives. Scientifically designed footpaths, pedestrian crossings, pedestrian traffic signals, zebra crossing, skywalks, long-skywalks from public transport transit points a MUST. Please collaborate with Israel/Japan/ Germany/ Singapore for design and have a profit-sharing model using public pedestrian works towards generating revenue for the city. \n', 'score': 0.5778899194368814}</t>
+  </si>
+  <si>
+    <t>{'response': '8- All the above are the big plans which we all know will not kick off. If you really want to do any change seriously, we can give you better solutions. All you need is to implement the present rules strictly. BTP even though doing a great job, there is a long way to go which is not being taken seriously. Ask me for solutions and i can give easy ways to ease the traffic problems. At the first place we need to ease the traffic problems and then think of eradicating it. Some sample suggesstions:  1) Uturn Management: where ever there is a uturn , the traffic is held up by rouge cab drivers occcupying all the lanes to take the u turn. All we need to do is setup a barricade  not to let them take that u turn unless they are in the right lane for it.  2) Bus bays: We need to create bus bays whereever they are not there. Using bus bays avoids the blockages by the BMTC buses near the bus stops. 3) Usage of Bus Bays: We are glad that we have bus bays in some areas. Unfortunately  none of the BMTC drivers use them. They fell that it is their right to block the road. Hosnetly if you set right the BMTC drivers by teaching them some road manners, 20% of Bangalore traffic issues will be resolved. Especially the Volvo drivers, just because they have a high end bus, they feel like they own the road. 4) Foot paths: Foot paths should be cleared of all the encroachments. Especially near the bus stops.   ETC ETC. A normal engineer working in Bangalore can give multiple suggesstions to de congest the city. Some dedication to implement them is all is needed.\n', 'score': 0.5911660303700809}</t>
+  </si>
+  <si>
+    <t>{'response': "14- Answer to the plan is :  the prevailing traffic conditions are NOT new. This pathetic condition has been there for years. if the authorities really want to do something, forget 2031. please please take steps to regulate traffic and fix the roads NOW, not next year, not in 2031, not in 2050. NOW.  by 2031 there will be no companies or jobs left in bangalore due to the pathetic infrastructure we have. People would prefer migrating to a different state where they can provide better infrastructure. Driving 2 hours to cover 7 kms is the state of roads and traffic we are in now and we are planning for 2031 ????  when the authorities couldn't solve issues all these years, what will they do in 2031? so, all this master plan seems so fake... and there is no substance in this. sorry. \n", 'score': 0.5750373251371003}</t>
+  </si>
+  <si>
+    <t>{'response': '16- The earliar CDP has not been implemeted with respect to Road widening, and you change in the new CDP you have made broder just to harass without sintific approach and practically seeing the situation of the roads proposed width and where it statrs and ends.\n', 'score': 0.5393483822521206}</t>
+  </si>
+  <si>
+    <t>{'response': '23- Join the remaining part of nice road to reduce the the traffic flow in City.\n', 'score': 0.5173158193381048}</t>
+  </si>
+  <si>
+    <t>{'response': '25- Any new residential or commercial development needs to have traffic assessment done and approved. Approvals should consider infrastructure to accommodate new traffic generated by development and if infrastructure can handle it. Capability of the development to accommodate parking within itself should also be given prime importance.\n', 'score': 0.5289388653777993}</t>
+  </si>
+  <si>
+    <t>{'response': '31- I am concerned about all the new construction and whether it will cause more traffic than is already there. BBMP has to find a way to do that somehow. \n', 'score': 0.5904392329764732}</t>
+  </si>
+  <si>
+    <t>{'response': '34- A well implementation of discipline will help a better commuting.  1. Strict enforcement of traffic laws. 2. Parking/ No Parking Zones defined should be strictly controlled. 3. Enforce people to follow lanes strictly 4. Make roadside parking only with payment to BDA/ BBMP 5. Promote paid parking in areas where sufficient parking spaces are not available. Provide expert agencies to handle paid parking. 6. Traffic violators should be tracked - both vehicle number and licence number. 7. Recommend to increase the insurance premium in the subsequent premium payment for violators.  Implementation of these international rules will improve the journey speed.\n', 'score': 0.5420616746402703}</t>
+  </si>
+  <si>
+    <t>{'response': '36- Land acquisition policy should be given 45 days deadline with immediate release of money to private owners or else inflation and appreciation value will be concern. And all contractors should come under transparent rating system and new contracts it should be awarded only if ranking improves.\n', 'score': 0.38137872143256696}</t>
+  </si>
+  <si>
+    <t>{'response': '39- The last mile from metro needs to be addressed with different methods. One of them could be to provide huge 2 wheeler parking space at metro stations. We are predominantly a 2 wheeler majority country. If this characteristic of the population is used effectively, this can be a high impact solution to the traffic issue. People will start using metro by default, bringing down the traffic congestion.\n', 'score': 0.5494458503799439}</t>
+  </si>
+  <si>
+    <t>{'response': '40- The most common sight on the road is of the slowest moving vehicles like autos, goods vehicles, LORRIES, CONTAINER LORRIES, All driving on the right side of the road. This causes a huge disrupsency to the traffic. The right side is for the fast moving vehicles. The slow moving traffic should stay on the left. Bangalore traffic does a good job to catch those vehicles that are overspeeding but what about those who go very slowly and cause traffic block to everyone else. That is equally important. Please fine the people causing traffic jams as well. Without these steps, our city will never be congestion free. It’s a shame that the first thing that anyone relates to when they think of Bangalore is the traffic jams here. It’s very sad to hear as a bangalore citizen. Without some strict actions being taken, we will spend most of our lives sitting in traffic jams and wasting time.   I am sure there will be good agencies available to help in finding ways to reduce traffic jams in our city. That is the need of the hour currently. Please take it seriously. \n', 'score': 0.60746300598328}</t>
+  </si>
+  <si>
+    <t>{'response': '52- Traffic is the biggest challenge for all Bangaloreans. The state government should work at a war footing speed to resolve the burning  problem we Bangaloreans face every day. The government apathy and insensitive further worsen the situation. \n', 'score': 0.5855375611620711}</t>
+  </si>
+  <si>
+    <t>{'response': '60- The local BMTC count should not be increase so much. Karnataka Transport Department has proposed slab rates based on the cost of the car, this is not good. Government should not fix these rates I feel. We should try to make use the existing railway tracks to start local trains wherever possible with in Bangalore. Strict punishment or fine should be put on those who are breaking traffic rules. Government should make more Mobile apps and websites so that Public can post complaints if they see somebody breaking the traffic rules.\n', 'score': 0.6312090173675552}</t>
+  </si>
+  <si>
+    <t>{'response': '62- Spending on ring roads and signal free corridors and ramp intersections is one thing, enforcing traffic rules and making sure that it is strictly followed is another. There needs to be more focus on better planned roads and pavements - yes but equal focus must be given towards improving traffic police conditions and more traffic patrolling to ensure that rules are followed. Stricter motor vehicle license tests and proper training for public transport vehicle operators, drivers and private cabs must be put in place along with clear speed limit signs throughout the road network. Not to forget clear lane markings, proper maintenance of roads and making sure that the road works are carried out effectively is also essential and severely lacking at the moment. Parking management is again very crucial. Illegal parking on junctions with underpasses and street markets that are illegally set up on pavements and other main roads must be discouraged with pro-activeness. Also, most new areas that are developed have no proper planning of roads - most cross roads are dead-ends and have no adequate connectivity. There must be properly designed footpaths for pedestrians to encourage local commute on foot for short trips. With dead-end roads without allowance for even foot journey, the most convenient choice is obviously personal vehicles. Lack of parking facilities means vehicles are parked on roads blocking traffic movement and hence more congestion. Restricting parking without providing alternatives is a pointless thing to do. Enforcing these basic things and emphasis on pedestrian and cycle commutes are a great way to build smart cities.\n', 'score': 0.6099010229644259}</t>
+  </si>
+  <si>
+    <t>{'response': '65- Need strict implementation of obeying traffic rules, keeping the lane. Sometimes traffic signals causes jams. Every signal needs to be studied to see if it is causing jam, how many actual seconds of each lane traffic and pedestrian crossing is required. This can avoid unnecessary jams at the signals.\n', 'score': 0.6234107590775689}</t>
+  </si>
+  <si>
+    <t>{'response': '70- Penalty for traffic offences should be increased at least 3-fold from present rates  to let the public know that they need to maintain traffic discipline.\n', 'score': 0.4571592825632094}</t>
+  </si>
+  <si>
+    <t>{'response': '72- Majority of the traffic issues are due to poor driving skills and not following traffic discipline \n', 'score': 0.5735675326523034}</t>
+  </si>
+  <si>
+    <t>{'response': '74- how is the current traffic situation being handled while new development happens? I already see the white topping and the metro development is triggering gaping holes and ensuring roads are clogged throughout the day.  Atleast, plan things in a way that all the development does not happen at once and you pick things up in parts. so that the impact is regionalised and people can opt for alternate routes.\n', 'score': 0.6010424104385588}</t>
+  </si>
+  <si>
+    <t>{'response': '82- Adoption of smart traffic road\n', 'score': 0.5139820436212446}</t>
+  </si>
+  <si>
+    <t>{'response': '87- Traffic problems make our lifes in HELL.Mainly this is due to the absense\\not assigned traffic polices in some areas .Traiffic polices present in main roads and can see them only in first and last week of every months(might be showing or meeting their targets)\n', 'score': 0.6214595683804524}</t>
+  </si>
+  <si>
+    <t>{'response': "88- Despite what is the popular trend, the bulk of India's traffic is on two wheelers. Our climate allows it and it is also a good compromise on affordability and flexibility. What is critically important is to make the roads safer for two wheelers. Few suggestions: 1. Create two-wheelers only lanes on main roads. Do not allow cars or other heavy vehicles in those areas 2. No two wheelers allowed in other lanes. It is for their safety as well 3. Additional safety measures to prevent serious injuries from accidents - shatter proof strong plastic shield in front, storage baskets for luggage, bike lane limited to vehicles 200 CC or lesser\n", 'score': 0.49536370316009104}</t>
+  </si>
+  <si>
+    <t>{'response': '89- Good traffic management\n', 'score': 0.45316116161736264}</t>
+  </si>
+  <si>
+    <t>{'response': '90- You have ignored the prominent issues, There should be flyover from Hope farm till varthur kodi , also from Varthur kodi to cross Varthur. Its already saturated and government is planning to widen the road of varthur to varthur kodi. It will not solve the purpose. I think 1 flyover can solve this problem at varthur kodi junction.  Flyover from Hope farm till varthur kodi if you are thinking of future else it will be mess as you might build just bridge or underpass at hope farm, it will solve the short term problem not the long term. Density of popluation in whitefield working in IT/ITES/ manufacturing is quite high. You need to think ahead of 10 years.  I felt bad when i see the current situation where even 1 underpass at kundlahalli takes years . How will you achieve the infra problem.  There should be peripheral metro also to connect the city which will solve 2 problems traffic, pollution . Like - Whitefield to Electronic city, Electronic city to Nagwara, and hebal to whitefield. That is the only way to control the traffic mess.  You also need to implement other feeder systems like Rapid transport . I am sure people are ready to pay as we know the everyday struggle to reach to office.  Few proposals you should pay attention rather than discarding :)  1. Peripheral metro to connect the city as city expand , it will be more mess. That one should not ignore. ( This is the best solution to solve long term problem not the roads) 2. Build Nice road - Electronic city to Whitefield and whitefield to Hebal.  3. Flyover from hope farm to varthur kodi to Varthur  , It getting messier 4.Rapid transport - Pod taxis - ( it can be implemented at congested places)- Proposed but need some action on ground.  5. More training to traffic cops as i find them uneducated about the congestion of traffic.  6. Kundlahalli junction underpass pending from last 5 years ( if we cant build 1 flyover ,how we will improve the infra )  7. Underpass or overbridge at yamlur signal. Its not managable by traffic cops now. I am sure no one paid the attention also.  8. Tin factory - k.r. puram till 100 feet road indranagar, ( need to have less signals )   9.Also underpass at HAL signal ,ISRO signal and Leela palace . It is proposed but need to be implemented quickly otherwise it will loose its importance.    I stay in this part of city east part of city and travel to Indranagar from Whitefield.  These are few suggestions which you can look upon. \n', 'score': 0.5586307223538435}</t>
+  </si>
+  <si>
+    <t>{'response': "92- With the plan on paper, it's a good plan. The the problem arises in the implementation of the plan. The progress speed and the quality of work provided. We should aim that whatever is being constructed now, may it be roads or anything should easily last for next 20 years. That should be the aim, try to do all the work in the night time, so it's less traffic in the day time.\n", 'score': 0.6096880224473806}</t>
+  </si>
+  <si>
+    <t>{'response': '98- Heavy traffic\n', 'score': 0.49904660176612675}</t>
+  </si>
+  <si>
+    <t>{'response': '108- Please bring some strict actions and rules so that in one home only one car and one 2 wheeler to be used which in turn reduces the traffic as there would be no one using a car for a single occupancy.\n', 'score': 0.5488358640964583}</t>
+  </si>
+  <si>
+    <t>{'response': '113- There seems to be no article about signal free junctions for current peak traffic areas\n', 'score': 0.5749782780990634}</t>
+  </si>
+  <si>
+    <t>{'response': "117- The planned activities for 2031 should have been available by now. These won't be enough to suffice the future traffic issues.  - More connectivity with monorail to the metro stations from internal areas. - Signal free junctions within the city. Better connectivity to the IT corridors  are required . - Parking issues - smart system for parking and more parking stations at various locations across the city required - Initiative to move to e-bikes electric vehicles, smart sharing of automobile, better public transport.  - Innovative and futuristic technologies like Bullet trains, hyperloop to connect to satellite towns and citues to Bengaluru\n", 'score': 0.42129905212932345}</t>
+  </si>
+  <si>
+    <t>{'response': '130- More than anything else main 2 things are to b kept in mind and implemented.  1. Foot over bridges to b made with a different design and with less number of steps on all the major traffic prone roads - but shd see that invariably lift or escalator is installed failing which the purpose of making the bridge will b defeated.  2. Almost all the main junctions where 3 or 4 roads meet traffic signals are to b installed with proper syscronization and with sensors to automatically change the lights if traffic is less at any point of time . In addition to this there shd b pedestrian crossing signals which again will b syscronized with the main traffic signals. Lastly if at all they r planning to reduce the congestion , like in other countries flyovers are to b built in above the other to lead the traffic to different destinations \n', 'score': 0.5336324717038251}</t>
+  </si>
+  <si>
+    <t>{'response': '133- Always getting stuck in traffic\n', 'score': 0.4550378895783971}</t>
+  </si>
+  <si>
+    <t>{'response': '145- To avoid traffic Road should be widend also reducing unnecessary humps nd making sufficient parking \n', 'score': 0.5777705776300159}</t>
+  </si>
+  <si>
+    <t>{'response': '149- The traffic authorities should also be involved actively to introduce penalties offences that are not currently in place. The authorities must also put an effort in booking the offenders. Lot of traffic jams happen because of lane disciplines not being followed, signals being jumped and people flouting many such traffic rules. Greater effort should be put in identifying such offences and the penalty amounts for such offences must be made very steep. The licenses of repeat offenders must be suspended. \n', 'score': 0.5742695802811415}</t>
+  </si>
+  <si>
+    <t>{'response': "150- The focus should be on traffic flow rather than road widening which is a never ending cycle. If people drive in wrong direction and don't follow lanes for turning left or right then any length of width of roads is insufficient. There should be a drive to educate people and enforcement to follow traffic rules. The speed of vehicular movement is slowed down by unauthorized parking on any spot including near the turns, pedestrians crossing every where, vehicles coming in wrong direction, vehicle turning right from the left most lane and left from the right most lane leading to chaos on turnings, very slow movement on traffic signals, un-managed auto movements in every direction. The planned infrastructure looks good on paper but it cannot be sustained without people participation and for that discipline and enforcement is the basic need that is prevalent in every developed country except in India. The master plan should also include a chapter how they plan to handle this basic issue which will increase further with additional number of vehicles on road if not tackled properly. In that case any amount of modern infrastructure will just add to chaos on the roads.  Also, when granting permission to build multistory apartments on narrow lanes of the outer areas, capacity of the roads should be measured and only appropriate number of buildings be allowed or the road capacity should be increased beforehand as it is next to impossible to demolish and residential apartment or other buildings at a later stage and residents have to suffer the never ending traffic blockages throughout the day.  There is no mention of handling this issue in the plan. You may have multiple ring roads but if the roads connecting to these and and other major roads in the city are so congested it will take hours to reach the main roads from small narrow by lanes. There is no concept of parallel roads in Bangalore and everyone has to pass through same main road example outer ring road or Whitefield road and all other roads leading to these are very narrow.\n", 'score': 0.6809112982497568}</t>
+  </si>
+  <si>
+    <t>{'response': '159- Roads need to maintain well then link roads may be help to control traffic wherever it is necessary...\n', 'score': 0.5982468213097759}</t>
+  </si>
+  <si>
+    <t>{'response': '167- 1. If people/commuter can identify and alarm the system, for the offenders, a lot of violation can be taken care. e.g, I can capture (video etc.) and upload to the authority and they penalizes the offender, basis the offense done. This way a personnel need not be deployed on junctions and breathe smoke. 2. If the bus/auto stands can be moved out of roads, probably on an elevated station, out of the roads can avoid stopping/slowing of traffic, this can also help authority to do away of the speed breakers. 3. A lot of vehicles, mostly cab drivers, drives on high beam on their headlights which causes a lot of distraction for the fellow commuters. 4. Riders/Drivers should be educated on usage of horns, many honks without any reason and causes distress for the fellow commuters.  Can explain all these points and many more in details, if these are worth a workable points \n', 'score': 0.6150862513412625}</t>
+  </si>
+  <si>
+    <t>{'response': '169- While so much is being done for us, we as a citizen should also have responsibility. What is the measure taken to stop citizens from following wrong traffic rules like going on one ways, talking on mobile while in a two wheeler, not following signals. How do we change the mindset. People only want to rush irrespective of what happens behind them. They have an attitude of I hv to move front, I am not bothered about the rest. By following basic rules, most of the problems are sorted\n', 'score': 0.5062041419058236}</t>
+  </si>
+  <si>
+    <t>{'response': '173- Accidents happen to the active breadwinner of the family, loss of such life spells a disaster for the family. 1. Strict enforcement of traffic rules and violaters should be penalized. 2. CCTV at all points and ward wise traffic control rooms, thereby minimising the physical need for traffic constables. 3. Educating all the drivers while procuring the license itself which should be made compulsory and visits to Hospital or video recording of accident victims. 4. Lane discipline should be followed. 5. Roads should be of good standards, proper warning to be displayed if there were some repairs of the roads or potholes. 6. Cases of traffic violation to be disposed off as soon as possible, long delay in judiciary is bound to embolden the offenders. 8. Roads should have prelaid pipes for cables and water or drain , or gas pipes, frequent digging to be avoided. 8. Any digging subsequent to proper laying of the road should be penalized or the charges levied for such activity should be so high that it itself will be deterrent.\n', 'score': 0.609824848326168}</t>
+  </si>
+  <si>
+    <t>{'response': '174- Horrible traffic with worst management\n', 'score': 0.4247404745911232}</t>
+  </si>
+  <si>
+    <t>{'response': '178- It is not very clear in what way they are going to widen the roads identified in the master plan. What is the strategy to curb construction of multistory complexes and the  traffic generated by them adding chaos and traffic jams (example: Manyata park and other such IT complexes). In order to reduce congestion it is very important to decentralize the activity centers like whole sale markets, vegetable markets, other such activities. There is not much information of traffic management systems.\n', 'score': 0.6187742316712355}</t>
+  </si>
+  <si>
+    <t>{'response': '181- Please put a traffic cameras to study the traffic conditions, all traffic lights timeouts should be based on real time feeds and not on time based timeouts, this only increases traffic, ensure that potholes are duly filled on time\n', 'score': 0.5634966538438073}</t>
+  </si>
+  <si>
+    <t>{'response': '184- road dividers should not be opened in between to ramp up city speed. this in mid road dividers results in traffic due to no signals and no traffic controller.\n', 'score': 0.60353560999948}</t>
+  </si>
+  <si>
+    <t>{'response': '188- One way to check traffic\n', 'score': 0.5133227148471816}</t>
+  </si>
+  <si>
+    <t>{'response': '190- Half of the traffic related problems can be solved simply by providing good, long-lasting roads, and by completing all ongoing infrastructure tasks in a time-bound fashion. \n', 'score': 0.586957925993152}</t>
+  </si>
+  <si>
+    <t>{'response': "197- The question is of quick evacuation of traffic &amp; how. Vehicular population will keep growing. So, we need multi layer uninterrupted traffic flow underground. This is an expensive solution, but is good for the next 25-50 years. Longer distance traffic will not disrupt short distance vehicles &amp; vice versa. Entries/exits can be planned every km. Availability of space is not an issue at all. All areas under existing roads can be used &amp; more. We don't have to cut down trees. In addition gardens &amp; playing areas, garbage disposal, sewage treatment etc can be planned. PLASTIC SHOULD DEFINITELY BE BANNED.\n", 'score': 0.5659553350430059}</t>
+  </si>
+  <si>
+    <t>{'response': '212- Better management of traffic\n', 'score': 0.47867599122318727}</t>
+  </si>
+  <si>
+    <t>{'response': '216- Poor management by traffic cops. They do not regulate traffic... they only stand in groups by the roadside,  chatting &amp; drinking tea. They pounce on vehicles even if no rule is broken, &amp; threaten with high fines, thereafter pressurise the drivers/owners to pay a lesser amount,  without receipts. If this style is stopped and they do their job sincerely,  traffic would improve considerably. It requires a sea change in attitude of an entire generation of cops.\n', 'score': 0.5704878848660362}</t>
+  </si>
+  <si>
+    <t>{'response': '218- I know our cops are doing the best appreciate that but every one has to reach before time. It will be great if we follow the traffic like the other countries do follow a lane and continue the same till you cross the road and maintain a speed limit \n', 'score': 0.5667985645560961}</t>
+  </si>
+  <si>
+    <t>{'response': "223- I am sure the responses for this segment would be in the thousands. Basics: 1. Remove illegal speed breakers and proper marking on Speed Breakers. Most breakers are not visible until you are almost upon them, especially at night 2.a. On major roads like the ORR, have a 3 ft hedge of shrubs on the divider. This will increase greenery, plus helps night driving as the opposite high beam does not blind drivers. Will reduce night accidents 2.b. Alternatively setup proper signals at major crossings like Kalamandir, JP Morgan, Oriental College etc., to ensure safe crossing for pedestrians. 3. Build FOB at all major pedestrian crossings and setup grills on the divider (at least 150m on each side of the FOB) in the middle to ensure pedestrians will definitely take the FOB 4. Monitor and close gaps forcibly created in dividers by 2 wheelers for a quick U turn. 5. Have small (fixed traffic cone type) dividers setup near turns so that those who need to turn will go into the correct lane and not obstruct the traffic going straight by occupying all the lanes 6. Remove the compulsory helmet rule as it is only facilitating traffic cops to make a quick buck. Taking care of their safety is the rider's responsibility and not the traffic department's. The seat belt and helmet rules are useless in the current Indian mindset. The cops should instead focus on stopping and penalizing those who break other traffic laws like jumping a red light, driving in the opposite lane, etc. as these could prove harmful to other drivers who are following traffic rules. 7. Use good quality material for tarring or white-topping roads, so that they last longer and allow traffic to flow smoothly. I feel that at least 40% of the traffic jams in Bengaluru will be avoided, if the roads are in good condition.\n", 'score': 0.626924870969508}</t>
+  </si>
+  <si>
+    <t>{'response': '226- I feel the law enforcement is very low in Bangalore overall, for example when a commercial complex is built, no measure taken by the BBMP or BDA before approving it, least bothered about the parking space is available for the multi storied buildings, the residents end up parking on the footpaths and on the roads, you can see this culture everywhere in bangalore, people build independent houses but park their cars/bikes on the roads, there is no safety measures taken for the people walking, they are forced to walk on the roads risking their safety. What about elders and kids, where they walk? where are the footpaths? even a medical shop puts their bill board on the footpath, footpaths are not meant for people to walk, I think this is a serious issue in Bangalore. I do not see this point in your master plan.\n', 'score': 0.5495586606480358}</t>
+  </si>
+  <si>
+    <t>{'response': '231- Need to plan all constructions properly as the entire city is dugged up throughout the year. The condition of roads cause more traffic and traffic police needs to be more strict with people not obeying traffic rules.\n', 'score': 0.5963807856364354}</t>
+  </si>
+  <si>
+    <t>{'response': "235- Our Traffic system is in a pathetic state. Average peak hour speed between 8:30am-11:30am is about 10-12kms/hr.  Firstly I do not blame the government alone for this problem as citizens are equally responsible for this as we do not follow even the basic traffice rules and common sense is just thrown out of the window when we are in the driving seat, but we should also recognise much of the problems need government to take first initiatives.  So what I propose is that, better traffic management and augmented common services are need of the hour.  1. Traffic violations should be severely dealt with with Impounding of vehicle for weeks or months and the safe keep cost added to fines. Community services should be made part of the fine and repeat violators should be subjected to naming and shaming.  2. Methods should be divised to improve lane driving diciplin and specific training and orientation for 2 wheeler drivers.  3. Corporates occupying large office complexes should be encouraged to devise staggered reporting times for employees to ensure less number of  vehicles at a give time. Further Corporates should also be encouraged to work towards a 30% population of employees working from Home on any give day, unless absolutely required to work from office. Having been in Corporates for 22 years I am confident that it is possible if they try, yes it will have some cost impact but I am confident it will only improve the productivity, which effectively can offset some additional cost.  4. Management and coordination of our shared commute modes like bus and metro needs to improve. Metro where available is a boon but Feeder bus and general bus commute still takes a long time. Traveling on ORR or Richmond road averages between 5-10kms/hr most of t he time during the day, this needs to improve dramatically.  5. Quality of roads are PATHETIC.  However to be positive I believe white topping should improve situation and needs to be done much faster pace, plastic based mix for interior roads should become a norm. And most of all contractors doing the road or civic works should be held accountable which is not the case leading to awful patchwork that doesn't even last a month.  \n", 'score': 0.512358657309125}</t>
+  </si>
+  <si>
+    <t>{'response': '239- Metro work is too delayed and till the time it will be completed there will be chaotic situation in the city, pollution and traffic is already at peak, how are we going to deal till then?\n', 'score': 0.5767410486018011}</t>
+  </si>
+  <si>
+    <t>{'response': '240- Building roads alone will not fix the traffic issue. There are tonnes of other problems and trouble makers on the road. Fix those issues first. People riding/driving in one ways and in the opposite direction of traffic, illegally parked vehicles, street hawkers and vendors, slow moving vehicles in the fast lane, lack of discipline... I could go on.\n', 'score': 0.665305679771067}</t>
+  </si>
+  <si>
+    <t>{'response': '247- Very bad traffic management. And not planned constructions\n', 'score': 0.5100843969178859}</t>
+  </si>
+  <si>
+    <t>{'response': '248- traffic is the one of the biggest issues. Hope they come up with some innovative yet simplistic solutions\n', 'score': 0.4772064410581607}</t>
+  </si>
+  <si>
+    <t>{'response': '264- Below factors aggravate traffic problem in the city - a)Traffic violations by auto, cabs in a menace 2) Lack of substantial CCTV surveillance 3) No prior information about road blocks or redirection to public. 4)Lack of proper planning when it comes to road works\n', 'score': 0.6043476656277288}</t>
+  </si>
+  <si>
+    <t>{'response': '266- Provide traffic less track for bicycles, and educate traffic police. \n', 'score': 0.4711673639279133}</t>
+  </si>
+  <si>
+    <t>{'response': '267- Request to sync the traffic signal across main corridor of city.., it will help commuters to move without stopping frequently at every junction, considering syncing speed of 30kmph .\n', 'score': 0.6292193508643749}</t>
+  </si>
+  <si>
+    <t>{'response': '270- The time scales for addressing the traffic and congestion problem is not there. Inadequate parking facility and ways to address that is missing. Park and ride facility should be a norm and reducing traffic in central business district might be considered. Heavy vehicles entrance to city should be controlled. Bottlenecks in traffic flow like KR Puram bridge, Indira Nagar, and many such areas are immediate concerns and needs quick response.\n', 'score': 0.6542722025563206}</t>
+  </si>
+  <si>
+    <t>{'response': "274- Recycle Products can be used in transportation. and to avoid the traffic issue's we have to update our-self,  and we have to follow the roles and regulations too! so the management and user contribution is most important.\n", 'score': 0.44971863975576837}</t>
+  </si>
+  <si>
+    <t>{'response': '278- The govt. should be strengthen the traffic rules and make the people abide them. And at the same time it is our responsibility to follow the rules for our own benefit.\n', 'score': 0.5183429965376184}</t>
+  </si>
+  <si>
+    <t>{'response': '279- Heavy use of technology for traffic management. Sensor based signalling system, clear road markings, removal of road hazards for e.g. unscientific speed bumps, unplanned dividers, barricades, creation of multi-level parking, foot-over bridge at regular interval, proper feeder network to metro and emphasis on last mile connectivity.\n', 'score': 0.6342999743549568}</t>
+  </si>
+  <si>
+    <t>{'response': '280- Good thought, however I think we can increase metro connections to the old city areas which will reduce the general traffic drastically.\n', 'score': 0.5811385817024268}</t>
+  </si>
+  <si>
+    <t>{'response': '283- Progress of planning and implementation is very slow\n', 'score': 0.49981221089008465}</t>
+  </si>
+  <si>
+    <t>{'response': '284- Pretty decent plan this. However, the most important thing is to take care of the quality of build. Any construction should withstand for at least 10 years. This also means that the plan should include the increase in traffic towards the end of 10 years before the maintenance phase takes its turn.\n', 'score': 0.5395633944422824}</t>
+  </si>
+  <si>
+    <t>{'response': '289- Start with enforcement of traffic laws... make roads walkable by enforcing crossing and observance of foot paths, levy heavy fines for blocking the intersection due to red lights. prohibit unnecessary honking and traffic in residential areas. Keep separate lanes for motorcycles, scooters and rickshaws\n', 'score': 0.626057014225185}</t>
+  </si>
+  <si>
+    <t>{'response': '30- Make railway Line along outermosy ring road. This is very cost effective\n', 'score': 0.5250395356080888}</t>
+  </si>
+  <si>
+    <t>{'response': '51- The existing flyover construction is very unscientific and requires a proper planning. We leave space in the centre and on the side both being under utilised. Without either being used properly. Both are clogging the traffic. We still continue building such flyovers all over the ring roads.\n', 'score': 0.5624202225026396}</t>
+  </si>
+  <si>
+    <t>{'response': "143- First increase the width of the inner roads. Do not care for votes. This is very much required. Acquire the land and increase the road size to 40 ft. Also do not give permission to people build houses next to each other. As a mandate, everyone has to leave 3 ft all around their plot. It looks ugly there. pls acquire don't hear the public. You guys stop taking bribes and concentrate and pay the people wherever the land is acquired. Things will get in order.\n", 'score': 0.4716696638869656}</t>
+  </si>
+  <si>
+    <t>{'response': '205- Its all in theory, wherez the metro to serve the IT crowd of todays bangalore. Peripheral ring road has been on paper for last 10 years, where is the action? What is the plan on nice road-stalled.. what is the plan for congestion and pot holed roads to drive on everyday. Parking charges is only a scam by the people who take 20 to 40 rupees from every car or bike user with tax. \n', 'score': 0.5807874305786667}</t>
+  </si>
+  <si>
+    <t>{'response': '210- The infrastructure that is being built are not future focused and take a lot of time to complete \n', 'score': 0.5596929875679837}</t>
   </si>
   <si>
     <t xml:space="preserve">Buildings that generate more than 10 kgs of garbage per day will compulsorily need to set up waste management systems on their premises or work with BBMP vendors to manage their waste
@@ -3077,339 +2477,256 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1- Place big waste box near two streets and deploy collectors on daily basis. If possible make use of water in repairing roads. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2- Public Dustbins must be there in ample numbers that too in every ward which has two portions one side for wet waste and other for dry waste
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4- Need to setup a team to study to manage urban waste. Landfill is not the solution. Burning of waste is a huge problem and this needs to be addressed at citizen level
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- The amount of waste being generated every day cannot be accommodated in the proposed infrastructure. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9- Outsource garbage problem to companies who will take garbage and give money to govt. They will use this garbage for productivity. Stop spending tax payers money in garbage problem. Watch very old tv serial "satyamev jayate" report about garbage on Star Plus. Please stop fooling public
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10- I feel like when we belong in a tech age. We should use more technology for everything. I read an article in the Bangalore mirror about this app called rubble made my teenagers meant to streamline waste collection. Called RUBBLE. Contact +91-9845309776 to know more about it. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12- Start putting penalties for not segregating wastes. As an immediate step, replace the 3 wheeler that are used to carry the waste. These are highly polluting and more often they keep littering the waste on the road
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15- Provide waste bins to all houses with minimum charges for collection. Provide waste bins in every 50/ 100 meters in Bangalore. Currently people do not know where to throw garbage.  You should make sure that, the houses without registering for waste bins should have more taxes/ fines to be paid.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16- There is absolutely no control over waste collection by BBMP and waste disposal by general public.  Need to do a campaign and educate people  regarding disposal of waste and timely collection by BBMP.  Bangalore to be at par with other major cities, should have proper sewage system, open drains for rain water.  The sewage line and storm water drains currently  in place is unplanned, whenever the work carry out by contractor, there was no supervision by BWSSB or BBMP Engineers.  It is left to the labours to do the job at their will and wish.  Therefore corrective action should be taken immediately to  ensure sewage line is properly laid, and open drains are constructed on each road (main road and cross roads).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17- I think a master plan is all very well, but steps should be taken NOW.  Only then will this work by 2031.  Start with putting up trash cans by the road, and asking municipalities to make sure their workers empty them regularly.  Also close all the vats and get societies and buildings to have a compulsory trash removal system.  Fine People HEAVILY for littering or breaking the law.  And fine People for urinating in public.  It’s a health hazard and spreads diseases.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19- Th BBMP garbage auto are never on time and sometimes athy never come resulting people to dump the garbage in nearby area.There should be one common point and installation of dustbins so that it is easier for people to dump the garbage without waiting for the Garbage auto to come.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20- Every Citizen of Bangalore should be educated about segregation of waste into Dry &amp; Wet waste. People who violate the rules, who do not seggregate &amp; those who throw garbage in the public places should be fined. Waste bins should be provided by the government for those who cannot afford to buy 2 bins for Dry &amp; Wet waste. All those who work for BBMP should be given good salary &amp; provided with gloves, shoes &amp; masks for them to work safely in handling the waste. CCTV should be installed to monitor those who violate the rules. High end robot trucks should be used to sweep the roads regularly. Waste production should be reduced slowly by reducing the use of plastics bags. bottles etc.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21- Good idea that dumps going out of city.   It's not always possible to be at home and wait for garbage van to throw garbage  Need big garbage bins in residential n public localities.  Segregation is not a very good idea and practically not everyone is doing this. As a result they throw the waste on vacant plots.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22- Clear plan. But the middle men appointed to carry out the job is not done and it's not monitored properly. If this continues, the future plan will get distorted. Need officials regular visit to manage the contractor s work.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23- Implementation should be equally planned. People throw garbage in plastic bags. Heavy fine should be laid upon them. It is equivalent to committing a crime. The main reason for throwing garbage is the corporation vehicles come at one particular time only. To change this permanent closed bins have to be placed for every 10 street atleast. And this bin should be regularly emptied. And the bins have to be separate for dry and wet waste. Main thing is CCTV cameras should be present at the bin collection point. Heavy fine should be laid for those not separating the waste. Through CCTV fine should be laid upon people. Main problem of waste management start from the people creating them. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26- Burning of garbage including plastic materials is a common sight in the city. This seems to be done by residents and by BBMP workers.Please use all the advertsing areas( experts visiting schools, colleges, using bill boards, TV ads,etc)   to educate the public about the consequences . Heavy fines to be charged for violating waste disposal rules. [ 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27- No one segregates waste we need to enforce stricter laws
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28- This is near the Air force colony near Murugeshpalya.  I have been traveling to this area from 10years. In the past 1 year itself , I have observed that the garbage is piling in the size of mini trucks. Please provide good waste management systems so that the people around do not litter theoir own city. To add to this it is a residential area, I do not understand how people are okay with living in sucha environment. THe garbage piles up in the morinng like a haystack. This is very harmful. It is setting the health facctor of the people around to a very bad state. I would like the authority to curb the add on garbage and hault it as soon as possible , so that it does not become a haazard to common human  life. Regards. Raj 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29- Government should adopt some of the waste management methodologies that was telecasted on one of the episodes in Aamir Khan's Satyamev Jayate TV Program.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32- Kindly work on stopping plastic use. The rule is in place, it has to be strictly implemented. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34- Please educate people about waste segregation and educate people not tie garbage in plastic covers. Please ban plastic covers with all vendors and please provide alternative. Please ask groceries shop to stop packing groceries in plastic and educate people to Bring their own bags for groceries and vegetables. Please supply milk in booths to avoid plastic packaging. Please let us save the environment. Please educate women about sustainable menstruation products like cloth pads and menstrual cups.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39- Initially Government has to pay for all waste to each individuals, so people will practice to store waste properly and they will give to waste management system regularly. Once the culture is set government can slowly educate people regarding charity by using their waste management money
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43- Invest in smart collection of garbage 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45- Need to educate people starting from children in schools, and in turn parents by creating and making compulsory activities as well as strict rules by imposing files for littering. Strict rules will definitely make people stop littering and make the waste management easier
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48- Palike employees goes to every area &amp; collect garbage each day for this they demand money every week.one more question is why the palike employees are not wearing protection gloves &amp; mask before pitch into garbage cleaning &amp; touching this kind of ignorance might cause there life, please rework with all the corporators &amp; palike workers &amp; provide them protection accessories each day before they start there work.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49- Rather than implementing costly waste management ideas that fleece public funds the BDA must ensure that the contractors who collect garrbage also ensure that the collection modus will be seperate. The same teams working will only mess up the collection.. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51- It sounds like a plan for the waste generated today. There is no foresightedness to what may be the case in 2030
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54- Please strictly ban plastic bag. Encourage just bag because paper bag can cause tree cutting. Create waste management plant in every square km. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56- Should try to keep our city clean in our surrounding by ensuring that public dont throw wste on roads...so strict action must be taken on people who throw garbage on roads..only thn people wil realise ..so some awareness must n created for it to keep our city clean amd beautiful
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59- It makes no sense when you start the plan by giving deadline " by 2031 " does it take a decade to get all these to Bangalore, with population increasing like wildfire we need these to be implemented on fastrack and I have no belief as to the fact that this would be done. The government in power or going to be in power will never do this.To keep this on record I have lost all faith. Though we have the knowledge to improve the status quo the government shows no dedication in order to achieve it.Instead of indira canteen that bhagya this bhagya..the government is least considered to improve the quality of life of people
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61- Should segregate the waste as soon as possible. So that even the pollution decreases. And people should segregate the waste seperately
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62- More importance needs to be given to segregation at source with strict enforcement and deterrent measures such as big fines for non segregation at least of wet / dry waste. Of course this goes in par with frequent collection. If daily door to door collection is not possible, and since wet waste cannot be kept more than a day, maybe an option is to have wet waste collection points / composter in each street, maintained by the municipality. This could generate a good revenue by selling the compost as  manure and pay for the salary of the person in charge of maintenance.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63- This is for corporations plz make sure everyone of ur employees do there work properly  Start construction of dustbin tank in the locality everywhere 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65- KR market is situated near one of the oldest forts, KR market is filled with dirty garbages, kindly maintain it neatly and take necessary action On the people who spill garbage even after BBMPs board on the area 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66- what about the garbage that is dumped on roadside all over bangalore in domlur, old airport road, wind tunnel road. The plan is very theoretical. Just graphs and flow chart wont be helpful  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69- In order to sustain a long life in this city,we have to clear the waste dumped on the roadsides and make sure we'll collect the waste and reuse,recycle it! In the metropolitan city,citizens are not at all aware of the waste that they are giving out,irresponsible of their own cleanliness! So let's join hands together and make our city healthy!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71- Lorrys carrying waste should be covered and mechanised enough to gather and unload waste 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72- Lack of facility and disorganised functioning. Need to streamline the pattern of door to door pick up,  bulk collection &amp; sweepers collection.  Absolutely no coordination hence black spot are simply multiplying and littering of garbage everywhere has become unstoppable &amp; uncontrollable.  Hence garbage pick up pattern should be looked into and installation of cameras is a must to monitor and penalize the dirty makers of the locality. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74- There should be a plan for handling the STTP issue as well. Why every apartment complex should have its own STTP plant which is an additional expense for the residents and is always dangerous for the workers like recent deaths in one of the apartments. No other city in the world has this concept and waste is collected through the sewerage pipes and is processes in central plants. Citizens pay property tax, Water and Sewerage connection charges but end up arranging their own water and sewerage treatment plants. This is not what you expect from a state capital that aspires to be a leading smart city. The BDA and government should plan for laying the sewerage network and central processing plants.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75- garbage/landfills are not enough, Reverse Wending machine is a new idea which world is going to use..  bringing awareness to people about waste management and bringing more clear solutions to help residences to dispose their garbage.  cleaning existing drainage is necessary, open drainage needs to closed.  need to have more dustbins around corner of bus stands, streets.   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77- Need to recycle efficiently as we see garbage getting dumped in lakes and also level of segregation very poor. Use technology where possible and reduce this problem
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79- We need more frequent and timely garbage disposal vehicles in our area, and if its feasible we can do the same way, USA public disposes their garbage
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80- Regular waste collection and waste management system 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81- After the BBMP drive on segregating the waste before disposal, I wonder if this is really implemented as it was driven by the authority. I often notice, that the garbage carrier, mixes all together, collected from different sources (Dry and Wet waste). A thorough check should be done with them, before they dispose them. Majority of the carrier vehicles are poorly maintained, dirty and releases thick smoke.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82- Happy with the process of waste management....but again it all depends on how we as individuals contribute towards the success of this process. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85- Garbage is a bane of Bangalore, everything looks fine on paper but execution and accountability is nil. Collection and primary segregation to some extent is happening, but transportation is really bad. No place for consolidation nor secondary segregation. There is no concept of compaction . I feel designated areas in each ward to be allocated to carry out secondary segregation and compaction, reduce the burden of waste in volume. This is is the basic problem we face, the filth on the corners created by bbmp, the burning which goes unchecked leading to pollution and health hazards and also street dog menace. All hotels should be having biogas plants to reduce the load of food and wet waste. The abattoirs should have a plan to dispose the remains, all plastic paper, cups, plates should be banned a good idea to come back to earthenware pots and cups. Streets should be provided with bins at every corner which is easily operable and user friendly. I feel for the garbage handlers, they should be given a decent uniform and gloves for handling such waste. Finally the disposal is still a problem. By reducing the waste generated and proper segregation and compaction the volume can be brought down and this disposal should be done ward wise rather than taking it through the city spilling all over.  Awards for the best wards, recognition for the pourmikars , incentives, proper accountability and legislation would go a long way of getting rid of this problem 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87- 1.In every ward dry waste collection centres need to be established and they should work. 2. There shd be provision for sanitary waste to be collected separately and not mixed with wet waste. 3. Incinerators should be provided at the ward level to dispose sanitary waste.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90- Enforcing waste segregation at the origination point is very important. Unless that is enforced, rest all will be very challenging to achieve. All the Large housing societies should at least be able to recycle all organic waste inhouse and use for landscaping etc. Then the plasctic waste is supposed to be segregated in recycled or non recyclable category. A lot of waste is still not classified correctly to be segregated.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94- All plans on paper look good. Implementation is the key. Businesses that do not comply with waste segregation and waste management should be forced to shut shop.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96- Looks unrealistic not to have any land fills.. even developed countries have some land fill but their collection, segregation and most importantly, the citizens are involved with right education and awareness. Here even if citizen segregate, the collectors mix and take. So, patchy implementation and adherence in few wards doesn't solve the problem.  As photo op, politicians/leaders do launch some scheme and then no clear implementation and accountability exist down ward and this results in poor implementation. Completely privatize the collection of garbage to some good corporate.. and it will work. Otherwise, same contractors and lorry mafia will continue even at 2031. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100- Why can't we use garbage into tar road making,  as it's already done at Kamraj  road ,where garbage was melt down due to high temperature of TAR material,  pollution less and there a Is huge requirement of good roads. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102- Waste collection facility should be done 24x7.  Waste collection centers should be installed in every ward. Throwing waste on road should be strictly monitored and violators should be punished severely like disconnecting power/water etc.  The segregated waste can be bought by government for minimum price and the recycled output can be used/sold by government in various schemes. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103- Waste management in public areas should be organised. Recycle bins and wet and dry waste bins should be kept every 200 mts in roads and in cross roads. Loose or open food should not be allowed inside public transport. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104- lot of data is inaccurate, the growth of bangalore is tremendous in the last ten years but data shows incorrect numbers hence, i am sure its plan by BBMP is slow and only PDF not in action.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105- 1. Dustbins are not present beside road.. Should have closed ones, every 100ms. 2. Big dustbins for household garbage disposal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107- It will be one of the great initiatives by which it help every public to have a infection/virus free hygienic life forward. This will also help city tourism development and increase business investments which will create more jobs and importantly will attract huge acknowledgment from countries all over.  Also there should be strict sessions/syllabus in every school and awareness programs in every single home and cleanliness starts from there. Proper management and installation of garbage boxes in each and every nook and corners of the city. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108- It's a good vision however the education and behavioral change in people has to be brought in.  Currently I see no segregation of waste even by those who are educated about it's importance. The garbage collections vehicles should deny accepting if not segregated.  Installation of CCTv's at areas where garbage is thrown by people regularly and a stringent policy to fine and punish the offenders. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109- I have a suggestion that please have waste collection cans, huge ones per street where each household /building should segregate and put their wastes. This will ease the job to bbmp and to the public
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111- Every 500m radius there should be a waste bin so that people throw waste in the waste bin and keep the city clean.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112- Citizens need to know that roads and empty sites are not places to dump waste, awareness should be created by warning them that cameras are installed at particular places. Monthly survey at places can be done 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114- People involved in waste management need to be sensitized and educated on the impact of their work.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115- The better way to manage this is via private vendors like how Singapore or other cities manage it. These experienced waste management companies need to bring in their experience, and implement the comprehensive plans including keeping the city roads (not just the main roads but all artery and sub roads) clean. Once this happens, a lot of the space consumed today because people cannot walk on this path etc can be cleared out and better usage of the space we have.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117- The pornakarmikas to be given More safety measures and rights to refuse picking of waste if not segregated. No waste carrying in the open trucks and landfills to be far from schools n hospitals n other public spaces. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118- A definite MUST. Educate people from the ground level and the schools to be responcible for their own waste and the repurcussions of being negligent to this for our future. A clean well maintained city would be a pleasure to live in.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119- I do not see any mention for Sewage Treatment. The current Sewage treatment plants barely manage 50% of the requirement, thus leading to pollution of the lakes and the surrounding land and ground water. Adding more strategically located sewage treatment plants with new efficient methodologies, will help reduce the discharge into our lakes, thus saving them. This also resolves our water problem as more and more lakes will become available for water supply.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120- There are many places like Kodigehalli and Sahakarnagar where garbage are dumped on the road. No proper cleaning and picking of garbage yet
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121- Build biogas plants, dry waste processing centres , incinerators in every ward . Every single eatery in the city is violating waste segregation rules. Need zero tolerance for people in food business. Every single shop on street is dumping waste on empty plots.  Please install huge 3 colour bins in public areas and educate the independent houses /shops abdcsegregate and deposit on theme bbmp bins. Give them an option to dispose off their waste responsibly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123- My self iam a civil Engineer,my opinion towards waste management is ,most of the people are demolishing the old buildings after that they will get all waste materials from the building as steel and hardened broken pieces of concrete,steel etc. Most of the people will sell steel for scrap value but they are throwing the hardened broken pieces as wastage,no one is recycling .so my conclusion is government will implement the usage of   hardened broken concrete as a partial replacement of coarse aggregates then usage of aggregate and cement will get reduced due to this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124- every alternate day waste collecting should happen before office hours
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126- More thoughts to be done on recycling the waste, rather processing. Example Glass waste, Plastic, paper..., if it is recycled more.., its more beneficial to environment. It can generate employment. state government should support people involved in recycling business.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131- I think it is becoming very difficult for the house holders to dispatch there waste at right places and the BBMP has to find different options of collecting the waste from house holders
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132- Put hefty fines in place for people failing obey waste segregation rules. Make it an point that all organic waste should be take care in particular ward or area by decomposition techniques. Only inorganic waste needs to find its way out to waste processing units. Commercial premises, office spaces,restaurants, hotels and big apartment complexes are the real culprits who break the rules.so more stringent rules need to be in place. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133- Get garbage clearing of wet waste on a daily basis. Fines for households that do not segregate waste
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135- It can be more better. Collect videos from nearby CCTV cam where throwing waste is prohibited and collect heavy fines. Using Bio gas plant can reduce dumping space and byproduct can be used to generate funds.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136- support groups like Sahaas and Hasiru Dala in actually supporting recycling.  many buildings (like mine) have recycle bins that are all used for garbage.  people dont even know which bin is for what.  Make sure that groups like carbon masters are engaged to turn waste into green resources
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7- Overall landfill method will not sustain. The idea of reducing waste generation has to be brought city. As a city we  will have come up with ways where we reduce waste by 30% - 40% per household from what we do now. BBMP should become just governing body and provide the contracts to innovative companies for converting wastes and generating revenue out of it. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24- Point1) each &amp; every corner bang plastic ( eating these innocent way lots of cows died through  ailing. 2)  put road rules with fine.   3) Take care complete envirnament through effective plants to put . 4)Avoid writing in road side walls with the ugly hand writing. Instead than keep big boards with effective writing , which is useful for general public. 5)Bring awareness in public caution driving, keeping envirnament clean ( through alerting about infections , because of their sheer carelessness how many deaths through infections) these all can be manageable  through  big, big banners .  It should do without stoping again, again.  Thanks  Kind Regards. Radha srisailam.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37- in many areas i have seen waste collectors not segregating dry and wet waste  (i can give proof for following  pincode 560075 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67- Convert waste into energy. Follow Swiss model.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106- Though looks good, the organic waste proceeding centres should be one in each ward, IE almost 200. The processed compost can be sold across counter to residents. The processing centre should have proper high raise enclosures with net cover over it. Continued use of abandoned quarries should be discontinued as it is objectionable and against objectives of pollution control board Other waste collection centres should have skid covered containers for collection and to transport the skid to segregation and processing centres 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128- Educate the people to compost the wet waste at home itself. Demonstrations to each layouts, in schools for children helps reduce 60% waste deposits. Easy way of composting is to dump the wet waste in a pot and cover it with a layer of soil and the waste will decompose within a week. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6- Waste should be collected althernative days. and dustbins should be provided more places , so peoplewill not throw the waste in the roads. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95- Current situation is everywhere we see garbage..And city being called as garbage city, you need to find recycling of waste into reusable products..
-</t>
-  </si>
-  <si>
-    <t>['50- Plan is good impletment asap\n', '8- Plan looks good when imlemented\n', '14- Also, make this job a bit dignified. The sewage pickers must have gloves and boots. It will make their job respectable as well as hygienic. \n', '98- Plan is very good but we have to make sure that everybody should follow. If not followed that there should heavy fine. \n']</t>
+    <t>{'response': '1- Place big waste box near two streets and deploy collectors on daily basis. If possible make use of water in repairing roads. \n', 'score': 0.6299416112292631}</t>
+  </si>
+  <si>
+    <t>{'response': '2- Public Dustbins must be there in ample numbers that too in every ward which has two portions one side for wet waste and other for dry waste\n', 'score': 0.563800485683462}</t>
+  </si>
+  <si>
+    <t>{'response': '4- Need to setup a team to study to manage urban waste. Landfill is not the solution. Burning of waste is a huge problem and this needs to be addressed at citizen level\n', 'score': 0.593146632760236}</t>
+  </si>
+  <si>
+    <t>{'response': '5- The amount of waste being generated every day cannot be accommodated in the proposed infrastructure. \n', 'score': 0.6245294340571427}</t>
+  </si>
+  <si>
+    <t>{'response': '9- Outsource garbage problem to companies who will take garbage and give money to govt. They will use this garbage for productivity. Stop spending tax payers money in garbage problem. Watch very old tv serial "satyamev jayate" report about garbage on Star Plus. Please stop fooling public\n', 'score': 0.5447379202311292}</t>
+  </si>
+  <si>
+    <t>{'response': '10- I feel like when we belong in a tech age. We should use more technology for everything. I read an article in the Bangalore mirror about this app called rubble made my teenagers meant to streamline waste collection. Called RUBBLE. Contact +91-9845309776 to know more about it. \n', 'score': 0.5400528127089051}</t>
+  </si>
+  <si>
+    <t>{'response': '12- Start putting penalties for not segregating wastes. As an immediate step, replace the 3 wheeler that are used to carry the waste. These are highly polluting and more often they keep littering the waste on the road\n', 'score': 0.6114231104647384}</t>
+  </si>
+  <si>
+    <t>{'response': '15- Provide waste bins to all houses with minimum charges for collection. Provide waste bins in every 50/ 100 meters in Bangalore. Currently people do not know where to throw garbage.  You should make sure that, the houses without registering for waste bins should have more taxes/ fines to be paid.\n', 'score': 0.6680931937335324}</t>
+  </si>
+  <si>
+    <t>{'response': '16- There is absolutely no control over waste collection by BBMP and waste disposal by general public.  Need to do a campaign and educate people  regarding disposal of waste and timely collection by BBMP.  Bangalore to be at par with other major cities, should have proper sewage system, open drains for rain water.  The sewage line and storm water drains currently  in place is unplanned, whenever the work carry out by contractor, there was no supervision by BWSSB or BBMP Engineers.  It is left to the labours to do the job at their will and wish.  Therefore corrective action should be taken immediately to  ensure sewage line is properly laid, and open drains are constructed on each road (main road and cross roads).\n', 'score': 0.7273873208159041}</t>
+  </si>
+  <si>
+    <t>{'response': '17- I think a master plan is all very well, but steps should be taken NOW.  Only then will this work by 2031.  Start with putting up trash cans by the road, and asking municipalities to make sure their workers empty them regularly.  Also close all the vats and get societies and buildings to have a compulsory trash removal system.  Fine People HEAVILY for littering or breaking the law.  And fine People for urinating in public.  It’s a health hazard and spreads diseases.  \n', 'score': 0.6348235719976355}</t>
+  </si>
+  <si>
+    <t>{'response': '19- Th BBMP garbage auto are never on time and sometimes athy never come resulting people to dump the garbage in nearby area.There should be one common point and installation of dustbins so that it is easier for people to dump the garbage without waiting for the Garbage auto to come.\n', 'score': 0.7176706302566397}</t>
+  </si>
+  <si>
+    <t>{'response': '20- Every Citizen of Bangalore should be educated about segregation of waste into Dry &amp; Wet waste. People who violate the rules, who do not seggregate &amp; those who throw garbage in the public places should be fined. Waste bins should be provided by the government for those who cannot afford to buy 2 bins for Dry &amp; Wet waste. All those who work for BBMP should be given good salary &amp; provided with gloves, shoes &amp; masks for them to work safely in handling the waste. CCTV should be installed to monitor those who violate the rules. High end robot trucks should be used to sweep the roads regularly. Waste production should be reduced slowly by reducing the use of plastics bags. bottles etc.\n', 'score': 0.7678855883268907}</t>
+  </si>
+  <si>
+    <t>{'response': "21- Good idea that dumps going out of city.   It's not always possible to be at home and wait for garbage van to throw garbage  Need big garbage bins in residential n public localities.  Segregation is not a very good idea and practically not everyone is doing this. As a result they throw the waste on vacant plots.  \n", 'score': 0.5892596009825937}</t>
+  </si>
+  <si>
+    <t>{'response': "22- Clear plan. But the middle men appointed to carry out the job is not done and it's not monitored properly. If this continues, the future plan will get distorted. Need officials regular visit to manage the contractor s work.\n", 'score': 0.543896509343576}</t>
+  </si>
+  <si>
+    <t>{'response': '23- Implementation should be equally planned. People throw garbage in plastic bags. Heavy fine should be laid upon them. It is equivalent to committing a crime. The main reason for throwing garbage is the corporation vehicles come at one particular time only. To change this permanent closed bins have to be placed for every 10 street atleast. And this bin should be regularly emptied. And the bins have to be separate for dry and wet waste. Main thing is CCTV cameras should be present at the bin collection point. Heavy fine should be laid for those not separating the waste. Through CCTV fine should be laid upon people. Main problem of waste management start from the people creating them. \n', 'score': 0.6864145389283407}</t>
+  </si>
+  <si>
+    <t>{'response': '26- Burning of garbage including plastic materials is a common sight in the city. This seems to be done by residents and by BBMP workers.Please use all the advertsing areas( experts visiting schools, colleges, using bill boards, TV ads,etc)   to educate the public about the consequences . Heavy fines to be charged for violating waste disposal rules. [ \n', 'score': 0.6789020572849722}</t>
+  </si>
+  <si>
+    <t>{'response': '27- No one segregates waste we need to enforce stricter laws\n', 'score': 0.5251390492418702}</t>
+  </si>
+  <si>
+    <t>{'response': '28- This is near the Air force colony near Murugeshpalya.  I have been traveling to this area from 10years. In the past 1 year itself , I have observed that the garbage is piling in the size of mini trucks. Please provide good waste management systems so that the people around do not litter theoir own city. To add to this it is a residential area, I do not understand how people are okay with living in sucha environment. THe garbage piles up in the morinng like a haystack. This is very harmful. It is setting the health facctor of the people around to a very bad state. I would like the authority to curb the add on garbage and hault it as soon as possible , so that it does not become a haazard to common human  life. Regards. Raj \n', 'score': 0.6486055543935654}</t>
+  </si>
+  <si>
+    <t>{'response': "29- Government should adopt some of the waste management methodologies that was telecasted on one of the episodes in Aamir Khan's Satyamev Jayate TV Program.\n", 'score': 0.5760026259393474}</t>
+  </si>
+  <si>
+    <t>{'response': '32- Kindly work on stopping plastic use. The rule is in place, it has to be strictly implemented. \n', 'score': 0.4231353118021666}</t>
+  </si>
+  <si>
+    <t>{'response': '34- Please educate people about waste segregation and educate people not tie garbage in plastic covers. Please ban plastic covers with all vendors and please provide alternative. Please ask groceries shop to stop packing groceries in plastic and educate people to Bring their own bags for groceries and vegetables. Please supply milk in booths to avoid plastic packaging. Please let us save the environment. Please educate women about sustainable menstruation products like cloth pads and menstrual cups.\n', 'score': 0.6326151230961604}</t>
+  </si>
+  <si>
+    <t>{'response': '39- Initially Government has to pay for all waste to each individuals, so people will practice to store waste properly and they will give to waste management system regularly. Once the culture is set government can slowly educate people regarding charity by using their waste management money\n', 'score': 0.6293978084453966}</t>
+  </si>
+  <si>
+    <t>{'response': '43- Invest in smart collection of garbage \n', 'score': 0.5038978523700949}</t>
+  </si>
+  <si>
+    <t>{'response': '45- Need to educate people starting from children in schools, and in turn parents by creating and making compulsory activities as well as strict rules by imposing files for littering. Strict rules will definitely make people stop littering and make the waste management easier\n', 'score': 0.6134577073550198}</t>
+  </si>
+  <si>
+    <t>{'response': '48- Palike employees goes to every area &amp; collect garbage each day for this they demand money every week.one more question is why the palike employees are not wearing protection gloves &amp; mask before pitch into garbage cleaning &amp; touching this kind of ignorance might cause there life, please rework with all the corporators &amp; palike workers &amp; provide them protection accessories each day before they start there work.\n', 'score': 0.6900361796873323}</t>
+  </si>
+  <si>
+    <t>{'response': '49- Rather than implementing costly waste management ideas that fleece public funds the BDA must ensure that the contractors who collect garrbage also ensure that the collection modus will be seperate. The same teams working will only mess up the collection.. \n', 'score': 0.7008470445980323}</t>
+  </si>
+  <si>
+    <t>{'response': '51- It sounds like a plan for the waste generated today. There is no foresightedness to what may be the case in 2030\n', 'score': 0.486751057888925}</t>
+  </si>
+  <si>
+    <t>{'response': '54- Please strictly ban plastic bag. Encourage just bag because paper bag can cause tree cutting. Create waste management plant in every square km. \n', 'score': 0.6251294035824498}</t>
+  </si>
+  <si>
+    <t>{'response': '56- Should try to keep our city clean in our surrounding by ensuring that public dont throw wste on roads...so strict action must be taken on people who throw garbage on roads..only thn people wil realise ..so some awareness must n created for it to keep our city clean amd beautiful\n', 'score': 0.5752212801752601}</t>
+  </si>
+  <si>
+    <t>{'response': '59- It makes no sense when you start the plan by giving deadline " by 2031 " does it take a decade to get all these to Bangalore, with population increasing like wildfire we need these to be implemented on fastrack and I have no belief as to the fact that this would be done. The government in power or going to be in power will never do this.To keep this on record I have lost all faith. Though we have the knowledge to improve the status quo the government shows no dedication in order to achieve it.Instead of indira canteen that bhagya this bhagya..the government is least considered to improve the quality of life of people\n', 'score': 0.5508897463610891}</t>
+  </si>
+  <si>
+    <t>{'response': '61- Should segregate the waste as soon as possible. So that even the pollution decreases. And people should segregate the waste seperately\n', 'score': 0.5529062291480952}</t>
+  </si>
+  <si>
+    <t>{'response': '62- More importance needs to be given to segregation at source with strict enforcement and deterrent measures such as big fines for non segregation at least of wet / dry waste. Of course this goes in par with frequent collection. If daily door to door collection is not possible, and since wet waste cannot be kept more than a day, maybe an option is to have wet waste collection points / composter in each street, maintained by the municipality. This could generate a good revenue by selling the compost as  manure and pay for the salary of the person in charge of maintenance.\n', 'score': 0.6720305965447012}</t>
+  </si>
+  <si>
+    <t>{'response': '63- This is for corporations plz make sure everyone of ur employees do there work properly  Start construction of dustbin tank in the locality everywhere \n', 'score': 0.5845467883632738}</t>
+  </si>
+  <si>
+    <t>{'response': '65- KR market is situated near one of the oldest forts, KR market is filled with dirty garbages, kindly maintain it neatly and take necessary action On the people who spill garbage even after BBMPs board on the area \n', 'score': 0.5726346546895427}</t>
+  </si>
+  <si>
+    <t>{'response': '66- what about the garbage that is dumped on roadside all over bangalore in domlur, old airport road, wind tunnel road. The plan is very theoretical. Just graphs and flow chart wont be helpful  \n', 'score': 0.5281259989828168}</t>
+  </si>
+  <si>
+    <t>{'response': "69- In order to sustain a long life in this city,we have to clear the waste dumped on the roadsides and make sure we'll collect the waste and reuse,recycle it! In the metropolitan city,citizens are not at all aware of the waste that they are giving out,irresponsible of their own cleanliness! So let's join hands together and make our city healthy!\n", 'score': 0.5504503059329104}</t>
+  </si>
+  <si>
+    <t>{'response': '71- Lorrys carrying waste should be covered and mechanised enough to gather and unload waste \n', 'score': 0.5219587161825727}</t>
+  </si>
+  <si>
+    <t>{'response': '72- Lack of facility and disorganised functioning. Need to streamline the pattern of door to door pick up,  bulk collection &amp; sweepers collection.  Absolutely no coordination hence black spot are simply multiplying and littering of garbage everywhere has become unstoppable &amp; uncontrollable.  Hence garbage pick up pattern should be looked into and installation of cameras is a must to monitor and penalize the dirty makers of the locality. \n', 'score': 0.6476332483097696}</t>
+  </si>
+  <si>
+    <t>{'response': '74- There should be a plan for handling the STTP issue as well. Why every apartment complex should have its own STTP plant which is an additional expense for the residents and is always dangerous for the workers like recent deaths in one of the apartments. No other city in the world has this concept and waste is collected through the sewerage pipes and is processes in central plants. Citizens pay property tax, Water and Sewerage connection charges but end up arranging their own water and sewerage treatment plants. This is not what you expect from a state capital that aspires to be a leading smart city. The BDA and government should plan for laying the sewerage network and central processing plants.\n', 'score': 0.6726381033144975}</t>
+  </si>
+  <si>
+    <t>{'response': '75- garbage/landfills are not enough, Reverse Wending machine is a new idea which world is going to use..  bringing awareness to people about waste management and bringing more clear solutions to help residences to dispose their garbage.  cleaning existing drainage is necessary, open drainage needs to closed.  need to have more dustbins around corner of bus stands, streets.   \n', 'score': 0.723168657755843}</t>
+  </si>
+  <si>
+    <t>{'response': '77- Need to recycle efficiently as we see garbage getting dumped in lakes and also level of segregation very poor. Use technology where possible and reduce this problem\n', 'score': 0.6298465701908511}</t>
+  </si>
+  <si>
+    <t>{'response': '79- We need more frequent and timely garbage disposal vehicles in our area, and if its feasible we can do the same way, USA public disposes their garbage\n', 'score': 0.6346966472567855}</t>
+  </si>
+  <si>
+    <t>{'response': '80- Regular waste collection and waste management system \n', 'score': 0.6133304005327402}</t>
+  </si>
+  <si>
+    <t>{'response': '81- After the BBMP drive on segregating the waste before disposal, I wonder if this is really implemented as it was driven by the authority. I often notice, that the garbage carrier, mixes all together, collected from different sources (Dry and Wet waste). A thorough check should be done with them, before they dispose them. Majority of the carrier vehicles are poorly maintained, dirty and releases thick smoke.\n', 'score': 0.6927816512451075}</t>
+  </si>
+  <si>
+    <t>{'response': '82- Happy with the process of waste management....but again it all depends on how we as individuals contribute towards the success of this process. \n', 'score': 0.4775409587619857}</t>
+  </si>
+  <si>
+    <t>{'response': '85- Garbage is a bane of Bangalore, everything looks fine on paper but execution and accountability is nil. Collection and primary segregation to some extent is happening, but transportation is really bad. No place for consolidation nor secondary segregation. There is no concept of compaction . I feel designated areas in each ward to be allocated to carry out secondary segregation and compaction, reduce the burden of waste in volume. This is is the basic problem we face, the filth on the corners created by bbmp, the burning which goes unchecked leading to pollution and health hazards and also street dog menace. All hotels should be having biogas plants to reduce the load of food and wet waste. The abattoirs should have a plan to dispose the remains, all plastic paper, cups, plates should be banned a good idea to come back to earthenware pots and cups. Streets should be provided with bins at every corner which is easily operable and user friendly. I feel for the garbage handlers, they should be given a decent uniform and gloves for handling such waste. Finally the disposal is still a problem. By reducing the waste generated and proper segregation and compaction the volume can be brought down and this disposal should be done ward wise rather than taking it through the city spilling all over.  Awards for the best wards, recognition for the pourmikars , incentives, proper accountability and legislation would go a long way of getting rid of this problem \n', 'score': 0.714389949498623}</t>
+  </si>
+  <si>
+    <t>{'response': '87- 1.In every ward dry waste collection centres need to be established and they should work. 2. There shd be provision for sanitary waste to be collected separately and not mixed with wet waste. 3. Incinerators should be provided at the ward level to dispose sanitary waste.\n', 'score': 0.6795397247594264}</t>
+  </si>
+  <si>
+    <t>{'response': '90- Enforcing waste segregation at the origination point is very important. Unless that is enforced, rest all will be very challenging to achieve. All the Large housing societies should at least be able to recycle all organic waste inhouse and use for landscaping etc. Then the plasctic waste is supposed to be segregated in recycled or non recyclable category. A lot of waste is still not classified correctly to be segregated.\n', 'score': 0.6661956017488642}</t>
+  </si>
+  <si>
+    <t>{'response': '94- All plans on paper look good. Implementation is the key. Businesses that do not comply with waste segregation and waste management should be forced to shut shop.\n', 'score': 0.6315240807518714}</t>
+  </si>
+  <si>
+    <t>{'response': "96- Looks unrealistic not to have any land fills.. even developed countries have some land fill but their collection, segregation and most importantly, the citizens are involved with right education and awareness. Here even if citizen segregate, the collectors mix and take. So, patchy implementation and adherence in few wards doesn't solve the problem.  As photo op, politicians/leaders do launch some scheme and then no clear implementation and accountability exist down ward and this results in poor implementation. Completely privatize the collection of garbage to some good corporate.. and it will work. Otherwise, same contractors and lorry mafia will continue even at 2031. \n", 'score': 0.640519781097957}</t>
+  </si>
+  <si>
+    <t>{'response': "100- Why can't we use garbage into tar road making,  as it's already done at Kamraj  road ,where garbage was melt down due to high temperature of TAR material,  pollution less and there a Is huge requirement of good roads. \n", 'score': 0.5919624708920259}</t>
+  </si>
+  <si>
+    <t>{'response': '102- Waste collection facility should be done 24x7.  Waste collection centers should be installed in every ward. Throwing waste on road should be strictly monitored and violators should be punished severely like disconnecting power/water etc.  The segregated waste can be bought by government for minimum price and the recycled output can be used/sold by government in various schemes. \n', 'score': 0.7115293952591347}</t>
+  </si>
+  <si>
+    <t>{'response': '103- Waste management in public areas should be organised. Recycle bins and wet and dry waste bins should be kept every 200 mts in roads and in cross roads. Loose or open food should not be allowed inside public transport. \n', 'score': 0.6716152770404293}</t>
+  </si>
+  <si>
+    <t>{'response': '104- lot of data is inaccurate, the growth of bangalore is tremendous in the last ten years but data shows incorrect numbers hence, i am sure its plan by BBMP is slow and only PDF not in action.\n', 'score': 0.5802651896459025}</t>
+  </si>
+  <si>
+    <t>{'response': '105- 1. Dustbins are not present beside road.. Should have closed ones, every 100ms. 2. Big dustbins for household garbage disposal.\n', 'score': 0.6232864158403919}</t>
+  </si>
+  <si>
+    <t>{'response': '107- It will be one of the great initiatives by which it help every public to have a infection/virus free hygienic life forward. This will also help city tourism development and increase business investments which will create more jobs and importantly will attract huge acknowledgment from countries all over.  Also there should be strict sessions/syllabus in every school and awareness programs in every single home and cleanliness starts from there. Proper management and installation of garbage boxes in each and every nook and corners of the city. \n', 'score': 0.6343063190544229}</t>
+  </si>
+  <si>
+    <t>{'response': "108- It's a good vision however the education and behavioral change in people has to be brought in.  Currently I see no segregation of waste even by those who are educated about it's importance. The garbage collections vehicles should deny accepting if not segregated.  Installation of CCTv's at areas where garbage is thrown by people regularly and a stringent policy to fine and punish the offenders. \n", 'score': 0.6348414435353513}</t>
+  </si>
+  <si>
+    <t>{'response': '109- I have a suggestion that please have waste collection cans, huge ones per street where each household /building should segregate and put their wastes. This will ease the job to bbmp and to the public\n', 'score': 0.6375773933787853}</t>
+  </si>
+  <si>
+    <t>{'response': '111- Every 500m radius there should be a waste bin so that people throw waste in the waste bin and keep the city clean.\n', 'score': 0.6053586334334164}</t>
+  </si>
+  <si>
+    <t>{'response': '112- Citizens need to know that roads and empty sites are not places to dump waste, awareness should be created by warning them that cameras are installed at particular places. Monthly survey at places can be done \n', 'score': 0.5509005868351474}</t>
+  </si>
+  <si>
+    <t>{'response': '114- People involved in waste management need to be sensitized and educated on the impact of their work.  \n', 'score': 0.5566242699313436}</t>
+  </si>
+  <si>
+    <t>{'response': '115- The better way to manage this is via private vendors like how Singapore or other cities manage it. These experienced waste management companies need to bring in their experience, and implement the comprehensive plans including keeping the city roads (not just the main roads but all artery and sub roads) clean. Once this happens, a lot of the space consumed today because people cannot walk on this path etc can be cleared out and better usage of the space we have.\n', 'score': 0.701316548655957}</t>
+  </si>
+  <si>
+    <t>{'response': '117- The pornakarmikas to be given More safety measures and rights to refuse picking of waste if not segregated. No waste carrying in the open trucks and landfills to be far from schools n hospitals n other public spaces. \n', 'score': 0.6079075462118603}</t>
+  </si>
+  <si>
+    <t>{'response': '118- A definite MUST. Educate people from the ground level and the schools to be responcible for their own waste and the repurcussions of being negligent to this for our future. A clean well maintained city would be a pleasure to live in.\n', 'score': 0.6078128298890788}</t>
+  </si>
+  <si>
+    <t>{'response': '119- I do not see any mention for Sewage Treatment. The current Sewage treatment plants barely manage 50% of the requirement, thus leading to pollution of the lakes and the surrounding land and ground water. Adding more strategically located sewage treatment plants with new efficient methodologies, will help reduce the discharge into our lakes, thus saving them. This also resolves our water problem as more and more lakes will become available for water supply.\n', 'score': 0.6110839823109745}</t>
+  </si>
+  <si>
+    <t>{'response': '120- There are many places like Kodigehalli and Sahakarnagar where garbage are dumped on the road. No proper cleaning and picking of garbage yet\n', 'score': 0.6027945333489653}</t>
+  </si>
+  <si>
+    <t>{'response': '121- Build biogas plants, dry waste processing centres , incinerators in every ward . Every single eatery in the city is violating waste segregation rules. Need zero tolerance for people in food business. Every single shop on street is dumping waste on empty plots.  Please install huge 3 colour bins in public areas and educate the independent houses /shops abdcsegregate and deposit on theme bbmp bins. Give them an option to dispose off their waste responsibly.\n', 'score': 0.7176164096497711}</t>
+  </si>
+  <si>
+    <t>{'response': '123- My self iam a civil Engineer,my opinion towards waste management is ,most of the people are demolishing the old buildings after that they will get all waste materials from the building as steel and hardened broken pieces of concrete,steel etc. Most of the people will sell steel for scrap value but they are throwing the hardened broken pieces as wastage,no one is recycling .so my conclusion is government will implement the usage of   hardened broken concrete as a partial replacement of coarse aggregates then usage of aggregate and cement will get reduced due to this.\n', 'score': 0.6724455314064219}</t>
+  </si>
+  <si>
+    <t>{'response': '124- every alternate day waste collecting should happen before office hours\n', 'score': 0.5807519252327936}</t>
+  </si>
+  <si>
+    <t>{'response': '126- More thoughts to be done on recycling the waste, rather processing. Example Glass waste, Plastic, paper..., if it is recycled more.., its more beneficial to environment. It can generate employment. state government should support people involved in recycling business.\n', 'score': 0.5520121118253751}</t>
+  </si>
+  <si>
+    <t>{'response': '131- I think it is becoming very difficult for the house holders to dispatch there waste at right places and the BBMP has to find different options of collecting the waste from house holders\n', 'score': 0.661770873410665}</t>
+  </si>
+  <si>
+    <t>{'response': '132- Put hefty fines in place for people failing obey waste segregation rules. Make it an point that all organic waste should be take care in particular ward or area by decomposition techniques. Only inorganic waste needs to find its way out to waste processing units. Commercial premises, office spaces,restaurants, hotels and big apartment complexes are the real culprits who break the rules.so more stringent rules need to be in place. \n', 'score': 0.6879538873121912}</t>
+  </si>
+  <si>
+    <t>{'response': '133- Get garbage clearing of wet waste on a daily basis. Fines for households that do not segregate waste\n', 'score': 0.630258094465594}</t>
+  </si>
+  <si>
+    <t>{'response': '135- It can be more better. Collect videos from nearby CCTV cam where throwing waste is prohibited and collect heavy fines. Using Bio gas plant can reduce dumping space and byproduct can be used to generate funds.\n', 'score': 0.6229218465591269}</t>
+  </si>
+  <si>
+    <t>{'response': '136- support groups like Sahaas and Hasiru Dala in actually supporting recycling.  many buildings (like mine) have recycle bins that are all used for garbage.  people dont even know which bin is for what.  Make sure that groups like carbon masters are engaged to turn waste into green resources\n', 'score': 0.636780124933559}</t>
+  </si>
+  <si>
+    <t>{'response': '7- Overall landfill method will not sustain. The idea of reducing waste generation has to be brought city. As a city we  will have come up with ways where we reduce waste by 30% - 40% per household from what we do now. BBMP should become just governing body and provide the contracts to innovative companies for converting wastes and generating revenue out of it. \n', 'score': 0.5660897455248656}</t>
+  </si>
+  <si>
+    <t>{'response': '24- Point1) each &amp; every corner bang plastic ( eating these innocent way lots of cows died through  ailing. 2)  put road rules with fine.   3) Take care complete envirnament through effective plants to put . 4)Avoid writing in road side walls with the ugly hand writing. Instead than keep big boards with effective writing , which is useful for general public. 5)Bring awareness in public caution driving, keeping envirnament clean ( through alerting about infections , because of their sheer carelessness how many deaths through infections) these all can be manageable  through  big, big banners .  It should do without stoping again, again.  Thanks  Kind Regards. Radha srisailam.\n', 'score': 0.48447529897846664}</t>
+  </si>
+  <si>
+    <t>{'response': '37- in many areas i have seen waste collectors not segregating dry and wet waste  (i can give proof for following  pincode 560075 \n', 'score': 0.5847278748561188}</t>
+  </si>
+  <si>
+    <t>{'response': '67- Convert waste into energy. Follow Swiss model.\n', 'score': 0.4009201234761391}</t>
+  </si>
+  <si>
+    <t>{'response': '106- Though looks good, the organic waste proceeding centres should be one in each ward, IE almost 200. The processed compost can be sold across counter to residents. The processing centre should have proper high raise enclosures with net cover over it. Continued use of abandoned quarries should be discontinued as it is objectionable and against objectives of pollution control board Other waste collection centres should have skid covered containers for collection and to transport the skid to segregation and processing centres \n', 'score': 0.7235265363799877}</t>
+  </si>
+  <si>
+    <t>{'response': '128- Educate the people to compost the wet waste at home itself. Demonstrations to each layouts, in schools for children helps reduce 60% waste deposits. Easy way of composting is to dump the wet waste in a pot and cover it with a layer of soil and the waste will decompose within a week. \n', 'score': 0.6153596524133261}</t>
+  </si>
+  <si>
+    <t>{'response': '6- Waste should be collected althernative days. and dustbins should be provided more places , so peoplewill not throw the waste in the roads. \n', 'score': 0.6671712347095329}</t>
+  </si>
+  <si>
+    <t>{'response': '95- Current situation is everywhere we see garbage..And city being called as garbage city, you need to find recycling of waste into reusable products..\n', 'score': 0.6480294856073072}</t>
+  </si>
+  <si>
+    <t>['98- Plan is very good but we have to make sure that everybody should follow. If not followed that there should heavy fine. \n', '14- Also, make this job a bit dignified. The sewage pickers must have gloves and boots. It will make their job respectable as well as hygienic. \n', '50- Plan is good impletment asap\n', '8- Plan looks good when imlemented\n']</t>
   </si>
   <si>
     <t>['18- Lory points suck\n']</t>
@@ -3418,13 +2735,13 @@
     <t>['25- Daily pick up from every road must be done, and ensure all pick up points to be emptied now and then.\n', '52- Dustbins in every roads and it should be cleaned\n']</t>
   </si>
   <si>
-    <t>['40- Garbage burning has been a common issue in Bengaluru. How are they going to enforce law and punish the people burning waste? \n', '57- I have seen alot worse places in bengaluru ex: byrathi bande to chikka gubbi Hennur bagalur road frm gaddalahalli til hennur bande(waste water and smell)\n', '30- Lanfill should not be an option at the moment now... fill now and eradicate later is no joke!! This will cause lot of issue to the near by areas... example of such lanfill gone worse can be found in our country itself Delhi -Agra expressway!! Which might happen around Bangalore the so said green city turning to be a growing place for MNCs and majorly growing city across India.  Then request of a new budgetary/ tender to clear such land mass especially in a quarry land which if dumped with plastic would take longer time to decompose... or might never!!  After dumping in such areas how are they covered is there any layering of dirt on such garbage??!  If not then it doesn’t make any difference that the BBMP dump in such areas or the public dumping household garbage On their streets.  Hope to find a response to such poor act to play in future and pushing it for next 10years??!!  Yours concerned Citizen of Bangalore, HBR Layout-  560043\n', '129- this is also main issue in Bangalore. They have to take more concern in this. We have to give circular for each house\n', '138- Segregation at source must be made mandatory. Whoever doing right should be given incentives and people who are adamant should be penalized heavily\n']</t>
+    <t>['129- this is also main issue in Bangalore. They have to take more concern in this. We have to give circular for each house\n', '138- Segregation at source must be made mandatory. Whoever doing right should be given incentives and people who are adamant should be penalized heavily\n', '40- Garbage burning has been a common issue in Bengaluru. How are they going to enforce law and punish the people burning waste? \n', '57- I have seen alot worse places in bengaluru ex: byrathi bande to chikka gubbi Hennur bagalur road frm gaddalahalli til hennur bande(waste water and smell)\n', '30- Lanfill should not be an option at the moment now... fill now and eradicate later is no joke!! This will cause lot of issue to the near by areas... example of such lanfill gone worse can be found in our country itself Delhi -Agra expressway!! Which might happen around Bangalore the so said green city turning to be a growing place for MNCs and majorly growing city across India.  Then request of a new budgetary/ tender to clear such land mass especially in a quarry land which if dumped with plastic would take longer time to decompose... or might never!!  After dumping in such areas how are they covered is there any layering of dirt on such garbage??!  If not then it doesn’t make any difference that the BBMP dump in such areas or the public dumping household garbage On their streets.  Hope to find a response to such poor act to play in future and pushing it for next 10years??!!  Yours concerned Citizen of Bangalore, HBR Layout-  560043\n']</t>
   </si>
   <si>
     <t>['31- Our top leaders, burocrats has to come and see how middle, lower middle and poor income groups are living. They have to see the ground reality leaving their a/c rooms.\n']</t>
   </si>
   <si>
-    <t>['33- Try to educate people\n', '46- I feel we have to make use of the waste.. by bio diesel system generated.. there are lots of people who are unemployed in our country, and I think this will help in also eradicating the unemployment scenario in our country.\n', '68- Plan to crush it at source layout wise. Make use of these as energy source wardwise at least. Also to do research on how building level crush and use as energy source. At least nearby street lights can get benefitted out of it.\n', '83- The plan is good, but the implementation is where we fail. Strict fines and penalties, and awareness will help improve the participation of citizens in this exercise\n', "64- We still lady still sweeping the roads by broom manually. Your plans are made without knowing what's happening in ground. Please be realistic and responsible \n", '78- Honestly current state of affairs is pathetic, Lets try to implement some model that is working in other states/countries. I can volunteer for the cause\n', '93- Please encourage compost making to big societies and reduce generation of garbage. Malls and eateries shoudl be fined for using use and throw cutlery and plates. IMPOSE FINE wherever required and get bodieds to collect fine. when there is no one to monitor , fine can also not help.\n']</t>
+    <t>['46- I feel we have to make use of the waste.. by bio diesel system generated.. there are lots of people who are unemployed in our country, and I think this will help in also eradicating the unemployment scenario in our country.\n', '78- Honestly current state of affairs is pathetic, Lets try to implement some model that is working in other states/countries. I can volunteer for the cause\n', '68- Plan to crush it at source layout wise. Make use of these as energy source wardwise at least. Also to do research on how building level crush and use as energy source. At least nearby street lights can get benefitted out of it.\n', '93- Please encourage compost making to big societies and reduce generation of garbage. Malls and eateries shoudl be fined for using use and throw cutlery and plates. IMPOSE FINE wherever required and get bodieds to collect fine. when there is no one to monitor , fine can also not help.\n', '33- Try to educate people\n', '83- The plan is good, but the implementation is where we fail. Strict fines and penalties, and awareness will help improve the participation of citizens in this exercise\n', "64- We still lady still sweeping the roads by broom manually. Your plans are made without knowing what's happening in ground. Please be realistic and responsible \n"]</t>
   </si>
   <si>
     <t>['36- Garbage everywhere. It stinks. Disease spread. Mosquito nuisance.\n']</t>
@@ -3466,92 +2783,70 @@
     <t>['134- UGD should be provided to 100% residents\n']</t>
   </si>
   <si>
-    <t xml:space="preserve">13- No fluid waste should be allowed to flow into any of the lakes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42- Effective segregation and implementation of ensuring non degradable material is eliminated at source 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60- Better waste collection system needs to be bought in. Waste segregation should be made compulsory. Solution to solve the stinking collection points.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86- Having proper waste collection plans.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88- Segregation can only be possible if there is a law and people fear the law. Let there be a law that criminalises non segregation and throwing of garbage instead of handing it to the Garbage management employees. Let it be a mandate that there be 3 bins one for wet, one for dry and one for sanitary at all house holds.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91- Still Waste Management is challenge, people have gone to Singapore and studied and come. still there is no improvement in conditions. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127- I request government to implement the segregation of wastes very strict and provide something great in return to the community which follows it properly. Start implementing at the smallest level of change to be happening.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137- Segregation should not be stopped at organic and inorganic waste, similar to developed countries, glass, plastic, paper, organic, medical should be split and treated or recycled accordingly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47- Dumping waste far away from Bengaluru is not solution .It will create pollution at the dumped site .Should process and minimise the dumping lot itself .
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35- Complete kormangala and ejipura area has the worst waste management 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44- Unauthorized constructions and poor waste management in those areas. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55- Not Good. The Government has to provide the waste management facility.No one is going to build their own waste management systems
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76- Sweden and other countries are successfully converting waste to energy - we must learn and adopt those methods
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84- There is very poor law enforcement for waste segregation. This needs to be tackled if any form of waste management to succeed. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97- Shift out seegehalli and kannahalli waste treatment plants. Ward level waste processing units to be established
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99- Local waste management at ward level is the only solution.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3- I have complained many times but still garabage is dump right near BBMP High school in East road Austin town BLR- 47
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11- No concrete solution,  still searching place to dump,  initiate ward wise handling,  then people will be responsible 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41- Under waste management there should be a cooperation between road management authority and waste management. Debris and garbage found on roads should be collected by gatbage collectors. The waste piled up is clogging our drains, canals and lakes. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58- BBMP should be split to makes their task easier.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73- Proper garbage collection is not done in most of the areas especially in our area Hoysala nagar ( hormavu ) ward no -25 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122- Need more micro planning...each ward must be made responsible and fines must be levied for not complying with rules.
-</t>
+    <t>{'response': '13- No fluid waste should be allowed to flow into any of the lakes.\n', 'score': 0.519899009052732}</t>
+  </si>
+  <si>
+    <t>{'response': '42- Effective segregation and implementation of ensuring non degradable material is eliminated at source \n', 'score': 0.5235482219663036}</t>
+  </si>
+  <si>
+    <t>{'response': '60- Better waste collection system needs to be bought in. Waste segregation should be made compulsory. Solution to solve the stinking collection points.\n', 'score': 0.6880632589747456}</t>
+  </si>
+  <si>
+    <t>{'response': '86- Having proper waste collection plans.\n', 'score': 0.6182119550801367}</t>
+  </si>
+  <si>
+    <t>{'response': '88- Segregation can only be possible if there is a law and people fear the law. Let there be a law that criminalises non segregation and throwing of garbage instead of handing it to the Garbage management employees. Let it be a mandate that there be 3 bins one for wet, one for dry and one for sanitary at all house holds.\n', 'score': 0.6741977054834795}</t>
+  </si>
+  <si>
+    <t>{'response': '91- Still Waste Management is challenge, people have gone to Singapore and studied and come. still there is no improvement in conditions. \n', 'score': 0.4688903770679966}</t>
+  </si>
+  <si>
+    <t>{'response': '127- I request government to implement the segregation of wastes very strict and provide something great in return to the community which follows it properly. Start implementing at the smallest level of change to be happening.\n', 'score': 0.4751728061822858}</t>
+  </si>
+  <si>
+    <t>{'response': '137- Segregation should not be stopped at organic and inorganic waste, similar to developed countries, glass, plastic, paper, organic, medical should be split and treated or recycled accordingly.\n', 'score': 0.5532434583477431}</t>
+  </si>
+  <si>
+    <t>{'response': '47- Dumping waste far away from Bengaluru is not solution .It will create pollution at the dumped site .Should process and minimise the dumping lot itself .\n', 'score': 0.606754368750584}</t>
+  </si>
+  <si>
+    <t>{'response': '35- Complete kormangala and ejipura area has the worst waste management \n', 'score': 0.6517112503543709}</t>
+  </si>
+  <si>
+    <t>{'response': '44- Unauthorized constructions and poor waste management in those areas. \n', 'score': 0.6144831274377182}</t>
+  </si>
+  <si>
+    <t>{'response': '55- Not Good. The Government has to provide the waste management facility.No one is going to build their own waste management systems\n', 'score': 0.6832692752641353}</t>
+  </si>
+  <si>
+    <t>{'response': '76- Sweden and other countries are successfully converting waste to energy - we must learn and adopt those methods\n', 'score': 0.5106069554626074}</t>
+  </si>
+  <si>
+    <t>{'response': '84- There is very poor law enforcement for waste segregation. This needs to be tackled if any form of waste management to succeed. \n', 'score': 0.5411996775805824}</t>
+  </si>
+  <si>
+    <t>{'response': '97- Shift out seegehalli and kannahalli waste treatment plants. Ward level waste processing units to be established\n', 'score': 0.6486455466666388}</t>
+  </si>
+  <si>
+    <t>{'response': '99- Local waste management at ward level is the only solution.\n', 'score': 0.614338501108103}</t>
+  </si>
+  <si>
+    <t>{'response': '3- I have complained many times but still garabage is dump right near BBMP High school in East road Austin town BLR- 47\n', 'score': 0.5718853732082012}</t>
+  </si>
+  <si>
+    <t>{'response': '11- No concrete solution,  still searching place to dump,  initiate ward wise handling,  then people will be responsible \n', 'score': 0.5230649507508046}</t>
+  </si>
+  <si>
+    <t>{'response': '41- Under waste management there should be a cooperation between road management authority and waste management. Debris and garbage found on roads should be collected by gatbage collectors. The waste piled up is clogging our drains, canals and lakes. \n', 'score': 0.5866301933440179}</t>
+  </si>
+  <si>
+    <t>{'response': '58- BBMP should be split to makes their task easier.\n', 'score': 0.5527179788552248}</t>
+  </si>
+  <si>
+    <t>{'response': '73- Proper garbage collection is not done in most of the areas especially in our area Hoysala nagar ( hormavu ) ward no -25 \n', 'score': 0.6618318961034715}</t>
+  </si>
+  <si>
+    <t>{'response': '122- Need more micro planning...each ward must be made responsible and fines must be levied for not complying with rules.\n', 'score': 0.4387787668449888}</t>
   </si>
   <si>
     <t>Lakes and valleys will also be revived with recycled water</t>
@@ -3573,15 +2868,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">27- We should look at options to revive the dying lakes as the first step towards water management 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36- Lakes should be protected such that no garbage can be dumped into lakes and any unwanted growth in lake ( weeds choking the lake ) are removed
-</t>
-  </si>
-  <si>
-    <t>['1- Presently the lakes are filled with drainage.  How can that be revived? \n', '37- I liked the ideA of Rally for rivers by Isha foundations, i think if we cam implement for all rivers in Karnataka, i am very sure all our lakes will be in par with finland or best in the world. Again i can be part of this initiative\n', "8- (1) Water is Life. (2) Rejuvenation of Lake is mentioned in one para out of 200+ pages. Only way I see life to sustain is by 'recovering' the lost lakes all 300+ even though we may not be able to undo the 16 listed by Karnataka govt in http://www.karnataka.gov.in/Parisaramahiti/Pages/Lost-lakes-of-Bangalore.aspx (3) Robust programme to maintain cleanliness and protection of these lakes. (4) Improve ground water levels n every method possible.\n", '47- Revive the lakes asap! \n']</t>
+    <t>{'response': '27- We should look at options to revive the dying lakes as the first step towards water management \n', 'score': 0.5445814556182452}</t>
+  </si>
+  <si>
+    <t>{'response': '36- Lakes should be protected such that no garbage can be dumped into lakes and any unwanted growth in lake ( weeds choking the lake ) are removed\n', 'score': 0.6494215370575487}</t>
+  </si>
+  <si>
+    <t>["8- (1) Water is Life. (2) Rejuvenation of Lake is mentioned in one para out of 200+ pages. Only way I see life to sustain is by 'recovering' the lost lakes all 300+ even though we may not be able to undo the 16 listed by Karnataka govt in http://www.karnataka.gov.in/Parisaramahiti/Pages/Lost-lakes-of-Bangalore.aspx (3) Robust programme to maintain cleanliness and protection of these lakes. (4) Improve ground water levels n every method possible.\n", '1- Presently the lakes are filled with drainage.  How can that be revived? \n', '47- Revive the lakes asap! \n', '37- I liked the ideA of Rally for rivers by Isha foundations, i think if we cam implement for all rivers in Karnataka, i am very sure all our lakes will be in par with finland or best in the world. Again i can be part of this initiative\n']</t>
   </si>
   <si>
     <t>['3- Good planning, to be established.\n']</t>
@@ -3611,276 +2904,208 @@
     <t>['72- If it executed well and good\n']</t>
   </si>
   <si>
-    <t xml:space="preserve">5- I would like to suggest that our storm water drains be made porous and incorporate recharge pits in them, so that the water outflow is reduced as a major part of the flow can get absorbed into the soil and restore the ground water . This simple system will recharge all the bore wells, open wells and also reduce the incidents of flooding.This has been implemented in many countries successfully and is is solution for the future of our cities.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6- I believe the government should also consider public rainwater harvesting and recharge to offset the huge amount of land that has been paved with roads and concreted over. My suggestion is to mandatory have bottom stones in roadside drains removed or replaced by seepage gratings every 30 feet. Zain addition there can be recharge pits constructed at low points in roads etc where overflow can be run off in the normal roadside drains. Water recharge by the govt on such a scale would augment small measures by people in their own residences or apartment complexes. If we continue taking out ground water at the rate we currently are and don't do something to recharge this precious resource in a thought out and proactive way our future generations in Bangalore will be doomed. Kind regards, Glenn Rego
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10- Govt needs to come up with good plan to store water. Most of the areas in Bangalore are suffering from water deficiency. if this continues Bangalore will not have water in coming years.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11- stop the water mafia currently run by political goons
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20- Unless there are major sewage treatments plants the problem of water contamination and loss of precious lakes cant be stopped, even at this point sewage treatment is still not considered as a major issue. The implementation of Rain Water Harvesting has not been completely. With the RWH facility we can improve the ground water table, which especially in Bangalore is depleting by the day.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21- As regarding storm water drains, they are closed by foot paths , as a result water is not being channeled into the drains .this is leading to flooding of roads. And also along with reviving lakes , air from.water systems on the lines of Israel needs to be looked into ..this can help.reduse dependence on cauvery water
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22- Their is no water connection here at whitefield  bangalore
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24- Plan for future water problems 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31- how do you plan to tackle the water mafia?? they drain our water system and need to be monitored. checking on STP'S in large complexes is also to be considered
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57- New areas added should be serviced by BBMP with schedule. Setting up water recycling centres at convenient nearby location is just a statement not necessarily to happen Locations should be identified now itself. Construction of duct along existing water line is must considering future expansions. Now existing water line and add recycled water line will be inside duct and should be large enough to add or replace with large did lines without digging the road. The number of inspection covers depend on length of a single pipe or flexible pipe.  Rain water harvesting should be made compulsory irrespective of the condition arra Storm water ducts on with side of road should have restricted flow barrages and several holes with tubing for water to seep in soil. Else, low-lying areas will be affected as happening now in several residential locations during monsoon. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61- Sewage water needs to be handled properly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62- Limited focus on improving water level in the city and identifying alternate source of supply of water to the city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64- Need to provide basic water facility to Blore nearby areas to sustain the growth and City need to be decongested by developing nearby places like Anekal, Attibele, Sarjapura, Hoskote, DB Pura by BDA
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65- Create drainage system around lakes and bypass drainage water into this. Create a walking track and hangout place on the drainage canal  around the lake.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67- Also water leakage mechanism should be put in place
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73- Request to treat the water from vrishabhavathi and make it a river front and tourist attraction
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74- Making it mandatory to have Rain water harvesting system in an existing property and in newly built property is the only way to increase the ground water table in the city where there is very less ground available for the natural percolation. Another point is to convert all the existing lakes into sewage treatment plants with natural methods or for example as the lake Hussain Sagar in Hyderabad which is a tourist attraction but actually a sewage treatment plant.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78- The Master plan should aim to supply 24x7 supply as considered for other Smart cities. The main source being Cauvery needs to be effectively and potentially utilised. Citizens should be made aware of the value of water and needs an intensive training.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80- How does one get out of the Water mafia? A city dependent of private tankers for its citizens and expansion is risky and flawed. If the city cannot supply piped water supply to its citizens, BBMP / BWSSB should supply water out of the taxes we pay and not charged separately by private tankers. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81- Unless you provide water to private layout residents, your master plan is useless.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18- There has been no mention of encroachment of lakes and how the action be taken against the real estate mafia. And help existing apartments to help build STPs as it is expensive to build one and not enough space to build it. Or build a common STP for a couple of buildings on a sharing basis. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32- You still have the rule of dual piping and STP but not implemented 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41- BDA, BWSSB and BBMP are collectively responsible for gross water misuse, water overdraft, aggravating the tensions between Karnataka and Tamil Nadu over sharing the Kaveri water, and depriving the village panchayats surrounding Bangalore of their fair share of water. Stringent limiting of water use (residential, commercial, industrial, agricultural) should have been put in place when the city's population crossed 5 million. In early 2018 the population is 10 million and the 3 agencies have no water rationing mechanism for the city. An allocation of about 600 litres/day per typical household (see pg 105 for the figures) is far too high for a metro that has lost three-quarters of its water bodies over the last two decades. Projecting a population of 20 million in 12 years with this water allocation per household is incomprehensible and shows just how far out of touch with hydrographic cycles the 3 agencies are.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43- Rains are more than substantial in Bengaluru and bbmp should consider storing these water in underground reservoirs in the time of need. Proper drainage channels will help in this regard.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49- In the plan, why BWSSB has no plans to recycle water and sell to the citizens by way of tankers/dedicated pipelines to big apartments. ?? They seem to be putting all the responsibility on the citizen even in the master plan!! Regarding Cauvery water supply, please have Tippagondahalli Reservoir functional by preventing misuse of land in and around it. It is a precious reservoir which has regained life after 2017 monsoon.. ensure its continuity so that it supplements cauvery water. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50- Before planning for new building and new areas.. please plan to fix current areas like bellandur which is known by other name water mafia by tankers
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82- STP should be must for all new apartment so that recycled water can be used for toilets &amp; gardening 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2- 24hours availability of water for recycled water should be ensured so that people need not have second overhead tank and can directly connect to toilets/garden. Rain water should not be let out of any site, but forced into rain-water pits, to improve ground water and reduced flooding.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7- Please collect rain water from houses near borewells and get the water into the borewell. Most house owners are doing only name sake rainwater harvesting. It's not enough to drill borewells and provide taps from common taps. These borewells need to be fed. Rainwater that is anyway flowing into drains can be diverted at the cost of BBMP so that this water is diverted back into the water table.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14- Waste water should be treated well to use it for city gardens, Bellandur,Ibloor, Sanky lake should be treated well, before it spoils the health of whole banglore. Man can not leave without water but Water can leave without a man...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15- In the early 16th and 17 centuries, Bangalore has around 262 lakes and which has been reduced to 32 now. We should renovate the lost lakes and make it reusable. Atleast 50 more so that we will not have water scarcity.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16- Please clean all the water boides which are startting to collect sewage and actual garbage. Take strict action against people throiwng garbage into theese water channels. The exsiting few channels are being polluted in a matter of months, I have seen this change in my area - there is a stream which passes thrugh the hal central township. It is has started to colelct garbage in a span of 1year. PLease do something to avoid such disasdters to other water bodies like the one near dmlur flyover area.  Regards Raj
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17- What is the plan to actually protect the lakes and to raise the water table? There is no mention of RWH being mandated (and enforced) not only in apartments but also all over the city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19- Carvery water should be made available and need to stop illegal ground water extraction. Every housing should work towards water conservation and ground water recharge. Se of them are paper not in real.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25- Please create artificial lakes in and around the city. This can store rain water and also increase beautiness of this city and will provide place for  people for recreation.   I think big lakes in and around the city is the need of the hour.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28- If there is any pipeline broken(Drinking water line) or need to fix immediately, BWSSB will never be on time and there will be enormous amount of water pooled which i've seen/herd couple of times.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35- The proposed system is fine but what about it's maintenance, it's not just put the pipes and forget it.. There should be system to monitor it. And a proper system for sewage and care must be taken to see that there is no leakage/spillage of this drainage and Rajakaluve should be protected mostly as they are for purpose of rain water and not sewage water.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38- Many areas in bangalore still don't have proper water facilities they wait for 6 day's to fetch drinking water which is once a week and this horrible condition is around shampur govindpur and few more. Please help 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44- Also Water Mafia should be controlled, All citizens and government officials should be made aware that water is a resource and it doesn't belong to individuals. Government should meter the use of water at every home and bill for this usage even when owners of property own their own bore-well. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51- We Bangalorians have many lakes within and around the city. These lakes are not maintained, they are dirty. If we concentrate on cleaning and maintaining these lakes than Bengaluru will not face water crisis whole year. We can collect rain water in lakes and channelise this lake water for bathroom purpose, gardening, etc. We can learn to maintain lakes from Mumbai, Maharashtra. Mumbai is having only source of rain water for full year and that rain water is used even for every thing including drinking. Maintainence of lake should be started ASAP as Bengaluru is facing increase in water crisis year by year. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52- Due to enormous constructions of apartments, tech parks happening across the length &amp; breath of city, population has increased , so is the demand for water . In summer water levels go down &amp; citizens rely on tankers for water . Govt &amp; BBMP , other civic bodies need to think of reviving the lakes &amp; Add green cover to manage this crisis . 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53- Why are we looking at kavery water for every household in bangalore. why cant we look at our own lakes, revive them and reuse. this is some kind of scam too. Why cant BBMP help every household to do rainwater harvest.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54- Ensure that the cavery water is supplied regularly and check for leakages
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55- Clean water storage and clean lakes with green cover for a good rainfall within city limits. Rainwater harvesting mandatory for all buildings. Clean  and honest water management Board.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56- 1.quality of drinking water. 2.Renovating all lakes in the city. Re
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60- Rejuvenate water bodies and stop giving in for land mafia.I can't understand how can we not take care of lakes when we have 2 lakhs revenue in our budget. Come up with 5 year plan and ensure clean all lakes,so that people can trust your abilities and transparency in admission. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66- City should build facility to store the rain water it receives and use it for drinking purpose... Should not only depend on cauvery water...some of the lakes should be identified and restored for this purpose
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68- Rain water harvesting needs more focus
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70- Strict measures to be taken to repair the pipes asap when water pipes are broken to avoid wastage of water through leakage. There is also need to educate and create awareness about water conservation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75- Currently there is no proper supply of drinking water in many areas in Bengaluru. Where ever the existing lakes are there in and around Bengaluru, needs to be developed to increase the ground water level. Also it will be better to create Tree park to ensure the rain water does not flow out, but absorbed. In Government land dig the land for about 10 to 12 feet to collect the water during rainy days. This will ensure the ground water level increase.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77- Water is the main source for the people. we have to do proper plan and supply the water for each house. many people still they are using water. but they not paying the water bill to govt.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79- Concrete steps to be taken to conserve water as we see severe changes in climate last few years due to pollution. One step would be planting plants including fruit bearing/medicinal etc. along the both banks of the river Kaveri at least one kilometre on each side. so that ground water will increase in few years and steps also should be taken to manage waste from Industries and fine them if waste is not treated and being released into natural streams. Wastewater treatment plants to be constructed by the government for this purpose. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4- There is no mention how govt stops water mafia and groundwater exploitation. Rainwater harvesting is not still made mandatory. Also more technology should be used to identify water pilferage across the pipelines. Water rationing is must. Beyond certain usage, the price has to be increased significantly. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12- Rainwater must be absorbed as soon as it falls on the ground by remodelling rainwater drains. I can give technology for this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13- Recycling is most important, but the plan doesn't include any proposal to improve the ground water. Preservation of lakes and pond very important and should not make the lakes be the sewage facilities of bigger apartments inside Bangalore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26- Ground water level is decreasing rapidly in Bangalore, recycling water is not the only thing to be done, more innovative ideas should be thought through. Some of the factories use lot of water resources they must be forced use recycled water and also strict  regulations have to be made for these companies to have filters so that they don't pollute near by water bodies. Similar rules are required for big apartments which are getting water from borewells and tankers.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29- More innovative ways to solve water woes. Since Bengaluru is getting more drier every year, more water into our surrounding reserviors is needed. Prevent excessive pumping if underground water. Interlinking of rivers or smarter wats to provide for city's water needs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30- Ban producing water to cool drink companies, water problem solved in seconds
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34- Wanted to see our city to implement rain water storage so that ground water level increase and make bengaluru out of water problem. outer places to get drinking water through bengaluru if we do successfully installed rain water management 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39- Water is getting wasted day by day in Bengaluru and we as residents are ignoring that.  It’s time for us to wake up and find some solution to save water for the future
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40- Why water tanker lobby is not being penalized? Why its all black money. Why all water payment is not through digital.. And this is plain water. Why its being charged.. I can understand transportation charge but why its so high.. When will basic necessity of water being fulfilled by municipality. Let them charge as per the consumption but through private party is black money. Let it via "pay as you use" mode. North Bangalore is fully ignored by BWSSB,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42- 1. Make aerators compulsory for all buildings. They save a lot of water. 2. RO water purifiers are not needed in most areas. People who use them shd store the water water and use it for v Mopping , cleaning etc. 3.work with resident to tackle the problem of water leakage in pipes. 4. Do not harass residents of apt complex to retro fit STP. It's not feasible 5. Rain water harvesting should be encouraged. People should have incentives to do this. 6 .BWSSB shd advise people on how to install rain water harvesting systems.7. water saving methods should be taught at school and a gradual change in mind set will be seen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45- Have a question here, how many times can d water be recycled to ensure there is no reverse impact. Also this topic HV to be linked with environment to ensure a proper mileage is received. Work on realising ground water issue and work towards addressing that. Get in to registration and track consumption. This will hold wastage.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63- Again water tanckers are a menace. Where do they get the water from? and why is that water not available otherwise. We pay through our nose for the tankers. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69- Make water harvesting mandatory, recycling the water usage to best possible measure.   Ocean water to used in and around after treatment
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71- Even we know Bangalore as Lake city but we can see that now a days condition of lakes are not good. Few of them are more dirty and few of them are very close to dry state (not this year, because of heavy rain). We need to do some program/guidance to increase ground water level. For this again we have to encourage people to use water harvesting in their house/society. Gov has to make tough rules for builders/individual owners to make the provision for rain water harvesting and without that don't give any kind of approval for that project. We also have to ask builder/individual owner to make provision to use the wate water in the house/society in other way. For example, in any society we can make a provision to use the water which is going out from water filter. This water can be used for flush/plantation etc. There should be a dedicated pipe line to utilize this water. We also encourage people to use some new technologies so we can save some water during our general usage like (hand wash, brushing etc...) Again it will not be possible from active participation of public but gov must start awareness program and keep doing this regularly instead of just for name shake.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76- We are blessed with Mother Kaveri and we have to utilize water wisely, and management has to take more care on the same.  nowadays water is precious thing in the world, Management has to create awareness programs. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83- Not reassuring to include but then name someone else responsible.  Also evaluate how to cut water wastage and management of water during heavy rains... storm drains should be used to harvest water and there should be significant punishment/fine for dumping or adding things that will block drains, even if it is "yard waste only" 
-</t>
+    <t>{'response': '5- I would like to suggest that our storm water drains be made porous and incorporate recharge pits in them, so that the water outflow is reduced as a major part of the flow can get absorbed into the soil and restore the ground water . This simple system will recharge all the bore wells, open wells and also reduce the incidents of flooding.This has been implemented in many countries successfully and is is solution for the future of our cities.\n', 'score': 0.6373410396323231}</t>
+  </si>
+  <si>
+    <t>{'response': "6- I believe the government should also consider public rainwater harvesting and recharge to offset the huge amount of land that has been paved with roads and concreted over. My suggestion is to mandatory have bottom stones in roadside drains removed or replaced by seepage gratings every 30 feet. Zain addition there can be recharge pits constructed at low points in roads etc where overflow can be run off in the normal roadside drains. Water recharge by the govt on such a scale would augment small measures by people in their own residences or apartment complexes. If we continue taking out ground water at the rate we currently are and don't do something to recharge this precious resource in a thought out and proactive way our future generations in Bangalore will be doomed. Kind regards, Glenn Rego\n", 'score': 0.6705385218688232}</t>
+  </si>
+  <si>
+    <t>{'response': '10- Govt needs to come up with good plan to store water. Most of the areas in Bangalore are suffering from water deficiency. if this continues Bangalore will not have water in coming years.\n', 'score': 0.5432948621806694}</t>
+  </si>
+  <si>
+    <t>{'response': '11- stop the water mafia currently run by political goons\n', 'score': 0.38902784878656776}</t>
+  </si>
+  <si>
+    <t>{'response': '20- Unless there are major sewage treatments plants the problem of water contamination and loss of precious lakes cant be stopped, even at this point sewage treatment is still not considered as a major issue. The implementation of Rain Water Harvesting has not been completely. With the RWH facility we can improve the ground water table, which especially in Bangalore is depleting by the day.\n', 'score': 0.6691517838378843}</t>
+  </si>
+  <si>
+    <t>{'response': '21- As regarding storm water drains, they are closed by foot paths , as a result water is not being channeled into the drains .this is leading to flooding of roads. And also along with reviving lakes , air from.water systems on the lines of Israel needs to be looked into ..this can help.reduse dependence on cauvery water\n', 'score': 0.6345845745550069}</t>
+  </si>
+  <si>
+    <t>{'response': '22- Their is no water connection here at whitefield  bangalore\n', 'score': 0.4150230887840742}</t>
+  </si>
+  <si>
+    <t>{'response': '24- Plan for future water problems \n', 'score': 0.4890129058299051}</t>
+  </si>
+  <si>
+    <t>{'response': "31- how do you plan to tackle the water mafia?? they drain our water system and need to be monitored. checking on STP'S in large complexes is also to be considered\n", 'score': 0.6268213285003437}</t>
+  </si>
+  <si>
+    <t>{'response': '57- New areas added should be serviced by BBMP with schedule. Setting up water recycling centres at convenient nearby location is just a statement not necessarily to happen Locations should be identified now itself. Construction of duct along existing water line is must considering future expansions. Now existing water line and add recycled water line will be inside duct and should be large enough to add or replace with large did lines without digging the road. The number of inspection covers depend on length of a single pipe or flexible pipe.  Rain water harvesting should be made compulsory irrespective of the condition arra Storm water ducts on with side of road should have restricted flow barrages and several holes with tubing for water to seep in soil. Else, low-lying areas will be affected as happening now in several residential locations during monsoon. \n', 'score': 0.7114536993921374}</t>
+  </si>
+  <si>
+    <t>{'response': '61- Sewage water needs to be handled properly.\n', 'score': 0.667954114933616}</t>
+  </si>
+  <si>
+    <t>{'response': '62- Limited focus on improving water level in the city and identifying alternate source of supply of water to the city.\n', 'score': 0.5732554735416441}</t>
+  </si>
+  <si>
+    <t>{'response': '64- Need to provide basic water facility to Blore nearby areas to sustain the growth and City need to be decongested by developing nearby places like Anekal, Attibele, Sarjapura, Hoskote, DB Pura by BDA\n', 'score': 0.609260162631504}</t>
+  </si>
+  <si>
+    <t>{'response': '65- Create drainage system around lakes and bypass drainage water into this. Create a walking track and hangout place on the drainage canal  around the lake.\n', 'score': 0.6302645504699573}</t>
+  </si>
+  <si>
+    <t>{'response': '67- Also water leakage mechanism should be put in place\n', 'score': 0.5257718807969406}</t>
+  </si>
+  <si>
+    <t>{'response': '73- Request to treat the water from vrishabhavathi and make it a river front and tourist attraction\n', 'score': 0.5255433562362748}</t>
+  </si>
+  <si>
+    <t>{'response': '74- Making it mandatory to have Rain water harvesting system in an existing property and in newly built property is the only way to increase the ground water table in the city where there is very less ground available for the natural percolation. Another point is to convert all the existing lakes into sewage treatment plants with natural methods or for example as the lake Hussain Sagar in Hyderabad which is a tourist attraction but actually a sewage treatment plant.\n', 'score': 0.6845286295962411}</t>
+  </si>
+  <si>
+    <t>{'response': '78- The Master plan should aim to supply 24x7 supply as considered for other Smart cities. The main source being Cauvery needs to be effectively and potentially utilised. Citizens should be made aware of the value of water and needs an intensive training.\n', 'score': 0.5846573195961454}</t>
+  </si>
+  <si>
+    <t>{'response': '80- How does one get out of the Water mafia? A city dependent of private tankers for its citizens and expansion is risky and flawed. If the city cannot supply piped water supply to its citizens, BBMP / BWSSB should supply water out of the taxes we pay and not charged separately by private tankers. \n', 'score': 0.6102280092887861}</t>
+  </si>
+  <si>
+    <t>{'response': '81- Unless you provide water to private layout residents, your master plan is useless.\n', 'score': 0.5271145034620504}</t>
+  </si>
+  <si>
+    <t>{'response': '18- There has been no mention of encroachment of lakes and how the action be taken against the real estate mafia. And help existing apartments to help build STPs as it is expensive to build one and not enough space to build it. Or build a common STP for a couple of buildings on a sharing basis. \n', 'score': 0.6065500809757863}</t>
+  </si>
+  <si>
+    <t>{'response': '32- You still have the rule of dual piping and STP but not implemented \n', 'score': 0.5344624784943052}</t>
+  </si>
+  <si>
+    <t>{'response': "41- BDA, BWSSB and BBMP are collectively responsible for gross water misuse, water overdraft, aggravating the tensions between Karnataka and Tamil Nadu over sharing the Kaveri water, and depriving the village panchayats surrounding Bangalore of their fair share of water. Stringent limiting of water use (residential, commercial, industrial, agricultural) should have been put in place when the city's population crossed 5 million. In early 2018 the population is 10 million and the 3 agencies have no water rationing mechanism for the city. An allocation of about 600 litres/day per typical household (see pg 105 for the figures) is far too high for a metro that has lost three-quarters of its water bodies over the last two decades. Projecting a population of 20 million in 12 years with this water allocation per household is incomprehensible and shows just how far out of touch with hydrographic cycles the 3 agencies are.\n", 'score': 0.4776805195604647}</t>
+  </si>
+  <si>
+    <t>{'response': '43- Rains are more than substantial in Bengaluru and bbmp should consider storing these water in underground reservoirs in the time of need. Proper drainage channels will help in this regard.\n', 'score': 0.6233947019778948}</t>
+  </si>
+  <si>
+    <t>{'response': '49- In the plan, why BWSSB has no plans to recycle water and sell to the citizens by way of tankers/dedicated pipelines to big apartments. ?? They seem to be putting all the responsibility on the citizen even in the master plan!! Regarding Cauvery water supply, please have Tippagondahalli Reservoir functional by preventing misuse of land in and around it. It is a precious reservoir which has regained life after 2017 monsoon.. ensure its continuity so that it supplements cauvery water. \n', 'score': 0.6628249174073424}</t>
+  </si>
+  <si>
+    <t>{'response': '50- Before planning for new building and new areas.. please plan to fix current areas like bellandur which is known by other name water mafia by tankers\n', 'score': 0.5620101884497873}</t>
+  </si>
+  <si>
+    <t>{'response': '82- STP should be must for all new apartment so that recycled water can be used for toilets &amp; gardening \n', 'score': 0.7609352923854322}</t>
+  </si>
+  <si>
+    <t>{'response': '2- 24hours availability of water for recycled water should be ensured so that people need not have second overhead tank and can directly connect to toilets/garden. Rain water should not be let out of any site, but forced into rain-water pits, to improve ground water and reduced flooding.\n', 'score': 0.6723725485513491}</t>
+  </si>
+  <si>
+    <t>{'response': "7- Please collect rain water from houses near borewells and get the water into the borewell. Most house owners are doing only name sake rainwater harvesting. It's not enough to drill borewells and provide taps from common taps. These borewells need to be fed. Rainwater that is anyway flowing into drains can be diverted at the cost of BBMP so that this water is diverted back into the water table.\n", 'score': 0.6920087593517765}</t>
+  </si>
+  <si>
+    <t>{'response': '14- Waste water should be treated well to use it for city gardens, Bellandur,Ibloor, Sanky lake should be treated well, before it spoils the health of whole banglore. Man can not leave without water but Water can leave without a man...\n', 'score': 0.6401371059773953}</t>
+  </si>
+  <si>
+    <t>{'response': '15- In the early 16th and 17 centuries, Bangalore has around 262 lakes and which has been reduced to 32 now. We should renovate the lost lakes and make it reusable. Atleast 50 more so that we will not have water scarcity.\n', 'score': 0.5471539807686379}</t>
+  </si>
+  <si>
+    <t>{'response': '16- Please clean all the water boides which are startting to collect sewage and actual garbage. Take strict action against people throiwng garbage into theese water channels. The exsiting few channels are being polluted in a matter of months, I have seen this change in my area - there is a stream which passes thrugh the hal central township. It is has started to colelct garbage in a span of 1year. PLease do something to avoid such disasdters to other water bodies like the one near dmlur flyover area.  Regards Raj\n', 'score': 0.6252599224751054}</t>
+  </si>
+  <si>
+    <t>{'response': '17- What is the plan to actually protect the lakes and to raise the water table? There is no mention of RWH being mandated (and enforced) not only in apartments but also all over the city.\n', 'score': 0.6387429596634377}</t>
+  </si>
+  <si>
+    <t>{'response': '19- Carvery water should be made available and need to stop illegal ground water extraction. Every housing should work towards water conservation and ground water recharge. Se of them are paper not in real.\n', 'score': 0.5954023723493277}</t>
+  </si>
+  <si>
+    <t>{'response': '25- Please create artificial lakes in and around the city. This can store rain water and also increase beautiness of this city and will provide place for  people for recreation.   I think big lakes in and around the city is the need of the hour.\n', 'score': 0.6059771803366796}</t>
+  </si>
+  <si>
+    <t>{'response': "28- If there is any pipeline broken(Drinking water line) or need to fix immediately, BWSSB will never be on time and there will be enormous amount of water pooled which i've seen/herd couple of times.\n", 'score': 0.5282376294170964}</t>
+  </si>
+  <si>
+    <t>{'response': "35- The proposed system is fine but what about it's maintenance, it's not just put the pipes and forget it.. There should be system to monitor it. And a proper system for sewage and care must be taken to see that there is no leakage/spillage of this drainage and Rajakaluve should be protected mostly as they are for purpose of rain water and not sewage water.\n", 'score': 0.6499076155927348}</t>
+  </si>
+  <si>
+    <t>{'response': "38- Many areas in bangalore still don't have proper water facilities they wait for 6 day's to fetch drinking water which is once a week and this horrible condition is around shampur govindpur and few more. Please help \n", 'score': 0.5761759630609394}</t>
+  </si>
+  <si>
+    <t>{'response': "44- Also Water Mafia should be controlled, All citizens and government officials should be made aware that water is a resource and it doesn't belong to individuals. Government should meter the use of water at every home and bill for this usage even when owners of property own their own bore-well. \n", 'score': 0.6017665763461328}</t>
+  </si>
+  <si>
+    <t>{'response': '51- We Bangalorians have many lakes within and around the city. These lakes are not maintained, they are dirty. If we concentrate on cleaning and maintaining these lakes than Bengaluru will not face water crisis whole year. We can collect rain water in lakes and channelise this lake water for bathroom purpose, gardening, etc. We can learn to maintain lakes from Mumbai, Maharashtra. Mumbai is having only source of rain water for full year and that rain water is used even for every thing including drinking. Maintainence of lake should be started ASAP as Bengaluru is facing increase in water crisis year by year. \n', 'score': 0.6277516466548962}</t>
+  </si>
+  <si>
+    <t>{'response': '52- Due to enormous constructions of apartments, tech parks happening across the length &amp; breath of city, population has increased , so is the demand for water . In summer water levels go down &amp; citizens rely on tankers for water . Govt &amp; BBMP , other civic bodies need to think of reviving the lakes &amp; Add green cover to manage this crisis . \n', 'score': 0.613001344263304}</t>
+  </si>
+  <si>
+    <t>{'response': '53- Why are we looking at kavery water for every household in bangalore. why cant we look at our own lakes, revive them and reuse. this is some kind of scam too. Why cant BBMP help every household to do rainwater harvest.\n', 'score': 0.5589995055879288}</t>
+  </si>
+  <si>
+    <t>{'response': '54- Ensure that the cavery water is supplied regularly and check for leakages\n', 'score': 0.5512267224604962}</t>
+  </si>
+  <si>
+    <t>{'response': '55- Clean water storage and clean lakes with green cover for a good rainfall within city limits. Rainwater harvesting mandatory for all buildings. Clean  and honest water management Board.\n', 'score': 0.6505697852897168}</t>
+  </si>
+  <si>
+    <t>{'response': '56- 1.quality of drinking water. 2.Renovating all lakes in the city. Re\n', 'score': 0.503168257574078}</t>
+  </si>
+  <si>
+    <t>{'response': "60- Rejuvenate water bodies and stop giving in for land mafia.I can't understand how can we not take care of lakes when we have 2 lakhs revenue in our budget. Come up with 5 year plan and ensure clean all lakes,so that people can trust your abilities and transparency in admission. \n", 'score': 0.5564408580228054}</t>
+  </si>
+  <si>
+    <t>{'response': '66- City should build facility to store the rain water it receives and use it for drinking purpose... Should not only depend on cauvery water...some of the lakes should be identified and restored for this purpose\n', 'score': 0.7566333210673103}</t>
+  </si>
+  <si>
+    <t>{'response': '68- Rain water harvesting needs more focus\n', 'score': 0.5358129921274347}</t>
+  </si>
+  <si>
+    <t>{'response': '70- Strict measures to be taken to repair the pipes asap when water pipes are broken to avoid wastage of water through leakage. There is also need to educate and create awareness about water conservation.\n', 'score': 0.5824390544937379}</t>
+  </si>
+  <si>
+    <t>{'response': '75- Currently there is no proper supply of drinking water in many areas in Bengaluru. Where ever the existing lakes are there in and around Bengaluru, needs to be developed to increase the ground water level. Also it will be better to create Tree park to ensure the rain water does not flow out, but absorbed. In Government land dig the land for about 10 to 12 feet to collect the water during rainy days. This will ensure the ground water level increase.\n', 'score': 0.6873347750750984}</t>
+  </si>
+  <si>
+    <t>{'response': '77- Water is the main source for the people. we have to do proper plan and supply the water for each house. many people still they are using water. but they not paying the water bill to govt.\n', 'score': 0.6430795223303596}</t>
+  </si>
+  <si>
+    <t>{'response': '79- Concrete steps to be taken to conserve water as we see severe changes in climate last few years due to pollution. One step would be planting plants including fruit bearing/medicinal etc. along the both banks of the river Kaveri at least one kilometre on each side. so that ground water will increase in few years and steps also should be taken to manage waste from Industries and fine them if waste is not treated and being released into natural streams. Wastewater treatment plants to be constructed by the government for this purpose. \n', 'score': 0.6526370665060189}</t>
+  </si>
+  <si>
+    <t>{'response': '4- There is no mention how govt stops water mafia and groundwater exploitation. Rainwater harvesting is not still made mandatory. Also more technology should be used to identify water pilferage across the pipelines. Water rationing is must. Beyond certain usage, the price has to be increased significantly. \n', 'score': 0.6124435158690908}</t>
+  </si>
+  <si>
+    <t>{'response': '12- Rainwater must be absorbed as soon as it falls on the ground by remodelling rainwater drains. I can give technology for this.\n', 'score': 0.5812404160743115}</t>
+  </si>
+  <si>
+    <t>{'response': "13- Recycling is most important, but the plan doesn't include any proposal to improve the ground water. Preservation of lakes and pond very important and should not make the lakes be the sewage facilities of bigger apartments inside Bangalore.\n", 'score': 0.5725514939116035}</t>
+  </si>
+  <si>
+    <t>{'response': "26- Ground water level is decreasing rapidly in Bangalore, recycling water is not the only thing to be done, more innovative ideas should be thought through. Some of the factories use lot of water resources they must be forced use recycled water and also strict  regulations have to be made for these companies to have filters so that they don't pollute near by water bodies. Similar rules are required for big apartments which are getting water from borewells and tankers.\n", 'score': 0.6883368684168943}</t>
+  </si>
+  <si>
+    <t>{'response': "29- More innovative ways to solve water woes. Since Bengaluru is getting more drier every year, more water into our surrounding reserviors is needed. Prevent excessive pumping if underground water. Interlinking of rivers or smarter wats to provide for city's water needs.\n", 'score': 0.6160555829345398}</t>
+  </si>
+  <si>
+    <t>{'response': '30- Ban producing water to cool drink companies, water problem solved in seconds\n', 'score': 0.5851837790400722}</t>
+  </si>
+  <si>
+    <t>{'response': '34- Wanted to see our city to implement rain water storage so that ground water level increase and make bengaluru out of water problem. outer places to get drinking water through bengaluru if we do successfully installed rain water management \n', 'score': 0.6912736589926699}</t>
+  </si>
+  <si>
+    <t>{'response': '39- Water is getting wasted day by day in Bengaluru and we as residents are ignoring that.  It’s time for us to wake up and find some solution to save water for the future\n', 'score': 0.5928548259480835}</t>
+  </si>
+  <si>
+    <t>{'response': '40- Why water tanker lobby is not being penalized? Why its all black money. Why all water payment is not through digital.. And this is plain water. Why its being charged.. I can understand transportation charge but why its so high.. When will basic necessity of water being fulfilled by municipality. Let them charge as per the consumption but through private party is black money. Let it via "pay as you use" mode. North Bangalore is fully ignored by BWSSB,\n', 'score': 0.5535711147555208}</t>
+  </si>
+  <si>
+    <t>{'response': "42- 1. Make aerators compulsory for all buildings. They save a lot of water. 2. RO water purifiers are not needed in most areas. People who use them shd store the water water and use it for v Mopping , cleaning etc. 3.work with resident to tackle the problem of water leakage in pipes. 4. Do not harass residents of apt complex to retro fit STP. It's not feasible 5. Rain water harvesting should be encouraged. People should have incentives to do this. 6 .BWSSB shd advise people on how to install rain water harvesting systems.7. water saving methods should be taught at school and a gradual change in mind set will be seen.\n", 'score': 0.6409982914852097}</t>
+  </si>
+  <si>
+    <t>{'response': '45- Have a question here, how many times can d water be recycled to ensure there is no reverse impact. Also this topic HV to be linked with environment to ensure a proper mileage is received. Work on realising ground water issue and work towards addressing that. Get in to registration and track consumption. This will hold wastage.\n', 'score': 0.5759717517565766}</t>
+  </si>
+  <si>
+    <t>{'response': '63- Again water tanckers are a menace. Where do they get the water from? and why is that water not available otherwise. We pay through our nose for the tankers. \n', 'score': 0.5427523449359045}</t>
+  </si>
+  <si>
+    <t>{'response': '69- Make water harvesting mandatory, recycling the water usage to best possible measure.   Ocean water to used in and around after treatment\n', 'score': 0.7120135567585916}</t>
+  </si>
+  <si>
+    <t>{'response': "71- Even we know Bangalore as Lake city but we can see that now a days condition of lakes are not good. Few of them are more dirty and few of them are very close to dry state (not this year, because of heavy rain). We need to do some program/guidance to increase ground water level. For this again we have to encourage people to use water harvesting in their house/society. Gov has to make tough rules for builders/individual owners to make the provision for rain water harvesting and without that don't give any kind of approval for that project. We also have to ask builder/individual owner to make provision to use the wate water in the house/society in other way. For example, in any society we can make a provision to use the water which is going out from water filter. This water can be used for flush/plantation etc. There should be a dedicated pipe line to utilize this water. We also encourage people to use some new technologies so we can save some water during our general usage like (hand wash, brushing etc...) Again it will not be possible from active participation of public but gov must start awareness program and keep doing this regularly instead of just for name shake.  \n", 'score': 0.6327833954163826}</t>
+  </si>
+  <si>
+    <t>{'response': '76- We are blessed with Mother Kaveri and we have to utilize water wisely, and management has to take more care on the same.  nowadays water is precious thing in the world, Management has to create awareness programs. \n', 'score': 0.5522391874253029}</t>
+  </si>
+  <si>
+    <t>{'response': '83- Not reassuring to include but then name someone else responsible.  Also evaluate how to cut water wastage and management of water during heavy rains... storm drains should be used to harvest water and there should be significant punishment/fine for dumping or adding things that will block drains, even if it is "yard waste only" \n', 'score': 0.6452352123944233}</t>
   </si>
 </sst>
 </file>

--- a/bert/word embeddings and similarity matrix/model/results.xlsx
+++ b/bert/word embeddings and similarity matrix/model/results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="1001">
   <si>
     <t>All government buildings and parks must be accessible by wheelchair as well, with ramps for entry, preferably at the front of the building</t>
   </si>
@@ -66,22 +66,22 @@
 </t>
   </si>
   <si>
-    <t>{'response': '5- The accessible places like side walks and footpaths are all taken up by the shop.keepers and advertising boards. What is left is then taken up for Gurkha and paan shops. Can we please have the side walks back for use by Bangaloreans.\n', 'score': 0.5988247269531625}</t>
-  </si>
-  <si>
     <t>{'response': "14- It would be wonderful to have flat, usable pavements on every street with NO access to bikes and cars since this happens too often and pedestrians, particularly senior citizens, have great difficulty walking.  Rather than building ugly, expensive foot over bridges, the authorities must ensure that zebra crossings are respected and vehicles that don't stop are heavily fined.\n", 'score': 0.7132509361109471}</t>
   </si>
   <si>
     <t>{'response': '15- The plan must quantify the developments needed whether it is footpaths, FoBs or any other such facilities for pedestrians. There is a huge difference between what the officials consider footpaths that are in a condition to use, apathy to footpaths that are broken/encroached. Apathy among officials and vehicle users towards pedestrians wanting to cross roads is very high. Both of these issues need to be addressed with highest priority in a transparent and time bound manner.\n', 'score': 0.639119639327004}</t>
   </si>
   <si>
+    <t>{'response': '5- The accessible places like side walks and footpaths are all taken up by the shop.keepers and advertising boards. What is left is then taken up for Gurkha and paan shops. Can we please have the side walks back for use by Bangaloreans.\n', 'score': 0.610811495081554}</t>
+  </si>
+  <si>
     <t>{'response': '19- All footpath encroachment should be cleared. All footpaths should be repaired. \n', 'score': 0.4692986141717593}</t>
   </si>
   <si>
-    <t>{'response': '27- Even, well planned footpaths (no ups and downs), no encroachment by shops, prevent misuse of footpath for dumping stuff or as parking.\n', 'score': 0.4969128915946865}</t>
-  </si>
-  <si>
-    <t>['4- To create gardens more.parks in each locality. Good roads without potholes. To grow trees on either side of the road. Escalator to be installed at sky walk for senior citizens. Good conveyance in the form of bus. Auto. Cabs. Metro. And rail. Good drainage without over flowing in rainy season. Good shelter near bus stop. Wash rooms or toilet near bus stop. With good maintainance.\n', '18- Build big arterial roads for sub urban networks\n', '21- Though there has been efforts to improve the standard of footpaths, they end up being encroached by the illegal vendors and petty shops and forcing the pedestrians to walk on the roads and risk their lives. On many newly laid footpaths, the existing telephone exchange boxes or other utilities are not removed or relocated. These again forces pedestrians to walk on road.\n']</t>
+    <t>{'response': '27- Even, well planned footpaths (no ups and downs), no encroachment by shops, prevent misuse of footpath for dumping stuff or as parking.\n', 'score': 0.38701583054034544}</t>
+  </si>
+  <si>
+    <t>['18- Build big arterial roads for sub urban networks\n', '4- To create gardens more.parks in each locality. Good roads without potholes. To grow trees on either side of the road. Escalator to be installed at sky walk for senior citizens. Good conveyance in the form of bus. Auto. Cabs. Metro. And rail. Good drainage without over flowing in rainy season. Good shelter near bus stop. Wash rooms or toilet near bus stop. With good maintainance.\n', '21- Though there has been efforts to improve the standard of footpaths, they end up being encroached by the illegal vendors and petty shops and forcing the pedestrians to walk on the roads and risk their lives. On many newly laid footpaths, the existing telephone exchange boxes or other utilities are not removed or relocated. These again forces pedestrians to walk on road.\n']</t>
   </si>
   <si>
     <t>['6- Bangalore need to be planned properly \n']</t>
@@ -90,49 +90,49 @@
     <t>['9- Until implemented, the plan is not satisfactory.\n']</t>
   </si>
   <si>
-    <t>['23- Roads are damaged from Doddamara to mahaveer orchids apartment. Please requesting to fix it as there are many incidents happening\n', '11- Please get our footpaths and greenary back. \n']</t>
+    <t>['11- Please get our footpaths and greenary back. \n', '23- Roads are damaged from Doddamara to mahaveer orchids apartment. Please requesting to fix it as there are many incidents happening\n']</t>
   </si>
   <si>
     <t>['25- Good thoughts, and will be helpful if implemented in a time bound manner.\n']</t>
   </si>
   <si>
+    <t>{'response': '26- The proposal is really good, but before implementing those, we need to find the existing problems in all the footpaths in Bengaluru and solve using the universal design principles and without harming the environmental beauty.\n', 'score': 0.5066485315289067}</t>
+  </si>
+  <si>
     <t>{'response': '7- The plan looks nice. Will have to implement properly. Permission should be taken from local RWA before any relevant infrastructure is dismantled/dug up. \n', 'score': 0.3394738718177475}</t>
   </si>
   <si>
-    <t>{'response': '26- The proposal is really good, but before implementing those, we need to find the existing problems in all the footpaths in Bengaluru and solve using the universal design principles and without harming the environmental beauty.\n', 'score': 0.5066485315289067}</t>
-  </si>
-  <si>
-    <t>{'response': '1- Happy but wondering, why do we need time till 2031 to do this. Cant we divide the city into zone and start the up gradation of these and complete it 2 years? \n', 'score': 0.4943022294754004}</t>
-  </si>
-  <si>
-    <t>{'response': "2- When normal people walk on Bengaluru footpaths they become differently abled in a couple of days. Can't imagine how these poor people will manage. \n", 'score': 0.7265030243338139}</t>
-  </si>
-  <si>
-    <t>{'response': '3- Keep connectivity between metro stations with major hubs using shared vehicle or other means.Though the metro service is so good and better,when it comes with the other transportation system in the city the comfort and gility provided by metro totally nullifies. Apply tocken system to cabs and vehicles which interconnects the major destinations through metro stations\n', 'score': 0.5004975229098635}</t>
-  </si>
-  <si>
-    <t>{'response': "10- As stated in my previous feedback. It's a great plan but it all comes down to its execution. Please make sure, honest people are involved in this and no corruption should be there.  \n", 'score': 0.4913103375234361}</t>
-  </si>
-  <si>
-    <t>{'response': "12- In normal city bus, it's impossible to move wheel chair inside the bus but in ac bus it's good and the bus is not stopping properly it's risky for elder people to get in and out into the running bus \n", 'score': 0.6635530415289946}</t>
-  </si>
-  <si>
-    <t>{'response': '13- Even though the poles are there to prevent people from driving on footpaths, still people dive on them.... So it would be more helpful if that is kept in check\n', 'score': 0.5723784894889719}</t>
-  </si>
-  <si>
-    <t>{'response': '16- Bus, Trains and other government and private office should have special attention to differently abled and senior citizens\n', 'score': 0.637160089490381}</t>
-  </si>
-  <si>
-    <t>{'response': '17- Over the last 3 decades we have scored very poorly in creating  infrastructure that ensured differently abled people were able to enjoy the city and move around with easy. The BDA plan envisaged is good, only that rigorous and ruthless implementation will ensure that this project takes off and gets completed within time.\n', 'score': 0.6646829219274063}</t>
-  </si>
-  <si>
-    <t>{'response': '20- 1. There is a concept in the western world called a "power weekend“. Big projects are handled on the weekend when there is less traffic. And alternate arrangements/ routes are made in advance and citizens informed through all channels. 2. Make water/sewage pipes have a surface that can be opened when needed, so roads don’t need to be dug up time and again. If an agency digs the road, it has to ensure it‘s repaired. 3. Ensure the wheel chair access is not used by motorists. 4. Widen roads. Most broad roads in Bangalore end up in tiny alleys!! 5. Use the best people for the project, don’t go by least quoted amount, value quality.  6. Maintenance will decide how long the quality lasts. Ensure regular checks. 7. Be incorruptible. Money is transitory, the name of the person making a difference will be remembered forever!\n', 'score': 0.5928211628034226}</t>
-  </si>
-  <si>
-    <t>{'response': '22- Mass Transportation not available from sarjapur road to electronic city and roads are preety narrow\n', 'score': 0.37539976762914207}</t>
-  </si>
-  <si>
-    <t>{'response': '24- Right now a physically handicapped person cannot walk on the road. No proper accessibility any of the government building. There are so much to for differently abled people\n', 'score': 0.705154552253784}</t>
+    <t>{'response': "2- When normal people walk on Bengaluru footpaths they become differently abled in a couple of days. Can't imagine how these poor people will manage. \n", 'score': 0.6688525547564991}</t>
+  </si>
+  <si>
+    <t>{'response': "12- In normal city bus, it's impossible to move wheel chair inside the bus but in ac bus it's good and the bus is not stopping properly it's risky for elder people to get in and out into the running bus \n", 'score': 0.6651565471144053}</t>
+  </si>
+  <si>
+    <t>{'response': '17- Over the last 3 decades we have scored very poorly in creating  infrastructure that ensured differently abled people were able to enjoy the city and move around with easy. The BDA plan envisaged is good, only that rigorous and ruthless implementation will ensure that this project takes off and gets completed within time.\n', 'score': 0.651424940797203}</t>
+  </si>
+  <si>
+    <t>{'response': '24- Right now a physically handicapped person cannot walk on the road. No proper accessibility any of the government building. There are so much to for differently abled people\n', 'score': 0.6383123392196424}</t>
+  </si>
+  <si>
+    <t>{'response': '20- 1. There is a concept in the western world called a "power weekend“. Big projects are handled on the weekend when there is less traffic. And alternate arrangements/ routes are made in advance and citizens informed through all channels. 2. Make water/sewage pipes have a surface that can be opened when needed, so roads don’t need to be dug up time and again. If an agency digs the road, it has to ensure it‘s repaired. 3. Ensure the wheel chair access is not used by motorists. 4. Widen roads. Most broad roads in Bangalore end up in tiny alleys!! 5. Use the best people for the project, don’t go by least quoted amount, value quality.  6. Maintenance will decide how long the quality lasts. Ensure regular checks. 7. Be incorruptible. Money is transitory, the name of the person making a difference will be remembered forever!\n', 'score': 0.6316057828851798}</t>
+  </si>
+  <si>
+    <t>{'response': '13- Even though the poles are there to prevent people from driving on footpaths, still people dive on them.... So it would be more helpful if that is kept in check\n', 'score': 0.5980065949035661}</t>
+  </si>
+  <si>
+    <t>{'response': '16- Bus, Trains and other government and private office should have special attention to differently abled and senior citizens\n', 'score': 0.5667332085399336}</t>
+  </si>
+  <si>
+    <t>{'response': "10- As stated in my previous feedback. It's a great plan but it all comes down to its execution. Please make sure, honest people are involved in this and no corruption should be there.  \n", 'score': 0.5185690307669081}</t>
+  </si>
+  <si>
+    <t>{'response': '3- Keep connectivity between metro stations with major hubs using shared vehicle or other means.Though the metro service is so good and better,when it comes with the other transportation system in the city the comfort and gility provided by metro totally nullifies. Apply tocken system to cabs and vehicles which interconnects the major destinations through metro stations\n', 'score': 0.4937196176469003}</t>
+  </si>
+  <si>
+    <t>{'response': '1- Happy but wondering, why do we need time till 2031 to do this. Cant we divide the city into zone and start the up gradation of these and complete it 2 years? \n', 'score': 0.487089084390846}</t>
+  </si>
+  <si>
+    <t>{'response': '22- Mass Transportation not available from sarjapur road to electronic city and roads are preety narrow\n', 'score': 0.34449510955465257}</t>
   </si>
   <si>
     <t>{'response': '8- Need more facilities for the disabled to travel through the city.\n', 'score': 0.46360791851001026}</t>
@@ -153,19 +153,19 @@
 </t>
   </si>
   <si>
-    <t>{'response': '3- Train citizens on how to act when a fire /flood other event occurs \n', 'score': 0.48983952121942037}</t>
-  </si>
-  <si>
-    <t>{'response': '4- (1) Can you ensure every locality has two or more roads with free access for one ambulance, 2 fire engines with access to water in case of an emergency. (2) Remember the 2010 Carlton Tower old airport road fire when 8 fire engines could hardly reach to the spot in time and most did not have enough water and roads were blocked by passer-byes. \n', 'score': 0.7264708650384374}</t>
-  </si>
-  <si>
-    <t>{'response': '6- Nowhere in the Master plan, I see that the infrastructure for emergency teams such as ambulances. we increasingly see that the infra for such we have is very bad, infact my personal experience is seeing the ambulances and fire engines going so slow, I personally was able to comfortably overtake them without adding any effort. Also rules around emergency vehicles and general vehicles making path for them\n', 'score': 0.6240196180183947}</t>
+    <t>{'response': '4- (1) Can you ensure every locality has two or more roads with free access for one ambulance, 2 fire engines with access to water in case of an emergency. (2) Remember the 2010 Carlton Tower old airport road fire when 8 fire engines could hardly reach to the spot in time and most did not have enough water and roads were blocked by passer-byes. \n', 'score': 0.7248275986093052}</t>
+  </si>
+  <si>
+    <t>{'response': '6- Nowhere in the Master plan, I see that the infrastructure for emergency teams such as ambulances. we increasingly see that the infra for such we have is very bad, infact my personal experience is seeing the ambulances and fire engines going so slow, I personally was able to comfortably overtake them without adding any effort. Also rules around emergency vehicles and general vehicles making path for them\n', 'score': 0.6339531264855045}</t>
+  </si>
+  <si>
+    <t>{'response': '3- Train citizens on how to act when a fire /flood other event occurs \n', 'score': 0.500404776789713}</t>
   </si>
   <si>
     <t>['2- 1. In volume 3- Master plan document, Clause no 13.3.1 Earthquake - old IS 1893 -2002 Is mentioned, but latest code is IS 1893- 2016. Kindly update. 2. In clause 13.3.1 under mitigation following can be included " softstory in a structure to be designed considering all codal requirements". 3. SUGGESTION:  sanction submission document by owner/developer shall contain structural drawings and design report (structural framing with sizes ,column positions with sizes, expansion joint, footing type and layout....etc) \n']</t>
   </si>
   <si>
-    <t>["7- Blocked Rajakaluve is making disaster in the sorounding area in the rainy season. The drinage water enters into the sorounding house's. \n", '5- The proposal for secondary stream in  HSR sector 3 is unscientific and illogical.  This is only going to create a bigger disaster given the design and location of the secondary stream and will not solve any problem.  Appears like either enough thought process has not gone in while designing or the design is made in the interest of greedy bureaucrats and rally Estate people. Close to 100 objections have been made in this regard. \n', '11- Build roads that absorb water.it is helpful to manage water in roads in rainy season\n']</t>
+    <t>['11- Build roads that absorb water.it is helpful to manage water in roads in rainy season\n', '5- The proposal for secondary stream in  HSR sector 3 is unscientific and illogical.  This is only going to create a bigger disaster given the design and location of the secondary stream and will not solve any problem.  Appears like either enough thought process has not gone in while designing or the design is made in the interest of greedy bureaucrats and rally Estate people. Close to 100 objections have been made in this regard. \n', "7- Blocked Rajakaluve is making disaster in the sorounding area in the rainy season. The drinage water enters into the sorounding house's. \n"]</t>
   </si>
   <si>
     <t>['9- Action needed on land encroachment\n']</t>
@@ -180,16 +180,16 @@
     <t>['15- The hazard risk assessment does not identify terrorist attack as a risk. \n']</t>
   </si>
   <si>
+    <t>{'response': '8- personally, I do not feel that the city is well equipped with enough rescue team nor plan in the time of a disaster. eg, even when the rain had played havoc it was very evident that there is no planning but just buildings coming up.\n', 'score': 0.6256876474745312}</t>
+  </si>
+  <si>
+    <t>{'response': '13- Rain water drains should be monitored.  Water stagnated areas should be identified.  Lakes enchrochers should be punished severely.  Roads and buildings should be accessed by Fire fighting vehicles\n', 'score': 0.6223193149494272}</t>
+  </si>
+  <si>
+    <t>{'response': '14- The plan is good...please give approvals only to construction which obey the rules for safety\n', 'score': 0.4782528987463542}</t>
+  </si>
+  <si>
     <t>{'response': '1- Happy with the plan but implementation is very important.\n', 'score': 0.3603179343985956}</t>
-  </si>
-  <si>
-    <t>{'response': '8- personally, I do not feel that the city is well equipped with enough rescue team nor plan in the time of a disaster. eg, even when the rain had played havoc it was very evident that there is no planning but just buildings coming up.\n', 'score': 0.6256876474745312}</t>
-  </si>
-  <si>
-    <t>{'response': '13- Rain water drains should be monitored.  Water stagnated areas should be identified.  Lakes enchrochers should be punished severely.  Roads and buildings should be accessed by Fire fighting vehicles\n', 'score': 0.6223193149494272}</t>
-  </si>
-  <si>
-    <t>{'response': '14- The plan is good...please give approvals only to construction which obey the rules for safety\n', 'score': 0.4782528987463542}</t>
   </si>
   <si>
     <t xml:space="preserve">Bengaluru’s education needs are met for primary and higher education
@@ -218,163 +218,163 @@
     <t>{'response': '17- First of all education system must change I think it is the solution for all the problems.we must change the way of teaching and the syllabus(considering the present scope) for primary and secondary education\n', 'score': 0.6725170989230987}</t>
   </si>
   <si>
+    <t>{'response': '32- Quality of Education needs to be improved\n', 'score': 0.5857613234167562}</t>
+  </si>
+  <si>
     <t>{'response': '22- To cater the healthcare problems, this city needs 4-5 world class medical colleges. These should produce around 1000 doctors minimum every year. Every govt hospital should be corruption free and should charge a amount which can be affordable to lower society of the city.  Govt should start a health insurance  for every resident of Bangalore by charging a minimal premium. This can bring down the health cost to govt and the people. Since not every person will be sick at the same time.\n', 'score': 0.5545200145643276}</t>
   </si>
   <si>
-    <t>{'response': '32- Quality of Education needs to be improved\n', 'score': 0.5857613234167562}</t>
-  </si>
-  <si>
     <t>['14- System is not good\n']</t>
   </si>
   <si>
-    <t>['24- Better educational standards are mandatory rather than just increasing the number of schools. Effective, Quality learning is always a top priority.\n', "19- It's not just about the facilities that is important.  Well, we have to engineer the mindsets of the future generations. It's a very important thing for us to do. Our educational system is been bizzare comparatively to other countries and it's a night time for us to really take this up seriously and let's be more open to everything and appreciate individuality in the best way possible. By this, it helps us live in a better and a sensible manner. \n"]</t>
+    <t>["19- It's not just about the facilities that is important.  Well, we have to engineer the mindsets of the future generations. It's a very important thing for us to do. Our educational system is been bizzare comparatively to other countries and it's a night time for us to really take this up seriously and let's be more open to everything and appreciate individuality in the best way possible. By this, it helps us live in a better and a sensible manner. \n", '42- How do you ensure quality of staff and maintainence of the facilities\n']</t>
   </si>
   <si>
     <t>['23- We are not teaching ! We are following the syllabus\n']</t>
   </si>
   <si>
+    <t>['24- Better educational standards are mandatory rather than just increasing the number of schools. Effective, Quality learning is always a top priority.\n']</t>
+  </si>
+  <si>
     <t>['36- Education in Bangalore is getting too expensive and more commercial making it difficult for middle class families to afford\n']</t>
   </si>
   <si>
     <t>['38- There should also be a cut-off on the fees and ban on donation so that the deserved gets the best and all schools are affordable to all.. \n']</t>
   </si>
   <si>
-    <t>['42- How do you ensure quality of staff and maintainence of the facilities\n']</t>
-  </si>
-  <si>
     <t>['55- Education must be made affordable by capping the fees structure\n']</t>
   </si>
   <si>
     <t>{'response': '16- Please include a subject on(C.P.C.R)for the school kids.Which includes about first aid to be given to an accident victim.\n', 'score': 0.45697240101079434}</t>
   </si>
   <si>
+    <t>{'response': '49- Education institutions are seen as money making centers...give schools should be strong enough to compete with private school.. Rich n poor both should b able to afford same kind of education in the society.... teacher recruitment procedure should b changed\n', 'score': 0.7443398240089827}</t>
+  </si>
+  <si>
+    <t>{'response': '27- Apart from having a sufficient number of schools accessible to all, it is really necessary to focus on quality so that public schools have more uniform standards, making it possible for children to neighbourhood schools thereby reducing traffic. It is also imperative to educate children about the history, language and culture of Bengaluru so that they are better integrated in the city unlike the current situation where there is a complete cultural and linguistic erosion. More effort needs to be made to make children citizens of the city who contribute to its betterment.\n', 'score': 0.74407324111983}</t>
+  </si>
+  <si>
+    <t>{'response': '8- Why are govt schools maintained bad. Why there is no effort in making better then private. Why let thrive private institutions rule the Roost in such a advance city?? Why Education has become business?? \n', 'score': 0.7399368098599405}</t>
+  </si>
+  <si>
+    <t>{'response': '45- Schools are there but is the curriculum right to teach empathy and social and ecological responsibility to children? We need to make sure we are bringing up responcible children who through mandatory social projects get involved on a daily basis. And yes make the schools simpler and more child friendly.\n', 'score': 0.7308273353969839}</t>
+  </si>
+  <si>
+    <t>{'response': '20- It is not enough if more Govt Schools are set up. Problem is no one including economically weaker sections of the society would like to send their children to Govt Schools. So quality of schools should be better. Environmental studies in greater detail should be essential part of curriculum. Children should be made aware of noise and air pollution. There can be incentive for children who walk to schools or use public transport as opposed to getting dropped by parents. This way children will become aware of using public transport. Parents too should be educated on environmental issues periodically.\n', 'score': 0.7247867026324362}</t>
+  </si>
+  <si>
+    <t>{'response': '48- Government schools need to be equipped with modern facilities and updated with technology. The standard of education needs to be raised. \n', 'score': 0.722879284335694}</t>
+  </si>
+  <si>
+    <t>{'response': '43- There aren’t many options for children with special needs. Need a mandate for most of mainstream schools to include facilities for special needs as well. Also need monetary support from government and private institutions to support special needs children as its really expensive to support their needs.\n', 'score': 0.7209470072756111}</t>
+  </si>
+  <si>
+    <t>{'response': "37- The conditions of government schools are beyond pathetic.  It's not only about accessibility, it is also about the quality of education and a quality conditions of the schools.  You must pay attention and take into account increasing the funds to the government schools and put in place a system to monitor those funds are effectively utilised by the authorities of the schools.  Not everyone can afford private schools and hence the future of many children is at risk due to lack of quality education and health \n", 'score': 0.7152073154566926}</t>
+  </si>
+  <si>
+    <t>{'response': '10- Govt should plan for transportation facilities to provide  all primary and higher education students above 1 kms. There should be free of cost.\n', 'score': 0.7145749215365299}</t>
+  </si>
+  <si>
+    <t>{'response': "6- In any city only privates schools are good not the government ones. Even though fees are high, quality of education provided is better than the government schools. This is my opinion. Some kids don't even know basic addition. So they can't be blamed. We need to get teachers trained too. Not just female teachers, but male teachers too. Nowadays, teachers don't get the respect that they should. Karnataka can follow the Delhi model wherein public schools are getting improved, also more kids are leaving private schools to join public schools. Improve the infrastructure of the government schools. Digitize all sorts of necessary processes both in government and in private. Education in karnataka is not merely equal to education in Bengaluru. Develop schools in the other districts as well. Don't make school children burden by  carrying such heavy bags. It would be better if this is implemented. Nowadays, school is not a place to learn, but to get a 10th certificate. Let all schools tie up with edu start-ups. Same goes to colleges and universities also. Let certain universities have a MOU with foreign universities. Truly speaking graduating from a VTU college is not worth it compared to NITs and IITs even though considering the fact that karnataka is an educational hub of India. Make the students industry ready. Improve research facilities. \n", 'score': 0.7140870334471405}</t>
+  </si>
+  <si>
+    <t>{'response': '51- Upgrade government schools to at least to satisfaction level where one can breath easily and send their children to schools. Policy may be done to restrict fee structure of private schools. Encourage government employees to join their children to government schools and get tax exemption and other benefits. Educating government school children about the future opportunities in various sectors.  Link some of the volunteer companies to schools so that they can incorporate various programmes at schools.\n', 'score': 0.710860558879521}</t>
+  </si>
+  <si>
+    <t>{'response': "15- I am an active volunteer in the educational background and I've been to government schools on a regular basis for around 3 years to engage students in certain recreational activities and also outside the syllabus learning. I have observed that the government schools lacks: 1. complete infrastructure,  2. awareness about the importance of education among the students,  3. interest among teachers.   The first issue needs urgent attention as few schools lack toilets for students and thus creates an impact on their attendance.  There's also need for basic laboratory facilities so that the students learn science with the help of experiments under supervision. This creates interest among students to pursue the career of their choice.  There needs to be a well stacked library for the students so that they can read inspirational books to develop a good character and become a responsible citizen in the society.   The students should also be provided with facilities to support their extra-curricular activities like sports, dance, singing, art among others. This gives a great platform and confidence for the students to follow their passion.  The second issue is solved when we provide enough opportunities for the students by solving the first issue. The importance of education should be known to every student and their parents because lot of students drop out of school due to financial or social issues. This needs to addressed by counseling the parents and informing them about the facilities provided by government to promote education.  And the lack of interest among the teachers is a well known issue in government schools. This needs quick attention since a student learns from their teacher.  Teachers need to be selected based on merit and their interest for teaching. If this is done, the government is successful in promoting education for all.\n", 'score': 0.7087974165706111}</t>
+  </si>
+  <si>
+    <t>{'response': '31- How about the school fees. Parents who want to give good education to their children back out in sending them to good schools due to the fees charged by these institutions\n', 'score': 0.7086547071486544}</t>
+  </si>
+  <si>
+    <t>{'response': '25- Education management in government schools should be at par with private institutions. Replicate American methodology to improve government schools. Infrastructure should be improved by using JNuRm funds, adopt CBSE curriculum, train teachers, monitor with access control for Teachers, improve sports facilities in government schools, uniform and shoes should be freely given to children, neat and higenic etiquette to children, security, activities, online education should be introduced to government schools. \n', 'score': 0.7082463006710863}</t>
+  </si>
+  <si>
+    <t>{'response': '33- Instead of increasing the number of schools, focus should be on improving the quality of education in the current schools. To ensure teachers come to schools regularly and take the classes. \n', 'score': 0.6962509382462455}</t>
+  </si>
+  <si>
+    <t>{'response': '44- Education and Health needs Must be at very very low cost and the future is like the private schools shd start compete with govt schools.\n', 'score': 0.6934038968205314}</t>
+  </si>
+  <si>
+    <t>{'response': '29- We have to make education affordable to common man with amenities to encourage sports etc apart from studies which is very expensive today\n', 'score': 0.685899611945862}</t>
+  </si>
+  <si>
+    <t>{'response': '53- Do we really need so many kinder gardens and primary schools. It is an burden on children as children as young as 2 years are put into care homes or kinder gardens. As an result more institutions are created for making money and are often industries or factories processing kids. On an average at least one of the married couple husband or wife will have an minimum qualification of graduation. Hence they can educate them at home until they are 5 or 6yrs old which is safe for parents and kids, it will discourage the greedy education industry, no risk of transport or crime or unhealthy food. So if the government comes up with an online certification or common examination centre where it can provide some assessments or grades for kids especially age 3 to 5 years annually and make it completely legal which will help them in entering primary schools. Many problems can be solved. An policy needs to be developed for home based education.\n', 'score': 0.6840054263029751}</t>
+  </si>
+  <si>
+    <t>{'response': '41- The statement or details at a superficial level might make sense but specific details and policies are required to implement this. How is BDA going to ensure playgrounds are provided when they themselves have sold these so called playgrounds for other private parties all these years? How are they going to ensure, such encroachment is prevented? How are they ensuring that all such facilities are provided equally and not as an eyewash?\n', 'score': 0.6727795646375881}</t>
+  </si>
+  <si>
+    <t>{'response': '54- There needs to be a ceiling on school fees in private schools following the Indian syllabus\n', 'score': 0.6700956997881945}</t>
+  </si>
+  <si>
+    <t>{'response': '2- None of the above says anything about improving the quality of education in the govt schools.Sad. Increasing the number of schools is not going to solve the problem. One example is , in kadugodi area even a daily laborer is sending their kids to private schools as the quality of education in govt schools is not good.  Primary goal should be to increase the quality in the govt schools.\n', 'score': 0.666713562643139}</t>
+  </si>
+  <si>
+    <t>{'response': '39- Good plan but also private schools fee annually 10 to 30%hike it is really a burden for parents even if both are working try to get to a standard less than 10% across all the private schools \n', 'score': 0.6634726413885872}</t>
+  </si>
+  <si>
+    <t>{'response': "3- Besides just setting up of schools, There needs to be monitoring of what's being taught in the school. The curriculum needs to be more streamlined and focused with government schools having someone to oversee them. Such that all funds are being used correctly and that the fund are being received by the schools. \n", 'score': 0.6562275107388326}</t>
+  </si>
+  <si>
+    <t>{'response': "40- The fee structure is too high nowadays for school.  Please try to limit the school fees it's getting high year after year,  not everybody can afford the amount private schools are offering \n", 'score': 0.6539595656428774}</t>
+  </si>
+  <si>
+    <t>{'response': '18- Apart from this there needs to be compulsory practice of cleanliness as well as good environmental practices to be done at school levels, educating children and in turn educating parents for a better education and a better Bangalore \n', 'score': 0.6528932560785848}</t>
+  </si>
+  <si>
+    <t>{'response': '50- Education has become a business which is more profitable. Alternate education system should come up\n', 'score': 0.6522006227309186}</t>
+  </si>
+  <si>
+    <t>{'response': '35- I am part of a voluntary group that teaches science, Math and English to govt/community schools. The quality of teachers and education imparted is below the required standard. Stidents need a life cach who will change thir attitude towards life in general and learning will happen as a positive bye product.\n', 'score': 0.6485533455316955}</t>
+  </si>
+  <si>
+    <t>{'response': '5- Private schools should not be allowed to implement fees on their own. An educational body should be constituted and recommend the fees that can be charged.l\n', 'score': 0.6457274015796545}</t>
+  </si>
+  <si>
+    <t>{'response': '9- Shoud make all the public goverment schools to same standard as equal to Pvt schools.\n', 'score': 0.6438234627341991}</t>
+  </si>
+  <si>
+    <t>{'response': '13- Take care of government schools\n', 'score': 0.6409971793967181}</t>
+  </si>
+  <si>
+    <t>{'response': '28- Ours is the worst education system as the students are under immense pressure only to score high marks .They are not focused on practical and logical knowledge and generally never encouraged on deep thinking and new ideas.Also good education is very expensive.An well educated society will definitely make a better world. \n', 'score': 0.6145631654538334}</t>
+  </si>
+  <si>
+    <t>{'response': '46- Quality of governament schools should be improved and try to bring it to par with private schools\n', 'score': 0.6111337715441344}</t>
+  </si>
+  <si>
+    <t>{'response': '52- The focus of the Education has to shift from information to creating interest. From competition to inclusion. Education system to be tweaked so that children learn and enjoy the process of learning rather than focussing on getting marks. This is required if we are really bothered about the future of our children and the future of our country.\n', 'score': 0.6062730827852718}</t>
+  </si>
+  <si>
+    <t>{'response': '26- Good idea. This means access to quality education by everyone.\n', 'score': 0.6048112255937006}</t>
+  </si>
+  <si>
+    <t>{'response': '30- Need to regulate the fees for pvt school as well, The education is like a business now. Need to have some cap on this\n', 'score': 0.5829016277039608}</t>
+  </si>
+  <si>
+    <t>{'response': "21- Their should be a control over the fee structures of Colleges. The common people of bangalore can't afford the education nowadays \n", 'score': 0.5803910583271408}</t>
+  </si>
+  <si>
     <t>{'response': '1- Education is something which every kid in d society needs. But our society is such dat only ppl wit money get education. Y is d fee for schools so high in Bangalore pls make a change by 2031.\n', 'score': 0.5720303175664261}</t>
   </si>
   <si>
-    <t>{'response': '2- None of the above says anything about improving the quality of education in the govt schools.Sad. Increasing the number of schools is not going to solve the problem. One example is , in kadugodi area even a daily laborer is sending their kids to private schools as the quality of education in govt schools is not good.  Primary goal should be to increase the quality in the govt schools.\n', 'score': 0.666713562643139}</t>
-  </si>
-  <si>
-    <t>{'response': "3- Besides just setting up of schools, There needs to be monitoring of what's being taught in the school. The curriculum needs to be more streamlined and focused with government schools having someone to oversee them. Such that all funds are being used correctly and that the fund are being received by the schools. \n", 'score': 0.6622525189620376}</t>
+    <t>{'response': '11- The fee in private schools needs to be monitored by the government. As of now the fees are too high for no reason.\n', 'score': 0.5595677303316162}</t>
+  </si>
+  <si>
+    <t>{'response': '12- What is the performance level of the govt. schools? Are they satisfactory? Why are the govt. schools primarily for the poorer sections of the society?\n', 'score': 0.5241488386101412}</t>
+  </si>
+  <si>
+    <t>{'response': '7- Teachers have to be in schools\n', 'score': 0.5227054303659098}</t>
   </si>
   <si>
     <t>{'response': "4- Govt schools don't exisit\n", 'score': 0.5215492593453563}</t>
   </si>
   <si>
-    <t>{'response': '5- Private schools should not be allowed to implement fees on their own. An educational body should be constituted and recommend the fees that can be charged.l\n', 'score': 0.6457274015796545}</t>
-  </si>
-  <si>
-    <t>{'response': "6- In any city only privates schools are good not the government ones. Even though fees are high, quality of education provided is better than the government schools. This is my opinion. Some kids don't even know basic addition. So they can't be blamed. We need to get teachers trained too. Not just female teachers, but male teachers too. Nowadays, teachers don't get the respect that they should. Karnataka can follow the Delhi model wherein public schools are getting improved, also more kids are leaving private schools to join public schools. Improve the infrastructure of the government schools. Digitize all sorts of necessary processes both in government and in private. Education in karnataka is not merely equal to education in Bengaluru. Develop schools in the other districts as well. Don't make school children burden by  carrying such heavy bags. It would be better if this is implemented. Nowadays, school is not a place to learn, but to get a 10th certificate. Let all schools tie up with edu start-ups. Same goes to colleges and universities also. Let certain universities have a MOU with foreign universities. Truly speaking graduating from a VTU college is not worth it compared to NITs and IITs even though considering the fact that karnataka is an educational hub of India. Make the students industry ready. Improve research facilities. \n", 'score': 0.7125694475991866}</t>
-  </si>
-  <si>
-    <t>{'response': '7- Teachers have to be in schools\n', 'score': 0.5227054303659098}</t>
-  </si>
-  <si>
-    <t>{'response': '8- Why are govt schools maintained bad. Why there is no effort in making better then private. Why let thrive private institutions rule the Roost in such a advance city?? Why Education has become business?? \n', 'score': 0.7399368098599405}</t>
-  </si>
-  <si>
-    <t>{'response': '9- Shoud make all the public goverment schools to same standard as equal to Pvt schools.\n', 'score': 0.6318763380528021}</t>
-  </si>
-  <si>
-    <t>{'response': '10- Govt should plan for transportation facilities to provide  all primary and higher education students above 1 kms. There should be free of cost.\n', 'score': 0.7145749215365299}</t>
-  </si>
-  <si>
-    <t>{'response': '11- The fee in private schools needs to be monitored by the government. As of now the fees are too high for no reason.\n', 'score': 0.5595677303316162}</t>
-  </si>
-  <si>
-    <t>{'response': '12- What is the performance level of the govt. schools? Are they satisfactory? Why are the govt. schools primarily for the poorer sections of the society?\n', 'score': 0.5241488386101412}</t>
-  </si>
-  <si>
-    <t>{'response': '13- Take care of government schools\n', 'score': 0.6409971793967181}</t>
-  </si>
-  <si>
-    <t>{'response': "15- I am an active volunteer in the educational background and I've been to government schools on a regular basis for around 3 years to engage students in certain recreational activities and also outside the syllabus learning. I have observed that the government schools lacks: 1. complete infrastructure,  2. awareness about the importance of education among the students,  3. interest among teachers.   The first issue needs urgent attention as few schools lack toilets for students and thus creates an impact on their attendance.  There's also need for basic laboratory facilities so that the students learn science with the help of experiments under supervision. This creates interest among students to pursue the career of their choice.  There needs to be a well stacked library for the students so that they can read inspirational books to develop a good character and become a responsible citizen in the society.   The students should also be provided with facilities to support their extra-curricular activities like sports, dance, singing, art among others. This gives a great platform and confidence for the students to follow their passion.  The second issue is solved when we provide enough opportunities for the students by solving the first issue. The importance of education should be known to every student and their parents because lot of students drop out of school due to financial or social issues. This needs to addressed by counseling the parents and informing them about the facilities provided by government to promote education.  And the lack of interest among the teachers is a well known issue in government schools. This needs quick attention since a student learns from their teacher.  Teachers need to be selected based on merit and their interest for teaching. If this is done, the government is successful in promoting education for all.\n", 'score': 0.7075483529259755}</t>
-  </si>
-  <si>
-    <t>{'response': '18- Apart from this there needs to be compulsory practice of cleanliness as well as good environmental practices to be done at school levels, educating children and in turn educating parents for a better education and a better Bangalore \n', 'score': 0.6528932556627356}</t>
-  </si>
-  <si>
-    <t>{'response': '20- It is not enough if more Govt Schools are set up. Problem is no one including economically weaker sections of the society would like to send their children to Govt Schools. So quality of schools should be better. Environmental studies in greater detail should be essential part of curriculum. Children should be made aware of noise and air pollution. There can be incentive for children who walk to schools or use public transport as opposed to getting dropped by parents. This way children will become aware of using public transport. Parents too should be educated on environmental issues periodically.\n', 'score': 0.7247867023928124}</t>
-  </si>
-  <si>
-    <t>{'response': "21- Their should be a control over the fee structures of Colleges. The common people of bangalore can't afford the education nowadays \n", 'score': 0.5629830899732878}</t>
-  </si>
-  <si>
-    <t>{'response': '25- Education management in government schools should be at par with private institutions. Replicate American methodology to improve government schools. Infrastructure should be improved by using JNuRm funds, adopt CBSE curriculum, train teachers, monitor with access control for Teachers, improve sports facilities in government schools, uniform and shoes should be freely given to children, neat and higenic etiquette to children, security, activities, online education should be introduced to government schools. \n', 'score': 0.7020082602469441}</t>
-  </si>
-  <si>
-    <t>{'response': '26- Good idea. This means access to quality education by everyone.\n', 'score': 0.6048112255937006}</t>
-  </si>
-  <si>
-    <t>{'response': '27- Apart from having a sufficient number of schools accessible to all, it is really necessary to focus on quality so that public schools have more uniform standards, making it possible for children to neighbourhood schools thereby reducing traffic. It is also imperative to educate children about the history, language and culture of Bengaluru so that they are better integrated in the city unlike the current situation where there is a complete cultural and linguistic erosion. More effort needs to be made to make children citizens of the city who contribute to its betterment.\n', 'score': 0.74407324111983}</t>
-  </si>
-  <si>
-    <t>{'response': '28- Ours is the worst education system as the students are under immense pressure only to score high marks .They are not focused on practical and logical knowledge and generally never encouraged on deep thinking and new ideas.Also good education is very expensive.An well educated society will definitely make a better world. \n', 'score': 0.6121654114186612}</t>
-  </si>
-  <si>
-    <t>{'response': '29- We have to make education affordable to common man with amenities to encourage sports etc apart from studies which is very expensive today\n', 'score': 0.685899611945862}</t>
-  </si>
-  <si>
-    <t>{'response': '30- Need to regulate the fees for pvt school as well, The education is like a business now. Need to have some cap on this\n', 'score': 0.5662703152719492}</t>
-  </si>
-  <si>
-    <t>{'response': '31- How about the school fees. Parents who want to give good education to their children back out in sending them to good schools due to the fees charged by these institutions\n', 'score': 0.7086547071486544}</t>
-  </si>
-  <si>
-    <t>{'response': '33- Instead of increasing the number of schools, focus should be on improving the quality of education in the current schools. To ensure teachers come to schools regularly and take the classes. \n', 'score': 0.6962509382462455}</t>
-  </si>
-  <si>
     <t>{'response': '34- I hope these will be implemented. There is a need of competitive government schools. Every ward should at least one good government school.\n', 'score': 0.5184507682122522}</t>
   </si>
   <si>
-    <t>{'response': '35- I am part of a voluntary group that teaches science, Math and English to govt/community schools. The quality of teachers and education imparted is below the required standard. Stidents need a life cach who will change thir attitude towards life in general and learning will happen as a positive bye product.\n', 'score': 0.6362837917631944}</t>
-  </si>
-  <si>
-    <t>{'response': "37- The conditions of government schools are beyond pathetic.  It's not only about accessibility, it is also about the quality of education and a quality conditions of the schools.  You must pay attention and take into account increasing the funds to the government schools and put in place a system to monitor those funds are effectively utilised by the authorities of the schools.  Not everyone can afford private schools and hence the future of many children is at risk due to lack of quality education and health \n", 'score': 0.7109617985955444}</t>
-  </si>
-  <si>
-    <t>{'response': '39- Good plan but also private schools fee annually 10 to 30%hike it is really a burden for parents even if both are working try to get to a standard less than 10% across all the private schools \n', 'score': 0.6634726413885872}</t>
-  </si>
-  <si>
-    <t>{'response': "40- The fee structure is too high nowadays for school.  Please try to limit the school fees it's getting high year after year,  not everybody can afford the amount private schools are offering \n", 'score': 0.6539595656428774}</t>
-  </si>
-  <si>
-    <t>{'response': '41- The statement or details at a superficial level might make sense but specific details and policies are required to implement this. How is BDA going to ensure playgrounds are provided when they themselves have sold these so called playgrounds for other private parties all these years? How are they going to ensure, such encroachment is prevented? How are they ensuring that all such facilities are provided equally and not as an eyewash?\n', 'score': 0.6727795646375881}</t>
-  </si>
-  <si>
-    <t>{'response': '43- There aren’t many options for children with special needs. Need a mandate for most of mainstream schools to include facilities for special needs as well. Also need monetary support from government and private institutions to support special needs children as its really expensive to support their needs.\n', 'score': 0.7212025078963892}</t>
-  </si>
-  <si>
-    <t>{'response': '44- Education and Health needs Must be at very very low cost and the future is like the private schools shd start compete with govt schools.\n', 'score': 0.6718454502978392}</t>
-  </si>
-  <si>
-    <t>{'response': '45- Schools are there but is the curriculum right to teach empathy and social and ecological responsibility to children? We need to make sure we are bringing up responcible children who through mandatory social projects get involved on a daily basis. And yes make the schools simpler and more child friendly.\n', 'score': 0.7308273353969839}</t>
-  </si>
-  <si>
-    <t>{'response': '46- Quality of governament schools should be improved and try to bring it to par with private schools\n', 'score': 0.6111337715441344}</t>
-  </si>
-  <si>
     <t>{'response': '47- The current education system starting from Primary to x &amp; then to XII today is commercialized and is a business. This needs to stop and true merit needs to be recognized. All Schools/Colleges/Institutions should be banned of any kind of donation. All Primary education in Bangalore should be made free across all levels &amp; fee structure should only be accepted from Standard 4 onwards. Private schools/colleges should also not be exempted from this rule. EDUCATION IS A RIGHT FOR EVERY CHILD AND SHOULD NOT GET COMMERCIALIZED. \n', 'score': 0.5116110550663912}</t>
-  </si>
-  <si>
-    <t>{'response': '48- Government schools need to be equipped with modern facilities and updated with technology. The standard of education needs to be raised. \n', 'score': 0.722879284335694}</t>
-  </si>
-  <si>
-    <t>{'response': '49- Education institutions are seen as money making centers...give schools should be strong enough to compete with private school.. Rich n poor both should b able to afford same kind of education in the society.... teacher recruitment procedure should b changed\n', 'score': 0.7443398240089827}</t>
-  </si>
-  <si>
-    <t>{'response': '50- Education has become a business which is more profitable. Alternate education system should come up\n', 'score': 0.6522006227309186}</t>
-  </si>
-  <si>
-    <t>{'response': '51- Upgrade government schools to at least to satisfaction level where one can breath easily and send their children to schools. Policy may be done to restrict fee structure of private schools. Encourage government employees to join their children to government schools and get tax exemption and other benefits. Educating government school children about the future opportunities in various sectors.  Link some of the volunteer companies to schools so that they can incorporate various programmes at schools.\n', 'score': 0.710860558879521}</t>
-  </si>
-  <si>
-    <t>{'response': '52- The focus of the Education has to shift from information to creating interest. From competition to inclusion. Education system to be tweaked so that children learn and enjoy the process of learning rather than focussing on getting marks. This is required if we are really bothered about the future of our children and the future of our country.\n', 'score': 0.6090597509581723}</t>
-  </si>
-  <si>
-    <t>{'response': '53- Do we really need so many kinder gardens and primary schools. It is an burden on children as children as young as 2 years are put into care homes or kinder gardens. As an result more institutions are created for making money and are often industries or factories processing kids. On an average at least one of the married couple husband or wife will have an minimum qualification of graduation. Hence they can educate them at home until they are 5 or 6yrs old which is safe for parents and kids, it will discourage the greedy education industry, no risk of transport or crime or unhealthy food. So if the government comes up with an online certification or common examination centre where it can provide some assessments or grades for kids especially age 3 to 5 years annually and make it completely legal which will help them in entering primary schools. Many problems can be solved. An policy needs to be developed for home based education.\n', 'score': 0.6814753477979077}</t>
-  </si>
-  <si>
-    <t>{'response': '54- There needs to be a ceiling on school fees in private schools following the Indian syllabus\n', 'score': 0.6700956997881945}</t>
   </si>
   <si>
     <t xml:space="preserve">All heavily polluting industries will be moved outside the city
@@ -428,97 +428,97 @@
 </t>
   </si>
   <si>
+    <t>{'response': '20- Move the polluting industries from areas such as peenya to further places designated for them away from populated areas\n', 'score': 0.7338903049076254}</t>
+  </si>
+  <si>
+    <t>{'response': '100- Plant more trees in the bhanergatta forests and make all the bridges green by introducing more of hanging plants. Industries into more of pollution shuld be asd to pay heavy penalty and asd to be shifted to the outskirts....penalty shuld be nlmade compulsory to any industry within and outskirts of banglore.... The lakes in the city must be cleaned and shuld take enough preventions that they do not get polluted again after cleaning \n', 'score': 0.7041970754788838}</t>
+  </si>
+  <si>
+    <t>{'response': '37- These are ideals cannot see any movement on the ground ideally we should do these things but lakes are still getting encroached heavily polluting industries are still pumping effluents to lakes and other water bodies.\n', 'score': 0.697620035333995}</t>
+  </si>
+  <si>
+    <t>{'response': '188- Nice vision but practicality seems lacking... how are you going to move heavy polluting industries? Why not start with things like banning the heavily polluting buses and requiring all taxis and autos to run on cng.  Solar... ok but storage is more important. How about stopping the burning of leaves and garbage?  Heavy fines? Enforcement of existing laws?\n', 'score': 0.6401307543212295}</t>
+  </si>
+  <si>
+    <t>{'response': '25- Every single citizen should be educated about the Global warming. Use of plastic bags should be banned completely, burning plastics &amp; tires should also be banned. Old vehicles which produces lot of C02 should be scraped. Bycycle should be distributed at all metro stations to reduce the usage of other transports. All the polluting factories should be monitored for any chemical discharge into the lakes or rivers. \n', 'score': 0.637491775943475}</t>
+  </si>
+  <si>
+    <t>{'response': '186- First, for tree planting, There needs to be a plan based on population growth expected, increase in pollution due to transportation usage, Ward wise plan for the same.   Second, The green area cannot be only on the peripheries. They have to be evenly distributed throughout the city to have an impact.   Third, flyover and metro pillars need to employ vertical gardens.   Fourth, dust and sand cleaning needs to be implemented using machines that are used internationally.   Fifth, Desilting and cleaning of lakes and interconnectivity of lakes needs to be introduced if not already existent. Flooding of low lying areas can be dramatically reduced if these are implemented.   Sixth, charging stations cannot be small establishments and at localised points. They need to be interconnected at metro stations, malls, airport.    Seventh, garbage disposal and waste management activities have to be carried out in the night to reduce impact on traffic and decongest roads during peak work hours.   \n', 'score': 0.6261481257990934}</t>
+  </si>
+  <si>
+    <t>{'response': "149- Many of the building construction are illegal. Only Bangalore was concentrated for development and many of the projects should have been moved to other cities. Over population and illegal construction and cutting down trees, no waste management. All these issue needs to be addressed. 1. All the lakes should be rejuvenated.  2. No more projects in Bangalore, convince the company to open in Mysore or any other cities.  3. Promote e bicycle, since the cost of living near to office is high we stay far and use bike or car. If cost of living reduced we can stay near to office and go by bicycle it's healthy and good for environment.  I am happy to suggest and participate in any initiative. Feel free to reach out at ananda.palani@gmail.com \n", 'score': 0.6186627943500496}</t>
+  </si>
+  <si>
+    <t>{'response': '48- highly polluted city \n', 'score': 0.5929966063321708}</t>
+  </si>
+  <si>
+    <t>{'response': '69- While all of this sounds great on paper, implementation has always been an issue. The preparation for a Master Plan for the future must reflect in the attitudes of the authorities in the present and the authorities currently seem hell bent on making decisions that are not in favour of the ecology and aesthetics of the city.  The rampant construction of skywalks in the city is a case in point. These skywalks serve more as advertisement platforms than public utilities.  Also, integration of public transport in terms of accessibility and convenience goes a long way in incentivising the population to forego their private vehicles.   The authorities have completely neglected this factor while deciding the location of the Cantonment Metro Station despite many valid counters to their technical arguments by select and credible individuals from the society.  The Kempegowda International Airport is 11 years old but we still don’t have a fully functional Metro/Rail system traversing the 40 km distance from the city to the airport. Reliance on private vehicles to reach the airport is expected in such a situation. However, the authorities are more interested in widening Jaymahal Road by removing it’s green cover instead of fast tracking and prioritising the Airport Metro Line.  Transplantation of trees saves the trees. However, it leaves their former/original location bereft of the benefits of their presence and hence causes immense ecological damage.\n', 'score': 0.5858669917186542}</t>
+  </si>
+  <si>
+    <t>{'response': '157- Why it doesn’t shook our conscious to see our lakes disappear and tree cover vanish? The city that gave us so much, we took away everything from it in just 2 decades. Is there no end to human greed? The air quality index has broken the scale to worst and still administration is busy minting money by shielding land/sand mafia. We have only one earth, one motherland  , one hometown... let’s get together and we can bring back the glorious days. Don’t let us down please. Even poorer countries score better than us in environmentally sustainable development of infrastructure. Don’t make it ghost city. \n', 'score': 0.579424367482847}</t>
+  </si>
+  <si>
+    <t>{'response': '139- There is no clear mandate from where citizens can access data. The scare in Delhi and Mumbai is a clear lesson for urban developers that incessant development without planning will have an adverse affect on the economy sooner or later.   First and foremost, we need real time monitoring systems that can be accessed online. This will ensure accountability.   Cycling and renewables needs a focus in the city. Bangalore is one of those cities in our country which can easily be converted to the ways of cycling with minimal effort. We need cycling lanes and public sharing systems. The city needs docking points so that people can dock their cycles effectively. There should be days when vehicular traffic is limited to cycles (for healthy people). This will promote a new kind of culture, and will benefit the city in the long run.\n', 'score': 0.5739326864935551}</t>
+  </si>
+  <si>
+    <t>{'response': '41- Lands of lakes should be reclaimed in full force. Also the reclaimed land has to be turned back into lakes and the water catchment area of the lakes have to be taken over and turned green. This has to happen by force else water will be a major crisis for Bangalore in another 2 years. If we think about using force now we will be left with a city with no water\n', 'score': 0.5690674592704413}</t>
+  </si>
+  <si>
+    <t>{'response': '32- The maximum impact to nature and environmental factors is due to the unhandled waste from the posters, ads, paper flyers all littered all around the city. We need a law against littering in the public spaces. We build beautiful bridges and the pillars are full of movie posters and political ads. The trees are also not spared. People put up pins and nails on trees to put there posters of PG ads and other things. Can we please have our city back, beautiful and green and clean without all these litter every where we see.?\n', 'score': 0.565777483121457}</t>
+  </si>
+  <si>
+    <t>{'response': '87- Bangalore has lost 80% of It\'s greenery.  Where there is a will there is a way, we can definitely restore the greenery. You need to fix a date and begin the awareness campaign 6 months earlier so there is enough hype and awareness is created for all to participate. Make lakhs of saplings available and start a "each plant a tree" campaign. In 10 years time a lot of greenery will be restored.   Also if the land around Airport can be beautifully landscaped, the entire City should have such landscaping. Let each builder take up the job of landscaping a few areas, in return the govt can offer them advertising space such that it doesn\'t spoil the beauty of the landscaped area.   Also we see so many illegal bills stuck all over the city especially flyover pillars. Make it illegal and fine those companies that advertise on walls. \n', 'score': 0.5595568039184308}</t>
+  </si>
+  <si>
+    <t>{'response': '158- Banning of setting fire to dry waste (dry leaves, paper, garbage). I have complained many times on I change my city app. The regular offenders being the Government Institutions and the BBMP Garbage Contractors/Handlers.\n', 'score': 0.5479983208394156}</t>
+  </si>
+  <si>
+    <t>{'response': '172- The available resources like parks, lakes, encroachments, which are not maintained are not mentioned, how they will be rejuvenated and or returned back to its natural state. Environment and other aspects of the city go hand in hand and needs to be considered together.\n', 'score': 0.5451297937298627}</t>
+  </si>
+  <si>
+    <t>{'response': "116- The 2.2% forested area estimated to be in the Bangalore urban region is absurdly optimistic, and of this most is outside the core area. Look at the Banerghata National Park for an illustration of the problem: its entire north-eastern and northern boundaries are densely built-up right to the park boundary. The BDA's approach to green cover (pg 79) is simply copied and pasted from a best practice elsewhere to give a semblance of concern, as the commercial zoning currently (mal)practiced recognises no need for ever a ward green space. \n", 'score': 0.5161612387240734}</t>
+  </si>
+  <si>
+    <t>{'response': '22- All pollutants from Industrial waste need comphrensive outlook. Electric Autos and all vehicles mandatory in next 5 years. Household waste management, BBMP need to follow NGT guideliness. Rules to be created by govt and implementation to be done by right monitoring authorities.\n', 'score': 0.5111042449754769}</t>
+  </si>
+  <si>
+    <t>{'response': '24- There are places still in core city of Bangalore which needs immediate action on environment management and caring\n', 'score': 0.49625643250401685}</t>
+  </si>
+  <si>
+    <t>{'response': "121- Environment also means the how the city looks to people- currently ministers and other high ranked officials deface the looks of this city by putting up illegal wooden hoarding everywhere. This is criminal. Sometimes these hoardings are so much in your way that it causes inconvenience to a common man in his/her day-to-day life. This must stop. Levy heavy taxes/charges on these hoardings. Why can't we be like any other international country. They do not use such illegal and ugly looking things in their cities, why should we?, they respect their citizens, do we? This will be a major change in my opinion and restore Bangalore's beauty. A STRICT RULE TO ERADICATE ALL POLITICAL, NON-POLITICAL BANNERS FROM OUR LOVELY BANGALORE CITY. Let us set an example.\n", 'score': 0.4958792752331791}</t>
+  </si>
+  <si>
     <t>{'response': '3- All plants and trees needs to be tracked. Plan alternative options instead of cutting trees in City. The lung space is reducing heavily. \n', 'score': 0.48337786798227866}</t>
   </si>
   <si>
-    <t>{'response': '20- Move the polluting industries from areas such as peenya to further places designated for them away from populated areas\n', 'score': 0.7338903049076254}</t>
-  </si>
-  <si>
-    <t>{'response': '21- All roads should be sand free dry. Sand is causing air pollution. Manholes should be designed in a way it is in level with the road, no elevation or depression of the man holes. Too many two wheeler accidents and death is caused by un even level of the man holes on the roads. \n', 'score': 0.4676186427349412}</t>
-  </si>
-  <si>
-    <t>{'response': '22- All pollutants from Industrial waste need comphrensive outlook. Electric Autos and all vehicles mandatory in next 5 years. Household waste management, BBMP need to follow NGT guideliness. Rules to be created by govt and implementation to be done by right monitoring authorities.\n', 'score': 0.5040070349728047}</t>
-  </si>
-  <si>
-    <t>{'response': '24- There are places still in core city of Bangalore which needs immediate action on environment management and caring\n', 'score': 0.49625643250401685}</t>
-  </si>
-  <si>
-    <t>{'response': '25- Every single citizen should be educated about the Global warming. Use of plastic bags should be banned completely, burning plastics &amp; tires should also be banned. Old vehicles which produces lot of C02 should be scraped. Bycycle should be distributed at all metro stations to reduce the usage of other transports. All the polluting factories should be monitored for any chemical discharge into the lakes or rivers. \n', 'score': 0.637491775943475}</t>
-  </si>
-  <si>
-    <t>{'response': '32- The maximum impact to nature and environmental factors is due to the unhandled waste from the posters, ads, paper flyers all littered all around the city. We need a law against littering in the public spaces. We build beautiful bridges and the pillars are full of movie posters and political ads. The trees are also not spared. People put up pins and nails on trees to put there posters of PG ads and other things. Can we please have our city back, beautiful and green and clean without all these litter every where we see.?\n', 'score': 0.5601808077914753}</t>
-  </si>
-  <si>
-    <t>{'response': '37- These are ideals cannot see any movement on the ground ideally we should do these things but lakes are still getting encroached heavily polluting industries are still pumping effluents to lakes and other water bodies.\n', 'score': 0.6927411168904972}</t>
-  </si>
-  <si>
-    <t>{'response': '41- Lands of lakes should be reclaimed in full force. Also the reclaimed land has to be turned back into lakes and the water catchment area of the lakes have to be taken over and turned green. This has to happen by force else water will be a major crisis for Bangalore in another 2 years. If we think about using force now we will be left with a city with no water\n', 'score': 0.5678190294402903}</t>
+    <t>{'response': '62- Everything is good but there should be compulsory CSR responsibility given to every company residing in Bengaluru for managing the environment in the city here by reducing the stress for the BBMP to look after each and everything\n', 'score': 0.4765149966136355}</t>
+  </si>
+  <si>
+    <t>{'response': '21- All roads should be sand free dry. Sand is causing air pollution. Manholes should be designed in a way it is in level with the road, no elevation or depression of the man holes. Too many two wheeler accidents and death is caused by un even level of the man holes on the roads. \n', 'score': 0.46605251025517197}</t>
+  </si>
+  <si>
+    <t>{'response': '97- Do not make the situation that are facing big city like Bombay.... Dehil \n', 'score': 0.44577179249839327}</t>
   </si>
   <si>
     <t>{'response': '42- Need to keep the city Clean\n', 'score': 0.4084260277995812}</t>
   </si>
   <si>
-    <t>{'response': '48- highly polluted city \n', 'score': 0.5929966063321708}</t>
-  </si>
-  <si>
-    <t>{'response': '62- Everything is good but there should be compulsory CSR responsibility given to every company residing in Bengaluru for managing the environment in the city here by reducing the stress for the BBMP to look after each and everything\n', 'score': 0.4765149966136355}</t>
-  </si>
-  <si>
-    <t>{'response': '69- While all of this sounds great on paper, implementation has always been an issue. The preparation for a Master Plan for the future must reflect in the attitudes of the authorities in the present and the authorities currently seem hell bent on making decisions that are not in favour of the ecology and aesthetics of the city.  The rampant construction of skywalks in the city is a case in point. These skywalks serve more as advertisement platforms than public utilities.  Also, integration of public transport in terms of accessibility and convenience goes a long way in incentivising the population to forego their private vehicles.   The authorities have completely neglected this factor while deciding the location of the Cantonment Metro Station despite many valid counters to their technical arguments by select and credible individuals from the society.  The Kempegowda International Airport is 11 years old but we still don’t have a fully functional Metro/Rail system traversing the 40 km distance from the city to the airport. Reliance on private vehicles to reach the airport is expected in such a situation. However, the authorities are more interested in widening Jaymahal Road by removing it’s green cover instead of fast tracking and prioritising the Airport Metro Line.  Transplantation of trees saves the trees. However, it leaves their former/original location bereft of the benefits of their presence and hence causes immense ecological damage.\n', 'score': 0.5863465786220021}</t>
-  </si>
-  <si>
-    <t>{'response': '87- Bangalore has lost 80% of It\'s greenery.  Where there is a will there is a way, we can definitely restore the greenery. You need to fix a date and begin the awareness campaign 6 months earlier so there is enough hype and awareness is created for all to participate. Make lakhs of saplings available and start a "each plant a tree" campaign. In 10 years time a lot of greenery will be restored.   Also if the land around Airport can be beautifully landscaped, the entire City should have such landscaping. Let each builder take up the job of landscaping a few areas, in return the govt can offer them advertising space such that it doesn\'t spoil the beauty of the landscaped area.   Also we see so many illegal bills stuck all over the city especially flyover pillars. Make it illegal and fine those companies that advertise on walls. \n', 'score': 0.5525984763929022}</t>
-  </si>
-  <si>
-    <t>{'response': '97- Do not make the situation that are facing big city like Bombay.... Dehil \n', 'score': 0.44577179249839327}</t>
-  </si>
-  <si>
-    <t>{'response': '100- Plant more trees in the bhanergatta forests and make all the bridges green by introducing more of hanging plants. Industries into more of pollution shuld be asd to pay heavy penalty and asd to be shifted to the outskirts....penalty shuld be nlmade compulsory to any industry within and outskirts of banglore.... The lakes in the city must be cleaned and shuld take enough preventions that they do not get polluted again after cleaning \n', 'score': 0.6824512119791957}</t>
-  </si>
-  <si>
-    <t>{'response': "116- The 2.2% forested area estimated to be in the Bangalore urban region is absurdly optimistic, and of this most is outside the core area. Look at the Banerghata National Park for an illustration of the problem: its entire north-eastern and northern boundaries are densely built-up right to the park boundary. The BDA's approach to green cover (pg 79) is simply copied and pasted from a best practice elsewhere to give a semblance of concern, as the commercial zoning currently (mal)practiced recognises no need for ever a ward green space. \n", 'score': 0.5161612387240734}</t>
-  </si>
-  <si>
-    <t>{'response': "121- Environment also means the how the city looks to people- currently ministers and other high ranked officials deface the looks of this city by putting up illegal wooden hoarding everywhere. This is criminal. Sometimes these hoardings are so much in your way that it causes inconvenience to a common man in his/her day-to-day life. This must stop. Levy heavy taxes/charges on these hoardings. Why can't we be like any other international country. They do not use such illegal and ugly looking things in their cities, why should we?, they respect their citizens, do we? This will be a major change in my opinion and restore Bangalore's beauty. A STRICT RULE TO ERADICATE ALL POLITICAL, NON-POLITICAL BANNERS FROM OUR LOVELY BANGALORE CITY. Let us set an example.\n", 'score': 0.4958792752331791}</t>
-  </si>
-  <si>
-    <t>{'response': '139- There is no clear mandate from where citizens can access data. The scare in Delhi and Mumbai is a clear lesson for urban developers that incessant development without planning will have an adverse affect on the economy sooner or later.   First and foremost, we need real time monitoring systems that can be accessed online. This will ensure accountability.   Cycling and renewables needs a focus in the city. Bangalore is one of those cities in our country which can easily be converted to the ways of cycling with minimal effort. We need cycling lanes and public sharing systems. The city needs docking points so that people can dock their cycles effectively. There should be days when vehicular traffic is limited to cycles (for healthy people). This will promote a new kind of culture, and will benefit the city in the long run.\n', 'score': 0.5739326864384264}</t>
-  </si>
-  <si>
-    <t>{'response': "149- Many of the building construction are illegal. Only Bangalore was concentrated for development and many of the projects should have been moved to other cities. Over population and illegal construction and cutting down trees, no waste management. All these issue needs to be addressed. 1. All the lakes should be rejuvenated.  2. No more projects in Bangalore, convince the company to open in Mysore or any other cities.  3. Promote e bicycle, since the cost of living near to office is high we stay far and use bike or car. If cost of living reduced we can stay near to office and go by bicycle it's healthy and good for environment.  I am happy to suggest and participate in any initiative. Feel free to reach out at ananda.palani@gmail.com \n", 'score': 0.6041793238818595}</t>
-  </si>
-  <si>
-    <t>{'response': '157- Why it doesn’t shook our conscious to see our lakes disappear and tree cover vanish? The city that gave us so much, we took away everything from it in just 2 decades. Is there no end to human greed? The air quality index has broken the scale to worst and still administration is busy minting money by shielding land/sand mafia. We have only one earth, one motherland  , one hometown... let’s get together and we can bring back the glorious days. Don’t let us down please. Even poorer countries score better than us in environmentally sustainable development of infrastructure. Don’t make it ghost city. \n', 'score': 0.579424367482847}</t>
-  </si>
-  <si>
-    <t>{'response': '158- Banning of setting fire to dry waste (dry leaves, paper, garbage). I have complained many times on I change my city app. The regular offenders being the Government Institutions and the BBMP Garbage Contractors/Handlers.\n', 'score': 0.5478248819447106}</t>
-  </si>
-  <si>
-    <t>{'response': '172- The available resources like parks, lakes, encroachments, which are not maintained are not mentioned, how they will be rejuvenated and or returned back to its natural state. Environment and other aspects of the city go hand in hand and needs to be considered together.\n', 'score': 0.5451297937298627}</t>
-  </si>
-  <si>
-    <t>{'response': '186- First, for tree planting, There needs to be a plan based on population growth expected, increase in pollution due to transportation usage, Ward wise plan for the same.   Second, The green area cannot be only on the peripheries. They have to be evenly distributed throughout the city to have an impact.   Third, flyover and metro pillars need to employ vertical gardens.   Fourth, dust and sand cleaning needs to be implemented using machines that are used internationally.   Fifth, Desilting and cleaning of lakes and interconnectivity of lakes needs to be introduced if not already existent. Flooding of low lying areas can be dramatically reduced if these are implemented.   Sixth, charging stations cannot be small establishments and at localised points. They need to be interconnected at metro stations, malls, airport.    Seventh, garbage disposal and waste management activities have to be carried out in the night to reduce impact on traffic and decongest roads during peak work hours.   \n', 'score': 0.6275262100489556}</t>
-  </si>
-  <si>
-    <t>{'response': '188- Nice vision but practicality seems lacking... how are you going to move heavy polluting industries? Why not start with things like banning the heavily polluting buses and requiring all taxis and autos to run on cng.  Solar... ok but storage is more important. How about stopping the burning of leaves and garbage?  Heavy fines? Enforcement of existing laws?\n', 'score': 0.6401307543212295}</t>
-  </si>
-  <si>
     <t>['8- https://www.linkedin.com/pulse/5-things-saved-city-r-k-shenoy/  I had written this blog which highlights the top ideas, good to know many of these are being considered !\n']</t>
   </si>
   <si>
-    <t>['9- Please have more dustbins\n', '46- Please install many public garbage bins.\n']</t>
-  </si>
-  <si>
-    <t>['144- Looks good \n', '10- Promote Terrace gardening along with all the above.. Will bring in additional 10% pollution free environment.. \n', '151- We need to educate people from the grassroot level aggressively regarding our mother earth and how to nurture it.\n', '54- Please check into the the increasing noise pollution specially in the housing areas. Many small garbage collection/ welding shops have opened up in Radha Reddy Layout, Doddakanelli, Off Sarjapur Road. One of them is next to Mana Jardin. \n', '107- What about the emission of the vehicles? What about age old vehicles causing problems?\n', '94- if we keep environment clean then we can have everything intact\n', '75- Rather than plantaing small plants which only serve the purpose of aesthetics please opt for big shrubs that grow upto a height of 10-12 feet in between dividers and under the flyovers..\n', '102- You are playing with environment\n', '129- Asking people to cultivate and grow terrace garden in apartments and buildings. \n', '152- I am very concerned about AIR POLLUTION. BDA can set up a small small AIR Purifier towers where pollution is high. \n', '18- More Gardens, Parks need to be developed if possible every area must have a big garden so that we save environment also this wil control pollution a bit.\n', '114- Most of the public transport is on diesel and the vehicles keep emitting dark black smoke at a very high rate, be it normal bus, Volvo or autos. This needs serious attention as the day is not far when we will be shutdown like Delhi !  Just do not go by the air quality index as it is good due to high altitude and powerful wind which sweeps away these toxic fumes.\n', '145- This sounds like a good plan, please implement \n', '162- No good roads.very pathetic road from Doddamara to mahaveer orchids.there are many incidents happened of slip during rainy season and normal time also.\n', '29- Becoming worst than ever. Not good for Bangalore\n', '19- Wat about no. of vehicles on road? Wat about illegal constructions? Concrete city. \n', '67- Please put down commercialisation of residential areas with an iron hand. This will save our environment greatly and help children to study and play more. Please increase play area for children as at present even branded schools have small play area. Please ban honking by vehicles other than ambulances in the City. There is no need for honking with in the city. Please have one hour study for children every day on environment protection. Their parents are a spoilt lot who also need environmental education. Please Make it compulsory. \n', '187- Water bodies, very critical to protect from pollution\n', '166- Environment to be sustained at all cost. More &amp; more tress to be planted to increase green cover\n']</t>
-  </si>
-  <si>
-    <t>['108- Need to plan around the environment\n', '154- Need to come out with a comprehensive plan  for preventing flooding during monsoons...especially in the areas such as koramangala\n', '38- Need to walk the talk\n', '117- Need lot improvement and it should be an agenda of development rather religion.\n']</t>
+    <t>['46- Please install many public garbage bins.\n', '9- Please have more dustbins\n']</t>
+  </si>
+  <si>
+    <t>['145- This sounds like a good plan, please implement \n', '129- Asking people to cultivate and grow terrace garden in apartments and buildings. \n', '166- Environment to be sustained at all cost. More &amp; more tress to be planted to increase green cover\n', '107- What about the emission of the vehicles? What about age old vehicles causing problems?\n', '144- Looks good \n', '187- Water bodies, very critical to protect from pollution\n', '152- I am very concerned about AIR POLLUTION. BDA can set up a small small AIR Purifier towers where pollution is high. \n', '54- Please check into the the increasing noise pollution specially in the housing areas. Many small garbage collection/ welding shops have opened up in Radha Reddy Layout, Doddakanelli, Off Sarjapur Road. One of them is next to Mana Jardin. \n', '18- More Gardens, Parks need to be developed if possible every area must have a big garden so that we save environment also this wil control pollution a bit.\n', '102- You are playing with environment\n', '162- No good roads.very pathetic road from Doddamara to mahaveer orchids.there are many incidents happened of slip during rainy season and normal time also.\n', '10- Promote Terrace gardening along with all the above.. Will bring in additional 10% pollution free environment.. \n', '75- Rather than plantaing small plants which only serve the purpose of aesthetics please opt for big shrubs that grow upto a height of 10-12 feet in between dividers and under the flyovers..\n', '114- Most of the public transport is on diesel and the vehicles keep emitting dark black smoke at a very high rate, be it normal bus, Volvo or autos. This needs serious attention as the day is not far when we will be shutdown like Delhi !  Just do not go by the air quality index as it is good due to high altitude and powerful wind which sweeps away these toxic fumes.\n', '151- We need to educate people from the grassroot level aggressively regarding our mother earth and how to nurture it.\n', '29- Becoming worst than ever. Not good for Bangalore\n', '67- Please put down commercialisation of residential areas with an iron hand. This will save our environment greatly and help children to study and play more. Please increase play area for children as at present even branded schools have small play area. Please ban honking by vehicles other than ambulances in the City. There is no need for honking with in the city. Please have one hour study for children every day on environment protection. Their parents are a spoilt lot who also need environmental education. Please Make it compulsory. \n', '94- if we keep environment clean then we can have everything intact\n', '19- Wat about no. of vehicles on road? Wat about illegal constructions? Concrete city. \n']</t>
+  </si>
+  <si>
+    <t>['108- Need to plan around the environment\n', '154- Need to come out with a comprehensive plan  for preventing flooding during monsoons...especially in the areas such as koramangala\n', '117- Need lot improvement and it should be an agenda of development rather religion.\n', '38- Need to walk the talk\n']</t>
   </si>
   <si>
     <t>['50- Dissatisfied\n']</t>
   </si>
   <si>
-    <t>['53- Great initiative.I hope this gets implemented irrespective of which government rules.Let me know if i could be helpful.\n', '113- More can b done .. \n', '175- Proper town planning needs to be developed, in order to get the befit of the nature which we blessed with!!\n', "168- More trees! More trees! I cannot emphasize more on this. I grew up in a Bangalore filled with trees. They've all disappeared in the name of real estate! We definitely need more trees!\n", "99- I hope whatever things that has been mentioned here won't get limited to paper only. I hope it will honestly get implemented\n", "190- Proper information channel to let citizens know about these schemes to be provided. Also accountability to be transparent. Responsible person should be clear. So we can contact and get support and if they don't support what to be done next. Citizen should rate the work done by govt. \n", '170- need to stand on words  \n', '63- I wonder to what extent this would be implemented, most of these laws already exist and no one care. Its vital to take legal actions.\n']</t>
+    <t>["168- More trees! More trees! I cannot emphasize more on this. I grew up in a Bangalore filled with trees. They've all disappeared in the name of real estate! We definitely need more trees!\n", '63- I wonder to what extent this would be implemented, most of these laws already exist and no one care. Its vital to take legal actions.\n', '175- Proper town planning needs to be developed, in order to get the befit of the nature which we blessed with!!\n', "99- I hope whatever things that has been mentioned here won't get limited to paper only. I hope it will honestly get implemented\n", "190- Proper information channel to let citizens know about these schemes to be provided. Also accountability to be transparent. Responsible person should be clear. So we can contact and get support and if they don't support what to be done next. Citizen should rate the work done by govt. \n", '53- Great initiative.I hope this gets implemented irrespective of which government rules.Let me know if i could be helpful.\n', '113- More can b done .. \n', '170- need to stand on words  \n']</t>
   </si>
   <si>
     <t>['65- Should stop New extension for construction of buildings.\n']</t>
@@ -527,10 +527,10 @@
     <t>['73- -Ban petrol and diesel 4-wheelers inside the city -Heavily subsidise electric vehicles (busses, cars, and two wheelers/bicycles ) -Build electric charging infrastructure -Make Rain water harvesting, electricity generation via solar panels mandatory for medium to large scale housing projects. \n']</t>
   </si>
   <si>
-    <t>['74- good plan\n', '103- Should look at the sustainability of the plan \n', '125- Good plan should be realistic\n']</t>
-  </si>
-  <si>
-    <t>['177- Good\n', '178- Good\n', '76- Good idea\n']</t>
+    <t>['74- good plan\n', '125- Good plan should be realistic\n', '103- Should look at the sustainability of the plan \n']</t>
+  </si>
+  <si>
+    <t>['76- Good idea\n', '178- Good\n', '177- Good\n']</t>
   </si>
   <si>
     <t>['78- Everyone should take responsibility \n']</t>
@@ -554,7 +554,7 @@
     <t>['123- Ban on chewing gums and any non bio degradable food item\n']</t>
   </si>
   <si>
-    <t>['128- Pollution\n', '183- Pollution at its height\n']</t>
+    <t>['183- Pollution at its height\n', '128- Pollution\n']</t>
   </si>
   <si>
     <t>['135- Tackle bio-degradable waste AT SOURCE. Make composting mandatory for all households and residential societies. Alleppey has done it. All plastic to be washed and collected separately and reused or recycled. Ban on plastic needs to be implemented as far as possible. Deter industries from plastic packaging. Stress on producing less waste. Educate society about segregation and waste management. You need everyone with you to succeed. Rest waste can be segregated and sorted more easily then. And no garbage collection on roads please!! Good luck!\n']</t>
@@ -563,337 +563,337 @@
     <t>['163- Yellachanahalli Lake has been landfilled by land mafia, and removed from Bangalore map by BDA, can you reinstate the lak\n']</t>
   </si>
   <si>
+    <t>{'response': '17- Sound like unrealistic aims for our governments. Battery operated cars have yet to reach that level of sophistication, though it is possible by 2031. Getting people to move on from petrol and diesel will be harder. \n', 'score': 0.6190139212147658}</t>
+  </si>
+  <si>
+    <t>{'response': '106- * maintainace of existing lakes,  bus depot should not acquire the lakes to construct it.   * no waste should be released to lakes,  * government should provide subsidies to buy electric vehicles and make mandatory electric vehicles for students ( cycle or electric vehicle),  * provide attractive exchange offers to buy electric vehicles( on old petrol/diesel vehicles)   * all public transport with in the city should be electric vehicles.\n', 'score': 0.5918954567706366}</t>
+  </si>
+  <si>
+    <t>{'response': '23- The park and road should be monitored by the Area Authority on monthly basis.They should install proper lighting and maintenance of the platform as well.Tress should be planted more and government should encourage citizen to use cycle more.They should even plan events for cycling and should have Cycle stand and Cycles on rent installed so that the pollution level can come down as well as the parking space issue can be solved.This should start with our Elite Government officials first,so that more and more people will be encouraged by this gesture.\n', 'score': 0.5758833142270208}</t>
+  </si>
+  <si>
+    <t>{'response': '40- The master plan look promising. But I hope there would be action. IT Projects getting approved in Brookfield area without concerned about traffic. Noise and pollution on the rise. Bad roads are one of the main reason for pollution. Govt can try odd/even formula at least once a week. Private vehicles(unpooled) are allowed at 10AM. Buses should connect IT park.\n', 'score': 0.4851304785792646}</t>
+  </si>
+  <si>
+    <t>{'response': '66- Because of the recent changes in Bangalore roads. The roads have been dug up... And many people have fallen sick most of 2017 or have faced breathing problems. Dust gathers everywhere and commuting doesnt only turn hard but next to impossible. \n', 'score': 0.41534631129083177}</t>
+  </si>
+  <si>
+    <t>{'response': '146- The environment must not just be limited to plants and lakes, animals form a huge component.Poor stray animals wander about( and it actually isnt their mistake, where are they gonna go if their.land is encroached by bangalorean in making houses and roads) They share this land as much as we do.It is painful to see these poor animals being chased away from almost anywhere.What happened to the green city? what happned to the nature of ayiti devo bhava? Where humbleness and generosity was part in each citizen?\n', 'score': 0.39438859977604973}</t>
+  </si>
+  <si>
+    <t>{'response': "35- Cutting of trees for absolutely unnecessary reasons makes me furious. The trees are cut for road widening purposes where after couple of metres, the road merges back into a 2 lane road. What is the point? And the size of the trees being cut are enormous (easily 30-50 years old)  and are done in the night so that it is not noticed by any one who is  against it. The amount of shade and protection that these trees give is so much that the road makes you feel like home itself. But so many trees are cut, no one feels to come out during the day time. There is no point in chanting sustainability, saving of water, pollution free, or whatever it is if trees are going to be cut down like this. And after all the cutting, I have never seen any replacement efforts and it hurts me as I cannot do anything alone. Are human beings so selfish that we only care about our present comforts? Are we so stupid that we can't see what this is doing to our earth? I don't mind contributing to make out planet a much greener place. Everyone is so selfish and greedy and lazy that no one wants to do work and only wants money. \n", 'score': 0.3837617823678437}</t>
+  </si>
+  <si>
+    <t>{'response': '140- The BBMP and BDA are imposing rules but not taking appropriate steps to ensure everyone is adhering to it. Also people get away with not following the set regulations by bribing the authorities which needs to stop.\n', 'score': 0.36468826091627654}</t>
+  </si>
+  <si>
+    <t>{'response': '173- The Decision is good, but only if administration and maintenance becomes really strict, without any corruption.\n', 'score': 0.32001403668878564}</t>
+  </si>
+  <si>
     <t>{'response': '16- The plan sounds very vague at the moment. \n', 'score': 0.31281294995469827}</t>
   </si>
   <si>
-    <t>{'response': '17- Sound like unrealistic aims for our governments. Battery operated cars have yet to reach that level of sophistication, though it is possible by 2031. Getting people to move on from petrol and diesel will be harder. \n', 'score': 0.6190139212147658}</t>
-  </si>
-  <si>
-    <t>{'response': '23- The park and road should be monitored by the Area Authority on monthly basis.They should install proper lighting and maintenance of the platform as well.Tress should be planted more and government should encourage citizen to use cycle more.They should even plan events for cycling and should have Cycle stand and Cycles on rent installed so that the pollution level can come down as well as the parking space issue can be solved.This should start with our Elite Government officials first,so that more and more people will be encouraged by this gesture.\n', 'score': 0.5758833142270208}</t>
-  </si>
-  <si>
-    <t>{'response': "35- Cutting of trees for absolutely unnecessary reasons makes me furious. The trees are cut for road widening purposes where after couple of metres, the road merges back into a 2 lane road. What is the point? And the size of the trees being cut are enormous (easily 30-50 years old)  and are done in the night so that it is not noticed by any one who is  against it. The amount of shade and protection that these trees give is so much that the road makes you feel like home itself. But so many trees are cut, no one feels to come out during the day time. There is no point in chanting sustainability, saving of water, pollution free, or whatever it is if trees are going to be cut down like this. And after all the cutting, I have never seen any replacement efforts and it hurts me as I cannot do anything alone. Are human beings so selfish that we only care about our present comforts? Are we so stupid that we can't see what this is doing to our earth? I don't mind contributing to make out planet a much greener place. Everyone is so selfish and greedy and lazy that no one wants to do work and only wants money. \n", 'score': 0.3837617823678437}</t>
-  </si>
-  <si>
-    <t>{'response': '40- The master plan look promising. But I hope there would be action. IT Projects getting approved in Brookfield area without concerned about traffic. Noise and pollution on the rise. Bad roads are one of the main reason for pollution. Govt can try odd/even formula at least once a week. Private vehicles(unpooled) are allowed at 10AM. Buses should connect IT park.\n', 'score': 0.4851304785792646}</t>
-  </si>
-  <si>
-    <t>{'response': '66- Because of the recent changes in Bangalore roads. The roads have been dug up... And many people have fallen sick most of 2017 or have faced breathing problems. Dust gathers everywhere and commuting doesnt only turn hard but next to impossible. \n', 'score': 0.41534631129083177}</t>
-  </si>
-  <si>
-    <t>{'response': '106- * maintainace of existing lakes,  bus depot should not acquire the lakes to construct it.   * no waste should be released to lakes,  * government should provide subsidies to buy electric vehicles and make mandatory electric vehicles for students ( cycle or electric vehicle),  * provide attractive exchange offers to buy electric vehicles( on old petrol/diesel vehicles)   * all public transport with in the city should be electric vehicles.\n', 'score': 0.584290199069825}</t>
-  </si>
-  <si>
-    <t>{'response': '140- The BBMP and BDA are imposing rules but not taking appropriate steps to ensure everyone is adhering to it. Also people get away with not following the set regulations by bribing the authorities which needs to stop.\n', 'score': 0.3546586572603309}</t>
-  </si>
-  <si>
-    <t>{'response': '146- The environment must not just be limited to plants and lakes, animals form a huge component.Poor stray animals wander about( and it actually isnt their mistake, where are they gonna go if their.land is encroached by bangalorean in making houses and roads) They share this land as much as we do.It is painful to see these poor animals being chased away from almost anywhere.What happened to the green city? what happned to the nature of ayiti devo bhava? Where humbleness and generosity was part in each citizen?\n', 'score': 0.3861393681260231}</t>
-  </si>
-  <si>
-    <t>{'response': '173- The Decision is good, but only if administration and maintenance becomes really strict, without any corruption.\n', 'score': 0.32001403668878564}</t>
+    <t>{'response': '138- Waste water and other waste treatment plant should be there in the apartments.  Proper arrangements should be made in the factories for chemical waste disposal instead of channeling to the lakes and other water bodies.\n', 'score': 0.6253592734416454}</t>
+  </si>
+  <si>
+    <t>{'response': '167- Use of green technologies and solar power must be definitely looked into. We need to live a plastic free life and make sure we dont create waste at all thereby altogether avoiding waste disposal needs. Bio degradable way of life what is followed in Indian villages - eating on leaf plates for example - must be followed. Defecating or Urinating in public must be severely dealt with and people should be heavily fined. Use of public toilets should be encouraged in line with "Swacch Bharat" from PM Sri Narendra Modi. \n', 'score': 0.6111651121171611}</t>
+  </si>
+  <si>
+    <t>{'response': "71- Implementation of plants should be done in every places as it enhances the reducing in the pollution also helps in reducing the health care problems which are associated with the pollition there are several new techniques for implementation purpose not one to discuss it's better to discuss by speaking with each other \n", 'score': 0.5901707524328476}</t>
+  </si>
+  <si>
+    <t>{'response': '164- We need to make hard rules and should follow them without any if and but. We have do some public gathering to encourage people to contribute for the better environment. Even plastic ban in Bangalore, we can easily find that people are using it (even it has reduced but not fully). I am agree that only Gov body can do until people are not supporting so we have to make the Clean India Healthy India Campaign more frequently. We can start some program like Swach Bharat Ambassador for a particular area. It may help other people to participate in this actively. \n', 'score': 0.5452296680898495}</t>
   </si>
   <si>
     <t>{'response': '44- Please educate house members, especially house wives about waste segregation and not to tie  garbage in plastic cover and throw. Please ban plastic, before banning please provide ideas and alternatives for groceries packing . All the vendors in Prashanth Nagar areas have plastic.. worst !!\n', 'score': 0.5423781859644473}</t>
   </si>
   <si>
-    <t>{'response': "71- Implementation of plants should be done in every places as it enhances the reducing in the pollution also helps in reducing the health care problems which are associated with the pollition there are several new techniques for implementation purpose not one to discuss it's better to discuss by speaking with each other \n", 'score': 0.5901707524328476}</t>
-  </si>
-  <si>
-    <t>{'response': '138- Waste water and other waste treatment plant should be there in the apartments.  Proper arrangements should be made in the factories for chemical waste disposal instead of channeling to the lakes and other water bodies.\n', 'score': 0.6253592734416454}</t>
-  </si>
-  <si>
     <t>{'response': '150- No construction  n no industry waste flowing strictly into lake beds. \n', 'score': 0.4905941987814242}</t>
   </si>
   <si>
-    <t>{'response': '164- We need to make hard rules and should follow them without any if and but. We have do some public gathering to encourage people to contribute for the better environment. Even plastic ban in Bangalore, we can easily find that people are using it (even it has reduced but not fully). I am agree that only Gov body can do until people are not supporting so we have to make the Clean India Healthy India Campaign more frequently. We can start some program like Swach Bharat Ambassador for a particular area. It may help other people to participate in this actively. \n', 'score': 0.548480655849855}</t>
-  </si>
-  <si>
-    <t>{'response': '167- Use of green technologies and solar power must be definitely looked into. We need to live a plastic free life and make sure we dont create waste at all thereby altogether avoiding waste disposal needs. Bio degradable way of life what is followed in Indian villages - eating on leaf plates for example - must be followed. Defecating or Urinating in public must be severely dealt with and people should be heavily fined. Use of public toilets should be encouraged in line with "Swacch Bharat" from PM Sri Narendra Modi. \n', 'score': 0.6232798127400554}</t>
+    <t>{'response': '26- Bangalore is name for trees/plants, parks and beautiful lakes inside city. BBMP is cutting down all plants, covering all lakes in the name of development is not acceptable. We do not need such development where there is no good environment. Do not cut down trees and do development with the available resources only.\n', 'score': 0.5953718919177607}</t>
+  </si>
+  <si>
+    <t>{'response': '137- Why BBMP is allowing individual house owners to build houses wall to wall or even the builders without thinking of the parks and trees to be planted at home and apartments. Wherez the initiative to ncourage by providing grow bags and seeds to grow at home eg terrace garden, waste composting.\n', 'score': 0.5779390320454647}</t>
   </si>
   <si>
     <t>{'response': '2- Make plastic free Bangalore that will biggest contribution towards environment, Where free land is there government can lease out NGO or interested people to plant trees with financial aids so that it will create environment and creates job opportunities\n', 'score': 0.5366903644480723}</t>
   </si>
   <si>
+    <t>{'response': '184- There are lot of open plots that have Parthenium and other Pollen plants which cause harm to health of everyone. We should have a rule of the owners cleaning their plots or BBMP charge them a nominal fee for the upkeep\n', 'score': 0.5318520763031973}</t>
+  </si>
+  <si>
     <t>{'response': '15- Complete disregard for the environment.  There should be more green spaces in the city.\n', 'score': 0.5315892124806739}</t>
   </si>
   <si>
-    <t>{'response': '26- Bangalore is name for trees/plants, parks and beautiful lakes inside city. BBMP is cutting down all plants, covering all lakes in the name of development is not acceptable. We do not need such development where there is no good environment. Do not cut down trees and do development with the available resources only.\n', 'score': 0.5953718919177607}</t>
-  </si>
-  <si>
-    <t>{'response': '56- Adequate spaces for pavements, and to be raised so that vehicles are detered from using it. And lighting should be adequate.\n', 'score': 0.5070705841744232}</t>
-  </si>
-  <si>
-    <t>{'response': '124- These plans are very generic. There needs to be a timeline, budget, name of person accountable, place where it plans to be implemented.  Please provide us with an open forum where we CAN TRACK WHAT ALL IS GETTING IMPLEMENTED\n', 'score': 0.34414701058936326}</t>
-  </si>
-  <si>
-    <t>{'response': '137- Why BBMP is allowing individual house owners to build houses wall to wall or even the builders without thinking of the parks and trees to be planted at home and apartments. Wherez the initiative to ncourage by providing grow bags and seeds to grow at home eg terrace garden, waste composting.\n', 'score': 0.5779390320454647}</t>
-  </si>
-  <si>
-    <t>{'response': '184- There are lot of open plots that have Parthenium and other Pollen plants which cause harm to health of everyone. We should have a rule of the owners cleaning their plots or BBMP charge them a nominal fee for the upkeep\n', 'score': 0.5222775144290255}</t>
+    <t>{'response': '56- Adequate spaces for pavements, and to be raised so that vehicles are detered from using it. And lighting should be adequate.\n', 'score': 0.5295762642622025}</t>
+  </si>
+  <si>
+    <t>{'response': '124- These plans are very generic. There needs to be a timeline, budget, name of person accountable, place where it plans to be implemented.  Please provide us with an open forum where we CAN TRACK WHAT ALL IS GETTING IMPLEMENTED\n', 'score': 0.35429444354780165}</t>
+  </si>
+  <si>
+    <t>{'response': '118- We should try to reserve the lakes of the city \n', 'score': 0.5522426589815854}</t>
+  </si>
+  <si>
+    <t>{'response': '169- Would like all the lakes to have adopted wet land cultivation.\n', 'score': 0.5026236492341065}</t>
+  </si>
+  <si>
+    <t>{'response': "43- In the masterplan these ideas looks good unless executed to the true core. We are seeing lakes dying, temperature rising due to warming effects caused by less greenery in our surroundings, Vehicles causing noise and air pollution leading to poor quality of breathable air around us. Not only municipality has to plant more trees it has to be an individual's responsibility to contribute towards the society.\n", 'score': 0.48803853473600795}</t>
   </si>
   <si>
     <t>{'response': '12- Vertical gardening and envirnmt structures must be mandated for tech parks..as the glass panes heats up the city..the encroached lakes must be tackled sternly..firstly BDA land allotment must be corruption free and must not allot lands which have issues\n', 'score': 0.47411412176427425}</t>
   </si>
   <si>
-    <t>{'response': "43- In the masterplan these ideas looks good unless executed to the true core. We are seeing lakes dying, temperature rising due to warming effects caused by less greenery in our surroundings, Vehicles causing noise and air pollution leading to poor quality of breathable air around us. Not only municipality has to plant more trees it has to be an individual's responsibility to contribute towards the society.\n", 'score': 0.48803853473600795}</t>
-  </si>
-  <si>
-    <t>{'response': '118- We should try to reserve the lakes of the city \n', 'score': 0.5522426589815854}</t>
-  </si>
-  <si>
-    <t>{'response': '169- Would like all the lakes to have adopted wet land cultivation.\n', 'score': 0.5026236492341065}</t>
+    <t>{'response': '133- Use of Solar electric power, rain water harvesting and home composting should be encouraged. We need to educate public in these areas. \n', 'score': 0.7432393760290409}</t>
   </si>
   <si>
     <t>{'response': '7- Water harvesting needs to be forced on people , just encouraging it wont help. Its ok to force if it is for common good.\n', 'score': 0.6148023249539386}</t>
   </si>
   <si>
-    <t>{'response': "58- Bangalore has more borewells and many residential property has more then one and in particular places borewells goes up to 2000 meters approx.it's not right way,as bottom surface get dry due to no water.government need to restrict with borewells after certain meters(*very strictly*) and need to supply water so as to save ground water and need to give awareness the advantages of solar energy\n", 'score': 0.6106942759508206}</t>
-  </si>
-  <si>
-    <t>{'response': '85- One of the major issue of continuous urbanisation is the decrease of green coverage. The concrete areas formed by the roofs, roads, parkings create heat islands. Putting trees on the roads might help but the main built area (flat roofs) remain. Why not encouraging green roofs and roof  top cultivation? Coupling this with grey water recycling, will tackle the issue of water scarcity to maintain a green cover.\n', 'score': 0.575722114936218}</t>
+    <t>{'response': "58- Bangalore has more borewells and many residential property has more then one and in particular places borewells goes up to 2000 meters approx.it's not right way,as bottom surface get dry due to no water.government need to restrict with borewells after certain meters(*very strictly*) and need to supply water so as to save ground water and need to give awareness the advantages of solar energy\n", 'score': 0.5898019722944372}</t>
+  </si>
+  <si>
+    <t>{'response': '155- We also need to work on drainages water logging issue in Bangalore.\n', 'score': 0.5814699147511105}</t>
+  </si>
+  <si>
+    <t>{'response': '182- Ensure that existing trees &amp; area around the trees are not covered with concrete and there is space for ground water to be replenished when it rains\n', 'score': 0.5814492847785776}</t>
+  </si>
+  <si>
+    <t>{'response': '85- One of the major issue of continuous urbanisation is the decrease of green coverage. The concrete areas formed by the roofs, roads, parkings create heat islands. Putting trees on the roads might help but the main built area (flat roofs) remain. Why not encouraging green roofs and roof  top cultivation? Coupling this with grey water recycling, will tackle the issue of water scarcity to maintain a green cover.\n', 'score': 0.5754758730922463}</t>
+  </si>
+  <si>
+    <t>{'response': '148- A larger comprehensive policy detail needs to be included. Planting trees is fine or water harvesting is also fine. How are we going to achieve them? What is the strategy behind the same? A lot of water is wasted just via drains. How do we use that to recharge our ground water levels? None of this is covered and just a statement does not help.\n', 'score': 0.5707592557524194}</t>
   </si>
   <si>
     <t>{'response': '96- Some major steps must be taken to avoid water wastage \n', 'score': 0.5281764017659116}</t>
   </si>
   <si>
-    <t>{'response': '111- Unavailability of ground water is an issue of grave concern \n', 'score': 0.44055795549888205}</t>
-  </si>
-  <si>
-    <t>{'response': '133- Use of Solar electric power, rain water harvesting and home composting should be encouraged. We need to educate public in these areas. \n', 'score': 0.7432393760290409}</t>
-  </si>
-  <si>
-    <t>{'response': '148- A larger comprehensive policy detail needs to be included. Planting trees is fine or water harvesting is also fine. How are we going to achieve them? What is the strategy behind the same? A lot of water is wasted just via drains. How do we use that to recharge our ground water levels? None of this is covered and just a statement does not help.\n', 'score': 0.5707592557524194}</t>
-  </si>
-  <si>
-    <t>{'response': '155- We also need to work on drainages water logging issue in Bangalore.\n', 'score': 0.5814699147511105}</t>
-  </si>
-  <si>
-    <t>{'response': '182- Ensure that existing trees &amp; area around the trees are not covered with concrete and there is space for ground water to be replenished when it rains\n', 'score': 0.5814492847785776}</t>
-  </si>
-  <si>
-    <t>{'response': '5- Every new building should leave space to plant new trees. Care must be taken to see that they grow well. \n', 'score': 0.5516501223604487}</t>
-  </si>
-  <si>
-    <t>{'response': "6- Everything is fine but y is dat e1 after planning, u dig roads which r fine n make no roads for d people n coz of digging thrs so much of pollution n traffic n so much of health hazards for people staying thr n ppl commuting by dat road daily. Pls at least now plan properly don't just say Master Plan for name sake it shld ve sm serious good plan for d city.\n", 'score': 0.38683729055000543}</t>
+    <t>{'response': '111- Unavailability of ground water is an issue of grave concern \n', 'score': 0.4151458573995945}</t>
+  </si>
+  <si>
+    <t>{'response': '156- Planting trees in every house should be mandatory \n', 'score': 0.8049171465230706}</t>
+  </si>
+  <si>
+    <t>{'response': '179- Make sure each house has one tree planted for themselves so to maintain the greenery from house, make sure the new layouts/roads are approved with proper dimensions to have enough space for plantation in front of their homes. \n', 'score': 0.7712531204774526}</t>
+  </si>
+  <si>
+    <t>{'response': '189- Should increase the green cover by planting more fruit bearing trees as it will help birds. Also water bodies must be protected and rain water harvesting made mandatory at specific layout level so as to make them serif sufficient for their water needs. \n', 'score': 0.7670541514029213}</t>
+  </si>
+  <si>
+    <t>{'response': '130- please stop cutting trees and Govt. should bring rules such as for every one new building permit they should have plant sapled and they should take care. Now they are giving subsidy on current, if solar plants is installed similarly they should give subsidy on current or water if they have a tree planted which is recorded by government for that individual house/building, so that people will concentrate on that.   Only planting saplings will not help all these ...it should be taken care properly, so that it grows big instead dying as saplings itself.\n', 'score': 0.7634208569255616}</t>
+  </si>
+  <si>
+    <t>{'response': '52- 1. The newly planted tree saplings will take minimum 10 years to become a tree, so the aim should be to preserve the existing flora. 2. While planting new trees, the trees should be sturdy, in the sense, it should not succumb for mild wind guesses after 10 years.  3. At least 3:1 ratio of plantation should be done for each and every tree that is brought down in the name of development. 4. BDA should restrain from cutting trees just because someone built a shopping complex with the entrance placed in front of the tree. The shopping complex or any building should have been planned to avoid tree felling. 5. Everyone in the city-limit should take prior permission from the environment board before cutting any tree that is there in private or in public areas. The reason and plan of the building should be reviewed and maximum number of trees should be saved. Moreover, for every tree they cut, they should plant at least 2 tree saplings and show then as grown trees at the time of completing the construction project. To conclude: Aim should be to save the existing trees, rather than planting and waiting for another 10-15 years for them to become trees again. NOTE: BDA can consider relocation of trees with the latest technology and machines available and followed in few countries. \n', 'score': 0.7535957777770331}</t>
+  </si>
+  <si>
+    <t>{'response': '95- Tree planting should be made mandatory and vehicles should be made electrified, no more fossil fuel vehicles to be run on the roads\n', 'score': 0.72333803995563}</t>
+  </si>
+  <si>
+    <t>{'response': '33- Mainly have to stop cutting down the trees, if necessary try to replant those trees to another location where necessary. Contact me for planting tree sampling where necessary for joining hands.\n', 'score': 0.7200754373218631}</t>
+  </si>
+  <si>
+    <t>{'response': '136- Trees should be planted all roads not only major roads.  Ensure minimum one tree per house should be achieved. Segregation of waste and wet waste should be converted in to manure and used for the plantation of trees\n', 'score': 0.7187968736598488}</t>
+  </si>
+  <si>
+    <t>{'response': '39- The sooner you start the better it is because planting tree you need minimum of 5years for the tree to grow \n', 'score': 0.7088045717194583}</t>
+  </si>
+  <si>
+    <t>{'response': '98- Tree are cut irresponsibly,the trees must be planted in 1:10 ratio ,if one tree is cut in the same locality 10 trees must be planted ,the parks ,lakes must be surrounded by trees ,the roades must be maintained, proper drainage system must be in place , public toilet system must be in each locality,where not possible temporary modern public toilet system should be made , where public density is more and traffic is intense no vehicle zone or only pedestrian roads to be made ,like these issues must be addressed \n', 'score': 0.706386438134537}</t>
+  </si>
+  <si>
+    <t>{'response': '174- Plant trees of future use and which absorbs more pollution. Advice to plant flowering plants of local varieties rather costly foreign varieties on road sides. May plant tree species of long growing rather wider growing on roadsides and plant trees growing wider on roadsides which have less traffic. This samplings after planted have to be taken care until it grows for 2 years. Planting should be done before monsoon season arrival. \n', 'score': 0.7021402805430922}</t>
+  </si>
+  <si>
+    <t>{'response': '142- Also make sure to plant a tree with every cut down of a tree used for houses and carpentry \n', 'score': 0.6990512299190684}</t>
+  </si>
+  <si>
+    <t>{'response': '84- Just planting is not sufficient, sustaining the existing and maintaining the new plants is the necessary of the hour\n', 'score': 0.6642515123784307}</t>
+  </si>
+  <si>
+    <t>{'response': '115- Tree cutting should be kept to a minimum. During Road widening and flyover construction work, environmental aspects should have a greater say than the financial aspects. Buildings rather than a line of trees should be the first to go for any widening work and during budgeting this should be taken care of. A value has to be places on every tree just like market values are placed on property. \n', 'score': 0.6640322996005916}</t>
+  </si>
+  <si>
+    <t>{'response': '105- Roof top gardens and Skywalker with plantation in localities that would have housing next to next, also in case of It company offices. Flats and row houses must mandatory have garden space with trees. BDA must increase public transport including metro and publicize lesser usage of personal cars. Also, prohibit the use of personal cars within Bangalore during peak office hours. \n', 'score': 0.656389252976835}</t>
+  </si>
+  <si>
+    <t>{'response': '91- Very good view and thoughts from the government. Cutting down of trees must be made difficult for everyone. The must be guidelines and rules regarding cutting of trees. Just planting new trees will not help unless the old ones are preserved.\n', 'score': 0.6491707199638873}</t>
+  </si>
+  <si>
+    <t>{'response': '132- Planting of trees is an ongoing task. During the tenure of Mr. Ramakrishna Hegde it was encouraged by distributing free saplings in each ward. People who had open spaces and interest in planting were encouraged.  Over a period of time, everyone is interested in deviating the plan of their homes and building complete space of the site. Hence, there is no space for planting. This is leading to lot of air pollution in many areas and thus causing health issues for many people residing in Bangalore.  If you want to still retain Bangalore as "Green City" tag, then now is the time to change it. Please take some serious look.\n', 'score': 0.6442336578480786}</t>
+  </si>
+  <si>
+    <t>{'response': '131- Good to see planting tree point in the plan.. this was there earlier in 80s when one could see roadside plants with plant gaurds .. after IT revolution started, this became another photo op or event instead of being a regular activity by the concerned department. Please ensure no big trees are cut or if they have to, should be translocate else where. Have a immediate movement called "Bring back Greenery" and go on offensive planting trees as part of or outside this plan. Definite need of the hour else we will all choke to severe health problems and die\n', 'score': 0.6438076453347034}</t>
+  </si>
+  <si>
+    <t>{'response': '122- Make mandatory for residents/companies/corporates, in fact all to plant trees and also maintain them till they grow. Moving Polluted industries outside city does not look like a good idea, working around controlling and reducing them shd be part. Forest and water bodies shd not be touched but to be maintained. Solar power to be in use immediately and let go others for preservation. Very clear demarcation on usage of public property- roads for driving, footpaths for walking etc\n', 'score': 0.6435161134607152}</t>
+  </si>
+  <si>
+    <t>{'response': '109- Please make it mandatory for all buildings to have rooftop gardens.\n', 'score': 0.6428397833460576}</t>
+  </si>
+  <si>
+    <t>{'response': "49- Instead of planting trees, trees are being cut. The proud thing of Bengaluru was trees and alot of trees which is being cut, Bengaluru is losing its pride,its temperature is changed only because of this, IT sectors other people are coming to B'lore and there's no much space left so trees are being cut but when you chop one tree its like taking alot of lives, I request you to please make B'lore as before. Please..\n", 'score': 0.6425890224925798}</t>
+  </si>
+  <si>
+    <t>{'response': '127- Pollution cannot be curbed just by installing tree, reduce the reduction of diesel cars for private use. Also make footpaths that support trees and store rainwater during raining season, this will replenish ground water, also ban bore-wells that are destroying the water table in Bangalore\n', 'score': 0.6419813341561798}</t>
+  </si>
+  <si>
+    <t>{'response': '101- Making residents to mandate planting plants at home at least 1 plant per person\n', 'score': 0.6395293020226004}</t>
+  </si>
+  <si>
+    <t>{'response': '14- Not only plant but also monitor the growth of trees. Plant more Banyan for larger distribution of trees, and higher o2 content. Also, we have a huge termite problem so we are in dire need of tree doctors at every ward. Lastly, give more breathing space for trees and not choke it with cement. \n', 'score': 0.6390853216347558}</t>
+  </si>
+  <si>
+    <t>{'response': '90- BDA has done good job in assessing environment. A simple and more effective solution would be to involve public in environment protection. Issue a Government Order mandating 1 Tree for every House with minimum of 1200 sq.ft area of land. Apartment complexes can also abide this rule. This will ensure quick implementation of tree cover, and reduce temperature, and increase water resources through rain fall.\n', 'score': 0.6388606641890323}</t>
+  </si>
+  <si>
+    <t>{'response': '27- Need to make strict rules for not chopping the trees.  BBMP keeps chopping /trimming the trees to keep the electric cables safe.  Instead they can do underground cabling.  Also,  instead of chopping huge trees,  they can use new technologies and relocate those trees.   Strictly plant 2trees each house.  (breadth and length should be mentioned in guidelines). \n', 'score': 0.6386245365199026}</t>
+  </si>
+  <si>
+    <t>{'response': "86- Plant small trees along all roads in around Bangalore and make a dense forest kind of plan so that city gets back it's old charm\n", 'score': 0.6352489828459187}</t>
+  </si>
+  <si>
+    <t>{'response': '112- 1. Planting trees will just not help because they will be chopped of my the Govt for road widening Or for Metro Or any other reasons. Why cant we enable Vertical gardening. Its consumes less space and more effective. Infact the space below the Metro lane is now becoming a dumping yard. It can be well maintained too. 2. Maintaining the water beds should be thought off. we see the lakes are been converted to land . Eg: JP nagar Puttenhalli lake which was once a wide spread lake, today is making way for a big apartment to come up. Even with heavy rains this year, there were no signs of water in it. One side the govt passed order to demolish the buildings built on the water bed, and other side the govt itself is granting permissions for covering  the lake.   3.  \n', 'score': 0.6339534734528183}</t>
+  </si>
+  <si>
+    <t>{'response': '30- The Green Belt is reducing by cutting trees and uncountable constructions. There is no plan to road but big builders make the apartment for possession.\n', 'score': 0.6270310521075877}</t>
+  </si>
+  <si>
+    <t>{'response': "60- It's important to educate as well as make people practice to plant trees only then will the city improve in. Environmental issues\n", 'score': 0.6191749162357104}</t>
+  </si>
+  <si>
+    <t>{'response': '176- Many Places cutting the tree due to infrastructures development. Yes we need infrastructures but we have to do proper plan for this. (Dont cut the tree)\n', 'score': 0.5982535925733795}</t>
+  </si>
+  <si>
+    <t>{'response': '79- What is the meaning of "will plant more trees". Instead of that make mandatory to all who are living in Bangalore that they plant 40 trees and by the next 10 years 10 trees should grow to their full health  It should be their responsibility that they should take care of these plants. Those who can make survive 30+ plant reward them. I think there are 8 million people in Bangalore. Let\'s take 4 million are adult in this. So this count after 10 years  there would be 40 million tree at least. And this would be a great thing for this beautiful and important city.\n', 'score': 0.5957279529308556}</t>
+  </si>
+  <si>
+    <t>{'response': '31- How about planting trees with fruits like mango n al...this would b great if v are able to get food in the road \n', 'score': 0.5733897822228903}</t>
+  </si>
+  <si>
+    <t>{'response': "72- Need to stop demolishing Bigg biggg trees,you can't plant a 1plant instead of 1bigg tree \n", 'score': 0.5707620324452393}</t>
+  </si>
+  <si>
+    <t>{'response': '70- Tree planting has never been successful. Saplings are planted, money is spent and forgotten. They just wilt away after a few months due to lack of care.\n', 'score': 0.5642407870039291}</t>
+  </si>
+  <si>
+    <t>{'response': '5- Every new building should leave space to plant new trees. Care must be taken to see that they grow well. \n', 'score': 0.5620143467456254}</t>
+  </si>
+  <si>
+    <t>{'response': '80- We should ideally stop new construction it will bring in more deforestation \n', 'score': 0.5220013951333361}</t>
+  </si>
+  <si>
+    <t>{'response': "143- The idea is awesome but will it be really executed or possible in this corrupt state. Every new plan come comes with a heavy cost which end of the day is bared by common public. How? Means XYZ authority take cost approval from respective authorities in the name of development which includes bribe for each and every person. This needs to be properly mapped and monitored before executing any plans which will help to have cost effective and qualitative execution. Also there should be strict sessions/syllabus in every school.  Me being from Kerala State, but feel so bad hearing sarcastic fun on laughing at Bangalore being called garden of the city as it isn't really green. We should give this job to Army personals who are good and maintaining and managing green. Examples - HAL Stretch, Jalahalli Stretch, Ramaiah College Stretch, Brigade  Road towards Kormangala stretch. Entire road and area should beautiful like our Devanahalli Airport Road that should be our target and focus.   Clean all lakes esp sarjapur lake. If one cuts one trees they should plant 5 trees in return. There should be proper count and agreement on trees. Every garden should be properly managed.  \n", 'score': 0.5197045366022368}</t>
+  </si>
+  <si>
+    <t>{'response': '171- make proper layout for residential area, every 2 Km square meter provide 1, 1 acre area park. Destroy all illegal buildings.  \n', 'score': 0.5096888305418702}</t>
+  </si>
+  <si>
+    <t>{'response': '160- Community and public toilets are an absolute need. The details of toilet construction is not sufficient enough. Please make adequate provision to build a four seat toilet complex every two km on main roads. A public private partnership initiative may be taken up in this regard.\n', 'score': 0.50373852688408}</t>
+  </si>
+  <si>
+    <t>{'response': '89- If this follows exactly what has been mentioned here, they Bangalore will become a great city. I would just like to add a point regarding allocation of land space for new construction, there should be a gap to plant trees.\n', 'score': 0.5017902201102131}</t>
+  </si>
+  <si>
+    <t>{'response': '59- Although all these ideas are novel and can make an impact when implemented properly, no assurance what so ever has been given regarding this and the method of implementation is again up for speculation. Another major drawback is that these measures prevent future degradation but do not include any steps for rehabilitating the currently degrading environment\n', 'score': 0.4509992034143682}</t>
   </si>
   <si>
     <t>{'response': '13- There should be more specifics of how are they going to achieve this. There should be some deadlines and some Targets associated with each item. 2031 will be too late for such measures as we have habit of working towards the end of Goal. Some Immediate steps should be taken to get Environment, Back on Track. Relive all the lakes, make all the lakes Non-Toxic, plant more trees around the Lake. Create Green Zones across the Cities, where there should be only plants and no other activities should happen. Work on providing 24*7 Electricity to all the offices and apartments, so that usage of Gensets can be minimized. \n', 'score': 0.44742142213547714}</t>
   </si>
   <si>
-    <t>{'response': '14- Not only plant but also monitor the growth of trees. Plant more Banyan for larger distribution of trees, and higher o2 content. Also, we have a huge termite problem so we are in dire need of tree doctors at every ward. Lastly, give more breathing space for trees and not choke it with cement. \n', 'score': 0.6351790424239746}</t>
-  </si>
-  <si>
-    <t>{'response': '27- Need to make strict rules for not chopping the trees.  BBMP keeps chopping /trimming the trees to keep the electric cables safe.  Instead they can do underground cabling.  Also,  instead of chopping huge trees,  they can use new technologies and relocate those trees.   Strictly plant 2trees each house.  (breadth and length should be mentioned in guidelines). \n', 'score': 0.6386245365199026}</t>
-  </si>
-  <si>
-    <t>{'response': '30- The Green Belt is reducing by cutting trees and uncountable constructions. There is no plan to road but big builders make the apartment for possession.\n', 'score': 0.6270310521075877}</t>
-  </si>
-  <si>
-    <t>{'response': '31- How about planting trees with fruits like mango n al...this would b great if v are able to get food in the road \n', 'score': 0.5733897822228903}</t>
-  </si>
-  <si>
-    <t>{'response': '33- Mainly have to stop cutting down the trees, if necessary try to replant those trees to another location where necessary. Contact me for planting tree sampling where necessary for joining hands.\n', 'score': 0.7200754373218631}</t>
-  </si>
-  <si>
-    <t>{'response': '39- The sooner you start the better it is because planting tree you need minimum of 5years for the tree to grow \n', 'score': 0.6837320345976114}</t>
-  </si>
-  <si>
-    <t>{'response': "49- Instead of planting trees, trees are being cut. The proud thing of Bengaluru was trees and alot of trees which is being cut, Bengaluru is losing its pride,its temperature is changed only because of this, IT sectors other people are coming to B'lore and there's no much space left so trees are being cut but when you chop one tree its like taking alot of lives, I request you to please make B'lore as before. Please..\n", 'score': 0.6230865564369344}</t>
-  </si>
-  <si>
-    <t>{'response': '52- 1. The newly planted tree saplings will take minimum 10 years to become a tree, so the aim should be to preserve the existing flora. 2. While planting new trees, the trees should be sturdy, in the sense, it should not succumb for mild wind guesses after 10 years.  3. At least 3:1 ratio of plantation should be done for each and every tree that is brought down in the name of development. 4. BDA should restrain from cutting trees just because someone built a shopping complex with the entrance placed in front of the tree. The shopping complex or any building should have been planned to avoid tree felling. 5. Everyone in the city-limit should take prior permission from the environment board before cutting any tree that is there in private or in public areas. The reason and plan of the building should be reviewed and maximum number of trees should be saved. Moreover, for every tree they cut, they should plant at least 2 tree saplings and show then as grown trees at the time of completing the construction project. To conclude: Aim should be to save the existing trees, rather than planting and waiting for another 10-15 years for them to become trees again. NOTE: BDA can consider relocation of trees with the latest technology and machines available and followed in few countries. \n', 'score': 0.7424298103477207}</t>
-  </si>
-  <si>
-    <t>{'response': '59- Although all these ideas are novel and can make an impact when implemented properly, no assurance what so ever has been given regarding this and the method of implementation is again up for speculation. Another major drawback is that these measures prevent future degradation but do not include any steps for rehabilitating the currently degrading environment\n', 'score': 0.4509992034143682}</t>
-  </si>
-  <si>
-    <t>{'response': "60- It's important to educate as well as make people practice to plant trees only then will the city improve in. Environmental issues\n", 'score': 0.6136095977324163}</t>
-  </si>
-  <si>
-    <t>{'response': '70- Tree planting has never been successful. Saplings are planted, money is spent and forgotten. They just wilt away after a few months due to lack of care.\n', 'score': 0.6010409133703356}</t>
-  </si>
-  <si>
-    <t>{'response': "72- Need to stop demolishing Bigg biggg trees,you can't plant a 1plant instead of 1bigg tree \n", 'score': 0.5707620324452393}</t>
-  </si>
-  <si>
-    <t>{'response': '79- What is the meaning of "will plant more trees". Instead of that make mandatory to all who are living in Bangalore that they plant 40 trees and by the next 10 years 10 trees should grow to their full health  It should be their responsibility that they should take care of these plants. Those who can make survive 30+ plant reward them. I think there are 8 million people in Bangalore. Let\'s take 4 million are adult in this. So this count after 10 years  there would be 40 million tree at least. And this would be a great thing for this beautiful and important city.\n', 'score': 0.5908516721065988}</t>
-  </si>
-  <si>
-    <t>{'response': '80- We should ideally stop new construction it will bring in more deforestation \n', 'score': 0.5220013951333361}</t>
-  </si>
-  <si>
-    <t>{'response': '84- Just planting is not sufficient, sustaining the existing and maintaining the new plants is the necessary of the hour\n', 'score': 0.6642515123784307}</t>
-  </si>
-  <si>
-    <t>{'response': "86- Plant small trees along all roads in around Bangalore and make a dense forest kind of plan so that city gets back it's old charm\n", 'score': 0.6352489828459187}</t>
-  </si>
-  <si>
-    <t>{'response': '89- If this follows exactly what has been mentioned here, they Bangalore will become a great city. I would just like to add a point regarding allocation of land space for new construction, there should be a gap to plant trees.\n', 'score': 0.5017902201102131}</t>
-  </si>
-  <si>
-    <t>{'response': '90- BDA has done good job in assessing environment. A simple and more effective solution would be to involve public in environment protection. Issue a Government Order mandating 1 Tree for every House with minimum of 1200 sq.ft area of land. Apartment complexes can also abide this rule. This will ensure quick implementation of tree cover, and reduce temperature, and increase water resources through rain fall.\n', 'score': 0.6388808975026553}</t>
-  </si>
-  <si>
-    <t>{'response': '91- Very good view and thoughts from the government. Cutting down of trees must be made difficult for everyone. The must be guidelines and rules regarding cutting of trees. Just planting new trees will not help unless the old ones are preserved.\n', 'score': 0.6491707199638873}</t>
-  </si>
-  <si>
-    <t>{'response': '92- regulate garbage. invest in recycling plants or outsource it. make it licensed and legal. \n', 'score': 0.42648903735030547}</t>
-  </si>
-  <si>
-    <t>{'response': '95- Tree planting should be made mandatory and vehicles should be made electrified, no more fossil fuel vehicles to be run on the roads\n', 'score': 0.72333803995563}</t>
-  </si>
-  <si>
-    <t>{'response': '98- Tree are cut irresponsibly,the trees must be planted in 1:10 ratio ,if one tree is cut in the same locality 10 trees must be planted ,the parks ,lakes must be surrounded by trees ,the roades must be maintained, proper drainage system must be in place , public toilet system must be in each locality,where not possible temporary modern public toilet system should be made , where public density is more and traffic is intense no vehicle zone or only pedestrian roads to be made ,like these issues must be addressed \n', 'score': 0.706386438134537}</t>
-  </si>
-  <si>
-    <t>{'response': '101- Making residents to mandate planting plants at home at least 1 plant per person\n', 'score': 0.6395293020226004}</t>
-  </si>
-  <si>
-    <t>{'response': '105- Roof top gardens and Skywalker with plantation in localities that would have housing next to next, also in case of It company offices. Flats and row houses must mandatory have garden space with trees. BDA must increase public transport including metro and publicize lesser usage of personal cars. Also, prohibit the use of personal cars within Bangalore during peak office hours. \n', 'score': 0.656389252976835}</t>
-  </si>
-  <si>
-    <t>{'response': '109- Please make it mandatory for all buildings to have rooftop gardens.\n', 'score': 0.6428397833460576}</t>
-  </si>
-  <si>
-    <t>{'response': '112- 1. Planting trees will just not help because they will be chopped of my the Govt for road widening Or for Metro Or any other reasons. Why cant we enable Vertical gardening. Its consumes less space and more effective. Infact the space below the Metro lane is now becoming a dumping yard. It can be well maintained too. 2. Maintaining the water beds should be thought off. we see the lakes are been converted to land . Eg: JP nagar Puttenhalli lake which was once a wide spread lake, today is making way for a big apartment to come up. Even with heavy rains this year, there were no signs of water in it. One side the govt passed order to demolish the buildings built on the water bed, and other side the govt itself is granting permissions for covering  the lake.   3.  \n', 'score': 0.6205868756125686}</t>
-  </si>
-  <si>
-    <t>{'response': '115- Tree cutting should be kept to a minimum. During Road widening and flyover construction work, environmental aspects should have a greater say than the financial aspects. Buildings rather than a line of trees should be the first to go for any widening work and during budgeting this should be taken care of. A value has to be places on every tree just like market values are placed on property. \n', 'score': 0.6640322996005916}</t>
-  </si>
-  <si>
-    <t>{'response': '122- Make mandatory for residents/companies/corporates, in fact all to plant trees and also maintain them till they grow. Moving Polluted industries outside city does not look like a good idea, working around controlling and reducing them shd be part. Forest and water bodies shd not be touched but to be maintained. Solar power to be in use immediately and let go others for preservation. Very clear demarcation on usage of public property- roads for driving, footpaths for walking etc\n', 'score': 0.6230316123469718}</t>
-  </si>
-  <si>
-    <t>{'response': '127- Pollution cannot be curbed just by installing tree, reduce the reduction of diesel cars for private use. Also make footpaths that support trees and store rainwater during raining season, this will replenish ground water, also ban bore-wells that are destroying the water table in Bangalore\n', 'score': 0.6406457942933325}</t>
-  </si>
-  <si>
-    <t>{'response': '130- please stop cutting trees and Govt. should bring rules such as for every one new building permit they should have plant sapled and they should take care. Now they are giving subsidy on current, if solar plants is installed similarly they should give subsidy on current or water if they have a tree planted which is recorded by government for that individual house/building, so that people will concentrate on that.   Only planting saplings will not help all these ...it should be taken care properly, so that it grows big instead dying as saplings itself.\n', 'score': 0.761660687271892}</t>
-  </si>
-  <si>
-    <t>{'response': '131- Good to see planting tree point in the plan.. this was there earlier in 80s when one could see roadside plants with plant gaurds .. after IT revolution started, this became another photo op or event instead of being a regular activity by the concerned department. Please ensure no big trees are cut or if they have to, should be translocate else where. Have a immediate movement called "Bring back Greenery" and go on offensive planting trees as part of or outside this plan. Definite need of the hour else we will all choke to severe health problems and die\n', 'score': 0.6413785707591434}</t>
-  </si>
-  <si>
-    <t>{'response': '132- Planting of trees is an ongoing task. During the tenure of Mr. Ramakrishna Hegde it was encouraged by distributing free saplings in each ward. People who had open spaces and interest in planting were encouraged.  Over a period of time, everyone is interested in deviating the plan of their homes and building complete space of the site. Hence, there is no space for planting. This is leading to lot of air pollution in many areas and thus causing health issues for many people residing in Bangalore.  If you want to still retain Bangalore as "Green City" tag, then now is the time to change it. Please take some serious look.\n', 'score': 0.6404429767065125}</t>
-  </si>
-  <si>
-    <t>{'response': '136- Trees should be planted all roads not only major roads.  Ensure minimum one tree per house should be achieved. Segregation of waste and wet waste should be converted in to manure and used for the plantation of trees\n', 'score': 0.7187968736598488}</t>
-  </si>
-  <si>
-    <t>{'response': '142- Also make sure to plant a tree with every cut down of a tree used for houses and carpentry \n', 'score': 0.6990512299190684}</t>
-  </si>
-  <si>
-    <t>{'response': "143- The idea is awesome but will it be really executed or possible in this corrupt state. Every new plan come comes with a heavy cost which end of the day is bared by common public. How? Means XYZ authority take cost approval from respective authorities in the name of development which includes bribe for each and every person. This needs to be properly mapped and monitored before executing any plans which will help to have cost effective and qualitative execution. Also there should be strict sessions/syllabus in every school.  Me being from Kerala State, but feel so bad hearing sarcastic fun on laughing at Bangalore being called garden of the city as it isn't really green. We should give this job to Army personals who are good and maintaining and managing green. Examples - HAL Stretch, Jalahalli Stretch, Ramaiah College Stretch, Brigade  Road towards Kormangala stretch. Entire road and area should beautiful like our Devanahalli Airport Road that should be our target and focus.   Clean all lakes esp sarjapur lake. If one cuts one trees they should plant 5 trees in return. There should be proper count and agreement on trees. Every garden should be properly managed.  \n", 'score': 0.5197045366022368}</t>
-  </si>
-  <si>
-    <t>{'response': '156- Planting trees in every house should be mandatory \n', 'score': 0.8049171465230706}</t>
-  </si>
-  <si>
-    <t>{'response': '160- Community and public toilets are an absolute need. The details of toilet construction is not sufficient enough. Please make adequate provision to build a four seat toilet complex every two km on main roads. A public private partnership initiative may be taken up in this regard.\n', 'score': 0.50373852688408}</t>
-  </si>
-  <si>
-    <t>{'response': '171- make proper layout for residential area, every 2 Km square meter provide 1, 1 acre area park. Destroy all illegal buildings.  \n', 'score': 0.5096888305418702}</t>
-  </si>
-  <si>
-    <t>{'response': '174- Plant trees of future use and which absorbs more pollution. Advice to plant flowering plants of local varieties rather costly foreign varieties on road sides. May plant tree species of long growing rather wider growing on roadsides and plant trees growing wider on roadsides which have less traffic. This samplings after planted have to be taken care until it grows for 2 years. Planting should be done before monsoon season arrival. \n', 'score': 0.701379166482805}</t>
-  </si>
-  <si>
-    <t>{'response': '176- Many Places cutting the tree due to infrastructures development. Yes we need infrastructures but we have to do proper plan for this. (Dont cut the tree)\n', 'score': 0.5982535925733795}</t>
-  </si>
-  <si>
-    <t>{'response': '179- Make sure each house has one tree planted for themselves so to maintain the greenery from house, make sure the new layouts/roads are approved with proper dimensions to have enough space for plantation in front of their homes. \n', 'score': 0.7712531204774526}</t>
-  </si>
-  <si>
-    <t>{'response': '189- Should increase the green cover by planting more fruit bearing trees as it will help birds. Also water bodies must be protected and rain water harvesting made mandatory at specific layout level so as to make them serif sufficient for their water needs. \n', 'score': 0.7658238910455046}</t>
-  </si>
-  <si>
-    <t>{'response': '1- Please stop drying lakes and using it for buildings. Stop cutting trees.. it pains whenever i see anyone cutting any trees. The Bengaluru i lived 10 years ago was a paradise.. its been ruined coz of human greed. Please ban cutting any trees in and around bangalore\n', 'score': 0.4869526491276455}</t>
+    <t>{'response': '92- regulate garbage. invest in recycling plants or outsource it. make it licensed and legal. \n', 'score': 0.4448370199171415}</t>
+  </si>
+  <si>
+    <t>{'response': "6- Everything is fine but y is dat e1 after planning, u dig roads which r fine n make no roads for d people n coz of digging thrs so much of pollution n traffic n so much of health hazards for people staying thr n ppl commuting by dat road daily. Pls at least now plan properly don't just say Master Plan for name sake it shld ve sm serious good plan for d city.\n", 'score': 0.40837824676210416}</t>
+  </si>
+  <si>
+    <t>{'response': '1- Please stop drying lakes and using it for buildings. Stop cutting trees.. it pains whenever i see anyone cutting any trees. The Bengaluru i lived 10 years ago was a paradise.. its been ruined coz of human greed. Please ban cutting any trees in and around bangalore\n', 'score': 0.47686465642368847}</t>
   </si>
   <si>
     <t>{'response': '11- This plan should be implemented now for next 15 years there will be a lot of population in Bengaluru. Please protect the nature in Bengaluru and do it now\n', 'score': 0.43271635199746744}</t>
   </si>
   <si>
+    <t>{'response': '180- Not enough done for Bengaluru environment\n', 'score': 0.41858110545910643}</t>
+  </si>
+  <si>
     <t>{'response': "55- I really wish the promises made by the municipality will be executed. Bengaluru misses it's greenery!\n", 'score': 0.3717276540996428}</t>
   </si>
   <si>
     <t>{'response': '82- Need to properly streamline all the projects and complete them within the deadline. \n', 'score': 0.3133156451502066}</t>
   </si>
   <si>
-    <t>{'response': '180- Not enough done for Bengaluru environment\n', 'score': 0.41858110545910643}</t>
-  </si>
-  <si>
-    <t>{'response': '36- Even though a lot of effort is being done to improve the environment , we still have a filthy  environment. This is due to the indifference and ignorance of the public. We have to use a lot of publicity about achieving a clean and healthy place to live in. TV, Radio , Movie theaters,  all the Government offices, Hospitals, Schools and colleges can be used for conveying strong messages about the donts -like, littering, defecating, urinating, SPITTING,  in public places,  and  heavy fines have to be charged when rules are violated.  Even though  thin  plastic bags are banned shops and vendors are still using them.  Emission tests are not carried out by many vehicles .  How do they escape the scrutiny of the police! There are many BBMP buses emitting black smoke . There should be periodical checks .  Educationg the public is the first step . \n', 'score': 0.47501217329138745}</t>
+    <t>{'response': '126- Please ban use of polybags and disposable cutlery. Road side hawkers attract IT population and have no proper disposal of garbage. Garbage of disposable and polythene goes in drains and on foot paths\n', 'score': 0.5628126903072039}</t>
   </si>
   <si>
     <t>{'response': '45- Please avoid using some expensive flower plant or ornamental plants. Try to use convenientional trees which which we used to plant in old Bangalore areas. Vertical gardening is also a good idea\n', 'score': 0.5144956802850988}</t>
   </si>
   <si>
-    <t>{'response': "51- The problem with a democratic national is that the development plans for the next few decades look brilliant on paper. At the top level of hierarchy, the problems are jot down and addressed with a practical solution.  But it's equally hopeless when it comes to the execution as we move down in the hierarchy.  There needs to be a strict evaluation of the ongoing plans to curb the wrongdoings and also promote the need for development among the citizens so that the general public can enforce the same by being a part of it voluntarily.  Gone are the days where we sit idle and blame the government. If we need to see the changes around us, we need to change as well. Just wishing the government promotes active participation of citizens for the development of cities. \n", 'score': 0.4181724710031251}</t>
-  </si>
-  <si>
-    <t>{'response': '126- Please ban use of polybags and disposable cutlery. Road side hawkers attract IT population and have no proper disposal of garbage. Garbage of disposable and polythene goes in drains and on foot paths\n', 'score': 0.5675630729540997}</t>
-  </si>
-  <si>
-    <t>{'response': "4- Chopping of trees should be stopped unless it's a matter of concern to life. \n", 'score': 0.4465009273332145}</t>
-  </si>
-  <si>
-    <t>{'response': '34- Banglore should go for strong trees than the exisiting thin and strongless trees breaks down when heavy rain fall.\n', 'score': 0.3583770606250103}</t>
+    <t>{'response': '36- Even though a lot of effort is being done to improve the environment , we still have a filthy  environment. This is due to the indifference and ignorance of the public. We have to use a lot of publicity about achieving a clean and healthy place to live in. TV, Radio , Movie theaters,  all the Government offices, Hospitals, Schools and colleges can be used for conveying strong messages about the donts -like, littering, defecating, urinating, SPITTING,  in public places,  and  heavy fines have to be charged when rules are violated.  Even though  thin  plastic bags are banned shops and vendors are still using them.  Emission tests are not carried out by many vehicles .  How do they escape the scrutiny of the police! There are many BBMP buses emitting black smoke . There should be periodical checks .  Educationg the public is the first step . \n', 'score': 0.47561206140233847}</t>
+  </si>
+  <si>
+    <t>{'response': "51- The problem with a democratic national is that the development plans for the next few decades look brilliant on paper. At the top level of hierarchy, the problems are jot down and addressed with a practical solution.  But it's equally hopeless when it comes to the execution as we move down in the hierarchy.  There needs to be a strict evaluation of the ongoing plans to curb the wrongdoings and also promote the need for development among the citizens so that the general public can enforce the same by being a part of it voluntarily.  Gone are the days where we sit idle and blame the government. If we need to see the changes around us, we need to change as well. Just wishing the government promotes active participation of citizens for the development of cities. \n", 'score': 0.4177259539176682}</t>
+  </si>
+  <si>
+    <t>{'response': '57- make it mandatory to plant trees by all the citizens around their houses. lake should be protected and proper sewage system should be maintained\n', 'score': 0.6760052875182292}</t>
+  </si>
+  <si>
+    <t>{'response': '147- Please do plant more trees and maintain the name given to us as a garden city \n', 'score': 0.6547641317847285}</t>
   </si>
   <si>
     <t>{'response': '47- there are ample trees being planted nor are there any proper maintenance of parks and lakes. some immense drives should be held to plant more trees along with tech parks every month(suggestion)\n', 'score': 0.5948775513271068}</t>
   </si>
   <si>
-    <t>{'response': '57- make it mandatory to plant trees by all the citizens around their houses. lake should be protected and proper sewage system should be maintained\n', 'score': 0.6760052875182292}</t>
+    <t>{'response': '153- Unsatisfied with the development and need to show intrest and improve the grenery plant the trees where it is required in every road with plan \n', 'score': 0.5795371796893355}</t>
+  </si>
+  <si>
+    <t>{'response': '185- The garden city is becoming  hotter. More trees to be planted in boundaries of the layout,road sides and gardens.\n', 'score': 0.5687681835072821}</t>
+  </si>
+  <si>
+    <t>{'response': '134- Ensure each housing society has trees planted, roof top gardens and zero discharge\n', 'score': 0.5565491554536066}</t>
+  </si>
+  <si>
+    <t>{'response': '104- Who will maintain the planted trees? Till now all the planted trees are died without no Maintanance and water supply\n', 'score': 0.5440557497858012}</t>
+  </si>
+  <si>
+    <t>{'response': '110- Bangalore is especially known for its green art and named as garden city....so I request to plant trees along the road side,provide clean footpaths with benches and some decorative things like that which makes the city look beautiful...and also a request to not allow anyone spit chewing gums and pan and all\n', 'score': 0.5072966285424426}</t>
   </si>
   <si>
     <t>{'response': "64- Planting more and more trees isn't a option anymore, it's become a necessity\n", 'score': 0.5061364675223519}</t>
   </si>
   <si>
-    <t>{'response': '68- Their should small jungle in every part of bangalore the technique of this jungle is used by HAL where a small 10*20 place will be filled with trees and managed in such a way that their is no place inside by setting up of small mini size to huge trees in a orderly way this will fight pollution and save greenery\n', 'score': 0.39532977138738995}</t>
+    <t>{'response': '88- Save trees\n', 'score': 0.5054496311225406}</t>
+  </si>
+  <si>
+    <t>{'response': '161- stop cutting the trees 1st\n', 'score': 0.4899448877096215}</t>
+  </si>
+  <si>
+    <t>{'response': '181- Where is the space to plant trees, footpaths have been trimmed and will become non-existent with the expansion of road to accommodate more vehicles, electric poles, transformers and traffic signs. My opinion would be to have an lane entirely dedicated for pedestrians and trees. At least the minimum we can think of is having an elevated footpath in places of dense and dangerous traffic or if we are more kind and generous towards saving environment make elevated cycle tracks.\n', 'score': 0.4554801443045929}</t>
   </si>
   <si>
     <t>{'response': '77- Stop cutting trees, start growing trees\n', 'score': 0.4540965832542282}</t>
   </si>
   <si>
-    <t>{'response': '88- Save trees\n', 'score': 0.5054496311225406}</t>
-  </si>
-  <si>
-    <t>{'response': '104- Who will maintain the planted trees? Till now all the planted trees are died without no Maintanance and water supply\n', 'score': 0.5440557497858012}</t>
-  </si>
-  <si>
-    <t>{'response': '110- Bangalore is especially known for its green art and named as garden city....so I request to plant trees along the road side,provide clean footpaths with benches and some decorative things like that which makes the city look beautiful...and also a request to not allow anyone spit chewing gums and pan and all\n', 'score': 0.5072966279519041}</t>
-  </si>
-  <si>
-    <t>{'response': '134- Ensure each housing society has trees planted, roof top gardens and zero discharge\n', 'score': 0.5565491554536066}</t>
-  </si>
-  <si>
-    <t>{'response': '147- Please do plant more trees and maintain the name given to us as a garden city \n', 'score': 0.6547641317847285}</t>
-  </si>
-  <si>
-    <t>{'response': '153- Unsatisfied with the development and need to show intrest and improve the grenery plant the trees where it is required in every road with plan \n', 'score': 0.5524073632412307}</t>
-  </si>
-  <si>
-    <t>{'response': '161- stop cutting the trees 1st\n', 'score': 0.4899448877096215}</t>
-  </si>
-  <si>
-    <t>{'response': '181- Where is the space to plant trees, footpaths have been trimmed and will become non-existent with the expansion of road to accommodate more vehicles, electric poles, transformers and traffic signs. My opinion would be to have an lane entirely dedicated for pedestrians and trees. At least the minimum we can think of is having an elevated footpath in places of dense and dangerous traffic or if we are more kind and generous towards saving environment make elevated cycle tracks.\n', 'score': 0.4554801443045929}</t>
-  </si>
-  <si>
-    <t>{'response': '185- The garden city is becoming  hotter. More trees to be planted in boundaries of the layout,road sides and gardens.\n', 'score': 0.5687681835072821}</t>
+    <t>{'response': "4- Chopping of trees should be stopped unless it's a matter of concern to life. \n", 'score': 0.4439068856601121}</t>
+  </si>
+  <si>
+    <t>{'response': '68- Their should small jungle in every part of bangalore the technique of this jungle is used by HAL where a small 10*20 place will be filled with trees and managed in such a way that their is no place inside by setting up of small mini size to huge trees in a orderly way this will fight pollution and save greenery\n', 'score': 0.40446686069488985}</t>
+  </si>
+  <si>
+    <t>{'response': '34- Banglore should go for strong trees than the exisiting thin and strongless trees breaks down when heavy rain fall.\n', 'score': 0.3458395244390487}</t>
   </si>
   <si>
     <t>{'response': '28- Ban of Diesel Vehicles before the city becomes like the National Capital of India\n', 'score': 0.4748929272853932}</t>
   </si>
   <si>
+    <t>{'response': '165- Bangalore has been turned from garden city to garbage city\n', 'score': 0.45410720759575224}</t>
+  </si>
+  <si>
     <t>{'response': "141- Don't increase urbanization.. Don't increase FAR for construction.  Move further out only and have wide signal free road to commute to city or metro extension\n", 'score': 0.41525887939032785}</t>
   </si>
   <si>
-    <t>{'response': '165- Bangalore has been turned from garden city to garbage city\n', 'score': 0.45410720759575224}</t>
+    <t>{'response': '159- Needs more green spaces. Make use of solar energy in existing areas. Plant trees on the opposite sides of the electricity poles (better to channelize all wires underground). So trees can grow without being chopped off. Make open spaces in every ward, parks with trees a must!\n', 'score': 0.6353717335033279}</t>
   </si>
   <si>
     <t>{'response': '61- Well, I think solar energy should be widely supported by many people.. and each house should start taking this very seriously. Tesla as a company is doing so much better to the earth through sustainable energy. \n', 'score': 0.6261226375986495}</t>
-  </si>
-  <si>
-    <t>{'response': '159- Needs more green spaces. Make use of solar energy in existing areas. Plant trees on the opposite sides of the electricity poles (better to channelize all wires underground). So trees can grow without being chopped off. Make open spaces in every ward, parks with trees a must!\n', 'score': 0.6475393091802908}</t>
   </si>
   <si>
     <t xml:space="preserve">Currently, there are some parts of the city that are more than 5 kilometres away from a healthcare facility - traffic congestion makes reaching these facilities that much harder
@@ -911,28 +911,28 @@
     <t>there should be burial grounds, cemeteries and crematoriums in every planning district</t>
   </si>
   <si>
+    <t>{'response': "4- ಆರೋಗ್ಯ ವೆ ಭಾಗ್ಯ Hygiene is most important.Atleast provide some sophisticated equipment to clean the drainage and make sure that drainage doesn't mix with the drinking water.Healthcare isn't just about constructing hospitals but also providing access to clean drinking water,fresh eatables and proper waste management.Provide all these facilities to the people so that they don't need any hospitals.Provide clean facilities and you don't have to construct many hospitals\n", 'score': 0.6684130477325836}</t>
+  </si>
+  <si>
+    <t>{'response': '7- There needs to be better signage of healthcare centers (in all major languages used in the city) so that people know where the govt. healthcare facilities are.\n', 'score': 0.6605692520072247}</t>
+  </si>
+  <si>
+    <t>{'response': '17- Every ward should have a primary health center with full facilities to cater the primary health needs of citizens. One should learn from the KERALA government which has primary health center in almost all wards of panchayat, municipalities and corporations in the state.\n', 'score': 0.6452987103701388}</t>
+  </si>
+  <si>
+    <t>{'response': '20- Government hospitals should be more encouraged by providing good class services so that the poor also gets the best medical facilities \n', 'score': 0.6268559946479355}</t>
+  </si>
+  <si>
+    <t>{'response': '3- Government should try to work on the Model of Mohalla Clinic, which can provide Free and High Standard Medical Facilities for all the citizens. if there are such facilities available, the Low Supply is not able to cater to high demands in the City. BDA Complexes or Existing IT Parks can be used to open such clinics, this will avoid looking for more space in the City and would prove economical to setup a clinic.\n', 'score': 0.6085295722230639}</t>
+  </si>
+  <si>
     <t>{'response': '2- Stop coming up with new pathetic solutions. Start working on whats in your hand. First make current healthcare infra better. Every govt. sector should collaborate with corporates and there should be stocks for healthcare companies which is regulated and controlled by govt. \n', 'score': 0.4815591248648885}</t>
   </si>
   <si>
-    <t>{'response': '3- Government should try to work on the Model of Mohalla Clinic, which can provide Free and High Standard Medical Facilities for all the citizens. if there are such facilities available, the Low Supply is not able to cater to high demands in the City. BDA Complexes or Existing IT Parks can be used to open such clinics, this will avoid looking for more space in the City and would prove economical to setup a clinic.\n', 'score': 0.5996182289951711}</t>
-  </si>
-  <si>
-    <t>{'response': "4- ಆರೋಗ್ಯ ವೆ ಭಾಗ್ಯ Hygiene is most important.Atleast provide some sophisticated equipment to clean the drainage and make sure that drainage doesn't mix with the drinking water.Healthcare isn't just about constructing hospitals but also providing access to clean drinking water,fresh eatables and proper waste management.Provide all these facilities to the people so that they don't need any hospitals.Provide clean facilities and you don't have to construct many hospitals\n", 'score': 0.6571428253170556}</t>
-  </si>
-  <si>
-    <t>{'response': '7- There needs to be better signage of healthcare centers (in all major languages used in the city) so that people know where the govt. healthcare facilities are.\n', 'score': 0.6605692520072247}</t>
-  </si>
-  <si>
-    <t>{'response': '17- Every ward should have a primary health center with full facilities to cater the primary health needs of citizens. One should learn from the KERALA government which has primary health center in almost all wards of panchayat, municipalities and corporations in the state.\n', 'score': 0.6285290246685794}</t>
-  </si>
-  <si>
-    <t>{'response': '20- Government hospitals should be more encouraged by providing good class services so that the poor also gets the best medical facilities \n', 'score': 0.6268559946090052}</t>
-  </si>
-  <si>
     <t>['8- Dissatisfied\n']</t>
   </si>
   <si>
-    <t>["9- How about making a team which gets educated about basic first aid to be given to the victim.Lets take a common accident.People start moving the person met with an accident with their own knowledge and make them drink water without knowing whether,is he breathing sufficiently or not.If he isn't then what needs to be done till he is hospitalized?(C.P.C.R) The team if can achieve this target of educating people about basic first aid and (C.P.C.R). This will bring massive change in saving lives of many.This isn't about just educating people by awareness programs.This should be taught right from the primary school not even as an awareness program which lasts in mind for few days.NO... Better to make it as a part of their subjects.PLEASE.\n", '26- focus on making existing assets function rather than building more dysfunctional assets. Adopt patient management and accountability systems... look at what AAP is doing in Delhi to ensure assets are functioning well and well utilized\n', '22- Traffic management certainly needs more attention. We need to bring in discipline in the minds of Indians. Trees are cut for whatever reasons, we need a dust free and clean India. Healthcare is very poor. Healthcare focus currently is making money. Is it possible to change their focus on treating the poor and creating a healthy environment.   Mera Bhrath Mahan.\n']</t>
+    <t>["9- How about making a team which gets educated about basic first aid to be given to the victim.Lets take a common accident.People start moving the person met with an accident with their own knowledge and make them drink water without knowing whether,is he breathing sufficiently or not.If he isn't then what needs to be done till he is hospitalized?(C.P.C.R) The team if can achieve this target of educating people about basic first aid and (C.P.C.R). This will bring massive change in saving lives of many.This isn't about just educating people by awareness programs.This should be taught right from the primary school not even as an awareness program which lasts in mind for few days.NO... Better to make it as a part of their subjects.PLEASE.\n", '22- Traffic management certainly needs more attention. We need to bring in discipline in the minds of Indians. Trees are cut for whatever reasons, we need a dust free and clean India. Healthcare is very poor. Healthcare focus currently is making money. Is it possible to change their focus on treating the poor and creating a healthy environment.   Mera Bhrath Mahan.\n', '26- focus on making existing assets function rather than building more dysfunctional assets. Adopt patient management and accountability systems... look at what AAP is doing in Delhi to ensure assets are functioning well and well utilized\n']</t>
   </si>
   <si>
     <t>['10- Private hospitals should be more regularised\n']</t>
@@ -962,19 +962,19 @@
     <t>['25- Fully equipped Govt hospitals at a radius of 5km should be  provided.\n']</t>
   </si>
   <si>
-    <t>{'response': '1- Again, how many people are using the govt run hospitals. This is purely due to the pathetic quality of treatment provided by them. We go to private hospitals knowing that they loot us because it is health. Charge a nominal amount in the govt hospital and provide good health care. Run them at No profit No loss. People are ready to pay for a quality health care.\n', 'score': 0.47025512853737095}</t>
+    <t>{'response': '18- No adquate health clinics managed by govt. No community health centre\n', 'score': 0.5538571158436045}</t>
+  </si>
+  <si>
+    <t>{'response': '6- Government hospitals should be improved. Government should keep an eye on the prices charged at the private hospitals and to keep it reasonable. Government should start a health insurance.\n', 'score': 0.5528266570320377}</t>
   </si>
   <si>
     <t>{'response': '5- All government hospitals should be checked every month... And there should be an online review system which would be regulated n shown for public\n', 'score': 0.5226358461165981}</t>
   </si>
   <si>
-    <t>{'response': '6- Government hospitals should be improved. Government should keep an eye on the prices charged at the private hospitals and to keep it reasonable. Government should start a health insurance.\n', 'score': 0.5528266570320377}</t>
-  </si>
-  <si>
-    <t>{'response': "12- Technology has be implemented into helath care for the pirpose of better serving of patients ,health care services should be provided to the  patients with in no delay in time  and utmost care should be enhanced with older people with the use of technology with help of which we can assess the problem of the patient and hence improve the patient condition this would help us in improving the health of elderly patients especially but not only this there s a lot in the health care systems to be changed. The main important thing is implentation of role of clinical pharmacist in the health care field which has proved to be very effective in other countries in reducing cost and the adverse effects if treating drugs..  There's alot more points to be discussed\n", 'score': 0.5268684953397444}</t>
-  </si>
-  <si>
-    <t>{'response': '18- No adquate health clinics managed by govt. No community health centre\n', 'score': 0.5736740473632199}</t>
+    <t>{'response': "12- Technology has be implemented into helath care for the pirpose of better serving of patients ,health care services should be provided to the  patients with in no delay in time  and utmost care should be enhanced with older people with the use of technology with help of which we can assess the problem of the patient and hence improve the patient condition this would help us in improving the health of elderly patients especially but not only this there s a lot in the health care systems to be changed. The main important thing is implentation of role of clinical pharmacist in the health care field which has proved to be very effective in other countries in reducing cost and the adverse effects if treating drugs..  There's alot more points to be discussed\n", 'score': 0.5194860922184114}</t>
+  </si>
+  <si>
+    <t>{'response': '1- Again, how many people are using the govt run hospitals. This is purely due to the pathetic quality of treatment provided by them. We go to private hospitals knowing that they loot us because it is health. Charge a nominal amount in the govt hospital and provide good health care. Run them at No profit No loss. People are ready to pay for a quality health care.\n', 'score': 0.4718161945482153}</t>
   </si>
   <si>
     <t>{'response': '13- Govt hospital are there in every ward,but there not available for common man 24/7 doctors &amp; nurses are not available all the time &amp; ignorant attitude of them are the reason why people go towards Private hospital.Kindly rework on quality of hospitality you provide.\n', 'score': 0.39052818565675596}</t>
@@ -1002,13 +1002,13 @@
     <t>['6- Very good\n']</t>
   </si>
   <si>
-    <t>{'response': '4- Heritage to maintain as we have given space 70% to outsiders only\n', 'score': 0.4199423816871522}</t>
-  </si>
-  <si>
-    <t>{'response': '5- Repeating heritage structure designs should not be encouraged. Example is the vikas soudha. It is a poor copy of the Vidhana Soudha and by sitting next to it, it spoils the heritage value of Vidhana Soudha.  \n', 'score': 0.4759643390195567}</t>
-  </si>
-  <si>
-    <t>{'response': "7- As far I see,  most of the listed have already been destroyed in the name of development. e.g. MG road,  what's left of this place anymore.  The Metro has ruined it's character and the skyscrapers are not doing it any good \n", 'score': 0.3845326036252949}</t>
+    <t>{'response': '4- Heritage to maintain as we have given space 70% to outsiders only\n', 'score': 0.45575029437264564}</t>
+  </si>
+  <si>
+    <t>{'response': "7- As far I see,  most of the listed have already been destroyed in the name of development. e.g. MG road,  what's left of this place anymore.  The Metro has ruined it's character and the skyscrapers are not doing it any good \n", 'score': 0.40926016425580597}</t>
+  </si>
+  <si>
+    <t>{'response': '5- Repeating heritage structure designs should not be encouraged. Example is the vikas soudha. It is a poor copy of the Vidhana Soudha and by sitting next to it, it spoils the heritage value of Vidhana Soudha.  \n', 'score': 0.43484512334526526}</t>
   </si>
   <si>
     <t xml:space="preserve">All government land meant for housing will be used to build EWS houses
@@ -1038,58 +1038,55 @@
 </t>
   </si>
   <si>
+    <t>{'response': '27- EWS housing should be taken up as pure government work rather than involving private parties. Land acquisition from private developers by giving incentives is a good idea, but asking for a share of the flats for EWS is not so good, developers will be wary of doing that. For large scale developers the CSR initiative may be used and ask them to spend the CSR amount on EWS housing, Land should belong to Government and buildings made by developers. Similar to the initiative taken by the Police department years ago to build good quality police station through various developers. \n', 'score': 0.7598843138645954}</t>
+  </si>
+  <si>
+    <t>{'response': '46- Housing layouts should be provided with adequate transportation feeder services.  Neighbourhood planning should be considered. Waste management should begin at this level.  This section does not seem to be viable... seems like trying to dump responsibility without any study...  It would be better for certain locations across the city to be identified as government housing for EWS.  and the government invests in maintaining these to adequate standards. Instead of making blanket statements like all government land will be used for EWS housing.   neighbourhood security and cctv cover to be improved \n', 'score': 0.7325988764589597}</t>
+  </si>
+  <si>
+    <t>{'response': '37- All big residential apartments need to have a 80 ft road accessing the apartment. Each new construction to contribute to some land for road construction\n', 'score': 0.727326278382765}</t>
+  </si>
+  <si>
+    <t>{'response': "41- Currently the new housing layout's are not up to planned cities in other parts of India. We need to provide enough space to infrastructure like Roads, public utility, (thinking 50 years ahead), sports facilities for the young generation and open space to grow trees and waste water management.\n", 'score': 0.6746745712068136}</t>
+  </si>
+  <si>
+    <t>{'response': '9- While approving the new housing initiated by government or private should be after considering the water resources and safety of water Bodies. Bengaluru lost lot of lakes already, without water resources no human can live. Also the bbmp and bda authorities should Concentrate on the construction which should not have any deviation. Why the deviation should be allowed by authorities the approve with penalties?\n', 'score': 0.6528381531532242}</t>
+  </si>
+  <si>
+    <t>{'response': '13- Higher FAR is the only solution to the growing needs of the city. The city can now grow only vertically as the empty land space for development is going to decline.We will  end up with no space for development in the future. We also have to provide proportionate lung space for the city. So vacant land is the key to future development. \n', 'score': 0.6499407678061241}</t>
+  </si>
+  <si>
     <t>{'response': '2- Plans for the future housing solution look amazing, especially the sharing of 5% for EWS. But every house must ensure to have some environmental impact, on the good side though. What I mean to say is that buildings must be termed as green buildings by using green materials, etc etc\n', 'score': 0.6465773884690472}</t>
   </si>
   <si>
+    <t>{'response': '22- Bar commercial activity in residential zones. Bar massive trees in residential zones. (Huge trees belong in parks). Provide housing to corporate employees near work place(old idea - similar to PSU housing colonies-HMT,HAL,BEL,ITI)\n', 'score': 0.6293501250868286}</t>
+  </si>
+  <si>
+    <t>{'response': '39- There are pockets where Housing is extremely expensive. And areas which have proper connectivity is really booming. the goons who have grabbed the Lake lands and other Illegal areas should be recovered by the government\n', 'score': 0.6099878022526347}</t>
+  </si>
+  <si>
+    <t>{'response': '7- Who all are fall under general merit category and also for widows, EWS housing should reserve at least 16 to 21%.\n', 'score': 0.609205472149567}</t>
+  </si>
+  <si>
     <t>{'response': '6- All the building information like approval details etc should be made public on e-portal. This will help people.\n', 'score': 0.5029957515102255}</t>
   </si>
   <si>
-    <t>{'response': '7- Who all are fall under general merit category and also for widows, EWS housing should reserve at least 16 to 21%.\n', 'score': 0.609205472149567}</t>
-  </si>
-  <si>
-    <t>{'response': '9- While approving the new housing initiated by government or private should be after considering the water resources and safety of water Bodies. Bengaluru lost lot of lakes already, without water resources no human can live. Also the bbmp and bda authorities should Concentrate on the construction which should not have any deviation. Why the deviation should be allowed by authorities the approve with penalties?\n', 'score': 0.6528381531532242}</t>
-  </si>
-  <si>
-    <t>{'response': '13- Higher FAR is the only solution to the growing needs of the city. The city can now grow only vertically as the empty land space for development is going to decline.We will  end up with no space for development in the future. We also have to provide proportionate lung space for the city. So vacant land is the key to future development. \n', 'score': 0.6499407678061241}</t>
-  </si>
-  <si>
-    <t>{'response': '22- Bar commercial activity in residential zones. Bar massive trees in residential zones. (Huge trees belong in parks). Provide housing to corporate employees near work place(old idea - similar to PSU housing colonies-HMT,HAL,BEL,ITI)\n', 'score': 0.6293501250868286}</t>
+    <t>{'response': '36- Reference is drawn to the proposed land use Map of revised Master Plan for 2031 for planning district 2, Indiranagar- Kagadaspura, where Domlur 2nd Stage is shown. The map does not show the BDA MIG flats as residential area (shown in white instead of yellow) and also does not include the service road adjacent to the flats. These flats and road are constructed by BDA.\n', 'score': 0.44821532177471074}</t>
   </si>
   <si>
     <t>{'response': '26- Property registration is nightmare. There is no online process. All are dominates by agents. Need to have online way of registering alongwith some identifiers like Aadhar/PAN\n', 'score': 0.44606254264165895}</t>
   </si>
   <si>
-    <t>{'response': '27- EWS housing should be taken up as pure government work rather than involving private parties. Land acquisition from private developers by giving incentives is a good idea, but asking for a share of the flats for EWS is not so good, developers will be wary of doing that. For large scale developers the CSR initiative may be used and ask them to spend the CSR amount on EWS housing, Land should belong to Government and buildings made by developers. Similar to the initiative taken by the Police department years ago to build good quality police station through various developers. \n', 'score': 0.7598843138645954}</t>
-  </si>
-  <si>
     <t>{'response': '29- All illegal Apartments those are blocked lake and rain water .\n', 'score': 0.4180281349931865}</t>
   </si>
   <si>
-    <t>{'response': '36- Reference is drawn to the proposed land use Map of revised Master Plan for 2031 for planning district 2, Indiranagar- Kagadaspura, where Domlur 2nd Stage is shown. The map does not show the BDA MIG flats as residential area (shown in white instead of yellow) and also does not include the service road adjacent to the flats. These flats and road are constructed by BDA.\n', 'score': 0.47169129467057136}</t>
-  </si>
-  <si>
-    <t>{'response': '37- All big residential apartments need to have a 80 ft road accessing the apartment. Each new construction to contribute to some land for road construction\n', 'score': 0.727326278382765}</t>
-  </si>
-  <si>
-    <t>{'response': '39- There are pockets where Housing is extremely expensive. And areas which have proper connectivity is really booming. the goons who have grabbed the Lake lands and other Illegal areas should be recovered by the government\n', 'score': 0.6099878022526347}</t>
-  </si>
-  <si>
-    <t>{'response': "41- Currently the new housing layout's are not up to planned cities in other parts of India. We need to provide enough space to infrastructure like Roads, public utility, (thinking 50 years ahead), sports facilities for the young generation and open space to grow trees and waste water management.\n", 'score': 0.6746745712068136}</t>
-  </si>
-  <si>
-    <t>{'response': '46- Housing layouts should be provided with adequate transportation feeder services.  Neighbourhood planning should be considered. Waste management should begin at this level.  This section does not seem to be viable... seems like trying to dump responsibility without any study...  It would be better for certain locations across the city to be identified as government housing for EWS.  and the government invests in maintaining these to adequate standards. Instead of making blanket statements like all government land will be used for EWS housing.   neighbourhood security and cctv cover to be improved \n', 'score': 0.7310673978312722}</t>
+    <t>{'response': '38- Every building in Bangalore should be provided with mandatory parking area. No compromise to any citizen irrespective of power and positions. There should not be more than 6 to 9 flats in a building.. \n', 'score': 0.49499953142229614}</t>
   </si>
   <si>
     <t>{'response': '23- Please do not give permissions to bigger projects(6000 flats) if there is no good road accessbility. \n', 'score': 0.43010517842211565}</t>
   </si>
   <si>
-    <t>{'response': '38- Every building in Bangalore should be provided with mandatory parking area. No compromise to any citizen irrespective of power and positions. There should not be more than 6 to 9 flats in a building.. \n', 'score': 0.49499953142229614}</t>
-  </si>
-  <si>
-    <t>['33- There ia should be rules for renting houses. Owners charging too much and biggest concern is advance of 11 months.this is too much\n', '40- Car parking slot  dimensions has been increased in width from 2.5 m to 2.75m. When all new vehicles are coming with much better maneuverability and tighter turning radii. this puts a requirement for additional area to be constructed in parking basements and MLCPs and affects the column planning grids negatively and causes the unnecessary construction of additional floor area for a given count of parking. 2.5m width is an internationally accepted standard.\n', '8- Lot of illegal constructions everywhere. Need to demolish illegal structures to widen the road. Make Strictly no parking on roads.  Make residents make their own parking arrangements. \n', '1- Car owners should have  a mandatory car parking space in the house/building planned \n', '4- Need to ensure there is no parking done in front of the houses. Start taking stringent action on all the 4 wheeler that are parked outside the premises. The city would look very clean and safer to commute.\n']</t>
-  </si>
-  <si>
-    <t>['17- At present there is too much commercialization in residential areas. Too many shops and too little business. Hurts both residents as well as these commercial establishments. Clear demarcation for commercial activity should be made and commercial use in residential areas should be put down with iron hand. At present particularly in BDA formed layouts there is too much of commercialization as RWAs are non existent in BDA layouts.  \n', '16- high rises in Central business district should be stopped as it is creating more congestion and we dont have infrastructure to sustain the vertical growth. No more approval from high rises in centre of bangalore. We need to put a stop to our greed where we are harming ourself without understanding the consquences beneath it. So, city should expand in outskirts not in centre. \n', '10- Link BESCOM RR Nos. with PID Nos. of all Residential and Commercial buildings in Bangalore and any non payment of BBMP taxes for more than one year should result in disconnection of power supply to such buildings. This will improve Tax collection.  It is a well known fact to the Mayor, Chief Engineers and every bodu oin BBMP that more than 30 % of properties in Bangalore are not paying Taxes at all for the last more than 25 years. When\n', '21- Housing is getting more and more expensive. Buying a house in Bangalore has nearly become impossible for a common man.\n', '44- I check all house the House construction plan and Tender BDA approve plan is totally different. This should be stop and bring there notice.\n', '45- I think the plan is a good start. But I think we need to be more ambitious and think out of the box on housing. \n', "31- Bda is alloting plots in Kempegowda layout block 2 and its very clear from the master plan that the sites are falling under buffer area from lake/primary/secondary rajakaluve and violating ngt and bda's own terms. But assessing officers from bda are turning blind eye and claiming their allotments are legal. If the responsibile organisation itself is faltering like this, who else will follow the guidelines and also who will be responsible if the allotted sites run into issues because of this in future? THIS HAS ALREADY HAPPENED IN THE PAST AND YET NO INTENTION BY BDA TO CORRECT IT\n", "5- Don't permit multi storey buildings without leaving the needed 5-6 feet open space around the buildings. Make it compulsory to leave enough open space and restrict too many buildings in small areas as the water from bore wells are dried up too quickly.\n"]</t>
+    <t>['21- Housing is getting more and more expensive. Buying a house in Bangalore has nearly become impossible for a common man.\n', '4- Need to ensure there is no parking done in front of the houses. Start taking stringent action on all the 4 wheeler that are parked outside the premises. The city would look very clean and safer to commute.\n', '45- I think the plan is a good start. But I think we need to be more ambitious and think out of the box on housing. \n', '44- I check all house the House construction plan and Tender BDA approve plan is totally different. This should be stop and bring there notice.\n', '40- Car parking slot  dimensions has been increased in width from 2.5 m to 2.75m. When all new vehicles are coming with much better maneuverability and tighter turning radii. this puts a requirement for additional area to be constructed in parking basements and MLCPs and affects the column planning grids negatively and causes the unnecessary construction of additional floor area for a given count of parking. 2.5m width is an internationally accepted standard.\n', '16- high rises in Central business district should be stopped as it is creating more congestion and we dont have infrastructure to sustain the vertical growth. No more approval from high rises in centre of bangalore. We need to put a stop to our greed where we are harming ourself without understanding the consquences beneath it. So, city should expand in outskirts not in centre. \n', '1- Car owners should have  a mandatory car parking space in the house/building planned \n', '8- Lot of illegal constructions everywhere. Need to demolish illegal structures to widen the road. Make Strictly no parking on roads.  Make residents make their own parking arrangements. \n', '33- There ia should be rules for renting houses. Owners charging too much and biggest concern is advance of 11 months.this is too much\n', "31- Bda is alloting plots in Kempegowda layout block 2 and its very clear from the master plan that the sites are falling under buffer area from lake/primary/secondary rajakaluve and violating ngt and bda's own terms. But assessing officers from bda are turning blind eye and claiming their allotments are legal. If the responsibile organisation itself is faltering like this, who else will follow the guidelines and also who will be responsible if the allotted sites run into issues because of this in future? THIS HAS ALREADY HAPPENED IN THE PAST AND YET NO INTENTION BY BDA TO CORRECT IT\n", '10- Link BESCOM RR Nos. with PID Nos. of all Residential and Commercial buildings in Bangalore and any non payment of BBMP taxes for more than one year should result in disconnection of power supply to such buildings. This will improve Tax collection.  It is a well known fact to the Mayor, Chief Engineers and every bodu oin BBMP that more than 30 % of properties in Bangalore are not paying Taxes at all for the last more than 25 years. When\n', '17- At present there is too much commercialization in residential areas. Too many shops and too little business. Hurts both residents as well as these commercial establishments. Clear demarcation for commercial activity should be made and commercial use in residential areas should be put down with iron hand. At present particularly in BDA formed layouts there is too much of commercialization as RWAs are non existent in BDA layouts.  \n', "5- Don't permit multi storey buildings without leaving the needed 5-6 feet open space around the buildings. Make it compulsory to leave enough open space and restrict too many buildings in small areas as the water from bore wells are dried up too quickly.\n"]</t>
   </si>
   <si>
     <t>['12- It is not at all futuristic. \n']</t>
@@ -1119,28 +1116,28 @@
     <t>['43- # 46/C, Sai Krupa, Fair Field Layout, Race Course Road, Bengaluru - 0, we are residing in this layout for last 25 years and all of a sudden you have made this layout as commercial zone which is highly unacceptable and objectable, we request you kindly consider the above layout as residential zone.\n']</t>
   </si>
   <si>
+    <t>{'response': '32- Expand city limits to ensure that more land is available for housing thereby reducing the stress on existing areas and bringing down cost of housing\n', 'score': 0.6337096915249792}</t>
+  </si>
+  <si>
     <t>{'response': "11- One of the major trends in recent construction is the rise of 'matchbox' style buildings that are painted in ugly 'vaastu' colours. Why can't there be a council for every ward in the city that consists of well educated urban planners under whose scrutiny, building plans are evaluated and better planned buildings with proper ventilation is built. Also, other things like rain water harvesting, solar exterior lighting and water heating systems must be encouraged to be included in building plans (although not mandatory, at least such councils must advise building owners to make room for future upgrades in this direction.)\n", 'score': 0.5950268027166142}</t>
   </si>
   <si>
-    <t>{'response': '32- Expand city limits to ensure that more land is available for housing thereby reducing the stress on existing areas and bringing down cost of housing\n', 'score': 0.6337096915249792}</t>
-  </si>
-  <si>
     <t>{'response': '30- What is the criterion for affordable housing is not clear. Nothing planned for people not looking for affordable housing?\n', 'score': 0.6012617834255457}</t>
   </si>
   <si>
+    <t>{'response': '28- People start living and building their own house even before the facilities are made available. License to build should be given only after all the facilities are completed, for which the betterment charges are levied.  Any change or demolition should have the approval of the residents and neighbourhood. Better to have high rise buildings with a clear vacant space in between the buildings for landscaping and safety purposes, like approach for a fire tender. The dimensions could be decided by the competent persons . Multistorey building should be promoted as this would increase the lung space availability.\n', 'score': 0.7040143041213694}</t>
+  </si>
+  <si>
+    <t>{'response': '18- In my opinion, Govt should restrict giving permission to multi story buildings. As more people residing in small area resulting in more traffic, more pollution, more water consumption, more garbage creation and more parking of vehicles problem.  At least should not give permission to apartments above 4th Floor. Only Ground + 3 floor can be allowed. It will be difficult to manage by any Govt. Already area within BBMP are overcrowded due to maximum multi storied buildings. No Kaveri water, No 24X7 power supply, No Drainage (UGD) and heavy traffic problem. Govt should plan to restrict population congestion within BBMP limits. Build more satellite townships with all the facilities to decongest  the city central areas.   \n', 'score': 0.6848428983148378}</t>
+  </si>
+  <si>
+    <t>{'response': '35- Get all of the property to be government owned. This removes corruption completely since not 1 person owns land. Then, lease land out to people who own for their life time. This in itself will remove a lot of the corruption and land grabbing that happens today and reduces the amount of effort spent in trying to recover it back.\n', 'score': 0.6408498063523259}</t>
+  </si>
+  <si>
     <t>{'response': '3- The maximum no of floor needs to be checked..and economic weaker sections must be identified correctly..the builders must get maximum punishment if they violate the conditions\n', 'score': 0.6248962531701305}</t>
   </si>
   <si>
-    <t>{'response': '18- In my opinion, Govt should restrict giving permission to multi story buildings. As more people residing in small area resulting in more traffic, more pollution, more water consumption, more garbage creation and more parking of vehicles problem.  At least should not give permission to apartments above 4th Floor. Only Ground + 3 floor can be allowed. It will be difficult to manage by any Govt. Already area within BBMP are overcrowded due to maximum multi storied buildings. No Kaveri water, No 24X7 power supply, No Drainage (UGD) and heavy traffic problem. Govt should plan to restrict population congestion within BBMP limits. Build more satellite townships with all the facilities to decongest  the city central areas.   \n', 'score': 0.6837834158688327}</t>
-  </si>
-  <si>
     <t>{'response': "25- Not clear how permission has been given to construct by destruction of nature be it lakes park's or forest area. This has to stop. Need to create more green cover for the city.\n", 'score': 0.6063035368566545}</t>
-  </si>
-  <si>
-    <t>{'response': '28- People start living and building their own house even before the facilities are made available. License to build should be given only after all the facilities are completed, for which the betterment charges are levied.  Any change or demolition should have the approval of the residents and neighbourhood. Better to have high rise buildings with a clear vacant space in between the buildings for landscaping and safety purposes, like approach for a fire tender. The dimensions could be decided by the competent persons . Multistorey building should be promoted as this would increase the lung space availability.\n', 'score': 0.7040143041213694}</t>
-  </si>
-  <si>
-    <t>{'response': '35- Get all of the property to be government owned. This removes corruption completely since not 1 person owns land. Then, lease land out to people who own for their life time. This in itself will remove a lot of the corruption and land grabbing that happens today and reduces the amount of effort spent in trying to recover it back.\n', 'score': 0.6423228091061185}</t>
   </si>
   <si>
     <t xml:space="preserve">Extension of the city along the highways and parts of the city
@@ -1167,43 +1164,40 @@
 </t>
   </si>
   <si>
+    <t>{'response': '56- While division of districts for specific use is a good Idea, however considering people move around in from various parts of the city for work specific spaces should be allocated within each district/location for common multi level parkings, and feeder transport provided from that point.  As an example, AECS Layout Brookefiled has a significant space allocated to government offices like Bangalore one, Corporator  office and others. This land should be converted as a Multi level parking cum Bus Stand cum Government offices. All nationalised banks, Nationalised Insurance and other such government and semi government services should be encouraged to have offices there.   Ground floor can be Bus-Bay, Basement can be Food court,  3-4 floors for parking and rest for offices. The is similar to the Multi use bus stand built in many part of Bangalore, but needs to be replicated on a smaller scale in other places as well.  Feeder transport in form of electric buses, shared taxies and Hire a bike services should also be made available for people to be able to move around in those areas for shopping and other chores. Pavements should be well maintained for people who may want to walk.  \n', 'score': 0.6653487920816253}</t>
+  </si>
+  <si>
     <t>{'response': '11- Large parts of HSR Layout is already used mainly for highly commercial activities e.g the full stretch of 17th Cross Road. But the plan does not recognise this. It would be better to designate all sites on such roads as permitted for commercial activities to minimise corruption. \n', 'score': 0.6343044600100975}</t>
   </si>
   <si>
-    <t>{'response': '21- For any approval for any building, one need to see whether its leaving the space for greenery or not, Waste management in place or not, Rain water harvesting is there or not. Few of them are already in place but not followed religiously, More stringent actions are needed to implement it. Green cover &amp; trees on any house premises should be must.  \n', 'score': 0.50132501742671}</t>
-  </si>
-  <si>
-    <t>{'response': "23- Where is Tumkur Road in the plan!!!There is so much abundance of land and also it's connected by metro and good roads.Now the metro being built till international exhibition centre there is connectivity for industries to be set up there.Also NICE road being attached is added advantage.Kindly do not overcrowd Bengaluru along Hosur Road,Bellary Road and sarjapura road\n", 'score': 0.5979856761288288}</t>
+    <t>{'response': '59- 4.22 % of land  for parks and open spaces and 3.84 % for water bodies and streams is negligible compared to areas allowed for other units like transport and communication. Looks like our future generation will have not good air to breath and enough ground water.\n', 'score': 0.5947723590913324}</t>
+  </si>
+  <si>
+    <t>{'response': "23- Where is Tumkur Road in the plan!!!There is so much abundance of land and also it's connected by metro and good roads.Now the metro being built till international exhibition centre there is connectivity for industries to be set up there.Also NICE road being attached is added advantage.Kindly do not overcrowd Bengaluru along Hosur Road,Bellary Road and sarjapura road\n", 'score': 0.5905896898855544}</t>
   </si>
   <si>
     <t>{'response': '31- Land use in residential area unclear. Most of residential is thickly commercialized.   No breathing space ,no peace, no security of life. \n', 'score': 0.5087905634042021}</t>
   </si>
   <si>
+    <t>{'response': '21- For any approval for any building, one need to see whether its leaving the space for greenery or not, Waste management in place or not, Rain water harvesting is there or not. Few of them are already in place but not followed religiously, More stringent actions are needed to implement it. Green cover &amp; trees on any house premises should be must.  \n', 'score': 0.5080386992746048}</t>
+  </si>
+  <si>
     <t>{'response': "38- BDA needs to hear that its method of 'planning' begins with a faulty premise: that it writes a draft plan and then asks for inputs. A metropolitan city's municipal corporation, public services agencies, planning agency must have enough of a budget to foster citizen direction (not 'inclusion', we are not serfs) to all the sectors (environment, education, health, etc) listed at the start of this document. Planning includes discrading, halting, capping, recognising limits and adjusting behaviours to those limits. BDA has made none of these possible.\n", 'score': 0.4860220321954189}</t>
   </si>
   <si>
-    <t>{'response': '56- While division of districts for specific use is a good Idea, however considering people move around in from various parts of the city for work specific spaces should be allocated within each district/location for common multi level parkings, and feeder transport provided from that point.  As an example, AECS Layout Brookefiled has a significant space allocated to government offices like Bangalore one, Corporator  office and others. This land should be converted as a Multi level parking cum Bus Stand cum Government offices. All nationalised banks, Nationalised Insurance and other such government and semi government services should be encouraged to have offices there.   Ground floor can be Bus-Bay, Basement can be Food court,  3-4 floors for parking and rest for offices. The is similar to the Multi use bus stand built in many part of Bangalore, but needs to be replicated on a smaller scale in other places as well.  Feeder transport in form of electric buses, shared taxies and Hire a bike services should also be made available for people to be able to move around in those areas for shopping and other chores. Pavements should be well maintained for people who may want to walk.  \n', 'score': 0.647660482038348}</t>
-  </si>
-  <si>
-    <t>{'response': '59- 4.22 % of land  for parks and open spaces and 3.84 % for water bodies and streams is negligible compared to areas allowed for other units like transport and communication. Looks like our future generation will have not good air to breath and enough ground water.\n', 'score': 0.5947723590913324}</t>
-  </si>
-  <si>
-    <t>['62- BOREWELL ROAD, WHITEFIELD SHOULD NOT BE WIDENED AGAIN 1) We are senior citizens who have already lost over 8 -10 feet of land and boundary walls (2005) that had to be rebuilt at our own expense.  Todate, no authority has made the effort to compensate us or recognise the seizure of our lands.  2) due to the above, our houses are dangerously close to the road - air and noise pollution that has lead to ailments such as allergies, skin and respiratory diseases and greater loss of hearing.  3) last but equally important, our homes will be destroyed when further widening happens.  These are our homes built with hard earned money for our lifetime.  Where are we to go?  These periodical threats have made us feel very insecure in our sunset years.  We are responsible taxpayers and law abiding citizens.   Similarly, we expect the government to protect our interests before they consider such ‘developmental’ plans. Khurshid Balsara, 265 Borewell Road, Whitefield, Bangalore 560066\n', '24- Please allow big sky scrappers in this city. this will save land and allow to create big parks. But these buildings should be earthquake proof for a eathquake as powerful as 8.5 on Richter scale.\n', '47- Poor land use, illegal occupation by the powerful and Corrupt and an extremely unhealthy situation is created in the city.\n', '35- If land use is given prime concern like alloting the right proportions for housing,green cover,roadways,garbage and sewage management etc. then automatically so many issues are taken care of.\n', '42- Footpaths are encroached all over the city. Build barriers for vehicles  to enter footpaths. Food vendors have taken up Whitefield foot paths totally. I have raised complains like 6 times. Complain was closed without doing anything. Food vendors dirty the place and throw garbage on footpaths and roads. Chances of pedestrians meeting accident due to vehicular movement on roads.\n', '1- every house/township/apartment newly build should be mandated to plant minimum 5 times the tress destroyed in that area. Because all plants planted might now grow so if it is planted in higher number 30% of it will grow.\n', "27- Everyday new vehicles are causing parking hazards while the number of no parking boards increase. Why no solution for these things? Let me suggest you - please utilise manekshaw parade grounds and the outer part of chinnaswamy stadium for parking. Also you may discuss with school authorities of schools with huge playgrounds to allow parking between 6 pm to 10 pm. This will not affect the school's daily activities and solve parking problems. Thanks \n", '19- Not maintained, not used or maintained for the specific purpose. Most of the land encroached or dumped the garbage.\n', '18- it sounds great but we need to awarer of the land using as if there is no tomorrow  try planting as much as tree , like  at the traffic signals,bus stops and the area where people roam around more. We can always take this forward without even seeing it as a huge step.\n', '49- Objection to widening of Borewell Road, Whitefield  Our homes will be destroyed with any further road widening.  We are senior citizens and built/ bought these homes as our retirement homes.  Also, with earlier road widening, we have already lost 8-10 feet of land and boundary walls, trees and garden for which we were never compensated.  Also, no authority has acknowledged this loss or taken responsibility.  The government needs to protect its citizens who are regular taxpayers and abide by rules and regulations.   We’re already too close to the road and are now suffering from air and noise pollution, which has lead to skin, respiratory diseases, allergies and further hearing loss. KnP Sridharan, 244 Borewell Road, Whitefield, Bangalore 560066\n']</t>
+    <t>['7- Got an unique plan for Namma Bengaluru to go vertical! No need to revise the CDP for every 15years, without completing 80% of work!  My plan is for 100years and complete the whole CDP on ground reality (Work done within 5years.) With no loss for land lords and profitable for Government!!! More over it would be a study model for developed western countries!!!!!! To know more fix up a meet with Mr. CM, BDA Chairman &amp; BDA Commissioner.  With warm regards Syed Hassan Naazir Abedi +91 9620463836 Email: naazirabedi@gmail.com\n', '29- Ok. But use more land for growing trees. Make Bangalore airial view prior to 1991.\n', '57- Proposed compensation for existing structures is not fair. There should be compensation in correctness to the market value. Any unfair comp would be not add value to the master plan of making Bangalore better by cheating people. \n', '6- Please don’t allow commercial activities in purely resedential areas in the Name of mixed use . All bye lanes of Koramangala and indiranagar have already been spoiled . HSR layout is next in line \n', "50- Existing parks in Defence Colony, PD 2, have not been marked correctly. These are the senior citizen's park (4th cross, 4th main) and the small playground adjacent to the 6th main maidan on the link road. These are parks/grounds currently and needs to be corrected and recognised as parks in the 2031 plan instead of as residential.\n", '1- every house/township/apartment newly build should be mandated to plant minimum 5 times the tress destroyed in that area. Because all plants planted might now grow so if it is planted in higher number 30% of it will grow.\n', '9- BDA it self is violating green belt norms, added to that even after development is allowed in Green belt still May shows in green which is ridiculous,... secondly BDA plan states 100ft road for certain areas in 2015 plan, but its not implemented... master plan has last its value, its a wasteful expenditure exercise... \n']</t>
   </si>
   <si>
     <t>['2- Water bodies encroachment should be reversed and all the land should be taken  back \n', '39- Encroachment of lands by builders which are lakes or water bodies creates water shortage and decreases ground water level.\n']</t>
   </si>
   <si>
-    <t>['52- Great \n', '64- Great Initiative by BDA\n', '3- Dissolve BDA and BBMP permanently. \n']</t>
-  </si>
-  <si>
-    <t>['4- some places which were residential in old CDP have changed to other like semi public, or park without any reason even after they have been converted from agriculutur. \n', '36- I have noticed that the sy no for which BDA has issued NOC for conversion of land from agriculture to residential purpose and the DC has already converted the sy no to residential purpose based on the NOC issued by BDA have been changed to Public and semi public with out issuing Notices land owners regarding the same\n', '17- Land marked in RMP 2015 as residential use is marked as transport use in RMP 2031\n']</t>
-  </si>
-  <si>
-    <t>['6- Please don’t allow commercial activities in purely resedential areas in the Name of mixed use . All bye lanes of Koramangala and indiranagar have already been spoiled . HSR layout is next in line \n', '54- Redefine category of commercial property. Should a Kirana store be considered as commercial property? Residential areas will have small stores which is essential for the community. Increase use of mixed purpose use of property.\n', '13- Need to reduce the mixed use of land. Meaning, BDA need to separate the commercial versus residential areas.\n']</t>
-  </si>
-  <si>
-    <t>['9- BDA it self is violating green belt norms, added to that even after development is allowed in Green belt still May shows in green which is ridiculous,... secondly BDA plan states 100ft road for certain areas in 2015 plan, but its not implemented... master plan has last its value, its a wasteful expenditure exercise... \n', "50- Existing parks in Defence Colony, PD 2, have not been marked correctly. These are the senior citizen's park (4th cross, 4th main) and the small playground adjacent to the 6th main maidan on the link road. These are parks/grounds currently and needs to be corrected and recognised as parks in the 2031 plan instead of as residential.\n", '7- Got an unique plan for Namma Bengaluru to go vertical! No need to revise the CDP for every 15years, without completing 80% of work!  My plan is for 100years and complete the whole CDP on ground reality (Work done within 5years.) With no loss for land lords and profitable for Government!!! More over it would be a study model for developed western countries!!!!!! To know more fix up a meet with Mr. CM, BDA Chairman &amp; BDA Commissioner.  With warm regards Syed Hassan Naazir Abedi +91 9620463836 Email: naazirabedi@gmail.com\n', '29- Ok. But use more land for growing trees. Make Bangalore airial view prior to 1991.\n', '30- CA sites are not properly marked as public/semi public sites at HMT Layout R T Nagar, HMT Layout is not marked as Visvesvaraya Nagar (V V Nagar) a slum is named as Visvesvarayanagar\n', '57- Proposed compensation for existing structures is not fair. There should be compensation in correctness to the market value. Any unfair comp would be not add value to the master plan of making Bangalore better by cheating people. \n']</t>
+    <t>['3- Dissolve BDA and BBMP permanently. \n', '64- Great Initiative by BDA\n', '52- Great \n']</t>
+  </si>
+  <si>
+    <t>['19- Not maintained, not used or maintained for the specific purpose. Most of the land encroached or dumped the garbage.\n', '62- BOREWELL ROAD, WHITEFIELD SHOULD NOT BE WIDENED AGAIN 1) We are senior citizens who have already lost over 8 -10 feet of land and boundary walls (2005) that had to be rebuilt at our own expense.  Todate, no authority has made the effort to compensate us or recognise the seizure of our lands.  2) due to the above, our houses are dangerously close to the road - air and noise pollution that has lead to ailments such as allergies, skin and respiratory diseases and greater loss of hearing.  3) last but equally important, our homes will be destroyed when further widening happens.  These are our homes built with hard earned money for our lifetime.  Where are we to go?  These periodical threats have made us feel very insecure in our sunset years.  We are responsible taxpayers and law abiding citizens.   Similarly, we expect the government to protect our interests before they consider such ‘developmental’ plans. Khurshid Balsara, 265 Borewell Road, Whitefield, Bangalore 560066\n', '4- some places which were residential in old CDP have changed to other like semi public, or park without any reason even after they have been converted from agriculutur. \n', '35- If land use is given prime concern like alloting the right proportions for housing,green cover,roadways,garbage and sewage management etc. then automatically so many issues are taken care of.\n', '36- I have noticed that the sy no for which BDA has issued NOC for conversion of land from agriculture to residential purpose and the DC has already converted the sy no to residential purpose based on the NOC issued by BDA have been changed to Public and semi public with out issuing Notices land owners regarding the same\n', '24- Please allow big sky scrappers in this city. this will save land and allow to create big parks. But these buildings should be earthquake proof for a eathquake as powerful as 8.5 on Richter scale.\n', '30- CA sites are not properly marked as public/semi public sites at HMT Layout R T Nagar, HMT Layout is not marked as Visvesvaraya Nagar (V V Nagar) a slum is named as Visvesvarayanagar\n', '18- it sounds great but we need to awarer of the land using as if there is no tomorrow  try planting as much as tree , like  at the traffic signals,bus stops and the area where people roam around more. We can always take this forward without even seeing it as a huge step.\n', '42- Footpaths are encroached all over the city. Build barriers for vehicles  to enter footpaths. Food vendors have taken up Whitefield foot paths totally. I have raised complains like 6 times. Complain was closed without doing anything. Food vendors dirty the place and throw garbage on footpaths and roads. Chances of pedestrians meeting accident due to vehicular movement on roads.\n', "27- Everyday new vehicles are causing parking hazards while the number of no parking boards increase. Why no solution for these things? Let me suggest you - please utilise manekshaw parade grounds and the outer part of chinnaswamy stadium for parking. Also you may discuss with school authorities of schools with huge playgrounds to allow parking between 6 pm to 10 pm. This will not affect the school's daily activities and solve parking problems. Thanks \n", '47- Poor land use, illegal occupation by the powerful and Corrupt and an extremely unhealthy situation is created in the city.\n', '17- Land marked in RMP 2015 as residential use is marked as transport use in RMP 2031\n', '49- Objection to widening of Borewell Road, Whitefield  Our homes will be destroyed with any further road widening.  We are senior citizens and built/ bought these homes as our retirement homes.  Also, with earlier road widening, we have already lost 8-10 feet of land and boundary walls, trees and garden for which we were never compensated.  Also, no authority has acknowledged this loss or taken responsibility.  The government needs to protect its citizens who are regular taxpayers and abide by rules and regulations.   We’re already too close to the road and are now suffering from air and noise pollution, which has lead to skin, respiratory diseases, allergies and further hearing loss. KnP Sridharan, 244 Borewell Road, Whitefield, Bangalore 560066\n']</t>
+  </si>
+  <si>
+    <t>['54- Redefine category of commercial property. Should a Kirana store be considered as commercial property? Residential areas will have small stores which is essential for the community. Increase use of mixed purpose use of property.\n', '13- Need to reduce the mixed use of land. Meaning, BDA need to separate the commercial versus residential areas.\n']</t>
   </si>
   <si>
     <t>['22- Hi\n']</t>
@@ -1227,40 +1221,55 @@
     <t>['63- Good\n']</t>
   </si>
   <si>
-    <t>{'response': '12- On ground reality and the plan does not match. It looks certain that the planning team never visited locations and made plans sitting in the office with out getting real time situation. The tragic traffic situation in Bangalore is haphazard approval or unauthorised development of SMALL scale residential layouts and apartment complexes. At least one the areas planned for residential purposes should be in a mega scale like PRIVATE CLUSTER OF LANDS AND WHOLESOME PLANNING OF HUDREDS OF ACRES IN A PLANNED TOWNSHIP AND ACCESSABILITY. DO NOT PERMIT  A FEW ACRES FOR PIECE MEAL DEVELOPMENT AND CONSOLIDATE HUNDREDS OR EVEN THOSANDS OF ACRES IN TO ONE TOWNSHIP PLANNING. LIKE WHO EVER PLANNED JAYANAGAR N JP NAGAR ROAD FRON SOUTH END CIRCLE TO BANASHANKARI_SILK BOARD ROAD, 30 YEARS AGO.\n', 'score': 0.29559080402832305}</t>
+    <t>{'response': '45- The village yellow zone limits has to be increased by actual as the development has been more in that area \n', 'score': 0.6546650381897038}</t>
+  </si>
+  <si>
+    <t>{'response': '32- Lake boundaries buffer zone in not possible in developed areas \n', 'score': 0.6503839186421505}</t>
+  </si>
+  <si>
+    <t>{'response': '41- Survey #77 at Chikkalasandra is now in buffer zone which is huge deviation from previous plan\n', 'score': 0.6134008574154938}</t>
+  </si>
+  <si>
+    <t>{'response': "40- There is NO consensus taken from public and there is NO awareness about CDP 2031. The NGT increased the Buffer zone to 70 mts for all lakes in bangalore. NGT is referring to maps which are based on 1905 British survey. most of these lakes have dried up in 1970's and 1980's and there is no source of any water in these lakes left. BDA has converted these lakes and areas around lakes for residential use to be sold to public. now what is the point of looking at old non-existent lakes. NGT should do a current survey to outline current lakes and try to save them instead. It is duty of BDA to protect the rights of public who have legally purchased the sites based on their life savings and have being pay property tax regularly. If the CDP is approved most of the areas around lakes will lose it's value, BDA should look to compensate to public via its market value as many people have already constructed houses in this areas. BDA should deal this matter very delicately otherwise it will be a catastrophe for all bangaloreans and it will destroy 1/3 bangalore. people will not trust and invest in bangalore anymore.  \n", 'score': 0.590152067739195}</t>
+  </si>
+  <si>
+    <t>{'response': '28- Some area like chokasandra village, which is around 2 km from Sarjapura main Road should have been considered for yellow zone since there are good schools and other facilities so that people can build houses and leave peacefully from the city.  \n', 'score': 0.5845656221489116}</t>
+  </si>
+  <si>
+    <t>{'response': '46- Sir please take out buffer zone near lake as our plots will have no value and we had bought in 2002 and if you add 75mts around the lake our resale market value of the plots will become zero value Area chikkalsandra lake \n', 'score': 0.5816171635785528}</t>
+  </si>
+  <si>
+    <t>{'response': '26- Residential buildings within Survey #77 are being shown as being either on the Chikkalasandra lake or in the buffer zone. This is a big change from previous bda master plan, where they were shown as legitimate residential buildings. Please rectify this error.\n', 'score': 0.5611229723731106}</t>
+  </si>
+  <si>
+    <t>{'response': '37- This is pretty neat. Well thought out. Hope the implementation is taken up with same vigor as the green buffer mostly gets occupies illegally. There needs to be a punishable law to take action against those who occupy green belts illegally. \n', 'score': 0.5310775028358354}</t>
   </si>
   <si>
     <t>{'response': '15- Please make a rule that all new buildings constructed in Bangalore especially in crowded areas, market places, Highways etc to strictly and compulsorily make provisions for public toilets inside their building to be maintained by BBMP. The area of the Toilet should be not less than 200 Sft. BBMP will provide extra FAR for the area of the toilet of double the same For EX. if toilet area is 200 sft, Builder gets increase in FAR of say 400 to 500 sft which can be added to the building in any Floor.\n', 'score': 0.5044962140204103}</t>
   </si>
   <si>
-    <t>{'response': '26- Residential buildings within Survey #77 are being shown as being either on the Chikkalasandra lake or in the buffer zone. This is a big change from previous bda master plan, where they were shown as legitimate residential buildings. Please rectify this error.\n', 'score': 0.5611229723731106}</t>
-  </si>
-  <si>
-    <t>{'response': '28- Some area like chokasandra village, which is around 2 km from Sarjapura main Road should have been considered for yellow zone since there are good schools and other facilities so that people can build houses and leave peacefully from the city.  \n', 'score': 0.5845656221489116}</t>
-  </si>
-  <si>
-    <t>{'response': '32- Lake boundaries buffer zone in not possible in developed areas \n', 'score': 0.6503839186421505}</t>
-  </si>
-  <si>
-    <t>{'response': '37- This is pretty neat. Well thought out. Hope the implementation is taken up with same vigor as the green buffer mostly gets occupies illegally. There needs to be a punishable law to take action against those who occupy green belts illegally. \n', 'score': 0.5310775028358354}</t>
-  </si>
-  <si>
-    <t>{'response': "40- There is NO consensus taken from public and there is NO awareness about CDP 2031. The NGT increased the Buffer zone to 70 mts for all lakes in bangalore. NGT is referring to maps which are based on 1905 British survey. most of these lakes have dried up in 1970's and 1980's and there is no source of any water in these lakes left. BDA has converted these lakes and areas around lakes for residential use to be sold to public. now what is the point of looking at old non-existent lakes. NGT should do a current survey to outline current lakes and try to save them instead. It is duty of BDA to protect the rights of public who have legally purchased the sites based on their life savings and have being pay property tax regularly. If the CDP is approved most of the areas around lakes will lose it's value, BDA should look to compensate to public via its market value as many people have already constructed houses in this areas. BDA should deal this matter very delicately otherwise it will be a catastrophe for all bangaloreans and it will destroy 1/3 bangalore. people will not trust and invest in bangalore anymore.  \n", 'score': 0.5927211932351577}</t>
-  </si>
-  <si>
-    <t>{'response': '41- Survey #77 at Chikkalasandra is now in buffer zone which is huge deviation from previous plan\n', 'score': 0.6134008574154938}</t>
-  </si>
-  <si>
-    <t>{'response': '45- The village yellow zone limits has to be increased by actual as the development has been more in that area \n', 'score': 0.6546650381897038}</t>
-  </si>
-  <si>
-    <t>{'response': '46- Sir please take out buffer zone near lake as our plots will have no value and we had bought in 2002 and if you add 75mts around the lake our resale market value of the plots will become zero value Area chikkalsandra lake \n', 'score': 0.5816171635785528}</t>
-  </si>
-  <si>
     <t>{'response': "51- Rajakaluve buffer zone is too much. And should maintain the old buffer zone... People buy sites by all hard earned money..why BDA gives approval for such areas.  So its can't be changed just like that. \n", 'score': 0.4565582184692661}</t>
   </si>
   <si>
-    <t>{'response': '14- The city needs more lungs. There are places like Ramamurthy nagar which has no park. Every inch is covered by buildings. Buildings jutting into the foot paths. , no place for children to play, or adults to walk. The foot paths are in terrible state . with gaps opening into drainage, vendors blocking the foot paths completely.The city is choking and all of us , Bangaloreans feel our health is deteriorating because of the over crowding and all other things that follow mushrooming of buildings. \n', 'score': 0.5775199292456462}</t>
+    <t>{'response': '12- On ground reality and the plan does not match. It looks certain that the planning team never visited locations and made plans sitting in the office with out getting real time situation. The tragic traffic situation in Bangalore is haphazard approval or unauthorised development of SMALL scale residential layouts and apartment complexes. At least one the areas planned for residential purposes should be in a mega scale like PRIVATE CLUSTER OF LANDS AND WHOLESOME PLANNING OF HUDREDS OF ACRES IN A PLANNED TOWNSHIP AND ACCESSABILITY. DO NOT PERMIT  A FEW ACRES FOR PIECE MEAL DEVELOPMENT AND CONSOLIDATE HUNDREDS OR EVEN THOSANDS OF ACRES IN TO ONE TOWNSHIP PLANNING. LIKE WHO EVER PLANNED JAYANAGAR N JP NAGAR ROAD FRON SOUTH END CIRCLE TO BANASHANKARI_SILK BOARD ROAD, 30 YEARS AGO.\n', 'score': 0.31964835972730793}</t>
+  </si>
+  <si>
+    <t>{'response': "53- Shift the industries and software parks with in central city limits. This will make people move to city outskirts for housing needs there by decongestion in the central city. I don't understand how can NDA give permission to open software parks in main city and expect traffic to reduce and nearby already cramped neighborhood to be in livable conditions. Please use land near Nelamagala so that city can grow towards other cities and help the locals maximum rather developing areas near Karanataka border. It's very disappointing to know that Nelamagala area has never been considered for industrial parks though the access to new airport is much better compared to other areas. \n", 'score': 0.7010504283843664}</t>
+  </si>
+  <si>
+    <t>{'response': '48- The city is already extremely densely populated, we need to expand the municipal boundaries by at least 15 kms in all directions so that more areas open up to development \n', 'score': 0.6853469926457824}</t>
+  </si>
+  <si>
+    <t>{'response': '44- Plot no. 2 in LIC Colony, Jivan Bima Nagar is marked as Post Office. the post office already exists in the earmarked area.. Also Kittur Rani Chennamma park exists is a small corner.. this whole area is the only Green area in the colony and is surrounded by 30 feet roads.. by keeping it as public utility spaces, you are creating additional traffic and footfalls in an already crowded colony.. Also there is no other playground/park for a 1 km surrounding and this is the only lungspace available for the colony residents.. Do not trade the lung space and environment of the colony for noise polluting concrete jungles and spoil the lives of the citizens around.. \n', 'score': 0.6214642951459247}</t>
+  </si>
+  <si>
+    <t>{'response': '14- The city needs more lungs. There are places like Ramamurthy nagar which has no park. Every inch is covered by buildings. Buildings jutting into the foot paths. , no place for children to play, or adults to walk. The foot paths are in terrible state . with gaps opening into drainage, vendors blocking the foot paths completely.The city is choking and all of us , Bangaloreans feel our health is deteriorating because of the over crowding and all other things that follow mushrooming of buildings. \n', 'score': 0.5897236765403113}</t>
+  </si>
+  <si>
+    <t>{'response': '61- During 1995, Bangalore was city of Parks, Gardens, Lakes. By 2018 unfortunately it has be come polluted cement and traffic city. We should use afforestation and restore greenery of Bangalore. One way to make space in existing land, is by political intervention, convert single story homes spread out in a layout to multi-story building and use the space which gets created for planting trees. It will take a strong political will and discussion with residents to bring about this change. City should be designed to support a population of 4-5 million people in 1000 km square. We are (as of 2018) 8.4 million in 700 km square. We should develop sisters cities such as Tumkur and Ramanagar instead of over populating Bangalore. Whether it is pollution, traffic, the root cause of the problem is Population! Whenever an apartment or mall is constructed, area on which trees should be planted should be indicated and made sure of by BDA/BBMP. Bangalore should have world class roads - not pot hole roads. Please request big companies with track records of creating great infrastructure such as L&amp;T and HCC to build roads for Bangalore.\n', 'score': 0.5803938579440661}</t>
+  </si>
+  <si>
+    <t>{'response': '43- Stop any further urbanization, ask government to leverage other cities, stop migration of people , if continue to allow any more building , city will die due shortage of water, road, air, \n', 'score': 0.5470709953835003}</t>
   </si>
   <si>
     <t>{'response': '16- Government should stop approving Big Apartments and Tech parks construction where already the traffic and population density is high.\n', 'score': 0.5400690438454602}</t>
@@ -1269,31 +1278,16 @@
     <t>{'response': '25- Illegal constructions and constructing buildings very close to each other is resulting in less water. For every building, there should be at least one tree planted.\n', 'score': 0.49084525916644195}</t>
   </si>
   <si>
-    <t>{'response': '43- Stop any further urbanization, ask government to leverage other cities, stop migration of people , if continue to allow any more building , city will die due shortage of water, road, air, \n', 'score': 0.5470709953835003}</t>
-  </si>
-  <si>
-    <t>{'response': '44- Plot no. 2 in LIC Colony, Jivan Bima Nagar is marked as Post Office. the post office already exists in the earmarked area.. Also Kittur Rani Chennamma park exists is a small corner.. this whole area is the only Green area in the colony and is surrounded by 30 feet roads.. by keeping it as public utility spaces, you are creating additional traffic and footfalls in an already crowded colony.. Also there is no other playground/park for a 1 km surrounding and this is the only lungspace available for the colony residents.. Do not trade the lung space and environment of the colony for noise polluting concrete jungles and spoil the lives of the citizens around.. \n', 'score': 0.5873743944738706}</t>
-  </si>
-  <si>
-    <t>{'response': '48- The city is already extremely densely populated, we need to expand the municipal boundaries by at least 15 kms in all directions so that more areas open up to development \n', 'score': 0.6853469926457824}</t>
-  </si>
-  <si>
-    <t>{'response': "53- Shift the industries and software parks with in central city limits. This will make people move to city outskirts for housing needs there by decongestion in the central city. I don't understand how can NDA give permission to open software parks in main city and expect traffic to reduce and nearby already cramped neighborhood to be in livable conditions. Please use land near Nelamagala so that city can grow towards other cities and help the locals maximum rather developing areas near Karanataka border. It's very disappointing to know that Nelamagala area has never been considered for industrial parks though the access to new airport is much better compared to other areas. \n", 'score': 0.6944094423931523}</t>
-  </si>
-  <si>
-    <t>{'response': '61- During 1995, Bangalore was city of Parks, Gardens, Lakes. By 2018 unfortunately it has be come polluted cement and traffic city. We should use afforestation and restore greenery of Bangalore. One way to make space in existing land, is by political intervention, convert single story homes spread out in a layout to multi-story building and use the space which gets created for planting trees. It will take a strong political will and discussion with residents to bring about this change. City should be designed to support a population of 4-5 million people in 1000 km square. We are (as of 2018) 8.4 million in 700 km square. We should develop sisters cities such as Tumkur and Ramanagar instead of over populating Bangalore. Whether it is pollution, traffic, the root cause of the problem is Population! Whenever an apartment or mall is constructed, area on which trees should be planted should be indicated and made sure of by BDA/BBMP. Bangalore should have world class roads - not pot hole roads. Please request big companies with track records of creating great infrastructure such as L&amp;T and HCC to build roads for Bangalore.\n', 'score': 0.5803938579440661}</t>
+    <t>{'response': '8- All major roads footpaths in residential roads are occupied by vendors and hawkers, which hinders the smooth movement of public on footpaths. My request is to earmark specific open areas for vendors and hawkers for their trade and make free footpath for movement of public\n', 'score': 0.5976335086047693}</t>
+  </si>
+  <si>
+    <t>{'response': '20- Land aqusation for roads not satisfied\n', 'score': 0.5356829917905839}</t>
+  </si>
+  <si>
+    <t>{'response': '10- In plan the roads are passing through the apartments without proper planning\n', 'score': 0.5125335522973197}</t>
   </si>
   <si>
     <t>{'response': '5- Many existing roads have not been shown.I have seen Planning Districts 1 &amp; 2 and have seen many existing roads not shown.It appears that due diligence has not been followed.In Planning District 1,portions of  earlier Residential (Main) are shown as "Unclassified".These were originally(in CDP) shown as Residential and have not changed in any way.But in RMP 2031 Draft they are shown as Unclassified.The same blunder is being made again and again reflecting the laxity in preparing the Existing Land Use Map.If this is incorrect then how can the Proposed Land Use Map make sense?\n', 'score': 0.3515463461997804}</t>
-  </si>
-  <si>
-    <t>{'response': '8- All major roads footpaths in residential roads are occupied by vendors and hawkers, which hinders the smooth movement of public on footpaths. My request is to earmark specific open areas for vendors and hawkers for their trade and make free footpath for movement of public\n', 'score': 0.5976335086047693}</t>
-  </si>
-  <si>
-    <t>{'response': '10- In plan the roads are passing through the apartments without proper planning\n', 'score': 0.5125335522973197}</t>
-  </si>
-  <si>
-    <t>{'response': '20- Land aqusation for roads not satisfied\n', 'score': 0.5356829917905839}</t>
   </si>
   <si>
     <t xml:space="preserve">Each park will have facilities for sports, and four large sports complexes will be built across the city
@@ -1312,7 +1306,34 @@
 </t>
   </si>
   <si>
-    <t>{'response': '4- It is not clear how what has not been able to do over last 70 years (no new big parks built after independence) , can be done in next 12 years. There is no clear idea on how to procure land for these. At periphery even if done, it cannot be accessed by majority population.  The  best way for Bangalore to create more parks and recreation is create spaces from defense and govt lands. It would be good if govt can convince defense establishments in and around Bangalore to move out and establish their centers in other districts. Govt should provide enough incentives, land for defense to vacate their land in prime areas of Bangalore. The vacated land can be converted to parks and recreation centers. \n', 'score': 0.660261617731406}</t>
+    <t>{'response': '40- Every city in India and the world plans some recreational, parks, open spaces for children and everyone to relax, enjoy fresh air, interact with community etc but in Bengaluru, there is no provision of any such facilities especially on the outer sides of the city where the land is just being converted to buildings around narrow lanes without any open space being left.\n', 'score': 0.7062113551425635}</t>
+  </si>
+  <si>
+    <t>{'response': '27- The encroachment of plots reserved for parks and sports as per earliar plans should be removed developed along with new proposals.\n', 'score': 0.6838199646379794}</t>
+  </si>
+  <si>
+    <t>{'response': "68- I have seen Bengaluru spread like virus. In this coarse, the entire structure has changed bringing about a lot of change and reduction in the amenities around certain areas. One such amenity is a playground. I have lived in Malleswaram for 20 years and have seen the change taken place. This ground was once a most wanted field for Football matches, Kabaddi tourney's, Cricket tourney's. But now every ground around Bengaluru is occupied either for some political event or by educational institutions. These should have their restrictions and the BBMP should ensure that a playground id used for a specific purpose and not for any personal event. Although few smaller grounds are converted to walking parks, it is also important to ensure that there is a decent amount of place left for outdoor sports to be played.\n", 'score': 0.6756573852393507}</t>
+  </si>
+  <si>
+    <t>{'response': '4- It is not clear how what has not been able to do over last 70 years (no new big parks built after independence) , can be done in next 12 years. There is no clear idea on how to procure land for these. At periphery even if done, it cannot be accessed by majority population.  The  best way for Bangalore to create more parks and recreation is create spaces from defense and govt lands. It would be good if govt can convince defense establishments in and around Bangalore to move out and establish their centers in other districts. Govt should provide enough incentives, land for defense to vacate their land in prime areas of Bangalore. The vacated land can be converted to parks and recreation centers. \n', 'score': 0.6624739739939811}</t>
+  </si>
+  <si>
+    <t>{'response': '63- The existing lakes, that are encroached and sizes are greatly reduced, needs clear boundary to be set up. A park along periphery can only happen then. The yele mallappa shetty lake, is a classic example, one of the biggest in Bangalore, one of the major roads cross it, and there is so much negligence that a huge pocket of greenery and lung space is slowly dying. A timely step to address such challenges will help the city in the long term.\n', 'score': 0.6500640460493569}</t>
+  </si>
+  <si>
+    <t>{'response': "64- in the Cosmo city where the city operates for 24 hours, people have different schedules. hence night shift people have no access for parks, so measures should be taken to operate parks for 24hours with strict security , solar powered lighting, with CCTV's\n", 'score': 0.6433953521239881}</t>
+  </si>
+  <si>
+    <t>{'response': '31- Open playgrounds are awfully inadequate. Even schools lack enough playgrounds forcing children to take to roads. Playgrounds should be spread across the entire city so that long travel is avoided. Sports equipment may be made available on rent out basis at these grounds for the benefit of youth who cannot afford but have an inclination for sports.\n', 'score': 0.6309963128628477}</t>
+  </si>
+  <si>
+    <t>{'response': "19- children parks are very very less compared to normal city's. For kids entertainment option is available is artificial environment created in commercial  multiplex malls.Green city can accommodate some space for parks which is very useful for kids and oldage people which is not finding in Banflore.\n", 'score': 0.6179796330378088}</t>
+  </si>
+  <si>
+    <t>{'response': '45- There is a need for smaller parks in localities. People cant always access the large parks. Empty sites could be identified and turned into parks for people to walk in the morning and for kids to play. BDA should ensure that every locality/layout has a small park. Also micro forests could be made to have greenery. \n', 'score': 0.6147472326400986}</t>
+  </si>
+  <si>
+    <t>{'response': "26- Recreation center in every square km is need of the hour. I see people doesn't have space for sports and even for morning or evening walk.  This is very necessary to make people physically and mentally healthy and fit so that they can contribute for this city and the nation. This is one of the most urgently implemented plan.\n", 'score': 0.5941994297619257}</t>
   </si>
   <si>
     <t>{'response': '12- More and more maintenance needed.Proper installation of sports facility as well.Badminton courts and all should be maintained,Install Open Gyms and maintaining it properly.Also there should be some Affordable clubs where people can register themselves and play as per their interest basis.There is no Swimming pool in BTM 2nd stage.I request the government to please look into this corner.Citizens are getting health conscious day by day and this can lead bengaluru to live upto its expectation.\n', 'score': 0.5928612661025137}</t>
@@ -1321,52 +1342,31 @@
     <t>{'response': '14- Actually everything is paper only. We are not seeing anything in action like dustbin distribution to all APL and BPL house holds across all wards and changing all the street lights to LED lights. Where are funds gone which were allocated in the last year BBMP budgets?. Everything is published on the news papers but nothing is being implemented. We are living in a layout near veerannapalya  and there is no park for walking and road are stinking because of opendefacation. \n', 'score': 0.5812481317881141}</t>
   </si>
   <si>
-    <t>{'response': "19- children parks are very very less compared to normal city's. For kids entertainment option is available is artificial environment created in commercial  multiplex malls.Green city can accommodate some space for parks which is very useful for kids and oldage people which is not finding in Banflore.\n", 'score': 0.6179796330378088}</t>
-  </si>
-  <si>
-    <t>{'response': "26- Recreation center in every square km is need of the hour. I see people doesn't have space for sports and even for morning or evening walk.  This is very necessary to make people physically and mentally healthy and fit so that they can contribute for this city and the nation. This is one of the most urgently implemented plan.\n", 'score': 0.5941994297619257}</t>
-  </si>
-  <si>
-    <t>{'response': '27- The encroachment of plots reserved for parks and sports as per earliar plans should be removed developed along with new proposals.\n', 'score': 0.6838199646379794}</t>
-  </si>
-  <si>
-    <t>{'response': '31- Open playgrounds are awfully inadequate. Even schools lack enough playgrounds forcing children to take to roads. Playgrounds should be spread across the entire city so that long travel is avoided. Sports equipment may be made available on rent out basis at these grounds for the benefit of youth who cannot afford but have an inclination for sports.\n', 'score': 0.6239294894096813}</t>
-  </si>
-  <si>
     <t>{'response': '35- Mandatory one park for every 25000 people will help grow greenery over the city and Increase oxygen in city\n', 'score': 0.5658009387176065}</t>
   </si>
   <si>
-    <t>{'response': '40- Every city in India and the world plans some recreational, parks, open spaces for children and everyone to relax, enjoy fresh air, interact with community etc but in Bengaluru, there is no provision of any such facilities especially on the outer sides of the city where the land is just being converted to buildings around narrow lanes without any open space being left.\n', 'score': 0.7062113551425635}</t>
-  </si>
-  <si>
-    <t>{'response': '45- There is a need for smaller parks in localities. People cant always access the large parks. Empty sites could be identified and turned into parks for people to walk in the morning and for kids to play. BDA should ensure that every locality/layout has a small park. Also micro forests could be made to have greenery. \n', 'score': 0.6147472326400986}</t>
-  </si>
-  <si>
-    <t>{'response': '48- Can we residents of Roopena Agrahara residing near Madiwala lake have a small park besides lake at 5th cross. This corner is being ignored completely as sewage gutter flows just next to it. Also the park at ViratNagar is quite far for residents staying in 2,3,4,5 th cross. Kids are forced to play on roads which is unsafe due to fast running vehicles and roads are without standardized bumps/ Speed breakers. Think of having a park in our area too. Thank you.\n', 'score': 0.548155768046401}</t>
+    <t>{'response': '48- Can we residents of Roopena Agrahara residing near Madiwala lake have a small park besides lake at 5th cross. This corner is being ignored completely as sewage gutter flows just next to it. Also the park at ViratNagar is quite far for residents staying in 2,3,4,5 th cross. Kids are forced to play on roads which is unsafe due to fast running vehicles and roads are without standardized bumps/ Speed breakers. Think of having a park in our area too. Thank you.\n', 'score': 0.5648550860611605}</t>
   </si>
   <si>
     <t>{'response': '54- Instead of large works please plan for many smaller ones\n', 'score': 0.5072088482934074}</t>
   </si>
   <si>
-    <t>{'response': '63- The existing lakes, that are encroached and sizes are greatly reduced, needs clear boundary to be set up. A park along periphery can only happen then. The yele mallappa shetty lake, is a classic example, one of the biggest in Bangalore, one of the major roads cross it, and there is so much negligence that a huge pocket of greenery and lung space is slowly dying. A timely step to address such challenges will help the city in the long term.\n', 'score': 0.6461276456979433}</t>
-  </si>
-  <si>
-    <t>{'response': "64- in the Cosmo city where the city operates for 24 hours, people have different schedules. hence night shift people have no access for parks, so measures should be taken to operate parks for 24hours with strict security , solar powered lighting, with CCTV's\n", 'score': 0.6433953521239881}</t>
-  </si>
-  <si>
-    <t>{'response': "68- I have seen Bengaluru spread like virus. In this coarse, the entire structure has changed bringing about a lot of change and reduction in the amenities around certain areas. One such amenity is a playground. I have lived in Malleswaram for 20 years and have seen the change taken place. This ground was once a most wanted field for Football matches, Kabaddi tourney's, Cricket tourney's. But now every ground around Bengaluru is occupied either for some political event or by educational institutions. These should have their restrictions and the BBMP should ensure that a playground id used for a specific purpose and not for any personal event. Although few smaller grounds are converted to walking parks, it is also important to ensure that there is a decent amount of place left for outdoor sports to be played.\n", 'score': 0.6723835162814011}</t>
-  </si>
-  <si>
-    <t>{'response': '11- Need to increase Park space and available timings to general public with proper security and toilets.\n', 'score': 0.40539230667658777}</t>
-  </si>
-  <si>
-    <t>{'response': '13- No Park in bangalore except the older part. I stayed in e-city, now in panathur, Balagere. There is no plan of park here. It must be included in all the areas.\n', 'score': 0.3913609743913304}</t>
-  </si>
-  <si>
-    <t>{'response': '38- Park sanctioned in Kanaka Nagar area near raily crossing gate , But still the work has not begun from past 4 years. \n', 'score': 0.5362677073512374}</t>
-  </si>
-  <si>
-    <t>{'response': '69- More parks are to created in CA sites.\n', 'score': 0.5030706372055608}</t>
+    <t>{'response': '29- We need to maintain our lakes, disconnect drainage lines connected to lakes, increase number of trees in my city. Please let us know if we(public) can take some initiative to grown plants under namma metro. If yes, please let us know how can we do it.   We would like so see Bengaluru as a garden city rather than Silicon City.  Thanks, Nithya - 9964002090\n', 'score': 0.4906876364629443}</t>
+  </si>
+  <si>
+    <t>{'response': '55- the more the better. even small parks will help. \n', 'score': 0.665279825116078}</t>
+  </si>
+  <si>
+    <t>{'response': '69- More parks are to created in CA sites.\n', 'score': 0.5122080391706421}</t>
+  </si>
+  <si>
+    <t>{'response': '38- Park sanctioned in Kanaka Nagar area near raily crossing gate , But still the work has not begun from past 4 years. \n', 'score': 0.49889262254998745}</t>
+  </si>
+  <si>
+    <t>{'response': '13- No Park in bangalore except the older part. I stayed in e-city, now in panathur, Balagere. There is no plan of park here. It must be included in all the areas.\n', 'score': 0.3896627340253638}</t>
+  </si>
+  <si>
+    <t>{'response': '11- Need to increase Park space and available timings to general public with proper security and toilets.\n', 'score': 0.3792864146192566}</t>
   </si>
   <si>
     <t>['2- Although the plan is good to build around 8 parks, care must be taken to ensure that they are not harmed in the future (like 5-10 years into the future). I saw this with experience because, now during the metro construction, many parks have been removed and i do not see any possibilities to recreate them. This must not happen in the future. If there is no option available, it must be ensured that there will be a seamless integration of the two.  Also, one more aspect would be to allow some portion of the parks to be reserved for pets so that even our pets can enjoy the greenery and meet many furry friends. Ensuring the cleanliness of this place must be undertaken by both the pet owners and the government.\n']</t>
@@ -1402,13 +1402,7 @@
     <t>['67- It is worth thinking about something along the lines of Miyawaki forest to create zones that will absorb carbon dioxide.\n']</t>
   </si>
   <si>
-    <t>{'response': '24- Need more lung spaces planned with real good tree cover to nullify the carbon monoxide and CO2 emissions by the BMTC Volvo buses\n', 'score': 0.4162806129617628}</t>
-  </si>
-  <si>
-    <t>{'response': '29- We need to maintain our lakes, disconnect drainage lines connected to lakes, increase number of trees in my city. Please let us know if we(public) can take some initiative to grown plants under namma metro. If yes, please let us know how can we do it.   We would like so see Bengaluru as a garden city rather than Silicon City.  Thanks, Nithya - 9964002090\n', 'score': 0.4823588643513205}</t>
-  </si>
-  <si>
-    <t>{'response': '34- Parks are the main king space  Children’s these days are stuck to computers, mobiles and other indoor games mainly because there is no adequate parks or play grounds for their outings  Parks and gardens are the main places where elders get fresh air, peace of mind and new contacts and also source for passing time.  Therefore enough space has to b ear marked for opening parks with proper seating arrangements , security and staff to maintain them with sincerity. Above all it shd be seen that most of the time these parks and gardens are kept opened as different sections of the people get chance at different timings depending on their business activities or working hours.  Fountains shd b compulsorily installed and maintained.  Simultaneously it shd b seen that these lung spaces are not utilised for parties or political events or any other functions not even religious activities \n', 'score': 0.6295961121449084}</t>
+    <t>{'response': '34- Parks are the main king space  Children’s these days are stuck to computers, mobiles and other indoor games mainly because there is no adequate parks or play grounds for their outings  Parks and gardens are the main places where elders get fresh air, peace of mind and new contacts and also source for passing time.  Therefore enough space has to b ear marked for opening parks with proper seating arrangements , security and staff to maintain them with sincerity. Above all it shd be seen that most of the time these parks and gardens are kept opened as different sections of the people get chance at different timings depending on their business activities or working hours.  Fountains shd b compulsorily installed and maintained.  Simultaneously it shd b seen that these lung spaces are not utilised for parties or political events or any other functions not even religious activities \n', 'score': 0.6324257280392461}</t>
   </si>
   <si>
     <t>{'response': '44- Public spaces are the most important. Hope this takes care of that. But getting land is going to be challenge. Most people throw cases at the government and these cases take for ever to complete. There needs to be good mechanism and specific committee looking into land acquisition. \n', 'score': 0.5051402123992123}</t>
@@ -1417,100 +1411,100 @@
     <t>{'response': '50- We need to work on providing sufficient public toilets at regular distance throughout the city. It should be made compulsory to have toilets in all commercial buildings. \n', 'score': 0.49862528310740534}</t>
   </si>
   <si>
-    <t>{'response': '1- I am sure that we will have all the above plans intact in the master plan of 2041 as well. Man, Bangalore has the best of natural resources in the form of multiple lakes and we need to learn to use them. Control the pollution flowing into the lakes and make them the recreational places. We dont need huge 200-300 acres of land for it use the land around the existing lakes. You can give a develop and operate contract to any private builders without any big bribes going out of their pockets, which will compromise the quality and increase the prices for the general public.\n', 'score': 0.6416763537754087}</t>
+    <t>{'response': '24- Need more lung spaces planned with real good tree cover to nullify the carbon monoxide and CO2 emissions by the BMTC Volvo buses\n', 'score': 0.42958825831646946}</t>
   </si>
   <si>
     <t>{'response': '5- Area surrounding lakes can be used for parks and recreation. For example, varthur lake road is such a beautiful view if only it was maintained properly. It could be converted to receation area something similar to hyderabad’s necklace road or marine drive with parks foot paths.. food streets, water sports  and amphitheatre for piblic events.\n', 'score': 0.7644454466107176}</t>
   </si>
   <si>
+    <t>{'response': '52- We need more parks and playgrounds near residential areas where kids can go and play everyday. Marathahalli area has zero parks. Large parks will make it like a amusement park and weekend visits.\n', 'score': 0.7231367368309128}</t>
+  </si>
+  <si>
+    <t>{'response': "37- One of the parks in my area named Taverekere park (Tank Bund Rd, Bhavani Nagar, Suddagunte Palya) would be replaced by the lake. It's important to make more storm water drains but replacing a park for it doesn't make ecological sense. Moreover, the lake would be surrounded by building which is against the developmental norms. \n", 'score': 0.6926636725230837}</t>
+  </si>
+  <si>
+    <t>{'response': '22- There is a need to maintain the current parks well. It is an urgent requirement to stop the flow of traffic in Cubbon Park (24*7) just like in Lalbagh so as to protect the sanctity and ecology of the lung space.\n', 'score': 0.6920530271780754}</t>
+  </si>
+  <si>
+    <t>{'response': '43- Apart from the large parks, smaller parks in each locality are needed as it provides breathing space and recreation venue for all. Also the parks have to be kept children safe with good rubber mattings, sand pits for kids\n', 'score': 0.6890461675026951}</t>
+  </si>
+  <si>
+    <t>{'response': "41- Cannot ignore the smaller parks in the city hub as need green cover there also and don't encroach these areas come what may.\n", 'score': 0.6859939773640522}</t>
+  </si>
+  <si>
+    <t>{'response': '30- Parks, squares, open plaza is what makes life in the city bearable or even pleasant. Large parks are important but smaller such public open spaces are essentials! They allow kids to play safely outside,close to their homes , they give a ground for social interactions and strengthen community bonds. They are missing in many areas of Bangalore.This goes in par with guaranteeing safe pedestrian routes and accesses. Instead ofspending so much money on fancy fences and complexe ornemental plantations and paved paths, let the parks be simple and open with a few good trees ( why not fruit trees). There could also be deals between private land owner of empty plots and the municipality to use and maintain those plots as play grounds / parks against a small retribution, for a given duration.\n', 'score': 0.6829034733844155}</t>
+  </si>
+  <si>
+    <t>{'response': '66- We are from green city! but we\'ve more parks and recreational area but we do not have the proper maintenance programs. "we build parks and forget"\n', 'score': 0.6808751565968963}</t>
+  </si>
+  <si>
+    <t>{'response': '47- Most park areas were recently converted to Indira canteens, while it is ok, but please develop parks wherever they were planned. \n', 'score': 0.6744869314655377}</t>
+  </si>
+  <si>
+    <t>{'response': '15- The currently peripheral areas such as Mahadevpura, Marathahalli, Whitefield, etc. do not have any usable parks whatsoever. Parks should be mandated and the land earmarked well before real estate starts picking up in the newer areas.\n', 'score': 0.6728835651280346}</t>
+  </si>
+  <si>
+    <t>{'response': '17- as part of building parks, pls allow spaces where children can play. these days we are seeing parts with walking lanes and grass lwns with no space to play. older parks like MN Krishnarao park that used to have large playarea has been converted and much of it is now turned into lawns. allowing kids to play will help their physical development.\n', 'score': 0.6683358808811204}</t>
+  </si>
+  <si>
+    <t>{'response': '58- Park timings: Many of public parks and gardens within the localities are closed for public between 11am - 5pm. All the public parks whether it is maintained by the Government bodies or Resident Welfare Associations, should be open and accessible to public all day long (5am - 10pm).\n', 'score': 0.6576141746851362}</t>
+  </si>
+  <si>
+    <t>{'response': '1- I am sure that we will have all the above plans intact in the master plan of 2041 as well. Man, Bangalore has the best of natural resources in the form of multiple lakes and we need to learn to use them. Control the pollution flowing into the lakes and make them the recreational places. We dont need huge 200-300 acres of land for it use the land around the existing lakes. You can give a develop and operate contract to any private builders without any big bribes going out of their pockets, which will compromise the quality and increase the prices for the general public.\n', 'score': 0.6501029412331357}</t>
+  </si>
+  <si>
+    <t>{'response': '16- We need to build parks along side all future roads atleast on a 1-3 metres width and also on medians.\n', 'score': 0.6490608861403798}</t>
+  </si>
+  <si>
+    <t>{'response': '57- Plead you to develop atleast one lush green public park with rain trees. We need natural lungs in every layout or the population will be sick with asthma. Just having accessible clean parks and playgrounds will go long way to up the happiness quotient of the city. Please show the will power and reclaim abandoned land to build parks and gardens . The city will thank you and restore its prestige in international community.\n', 'score': 0.6479813094726955}</t>
+  </si>
+  <si>
+    <t>{'response': '10- Building large parks is great, but we should also implement small measures now.  Like making sure neighbourhood parks are safe and clean, and planting trees and shrubs on road dividers.  They look good, and also help while driving by shielding the eyes from oncoming high beam lights.  But most importantly, you should make sure Parks are SAFE for kids, women and everyone, and have ample bathrooms so people don’t urinate here and there. \n', 'score': 0.6446348873875906}</t>
+  </si>
+  <si>
+    <t>{'response': '49- Try to build more parks in residential areas \n', 'score': 0.6332208340675618}</t>
+  </si>
+  <si>
+    <t>{'response': '20- I am little surprised that we dont have any sports facilities spead across the city. Only few are concentrated at Kantiveera area. I think we need to encourage people to take up sports by creating better parks, or running trails around lakes and preserve them. More sports facilities like Swimming pool, bedminton courts, TT etc need to be setup . So, common man can also use it. This is the area which is completely ignored. Many private players,gyms are making huge money.\n', 'score': 0.63091204885036}</t>
+  </si>
+  <si>
+    <t>{'response': '39- Existing parks need better maintainace and they must all contain clean toilets at every toilets. The parks must have open through the day and not dictate us as to when we must use the park. Also, if there are artificial ponds in these parks, those must be cleaned regularly and throwing of garbage and plastics must be banned and made a punishable offence.\n', 'score': 0.6308760244940907}</t>
+  </si>
+  <si>
+    <t>{'response': '18- And also concentrate on small parks in and around the locality. \n', 'score': 0.61883013298418}</t>
+  </si>
+  <si>
+    <t>{'response': '51- Open spaces, parks and recreation areas are getting illegally encroached upon by the Corrupt arm of the society including the Politicians. Need more open space, greenery, water bodies for healthy living\n', 'score': 0.6177647787496097}</t>
+  </si>
+  <si>
+    <t>{'response': "53- Eight parks is a good start but we need to ensure that the development of these parks is transparent and accountable. We don't want to be in a situation wherein the parks take forever to complete. Prefarably the parks should have cycling tracks, running tracks and lots of free space and should be modelled like Cubbon Park.\n", 'score': 0.6067217013062295}</t>
+  </si>
+  <si>
+    <t>{'response': '61- No parks no greenery \n', 'score': 0.6022190264718604}</t>
+  </si>
+  <si>
+    <t>{'response': '23- The existing parks need to be cleaned and maintained first. Lots of parks lack lighting, do not have proper fencing and has become dumping grounds. Creation of new parks is appreciated but funds must be allocated for the effective maintenance of the existing parks as well. \n', 'score': 0.599415773076298}</t>
+  </si>
+  <si>
+    <t>{'response': "56- I moved to Bengaluru because it was called the Garden City, but most of this greenery is limited to the Old Bengaluru area (Cubbon Park, etc.). THe other side of the ORR (Mahadevpura, Hoodi, Whitefield and other areas) do not have sufficient green cover. We need more public parks, children's play areas, jogging/walking tracks etc. in these areas. This will help to increase tree cover and oxygen levels, which is vital, but will also reduce overall temperature, which in turn will reduce power consumption and also invite more rainfall to aid the water problem.\n", 'score': 0.5978622287805591}</t>
+  </si>
+  <si>
+    <t>{'response': "46- Successive governments have failed its people to provide good parks and recreation. Over the last 25 years parks and lakes have systematically disappeared - rampant corruption, false promises and the goonda factor ensured ensured that we were denied this very simple facility which in a democracy is akin to a fundamental right. The governments  'intent' has always been questionable.......someone has to ensure that such projects are completed in time and sustained all through!!\n", 'score': 0.5781009259863595}</t>
+  </si>
+  <si>
+    <t>{'response': '60- Need more open area and parks for the citizens to use. Should avoid parking on roads of colonies. Kids are unable go out and play.\n', 'score': 0.5747896093593086}</t>
+  </si>
+  <si>
+    <t>{'response': '9- There is no concrete plan of regional parks mentioned apart from just a number i.e. 8. This shows the level of planning done to still keep bangloreans breathing. \n', 'score': 0.5694915839634759}</t>
+  </si>
+  <si>
+    <t>{'response': '59- In Naganathapura There is No parks or Playgrounds for Children or elders to play or walk or relax (singasandra Ward)\n', 'score': 0.5524238949528084}</t>
+  </si>
+  <si>
+    <t>{'response': '42- We have small parks in every locality. They are left ill-maintained.i believe we can convert them for the toddlers use. Making them like play parks with safe materials and not the metal ones. Kids are future. \n', 'score': 0.548737406595819}</t>
+  </si>
+  <si>
     <t>{'response': '8- Make the parks disabled friendly and wheelchair accessible and plan for maintenance .  Also an idea for recycling old vehicle carriages/cars etc - refurbish existing damaged vehicles and place them in parks to use as seating, or grow plants inside for decorative purposes. artists can spray paint on them on the outside. Just a thought. .\n', 'score': 0.5338322719710951}</t>
-  </si>
-  <si>
-    <t>{'response': '9- There is no concrete plan of regional parks mentioned apart from just a number i.e. 8. This shows the level of planning done to still keep bangloreans breathing. \n', 'score': 0.5691593167892804}</t>
-  </si>
-  <si>
-    <t>{'response': '10- Building large parks is great, but we should also implement small measures now.  Like making sure neighbourhood parks are safe and clean, and planting trees and shrubs on road dividers.  They look good, and also help while driving by shielding the eyes from oncoming high beam lights.  But most importantly, you should make sure Parks are SAFE for kids, women and everyone, and have ample bathrooms so people don’t urinate here and there. \n', 'score': 0.6446348873019335}</t>
-  </si>
-  <si>
-    <t>{'response': '15- The currently peripheral areas such as Mahadevpura, Marathahalli, Whitefield, etc. do not have any usable parks whatsoever. Parks should be mandated and the land earmarked well before real estate starts picking up in the newer areas.\n', 'score': 0.6728835651280346}</t>
-  </si>
-  <si>
-    <t>{'response': '16- We need to build parks along side all future roads atleast on a 1-3 metres width and also on medians.\n', 'score': 0.6490608861403798}</t>
-  </si>
-  <si>
-    <t>{'response': '17- as part of building parks, pls allow spaces where children can play. these days we are seeing parts with walking lanes and grass lwns with no space to play. older parks like MN Krishnarao park that used to have large playarea has been converted and much of it is now turned into lawns. allowing kids to play will help their physical development.\n', 'score': 0.6692810591561803}</t>
-  </si>
-  <si>
-    <t>{'response': '18- And also concentrate on small parks in and around the locality. \n', 'score': 0.61883013298418}</t>
-  </si>
-  <si>
-    <t>{'response': '20- I am little surprised that we dont have any sports facilities spead across the city. Only few are concentrated at Kantiveera area. I think we need to encourage people to take up sports by creating better parks, or running trails around lakes and preserve them. More sports facilities like Swimming pool, bedminton courts, TT etc need to be setup . So, common man can also use it. This is the area which is completely ignored. Many private players,gyms are making huge money.\n', 'score': 0.6282604379278046}</t>
-  </si>
-  <si>
-    <t>{'response': '22- There is a need to maintain the current parks well. It is an urgent requirement to stop the flow of traffic in Cubbon Park (24*7) just like in Lalbagh so as to protect the sanctity and ecology of the lung space.\n', 'score': 0.671009776987207}</t>
-  </si>
-  <si>
-    <t>{'response': '23- The existing parks need to be cleaned and maintained first. Lots of parks lack lighting, do not have proper fencing and has become dumping grounds. Creation of new parks is appreciated but funds must be allocated for the effective maintenance of the existing parks as well. \n', 'score': 0.5969239926096055}</t>
-  </si>
-  <si>
-    <t>{'response': '30- Parks, squares, open plaza is what makes life in the city bearable or even pleasant. Large parks are important but smaller such public open spaces are essentials! They allow kids to play safely outside,close to their homes , they give a ground for social interactions and strengthen community bonds. They are missing in many areas of Bangalore.This goes in par with guaranteeing safe pedestrian routes and accesses. Instead ofspending so much money on fancy fences and complexe ornemental plantations and paved paths, let the parks be simple and open with a few good trees ( why not fruit trees). There could also be deals between private land owner of empty plots and the municipality to use and maintain those plots as play grounds / parks against a small retribution, for a given duration.\n', 'score': 0.6823651637013014}</t>
-  </si>
-  <si>
-    <t>{'response': "37- One of the parks in my area named Taverekere park (Tank Bund Rd, Bhavani Nagar, Suddagunte Palya) would be replaced by the lake. It's important to make more storm water drains but replacing a park for it doesn't make ecological sense. Moreover, the lake would be surrounded by building which is against the developmental norms. \n", 'score': 0.6689048223454039}</t>
-  </si>
-  <si>
-    <t>{'response': '39- Existing parks need better maintainace and they must all contain clean toilets at every toilets. The parks must have open through the day and not dictate us as to when we must use the park. Also, if there are artificial ponds in these parks, those must be cleaned regularly and throwing of garbage and plastics must be banned and made a punishable offence.\n', 'score': 0.6308760244940907}</t>
-  </si>
-  <si>
-    <t>{'response': "41- Cannot ignore the smaller parks in the city hub as need green cover there also and don't encroach these areas come what may.\n", 'score': 0.6859939773640522}</t>
-  </si>
-  <si>
-    <t>{'response': '42- We have small parks in every locality. They are left ill-maintained.i believe we can convert them for the toddlers use. Making them like play parks with safe materials and not the metal ones. Kids are future. \n', 'score': 0.548737406595819}</t>
-  </si>
-  <si>
-    <t>{'response': '43- Apart from the large parks, smaller parks in each locality are needed as it provides breathing space and recreation venue for all. Also the parks have to be kept children safe with good rubber mattings, sand pits for kids\n', 'score': 0.6890461675026951}</t>
-  </si>
-  <si>
-    <t>{'response': "46- Successive governments have failed its people to provide good parks and recreation. Over the last 25 years parks and lakes have systematically disappeared - rampant corruption, false promises and the goonda factor ensured ensured that we were denied this very simple facility which in a democracy is akin to a fundamental right. The governments  'intent' has always been questionable.......someone has to ensure that such projects are completed in time and sustained all through!!\n", 'score': 0.5781009259863595}</t>
-  </si>
-  <si>
-    <t>{'response': '47- Most park areas were recently converted to Indira canteens, while it is ok, but please develop parks wherever they were planned. \n', 'score': 0.6744869314655377}</t>
-  </si>
-  <si>
-    <t>{'response': '49- Try to build more parks in residential areas \n', 'score': 0.6332208340675618}</t>
-  </si>
-  <si>
-    <t>{'response': '51- Open spaces, parks and recreation areas are getting illegally encroached upon by the Corrupt arm of the society including the Politicians. Need more open space, greenery, water bodies for healthy living\n', 'score': 0.6177647787496097}</t>
-  </si>
-  <si>
-    <t>{'response': '52- We need more parks and playgrounds near residential areas where kids can go and play everyday. Marathahalli area has zero parks. Large parks will make it like a amusement park and weekend visits.\n', 'score': 0.7124126162840951}</t>
-  </si>
-  <si>
-    <t>{'response': "53- Eight parks is a good start but we need to ensure that the development of these parks is transparent and accountable. We don't want to be in a situation wherein the parks take forever to complete. Prefarably the parks should have cycling tracks, running tracks and lots of free space and should be modelled like Cubbon Park.\n", 'score': 0.6022877917037123}</t>
-  </si>
-  <si>
-    <t>{'response': '55- the more the better. even small parks will help. \n', 'score': 0.6425431851108531}</t>
-  </si>
-  <si>
-    <t>{'response': "56- I moved to Bengaluru because it was called the Garden City, but most of this greenery is limited to the Old Bengaluru area (Cubbon Park, etc.). THe other side of the ORR (Mahadevpura, Hoodi, Whitefield and other areas) do not have sufficient green cover. We need more public parks, children's play areas, jogging/walking tracks etc. in these areas. This will help to increase tree cover and oxygen levels, which is vital, but will also reduce overall temperature, which in turn will reduce power consumption and also invite more rainfall to aid the water problem.\n", 'score': 0.5975080149333606}</t>
-  </si>
-  <si>
-    <t>{'response': '57- Plead you to develop atleast one lush green public park with rain trees. We need natural lungs in every layout or the population will be sick with asthma. Just having accessible clean parks and playgrounds will go long way to up the happiness quotient of the city. Please show the will power and reclaim abandoned land to build parks and gardens . The city will thank you and restore its prestige in international community.\n', 'score': 0.632980297705519}</t>
-  </si>
-  <si>
-    <t>{'response': '58- Park timings: Many of public parks and gardens within the localities are closed for public between 11am - 5pm. All the public parks whether it is maintained by the Government bodies or Resident Welfare Associations, should be open and accessible to public all day long (5am - 10pm).\n', 'score': 0.6576141746851362}</t>
-  </si>
-  <si>
-    <t>{'response': '59- In Naganathapura There is No parks or Playgrounds for Children or elders to play or walk or relax (singasandra Ward)\n', 'score': 0.5642118368494076}</t>
-  </si>
-  <si>
-    <t>{'response': '60- Need more open area and parks for the citizens to use. Should avoid parking on roads of colonies. Kids are unable go out and play.\n', 'score': 0.5747896093593086}</t>
-  </si>
-  <si>
-    <t>{'response': '61- No parks no greenery \n', 'score': 0.6022190264718604}</t>
-  </si>
-  <si>
-    <t>{'response': '66- We are from green city! but we\'ve more parks and recreational area but we do not have the proper maintenance programs. "we build parks and forget"\n', 'score': 0.6808751565968963}</t>
   </si>
   <si>
     <t>{'response': '70- make sure parks are dog friendly and you might earn a 10\n', 'score': 0.5320081434983286}</t>
@@ -1544,13 +1538,25 @@
 </t>
   </si>
   <si>
-    <t>{'response': "21- Just increasing the no of substations in the City to cope up with the spurt in the energy demand is not going to serve the purpose. Being the silicon city of India, Multi-pronged approach with advance technologies(like I-DAS) has to be adopted to keep up the pace with the uninterruptible and increasing energy supply. Firstly, to ensure that supply meets demand, sufficient measures should be taken to encourage &amp; augment the  energy sources (preferably renewable energy resources) to incorporate sustainable development agenda 2030. Secondly, to experience uninterruptible power supply BESCOM must take pro-active approaches to arrest the unnecessary shutdown and See that the power is supplied at all times within the prescribed limits. Finally, stringent measures should be adopted to reduce the cost on consumption of electricity and make it affordable &amp; available for everyone in the city by reducing AT&amp;C losses, mitigating Administrative lapses, metering DTC's, avoiding power theft, replacing conductors, suitable locations of sub-stations, etc., For this to happen more colloborative holistic approach is the need of the hour.\n", 'score': 0.5048233409524981}</t>
+    <t>{'response': "21- Just increasing the no of substations in the City to cope up with the spurt in the energy demand is not going to serve the purpose. Being the silicon city of India, Multi-pronged approach with advance technologies(like I-DAS) has to be adopted to keep up the pace with the uninterruptible and increasing energy supply. Firstly, to ensure that supply meets demand, sufficient measures should be taken to encourage &amp; augment the  energy sources (preferably renewable energy resources) to incorporate sustainable development agenda 2030. Secondly, to experience uninterruptible power supply BESCOM must take pro-active approaches to arrest the unnecessary shutdown and See that the power is supplied at all times within the prescribed limits. Finally, stringent measures should be adopted to reduce the cost on consumption of electricity and make it affordable &amp; available for everyone in the city by reducing AT&amp;C losses, mitigating Administrative lapses, metering DTC's, avoiding power theft, replacing conductors, suitable locations of sub-stations, etc., For this to happen more colloborative holistic approach is the need of the hour.\n", 'score': 0.5350561051197056}</t>
+  </si>
+  <si>
+    <t>{'response': '26- There must be effective use of Solar power. Large solar power plants should be set up. All IT parks should be asked to set up solar power plants or fuel cell technology plants and use power for common areas from there. \n', 'score': 0.7405259627667721}</t>
+  </si>
+  <si>
+    <t>{'response': "10- Setting up new power plants is a great initiative.We should move over to renewable energy resources now.As solar water heaters are compulsory in every new RCC houses built why doesn't the government provide solar panels for electricity that's enough for houses depending upon the number of floors.There will be very less energy needed and also money for the government from the solar panels that are manufactured.\n", 'score': 0.7404701350527442}</t>
+  </si>
+  <si>
+    <t>{'response': '34- Very weak.  Power breaks and such significant use of generators are unacceptable in a modern city and "encouraging energy efficiency" and solar is not enough. deisel generators should be outlawed with a 5 year phase out. focus should be on renewables and storage... it also helps with the environment and requirements for petrol \n', 'score': 0.7227974031456516}</t>
+  </si>
+  <si>
+    <t>{'response': '25- Can Bangalore tie up with company like Tesla and have solar roof tiles installed across the city high rise buildings. The amount of power generated just by these should be sufficient to cover the energy needs of the city as compared to going back to traditional electricity generation. Water saved in such activities needs to be prioritized for drinking while recycled water is used for all other activities. Power and Water go hand in hand considering water is used to generate power and power is used to pump water. So, a comprehensive plan covering both is required and not look at these in silos.\n', 'score': 0.682079440307132}</t>
   </si>
   <si>
     <t>{'response': '1- Installation of small solar panels with battery like signal lights to be avoided. Grid connected solar panels should be installed on sky-walk, metro / bus stations &amp; private roof tops.  AC usage should be minimized by roof top cooling with solar panels / garden and no approval for glass facade buildings which heat-up inside !!\n', 'score': 0.6774041191941563}</t>
   </si>
   <si>
-    <t>{'response': "10- Setting up new power plants is a great initiative.We should move over to renewable energy resources now.As solar water heaters are compulsory in every new RCC houses built why doesn't the government provide solar panels for electricity that's enough for houses depending upon the number of floors.There will be very less energy needed and also money for the government from the solar panels that are manufactured.\n", 'score': 0.7285752425489197}</t>
+    <t>{'response': '30- Carbon fiber technology along with Electric hybrid should be used for construction of BTS (Bangalore Transportation System) vehicles so that they are as light as possible and and energy conserving as possible. This technology can be got from NAL, ISRO and HAL.\n', 'score': 0.6395931667935586}</t>
   </si>
   <si>
     <t>{'response': '14- Improvement in distribution with underground cabling and LT ring should be fully explored to give uninterrupted supply. Also aggregating rooftops to install solar panels can be explored.\n', 'score': 0.6196367642120348}</t>
@@ -1559,34 +1565,22 @@
     <t>{'response': '18- Have a complete solar homes is the solution to reduce pressure on water resources and serve them to agriculture \n', 'score': 0.6191938558438642}</t>
   </si>
   <si>
-    <t>{'response': '23- I would like to suggest make underground wirings. Because overhead wirings are not safe and required more maintenance in comparison to underground wirings. And try to go with privatisation in power supply like with Tata and Reliance company. This will help. \n', 'score': 0.5445220385796241}</t>
-  </si>
-  <si>
-    <t>{'response': '25- Can Bangalore tie up with company like Tesla and have solar roof tiles installed across the city high rise buildings. The amount of power generated just by these should be sufficient to cover the energy needs of the city as compared to going back to traditional electricity generation. Water saved in such activities needs to be prioritized for drinking while recycled water is used for all other activities. Power and Water go hand in hand considering water is used to generate power and power is used to pump water. So, a comprehensive plan covering both is required and not look at these in silos.\n', 'score': 0.682079440307132}</t>
-  </si>
-  <si>
-    <t>{'response': '26- There must be effective use of Solar power. Large solar power plants should be set up. All IT parks should be asked to set up solar power plants or fuel cell technology plants and use power for common areas from there. \n', 'score': 0.7405259627667721}</t>
+    <t>{'response': '29- More focus on solar Panels and Centralised Setup of Solar Usage should be encouraged. Power charges should come down, but all should be charged. so the load on BESCOM Reduces.\n', 'score': 0.6172360264411516}</t>
+  </si>
+  <si>
+    <t>{'response': '23- I would like to suggest make underground wirings. Because overhead wirings are not safe and required more maintenance in comparison to underground wirings. And try to go with privatisation in power supply like with Tata and Reliance company. This will help. \n', 'score': 0.5162633032896147}</t>
   </si>
   <si>
     <t>{'response': '28- Suggest new power lines  to be drawn underground\n', 'score': 0.48607064263503236}</t>
   </si>
   <si>
-    <t>{'response': '29- More focus on solar Panels and Centralised Setup of Solar Usage should be encouraged. Power charges should come down, but all should be charged. so the load on BESCOM Reduces.\n', 'score': 0.6312577858037132}</t>
-  </si>
-  <si>
-    <t>{'response': '30- Carbon fiber technology along with Electric hybrid should be used for construction of BTS (Bangalore Transportation System) vehicles so that they are as light as possible and and energy conserving as possible. This technology can be got from NAL, ISRO and HAL.\n', 'score': 0.6395931667935586}</t>
-  </si>
-  <si>
-    <t>{'response': '34- Very weak.  Power breaks and such significant use of generators are unacceptable in a modern city and "encouraging energy efficiency" and solar is not enough. deisel generators should be outlawed with a 5 year phase out. focus should be on renewables and storage... it also helps with the environment and requirements for petrol \n', 'score': 0.7224704578279366}</t>
-  </si>
-  <si>
-    <t>{'response': '11- Idea: your meter should have a small backup battery &amp; a sim or somthing to report a power cut to you and bescom automatically. + a sms should be sent or the meter should display msgs such as down for maintainance from this hour to this hour.\n', 'score': 0.46848957833676563}</t>
-  </si>
-  <si>
-    <t>{'response': '19- Frequent power cut in my area\n', 'score': 0.4521357062477917}</t>
-  </si>
-  <si>
-    <t>{'response': '22- Every year there are power cuts in summer. Can we plan for these today and solve the problem of shortage of power. \n', 'score': 0.4145111006290853}</t>
+    <t>{'response': '11- Idea: your meter should have a small backup battery &amp; a sim or somthing to report a power cut to you and bescom automatically. + a sms should be sent or the meter should display msgs such as down for maintainance from this hour to this hour.\n', 'score': 0.45507816314033867}</t>
+  </si>
+  <si>
+    <t>{'response': '19- Frequent power cut in my area\n', 'score': 0.42849429260499616}</t>
+  </si>
+  <si>
+    <t>{'response': '22- Every year there are power cuts in summer. Can we plan for these today and solve the problem of shortage of power. \n', 'score': 0.4290666794188536}</t>
   </si>
   <si>
     <t>['3- Steer lights needs more and bright and better maintainance\n']</t>
@@ -1598,7 +1592,10 @@
     <t>['32- since the entire city is filled with buildings, BDA should utilise the roof areas of the individual property with proper legal and financial benefits and install roof panels.\n']</t>
   </si>
   <si>
-    <t>{'response': '2- All power lines, telephone, Internet and cable lines have separate small gutter along the roads or over the footpaths.  This reduces accidents,theft,Internet cables tied to trees and over houses,traffic being interupted when drilling for ofc and damaging the roads.  The bbmp can charge the private Internet companies for laying their line in the gutter.  Damaged lines can be replaced easily. smart and cities of the future all have underground networks.  Providing a dedicated gutter for all these service lines will be a better solution for this rapidly growing city.    \n', 'score': 0.6818093008146731}</t>
+    <t>{'response': '31- It is important that BESCOM and BDA jointly look at going underground for power cabling and transmission. A high transmission loss due to overhead poles and wires coupled with weather incidents impact power outages on a regular basis. Not to mention, every time the road infrastructure is improved, some person from BESCOM (among others) starts digging. All new layouts including government and private layouts, need to be established with underground electricity connectivity. This ensures that the ground level infrastructure is not disturbed and also this method is proven to be more robust and easier to maintain. BESCOM should jointly work with BDA to first build ducts / passages along major roads (e.g. ORR) and ensure that all power systems and transmission lines are laid underground. This will help sustain any widening or repair of the roads without shifting electricity poles. Not to mention, this will also vastly improve the livelihood of our electricians / linemen who bravely go up poles to repair any issues. \n', 'score': 0.6870295814933643}</t>
+  </si>
+  <si>
+    <t>{'response': '2- All power lines, telephone, Internet and cable lines have separate small gutter along the roads or over the footpaths.  This reduces accidents,theft,Internet cables tied to trees and over houses,traffic being interupted when drilling for ofc and damaging the roads.  The bbmp can charge the private Internet companies for laying their line in the gutter.  Damaged lines can be replaced easily. smart and cities of the future all have underground networks.  Providing a dedicated gutter for all these service lines will be a better solution for this rapidly growing city.    \n', 'score': 0.6824373673412399}</t>
   </si>
   <si>
     <t>{'response': '5- The street lights are not on in whitefield area. Even the main roads and main junctions doesnt have enough street lights.\n', 'score': 0.6377323690969418}</t>
@@ -1607,43 +1604,40 @@
     <t>{'response': '15- Having a mesh of electric poles with connecting wires is a thing of past. In big cities like Mumbai and New Delhi they have replaced electric poles with underground cables, which is safe and easier to manage and also power theft can reduced by large extent.\n', 'score': 0.6343352584604548}</t>
   </si>
   <si>
-    <t>{'response': '16- Please go in for GIS gas insulated substation as done in the gulf countries. The performance iso very good. Engineers from karnataka are experienced in this as they are doing this in gulf.\n', 'score': 0.49380032363833304}</t>
+    <t>{'response': '27- The authorities may be looking at increasing power generation and coverage, but there needs to be equal focus on the power infrastructure ... transformers, cabling etc. I live in Whitefield and most of the transformers are exposed with very primitive looking cabling. Street lighting is also missing in a lot of places. I have seen constant sparking in many of the transformers here and many times, BESCOM voluntarily switches off the electricity as soon as they sense a shower coming. Also, there is a lot of power fluctuation. The authorities need to redesign the grid for the recent, but fast developing regions in and around Whitefield.\n', 'score': 0.629859309247962}</t>
+  </si>
+  <si>
+    <t>{'response': '33- Now a days some how they improved the electricity improve. but still we have to do proper plan and re-alignment for Electrical. better all electrical supply should be underground. so we can avoid more work and less maintenance \n', 'score': 0.5103864808414604}</t>
+  </si>
+  <si>
+    <t>{'response': '16- Please go in for GIS gas insulated substation as done in the gulf countries. The performance iso very good. Engineers from karnataka are experienced in this as they are doing this in gulf.\n', 'score': 0.4862957167420667}</t>
   </si>
   <si>
     <t>{'response': '24- The lack of a consolidated plan for renewables is disheatening. \n', 'score': 0.4245688161771987}</t>
   </si>
   <si>
-    <t>{'response': '27- The authorities may be looking at increasing power generation and coverage, but there needs to be equal focus on the power infrastructure ... transformers, cabling etc. I live in Whitefield and most of the transformers are exposed with very primitive looking cabling. Street lighting is also missing in a lot of places. I have seen constant sparking in many of the transformers here and many times, BESCOM voluntarily switches off the electricity as soon as they sense a shower coming. Also, there is a lot of power fluctuation. The authorities need to redesign the grid for the recent, but fast developing regions in and around Whitefield.\n', 'score': 0.6430707342382765}</t>
-  </si>
-  <si>
-    <t>{'response': '31- It is important that BESCOM and BDA jointly look at going underground for power cabling and transmission. A high transmission loss due to overhead poles and wires coupled with weather incidents impact power outages on a regular basis. Not to mention, every time the road infrastructure is improved, some person from BESCOM (among others) starts digging. All new layouts including government and private layouts, need to be established with underground electricity connectivity. This ensures that the ground level infrastructure is not disturbed and also this method is proven to be more robust and easier to maintain. BESCOM should jointly work with BDA to first build ducts / passages along major roads (e.g. ORR) and ensure that all power systems and transmission lines are laid underground. This will help sustain any widening or repair of the roads without shifting electricity poles. Not to mention, this will also vastly improve the livelihood of our electricians / linemen who bravely go up poles to repair any issues. \n', 'score': 0.6939913309687138}</t>
-  </si>
-  <si>
-    <t>{'response': '33- Now a days some how they improved the electricity improve. but still we have to do proper plan and re-alignment for Electrical. better all electrical supply should be underground. so we can avoid more work and less maintenance \n', 'score': 0.5103864808414604}</t>
-  </si>
-  <si>
-    <t>{'response': '17- The best way to encourage companies and individuals to shift to solar energy is by: 1. Make it legally easy to setup a solar energy unit. 2. Ask them to merge the excess energy units into the grid. 3. Provide compensation on land tax based on the number of units merged into the grid. 4. Relax land taxes and setup costs of establishing renewable energy sources around Bangalore: this will invite many international agencies to setup unit here.  I am just a student with ideas and enthusiasm to do something for my Bangalore. Pardon me if some of it already exists.\n', 'score': 0.5909134047048497}</t>
+    <t>{'response': '17- The best way to encourage companies and individuals to shift to solar energy is by: 1. Make it legally easy to setup a solar energy unit. 2. Ask them to merge the excess energy units into the grid. 3. Provide compensation on land tax based on the number of units merged into the grid. 4. Relax land taxes and setup costs of establishing renewable energy sources around Bangalore: this will invite many international agencies to setup unit here.  I am just a student with ideas and enthusiasm to do something for my Bangalore. Pardon me if some of it already exists.\n', 'score': 0.5942311284603691}</t>
   </si>
   <si>
     <t>{'response': '9- I think Use of solar and wind energy rather than using nuclear power must be followed strictly in states\n', 'score': 0.6639301799813472}</t>
   </si>
   <si>
-    <t>{'response': '12- Need lot of improvements in using the renewable resources and also the maintenance towards the transformers and wirings in residential areas.\n', 'score': 0.6241645281867629}</t>
+    <t>{'response': '12- Need lot of improvements in using the renewable resources and also the maintenance towards the transformers and wirings in residential areas.\n', 'score': 0.6356994855146835}</t>
+  </si>
+  <si>
+    <t>{'response': '6- It should be mandatory for all apartments n commercial buildings to have solar power..similarly every street light should b solar powered.\n', 'score': 0.6455193466645495}</t>
+  </si>
+  <si>
+    <t>{'response': '7- Maintenance of cables and posts that lean and is hazardous to be in check. And possibly real time monitoring of power usage for consumers and business people could be included in the age of Internet. \n', 'score': 0.5674062915728352}</t>
   </si>
   <si>
     <t>{'response': '4- There needs to be rules set to avoid wastage of power especially during the celebrations, uncontrolled street lights, etc.\n', 'score': 0.5256705784078441}</t>
   </si>
   <si>
-    <t>{'response': '6- It should be mandatory for all apartments n commercial buildings to have solar power..similarly every street light should b solar powered.\n', 'score': 0.6455193466645495}</t>
-  </si>
-  <si>
-    <t>{'response': '7- Maintenance of cables and posts that lean and is hazardous to be in check. And possibly real time monitoring of power usage for consumers and business people could be included in the age of Internet. \n', 'score': 0.5674062915728352}</t>
-  </si>
-  <si>
-    <t>{'response': '8- Irregular power cuts and power fluctuations. We are feeling that ,are we staying in Metro politan city or remote villege?\n', 'score': 0.4681798057800061}</t>
-  </si>
-  <si>
-    <t>{'response': '13- In all the cities power cuts vl hapn .. But in places lik chikka gubbi students lik us are not able to stdy fr exams at night... Power goes n wnt cm... \n', 'score': 0.43228946022440323}</t>
+    <t>{'response': '13- In all the cities power cuts vl hapn .. But in places lik chikka gubbi students lik us are not able to stdy fr exams at night... Power goes n wnt cm... \n', 'score': 0.4791707432422646}</t>
+  </si>
+  <si>
+    <t>{'response': '8- Irregular power cuts and power fluctuations. We are feeling that ,are we staying in Metro politan city or remote villege?\n', 'score': 0.46660137238882643}</t>
   </si>
   <si>
     <t xml:space="preserve">6 Intercity bus terminals at the outskirts of Bengaluru will ensure that outstation traffic doesn’t cause traffic jams
@@ -1685,232 +1679,217 @@
 </t>
   </si>
   <si>
+    <t>{'response': '199- Pl pay attention to pedestrians by providing underpasses at almost every junction, road crossings. We also need to have bmtc bus stands at least 100 meters away from traffic junction and it must be made compulsory for buses so stop at bus stops and not elsewhere. All vehicles including autos taxis should park at least 100 meters away from junction.  Alternate  routes near main routes need to be widened and developed to decongest the traffic. \n', 'score': 0.7057647756413058}</t>
+  </si>
+  <si>
+    <t>{'response': '229- remove bottlenecks on ORR, 5 KMs takes 40 min .1)expand service roads near flyovers 2) remove divider between service road and main road 3)create bus bays which are NOT right on the road but inside 4) create sky tracks for bicycles over the road dividers 5) Put metro for entire ORR 6) create flyover near KR puram to connect ORR and from old madras rd near new underpass 7) create flyover for ORR traffic to pass through KR puram 8) create alternative diagonal roads for critical junctions 9) sky walks need to be many more with escalators which are in working condition 10) complete PRR , ASAP with traffic speed target of 100 kmph. 11) connect Electronic city , Sarjapur , Whitefield via Budigere and second airport entrance near Begur. \n', 'score': 0.7055291326005843}</t>
+  </si>
+  <si>
+    <t>{'response': "186- Build parking places at crowded areas, Bus stops should be shifted from main road to inside lanes wherever possible so the main traffic doesn't stop. Strict action for blocking traffic for private buses and cabs. Most cabs are parked on roads which causes congestion. Encourage public transport by increasing bus/volvo connectivity. Right now there is no proper connectivity on Old madras road from TC palya. Make new roads via tech parks and societies wherever possible, only 2 entry exit roads to whitefield is causing sever issues while commuting to office.\n", 'score': 0.6989645570321948}</t>
+  </si>
+  <si>
+    <t>{'response': '147- A railway under pass required in kanaka nagar area, nearly  30000 vehicles run every day the road connecting veerannapalya mayata tech park and RT Nagar which is creating huge traffic jam for hours when the railway gate is closed. \n', 'score': 0.6923424658215889}</t>
+  </si>
+  <si>
+    <t>{'response': "214- Kindly complete all Metro Phase works at the earliest by having connectivity for entire city. Connect long stretch metros like Devanahalli to Majestic,  Majestic to Whitfield, ITPL/ Sarjapur/Marathahalli to Bypanahalli, MG Road to Electronic City/Hosur, Electronic City to Devanahalli, Nagwara/ehlanka to MG Road etc  Secondly remove all outstation bus stations like Madivala to some empty/unused grounds.   Third - Proper management of traffic signal as apt for the hour rather going for automatic mode where it waste lots of peoples time who waits unnecessarily in signals without having any importance if waiting when there isn't any movements of vehicle in opposite direction.   Fourth - Stop all festival/wedding/house/political/commercial events related stuffs to be conducted on roads by blocking the same.  Fifth - Categorize company into different parts and one catagory should follow one day of the week compulsory to avoid taking there personal vechiles on road with also giving leverage of 1 hr late punch in the morning as they need to commute in metro/bus only.  \n", 'score': 0.682052014668973}</t>
+  </si>
+  <si>
+    <t>{'response': '120- Buses actually cause more traffic jam\n', 'score': 0.6668182391438197}</t>
+  </si>
+  <si>
+    <t>{'response': '204- Traffic management should be organised. Lane disciplines, usage of skywalkers should be made mandatory. BMTC and all private buses should stop only at dedicated bus stops. Bus stops should be made in an extended portion of the roads. No stops should be allowed next to signals, next to start and end of flyovers or next to cross sections.\n', 'score': 0.6616408712599997}</t>
+  </si>
+  <si>
+    <t>{'response': "252- In City Neverdays More traffic, Above you mention that BMTC Buses will be increase to 15000, but i don't think that it will work, because if More buses is there in city than traffic will be more not less, if our government can do the work like, Richmond Road Bridge they can connect to K R Market Bridge because whoever want to go to Mysore Road they can go easily,  And main is Corporation Circle near Halsuru Traffic Police Station, in this area traffic is more, government have to take some action for traffic issue.............\n", 'score': 0.6562661616567605}</t>
+  </si>
+  <si>
+    <t>{'response': "106- Setting up metros,more buses etc all are a great initiative however when lane discipline isn't maintained the traffic congestion is bound to happen.Lane disciple does not only mean the vehicle movement in a single lane but also parking if buses in allocated bus stops.illogical u turns made by commuters.Lane discipline should be enforced as a hard n fast rule and fines slapped to the impatient drivers \n", 'score': 0.6252054230957382}</t>
+  </si>
+  <si>
+    <t>{'response': "165- Increasing BMTC busses to 15K will surely help public transport domain, but on the other hand this will lead to traffic blocks. As you see Outer Ring Road and most of  the roads in Bangalore, 80% of the traffic is caused by BMTC busses as they don't follow the rules.  Lets take ORR first, BMTC bus stops are on the roads. These busses does not moved to the sides when they stop. During peak traffic hours, even if the bus stop on the side on the ORR, there will be huge traffic congestion.  One solution for the problem is to make ORR free from BMTC busses, and to have proper connective of service roads in ORR. Once that's done, all BMTC busses  can run via service roads and make free traffic flow on ORR. This will help to reduce traffic to a great extend \n", 'score': 0.6207741758739228}</t>
+  </si>
+  <si>
+    <t>{'response': "110- Please fast track the metro project. All the new buses inducted in this city should be all electric and phase out the existing BMTC buses and allow only electric buses for environment goodness. By 2031 no cars on Bangalore's street should be of fossil fuel users. I think mtero connectivity is very necessary to resolve traffic problem. Try to connect all the areas with metro.   And one most important thing all the new metro project should be under ground PLEASE. This is good for environment.  One other way to resolve traffic issues is by scalling up the adjacent  small cities of Bangalore. Don't over crowed Bangalore likes of Delhi Kolkata and Mumbai. Please.\n", 'score': 0.6180071807094489}</t>
+  </si>
+  <si>
+    <t>{'response': '64- As long as there is an inconsistency on road widths (lanes), you will be creating bottle necks. Which are one of the major cause of traffic. Similarly every major junction, flyover, underpass, bridge, signal.... a bus stop is provided right after or before these places. public stand covering half of the road, then autos stand at bus stops, forcing buses to stop in middle of the road... all this adds to the traffic snarls.  In addition to these proper pedestrian crossings are not provided to public, forcing them to take risky route to cross. Even after all this problem wont be solved, unless proper education is not given to citizen. Hope these suggestions help Bengaluru in making a world class city\n', 'score': 0.6170548501110255}</t>
+  </si>
+  <si>
+    <t>{'response': '238- The entire Outer Ring Road of Bangalore should have multiple levels of speedways connecting the South to East to North. Traffic coming from Silk board to Hebbal should be made a speed way &amp; like wise traffic coming from Hebbal to Whitefield. Make that a Paid Toll Speed way across the city - which will avoid traffic to a very large extend. More over the usual road infrastructure need to also improve drastically.  \n', 'score': 0.6111868294017065}</t>
+  </si>
+  <si>
+    <t>{'response': '224- The problem of Bangalore roads is that we have very few main roads and invariably the whole traffic comes to these roads. We should identify these roads and sub-roads and categorize them as A,B,C... etc . Each category road should have a template. Ex A category being highest should be something like, it should be  1. One way road. 2. 2 lane road. 3. Signal Free. 4. After every few kilometers it should have a system where traffic can take turns into any 4 direction. 5. Entry into these roads from B and lower category roads to be restricted and should have very well defined way of merging traffic. 6. Heavy penalty on drivers who break rules on these A category roads.  Same way we can form guidelines for other category roads and see to it that when a road is categorized it follows these guidelines.  \n', 'score': 0.609903306811368}</t>
+  </si>
+  <si>
+    <t>{'response': '86- Plz stick with your plan for traffic free Bangalore and  you must expand local area too \n', 'score': 0.6095520876368984}</t>
+  </si>
+  <si>
+    <t>{'response': '56- When new roads are built, then proper Lane signs are to be drawn. The same as well should be done for existing roads. Following Lane discipline should be followed as a strict rule for all drivers. BMTC bus drivers must be highly educated on following disciplines. Majority are traffic pile up starts in the Bus stops. Bus drivers should following exact timings on when the trip should start, to avoid ending up with 4-5 busses at the same time in a single bus stop. The roads should be widened along the bus stops with dedicated space for buses to pick/drop passengers. Private buses should not be given permission to conducted bus services. They stop whenever and wherever they want to pick passengers, which adds more fuel to the traffic chaos.\n', 'score': 0.6051203680137057}</t>
+  </si>
+  <si>
+    <t>{'response': '246- Immediately the Intercity Buses to be stopped coming inside the city, needs to be feed from some place taken on hire basis &amp; get feed through Public Transport\n', 'score': 0.6040924131124227}</t>
+  </si>
+  <si>
+    <t>{'response': "95- My feedback is on metro people traffic. I recently saw a video on how people are stuffed into metro carriages...I feel it's a safety issue.... we need to get double decker metro trains from Silk Board to electronic city and from Silk Board to marhathahalli. we the the traffic from these IT zones will be crazy...we need to plan and get double decker trains for these routes. these double decker trains are currently available in Sydney Australia already. \n", 'score': 0.6002369403850348}</t>
+  </si>
+  <si>
+    <t>{'response': '26- Road quality has to be ensured when giving contracts to contractors . All agencies like BWSSB, BBMP, KPTCL, traffic police , Namma metro have to work together to ensure newly laid roads are not digged . There should be ban of minimum 18 months once a road is relaid . This should ensure better coordination among these agencies .\n', 'score': 0.5948976970169517}</t>
+  </si>
+  <si>
+    <t>{'response': "10- Bangalore is unique in the sense that it has so many one way roads. Suddenly, on one fine day, the road gets converted to one way. What about building bridges? What about building underpasses/overpasses for pedestrians crossing on these ring roads? What's the plan to unclog major residential areas such as Hennur, Indira nagar, koramangala, Marathahalli which are seeing increasing traffic congestions? Why can't we impose no entry for big commercial vehicles?\n", 'score': 0.5909944030492398}</t>
+  </si>
+  <si>
+    <t>{'response': '93- Roads are not good, speed breakers are not required because pot holes are doing the job well, this all makes the traffic slow, and road jams. No lighting, I was surprised a day seeing a street in Koramangala with no street lights.   If road will be well, traffic will run fast and there will be no jams.  Bangalore is pathetic city in India in terms of traffic management and roads development.\n', 'score': 0.5882782636939865}</t>
+  </si>
+  <si>
+    <t>{'response': '83- It should be made mandatory for all BMTC buses to stop only at the designated bus shelter. the drivers should be strictly penalized for stopping at the wrong place. Automatic card reader should be installed at the front door and only from the front door the passengers must alight the but and get down from the rear side\n', 'score': 0.5753585234147234}</t>
+  </si>
+  <si>
+    <t>{'response': '213- Looks good on infrastructure on paper. The designs of all underpasses over bridges, flyovers are very bad, no proper access, access and exit at midway of wide roads explains lack of knowledge of BBMP on design. The entire plan should be designed by leading designers, and strict supervision by design firm on execution by BBMP.  The traffic staff unaware of rules, more often chat with colleagues at traffic intersections All traffic staff should be trained by competent training firms with authority to suggest unsuitable staff to BBMP. BBMP should commit to this with suitable action on inefficient staff. \n', 'score': 0.573654641860806}</t>
+  </si>
+  <si>
+    <t>{'response': '282- No bus connectivity from certain areas to Electronics City and Whitefield.\n', 'score': 0.5718063294901322}</t>
+  </si>
+  <si>
+    <t>{'response': '37- Bengaluru badly require a cycling track from btm to itpl to check pollution, traffic and also it keeps people fit\n', 'score': 0.5712870437161868}</t>
+  </si>
+  <si>
+    <t>{'response': '269- Traffic congestion is one of the biggest problem Bengaluru is facing as of now. Please focus on to the Solution which improves the traffic.\n', 'score': 0.5704180097120807}</t>
+  </si>
+  <si>
+    <t>{'response': '142- No proper roads, cabs parks where ever they want, that creates traffic jam\n', 'score': 0.5699312490170537}</t>
+  </si>
+  <si>
+    <t>{'response': '163- 1. Metro work should be expedited. Its a very slow process which is actually the main cause of traffic. Area which needs the metro to be completed fast. eg near the whitefield phase to be completed on priority While the work is being done, there has to be alternate plans for diverting the traffic which the govt should have planned for. Every Metro phase completion atleat takes 5-6 years. I guess, we should have done a better job there.   2. The BBMP work on the road repairs is again pain point. the repairs takes 2-3 months to complete. We do not see people working at all no matter at what time of the day you come in there. (eg: JP nagar. signal Near Nandini hotel). Same is the case with laying a drainage line. does it really take 2 months to complete?  3. Closing all the potholes to be done much early in the year. this activity is take up just before the rains  and it hardly lasts for 3 -4 monts.  \n', 'score': 0.56716171939367}</t>
+  </si>
+  <si>
+    <t>{'response': '217- Kindly include a bus timetable in bus stops\n', 'score': 0.4719929808179516}</t>
+  </si>
+  <si>
+    <t>{'response': "138- Put a rule that single person can't travel in car during traffic hours \n", 'score': 0.4681941865940145}</t>
+  </si>
+  <si>
     <t>{'response': "7- The plan is good coz Bengaluru is a lovely place to be in i'm a bengalurian by birth and I'm proud of my city. Traffic during these transition must be managed properly.\n", 'score': 0.466220116540979}</t>
   </si>
   <si>
-    <t>{'response': "10- Bangalore is unique in the sense that it has so many one way roads. Suddenly, on one fine day, the road gets converted to one way. What about building bridges? What about building underpasses/overpasses for pedestrians crossing on these ring roads? What's the plan to unclog major residential areas such as Hennur, Indira nagar, koramangala, Marathahalli which are seeing increasing traffic congestions? Why can't we impose no entry for big commercial vehicles?\n", 'score': 0.6092606923198483}</t>
-  </si>
-  <si>
-    <t>{'response': '26- Road quality has to be ensured when giving contracts to contractors . All agencies like BWSSB, BBMP, KPTCL, traffic police , Namma metro have to work together to ensure newly laid roads are not digged . There should be ban of minimum 18 months once a road is relaid . This should ensure better coordination among these agencies .\n', 'score': 0.6242749048423339}</t>
-  </si>
-  <si>
-    <t>{'response': '37- Bengaluru badly require a cycling track from btm to itpl to check pollution, traffic and also it keeps people fit\n', 'score': 0.5712870437161868}</t>
-  </si>
-  <si>
-    <t>{'response': '56- When new roads are built, then proper Lane signs are to be drawn. The same as well should be done for existing roads. Following Lane discipline should be followed as a strict rule for all drivers. BMTC bus drivers must be highly educated on following disciplines. Majority are traffic pile up starts in the Bus stops. Bus drivers should following exact timings on when the trip should start, to avoid ending up with 4-5 busses at the same time in a single bus stop. The roads should be widened along the bus stops with dedicated space for buses to pick/drop passengers. Private buses should not be given permission to conducted bus services. They stop whenever and wherever they want to pick passengers, which adds more fuel to the traffic chaos.\n', 'score': 0.6383695311299284}</t>
-  </si>
-  <si>
-    <t>{'response': '63- As the bangalore population keeps on increasing we need to focus on proper usage of existing road infrastructure. Heavy rules and fines  need to be imposed on people not following it. Infrastructure need to be made to support rules. Make mini BMTC buses to easy maneuverability. Have good lane discipline. Create right infra to avoid traffic on merging and dividing traffic. Put more traffic places in high congestion areas all over bangalore. \n', 'score': 0.6179816111714}</t>
-  </si>
-  <si>
-    <t>{'response': '64- As long as there is an inconsistency on road widths (lanes), you will be creating bottle necks. Which are one of the major cause of traffic. Similarly every major junction, flyover, underpass, bridge, signal.... a bus stop is provided right after or before these places. public stand covering half of the road, then autos stand at bus stops, forcing buses to stop in middle of the road... all this adds to the traffic snarls.  In addition to these proper pedestrian crossings are not provided to public, forcing them to take risky route to cross. Even after all this problem wont be solved, unless proper education is not given to citizen. Hope these suggestions help Bengaluru in making a world class city\n', 'score': 0.6170548501110255}</t>
-  </si>
-  <si>
-    <t>{'response': '83- It should be made mandatory for all BMTC buses to stop only at the designated bus shelter. the drivers should be strictly penalized for stopping at the wrong place. Automatic card reader should be installed at the front door and only from the front door the passengers must alight the but and get down from the rear side\n', 'score': 0.6078310545692805}</t>
-  </si>
-  <si>
-    <t>{'response': '86- Plz stick with your plan for traffic free Bangalore and  you must expand local area too \n', 'score': 0.6024348240411271}</t>
-  </si>
-  <si>
-    <t>{'response': '93- Roads are not good, speed breakers are not required because pot holes are doing the job well, this all makes the traffic slow, and road jams. No lighting, I was surprised a day seeing a street in Koramangala with no street lights.   If road will be well, traffic will run fast and there will be no jams.  Bangalore is pathetic city in India in terms of traffic management and roads development.\n', 'score': 0.6239795197804573}</t>
-  </si>
-  <si>
-    <t>{'response': "95- My feedback is on metro people traffic. I recently saw a video on how people are stuffed into metro carriages...I feel it's a safety issue.... we need to get double decker metro trains from Silk Board to electronic city and from Silk Board to marhathahalli. we the the traffic from these IT zones will be crazy...we need to plan and get double decker trains for these routes. these double decker trains are currently available in Sydney Australia already. \n", 'score': 0.6166216831267567}</t>
-  </si>
-  <si>
-    <t>{'response': "106- Setting up metros,more buses etc all are a great initiative however when lane discipline isn't maintained the traffic congestion is bound to happen.Lane disciple does not only mean the vehicle movement in a single lane but also parking if buses in allocated bus stops.illogical u turns made by commuters.Lane discipline should be enforced as a hard n fast rule and fines slapped to the impatient drivers \n", 'score': 0.6252054230957382}</t>
-  </si>
-  <si>
-    <t>{'response': "110- Please fast track the metro project. All the new buses inducted in this city should be all electric and phase out the existing BMTC buses and allow only electric buses for environment goodness. By 2031 no cars on Bangalore's street should be of fossil fuel users. I think mtero connectivity is very necessary to resolve traffic problem. Try to connect all the areas with metro.   And one most important thing all the new metro project should be under ground PLEASE. This is good for environment.  One other way to resolve traffic issues is by scalling up the adjacent  small cities of Bangalore. Don't over crowed Bangalore likes of Delhi Kolkata and Mumbai. Please.\n", 'score': 0.6399845262345415}</t>
-  </si>
-  <si>
-    <t>{'response': '120- Buses actually cause more traffic jam\n', 'score': 0.6668182391438197}</t>
-  </si>
-  <si>
-    <t>{'response': "138- Put a rule that single person can't travel in car during traffic hours \n", 'score': 0.4681941865940145}</t>
-  </si>
-  <si>
-    <t>{'response': '142- No proper roads, cabs parks where ever they want, that creates traffic jam\n', 'score': 0.5699312490170537}</t>
-  </si>
-  <si>
-    <t>{'response': '144- Ramamurthinagar nagar Channasandra bridge is a known place for traffic jam and there was a plan proposed for parallel bridge but it is not initiated .  Even other areas like KR PURAM , MARATHAHALLI , \n', 'score': 0.5832890172813041}</t>
-  </si>
-  <si>
-    <t>{'response': '147- A railway under pass required in kanaka nagar area, nearly  30000 vehicles run every day the road connecting veerannapalya mayata tech park and RT Nagar which is creating huge traffic jam for hours when the railway gate is closed. \n', 'score': 0.7101417739767906}</t>
-  </si>
-  <si>
-    <t>{'response': '163- 1. Metro work should be expedited. Its a very slow process which is actually the main cause of traffic. Area which needs the metro to be completed fast. eg near the whitefield phase to be completed on priority While the work is being done, there has to be alternate plans for diverting the traffic which the govt should have planned for. Every Metro phase completion atleat takes 5-6 years. I guess, we should have done a better job there.   2. The BBMP work on the road repairs is again pain point. the repairs takes 2-3 months to complete. We do not see people working at all no matter at what time of the day you come in there. (eg: JP nagar. signal Near Nandini hotel). Same is the case with laying a drainage line. does it really take 2 months to complete?  3. Closing all the potholes to be done much early in the year. this activity is take up just before the rains  and it hardly lasts for 3 -4 monts.  \n', 'score': 0.5676688104970478}</t>
-  </si>
-  <si>
-    <t>{'response': "165- Increasing BMTC busses to 15K will surely help public transport domain, but on the other hand this will lead to traffic blocks. As you see Outer Ring Road and most of  the roads in Bangalore, 80% of the traffic is caused by BMTC busses as they don't follow the rules.  Lets take ORR first, BMTC bus stops are on the roads. These busses does not moved to the sides when they stop. During peak traffic hours, even if the bus stop on the side on the ORR, there will be huge traffic congestion.  One solution for the problem is to make ORR free from BMTC busses, and to have proper connective of service roads in ORR. Once that's done, all BMTC busses  can run via service roads and make free traffic flow on ORR. This will help to reduce traffic to a great extend \n", 'score': 0.6363363343822286}</t>
-  </si>
-  <si>
-    <t>{'response': '171- These BMTC buses always stops at diagonal of the road blocking all the traffic, yes ALL the traffic that too at junction which is very painful. You dont need to wait till 2031 or new busstation to fix this small issues as it needs small education and tight monitoring of the driver patterns.\n', 'score': 0.6143008369234293}</t>
-  </si>
-  <si>
-    <t>{'response': "186- Build parking places at crowded areas, Bus stops should be shifted from main road to inside lanes wherever possible so the main traffic doesn't stop. Strict action for blocking traffic for private buses and cabs. Most cabs are parked on roads which causes congestion. Encourage public transport by increasing bus/volvo connectivity. Right now there is no proper connectivity on Old madras road from TC palya. Make new roads via tech parks and societies wherever possible, only 2 entry exit roads to whitefield is causing sever issues while commuting to office.\n", 'score': 0.7062234038697713}</t>
-  </si>
-  <si>
-    <t>{'response': '199- Pl pay attention to pedestrians by providing underpasses at almost every junction, road crossings. We also need to have bmtc bus stands at least 100 meters away from traffic junction and it must be made compulsory for buses so stop at bus stops and not elsewhere. All vehicles including autos taxis should park at least 100 meters away from junction.  Alternate  routes near main routes need to be widened and developed to decongest the traffic. \n', 'score': 0.7057647756413058}</t>
-  </si>
-  <si>
-    <t>{'response': '204- Traffic management should be organised. Lane disciplines, usage of skywalkers should be made mandatory. BMTC and all private buses should stop only at dedicated bus stops. Bus stops should be made in an extended portion of the roads. No stops should be allowed next to signals, next to start and end of flyovers or next to cross sections.\n', 'score': 0.6877153372492449}</t>
-  </si>
-  <si>
-    <t>{'response': '208- 1. Whenever cleaning happens, the waste is laid out in dumps on the footpath.  2. The bus almost never stops at the bus  stop. They will stop just after  the signal causing all sorts of honking and all by the drivers behind.  3.Roads not wide enough (and tech parks after tech parks on the same outer ring road).  4. There was flyover construction work(digging for a pillar) at Ejipura signal. Now there is no work for past 15 days but the still the barriers are there, making the road a single lane road just after the signal. The flyover will take 2,3 years to complete atleast. Will the road be still half closed till then?  5. Please take strict actions against bike driving on footpaths, going on the wrong side just to save 100m or so.  6. Strict action against jaywalking, especially when people crossing road under a overbridge. Eg. Marathalli overbridge, Domlur overbridge. Also, more and more overbridges are needed.\n', 'score': 0.6257932923015203}</t>
-  </si>
-  <si>
-    <t>{'response': '213- Looks good on infrastructure on paper. The designs of all underpasses over bridges, flyovers are very bad, no proper access, access and exit at midway of wide roads explains lack of knowledge of BBMP on design. The entire plan should be designed by leading designers, and strict supervision by design firm on execution by BBMP.  The traffic staff unaware of rules, more often chat with colleagues at traffic intersections All traffic staff should be trained by competent training firms with authority to suggest unsuitable staff to BBMP. BBMP should commit to this with suitable action on inefficient staff. \n', 'score': 0.573654641860806}</t>
-  </si>
-  <si>
-    <t>{'response': "214- Kindly complete all Metro Phase works at the earliest by having connectivity for entire city. Connect long stretch metros like Devanahalli to Majestic,  Majestic to Whitfield, ITPL/ Sarjapur/Marathahalli to Bypanahalli, MG Road to Electronic City/Hosur, Electronic City to Devanahalli, Nagwara/ehlanka to MG Road etc  Secondly remove all outstation bus stations like Madivala to some empty/unused grounds.   Third - Proper management of traffic signal as apt for the hour rather going for automatic mode where it waste lots of peoples time who waits unnecessarily in signals without having any importance if waiting when there isn't any movements of vehicle in opposite direction.   Fourth - Stop all festival/wedding/house/political/commercial events related stuffs to be conducted on roads by blocking the same.  Fifth - Categorize company into different parts and one catagory should follow one day of the week compulsory to avoid taking there personal vechiles on road with also giving leverage of 1 hr late punch in the morning as they need to commute in metro/bus only.  \n", 'score': 0.7219682095219054}</t>
-  </si>
-  <si>
-    <t>{'response': '217- Kindly include a bus timetable in bus stops\n', 'score': 0.4719929808179516}</t>
-  </si>
-  <si>
-    <t>{'response': '224- The problem of Bangalore roads is that we have very few main roads and invariably the whole traffic comes to these roads. We should identify these roads and sub-roads and categorize them as A,B,C... etc . Each category road should have a template. Ex A category being highest should be something like, it should be  1. One way road. 2. 2 lane road. 3. Signal Free. 4. After every few kilometers it should have a system where traffic can take turns into any 4 direction. 5. Entry into these roads from B and lower category roads to be restricted and should have very well defined way of merging traffic. 6. Heavy penalty on drivers who break rules on these A category roads.  Same way we can form guidelines for other category roads and see to it that when a road is categorized it follows these guidelines.  \n', 'score': 0.609903306811368}</t>
-  </si>
-  <si>
-    <t>{'response': '229- remove bottlenecks on ORR, 5 KMs takes 40 min .1)expand service roads near flyovers 2) remove divider between service road and main road 3)create bus bays which are NOT right on the road but inside 4) create sky tracks for bicycles over the road dividers 5) Put metro for entire ORR 6) create flyover near KR puram to connect ORR and from old madras rd near new underpass 7) create flyover for ORR traffic to pass through KR puram 8) create alternative diagonal roads for critical junctions 9) sky walks need to be many more with escalators which are in working condition 10) complete PRR , ASAP with traffic speed target of 100 kmph. 11) connect Electronic city , Sarjapur , Whitefield via Budigere and second airport entrance near Begur. \n', 'score': 0.7271448721497845}</t>
-  </si>
-  <si>
-    <t>{'response': '238- The entire Outer Ring Road of Bangalore should have multiple levels of speedways connecting the South to East to North. Traffic coming from Silk board to Hebbal should be made a speed way &amp; like wise traffic coming from Hebbal to Whitefield. Make that a Paid Toll Speed way across the city - which will avoid traffic to a very large extend. More over the usual road infrastructure need to also improve drastically.  \n', 'score': 0.6420100721806113}</t>
-  </si>
-  <si>
-    <t>{'response': "244- Just increasing the BMTC buses will not help, these are the reason also for congestion as roads are narrow. Please look for mini bus options, frequency can be increased. Also improve the connectivity with Metros/ long route transport by using buses as efficient feeders only not to compete with them. Please make it convenient that people feel tempted to leave their cars and use public transport, currently majority of Metro goers are those who switched from 2 wheelers or buses, not from cars because of the inconvenience and not because they're not willing to.\n", 'score': 0.67296011931937}</t>
-  </si>
-  <si>
-    <t>{'response': '246- Immediately the Intercity Buses to be stopped coming inside the city, needs to be feed from some place taken on hire basis &amp; get feed through Public Transport\n', 'score': 0.6040924131124227}</t>
-  </si>
-  <si>
-    <t>{'response': "252- In City Neverdays More traffic, Above you mention that BMTC Buses will be increase to 15000, but i don't think that it will work, because if More buses is there in city than traffic will be more not less, if our government can do the work like, Richmond Road Bridge they can connect to K R Market Bridge because whoever want to go to Mysore Road they can go easily,  And main is Corporation Circle near Halsuru Traffic Police Station, in this area traffic is more, government have to take some action for traffic issue.............\n", 'score': 0.677650356463091}</t>
-  </si>
-  <si>
-    <t>{'response': '269- Traffic congestion is one of the biggest problem Bengaluru is facing as of now. Please focus on to the Solution which improves the traffic.\n', 'score': 0.5704180097120807}</t>
-  </si>
-  <si>
-    <t>{'response': '281- Roads are completely logged... both in weekdays and weekends... we really need to do something really fast! I believe that we are significantly underinvesting and we will start losing our competitive edge (with respect to other cities) fast! Namma Bengaluru - lets take action!\n', 'score': 0.4841286398706916}</t>
-  </si>
-  <si>
-    <t>{'response': '282- No bus connectivity from certain areas to Electronics City and Whitefield.\n', 'score': 0.5718063294901322}</t>
+    <t>{'response': '281- Roads are completely logged... both in weekdays and weekends... we really need to do something really fast! I believe that we are significantly underinvesting and we will start losing our competitive edge (with respect to other cities) fast! Namma Bengaluru - lets take action!\n', 'score': 0.4481548974449876}</t>
   </si>
   <si>
     <t>{'response': '292- We keep hearing plans but nothing concrete in reality. There are always delays. What will govt do to ensure projects complete on time with quality.\n', 'score': 0.37824462044338103}</t>
   </si>
   <si>
-    <t>{'response': '69- These measures would be of little help. There should be an exclusive elevated Express way to International Airport wherein people from all parts of the city can converage into this expressway. Current route is going to explode in the next few years. 2-3 Express ways would be advisable. One from Marathahalli-Whitefield side and another from MG road.and one from Tumkur Road.\n', 'score': 0.5274860436113611}</t>
+    <t>{'response': '249- All Corporate companies can move out of the cities, where the Metro can connect to that particular location from all the part of the city\n', 'score': 0.548026354642823}</t>
+  </si>
+  <si>
+    <t>{'response': '209- metro planning is pathetic. IT places like whitefield, ORR, electronic city and sarjapur road should be given priority. Rather than seeing where vote bank is more government to put money in where it is necessary. metro network has to be increased. whitefield has to be connected to electronic city via varthur. \n', 'score': 0.5366196136410729}</t>
+  </si>
+  <si>
+    <t>{'response': '258- The more important thing is to expand city limits and distribution of companies based on no of employees \n', 'score': 0.52722338545381}</t>
+  </si>
+  <si>
+    <t>{'response': '69- These measures would be of little help. There should be an exclusive elevated Express way to International Airport wherein people from all parts of the city can converage into this expressway. Current route is going to explode in the next few years. 2-3 Express ways would be advisable. One from Marathahalli-Whitefield side and another from MG road.and one from Tumkur Road.\n', 'score': 0.5187219755628422}</t>
   </si>
   <si>
     <t>{'response': '73- no planning at all just flyovers wont help before giving permission to the new it hubs think about all the factors \n', 'score': 0.5074365927706442}</t>
   </si>
   <si>
-    <t>{'response': '209- metro planning is pathetic. IT places like whitefield, ORR, electronic city and sarjapur road should be given priority. Rather than seeing where vote bank is more government to put money in where it is necessary. metro network has to be increased. whitefield has to be connected to electronic city via varthur. \n', 'score': 0.5366196136410729}</t>
-  </si>
-  <si>
-    <t>{'response': '249- All Corporate companies can move out of the cities, where the Metro can connect to that particular location from all the part of the city\n', 'score': 0.548026354642823}</t>
-  </si>
-  <si>
-    <t>{'response': '258- The more important thing is to expand city limits and distribution of companies based on no of employees \n', 'score': 0.52722338545381}</t>
-  </si>
-  <si>
-    <t>{'response': '3- Promote Bus transportation than private vehicle, More buses with proper cleaniliness and allow only passengers depends available seats like other coutry, Adopt GPS tracking for all busses so that passengers can plan \n', 'score': 0.6040117392808997}</t>
-  </si>
-  <si>
-    <t>{'response': '102- BMTC bus as well as other buses body size does not fit to enter certain road. Recheck illegal body size of the buses.\n', 'score': 0.6683486858885678}</t>
-  </si>
-  <si>
-    <t>{'response': '11- Make smooth dust free widened road for bangalore as per population growth.Pathetic plans need to be reviewed\n', 'score': 0.46442437589089214}</t>
-  </si>
-  <si>
-    <t>{'response': '13- Planning of road every thing should change I have a plan \n', 'score': 0.44616493082069225}</t>
-  </si>
-  <si>
-    <t>{'response': '21- Problem: Main problem is BMTC stops on main roads. They stop anywhere and do rash driving. Suggestion: Construct nice bus stops every 5km with bicycle to rent. No stop of BMTC bus every few meters on main road. Strictly follow lane rules Better to have seperate road oy for BMTC bus. \n', 'score': 0.601531823412614}</t>
-  </si>
-  <si>
-    <t>{'response': '45- Especially for ladies there should be separate lane for driving zone and gents also separate driving zone. it will be helpfull for smooth driving. \n', 'score': 0.49431656749091235}</t>
-  </si>
-  <si>
-    <t>{'response': '48- There is no mention of multi level parkings being planned. BDA owns so many buildings and if properly planned they could add atleast 2 floors of parking which could save space on the road. Currently we see 30% of the road used for parking\n', 'score': 0.5124169207697916}</t>
-  </si>
-  <si>
-    <t>{'response': '57- Sir / Madam  The plan is good but it is mentioned for only ring road where in we have lots of traffic problem  in ulsoor area also the roads are narrow  and now it has become four side lane road so is their any possibility to look into the expansion of road in ulsoor area near the gurdwara\n', 'score': 0.6493663020338032}</t>
-  </si>
-  <si>
-    <t>{'response': "67- I am not giving feedback on the masterplan. I am just giving my opinion. Actually new houses are being built with 3+ floors without any car parking and the tenants are parking on the road which causes a big inconvenience to the residences. Road is for driving and not parking. Why can't they build a house with car parking. Why is the BBMP silent on these matters?. \n", 'score': 0.5749104232677366}</t>
-  </si>
-  <si>
-    <t>{'response': "80- Tree conservation and road expansion doesn't hold good together. How do they maintain a balance? And more sky walks on fast moving roads such as Ring Roads and Airport roads along with barricades on the divider. \n", 'score': 0.6384478511685717}</t>
-  </si>
-  <si>
-    <t>{'response': '81- Repair and better quality roads must be laid. To have a porthole free road in Bangalore must be priority one of any administration. Garbage collection and prevention of dumping materials and garbage on roads and public area. \n', 'score': 0.5157301213853338}</t>
-  </si>
-  <si>
-    <t>{'response': "85- Roads must be we'll maintained and no promise regarding that has been given and must be ensured so that private cars also don't face any hassle\n", 'score': 0.4830292064007389}</t>
-  </si>
-  <si>
-    <t>{'response': '97- Parallely, we need to work on existing infrastructure also. Make a person on a self driven wheel chair the datum. He should be able to independently move around. Do our pavements and pedestrian crossings comply to this requirement?   Lane marking and signage to indicate, which lane to be maintained for the next turn/straight. Also mark out parking places on the road side.  Zebra crossings are mostly non-existent. Where they are, they end in a fence or a bush in the divider. Stop lines at red lights with the word STOP not marked.   Level of assurance of a penalty needs to be much higher. Presently it is so low that people can break the law and get away with it. We need to reduce the probability of getting away.   Doing future planning and creating new infrastructure is all good. But first take care of the existing.   Our biggest hinderance to traffic woes is the rate of traffic movement at a junction. We need to work towards increasing the average speed on a green light. Case in point being Marathahalli Bridge. There is no Red light, and the traffic is still clearing very slowly. Address problems like these first.\n', 'score': 0.6693738798022713}</t>
-  </si>
-  <si>
-    <t>{'response': '103- This is good , but there is also a problem of signalling . It would be more helpful if signals are replaced by roundabouts like in Brazil , and the remaining signals be synchronised to avoid multiple stops on the same stretch of road \n', 'score': 0.5591232010341465}</t>
-  </si>
-  <si>
-    <t>{'response': '123- All these things are required and very good vision from the government. But construction of flyovers must be considered as the cause of delays are more because of jams at the road intersection / junction. More and more flyovers should be made.\n', 'score': 0.5615280933242005}</t>
-  </si>
-  <si>
-    <t>{'response': '129- Separate walkway for pedestrians and separate road for 2 wheelers should be provided in order to safeguard the people and avoid accidents which  also reduces traffic jams. And also cycling should be promoted more to reduce air pollution.\n', 'score': 0.6355492017672342}</t>
-  </si>
-  <si>
-    <t>{'response': '155- Along with traffic need to control how permission is given to construct new places with no amenities to park the traffic is a major issue that would also mean enough roads\n', 'score': 0.5861828670112154}</t>
-  </si>
-  <si>
-    <t>{'response': '160- The roads are very narrow and the vehicles are so more that the road gets blocked and it gets jammed at Hebbal flyover...not only here but many other place and too...so firstly I would like to suggest to widen the roads \n', 'score': 0.644229185290386}</t>
-  </si>
-  <si>
-    <t>{'response': '187- Traffic and good roads go in parrallel, unscientific speed breakers need to be removed and regularized properly. For Eg: The speed breaker near Ashoka Pillar Jayanagar is near a 1 feet high!! Do not allow road digging after asphalting the roads, this is a pukka con job of the corporaters! \n', 'score': 0.6024724318048839}</t>
-  </si>
-  <si>
-    <t>{'response': '206- Special lane needs to be constructed for ambulance in which it can move without stucking\n', 'score': 0.5141859086137538}</t>
-  </si>
-  <si>
-    <t>{'response': "211- I found during road widening across  Bangalore  lot of trees were cut. I would want to plant lot's of trees. \n", 'score': 0.5561140626430595}</t>
-  </si>
-  <si>
-    <t>{'response': '219- Wide roads are required in the residential areas around the IT tech parks. For example the Panathur main road which is the main connectivity road in the ECO space outer ring road is very narrow and this leads to daily traffic jams.\n', 'score': 0.6039970069233569}</t>
-  </si>
-  <si>
-    <t>{'response': '221- Footh paths are a MUST. We have so much pedestrian traffic but no proper walking spaces designated to just pedestrians. It will encourage people to walk more if the foothpaths are maintained well leading to less congestion, and yes expansion of roads, properly planned flyovers to tackle the monstrous travel time within the city.\n', 'score': 0.6490681496727103}</t>
-  </si>
-  <si>
-    <t>{'response': '225- Traffic is a big topic  Here i only mentioning about road condition Most of the roads are in very bad condition with dangerous path hole  Need a concerned person to have survey give them the ETA and fix asap if not fixed by the concerned team penalise them and make this process transparent  Evry area should have the concerned person details mentioned somewhere in that area to let prople know and easily complaint about tbe road condition\n', 'score': 0.5008276662063066}</t>
-  </si>
-  <si>
-    <t>{'response': '232- Firstly the space allocated to roads, dividers, footpath are inadequate. For main arterial roads they should be 6 lane. The divider should be wide enough to provide for additional lane at crossing signals for right turning vehicles while there should be free left turning lane separating before turning and merging gradually with main traffic after turning. Secondly, lane discipline should be enforced and offenders to be booked with heavy penalty. Cameras at all crossings for monitoring and speed cameras in long stretches are must. Thirdly, all humps must be painted black and white for easy visibility. Footpaths should be cleared of vendors, transformers, uncovered drains so that padestrians do not have to walk on the road slowing traffic. Fourthly more skywalks on busy roads with escalators for senior citizens and differently abled. Fifthly, separate fenced lanes for two wheelers and making all major roads out of bound for autorickshaws.\n', 'score': 0.6893325510531327}</t>
-  </si>
-  <si>
-    <t>{'response': '250- Love the idea of foot paths and cycle paths. But i would give up using my car if the public transport is made easy and fast, maybe dedicated BUS lanes and make the private vehicles lane smaller so that public transport if faster. \n', 'score': 0.6482125061701645}</t>
-  </si>
-  <si>
-    <t>{'response': '256- Poor road management \n', 'score': 0.45639844446397976}</t>
-  </si>
-  <si>
-    <t>{'response': '271- I Am a cyclist, and every day commuting in cycle in the busy traffic is a problem.. for an eco friendly city green transport has to be deployed. hence having Cycle friendly roads are very much necessary. Along with this, the roads especially at the traffic signal junctions should be in good conditions, as I have observed the stretch of the road will be more or less good, but exactly after the signal, the roads will be dug up or have pot holes, which tends for slow exit of traffic from the signals.. this condition is in many signals. Another request is to ban old/Vehicles with more pollution, inhaling more exhaust of the vehicle while cycling becomes difficult.\n', 'score': 0.6218336273222758}</t>
-  </si>
-  <si>
-    <t>{'response': '275- Traffic is the main concern in Bangalore. and also road pavement should be good.\n', 'score': 0.6170590077545451}</t>
-  </si>
-  <si>
-    <t>{'response': '286- Details are missing. Badly designed roads. ORR has bus stops on the main road and the service roads are not used properly. Exit from ORR and entry into ORR through the same exit point is a blunder in design. What is being done to remedy the major flaws in the road designs, at least the main arterial roads.\n', 'score': 0.5932965143864616}</t>
-  </si>
-  <si>
-    <t>['50- Please plan well for diversions before construction of roads. And the pace of work to be fast for diversion at important roads. \n', '2- Please include checks and balances in place ( i.e accountability) to make sure that is will be completed ,tested and approved within the given deadline.Also move the deadline to 2025 instead of 2031 to complete work in phases\n', '179- Please provide a forum where we can track what all changes are being made, who is accountable for it, what is the budget \n']</t>
-  </si>
-  <si>
-    <t>['273- Faster Implementation of the plans will be key for the Bangalore in next few years\n', '140- The Master Plan 2031 brought out by the BDA and citizens is very comprehensive and covers all the aspects that one can think of. But I do feel that the number of proposed public playgrounds and sporting facilities does fall short in number, considering the expected population of Bangalore in 2031.\n', "185- Why can't the government think of improving railway network in and around Bangalore? Government should plan a comprehensive commuter rail network besides Namma Metro.\n", '288- There should be a extra toll fee levied on the people who travel single in a car.\n', '152- City has congestion at junctions, they need be redesigned to allow the free flow of traffic.  I see no provision for it in the master plan\n', '6- Master plan 2015 is not implemented it is mandatory to implement previous version \n', '146- This master needs to be corrected -like bringing highly sustainable and fast moving rapid transit system with high carrying capacity \n', '237- The real woos of the transportation is lack of last mile connectivity. The current plans are isolated developments and do not bother to simless integration. It is very simple... Give priority to pedestrian,  they want unhindered, safe passage way. The walkways are unscientific... Keep them horizontal... No abrupt ups and downs... Appropriately design crossings... No open gutters... I mean no rocket science... Simple commonsense design!!!! \n', '242- There is a need for a drastic change\n', '180- No amount of infrastructure improvements will help WITHOUT infrastructure efforts to improve COMPLIANCE with rules and safe driving practices\n', '68- There is nothing innovative in the proposal. I propose that we mark U-turn  lanes wherever possible. Also, lot of traffic jams in smaller roads happen because there is no traffic light. Since having traffic light at every intersection is not a possibility, we should implement stop signs that allow traffic from all sides to take turn and progress instead of the current situation of drivers trying to muscle their way through.   We need to recruit more traffic police for better enforcement of traffic rules. The traffic police should be respected and violators should fear them.\n', '104- The plan should have started by now and the time-frame of 15years is very long as Bangalore is exploding right now so why to wait for another 15 years for its recovery...\n', '253- Bangalore should have "Traffic free spots" each with multi-level parking with many towers.  In the "Traffic free spots" only vehicles allowed must be BTS, Ambulance, Police and Fire brigade vehicles. People must use BTS, go to multi-level parking, take their vehicles and travel to other traffic free spots so that inside the traffic free spot, there is greenery, peace, people can walk, breathe, play and live. Each traffic free spot must contain a school, hospital, post-office, mall, so that people rarely should travel out of traffic free spot. This must work in conjunction with Metro Rail of Bangalore. ISRO is giving electric battery/motor technology to anybody interested to develop green city. Bangalore must utilize this tech to have electric hybrids for BTS using electric charging and solar power capabilities. Life of a vehicle must be mapped - where it originates and where it has to stop. Most of traffic problems in Bangalore is because of improper parking on already narrow roads. In traffic free spot, multi-level parking with many towers should make sure vehicles are parked in parking spots only. Advanced drivers assistance systems and Self driving cars technology should be given a thought.\n']</t>
-  </si>
-  <si>
-    <t>['44- natural is must need if fallow the onether countery our land will get lose you oeople must think the saftey and natural\n', '118- If it is implemented the way they have planned ..... its just awesome \n', '111- Nice plan! But it has to be implemented as it is. I highly doubt the above plan would be implemented in the way it is as of now \n', '121- This is to police officers plz follow the rules and help us to follow the rules  If rules r broke by the rides punishment r penalty should be given even if it is a high officials \n', '265- Traffic issues should have to be resolved by proper planning and taking consideration for measurement whoever may be require.\n', '182- Rules are not good way  \n', '125- Again to be implemented strictly \n', '192- If it is implemented properly then it is very good\n', '15- if it implemented in time matters more.\n', "116- Traffic issue in bengaluru is well known issue to the whole world, we must work towards resolution. I admit we cannot get rid of it but if we don't act now then there will be never ending for this issue. Bangalore should be back to it's form.\n", '154- Plan Is good but it should not be in paper. Implementation should be properly executed  and should be maintained. But still it looks dream \n']</t>
+    <t>{'response': '262- Reducing the 4 vehicle usage may reduce the traffic and increase the metro lines. bus transportation should be increased\n', 'score': 0.7042014254470679}</t>
+  </si>
+  <si>
+    <t>{'response': '3- Promote Bus transportation than private vehicle, More buses with proper cleaniliness and allow only passengers depends available seats like other coutry, Adopt GPS tracking for all busses so that passengers can plan \n', 'score': 0.6146722335330576}</t>
+  </si>
+  <si>
+    <t>{'response': '157- Check on feeder busses and metro too\n', 'score': 0.5163360418447964}</t>
+  </si>
+  <si>
+    <t>{'response': '250- Love the idea of foot paths and cycle paths. But i would give up using my car if the public transport is made easy and fast, maybe dedicated BUS lanes and make the private vehicles lane smaller so that public transport if faster. \n', 'score': 0.6610812569583868}</t>
+  </si>
+  <si>
+    <t>{'response': '97- Parallely, we need to work on existing infrastructure also. Make a person on a self driven wheel chair the datum. He should be able to independently move around. Do our pavements and pedestrian crossings comply to this requirement?   Lane marking and signage to indicate, which lane to be maintained for the next turn/straight. Also mark out parking places on the road side.  Zebra crossings are mostly non-existent. Where they are, they end in a fence or a bush in the divider. Stop lines at red lights with the word STOP not marked.   Level of assurance of a penalty needs to be much higher. Presently it is so low that people can break the law and get away with it. We need to reduce the probability of getting away.   Doing future planning and creating new infrastructure is all good. But first take care of the existing.   Our biggest hinderance to traffic woes is the rate of traffic movement at a junction. We need to work towards increasing the average speed on a green light. Case in point being Marathahalli Bridge. There is no Red light, and the traffic is still clearing very slowly. Address problems like these first.\n', 'score': 0.6493794230569621}</t>
+  </si>
+  <si>
+    <t>{'response': '221- Footh paths are a MUST. We have so much pedestrian traffic but no proper walking spaces designated to just pedestrians. It will encourage people to walk more if the foothpaths are maintained well leading to less congestion, and yes expansion of roads, properly planned flyovers to tackle the monstrous travel time within the city.\n', 'score': 0.6456118612741459}</t>
+  </si>
+  <si>
+    <t>{'response': '57- Sir / Madam  The plan is good but it is mentioned for only ring road where in we have lots of traffic problem  in ulsoor area also the roads are narrow  and now it has become four side lane road so is their any possibility to look into the expansion of road in ulsoor area near the gurdwara\n', 'score': 0.6410380522236079}</t>
+  </si>
+  <si>
+    <t>{'response': '232- Firstly the space allocated to roads, dividers, footpath are inadequate. For main arterial roads they should be 6 lane. The divider should be wide enough to provide for additional lane at crossing signals for right turning vehicles while there should be free left turning lane separating before turning and merging gradually with main traffic after turning. Secondly, lane discipline should be enforced and offenders to be booked with heavy penalty. Cameras at all crossings for monitoring and speed cameras in long stretches are must. Thirdly, all humps must be painted black and white for easy visibility. Footpaths should be cleared of vendors, transformers, uncovered drains so that padestrians do not have to walk on the road slowing traffic. Fourthly more skywalks on busy roads with escalators for senior citizens and differently abled. Fifthly, separate fenced lanes for two wheelers and making all major roads out of bound for autorickshaws.\n', 'score': 0.6324968730668571}</t>
+  </si>
+  <si>
+    <t>{'response': '271- I Am a cyclist, and every day commuting in cycle in the busy traffic is a problem.. for an eco friendly city green transport has to be deployed. hence having Cycle friendly roads are very much necessary. Along with this, the roads especially at the traffic signal junctions should be in good conditions, as I have observed the stretch of the road will be more or less good, but exactly after the signal, the roads will be dug up or have pot holes, which tends for slow exit of traffic from the signals.. this condition is in many signals. Another request is to ban old/Vehicles with more pollution, inhaling more exhaust of the vehicle while cycling becomes difficult.\n', 'score': 0.6270934182433221}</t>
+  </si>
+  <si>
+    <t>{'response': '129- Separate walkway for pedestrians and separate road for 2 wheelers should be provided in order to safeguard the people and avoid accidents which  also reduces traffic jams. And also cycling should be promoted more to reduce air pollution.\n', 'score': 0.619880391598512}</t>
+  </si>
+  <si>
+    <t>{'response': '21- Problem: Main problem is BMTC stops on main roads. They stop anywhere and do rash driving. Suggestion: Construct nice bus stops every 5km with bicycle to rent. No stop of BMTC bus every few meters on main road. Strictly follow lane rules Better to have seperate road oy for BMTC bus. \n', 'score': 0.6125122506911398}</t>
+  </si>
+  <si>
+    <t>{'response': "80- Tree conservation and road expansion doesn't hold good together. How do they maintain a balance? And more sky walks on fast moving roads such as Ring Roads and Airport roads along with barricades on the divider. \n", 'score': 0.6097712731764081}</t>
+  </si>
+  <si>
+    <t>{'response': '254- What about the old vehicles?  Government vehicles are old and polluting.  The new BMTC buses are very bad and cannot be used by public.  With th new infrastructure planned above, there needs to be a regulation on the old vehicles.  Create more cycling paths - dont see this as a reality \n', 'score': 0.5905021361015718}</t>
+  </si>
+  <si>
+    <t>{'response': '155- Along with traffic need to control how permission is given to construct new places with no amenities to park the traffic is a major issue that would also mean enough roads\n', 'score': 0.5870149895510085}</t>
+  </si>
+  <si>
+    <t>{'response': '275- Traffic is the main concern in Bangalore. and also road pavement should be good.\n', 'score': 0.582078220030169}</t>
+  </si>
+  <si>
+    <t>{'response': '286- Details are missing. Badly designed roads. ORR has bus stops on the main road and the service roads are not used properly. Exit from ORR and entry into ORR through the same exit point is a blunder in design. What is being done to remedy the major flaws in the road designs, at least the main arterial roads.\n', 'score': 0.5805344881876385}</t>
+  </si>
+  <si>
+    <t>{'response': '103- This is good , but there is also a problem of signalling . It would be more helpful if signals are replaced by roundabouts like in Brazil , and the remaining signals be synchronised to avoid multiple stops on the same stretch of road \n', 'score': 0.5802202238735275}</t>
+  </si>
+  <si>
+    <t>{'response': "67- I am not giving feedback on the masterplan. I am just giving my opinion. Actually new houses are being built with 3+ floors without any car parking and the tenants are parking on the road which causes a big inconvenience to the residences. Road is for driving and not parking. Why can't they build a house with car parking. Why is the BBMP silent on these matters?. \n", 'score': 0.562402168305949}</t>
+  </si>
+  <si>
+    <t>{'response': '187- Traffic and good roads go in parrallel, unscientific speed breakers need to be removed and regularized properly. For Eg: The speed breaker near Ashoka Pillar Jayanagar is near a 1 feet high!! Do not allow road digging after asphalting the roads, this is a pukka con job of the corporaters! \n', 'score': 0.5532567585305206}</t>
+  </si>
+  <si>
+    <t>{'response': '123- All these things are required and very good vision from the government. But construction of flyovers must be considered as the cause of delays are more because of jams at the road intersection / junction. More and more flyovers should be made.\n', 'score': 0.5517360748713951}</t>
+  </si>
+  <si>
+    <t>{'response': "211- I found during road widening across  Bangalore  lot of trees were cut. I would want to plant lot's of trees. \n", 'score': 0.5473966733347664}</t>
+  </si>
+  <si>
+    <t>{'response': '206- Special lane needs to be constructed for ambulance in which it can move without stucking\n', 'score': 0.5301353182220727}</t>
+  </si>
+  <si>
+    <t>{'response': '225- Traffic is a big topic  Here i only mentioning about road condition Most of the roads are in very bad condition with dangerous path hole  Need a concerned person to have survey give them the ETA and fix asap if not fixed by the concerned team penalise them and make this process transparent  Evry area should have the concerned person details mentioned somewhere in that area to let prople know and easily complaint about tbe road condition\n', 'score': 0.5000038211420464}</t>
+  </si>
+  <si>
+    <t>{'response': '48- There is no mention of multi level parkings being planned. BDA owns so many buildings and if properly planned they could add atleast 2 floors of parking which could save space on the road. Currently we see 30% of the road used for parking\n', 'score': 0.4892741416061261}</t>
+  </si>
+  <si>
+    <t>{'response': '45- Especially for ladies there should be separate lane for driving zone and gents also separate driving zone. it will be helpfull for smooth driving. \n', 'score': 0.4883201499764081}</t>
+  </si>
+  <si>
+    <t>{'response': '81- Repair and better quality roads must be laid. To have a porthole free road in Bangalore must be priority one of any administration. Garbage collection and prevention of dumping materials and garbage on roads and public area. \n', 'score': 0.4812588204554101}</t>
+  </si>
+  <si>
+    <t>{'response': '11- Make smooth dust free widened road for bangalore as per population growth.Pathetic plans need to be reviewed\n', 'score': 0.47395072368332086}</t>
+  </si>
+  <si>
+    <t>{'response': "85- Roads must be we'll maintained and no promise regarding that has been given and must be ensured so that private cars also don't face any hassle\n", 'score': 0.46573945700350333}</t>
+  </si>
+  <si>
+    <t>{'response': '13- Planning of road every thing should change I have a plan \n', 'score': 0.4654268185937526}</t>
+  </si>
+  <si>
+    <t>{'response': '256- Poor road management \n', 'score': 0.4373123444305389}</t>
+  </si>
+  <si>
+    <t>['2- Please include checks and balances in place ( i.e accountability) to make sure that is will be completed ,tested and approved within the given deadline.Also move the deadline to 2025 instead of 2031 to complete work in phases\n', '179- Please provide a forum where we can track what all changes are being made, who is accountable for it, what is the budget \n', '50- Please plan well for diversions before construction of roads. And the pace of work to be fast for diversion at important roads. \n']</t>
+  </si>
+  <si>
+    <t>['237- The real woos of the transportation is lack of last mile connectivity. The current plans are isolated developments and do not bother to simless integration. It is very simple... Give priority to pedestrian,  they want unhindered, safe passage way. The walkways are unscientific... Keep them horizontal... No abrupt ups and downs... Appropriately design crossings... No open gutters... I mean no rocket science... Simple commonsense design!!!! \n', '180- No amount of infrastructure improvements will help WITHOUT infrastructure efforts to improve COMPLIANCE with rules and safe driving practices\n', "185- Why can't the government think of improving railway network in and around Bangalore? Government should plan a comprehensive commuter rail network besides Namma Metro.\n", '121- This is to police officers plz follow the rules and help us to follow the rules  If rules r broke by the rides punishment r penalty should be given even if it is a high officials \n', '288- There should be a extra toll fee levied on the people who travel single in a car.\n', '146- This master needs to be corrected -like bringing highly sustainable and fast moving rapid transit system with high carrying capacity \n', '242- There is a need for a drastic change\n', '152- City has congestion at junctions, they need be redesigned to allow the free flow of traffic.  I see no provision for it in the master plan\n', '104- The plan should have started by now and the time-frame of 15years is very long as Bangalore is exploding right now so why to wait for another 15 years for its recovery...\n', '253- Bangalore should have "Traffic free spots" each with multi-level parking with many towers.  In the "Traffic free spots" only vehicles allowed must be BTS, Ambulance, Police and Fire brigade vehicles. People must use BTS, go to multi-level parking, take their vehicles and travel to other traffic free spots so that inside the traffic free spot, there is greenery, peace, people can walk, breathe, play and live. Each traffic free spot must contain a school, hospital, post-office, mall, so that people rarely should travel out of traffic free spot. This must work in conjunction with Metro Rail of Bangalore. ISRO is giving electric battery/motor technology to anybody interested to develop green city. Bangalore must utilize this tech to have electric hybrids for BTS using electric charging and solar power capabilities. Life of a vehicle must be mapped - where it originates and where it has to stop. Most of traffic problems in Bangalore is because of improper parking on already narrow roads. In traffic free spot, multi-level parking with many towers should make sure vehicles are parked in parking spots only. Advanced drivers assistance systems and Self driving cars technology should be given a thought.\n', '6- Master plan 2015 is not implemented it is mandatory to implement previous version \n', '68- There is nothing innovative in the proposal. I propose that we mark U-turn  lanes wherever possible. Also, lot of traffic jams in smaller roads happen because there is no traffic light. Since having traffic light at every intersection is not a possibility, we should implement stop signs that allow traffic from all sides to take turn and progress instead of the current situation of drivers trying to muscle their way through.   We need to recruit more traffic police for better enforcement of traffic rules. The traffic police should be respected and violators should fear them.\n', '140- The Master Plan 2031 brought out by the BDA and citizens is very comprehensive and covers all the aspects that one can think of. But I do feel that the number of proposed public playgrounds and sporting facilities does fall short in number, considering the expected population of Bangalore in 2031.\n', '273- Faster Implementation of the plans will be key for the Bangalore in next few years\n']</t>
+  </si>
+  <si>
+    <t>['125- Again to be implemented strictly \n', '15- if it implemented in time matters more.\n', '192- If it is implemented properly then it is very good\n', '44- natural is must need if fallow the onether countery our land will get lose you oeople must think the saftey and natural\n', "107- 1.  Busstops in highways are not properly designed , there is no space to stop 2-3 buses at a time which in turn leads to buses stopping in roads for passengers in a way  obstructing moving traffic.  This emphasis the need of redesigning busstops so that buses don't obstruct traffic. 2. Large amount of work force works in electronic city and it is fast developing. Nearest railway station is 25 km away and in Current traffic and railway stations. Developing railway stations near electronic city and push for more trains to stop allow stops there will help .\n", '182- Rules are not good way  \n', '154- Plan Is good but it should not be in paper. Implementation should be properly executed  and should be maintained. But still it looks dream \n', '265- Traffic issues should have to be resolved by proper planning and taking consideration for measurement whoever may be require.\n', '111- Nice plan! But it has to be implemented as it is. I highly doubt the above plan would be implemented in the way it is as of now \n', "116- Traffic issue in bengaluru is well known issue to the whole world, we must work towards resolution. I admit we cannot get rid of it but if we don't act now then there will be never ending for this issue. Bangalore should be back to it's form.\n", '118- If it is implemented the way they have planned ..... its just awesome \n']</t>
   </si>
   <si>
     <t>['17- - Nothing mentioned on the types of buses. Will the current buses be upgrated? They are a nightmare in terms of pollution, danger to travelers and other riders, and roads.    - Can we look at a card system for public transports such as bus and metro like Singapore or Paris? Reduces the need for a conductor and more convenient for users and there is absolutely no need to carry change!\n']</t>
@@ -1928,7 +1907,7 @@
     <t>['43- Plz Make Some Alternate Ways. Until th Project gets Completed. Vry HelpFull..\n']</t>
   </si>
   <si>
-    <t>['201- Traffic management is at an appalling state with crumbling infrastructure\n', "257- Very bad management of traffic. White topping of kasturinagar to kalyannagar stretch not well planned. Too many potholes. It's dangerous for the two wheeler riders. Traffic at tin factory to kr puram is always jam packed. It's really difficult for the commuters.\n", '196- Very bad\n', '91- Thanks Very good plan with detailed overview\n', "107- 1.  Busstops in highways are not properly designed , there is no space to stop 2-3 buses at a time which in turn leads to buses stopping in roads for passengers in a way  obstructing moving traffic.  This emphasis the need of redesigning busstops so that buses don't obstruct traffic. 2. Large amount of work force works in electronic city and it is fast developing. Nearest railway station is 25 km away and in Current traffic and railway stations. Developing railway stations near electronic city and push for more trains to stop allow stops there will help .\n", '164- Not a convincing plan. Too good to be true. \n', "49- Traffic management is worst and most of people don't obey the rules. Please take it serious and implement a good solution. For 2 KMs, it take 30 mins on so many routes.\n"]</t>
+    <t>["49- Traffic management is worst and most of people don't obey the rules. Please take it serious and implement a good solution. For 2 KMs, it take 30 mins on so many routes.\n", '91- Thanks Very good plan with detailed overview\n', '164- Not a convincing plan. Too good to be true. \n', '196- Very bad\n', '201- Traffic management is at an appalling state with crumbling infrastructure\n', "257- Very bad management of traffic. White topping of kasturinagar to kalyannagar stretch not well planned. Too many potholes. It's dangerous for the two wheeler riders. Traffic at tin factory to kr puram is always jam packed. It's really difficult for the commuters.\n"]</t>
   </si>
   <si>
     <t>['61- Get some real engineers \n']</t>
@@ -1952,7 +1931,7 @@
     <t>['200- scope of lot of improvement is needed \n', '135- Better planning needed\n']</t>
   </si>
   <si>
-    <t>['175- Better connectivity and cheaper transportation charges. More buses to be introduced \n', '170- More emphasis of public transportation and suburban trains to reduce private vehicular movement. Wider, well maintained, pot-hole free roads which are safe to drive\n', '245- More than Metro, If feasible parallel interconnect with Airport, Suburban railways should be planned. \n', '151- There should be a stronger Rail (Metro) connectivity across the City\n']</t>
+    <t>['170- More emphasis of public transportation and suburban trains to reduce private vehicular movement. Wider, well maintained, pot-hole free roads which are safe to drive\n', '245- More than Metro, If feasible parallel interconnect with Airport, Suburban railways should be planned. \n', '175- Better connectivity and cheaper transportation charges. More buses to be introduced \n', '151- There should be a stronger Rail (Metro) connectivity across the City\n']</t>
   </si>
   <si>
     <t>['261- Traffic can be organized well by :  Firstly targeting at the RTO Officers as they issue Driving Licenses blindly, they have to Re-Test all the Drivers Licenses and they will end up correcting the fault in cancelling 50% of illegal licenses issued.  Secondly they should target on all Driving Schools as they provide Driving License in just 20 Hrs of classes which can be opted in 1hr/day for 20 days basis or whichever is convenient but it should sum upto 20 Hours which is totally insane, by this inexperienced riders and drivers on roads there will be only improper lane discipline.\n', '176- Driving- Roads do not have markings for lane driving, dividers etc.? We need road markers. Safety- For the safety of all road users (young and elderly) we need proper coverage of CCTVs so that any incident can be traced back to the vehicle and its perpetrators. Traffic rules: Most drivers follow traffic rule- but more recently it has become a fashion to jump signals and many people ride their bikes on the footpath especially if they are late. No one should be doing such things in civilised societies. I wonder how authorities are letting this happen without any strict fines/punishments. A number of lives can be saved in such instances. Speed limits: All of Bangalore should have speed limits- clearly indicated and strictly enforced. In and around Educational institutions, public offices, hospitals and many other crowded places should see speed reduction. Let us give people the priority. Horn usage: Heavy fines should be enforced on drivers using horns! Horns must be banned within the city limits- everyone needs to get somewhere, so using a horn to express agony in traffic is ridiculous bullying behaviour. Spitting on Roads: All road users should be fined heavily for dirtying common spaces in the form of spitting and other atrocities! Autos: Autos are the face of Bangalore, they must be taught discipline when it comes to using his meters, driving safely, reliability and language. They must follow lane traffic.\n']</t>
@@ -1970,484 +1949,499 @@
     <t>['243- Ok, but not impressive.\n']</t>
   </si>
   <si>
-    <t>{'response': '18- Overall development plan looks good. But still oriented towards meeting the traffic density. The focus on reducing personal vehicle usage has to be made more clear. Cycle lanes, share transport has to be addressed clearly. Also the BMTC has to become more tech and introduce smaller buses instead big body buses .  Parking has to be made more clear and city to generate more revenue from parking. \n', 'score': 0.6338350576863013}</t>
+    <t>{'response': '112- Mini buses should be introduced by BMTC to cater around all metro rail stations within radius of 3 to 5 km.so that it can cover all narrow roads.This will reduce the noice and other polutions of auto and two wheelers,.if CNG or electric mini buses are used.\n', 'score': 0.7519143551592489}</t>
+  </si>
+  <si>
+    <t>{'response': '54- All deisel vechiles and buses should be immeditly replaced either with CNG or electric buses/cars/scooters, This is creating huge pollution in traffic. Metro rail work should speed up with frequent connectivity to all TECH parks either on road or underground nearly 50per traffic will be controlled. People should be encouraged more to use public trasnport and also Banglore should come up with a policy for all pvt Companies to mandidatorily use public services than individual pvt vehicles.  \n', 'score': 0.7312127758962664}</t>
+  </si>
+  <si>
+    <t>{'response': '207- We need congestion charges on private vehicles like London has. No private vehicle can enter the core areas of the city without paying these congestion charges. This will help curb vehicles on important roads.  The metro needs accountability and last mile connectivity. Public cycle sharing systems should work like magic.  Moonshoots like pod taxis are a waste of the tax payers money and should be abandoned as soon as possible\n', 'score': 0.718630413385808}</t>
+  </si>
+  <si>
+    <t>{'response': '76- Smaller electric buses from metro stations will help to meet last mile connectivity issues\n', 'score': 0.7119458141743691}</t>
+  </si>
+  <si>
+    <t>{'response': '287- The following are basic reasons for traffic problems in the city:  1. Quality of roads 2. Non accountability of contractors for poor roads 3. Constant digging of roads 4. Poor patch work of roads 5. Delay in inspection of roads and hence greater damage 6. Lack of incentive to use public transport 7. Poor last mile connectivity 8. Major surge in taxi operators and hence 4 wheelers 9. Non existence of limiting vehicle ownership policy 10. Upsurge in 2 wheeler traffic 11. Lack of incentive to walk 12. Existence of corridors of converging traffic and narrowing roads 13. Traffic police is busy fining people than controlling traffic  Here are possible solutions to the above points:  1. Public Accountability of the contractor and the office responsible to ensure road quality - timely inspection and repair, minimum time guarantee being imposed,  usage of apps with location to be able to tag the location of problem and response mechanism along with auto escalation matrix   2. Build and Incentivise public transport use to major hubs of traffic movement - this includes safe and regular last mile connectivity options, incentivising walking via well kept footpaths, overhead bridges, cycle routes. Without last mile, people will still use private transport or autos and taxis   3. Phase out 3 wheelers and introduce 4 wheeler autos - the driving behaviour can be curtailed this way  4. Dedicated bus lanes and non private transport areas within the city - de congest rings to increase public transport utilisation  5. Phase out privately owned 2 wheelers. Only logistics organisations can own them. Provided subsidised public transport usage to this part of public.   6. Private organisations to be forced to implement no 2 wheeler policy.   7. Employ strict policing mechanisms to ensure smooth traffic flow. Move to digitally secure payments to disband bribes, AI And visual tech for infringement identification, safety driving mechanisms such as high pricing of insurance for drivers based on driving style  8. Identification of traffic flow to specific locations such as tech parks and regulate time of travel. E.g Manyata tech park can operate only after 11 am, while ITPL can operate starting 7 am. These can split peak traffic load  9. Relocation of tech parks to separate small townships that encompass a complete habitat. Will cause responsible development of the area. SEZs need to be identified to incentivise movement, affordable development to be undertaken \n', 'score': 0.683708663708606}</t>
+  </si>
+  <si>
+    <t>{'response': '59- 1.   Choose atleast 6 roads running north to South (one example KAMARAJ Road which runs from Chandapurar in south to other end or north Bangalore) and 6 roads running East to West (Example M.G. Road running from Hoskote to Nelamangala) making a square net work.  2.   Declare TDR and give a good rate of not less than 3 times the Land area and even upto 4 or 5 times to lure land owners to easily opt for vacating and surrendering the Land. The bureaucrats are spoiling the scheme by suggesting 1.25/ 1.5 etc as if the Government is paying from its own pockets. 3.    Please expand the Roads to 200 Ft. wide 16 to 20 lane roads, with continuous signal free  provisions for vehicles to freely and quickly move. All cross roads to be over or under these 150 Ft. wide roads. This is the cheapest and positive way of solving traffic since it does not cause the exchequer much as compared to Bridges and Flyovers. Every one will immediately after leaving their houses heading for their destination, will take one of these 200ft roads and exit from these roads at  the nearest point of destinations. 4.   While acquiring land  Please make provision for additional land to create parking infrastructure at several places.  5. These Roads should provide for minimum 8 = 8 lanes of preferably 10 = 10 lanes in which devoted lanes for police and ambulance vehicles, separate lanes for public transport vehicles including KSRTC and BMTC vehicles should be made.  \n', 'score': 0.6759256624598011}</t>
+  </si>
+  <si>
+    <t>{'response': "244- Just increasing the BMTC buses will not help, these are the reason also for congestion as roads are narrow. Please look for mini bus options, frequency can be increased. Also improve the connectivity with Metros/ long route transport by using buses as efficient feeders only not to compete with them. Please make it convenient that people feel tempted to leave their cars and use public transport, currently majority of Metro goers are those who switched from 2 wheelers or buses, not from cars because of the inconvenience and not because they're not willing to.\n", 'score': 0.6685080778904661}</t>
+  </si>
+  <si>
+    <t>{'response': "194- Metro, Bus, Rail have to be integrated.. looking at current metro plan, wonder if any detail plan have been done as bus stations and rail stations are not integrated ..and commuters are forced to walk across with their luggage. So integration is important. 2. Keep cost of mass transport affordable (don't look at profit always).. by keeping cost, utilization will go up and this will automatically result in profit by increase volume and utilization and also traffic mess will be solved automatically. No mention of technology is seen here.. use sensors, cameras and intelligent traffic systems to streamline traffic, synchronize traffic lights and also have good pedestrian system. Most important, penalize traffic offenders heavily.. and without any corruption line Singapore and other countries. Drunken driving should result in minimum 10 years jail or more.. and traffic courts should function super efficiently and quickly.. \n", 'score': 0.6668756421923924}</t>
+  </si>
+  <si>
+    <t>{'response': '263- There be some Bus only routes and entire city to be covered by electric only buses. connectivity is a big issue in city and to airport and need to be properly connected possibly with open roof electric buses.\n', 'score': 0.6580476264592658}</t>
+  </si>
+  <si>
+    <t>{'response': '131- Discourage private vehicle use. Improve public transport systems. Revive 2 way traffic wherever feasible.(London roads are narrow but traffic is 2 way). Rationalise 1 way traffic directions - e.g. - interchange 1 way directions of Margosa &amp; Sampige roads, Malleshwaram. Provide emergency vehicles lane across city bypassing congested zones. Bar hawkers from roads. Implement traffic rules with CCTV surveillance. Encourage bicycles with dedicated lanes. Provide pedestrian space, ensure safety.\n', 'score': 0.653063141906274}</t>
+  </si>
+  <si>
+    <t>{'response': '158- Why don’t MNC companies stop giving parking slots for the employees who are getting their own cars and ask them to use public transport or car pooling.\n', 'score': 0.6464997514492316}</t>
+  </si>
+  <si>
+    <t>{'response': '55- No matter how many metro will be constructed, according to data, everyday 122 to 1600 new vehicle registrations happen in Bangalore. Personal cars should be mandated for pooling and no single travel per car.\n', 'score': 0.6444425668168765}</t>
+  </si>
+  <si>
+    <t>{'response': '203- The bridges should be integrated.  The bottlenecks/Slow moving places should be identified.  The signals should be integrated.  100% Camera surveillance should be implemented.  The local transport timing should be strictly implemented with technologies like GPS, cashless ticketing, IOT etc., which will enable to reduce the no. of individual vehicles in the city.  Online payment of toll gate should be implemented.  Speed breakers should be minimized scientifically.  Traffic violation should be handled strictly \n', 'score': 0.6418180747350601}</t>
+  </si>
+  <si>
+    <t>{'response': "260- One of the major problems faced in Bangalore is parking. Regardless of how well our roads are laid and how much effort our policemen put to regulate traffic, the basic need to park our car doesn't exist in Bangalore. People even park on busy roads and immediately jam traffic. It is important that BDA places high priority in identifying parking garages near Metro stations and bus terminals. Without which, any public transport system is bound to fail. Since public transport is not a door to door facility, it's important to help people park their vehicles safely while they avail the public transport. If these are rolled into a Metro payment card, it will enhance the attractiveness of taking public transportation.   The other area where BDA and our BTP can help with is to understand traffic patterns and proactively managing traffic lights. In many cases, until and after traffic piles up, people park haphazardly and drive erratically causing the traffic jams. Then when the traffic is piled up, cops try to sort it out. If we have policemen on beats ensuring vehicles are moving along and not blocking traffic early in the day, it could definitely help. \n", 'score': 0.6383632636873884}</t>
+  </si>
+  <si>
+    <t>{'response': '291- Each shopping area should have multi level car parking. Also all metro stations should have parking for 200-500 cars\n', 'score': 0.6380488546081844}</t>
+  </si>
+  <si>
+    <t>{'response': '251- could have combine near by IT companies transportation.for example L&amp;T,Mindtree,UST all near bu companies.they all are using third party cab services.but independent cab services for each company.in each maximum 2 or 3 employers will be ther.My suggestion is Why cant we club near by IT companies transportation.anyhow companies workings time and all almost same.so if we can club the transportation atlset the cab will be full,less traffic,cost can share among by these IT companies . \n', 'score': 0.6321741161534981}</t>
+  </si>
+  <si>
+    <t>{'response': '18- Overall development plan looks good. But still oriented towards meeting the traffic density. The focus on reducing personal vehicle usage has to be made more clear. Cycle lanes, share transport has to be addressed clearly. Also the BMTC has to become more tech and introduce smaller buses instead big body buses .  Parking has to be made more clear and city to generate more revenue from parking. \n', 'score': 0.6250006844355505}</t>
+  </si>
+  <si>
+    <t>{'response': '233- Please consider the following input to be included in the  Revised Master Plan(RMP) 2031, if you think it is relevant.  In Bangalore,  wherever we go, we find cable TV wires or internet wires loosely hanging on road sides from electric/telephone posts or trees. These cables are laid either by cable TV operators or internet companies. Cables are haphazardly pulled through tree tops and telephone/electric posts to houses/buildings. The left over or unused wires are rolled and kept hanging loosely. Among these there are plenty of unused wires, broken ones dangling touching heads of pedestrians. A child running carelessly or a two wheeler can get entangled with these wires and fall. These companies do not care to remove the old wires/unused wires, laid by them.    To me it seems, at the present scenario, none of the service providers have a secure stable method of carrying the overhead wires to consumers, other than using electric posts/telephone and trees. A stable infrastructure will be useful for both the companies and to their customers  Otherwise, in the years to come such wires will be on the increase creating mayhem, inconveniencing residents, pedestrians and vehicle drivers.     Suggest BBMP or any other agency to provide a permanent/stable infrastructure or  a special  bay for accommodating such cables/wires and rent it out to service providers.  None should be allowed to use electric post or trees for laying cables or internet  wires. You may consider including this item in the master plan, if not already included under any other heads.  Thanking you.  \n', 'score': 0.6204696477113478}</t>
+  </si>
+  <si>
+    <t>{'response': '198- I agrer with the points mentioned in documents mentioned above. But we should look and think out of the box to reduce traffic. Bengaluru is having very good channel of Rail Tracks. Its just we are not looking or considering that channel. We can  think of running local trains between stations on at least hourly or half hourly basis (like Mumbai, Kolkata, Chennai etc.). This will reduce traffic on roads and will not incur extra costs of maintaining roads. Day by day population is increasing in Bengaluru. Local trains will help a lot not only today but in future also to reduce road traffic. \n', 'score': 0.6117430309831633}</t>
+  </si>
+  <si>
+    <t>{'response': '27- Please expedite Metro/Tram/SkyRail/Pods projects to improve reliable long distance public commute by studying effecting implementation in other developing cities like Bangkok and Singapore. Have strict enforcement of traffic rules by using technology. Make using public transport convenient by using selfcheckin kiosks using unified payment cards and having vending machines for same, for all means of transport. Design traffic with essentials on the way like parks, hospitals, schools etc so that everyone uses public transport for such amenities. \n', 'score': 0.6096348290830091}</t>
+  </si>
+  <si>
+    <t>{'response': '234- Please invest in building dedicated safe cycle tracks through out the city. Road/ traffic / parking problems will all become easy to solve. Imagine public taking cars for office a km away just because there are no footpaths or cycle paths and in turn causing , miles of traffic pile up on bad roads. One solution will solve many problems. Please lower your commission/profit targets and give citizens a chance to better life.\n', 'score': 0.6014069561274399}</t>
+  </si>
+  <si>
+    <t>{'response': '41- Make White topping on priority to all arterial roads, completion by 2020. Strict implementation of no commercial estabilishment on roads less than 40ft width. Pod Taxis to completed as announced. No road works to be initiated without informing local public 15 days prior to the start by Gazette notification, posters, news articles. Rules to made to implement it with spirit of law. Respective authorities to work with local RWA for all road works. Engineer and contractor to be held responsible for finished roads, for upto 3 years.\n', 'score': 0.5845543311781967}</t>
+  </si>
+  <si>
+    <t>{'response': '290- Public transport should be strengthened and incentivise people who are using public transport by means of tax waiver etc. Interconnectivity with different modes of transport must be made efficient. Footpaths and sky walks should be made GU i\n', 'score': 0.5777297887125689}</t>
+  </si>
+  <si>
+    <t>{'response': '100- Plan share vehicle policies for people traveling in same direction and start odd even day policy for 4 wheeler vehicle holders.\n', 'score': 0.5756200322445133}</t>
+  </si>
+  <si>
+    <t>{'response': '141- Well, Bangalore is growing tremendously without any doubt. But still proper Engineering is required to avoid traffic. Proper flyovers underpass metro stations etc.\n', 'score': 0.56979409670056}</t>
+  </si>
+  <si>
+    <t>{'response': "94- Firstly the traffic condition in our city is going worse. I think people are getting into our city more and more as time goes by. Well, it's high time for us to use electric vehicles. In this era the technology is being developed so well that I feel it's high time for us to shift to the eco friendly vehicles.. HEMP also produces fuel to the vehicle where the environment wouldn't be polluted so there is no need of petrol because it creates too much pollution compared to hemp fuel. Please government, please do take HEMP very seriously. IT CSN CHANGE THE ENTIRE WORLD.\n", 'score': 0.5673459277201645}</t>
+  </si>
+  <si>
+    <t>{'response': '75- Traffic rules not enforced. Two wheelers are the worst violators. Wrong side driving,no helmet, unlicensed youngsters driving with 3 or more passengers, signal violatio etc. ,Violation occurs in front of policemen. \n', 'score': 0.5518387559370885}</t>
+  </si>
+  <si>
+    <t>{'response': '35- Focus on smart and efficient public transport will encourage people to not bring their cars on the road. So focus must be on that.\n', 'score': 0.5459436445819408}</t>
+  </si>
+  <si>
+    <t>{'response': '228- We could have separate lanes for two wheelers and others so two wheelers green signals can start a few seconds earlier and then for the rest.  This is being used in Chandigarh for cycle rickshaws. \n', 'score': 0.5417203667116273}</t>
+  </si>
+  <si>
+    <t>{'response': '168- Plan is good but it has to be implemented on warfooting as everyday I spend around 3 to 4 hrs only in commuting\n', 'score': 0.5397942152208556}</t>
+  </si>
+  <si>
+    <t>{'response': '156- Please do not even consider building one way flyovers. Public transport needs to improve heavily.\n', 'score': 0.5205958877708025}</t>
   </si>
   <si>
     <t>{'response': '19- pls make Good roads wide roads ,and also nice transport system like suburban train.\n', 'score': 0.5068443426203733}</t>
   </si>
   <si>
-    <t>{'response': '27- Please expedite Metro/Tram/SkyRail/Pods projects to improve reliable long distance public commute by studying effecting implementation in other developing cities like Bangkok and Singapore. Have strict enforcement of traffic rules by using technology. Make using public transport convenient by using selfcheckin kiosks using unified payment cards and having vending machines for same, for all means of transport. Design traffic with essentials on the way like parks, hospitals, schools etc so that everyone uses public transport for such amenities. \n', 'score': 0.6096348290830091}</t>
-  </si>
-  <si>
     <t>{'response': '28- Auto should run on sharing basis only and no private auto. Stop to stop sharing auto like Kolkata.\n', 'score': 0.5010267697455499}</t>
   </si>
   <si>
     <t>{'response': '33- The issue for our population is maintaining the cleanliness of all of these facilities, namely footpaths and cycle paths. \n', 'score': 0.4552221122511574}</t>
   </si>
   <si>
-    <t>{'response': '35- Focus on smart and efficient public transport will encourage people to not bring their cars on the road. So focus must be on that.\n', 'score': 0.5459436445819408}</t>
-  </si>
-  <si>
-    <t>{'response': '41- Make White topping on priority to all arterial roads, completion by 2020. Strict implementation of no commercial estabilishment on roads less than 40ft width. Pod Taxis to completed as announced. No road works to be initiated without informing local public 15 days prior to the start by Gazette notification, posters, news articles. Rules to made to implement it with spirit of law. Respective authorities to work with local RWA for all road works. Engineer and contractor to be held responsible for finished roads, for upto 3 years.\n', 'score': 0.5834454348609854}</t>
-  </si>
-  <si>
-    <t>{'response': '54- All deisel vechiles and buses should be immeditly replaced either with CNG or electric buses/cars/scooters, This is creating huge pollution in traffic. Metro rail work should speed up with frequent connectivity to all TECH parks either on road or underground nearly 50per traffic will be controlled. People should be encouraged more to use public trasnport and also Banglore should come up with a policy for all pvt Companies to mandidatorily use public services than individual pvt vehicles.  \n', 'score': 0.7360299588445264}</t>
-  </si>
-  <si>
-    <t>{'response': '55- No matter how many metro will be constructed, according to data, everyday 122 to 1600 new vehicle registrations happen in Bangalore. Personal cars should be mandated for pooling and no single travel per car.\n', 'score': 0.6444425668168765}</t>
-  </si>
-  <si>
-    <t>{'response': '59- 1.   Choose atleast 6 roads running north to South (one example KAMARAJ Road which runs from Chandapurar in south to other end or north Bangalore) and 6 roads running East to West (Example M.G. Road running from Hoskote to Nelamangala) making a square net work.  2.   Declare TDR and give a good rate of not less than 3 times the Land area and even upto 4 or 5 times to lure land owners to easily opt for vacating and surrendering the Land. The bureaucrats are spoiling the scheme by suggesting 1.25/ 1.5 etc as if the Government is paying from its own pockets. 3.    Please expand the Roads to 200 Ft. wide 16 to 20 lane roads, with continuous signal free  provisions for vehicles to freely and quickly move. All cross roads to be over or under these 150 Ft. wide roads. This is the cheapest and positive way of solving traffic since it does not cause the exchequer much as compared to Bridges and Flyovers. Every one will immediately after leaving their houses heading for their destination, will take one of these 200ft roads and exit from these roads at  the nearest point of destinations. 4.   While acquiring land  Please make provision for additional land to create parking infrastructure at several places.  5. These Roads should provide for minimum 8 = 8 lanes of preferably 10 = 10 lanes in which devoted lanes for police and ambulance vehicles, separate lanes for public transport vehicles including KSRTC and BMTC vehicles should be made.  \n', 'score': 0.6831345708148654}</t>
-  </si>
-  <si>
-    <t>{'response': '75- Traffic rules not enforced. Two wheelers are the worst violators. Wrong side driving,no helmet, unlicensed youngsters driving with 3 or more passengers, signal violatio etc. ,Violation occurs in front of policemen. \n', 'score': 0.5518387559370885}</t>
-  </si>
-  <si>
-    <t>{'response': '76- Smaller electric buses from metro stations will help to meet last mile connectivity issues\n', 'score': 0.7119458141743691}</t>
-  </si>
-  <si>
-    <t>{'response': "94- Firstly the traffic condition in our city is going worse. I think people are getting into our city more and more as time goes by. Well, it's high time for us to use electric vehicles. In this era the technology is being developed so well that I feel it's high time for us to shift to the eco friendly vehicles.. HEMP also produces fuel to the vehicle where the environment wouldn't be polluted so there is no need of petrol because it creates too much pollution compared to hemp fuel. Please government, please do take HEMP very seriously. IT CSN CHANGE THE ENTIRE WORLD.\n", 'score': 0.5626954546404702}</t>
-  </si>
-  <si>
-    <t>{'response': "96- Should reduce the police checking in every corners.. that makes lot of traffic blocks as well. And build parking areas as well .. so that people won't park on roadside.. \n", 'score': 0.5579121016816707}</t>
-  </si>
-  <si>
-    <t>{'response': '100- Plan share vehicle policies for people traveling in same direction and start odd even day policy for 4 wheeler vehicle holders.\n', 'score': 0.5756200322445133}</t>
-  </si>
-  <si>
-    <t>{'response': '112- Mini buses should be introduced by BMTC to cater around all metro rail stations within radius of 3 to 5 km.so that it can cover all narrow roads.This will reduce the noice and other polutions of auto and two wheelers,.if CNG or electric mini buses are used.\n', 'score': 0.7417850492747844}</t>
-  </si>
-  <si>
-    <t>{'response': '131- Discourage private vehicle use. Improve public transport systems. Revive 2 way traffic wherever feasible.(London roads are narrow but traffic is 2 way). Rationalise 1 way traffic directions - e.g. - interchange 1 way directions of Margosa &amp; Sampige roads, Malleshwaram. Provide emergency vehicles lane across city bypassing congested zones. Bar hawkers from roads. Implement traffic rules with CCTV surveillance. Encourage bicycles with dedicated lanes. Provide pedestrian space, ensure safety.\n', 'score': 0.6264199242883368}</t>
-  </si>
-  <si>
-    <t>{'response': '141- Well, Bangalore is growing tremendously without any doubt. But still proper Engineering is required to avoid traffic. Proper flyovers underpass metro stations etc.\n', 'score': 0.56979409670056}</t>
-  </si>
-  <si>
-    <t>{'response': '156- Please do not even consider building one way flyovers. Public transport needs to improve heavily.\n', 'score': 0.5205958877708025}</t>
-  </si>
-  <si>
-    <t>{'response': '158- Why don’t MNC companies stop giving parking slots for the employees who are getting their own cars and ask them to use public transport or car pooling.\n', 'score': 0.6464997514492316}</t>
-  </si>
-  <si>
-    <t>{'response': '168- Plan is good but it has to be implemented on warfooting as everyday I spend around 3 to 4 hrs only in commuting\n', 'score': 0.5545030423623124}</t>
-  </si>
-  <si>
-    <t>{'response': "194- Metro, Bus, Rail have to be integrated.. looking at current metro plan, wonder if any detail plan have been done as bus stations and rail stations are not integrated ..and commuters are forced to walk across with their luggage. So integration is important. 2. Keep cost of mass transport affordable (don't look at profit always).. by keeping cost, utilization will go up and this will automatically result in profit by increase volume and utilization and also traffic mess will be solved automatically. No mention of technology is seen here.. use sensors, cameras and intelligent traffic systems to streamline traffic, synchronize traffic lights and also have good pedestrian system. Most important, penalize traffic offenders heavily.. and without any corruption line Singapore and other countries. Drunken driving should result in minimum 10 years jail or more.. and traffic courts should function super efficiently and quickly.. \n", 'score': 0.6696734411701599}</t>
-  </si>
-  <si>
-    <t>{'response': '198- I agrer with the points mentioned in documents mentioned above. But we should look and think out of the box to reduce traffic. Bengaluru is having very good channel of Rail Tracks. Its just we are not looking or considering that channel. We can  think of running local trains between stations on at least hourly or half hourly basis (like Mumbai, Kolkata, Chennai etc.). This will reduce traffic on roads and will not incur extra costs of maintaining roads. Day by day population is increasing in Bengaluru. Local trains will help a lot not only today but in future also to reduce road traffic. \n', 'score': 0.6117430309831633}</t>
-  </si>
-  <si>
-    <t>{'response': '203- The bridges should be integrated.  The bottlenecks/Slow moving places should be identified.  The signals should be integrated.  100% Camera surveillance should be implemented.  The local transport timing should be strictly implemented with technologies like GPS, cashless ticketing, IOT etc., which will enable to reduce the no. of individual vehicles in the city.  Online payment of toll gate should be implemented.  Speed breakers should be minimized scientifically.  Traffic violation should be handled strictly \n', 'score': 0.6413500883611667}</t>
-  </si>
-  <si>
-    <t>{'response': '207- We need congestion charges on private vehicles like London has. No private vehicle can enter the core areas of the city without paying these congestion charges. This will help curb vehicles on important roads.  The metro needs accountability and last mile connectivity. Public cycle sharing systems should work like magic.  Moonshoots like pod taxis are a waste of the tax payers money and should be abandoned as soon as possible\n', 'score': 0.718630413385808}</t>
-  </si>
-  <si>
-    <t>{'response': '228- We could have separate lanes for two wheelers and others so two wheelers green signals can start a few seconds earlier and then for the rest.  This is being used in Chandigarh for cycle rickshaws. \n', 'score': 0.541720366715116}</t>
-  </si>
-  <si>
-    <t>{'response': '233- Please consider the following input to be included in the  Revised Master Plan(RMP) 2031, if you think it is relevant.  In Bangalore,  wherever we go, we find cable TV wires or internet wires loosely hanging on road sides from electric/telephone posts or trees. These cables are laid either by cable TV operators or internet companies. Cables are haphazardly pulled through tree tops and telephone/electric posts to houses/buildings. The left over or unused wires are rolled and kept hanging loosely. Among these there are plenty of unused wires, broken ones dangling touching heads of pedestrians. A child running carelessly or a two wheeler can get entangled with these wires and fall. These companies do not care to remove the old wires/unused wires, laid by them.    To me it seems, at the present scenario, none of the service providers have a secure stable method of carrying the overhead wires to consumers, other than using electric posts/telephone and trees. A stable infrastructure will be useful for both the companies and to their customers  Otherwise, in the years to come such wires will be on the increase creating mayhem, inconveniencing residents, pedestrians and vehicle drivers.     Suggest BBMP or any other agency to provide a permanent/stable infrastructure or  a special  bay for accommodating such cables/wires and rent it out to service providers.  None should be allowed to use electric post or trees for laying cables or internet  wires. You may consider including this item in the master plan, if not already included under any other heads.  Thanking you.  \n', 'score': 0.621494016703523}</t>
-  </si>
-  <si>
-    <t>{'response': '234- Please invest in building dedicated safe cycle tracks through out the city. Road/ traffic / parking problems will all become easy to solve. Imagine public taking cars for office a km away just because there are no footpaths or cycle paths and in turn causing , miles of traffic pile up on bad roads. One solution will solve many problems. Please lower your commission/profit targets and give citizens a chance to better life.\n', 'score': 0.6014069561274399}</t>
-  </si>
-  <si>
-    <t>{'response': '251- could have combine near by IT companies transportation.for example L&amp;T,Mindtree,UST all near bu companies.they all are using third party cab services.but independent cab services for each company.in each maximum 2 or 3 employers will be ther.My suggestion is Why cant we club near by IT companies transportation.anyhow companies workings time and all almost same.so if we can club the transportation atlset the cab will be full,less traffic,cost can share among by these IT companies . \n', 'score': 0.6321741161534981}</t>
-  </si>
-  <si>
-    <t>{'response': "260- One of the major problems faced in Bangalore is parking. Regardless of how well our roads are laid and how much effort our policemen put to regulate traffic, the basic need to park our car doesn't exist in Bangalore. People even park on busy roads and immediately jam traffic. It is important that BDA places high priority in identifying parking garages near Metro stations and bus terminals. Without which, any public transport system is bound to fail. Since public transport is not a door to door facility, it's important to help people park their vehicles safely while they avail the public transport. If these are rolled into a Metro payment card, it will enhance the attractiveness of taking public transportation.   The other area where BDA and our BTP can help with is to understand traffic patterns and proactively managing traffic lights. In many cases, until and after traffic piles up, people park haphazardly and drive erratically causing the traffic jams. Then when the traffic is piled up, cops try to sort it out. If we have policemen on beats ensuring vehicles are moving along and not blocking traffic early in the day, it could definitely help. \n", 'score': 0.6383632636873884}</t>
-  </si>
-  <si>
-    <t>{'response': '262- Reducing the 4 vehicle usage may reduce the traffic and increase the metro lines. bus transportation should be increased\n', 'score': 0.658710721253025}</t>
-  </si>
-  <si>
-    <t>{'response': '263- There be some Bus only routes and entire city to be covered by electric only buses. connectivity is a big issue in city and to airport and need to be properly connected possibly with open roof electric buses.\n', 'score': 0.6580476264592658}</t>
-  </si>
-  <si>
-    <t>{'response': '287- The following are basic reasons for traffic problems in the city:  1. Quality of roads 2. Non accountability of contractors for poor roads 3. Constant digging of roads 4. Poor patch work of roads 5. Delay in inspection of roads and hence greater damage 6. Lack of incentive to use public transport 7. Poor last mile connectivity 8. Major surge in taxi operators and hence 4 wheelers 9. Non existence of limiting vehicle ownership policy 10. Upsurge in 2 wheeler traffic 11. Lack of incentive to walk 12. Existence of corridors of converging traffic and narrowing roads 13. Traffic police is busy fining people than controlling traffic  Here are possible solutions to the above points:  1. Public Accountability of the contractor and the office responsible to ensure road quality - timely inspection and repair, minimum time guarantee being imposed,  usage of apps with location to be able to tag the location of problem and response mechanism along with auto escalation matrix   2. Build and Incentivise public transport use to major hubs of traffic movement - this includes safe and regular last mile connectivity options, incentivising walking via well kept footpaths, overhead bridges, cycle routes. Without last mile, people will still use private transport or autos and taxis   3. Phase out 3 wheelers and introduce 4 wheeler autos - the driving behaviour can be curtailed this way  4. Dedicated bus lanes and non private transport areas within the city - de congest rings to increase public transport utilisation  5. Phase out privately owned 2 wheelers. Only logistics organisations can own them. Provided subsidised public transport usage to this part of public.   6. Private organisations to be forced to implement no 2 wheeler policy.   7. Employ strict policing mechanisms to ensure smooth traffic flow. Move to digitally secure payments to disband bribes, AI And visual tech for infringement identification, safety driving mechanisms such as high pricing of insurance for drivers based on driving style  8. Identification of traffic flow to specific locations such as tech parks and regulate time of travel. E.g Manyata tech park can operate only after 11 am, while ITPL can operate starting 7 am. These can split peak traffic load  9. Relocation of tech parks to separate small townships that encompass a complete habitat. Will cause responsible development of the area. SEZs need to be identified to incentivise movement, affordable development to be undertaken \n', 'score': 0.6792628555067848}</t>
-  </si>
-  <si>
-    <t>{'response': '290- Public transport should be strengthened and incentivise people who are using public transport by means of tax waiver etc. Interconnectivity with different modes of transport must be made efficient. Footpaths and sky walks should be made GU i\n', 'score': 0.5944816714136313}</t>
-  </si>
-  <si>
-    <t>{'response': '291- Each shopping area should have multi level car parking. Also all metro stations should have parking for 200-500 cars\n', 'score': 0.6380488546081844}</t>
+    <t>{'response': '124- metro work is done very slowly.    due to metro constructions there is always huge traffic in the city\n', 'score': 0.5818135919086519}</t>
+  </si>
+  <si>
+    <t>{'response': '114- Connect metro rail to every corner\n', 'score': 0.5802770021147861}</t>
+  </si>
+  <si>
+    <t>{'response': '134- Construction is needed. More work on flyovers and metro should be done to reduce the traffic\n', 'score': 0.5497440856746879}</t>
+  </si>
+  <si>
+    <t>{'response': '29- (1) Like most cities in the world and now New Delhi, the metro and Bus must use pre-loaded smart cards for seamless travel. (2) Also Metro terminals must have seamless integration with Railway stations for ease of movement. Byiappanahlli must become a new Bengaluru east terminal and the (3) Bus terminal built next to it must be become operational for outstations buses. (4) Buses must not stop at the base of flyovers or bridges causing inconvenience to commuters and potential accidents.\n', 'score': 0.5433449080342629}</t>
+  </si>
+  <si>
+    <t>{'response': '230- The metro coverage and pace of completion is real concern\n', 'score': 0.5358603043918024}</t>
+  </si>
+  <si>
+    <t>{'response': '122- We need metro trains all over the city. Also, it should be a little cheaper.\n', 'score': 0.5354320846895692}</t>
+  </si>
+  <si>
+    <t>{'response': '191- Involve BMRTC Namma metro and have their future plan, also NHAI for considering new highways..\n', 'score': 0.530415576767036}</t>
+  </si>
+  <si>
+    <t>{'response': '22- Maximum road are in Bangalore 80 to 100 Feets only. In respect of population increased in Bangalore development is zero.\n', 'score': 0.480284371087985}</t>
   </si>
   <si>
     <t>{'response': '4- There should be analyzing committee to upgrade this plan based on changing needs which i dont see it here. It is needed because by the time this plan is approved there will be Some development and plan might need update.Plan with dates has to be put up. There should be a clear plan of when this plan will be approved, when each work will start and when each will close. \n', 'score': 0.27780967647412685}</t>
   </si>
   <si>
-    <t>{'response': '22- Maximum road are in Bangalore 80 to 100 Feets only. In respect of population increased in Bangalore development is zero.\n', 'score': 0.478397515079834}</t>
-  </si>
-  <si>
-    <t>{'response': '29- (1) Like most cities in the world and now New Delhi, the metro and Bus must use pre-loaded smart cards for seamless travel. (2) Also Metro terminals must have seamless integration with Railway stations for ease of movement. Byiappanahlli must become a new Bengaluru east terminal and the (3) Bus terminal built next to it must be become operational for outstations buses. (4) Buses must not stop at the base of flyovers or bridges causing inconvenience to commuters and potential accidents.\n', 'score': 0.5433449080342629}</t>
-  </si>
-  <si>
-    <t>{'response': '114- Connect metro rail to every corner\n', 'score': 0.5802770021147861}</t>
-  </si>
-  <si>
-    <t>{'response': '122- We need metro trains all over the city. Also, it should be a little cheaper.\n', 'score': 0.5354320846895692}</t>
-  </si>
-  <si>
-    <t>{'response': '124- metro work is done very slowly.    due to metro constructions there is always huge traffic in the city\n', 'score': 0.5818135919086519}</t>
-  </si>
-  <si>
-    <t>{'response': '134- Construction is needed. More work on flyovers and metro should be done to reduce the traffic\n', 'score': 0.5497440856746879}</t>
-  </si>
-  <si>
-    <t>{'response': '157- Check on feeder busses and metro too\n', 'score': 0.49625344493311485}</t>
-  </si>
-  <si>
-    <t>{'response': '191- Involve BMRTC Namma metro and have their future plan, also NHAI for considering new highways..\n', 'score': 0.5321865220180437}</t>
-  </si>
-  <si>
-    <t>{'response': '230- The metro coverage and pace of completion is real concern\n', 'score': 0.5358603043918024}</t>
+    <t>{'response': '189- not clear on how the existing ring roads will be expanded with constructions on both sides!\n', 'score': 0.8907360857389843}</t>
+  </si>
+  <si>
+    <t>{'response': '161- Peripheral ring road has been in the pipeline for ever.. metro construction has been at snails pace.. plan for 30 years ahead... \n', 'score': 0.6260845576799023}</t>
+  </si>
+  <si>
+    <t>{'response': '268- can be improvised with expansion of roads and if well planned\n', 'score': 0.6229558219487367}</t>
+  </si>
+  <si>
+    <t>{'response': '219- Wide roads are required in the residential areas around the IT tech parks. For example the Panathur main road which is the main connectivity road in the ECO space outer ring road is very narrow and this leads to daily traffic jams.\n', 'score': 0.6028294687951604}</t>
+  </si>
+  <si>
+    <t>{'response': '47- There are lot of inner roads like Haralur road developed a lot. Those roads are should be expanded and a frequent public transportation also should start\n', 'score': 0.6015327542327792}</t>
+  </si>
+  <si>
+    <t>{'response': '177- Expanding roads and building ring road is fine but the problem is maintainance of the roads. After the roads are built people dig/cut the roads which creates delays and traffic in addition to degrading the aesthetic view of the city. There should be some rules for digging/cutting the roads. Heavy fines should be imposed on the violators.\n', 'score': 0.5766492113714594}</t>
+  </si>
+  <si>
+    <t>{'response': '255- City admin and urban planners seem to forget bangalore roads have limited capacity and no matter how many more flyovers are added or existing roads are widened.. it will be able to catchup with the explosive growth in vehicular traffic. It will serve the residents better if urban planners can focus on optimal and judicious of this precious and limited resource - Roads!!!  In the absence of a strong public transport system , people rely on their private vehicle clogging the roads and resulting in wasted time, fuel, pollution and stress. This approach can continue forever without crippling bengaluru for ever.  While Metro contrsuction will take another decade to complete to cater to a significant chunk of the road traffic.. in the interim there is a need to implement  Introduction of BusLanes : For faster movement of BMTC buses on major roads  like ORR ,so that residents can make the shift to public transport. Congestion charges : On single occupant cars during peak house Last mile connectivity :  BMTC or other players should provide last mile connectivity for people to shed their cars in favour of public transport. Parking : Adequate parking spaces at Metro stations for Cars/Bikes\n', 'score': 0.5665044073926748}</t>
+  </si>
+  <si>
+    <t>{'response': '136- Widen the existing roads. Build more flyovers and under passes.syncronice the traffic signals. Aspalting and maintain periodically.\n', 'score': 0.5587175971164535}</t>
+  </si>
+  <si>
+    <t>{'response': '162- I am  suggesting decongest many roads like hebbal and many roads to decongest many roads from city to airport to city and vic a versa\n', 'score': 0.5541764746188104}</t>
+  </si>
+  <si>
+    <t>{'response': '137- Instead of flyover and bridges we need more of underpass and wide roads with tree plantation\n', 'score': 0.5444294743855044}</t>
+  </si>
+  <si>
+    <t>{'response': '172- Better roads and faster completion of ongoing project \n', 'score': 0.5395438545648651}</t>
+  </si>
+  <si>
+    <t>{'response': '153- Widen roads in CBD (like cottonpet &amp; Avenue road)\n', 'score': 0.537643951102478}</t>
+  </si>
+  <si>
+    <t>{'response': '272- Currently the existing roads are not enough to hold the vehicle. When extending the roads, pls plan for next 50 years and expand, the same think to be done while developing the new layout/place\n', 'score': 0.5333032538553247}</t>
+  </si>
+  <si>
+    <t>{'response': '53- Information above is far from reality, just we have to imagine, mainly many roads have to be potholes free, signals should be free from waiting for hours, many flyovers and underpass have to be constructed.\n', 'score': 0.5223696951600418}</t>
+  </si>
+  <si>
+    <t>{'response': "101- Old Road's development project are taken without planning for the existing traffic which is causing more problems, we'll pre-planned projects should be taken\n", 'score': 0.49593613592487956}</t>
+  </si>
+  <si>
+    <t>{'response': '105- I do not agree with the proposal to widen roads with out stating how rehabilitation is budgeted and managed for people who will be negatively impacted. Land Acquisitions must follow the Namma Metro model or the Delhi Metro model to ensure that people voluntarily and happily give away the properties for the larger interest of the city. But not by imposing paltry compensation or notional compensation\n', 'score': 0.49397670393988363}</t>
+  </si>
+  <si>
+    <t>{'response': '115- Very poor planning in case of construction as well as quality of roads. Hopefully whitetopping will do what you promise. But poor planning the roads are horrible and the bottleneck in kalyan Nagar area is very very bad.\n', 'score': 0.4587063332651677}</t>
   </si>
   <si>
     <t>{'response': '24- There needs to be more focus on existing infrastructiure\n', 'score': 0.41612597475975444}</t>
   </si>
   <si>
-    <t>{'response': '47- There are lot of inner roads like Haralur road developed a lot. Those roads are should be expanded and a frequent public transportation also should start\n', 'score': 0.6015327542327792}</t>
-  </si>
-  <si>
-    <t>{'response': '53- Information above is far from reality, just we have to imagine, mainly many roads have to be potholes free, signals should be free from waiting for hours, many flyovers and underpass have to be constructed.\n', 'score': 0.5223696951600418}</t>
-  </si>
-  <si>
-    <t>{'response': "101- Old Road's development project are taken without planning for the existing traffic which is causing more problems, we'll pre-planned projects should be taken\n", 'score': 0.49593613592487956}</t>
-  </si>
-  <si>
-    <t>{'response': '105- I do not agree with the proposal to widen roads with out stating how rehabilitation is budgeted and managed for people who will be negatively impacted. Land Acquisitions must follow the Namma Metro model or the Delhi Metro model to ensure that people voluntarily and happily give away the properties for the larger interest of the city. But not by imposing paltry compensation or notional compensation\n', 'score': 0.49116311092814363}</t>
-  </si>
-  <si>
-    <t>{'response': '115- Very poor planning in case of construction as well as quality of roads. Hopefully whitetopping will do what you promise. But poor planning the roads are horrible and the bottleneck in kalyan Nagar area is very very bad.\n', 'score': 0.4578236900212243}</t>
-  </si>
-  <si>
-    <t>{'response': '136- Widen the existing roads. Build more flyovers and under passes.syncronice the traffic signals. Aspalting and maintain periodically.\n', 'score': 0.5587175971164535}</t>
-  </si>
-  <si>
-    <t>{'response': '137- Instead of flyover and bridges we need more of underpass and wide roads with tree plantation\n', 'score': 0.5444294743855044}</t>
-  </si>
-  <si>
-    <t>{'response': '153- Widen roads in CBD (like cottonpet &amp; Avenue road)\n', 'score': 0.537643951102478}</t>
-  </si>
-  <si>
-    <t>{'response': '161- Peripheral ring road has been in the pipeline for ever.. metro construction has been at snails pace.. plan for 30 years ahead... \n', 'score': 0.6260845576799023}</t>
-  </si>
-  <si>
-    <t>{'response': '162- I am  suggesting decongest many roads like hebbal and many roads to decongest many roads from city to airport to city and vic a versa\n', 'score': 0.500607097709051}</t>
-  </si>
-  <si>
-    <t>{'response': '172- Better roads and faster completion of ongoing project \n', 'score': 0.5395438545648651}</t>
-  </si>
-  <si>
-    <t>{'response': '177- Expanding roads and building ring road is fine but the problem is maintainance of the roads. After the roads are built people dig/cut the roads which creates delays and traffic in addition to degrading the aesthetic view of the city. There should be some rules for digging/cutting the roads. Heavy fines should be imposed on the violators.\n', 'score': 0.5758730349482449}</t>
-  </si>
-  <si>
-    <t>{'response': '189- not clear on how the existing ring roads will be expanded with constructions on both sides!\n', 'score': 0.8907360857389843}</t>
-  </si>
-  <si>
-    <t>{'response': '255- City admin and urban planners seem to forget bangalore roads have limited capacity and no matter how many more flyovers are added or existing roads are widened.. it will be able to catchup with the explosive growth in vehicular traffic. It will serve the residents better if urban planners can focus on optimal and judicious of this precious and limited resource - Roads!!!  In the absence of a strong public transport system , people rely on their private vehicle clogging the roads and resulting in wasted time, fuel, pollution and stress. This approach can continue forever without crippling bengaluru for ever.  While Metro contrsuction will take another decade to complete to cater to a significant chunk of the road traffic.. in the interim there is a need to implement  Introduction of BusLanes : For faster movement of BMTC buses on major roads  like ORR ,so that residents can make the shift to public transport. Congestion charges : On single occupant cars during peak house Last mile connectivity :  BMTC or other players should provide last mile connectivity for people to shed their cars in favour of public transport. Parking : Adequate parking spaces at Metro stations for Cars/Bikes\n', 'score': 0.5687882630235795}</t>
-  </si>
-  <si>
-    <t>{'response': '268- can be improvised with expansion of roads and if well planned\n', 'score': 0.6229558219487367}</t>
-  </si>
-  <si>
-    <t>{'response': '272- Currently the existing roads are not enough to hold the vehicle. When extending the roads, pls plan for next 50 years and expand, the same think to be done while developing the new layout/place\n', 'score': 0.5333032538553247}</t>
+    <t>{'response': '42- Rather than stopping vehicle in the middle of the road and taking key from the vehicle Traffic police should me more friendly to all.But in the same they should be strict and should impose huge fines to one and all who violates traffic rules. Allow BMTC and department  approved vehicles during peak time which will reduce traffic upto an extent Put more buses on track where it feels more commuters traveling.\n', 'score': 0.6854401582587425}</t>
+  </si>
+  <si>
+    <t>{'response': '46- Need a quick effort from the authorities. I recommend taking a drastic action to reduce the number of vehicles in the city (including the peripheral roads) by the following recommendations: 1) impose a restriction / heavy permit charge for vehicles entering the city area 2) introduce more buses and streamline the flow - make the buses also bound by laws, dedicated bus lanes, no overtaking, speeding etc. 3) restrict movement of large vehicles, but prioritize those needed to move the infra development effort faster\n', 'score': 0.66315490660757}</t>
+  </si>
+  <si>
+    <t>{'response': "202- It's not about increasing number of buses or roads , it's all about people's mindset and attitude. For example BMTC authorities should be more disciplined in sticking to schedules , routes , returning change , commuters must not use private vehicles if it is a single person. In such cases heavy toll must be charged..\n", 'score': 0.6575172905996806}</t>
+  </si>
+  <si>
+    <t>{'response': "99- Bangalorean's perception of city traffic and use of road is like a villager's. It has not gone in to minds of people that this is a megacity and citizens have to behave responsibly. Traffic is a zoo in the city. Master Plan says increasing road density and number of buses. Previous master plans also did this. Did that help? We have ring roads smaller in width than side lanes. Ring roads on commercial complexes on either side. Mega marriage halls on ring roads with no parking basements. Basements in sanctioned plans but either no basement or that is used as shops with help of corrupt officials. BDA makes plan but BBMP sanctions plans for individual complexes, houses etc. My suggestion is start a massive campaign for educating public that this is a mega city and it is doomed if they drive and use private vehicles as they do now. Make parking expensive and put up banners for avoiding loud honks, driving without silencers, over speeding etc. On all main roads, close the medians so that erratic turning is avoided and make exit points atleast one km from each other. Make it compulsory for even high end schools to ferry children through school vans and prohibit their rich parents to ferry them in their Mercs, BMWs. \n", 'score': 0.6571911051505575}</t>
+  </si>
+  <si>
+    <t>{'response': "79- Well as you have mentioned regarding building hubs for heavy vehicles outside the city is a good plan.I would like to mention about the problems caused to the ambulances as well.Well its hard to construct a separate lane for ambulance, especially within the city.So how about painting one side of the road with one color which should be cleared by the people for an ambulance when it comes with a loud siren.which avoids confusion among people i.e, which side of the road to is to be left for the ambulance.Well i ain't know that how cool is this suggestion but at least a cop present there(at the signal) should clear the road in well advance for the ambulance in well advance and report to the next signal. Vip and politicians do get such road clearance right? Not much difference between them and an ambulance both are in hurry and also worried about their life.\n", 'score': 0.6467059405951588}</t>
+  </si>
+  <si>
+    <t>{'response': '132- Different bus terminals and truck terminals are ok. but the reason for traffic here in Bengaluru is the travellers are not following the traffic the traffic rules. Due to some extend the cops are not doing there proper work. Fine should be imposed heavily to make traffic rules compulsory. Make all these vehicles to follow the path &amp; use proper indicators , Use more patrol to make the public must follow traffic rules. Make a toll free number where a person can call and update on the issue over traffic and alone and the department has to reach the place within 5min of time.\n', 'score': 0.6446434579861979}</t>
+  </si>
+  <si>
+    <t>{'response': "84- Well it's a nice plan but it's not going to stop the traffic because people never stop buying vehicles it's better government restrict more vehicles,buy increasing the road tax(well every one has a car even if there annual income is below 6lakhs).I think government has to restrict buying of cars below certain income so that it may reduce the traffic and environment pollution\n", 'score': 0.6417937618226144}</t>
+  </si>
+  <si>
+    <t>{'response': '160- The roads are very narrow and the vehicles are so more that the road gets blocked and it gets jammed at Hebbal flyover...not only here but many other place and too...so firstly I would like to suggest to widen the roads \n', 'score': 0.6410514617928466}</t>
   </si>
   <si>
     <t>{'response': '1- Parking of vehicles on small roads 25 feet should be made on one/single side only to allow free movement of vehicles \n', 'score': 0.6338482713869374}</t>
   </si>
   <si>
+    <t>{'response': '119- You need to regulate the effective way of monitoring the traffic violates, have a heavy spot fine , have a massive check on sound pollution and emission check on all vehicles with a huge team including volunteer\n', 'score': 0.6298954508242195}</t>
+  </si>
+  <si>
+    <t>{'response': '12- Please have wider roads and dont allow vehicles to be parked on main/service roads.\n', 'score': 0.6271814498181923}</t>
+  </si>
+  <si>
+    <t>{'response': '58- We have necessary traffic rules but the public does not have the discipline to follow the rules. Driving license is given to people who have no understanding of traffic rules. and road signs. Parked vehicles take away half of some of our narrow roads. It is extremely frustrating to commute every day to work and back with many hours stuck in traffic  in highly polluted roads. Can we encourage our young people to use bicycles but also provide safe road to ride. I find it extremely difficult to cross a road. The vehicles are not aware of the Zebra lines. Pedestrians do get injured by vehicles.   A patient in an Ambulance has to be considered as the V V V V I P - all vehicles no matter who is in it should give way to the Ambulance.  \n', 'score': 0.6248749606470756}</t>
+  </si>
+  <si>
+    <t>{'response': '102- BMTC bus as well as other buses body size does not fit to enter certain road. Recheck illegal body size of the buses.\n', 'score': 0.6236270953376367}</t>
+  </si>
+  <si>
+    <t>{'response': '66- Safety of pedestrians should be given utmost importance, which is not the case today in Bangalore. All roads in the city must have continuous footpaths. No road in the city shall be built without footpaths (in places where there is a need for walking). Footpath should be included as a primary part of road construction. It should be like, road = road for vehicles + footpath. Please see the examples from developed countries. If you take up Germany as an example, a person can walk safely and without getting mud on the shoes almost anywhere in German cities. City development should be from a pedestrian first approach. Only then will people try to use public transport more. There should be safe road crossing facilities in all roads at locations where people need it.  Also please do not try to force impractical traffic rules. Traffic rules should be for the benefit of all, not for fining people more.  Thank you!\n', 'score': 0.6227949557548754}</t>
+  </si>
+  <si>
+    <t>{'response': '195- We know that till today no Government has fast paced anything. This looks good after next 10 years or 15 years. Not immediate solution. The need of the hour is to stop particular vehicles causing congestion in heart of the city.  For example in Mumbai, Autos are not allowed in all areas. The areas where high class people reside does not require Auto to ply. You can restrict same in Bangalore.  Next big thing is Yellow Cabs. Permissions are given to any body who can start service. Latest to include is TGYR cabs other than Ola and Uber.  Traffic checking is very poor. People without license, pollution certificate are allowed to ply causing Air Pollution and rash/hapazard driving.  Please look into stream lining current problems rather than showing Master Plan.\n', 'score': 0.603104827905063}</t>
+  </si>
+  <si>
+    <t>{'response': "241- All roads have a right turn and crossing the incoming traffic should have a central bifurcation of road, so that the vehicles wait in the bifurcation for right turn and don't obstruct the straight traffic.\n", 'score': 0.6018460336031011}</t>
+  </si>
+  <si>
     <t>{'response': '9- While no of buses will be increased there does not seem to be mention of any priority lanes which promote smoother movement of public vehicles as compared to private cars. Multi-modal concept is missing, which will promote people to easily switch between modes of transport including last mile connectivity using auto/2W.\n', 'score': 0.5953428161567375}</t>
   </si>
   <si>
-    <t>{'response': '12- Please have wider roads and dont allow vehicles to be parked on main/service roads.\n', 'score': 0.6271814498181923}</t>
-  </si>
-  <si>
-    <t>{'response': '42- Rather than stopping vehicle in the middle of the road and taking key from the vehicle Traffic police should me more friendly to all.But in the same they should be strict and should impose huge fines to one and all who violates traffic rules. Allow BMTC and department  approved vehicles during peak time which will reduce traffic upto an extent Put more buses on track where it feels more commuters traveling.\n', 'score': 0.6784011023889411}</t>
-  </si>
-  <si>
-    <t>{'response': '46- Need a quick effort from the authorities. I recommend taking a drastic action to reduce the number of vehicles in the city (including the peripheral roads) by the following recommendations: 1) impose a restriction / heavy permit charge for vehicles entering the city area 2) introduce more buses and streamline the flow - make the buses also bound by laws, dedicated bus lanes, no overtaking, speeding etc. 3) restrict movement of large vehicles, but prioritize those needed to move the infra development effort faster\n', 'score': 0.66315490660757}</t>
-  </si>
-  <si>
-    <t>{'response': '58- We have necessary traffic rules but the public does not have the discipline to follow the rules. Driving license is given to people who have no understanding of traffic rules. and road signs. Parked vehicles take away half of some of our narrow roads. It is extremely frustrating to commute every day to work and back with many hours stuck in traffic  in highly polluted roads. Can we encourage our young people to use bicycles but also provide safe road to ride. I find it extremely difficult to cross a road. The vehicles are not aware of the Zebra lines. Pedestrians do get injured by vehicles.   A patient in an Ambulance has to be considered as the V V V V I P - all vehicles no matter who is in it should give way to the Ambulance.  \n', 'score': 0.6248749606470756}</t>
-  </si>
-  <si>
-    <t>{'response': '66- Safety of pedestrians should be given utmost importance, which is not the case today in Bangalore. All roads in the city must have continuous footpaths. No road in the city shall be built without footpaths (in places where there is a need for walking). Footpath should be included as a primary part of road construction. It should be like, road = road for vehicles + footpath. Please see the examples from developed countries. If you take up Germany as an example, a person can walk safely and without getting mud on the shoes almost anywhere in German cities. City development should be from a pedestrian first approach. Only then will people try to use public transport more. There should be safe road crossing facilities in all roads at locations where people need it.  Also please do not try to force impractical traffic rules. Traffic rules should be for the benefit of all, not for fining people more.  Thank you!\n', 'score': 0.6139049395486628}</t>
-  </si>
-  <si>
-    <t>{'response': "79- Well as you have mentioned regarding building hubs for heavy vehicles outside the city is a good plan.I would like to mention about the problems caused to the ambulances as well.Well its hard to construct a separate lane for ambulance, especially within the city.So how about painting one side of the road with one color which should be cleared by the people for an ambulance when it comes with a loud siren.which avoids confusion among people i.e, which side of the road to is to be left for the ambulance.Well i ain't know that how cool is this suggestion but at least a cop present there(at the signal) should clear the road in well advance for the ambulance in well advance and report to the next signal. Vip and politicians do get such road clearance right? Not much difference between them and an ambulance both are in hurry and also worried about their life.\n", 'score': 0.6412781955798266}</t>
-  </si>
-  <si>
-    <t>{'response': "84- Well it's a nice plan but it's not going to stop the traffic because people never stop buying vehicles it's better government restrict more vehicles,buy increasing the road tax(well every one has a car even if there annual income is below 6lakhs).I think government has to restrict buying of cars below certain income so that it may reduce the traffic and environment pollution\n", 'score': 0.6417937618226144}</t>
-  </si>
-  <si>
-    <t>{'response': "99- Bangalorean's perception of city traffic and use of road is like a villager's. It has not gone in to minds of people that this is a megacity and citizens have to behave responsibly. Traffic is a zoo in the city. Master Plan says increasing road density and number of buses. Previous master plans also did this. Did that help? We have ring roads smaller in width than side lanes. Ring roads on commercial complexes on either side. Mega marriage halls on ring roads with no parking basements. Basements in sanctioned plans but either no basement or that is used as shops with help of corrupt officials. BDA makes plan but BBMP sanctions plans for individual complexes, houses etc. My suggestion is start a massive campaign for educating public that this is a mega city and it is doomed if they drive and use private vehicles as they do now. Make parking expensive and put up banners for avoiding loud honks, driving without silencers, over speeding etc. On all main roads, close the medians so that erratic turning is avoided and make exit points atleast one km from each other. Make it compulsory for even high end schools to ferry children through school vans and prohibit their rich parents to ferry them in their Mercs, BMWs. \n", 'score': 0.6584259470718193}</t>
-  </si>
-  <si>
-    <t>{'response': '119- You need to regulate the effective way of monitoring the traffic violates, have a heavy spot fine , have a massive check on sound pollution and emission check on all vehicles with a huge team including volunteer\n', 'score': 0.6298954508242195}</t>
-  </si>
-  <si>
     <t>{'response': "126- I have one suggestion to avoid tragic at peak times  As you know long back Delhi gov tried to implement even odd rule which is not that successful, however in Bangalore it will not work and yet we want to overcome the issue Here is my suggestion   We can try to implement 1car min 2persons at peak time, if any men coming in traffic alone in car then fine has to give and for women's you can just give warnings. from this we are trying to risk there freedom however if we try this only on trafficky areas like silk board etc   It will impact a lot and many empty cars will not come n struck in traffic, if they want to go office or home or some entertainment places they can go with there friends n family in 1 car.. And for worst case government can create one app so can the car owners can share there route in map if any riders are present they will get to ride in it for that if necessary involve money or some good credits like you did something to Bangalore u earn this something like that  One more advantage is we will get to save the petrol also \n", 'score': 0.5661190278614073}</t>
   </si>
   <si>
-    <t>{'response': '127- Please make the development of roads a high priority, because it affects the economy badly and for the culture of the city. Broader roads to be built which would be future ready to randomly accommodate the increasing migration to this city.. Being a silicon valley of India... It should portray the development like any other world class foreign cities... And also metro connectivity to airport is to be planned like in kuala Lumpur where u can check in your luggage from your metro station and the luggage would directly reach the flight... These types of things would make life more easy\n', 'score': 0.53837684639509}</t>
-  </si>
-  <si>
-    <t>{'response': '132- Different bus terminals and truck terminals are ok. but the reason for traffic here in Bengaluru is the travellers are not following the traffic the traffic rules. Due to some extend the cops are not doing there proper work. Fine should be imposed heavily to make traffic rules compulsory. Make all these vehicles to follow the path &amp; use proper indicators , Use more patrol to make the public must follow traffic rules. Make a toll free number where a person can call and update on the issue over traffic and alone and the department has to reach the place within 5min of time.\n', 'score': 0.6340116961311604}</t>
+    <t>{'response': '222- Requesting all concerned authorities to please plan ample space for parking vehicles &amp; separate way for ambulance.\n', 'score': 0.5632859031986066}</t>
+  </si>
+  <si>
+    <t>{'response': '277- One major reason for traffic jam in BLR lack of alternative road. There is often only one road for one particular area. No alternate road is oresent or if its there its too far. In other cities e.g.Pune there are multiple entry and exit points going into any area, spreading traffic evenly. With only single main entry/exit point all traffic is forced to pass through one choking point. For example, Panathur villege area has only one proper entry/exit from ORR. No small roads connecting inner gallis/roads. Everyone who wants to to in Panathur is forced through a small main road. In any other city there would have been multiple entry and exit roads planned for this area. Sadly BLR city planning didnot consider this while approving layouts. This neds to change.\n', 'score': 0.5511269455436675}</t>
+  </si>
+  <si>
+    <t>{'response': '127- Please make the development of roads a high priority, because it affects the economy badly and for the culture of the city. Broader roads to be built which would be future ready to randomly accommodate the increasing migration to this city.. Being a silicon valley of India... It should portray the development like any other world class foreign cities... And also metro connectivity to airport is to be planned like in kuala Lumpur where u can check in your luggage from your metro station and the luggage would directly reach the flight... These types of things would make life more easy\n', 'score': 0.5429309675109719}</t>
+  </si>
+  <si>
+    <t>{'response': "227- Although we have quite a lot money earning AC buses, Government vehicles are the ones that causes heavy traffic. You can check this during bandh or on the day of RTC dharna They don't stop the buses with discipline. These has to be streamlined.\n", 'score': 0.5423329072178256}</t>
+  </si>
+  <si>
+    <t>{'response': '148- I installed app and sent pics of wrong parking vehicles. Still i can find a different vehicles daily(since 1 year) at the same place. I think this move is waste of time for Citizens.\n', 'score': 0.5344685920793144}</t>
+  </si>
+  <si>
+    <t>{'response': '276- Everything Should not be only on Papers and Proposals. It should come in action quick. Seeing the rate of new vehicles getting registered in Namma Bengaluru. It will definitely be a nightmare to drive in the city by 2020. if nothing gets implemented, it will not be fit for living for sure. Also New technology should be implemented in development rather than using the same old techniques and skills. Work Contracts awarding should be centralized to one company instead of splitting it to many contractors, so that he can be questioned for any quality issues.\n', 'score': 0.5317309738746632}</t>
+  </si>
+  <si>
+    <t>{'response': '259- The city should have pedestrian friendly roads. Some parts of the city should be devoid of any vehicular traffic.\n', 'score': 0.49688275327131803}</t>
   </si>
   <si>
     <t>{'response': '139- Please ban honking in Bangalore and make Lane disciple mandatory. Also heavy penalties like 2 warnings and 3rd time wrong doer license cancelled for life and no alternative. Life ban on driving for people involved in accidents even a minor one. \n', 'score': 0.49501417735932846}</t>
   </si>
   <si>
-    <t>{'response': '148- I installed app and sent pics of wrong parking vehicles. Still i can find a different vehicles daily(since 1 year) at the same place. I think this move is waste of time for Citizens.\n', 'score': 0.5344685920793144}</t>
-  </si>
-  <si>
-    <t>{'response': '166- Before any organization touches any road for digging/repair, they need to have Traffic police plan and clearance. Currently Traffic is mess as White topping, BWSSB work, GAIL pipeline all are going together. Who makes plan like this with all together. Traffic police have their hands full. Yesterday all road going out of Babusapalya were blocked due to that. Who takes ownership of traffic???\n', 'score': 0.4914464165143852}</t>
-  </si>
-  <si>
-    <t>{'response': '195- We know that till today no Government has fast paced anything. This looks good after next 10 years or 15 years. Not immediate solution. The need of the hour is to stop particular vehicles causing congestion in heart of the city.  For example in Mumbai, Autos are not allowed in all areas. The areas where high class people reside does not require Auto to ply. You can restrict same in Bangalore.  Next big thing is Yellow Cabs. Permissions are given to any body who can start service. Latest to include is TGYR cabs other than Ola and Uber.  Traffic checking is very poor. People without license, pollution certificate are allowed to ply causing Air Pollution and rash/hapazard driving.  Please look into stream lining current problems rather than showing Master Plan.\n', 'score': 0.5997664679694119}</t>
-  </si>
-  <si>
-    <t>{'response': "202- It's not about increasing number of buses or roads , it's all about people's mindset and attitude. For example BMTC authorities should be more disciplined in sticking to schedules , routes , returning change , commuters must not use private vehicles if it is a single person. In such cases heavy toll must be charged..\n", 'score': 0.6475594288805528}</t>
+    <t>{'response': '166- Before any organization touches any road for digging/repair, they need to have Traffic police plan and clearance. Currently Traffic is mess as White topping, BWSSB work, GAIL pipeline all are going together. Who makes plan like this with all together. Traffic police have their hands full. Yesterday all road going out of Babusapalya were blocked due to that. Who takes ownership of traffic???\n', 'score': 0.4908644446836179}</t>
   </si>
   <si>
     <t>{'response': '215- This sounds like a good plan, please  implement \n', 'score': 0.323924880285993}</t>
   </si>
   <si>
-    <t>{'response': '222- Requesting all concerned authorities to please plan ample space for parking vehicles &amp; separate way for ambulance.\n', 'score': 0.5632859031986066}</t>
-  </si>
-  <si>
-    <t>{'response': "227- Although we have quite a lot money earning AC buses, Government vehicles are the ones that causes heavy traffic. You can check this during bandh or on the day of RTC dharna They don't stop the buses with discipline. These has to be streamlined.\n", 'score': 0.5423329072178256}</t>
-  </si>
-  <si>
-    <t>{'response': "241- All roads have a right turn and crossing the incoming traffic should have a central bifurcation of road, so that the vehicles wait in the bifurcation for right turn and don't obstruct the straight traffic.\n", 'score': 0.6018460336031011}</t>
-  </si>
-  <si>
-    <t>{'response': '254- What about the old vehicles?  Government vehicles are old and polluting.  The new BMTC buses are very bad and cannot be used by public.  With th new infrastructure planned above, there needs to be a regulation on the old vehicles.  Create more cycling paths - dont see this as a reality \n', 'score': 0.5768904485863703}</t>
-  </si>
-  <si>
-    <t>{'response': '259- The city should have pedestrian friendly roads. Some parts of the city should be devoid of any vehicular traffic.\n', 'score': 0.49688275327131803}</t>
-  </si>
-  <si>
-    <t>{'response': '276- Everything Should not be only on Papers and Proposals. It should come in action quick. Seeing the rate of new vehicles getting registered in Namma Bengaluru. It will definitely be a nightmare to drive in the city by 2020. if nothing gets implemented, it will not be fit for living for sure. Also New technology should be implemented in development rather than using the same old techniques and skills. Work Contracts awarding should be centralized to one company instead of splitting it to many contractors, so that he can be questioned for any quality issues.\n', 'score': 0.529733004404873}</t>
-  </si>
-  <si>
-    <t>{'response': '277- One major reason for traffic jam in BLR lack of alternative road. There is often only one road for one particular area. No alternate road is oresent or if its there its too far. In other cities e.g.Pune there are multiple entry and exit points going into any area, spreading traffic evenly. With only single main entry/exit point all traffic is forced to pass through one choking point. For example, Panathur villege area has only one proper entry/exit from ORR. No small roads connecting inner gallis/roads. Everyone who wants to to in Panathur is forced through a small main road. In any other city there would have been multiple entry and exit roads planned for this area. Sadly BLR city planning didnot consider this while approving layouts. This neds to change.\n', 'score': 0.5535040552612361}</t>
-  </si>
-  <si>
-    <t>{'response': '5- PEDESTRIAN MOBILITY must be designed and implemented in all traffic infrastructure. Policing a must at ward/BBMP level. Traffic rules enforcement is not to place cops for fine collection but save lives. Scientifically designed footpaths, pedestrian crossings, pedestrian traffic signals, zebra crossing, skywalks, long-skywalks from public transport transit points a MUST. Please collaborate with Israel/Japan/ Germany/ Singapore for design and have a profit-sharing model using public pedestrian works towards generating revenue for the city. \n', 'score': 0.5778899194368814}</t>
-  </si>
-  <si>
-    <t>{'response': '8- All the above are the big plans which we all know will not kick off. If you really want to do any change seriously, we can give you better solutions. All you need is to implement the present rules strictly. BTP even though doing a great job, there is a long way to go which is not being taken seriously. Ask me for solutions and i can give easy ways to ease the traffic problems. At the first place we need to ease the traffic problems and then think of eradicating it. Some sample suggesstions:  1) Uturn Management: where ever there is a uturn , the traffic is held up by rouge cab drivers occcupying all the lanes to take the u turn. All we need to do is setup a barricade  not to let them take that u turn unless they are in the right lane for it.  2) Bus bays: We need to create bus bays whereever they are not there. Using bus bays avoids the blockages by the BMTC buses near the bus stops. 3) Usage of Bus Bays: We are glad that we have bus bays in some areas. Unfortunately  none of the BMTC drivers use them. They fell that it is their right to block the road. Hosnetly if you set right the BMTC drivers by teaching them some road manners, 20% of Bangalore traffic issues will be resolved. Especially the Volvo drivers, just because they have a high end bus, they feel like they own the road. 4) Foot paths: Foot paths should be cleared of all the encroachments. Especially near the bus stops.   ETC ETC. A normal engineer working in Bangalore can give multiple suggesstions to de congest the city. Some dedication to implement them is all is needed.\n', 'score': 0.5911660303700809}</t>
-  </si>
-  <si>
-    <t>{'response': "14- Answer to the plan is :  the prevailing traffic conditions are NOT new. This pathetic condition has been there for years. if the authorities really want to do something, forget 2031. please please take steps to regulate traffic and fix the roads NOW, not next year, not in 2031, not in 2050. NOW.  by 2031 there will be no companies or jobs left in bangalore due to the pathetic infrastructure we have. People would prefer migrating to a different state where they can provide better infrastructure. Driving 2 hours to cover 7 kms is the state of roads and traffic we are in now and we are planning for 2031 ????  when the authorities couldn't solve issues all these years, what will they do in 2031? so, all this master plan seems so fake... and there is no substance in this. sorry. \n", 'score': 0.5750373251371003}</t>
-  </si>
-  <si>
-    <t>{'response': '16- The earliar CDP has not been implemeted with respect to Road widening, and you change in the new CDP you have made broder just to harass without sintific approach and practically seeing the situation of the roads proposed width and where it statrs and ends.\n', 'score': 0.5393483822521206}</t>
+    <t>{'response': "150- The focus should be on traffic flow rather than road widening which is a never ending cycle. If people drive in wrong direction and don't follow lanes for turning left or right then any length of width of roads is insufficient. There should be a drive to educate people and enforcement to follow traffic rules. The speed of vehicular movement is slowed down by unauthorized parking on any spot including near the turns, pedestrians crossing every where, vehicles coming in wrong direction, vehicle turning right from the left most lane and left from the right most lane leading to chaos on turnings, very slow movement on traffic signals, un-managed auto movements in every direction. The planned infrastructure looks good on paper but it cannot be sustained without people participation and for that discipline and enforcement is the basic need that is prevalent in every developed country except in India. The master plan should also include a chapter how they plan to handle this basic issue which will increase further with additional number of vehicles on road if not tackled properly. In that case any amount of modern infrastructure will just add to chaos on the roads.  Also, when granting permission to build multistory apartments on narrow lanes of the outer areas, capacity of the roads should be measured and only appropriate number of buildings be allowed or the road capacity should be increased beforehand as it is next to impossible to demolish and residential apartment or other buildings at a later stage and residents have to suffer the never ending traffic blockages throughout the day.  There is no mention of handling this issue in the plan. You may have multiple ring roads but if the roads connecting to these and and other major roads in the city are so congested it will take hours to reach the main roads from small narrow by lanes. There is no concept of parallel roads in Bangalore and everyone has to pass through same main road example outer ring road or Whitefield road and all other roads leading to these are very narrow.\n", 'score': 0.6809112982497568}</t>
+  </si>
+  <si>
+    <t>{'response': '240- Building roads alone will not fix the traffic issue. There are tonnes of other problems and trouble makers on the road. Fix those issues first. People riding/driving in one ways and in the opposite direction of traffic, illegally parked vehicles, street hawkers and vendors, slow moving vehicles in the fast lane, lack of discipline... I could go on.\n', 'score': 0.6653056797407528}</t>
+  </si>
+  <si>
+    <t>{'response': '270- The time scales for addressing the traffic and congestion problem is not there. Inadequate parking facility and ways to address that is missing. Park and ride facility should be a norm and reducing traffic in central business district might be considered. Heavy vehicles entrance to city should be controlled. Bottlenecks in traffic flow like KR Puram bridge, Indira Nagar, and many such areas are immediate concerns and needs quick response.\n', 'score': 0.6535124117914674}</t>
+  </si>
+  <si>
+    <t>{'response': '279- Heavy use of technology for traffic management. Sensor based signalling system, clear road markings, removal of road hazards for e.g. unscientific speed bumps, unplanned dividers, barricades, creation of multi-level parking, foot-over bridge at regular interval, proper feeder network to metro and emphasis on last mile connectivity.\n', 'score': 0.6342999743549568}</t>
+  </si>
+  <si>
+    <t>{'response': '60- The local BMTC count should not be increase so much. Karnataka Transport Department has proposed slab rates based on the cost of the car, this is not good. Government should not fix these rates I feel. We should try to make use the existing railway tracks to start local trains wherever possible with in Bangalore. Strict punishment or fine should be put on those who are breaking traffic rules. Government should make more Mobile apps and websites so that Public can post complaints if they see somebody breaking the traffic rules.\n', 'score': 0.6322401647953638}</t>
+  </si>
+  <si>
+    <t>{'response': "223- I am sure the responses for this segment would be in the thousands. Basics: 1. Remove illegal speed breakers and proper marking on Speed Breakers. Most breakers are not visible until you are almost upon them, especially at night 2.a. On major roads like the ORR, have a 3 ft hedge of shrubs on the divider. This will increase greenery, plus helps night driving as the opposite high beam does not blind drivers. Will reduce night accidents 2.b. Alternatively setup proper signals at major crossings like Kalamandir, JP Morgan, Oriental College etc., to ensure safe crossing for pedestrians. 3. Build FOB at all major pedestrian crossings and setup grills on the divider (at least 150m on each side of the FOB) in the middle to ensure pedestrians will definitely take the FOB 4. Monitor and close gaps forcibly created in dividers by 2 wheelers for a quick U turn. 5. Have small (fixed traffic cone type) dividers setup near turns so that those who need to turn will go into the correct lane and not obstruct the traffic going straight by occupying all the lanes 6. Remove the compulsory helmet rule as it is only facilitating traffic cops to make a quick buck. Taking care of their safety is the rider's responsibility and not the traffic department's. The seat belt and helmet rules are useless in the current Indian mindset. The cops should instead focus on stopping and penalizing those who break other traffic laws like jumping a red light, driving in the opposite lane, etc. as these could prove harmful to other drivers who are following traffic rules. 7. Use good quality material for tarring or white-topping roads, so that they last longer and allow traffic to flow smoothly. I feel that at least 40% of the traffic jams in Bengaluru will be avoided, if the roads are in good condition.\n", 'score': 0.6301771993745469}</t>
+  </si>
+  <si>
+    <t>{'response': '267- Request to sync the traffic signal across main corridor of city.., it will help commuters to move without stopping frequently at every junction, considering syncing speed of 30kmph .\n', 'score': 0.6292193508643749}</t>
+  </si>
+  <si>
+    <t>{'response': '289- Start with enforcement of traffic laws... make roads walkable by enforcing crossing and observance of foot paths, levy heavy fines for blocking the intersection due to red lights. prohibit unnecessary honking and traffic in residential areas. Keep separate lanes for motorcycles, scooters and rickshaws\n', 'score': 0.626057014225185}</t>
+  </si>
+  <si>
+    <t>{'response': '65- Need strict implementation of obeying traffic rules, keeping the lane. Sometimes traffic signals causes jams. Every signal needs to be studied to see if it is causing jam, how many actual seconds of each lane traffic and pedestrian crossing is required. This can avoid unnecessary jams at the signals.\n', 'score': 0.6234107590775689}</t>
+  </si>
+  <si>
+    <t>{'response': '87- Traffic problems make our lifes in HELL.Mainly this is due to the absense\\not assigned traffic polices in some areas .Traiffic polices present in main roads and can see them only in first and last week of every months(might be showing or meeting their targets)\n', 'score': 0.6214595683804524}</t>
+  </si>
+  <si>
+    <t>{'response': '178- It is not very clear in what way they are going to widen the roads identified in the master plan. What is the strategy to curb construction of multistory complexes and the  traffic generated by them adding chaos and traffic jams (example: Manyata park and other such IT complexes). In order to reduce congestion it is very important to decentralize the activity centers like whole sale markets, vegetable markets, other such activities. There is not much information of traffic management systems.\n', 'score': 0.6187742316712355}</t>
+  </si>
+  <si>
+    <t>{'response': '167- 1. If people/commuter can identify and alarm the system, for the offenders, a lot of violation can be taken care. e.g, I can capture (video etc.) and upload to the authority and they penalizes the offender, basis the offense done. This way a personnel need not be deployed on junctions and breathe smoke. 2. If the bus/auto stands can be moved out of roads, probably on an elevated station, out of the roads can avoid stopping/slowing of traffic, this can also help authority to do away of the speed breakers. 3. A lot of vehicles, mostly cab drivers, drives on high beam on their headlights which causes a lot of distraction for the fellow commuters. 4. Riders/Drivers should be educated on usage of horns, many honks without any reason and causes distress for the fellow commuters.  Can explain all these points and many more in details, if these are worth a workable points \n', 'score': 0.6142449042539304}</t>
+  </si>
+  <si>
+    <t>{'response': '173- Accidents happen to the active breadwinner of the family, loss of such life spells a disaster for the family. 1. Strict enforcement of traffic rules and violaters should be penalized. 2. CCTV at all points and ward wise traffic control rooms, thereby minimising the physical need for traffic constables. 3. Educating all the drivers while procuring the license itself which should be made compulsory and visits to Hospital or video recording of accident victims. 4. Lane discipline should be followed. 5. Roads should be of good standards, proper warning to be displayed if there were some repairs of the roads or potholes. 6. Cases of traffic violation to be disposed off as soon as possible, long delay in judiciary is bound to embolden the offenders. 8. Roads should have prelaid pipes for cables and water or drain , or gas pipes, frequent digging to be avoided. 8. Any digging subsequent to proper laying of the road should be penalized or the charges levied for such activity should be so high that it itself will be deterrent.\n', 'score': 0.6137633576717318}</t>
+  </si>
+  <si>
+    <t>{'response': "92- With the plan on paper, it's a good plan. The the problem arises in the implementation of the plan. The progress speed and the quality of work provided. We should aim that whatever is being constructed now, may it be roads or anything should easily last for next 20 years. That should be the aim, try to do all the work in the night time, so it's less traffic in the day time.\n", 'score': 0.610134008828693}</t>
+  </si>
+  <si>
+    <t>{'response': '62- Spending on ring roads and signal free corridors and ramp intersections is one thing, enforcing traffic rules and making sure that it is strictly followed is another. There needs to be more focus on better planned roads and pavements - yes but equal focus must be given towards improving traffic police conditions and more traffic patrolling to ensure that rules are followed. Stricter motor vehicle license tests and proper training for public transport vehicle operators, drivers and private cabs must be put in place along with clear speed limit signs throughout the road network. Not to forget clear lane markings, proper maintenance of roads and making sure that the road works are carried out effectively is also essential and severely lacking at the moment. Parking management is again very crucial. Illegal parking on junctions with underpasses and street markets that are illegally set up on pavements and other main roads must be discouraged with pro-activeness. Also, most new areas that are developed have no proper planning of roads - most cross roads are dead-ends and have no adequate connectivity. There must be properly designed footpaths for pedestrians to encourage local commute on foot for short trips. With dead-end roads without allowance for even foot journey, the most convenient choice is obviously personal vehicles. Lack of parking facilities means vehicles are parked on roads blocking traffic movement and hence more congestion. Restricting parking without providing alternatives is a pointless thing to do. Enforcing these basic things and emphasis on pedestrian and cycle commutes are a great way to build smart cities.\n', 'score': 0.6099010229644259}</t>
+  </si>
+  <si>
+    <t>{'response': '63- As the bangalore population keeps on increasing we need to focus on proper usage of existing road infrastructure. Heavy rules and fines  need to be imposed on people not following it. Infrastructure need to be made to support rules. Make mini BMTC buses to easy maneuverability. Have good lane discipline. Create right infra to avoid traffic on merging and dividing traffic. Put more traffic places in high congestion areas all over bangalore. \n', 'score': 0.609107674561012}</t>
+  </si>
+  <si>
+    <t>{'response': '264- Below factors aggravate traffic problem in the city - a)Traffic violations by auto, cabs in a menace 2) Lack of substantial CCTV surveillance 3) No prior information about road blocks or redirection to public. 4)Lack of proper planning when it comes to road works\n', 'score': 0.6043476656277288}</t>
+  </si>
+  <si>
+    <t>{'response': '74- how is the current traffic situation being handled while new development happens? I already see the white topping and the metro development is triggering gaping holes and ensuring roads are clogged throughout the day.  Atleast, plan things in a way that all the development does not happen at once and you pick things up in parts. so that the impact is regionalised and people can opt for alternate routes.\n', 'score': 0.6035655947271509}</t>
+  </si>
+  <si>
+    <t>{'response': '184- road dividers should not be opened in between to ramp up city speed. this in mid road dividers results in traffic due to no signals and no traffic controller.\n', 'score': 0.60353560999948}</t>
+  </si>
+  <si>
+    <t>{'response': '171- These BMTC buses always stops at diagonal of the road blocking all the traffic, yes ALL the traffic that too at junction which is very painful. You dont need to wait till 2031 or new busstation to fix this small issues as it needs small education and tight monitoring of the driver patterns.\n', 'score': 0.6015628198287541}</t>
+  </si>
+  <si>
+    <t>{'response': '40- The most common sight on the road is of the slowest moving vehicles like autos, goods vehicles, LORRIES, CONTAINER LORRIES, All driving on the right side of the road. This causes a huge disrupsency to the traffic. The right side is for the fast moving vehicles. The slow moving traffic should stay on the left. Bangalore traffic does a good job to catch those vehicles that are overspeeding but what about those who go very slowly and cause traffic block to everyone else. That is equally important. Please fine the people causing traffic jams as well. Without these steps, our city will never be congestion free. It’s a shame that the first thing that anyone relates to when they think of Bangalore is the traffic jams here. It’s very sad to hear as a bangalore citizen. Without some strict actions being taken, we will spend most of our lives sitting in traffic jams and wasting time.   I am sure there will be good agencies available to help in finding ways to reduce traffic jams in our city. That is the need of the hour currently. Please take it seriously. \n', 'score': 0.6013755757488757}</t>
+  </si>
+  <si>
+    <t>{'response': '159- Roads need to maintain well then link roads may be help to control traffic wherever it is necessary...\n', 'score': 0.5982468213097759}</t>
+  </si>
+  <si>
+    <t>{'response': '5- PEDESTRIAN MOBILITY must be designed and implemented in all traffic infrastructure. Policing a must at ward/BBMP level. Traffic rules enforcement is not to place cops for fine collection but save lives. Scientifically designed footpaths, pedestrian crossings, pedestrian traffic signals, zebra crossing, skywalks, long-skywalks from public transport transit points a MUST. Please collaborate with Israel/Japan/ Germany/ Singapore for design and have a profit-sharing model using public pedestrian works towards generating revenue for the city. \n', 'score': 0.5970470553338308}</t>
+  </si>
+  <si>
+    <t>{'response': '231- Need to plan all constructions properly as the entire city is dugged up throughout the year. The condition of roads cause more traffic and traffic police needs to be more strict with people not obeying traffic rules.\n', 'score': 0.5925058042409548}</t>
+  </si>
+  <si>
+    <t>{'response': '31- I am concerned about all the new construction and whether it will cause more traffic than is already there. BBMP has to find a way to do that somehow. \n', 'score': 0.5904392329764732}</t>
+  </si>
+  <si>
+    <t>{'response': '8- All the above are the big plans which we all know will not kick off. If you really want to do any change seriously, we can give you better solutions. All you need is to implement the present rules strictly. BTP even though doing a great job, there is a long way to go which is not being taken seriously. Ask me for solutions and i can give easy ways to ease the traffic problems. At the first place we need to ease the traffic problems and then think of eradicating it. Some sample suggesstions:  1) Uturn Management: where ever there is a uturn , the traffic is held up by rouge cab drivers occcupying all the lanes to take the u turn. All we need to do is setup a barricade  not to let them take that u turn unless they are in the right lane for it.  2) Bus bays: We need to create bus bays whereever they are not there. Using bus bays avoids the blockages by the BMTC buses near the bus stops. 3) Usage of Bus Bays: We are glad that we have bus bays in some areas. Unfortunately  none of the BMTC drivers use them. They fell that it is their right to block the road. Hosnetly if you set right the BMTC drivers by teaching them some road manners, 20% of Bangalore traffic issues will be resolved. Especially the Volvo drivers, just because they have a high end bus, they feel like they own the road. 4) Foot paths: Foot paths should be cleared of all the encroachments. Especially near the bus stops.   ETC ETC. A normal engineer working in Bangalore can give multiple suggesstions to de congest the city. Some dedication to implement them is all is needed.\n', 'score': 0.5880921315939859}</t>
+  </si>
+  <si>
+    <t>{'response': '190- Half of the traffic related problems can be solved simply by providing good, long-lasting roads, and by completing all ongoing infrastructure tasks in a time-bound fashion. \n', 'score': 0.586957925993152}</t>
+  </si>
+  <si>
+    <t>{'response': "14- Answer to the plan is :  the prevailing traffic conditions are NOT new. This pathetic condition has been there for years. if the authorities really want to do something, forget 2031. please please take steps to regulate traffic and fix the roads NOW, not next year, not in 2031, not in 2050. NOW.  by 2031 there will be no companies or jobs left in bangalore due to the pathetic infrastructure we have. People would prefer migrating to a different state where they can provide better infrastructure. Driving 2 hours to cover 7 kms is the state of roads and traffic we are in now and we are planning for 2031 ????  when the authorities couldn't solve issues all these years, what will they do in 2031? so, all this master plan seems so fake... and there is no substance in this. sorry. \n", 'score': 0.5857520396270701}</t>
+  </si>
+  <si>
+    <t>{'response': '52- Traffic is the biggest challenge for all Bangaloreans. The state government should work at a war footing speed to resolve the burning  problem we Bangaloreans face every day. The government apathy and insensitive further worsen the situation. \n', 'score': 0.5855375611620711}</t>
+  </si>
+  <si>
+    <t>{'response': '280- Good thought, however I think we can increase metro connections to the old city areas which will reduce the general traffic drastically.\n', 'score': 0.5811385817024268}</t>
+  </si>
+  <si>
+    <t>{'response': '145- To avoid traffic Road should be widend also reducing unnecessary humps nd making sufficient parking \n', 'score': 0.5777705776300159}</t>
+  </si>
+  <si>
+    <t>{'response': '239- Metro work is too delayed and till the time it will be completed there will be chaotic situation in the city, pollution and traffic is already at peak, how are we going to deal till then?\n', 'score': 0.5767410486018011}</t>
+  </si>
+  <si>
+    <t>{'response': '113- There seems to be no article about signal free junctions for current peak traffic areas\n', 'score': 0.5749782780990634}</t>
+  </si>
+  <si>
+    <t>{'response': '149- The traffic authorities should also be involved actively to introduce penalties offences that are not currently in place. The authorities must also put an effort in booking the offenders. Lot of traffic jams happen because of lane disciplines not being followed, signals being jumped and people flouting many such traffic rules. Greater effort should be put in identifying such offences and the penalty amounts for such offences must be made very steep. The licenses of repeat offenders must be suspended. \n', 'score': 0.5742695802811415}</t>
+  </si>
+  <si>
+    <t>{'response': '72- Majority of the traffic issues are due to poor driving skills and not following traffic discipline \n', 'score': 0.5735675326523034}</t>
+  </si>
+  <si>
+    <t>{'response': '216- Poor management by traffic cops. They do not regulate traffic... they only stand in groups by the roadside,  chatting &amp; drinking tea. They pounce on vehicles even if no rule is broken, &amp; threaten with high fines, thereafter pressurise the drivers/owners to pay a lesser amount,  without receipts. If this style is stopped and they do their job sincerely,  traffic would improve considerably. It requires a sea change in attitude of an entire generation of cops.\n', 'score': 0.5704878848660362}</t>
+  </si>
+  <si>
+    <t>{'response': '218- I know our cops are doing the best appreciate that but every one has to reach before time. It will be great if we follow the traffic like the other countries do follow a lane and continue the same till you cross the road and maintain a speed limit \n', 'score': 0.5695242257098218}</t>
+  </si>
+  <si>
+    <t>{'response': "96- Should reduce the police checking in every corners.. that makes lot of traffic blocks as well. And build parking areas as well .. so that people won't park on roadside.. \n", 'score': 0.5665003604028706}</t>
+  </si>
+  <si>
+    <t>{'response': '181- Please put a traffic cameras to study the traffic conditions, all traffic lights timeouts should be based on real time feeds and not on time based timeouts, this only increases traffic, ensure that potholes are duly filled on time\n', 'score': 0.5634966538438073}</t>
+  </si>
+  <si>
+    <t>{'response': '34- A well implementation of discipline will help a better commuting.  1. Strict enforcement of traffic laws. 2. Parking/ No Parking Zones defined should be strictly controlled. 3. Enforce people to follow lanes strictly 4. Make roadside parking only with payment to BDA/ BBMP 5. Promote paid parking in areas where sufficient parking spaces are not available. Provide expert agencies to handle paid parking. 6. Traffic violators should be tracked - both vehicle number and licence number. 7. Recommend to increase the insurance premium in the subsequent premium payment for violators.  Implementation of these international rules will improve the journey speed.\n', 'score': 0.562997456924354}</t>
+  </si>
+  <si>
+    <t>{'response': '90- You have ignored the prominent issues, There should be flyover from Hope farm till varthur kodi , also from Varthur kodi to cross Varthur. Its already saturated and government is planning to widen the road of varthur to varthur kodi. It will not solve the purpose. I think 1 flyover can solve this problem at varthur kodi junction.  Flyover from Hope farm till varthur kodi if you are thinking of future else it will be mess as you might build just bridge or underpass at hope farm, it will solve the short term problem not the long term. Density of popluation in whitefield working in IT/ITES/ manufacturing is quite high. You need to think ahead of 10 years.  I felt bad when i see the current situation where even 1 underpass at kundlahalli takes years . How will you achieve the infra problem.  There should be peripheral metro also to connect the city which will solve 2 problems traffic, pollution . Like - Whitefield to Electronic city, Electronic city to Nagwara, and hebal to whitefield. That is the only way to control the traffic mess.  You also need to implement other feeder systems like Rapid transport . I am sure people are ready to pay as we know the everyday struggle to reach to office.  Few proposals you should pay attention rather than discarding :)  1. Peripheral metro to connect the city as city expand , it will be more mess. That one should not ignore. ( This is the best solution to solve long term problem not the roads) 2. Build Nice road - Electronic city to Whitefield and whitefield to Hebal.  3. Flyover from hope farm to varthur kodi to Varthur  , It getting messier 4.Rapid transport - Pod taxis - ( it can be implemented at congested places)- Proposed but need some action on ground.  5. More training to traffic cops as i find them uneducated about the congestion of traffic.  6. Kundlahalli junction underpass pending from last 5 years ( if we cant build 1 flyover ,how we will improve the infra )  7. Underpass or overbridge at yamlur signal. Its not managable by traffic cops now. I am sure no one paid the attention also.  8. Tin factory - k.r. puram till 100 feet road indranagar, ( need to have less signals )   9.Also underpass at HAL signal ,ISRO signal and Leela palace . It is proposed but need to be implemented quickly otherwise it will loose its importance.    I stay in this part of city east part of city and travel to Indranagar from Whitefield.  These are few suggestions which you can look upon. \n', 'score': 0.5596756025863665}</t>
+  </si>
+  <si>
+    <t>{'response': '39- The last mile from metro needs to be addressed with different methods. One of them could be to provide huge 2 wheeler parking space at metro stations. We are predominantly a 2 wheeler majority country. If this characteristic of the population is used effectively, this can be a high impact solution to the traffic issue. People will start using metro by default, bringing down the traffic congestion.\n', 'score': 0.5502068406731876}</t>
+  </si>
+  <si>
+    <t>{'response': '226- I feel the law enforcement is very low in Bangalore overall, for example when a commercial complex is built, no measure taken by the BBMP or BDA before approving it, least bothered about the parking space is available for the multi storied buildings, the residents end up parking on the footpaths and on the roads, you can see this culture everywhere in bangalore, people build independent houses but park their cars/bikes on the roads, there is no safety measures taken for the people walking, they are forced to walk on the roads risking their safety. What about elders and kids, where they walk? where are the footpaths? even a medical shop puts their bill board on the footpath, footpaths are not meant for people to walk, I think this is a serious issue in Bangalore. I do not see this point in your master plan.\n', 'score': 0.5495586606480358}</t>
+  </si>
+  <si>
+    <t>{'response': '108- Please bring some strict actions and rules so that in one home only one car and one 2 wheeler to be used which in turn reduces the traffic as there would be no one using a car for a single occupancy.\n', 'score': 0.5488358640964583}</t>
+  </si>
+  <si>
+    <t>{'response': "197- The question is of quick evacuation of traffic &amp; how. Vehicular population will keep growing. So, we need multi layer uninterrupted traffic flow underground. This is an expensive solution, but is good for the next 25-50 years. Longer distance traffic will not disrupt short distance vehicles &amp; vice versa. Entries/exits can be planned every km. Availability of space is not an issue at all. All areas under existing roads can be used &amp; more. We don't have to cut down trees. In addition gardens &amp; playing areas, garbage disposal, sewage treatment etc can be planned. PLASTIC SHOULD DEFINITELY BE BANNED.\n", 'score': 0.5460168916050055}</t>
+  </si>
+  <si>
+    <t>{'response': '16- The earliar CDP has not been implemeted with respect to Road widening, and you change in the new CDP you have made broder just to harass without sintific approach and practically seeing the situation of the roads proposed width and where it statrs and ends.\n', 'score': 0.5430539006393547}</t>
+  </si>
+  <si>
+    <t>{'response': '284- Pretty decent plan this. However, the most important thing is to take care of the quality of build. Any construction should withstand for at least 10 years. This also means that the plan should include the increase in traffic towards the end of 10 years before the maintenance phase takes its turn.\n', 'score': 0.5399219615113218}</t>
+  </si>
+  <si>
+    <t>{'response': '144- Ramamurthinagar nagar Channasandra bridge is a known place for traffic jam and there was a plan proposed for parallel bridge but it is not initiated .  Even other areas like KR PURAM , MARATHAHALLI , \n', 'score': 0.5397310550115048}</t>
+  </si>
+  <si>
+    <t>{'response': '130- More than anything else main 2 things are to b kept in mind and implemented.  1. Foot over bridges to b made with a different design and with less number of steps on all the major traffic prone roads - but shd see that invariably lift or escalator is installed failing which the purpose of making the bridge will b defeated.  2. Almost all the main junctions where 3 or 4 roads meet traffic signals are to b installed with proper syscronization and with sensors to automatically change the lights if traffic is less at any point of time . In addition to this there shd b pedestrian crossing signals which again will b syscronized with the main traffic signals. Lastly if at all they r planning to reduce the congestion , like in other countries flyovers are to b built in above the other to lead the traffic to different destinations \n', 'score': 0.5341363705225859}</t>
+  </si>
+  <si>
+    <t>{'response': '25- Any new residential or commercial development needs to have traffic assessment done and approved. Approvals should consider infrastructure to accommodate new traffic generated by development and if infrastructure can handle it. Capability of the development to accommodate parking within itself should also be given prime importance.\n', 'score': 0.5312193443064542}</t>
+  </si>
+  <si>
+    <t>{'response': '278- The govt. should be strengthen the traffic rules and make the people abide them. And at the same time it is our responsibility to follow the rules for our own benefit.\n', 'score': 0.5305222494356889}</t>
   </si>
   <si>
     <t>{'response': '23- Join the remaining part of nice road to reduce the the traffic flow in City.\n', 'score': 0.5173158193381048}</t>
   </si>
   <si>
-    <t>{'response': '25- Any new residential or commercial development needs to have traffic assessment done and approved. Approvals should consider infrastructure to accommodate new traffic generated by development and if infrastructure can handle it. Capability of the development to accommodate parking within itself should also be given prime importance.\n', 'score': 0.5289388653777993}</t>
-  </si>
-  <si>
-    <t>{'response': '31- I am concerned about all the new construction and whether it will cause more traffic than is already there. BBMP has to find a way to do that somehow. \n', 'score': 0.5904392329764732}</t>
-  </si>
-  <si>
-    <t>{'response': '34- A well implementation of discipline will help a better commuting.  1. Strict enforcement of traffic laws. 2. Parking/ No Parking Zones defined should be strictly controlled. 3. Enforce people to follow lanes strictly 4. Make roadside parking only with payment to BDA/ BBMP 5. Promote paid parking in areas where sufficient parking spaces are not available. Provide expert agencies to handle paid parking. 6. Traffic violators should be tracked - both vehicle number and licence number. 7. Recommend to increase the insurance premium in the subsequent premium payment for violators.  Implementation of these international rules will improve the journey speed.\n', 'score': 0.5420616746402703}</t>
+    <t>{'response': '82- Adoption of smart traffic road\n', 'score': 0.5139820436212446}</t>
+  </si>
+  <si>
+    <t>{'response': '188- One way to check traffic\n', 'score': 0.5133227148471816}</t>
+  </si>
+  <si>
+    <t>{'response': '169- While so much is being done for us, we as a citizen should also have responsibility. What is the measure taken to stop citizens from following wrong traffic rules like going on one ways, talking on mobile while in a two wheeler, not following signals. How do we change the mindset. People only want to rush irrespective of what happens behind them. They have an attitude of I hv to move front, I am not bothered about the rest. By following basic rules, most of the problems are sorted\n', 'score': 0.5132854322556664}</t>
+  </si>
+  <si>
+    <t>{'response': "235- Our Traffic system is in a pathetic state. Average peak hour speed between 8:30am-11:30am is about 10-12kms/hr.  Firstly I do not blame the government alone for this problem as citizens are equally responsible for this as we do not follow even the basic traffice rules and common sense is just thrown out of the window when we are in the driving seat, but we should also recognise much of the problems need government to take first initiatives.  So what I propose is that, better traffic management and augmented common services are need of the hour.  1. Traffic violations should be severely dealt with with Impounding of vehicle for weeks or months and the safe keep cost added to fines. Community services should be made part of the fine and repeat violators should be subjected to naming and shaming.  2. Methods should be divised to improve lane driving diciplin and specific training and orientation for 2 wheeler drivers.  3. Corporates occupying large office complexes should be encouraged to devise staggered reporting times for employees to ensure less number of  vehicles at a give time. Further Corporates should also be encouraged to work towards a 30% population of employees working from Home on any give day, unless absolutely required to work from office. Having been in Corporates for 22 years I am confident that it is possible if they try, yes it will have some cost impact but I am confident it will only improve the productivity, which effectively can offset some additional cost.  4. Management and coordination of our shared commute modes like bus and metro needs to improve. Metro where available is a boon but Feeder bus and general bus commute still takes a long time. Traveling on ORR or Richmond road averages between 5-10kms/hr most of t he time during the day, this needs to improve dramatically.  5. Quality of roads are PATHETIC.  However to be positive I believe white topping should improve situation and needs to be done much faster pace, plastic based mix for interior roads should become a norm. And most of all contractors doing the road or civic works should be held accountable which is not the case leading to awful patchwork that doesn't even last a month.  \n", 'score': 0.512358657309125}</t>
+  </si>
+  <si>
+    <t>{'response': '247- Very bad traffic management. And not planned constructions\n', 'score': 0.5100843969178859}</t>
+  </si>
+  <si>
+    <t>{'response': '283- Progress of planning and implementation is very slow\n', 'score': 0.49981221089008465}</t>
+  </si>
+  <si>
+    <t>{'response': '98- Heavy traffic\n', 'score': 0.49904660176612675}</t>
+  </si>
+  <si>
+    <t>{'response': "88- Despite what is the popular trend, the bulk of India's traffic is on two wheelers. Our climate allows it and it is also a good compromise on affordability and flexibility. What is critically important is to make the roads safer for two wheelers. Few suggestions: 1. Create two-wheelers only lanes on main roads. Do not allow cars or other heavy vehicles in those areas 2. No two wheelers allowed in other lanes. It is for their safety as well 3. Additional safety measures to prevent serious injuries from accidents - shatter proof strong plastic shield in front, storage baskets for luggage, bike lane limited to vehicles 200 CC or lesser\n", 'score': 0.4925521003070148}</t>
+  </si>
+  <si>
+    <t>{'response': '212- Better management of traffic\n', 'score': 0.47867599122318727}</t>
+  </si>
+  <si>
+    <t>{'response': '248- traffic is the one of the biggest issues. Hope they come up with some innovative yet simplistic solutions\n', 'score': 0.4772064410581607}</t>
+  </si>
+  <si>
+    <t>{'response': '266- Provide traffic less track for bicycles, and educate traffic police. \n', 'score': 0.4711673639279133}</t>
+  </si>
+  <si>
+    <t>{'response': '70- Penalty for traffic offences should be increased at least 3-fold from present rates  to let the public know that they need to maintain traffic discipline.\n', 'score': 0.4571592825632094}</t>
+  </si>
+  <si>
+    <t>{'response': '133- Always getting stuck in traffic\n', 'score': 0.4550378895783971}</t>
+  </si>
+  <si>
+    <t>{'response': '89- Good traffic management\n', 'score': 0.45316116161736264}</t>
+  </si>
+  <si>
+    <t>{'response': "274- Recycle Products can be used in transportation. and to avoid the traffic issue's we have to update our-self,  and we have to follow the roles and regulations too! so the management and user contribution is most important.\n", 'score': 0.44971863975576837}</t>
+  </si>
+  <si>
+    <t>{'response': '174- Horrible traffic with worst management\n', 'score': 0.4247404745911232}</t>
+  </si>
+  <si>
+    <t>{'response': "117- The planned activities for 2031 should have been available by now. These won't be enough to suffice the future traffic issues.  - More connectivity with monorail to the metro stations from internal areas. - Signal free junctions within the city. Better connectivity to the IT corridors  are required . - Parking issues - smart system for parking and more parking stations at various locations across the city required - Initiative to move to e-bikes electric vehicles, smart sharing of automobile, better public transport.  - Innovative and futuristic technologies like Bullet trains, hyperloop to connect to satellite towns and citues to Bengaluru\n", 'score': 0.42129905212932345}</t>
   </si>
   <si>
     <t>{'response': '36- Land acquisition policy should be given 45 days deadline with immediate release of money to private owners or else inflation and appreciation value will be concern. And all contractors should come under transparent rating system and new contracts it should be awarded only if ranking improves.\n', 'score': 0.38137872143256696}</t>
   </si>
   <si>
-    <t>{'response': '39- The last mile from metro needs to be addressed with different methods. One of them could be to provide huge 2 wheeler parking space at metro stations. We are predominantly a 2 wheeler majority country. If this characteristic of the population is used effectively, this can be a high impact solution to the traffic issue. People will start using metro by default, bringing down the traffic congestion.\n', 'score': 0.5494458503799439}</t>
-  </si>
-  <si>
-    <t>{'response': '40- The most common sight on the road is of the slowest moving vehicles like autos, goods vehicles, LORRIES, CONTAINER LORRIES, All driving on the right side of the road. This causes a huge disrupsency to the traffic. The right side is for the fast moving vehicles. The slow moving traffic should stay on the left. Bangalore traffic does a good job to catch those vehicles that are overspeeding but what about those who go very slowly and cause traffic block to everyone else. That is equally important. Please fine the people causing traffic jams as well. Without these steps, our city will never be congestion free. It’s a shame that the first thing that anyone relates to when they think of Bangalore is the traffic jams here. It’s very sad to hear as a bangalore citizen. Without some strict actions being taken, we will spend most of our lives sitting in traffic jams and wasting time.   I am sure there will be good agencies available to help in finding ways to reduce traffic jams in our city. That is the need of the hour currently. Please take it seriously. \n', 'score': 0.60746300598328}</t>
-  </si>
-  <si>
-    <t>{'response': '52- Traffic is the biggest challenge for all Bangaloreans. The state government should work at a war footing speed to resolve the burning  problem we Bangaloreans face every day. The government apathy and insensitive further worsen the situation. \n', 'score': 0.5855375611620711}</t>
-  </si>
-  <si>
-    <t>{'response': '60- The local BMTC count should not be increase so much. Karnataka Transport Department has proposed slab rates based on the cost of the car, this is not good. Government should not fix these rates I feel. We should try to make use the existing railway tracks to start local trains wherever possible with in Bangalore. Strict punishment or fine should be put on those who are breaking traffic rules. Government should make more Mobile apps and websites so that Public can post complaints if they see somebody breaking the traffic rules.\n', 'score': 0.6312090173675552}</t>
-  </si>
-  <si>
-    <t>{'response': '62- Spending on ring roads and signal free corridors and ramp intersections is one thing, enforcing traffic rules and making sure that it is strictly followed is another. There needs to be more focus on better planned roads and pavements - yes but equal focus must be given towards improving traffic police conditions and more traffic patrolling to ensure that rules are followed. Stricter motor vehicle license tests and proper training for public transport vehicle operators, drivers and private cabs must be put in place along with clear speed limit signs throughout the road network. Not to forget clear lane markings, proper maintenance of roads and making sure that the road works are carried out effectively is also essential and severely lacking at the moment. Parking management is again very crucial. Illegal parking on junctions with underpasses and street markets that are illegally set up on pavements and other main roads must be discouraged with pro-activeness. Also, most new areas that are developed have no proper planning of roads - most cross roads are dead-ends and have no adequate connectivity. There must be properly designed footpaths for pedestrians to encourage local commute on foot for short trips. With dead-end roads without allowance for even foot journey, the most convenient choice is obviously personal vehicles. Lack of parking facilities means vehicles are parked on roads blocking traffic movement and hence more congestion. Restricting parking without providing alternatives is a pointless thing to do. Enforcing these basic things and emphasis on pedestrian and cycle commutes are a great way to build smart cities.\n', 'score': 0.6099010229644259}</t>
-  </si>
-  <si>
-    <t>{'response': '65- Need strict implementation of obeying traffic rules, keeping the lane. Sometimes traffic signals causes jams. Every signal needs to be studied to see if it is causing jam, how many actual seconds of each lane traffic and pedestrian crossing is required. This can avoid unnecessary jams at the signals.\n', 'score': 0.6234107590775689}</t>
-  </si>
-  <si>
-    <t>{'response': '70- Penalty for traffic offences should be increased at least 3-fold from present rates  to let the public know that they need to maintain traffic discipline.\n', 'score': 0.4571592825632094}</t>
-  </si>
-  <si>
-    <t>{'response': '72- Majority of the traffic issues are due to poor driving skills and not following traffic discipline \n', 'score': 0.5735675326523034}</t>
-  </si>
-  <si>
-    <t>{'response': '74- how is the current traffic situation being handled while new development happens? I already see the white topping and the metro development is triggering gaping holes and ensuring roads are clogged throughout the day.  Atleast, plan things in a way that all the development does not happen at once and you pick things up in parts. so that the impact is regionalised and people can opt for alternate routes.\n', 'score': 0.6010424104385588}</t>
-  </si>
-  <si>
-    <t>{'response': '82- Adoption of smart traffic road\n', 'score': 0.5139820436212446}</t>
-  </si>
-  <si>
-    <t>{'response': '87- Traffic problems make our lifes in HELL.Mainly this is due to the absense\\not assigned traffic polices in some areas .Traiffic polices present in main roads and can see them only in first and last week of every months(might be showing or meeting their targets)\n', 'score': 0.6214595683804524}</t>
-  </si>
-  <si>
-    <t>{'response': "88- Despite what is the popular trend, the bulk of India's traffic is on two wheelers. Our climate allows it and it is also a good compromise on affordability and flexibility. What is critically important is to make the roads safer for two wheelers. Few suggestions: 1. Create two-wheelers only lanes on main roads. Do not allow cars or other heavy vehicles in those areas 2. No two wheelers allowed in other lanes. It is for their safety as well 3. Additional safety measures to prevent serious injuries from accidents - shatter proof strong plastic shield in front, storage baskets for luggage, bike lane limited to vehicles 200 CC or lesser\n", 'score': 0.49536370316009104}</t>
-  </si>
-  <si>
-    <t>{'response': '89- Good traffic management\n', 'score': 0.45316116161736264}</t>
-  </si>
-  <si>
-    <t>{'response': '90- You have ignored the prominent issues, There should be flyover from Hope farm till varthur kodi , also from Varthur kodi to cross Varthur. Its already saturated and government is planning to widen the road of varthur to varthur kodi. It will not solve the purpose. I think 1 flyover can solve this problem at varthur kodi junction.  Flyover from Hope farm till varthur kodi if you are thinking of future else it will be mess as you might build just bridge or underpass at hope farm, it will solve the short term problem not the long term. Density of popluation in whitefield working in IT/ITES/ manufacturing is quite high. You need to think ahead of 10 years.  I felt bad when i see the current situation where even 1 underpass at kundlahalli takes years . How will you achieve the infra problem.  There should be peripheral metro also to connect the city which will solve 2 problems traffic, pollution . Like - Whitefield to Electronic city, Electronic city to Nagwara, and hebal to whitefield. That is the only way to control the traffic mess.  You also need to implement other feeder systems like Rapid transport . I am sure people are ready to pay as we know the everyday struggle to reach to office.  Few proposals you should pay attention rather than discarding :)  1. Peripheral metro to connect the city as city expand , it will be more mess. That one should not ignore. ( This is the best solution to solve long term problem not the roads) 2. Build Nice road - Electronic city to Whitefield and whitefield to Hebal.  3. Flyover from hope farm to varthur kodi to Varthur  , It getting messier 4.Rapid transport - Pod taxis - ( it can be implemented at congested places)- Proposed but need some action on ground.  5. More training to traffic cops as i find them uneducated about the congestion of traffic.  6. Kundlahalli junction underpass pending from last 5 years ( if we cant build 1 flyover ,how we will improve the infra )  7. Underpass or overbridge at yamlur signal. Its not managable by traffic cops now. I am sure no one paid the attention also.  8. Tin factory - k.r. puram till 100 feet road indranagar, ( need to have less signals )   9.Also underpass at HAL signal ,ISRO signal and Leela palace . It is proposed but need to be implemented quickly otherwise it will loose its importance.    I stay in this part of city east part of city and travel to Indranagar from Whitefield.  These are few suggestions which you can look upon. \n', 'score': 0.5586307223538435}</t>
-  </si>
-  <si>
-    <t>{'response': "92- With the plan on paper, it's a good plan. The the problem arises in the implementation of the plan. The progress speed and the quality of work provided. We should aim that whatever is being constructed now, may it be roads or anything should easily last for next 20 years. That should be the aim, try to do all the work in the night time, so it's less traffic in the day time.\n", 'score': 0.6096880224473806}</t>
-  </si>
-  <si>
-    <t>{'response': '98- Heavy traffic\n', 'score': 0.49904660176612675}</t>
-  </si>
-  <si>
-    <t>{'response': '108- Please bring some strict actions and rules so that in one home only one car and one 2 wheeler to be used which in turn reduces the traffic as there would be no one using a car for a single occupancy.\n', 'score': 0.5488358640964583}</t>
-  </si>
-  <si>
-    <t>{'response': '113- There seems to be no article about signal free junctions for current peak traffic areas\n', 'score': 0.5749782780990634}</t>
-  </si>
-  <si>
-    <t>{'response': "117- The planned activities for 2031 should have been available by now. These won't be enough to suffice the future traffic issues.  - More connectivity with monorail to the metro stations from internal areas. - Signal free junctions within the city. Better connectivity to the IT corridors  are required . - Parking issues - smart system for parking and more parking stations at various locations across the city required - Initiative to move to e-bikes electric vehicles, smart sharing of automobile, better public transport.  - Innovative and futuristic technologies like Bullet trains, hyperloop to connect to satellite towns and citues to Bengaluru\n", 'score': 0.42129905212932345}</t>
-  </si>
-  <si>
-    <t>{'response': '130- More than anything else main 2 things are to b kept in mind and implemented.  1. Foot over bridges to b made with a different design and with less number of steps on all the major traffic prone roads - but shd see that invariably lift or escalator is installed failing which the purpose of making the bridge will b defeated.  2. Almost all the main junctions where 3 or 4 roads meet traffic signals are to b installed with proper syscronization and with sensors to automatically change the lights if traffic is less at any point of time . In addition to this there shd b pedestrian crossing signals which again will b syscronized with the main traffic signals. Lastly if at all they r planning to reduce the congestion , like in other countries flyovers are to b built in above the other to lead the traffic to different destinations \n', 'score': 0.5336324717038251}</t>
-  </si>
-  <si>
-    <t>{'response': '133- Always getting stuck in traffic\n', 'score': 0.4550378895783971}</t>
-  </si>
-  <si>
-    <t>{'response': '145- To avoid traffic Road should be widend also reducing unnecessary humps nd making sufficient parking \n', 'score': 0.5777705776300159}</t>
-  </si>
-  <si>
-    <t>{'response': '149- The traffic authorities should also be involved actively to introduce penalties offences that are not currently in place. The authorities must also put an effort in booking the offenders. Lot of traffic jams happen because of lane disciplines not being followed, signals being jumped and people flouting many such traffic rules. Greater effort should be put in identifying such offences and the penalty amounts for such offences must be made very steep. The licenses of repeat offenders must be suspended. \n', 'score': 0.5742695802811415}</t>
-  </si>
-  <si>
-    <t>{'response': "150- The focus should be on traffic flow rather than road widening which is a never ending cycle. If people drive in wrong direction and don't follow lanes for turning left or right then any length of width of roads is insufficient. There should be a drive to educate people and enforcement to follow traffic rules. The speed of vehicular movement is slowed down by unauthorized parking on any spot including near the turns, pedestrians crossing every where, vehicles coming in wrong direction, vehicle turning right from the left most lane and left from the right most lane leading to chaos on turnings, very slow movement on traffic signals, un-managed auto movements in every direction. The planned infrastructure looks good on paper but it cannot be sustained without people participation and for that discipline and enforcement is the basic need that is prevalent in every developed country except in India. The master plan should also include a chapter how they plan to handle this basic issue which will increase further with additional number of vehicles on road if not tackled properly. In that case any amount of modern infrastructure will just add to chaos on the roads.  Also, when granting permission to build multistory apartments on narrow lanes of the outer areas, capacity of the roads should be measured and only appropriate number of buildings be allowed or the road capacity should be increased beforehand as it is next to impossible to demolish and residential apartment or other buildings at a later stage and residents have to suffer the never ending traffic blockages throughout the day.  There is no mention of handling this issue in the plan. You may have multiple ring roads but if the roads connecting to these and and other major roads in the city are so congested it will take hours to reach the main roads from small narrow by lanes. There is no concept of parallel roads in Bangalore and everyone has to pass through same main road example outer ring road or Whitefield road and all other roads leading to these are very narrow.\n", 'score': 0.6809112982497568}</t>
-  </si>
-  <si>
-    <t>{'response': '159- Roads need to maintain well then link roads may be help to control traffic wherever it is necessary...\n', 'score': 0.5982468213097759}</t>
-  </si>
-  <si>
-    <t>{'response': '167- 1. If people/commuter can identify and alarm the system, for the offenders, a lot of violation can be taken care. e.g, I can capture (video etc.) and upload to the authority and they penalizes the offender, basis the offense done. This way a personnel need not be deployed on junctions and breathe smoke. 2. If the bus/auto stands can be moved out of roads, probably on an elevated station, out of the roads can avoid stopping/slowing of traffic, this can also help authority to do away of the speed breakers. 3. A lot of vehicles, mostly cab drivers, drives on high beam on their headlights which causes a lot of distraction for the fellow commuters. 4. Riders/Drivers should be educated on usage of horns, many honks without any reason and causes distress for the fellow commuters.  Can explain all these points and many more in details, if these are worth a workable points \n', 'score': 0.6150862513412625}</t>
-  </si>
-  <si>
-    <t>{'response': '169- While so much is being done for us, we as a citizen should also have responsibility. What is the measure taken to stop citizens from following wrong traffic rules like going on one ways, talking on mobile while in a two wheeler, not following signals. How do we change the mindset. People only want to rush irrespective of what happens behind them. They have an attitude of I hv to move front, I am not bothered about the rest. By following basic rules, most of the problems are sorted\n', 'score': 0.5062041419058236}</t>
-  </si>
-  <si>
-    <t>{'response': '173- Accidents happen to the active breadwinner of the family, loss of such life spells a disaster for the family. 1. Strict enforcement of traffic rules and violaters should be penalized. 2. CCTV at all points and ward wise traffic control rooms, thereby minimising the physical need for traffic constables. 3. Educating all the drivers while procuring the license itself which should be made compulsory and visits to Hospital or video recording of accident victims. 4. Lane discipline should be followed. 5. Roads should be of good standards, proper warning to be displayed if there were some repairs of the roads or potholes. 6. Cases of traffic violation to be disposed off as soon as possible, long delay in judiciary is bound to embolden the offenders. 8. Roads should have prelaid pipes for cables and water or drain , or gas pipes, frequent digging to be avoided. 8. Any digging subsequent to proper laying of the road should be penalized or the charges levied for such activity should be so high that it itself will be deterrent.\n', 'score': 0.609824848326168}</t>
-  </si>
-  <si>
-    <t>{'response': '174- Horrible traffic with worst management\n', 'score': 0.4247404745911232}</t>
-  </si>
-  <si>
-    <t>{'response': '178- It is not very clear in what way they are going to widen the roads identified in the master plan. What is the strategy to curb construction of multistory complexes and the  traffic generated by them adding chaos and traffic jams (example: Manyata park and other such IT complexes). In order to reduce congestion it is very important to decentralize the activity centers like whole sale markets, vegetable markets, other such activities. There is not much information of traffic management systems.\n', 'score': 0.6187742316712355}</t>
-  </si>
-  <si>
-    <t>{'response': '181- Please put a traffic cameras to study the traffic conditions, all traffic lights timeouts should be based on real time feeds and not on time based timeouts, this only increases traffic, ensure that potholes are duly filled on time\n', 'score': 0.5634966538438073}</t>
-  </si>
-  <si>
-    <t>{'response': '184- road dividers should not be opened in between to ramp up city speed. this in mid road dividers results in traffic due to no signals and no traffic controller.\n', 'score': 0.60353560999948}</t>
-  </si>
-  <si>
-    <t>{'response': '188- One way to check traffic\n', 'score': 0.5133227148471816}</t>
-  </si>
-  <si>
-    <t>{'response': '190- Half of the traffic related problems can be solved simply by providing good, long-lasting roads, and by completing all ongoing infrastructure tasks in a time-bound fashion. \n', 'score': 0.586957925993152}</t>
-  </si>
-  <si>
-    <t>{'response': "197- The question is of quick evacuation of traffic &amp; how. Vehicular population will keep growing. So, we need multi layer uninterrupted traffic flow underground. This is an expensive solution, but is good for the next 25-50 years. Longer distance traffic will not disrupt short distance vehicles &amp; vice versa. Entries/exits can be planned every km. Availability of space is not an issue at all. All areas under existing roads can be used &amp; more. We don't have to cut down trees. In addition gardens &amp; playing areas, garbage disposal, sewage treatment etc can be planned. PLASTIC SHOULD DEFINITELY BE BANNED.\n", 'score': 0.5659553350430059}</t>
-  </si>
-  <si>
-    <t>{'response': '212- Better management of traffic\n', 'score': 0.47867599122318727}</t>
-  </si>
-  <si>
-    <t>{'response': '216- Poor management by traffic cops. They do not regulate traffic... they only stand in groups by the roadside,  chatting &amp; drinking tea. They pounce on vehicles even if no rule is broken, &amp; threaten with high fines, thereafter pressurise the drivers/owners to pay a lesser amount,  without receipts. If this style is stopped and they do their job sincerely,  traffic would improve considerably. It requires a sea change in attitude of an entire generation of cops.\n', 'score': 0.5704878848660362}</t>
-  </si>
-  <si>
-    <t>{'response': '218- I know our cops are doing the best appreciate that but every one has to reach before time. It will be great if we follow the traffic like the other countries do follow a lane and continue the same till you cross the road and maintain a speed limit \n', 'score': 0.5667985645560961}</t>
-  </si>
-  <si>
-    <t>{'response': "223- I am sure the responses for this segment would be in the thousands. Basics: 1. Remove illegal speed breakers and proper marking on Speed Breakers. Most breakers are not visible until you are almost upon them, especially at night 2.a. On major roads like the ORR, have a 3 ft hedge of shrubs on the divider. This will increase greenery, plus helps night driving as the opposite high beam does not blind drivers. Will reduce night accidents 2.b. Alternatively setup proper signals at major crossings like Kalamandir, JP Morgan, Oriental College etc., to ensure safe crossing for pedestrians. 3. Build FOB at all major pedestrian crossings and setup grills on the divider (at least 150m on each side of the FOB) in the middle to ensure pedestrians will definitely take the FOB 4. Monitor and close gaps forcibly created in dividers by 2 wheelers for a quick U turn. 5. Have small (fixed traffic cone type) dividers setup near turns so that those who need to turn will go into the correct lane and not obstruct the traffic going straight by occupying all the lanes 6. Remove the compulsory helmet rule as it is only facilitating traffic cops to make a quick buck. Taking care of their safety is the rider's responsibility and not the traffic department's. The seat belt and helmet rules are useless in the current Indian mindset. The cops should instead focus on stopping and penalizing those who break other traffic laws like jumping a red light, driving in the opposite lane, etc. as these could prove harmful to other drivers who are following traffic rules. 7. Use good quality material for tarring or white-topping roads, so that they last longer and allow traffic to flow smoothly. I feel that at least 40% of the traffic jams in Bengaluru will be avoided, if the roads are in good condition.\n", 'score': 0.626924870969508}</t>
-  </si>
-  <si>
-    <t>{'response': '226- I feel the law enforcement is very low in Bangalore overall, for example when a commercial complex is built, no measure taken by the BBMP or BDA before approving it, least bothered about the parking space is available for the multi storied buildings, the residents end up parking on the footpaths and on the roads, you can see this culture everywhere in bangalore, people build independent houses but park their cars/bikes on the roads, there is no safety measures taken for the people walking, they are forced to walk on the roads risking their safety. What about elders and kids, where they walk? where are the footpaths? even a medical shop puts their bill board on the footpath, footpaths are not meant for people to walk, I think this is a serious issue in Bangalore. I do not see this point in your master plan.\n', 'score': 0.5495586606480358}</t>
-  </si>
-  <si>
-    <t>{'response': '231- Need to plan all constructions properly as the entire city is dugged up throughout the year. The condition of roads cause more traffic and traffic police needs to be more strict with people not obeying traffic rules.\n', 'score': 0.5963807856364354}</t>
-  </si>
-  <si>
-    <t>{'response': "235- Our Traffic system is in a pathetic state. Average peak hour speed between 8:30am-11:30am is about 10-12kms/hr.  Firstly I do not blame the government alone for this problem as citizens are equally responsible for this as we do not follow even the basic traffice rules and common sense is just thrown out of the window when we are in the driving seat, but we should also recognise much of the problems need government to take first initiatives.  So what I propose is that, better traffic management and augmented common services are need of the hour.  1. Traffic violations should be severely dealt with with Impounding of vehicle for weeks or months and the safe keep cost added to fines. Community services should be made part of the fine and repeat violators should be subjected to naming and shaming.  2. Methods should be divised to improve lane driving diciplin and specific training and orientation for 2 wheeler drivers.  3. Corporates occupying large office complexes should be encouraged to devise staggered reporting times for employees to ensure less number of  vehicles at a give time. Further Corporates should also be encouraged to work towards a 30% population of employees working from Home on any give day, unless absolutely required to work from office. Having been in Corporates for 22 years I am confident that it is possible if they try, yes it will have some cost impact but I am confident it will only improve the productivity, which effectively can offset some additional cost.  4. Management and coordination of our shared commute modes like bus and metro needs to improve. Metro where available is a boon but Feeder bus and general bus commute still takes a long time. Traveling on ORR or Richmond road averages between 5-10kms/hr most of t he time during the day, this needs to improve dramatically.  5. Quality of roads are PATHETIC.  However to be positive I believe white topping should improve situation and needs to be done much faster pace, plastic based mix for interior roads should become a norm. And most of all contractors doing the road or civic works should be held accountable which is not the case leading to awful patchwork that doesn't even last a month.  \n", 'score': 0.512358657309125}</t>
-  </si>
-  <si>
-    <t>{'response': '239- Metro work is too delayed and till the time it will be completed there will be chaotic situation in the city, pollution and traffic is already at peak, how are we going to deal till then?\n', 'score': 0.5767410486018011}</t>
-  </si>
-  <si>
-    <t>{'response': '240- Building roads alone will not fix the traffic issue. There are tonnes of other problems and trouble makers on the road. Fix those issues first. People riding/driving in one ways and in the opposite direction of traffic, illegally parked vehicles, street hawkers and vendors, slow moving vehicles in the fast lane, lack of discipline... I could go on.\n', 'score': 0.665305679771067}</t>
-  </si>
-  <si>
-    <t>{'response': '247- Very bad traffic management. And not planned constructions\n', 'score': 0.5100843969178859}</t>
-  </si>
-  <si>
-    <t>{'response': '248- traffic is the one of the biggest issues. Hope they come up with some innovative yet simplistic solutions\n', 'score': 0.4772064410581607}</t>
-  </si>
-  <si>
-    <t>{'response': '264- Below factors aggravate traffic problem in the city - a)Traffic violations by auto, cabs in a menace 2) Lack of substantial CCTV surveillance 3) No prior information about road blocks or redirection to public. 4)Lack of proper planning when it comes to road works\n', 'score': 0.6043476656277288}</t>
-  </si>
-  <si>
-    <t>{'response': '266- Provide traffic less track for bicycles, and educate traffic police. \n', 'score': 0.4711673639279133}</t>
-  </si>
-  <si>
-    <t>{'response': '267- Request to sync the traffic signal across main corridor of city.., it will help commuters to move without stopping frequently at every junction, considering syncing speed of 30kmph .\n', 'score': 0.6292193508643749}</t>
-  </si>
-  <si>
-    <t>{'response': '270- The time scales for addressing the traffic and congestion problem is not there. Inadequate parking facility and ways to address that is missing. Park and ride facility should be a norm and reducing traffic in central business district might be considered. Heavy vehicles entrance to city should be controlled. Bottlenecks in traffic flow like KR Puram bridge, Indira Nagar, and many such areas are immediate concerns and needs quick response.\n', 'score': 0.6542722025563206}</t>
-  </si>
-  <si>
-    <t>{'response': "274- Recycle Products can be used in transportation. and to avoid the traffic issue's we have to update our-self,  and we have to follow the roles and regulations too! so the management and user contribution is most important.\n", 'score': 0.44971863975576837}</t>
-  </si>
-  <si>
-    <t>{'response': '278- The govt. should be strengthen the traffic rules and make the people abide them. And at the same time it is our responsibility to follow the rules for our own benefit.\n', 'score': 0.5183429965376184}</t>
-  </si>
-  <si>
-    <t>{'response': '279- Heavy use of technology for traffic management. Sensor based signalling system, clear road markings, removal of road hazards for e.g. unscientific speed bumps, unplanned dividers, barricades, creation of multi-level parking, foot-over bridge at regular interval, proper feeder network to metro and emphasis on last mile connectivity.\n', 'score': 0.6342999743549568}</t>
-  </si>
-  <si>
-    <t>{'response': '280- Good thought, however I think we can increase metro connections to the old city areas which will reduce the general traffic drastically.\n', 'score': 0.5811385817024268}</t>
-  </si>
-  <si>
-    <t>{'response': '283- Progress of planning and implementation is very slow\n', 'score': 0.49981221089008465}</t>
-  </si>
-  <si>
-    <t>{'response': '284- Pretty decent plan this. However, the most important thing is to take care of the quality of build. Any construction should withstand for at least 10 years. This also means that the plan should include the increase in traffic towards the end of 10 years before the maintenance phase takes its turn.\n', 'score': 0.5395633944422824}</t>
-  </si>
-  <si>
-    <t>{'response': '289- Start with enforcement of traffic laws... make roads walkable by enforcing crossing and observance of foot paths, levy heavy fines for blocking the intersection due to red lights. prohibit unnecessary honking and traffic in residential areas. Keep separate lanes for motorcycles, scooters and rickshaws\n', 'score': 0.626057014225185}</t>
+    <t>{'response': '205- Its all in theory, wherez the metro to serve the IT crowd of todays bangalore. Peripheral ring road has been on paper for last 10 years, where is the action? What is the plan on nice road-stalled.. what is the plan for congestion and pot holed roads to drive on everyday. Parking charges is only a scam by the people who take 20 to 40 rupees from every car or bike user with tax. \n', 'score': 0.5807874305786667}</t>
+  </si>
+  <si>
+    <t>{'response': '208- 1. Whenever cleaning happens, the waste is laid out in dumps on the footpath.  2. The bus almost never stops at the bus  stop. They will stop just after  the signal causing all sorts of honking and all by the drivers behind.  3.Roads not wide enough (and tech parks after tech parks on the same outer ring road).  4. There was flyover construction work(digging for a pillar) at Ejipura signal. Now there is no work for past 15 days but the still the barriers are there, making the road a single lane road just after the signal. The flyover will take 2,3 years to complete atleast. Will the road be still half closed till then?  5. Please take strict actions against bike driving on footpaths, going on the wrong side just to save 100m or so.  6. Strict action against jaywalking, especially when people crossing road under a overbridge. Eg. Marathalli overbridge, Domlur overbridge. Also, more and more overbridges are needed.\n', 'score': 0.5736568733542387}</t>
+  </si>
+  <si>
+    <t>{'response': '51- The existing flyover construction is very unscientific and requires a proper planning. We leave space in the centre and on the side both being under utilised. Without either being used properly. Both are clogging the traffic. We still continue building such flyovers all over the ring roads.\n', 'score': 0.5624202225026396}</t>
+  </si>
+  <si>
+    <t>{'response': '210- The infrastructure that is being built are not future focused and take a lot of time to complete \n', 'score': 0.5596929875679837}</t>
   </si>
   <si>
     <t>{'response': '30- Make railway Line along outermosy ring road. This is very cost effective\n', 'score': 0.5250395356080888}</t>
   </si>
   <si>
-    <t>{'response': '51- The existing flyover construction is very unscientific and requires a proper planning. We leave space in the centre and on the side both being under utilised. Without either being used properly. Both are clogging the traffic. We still continue building such flyovers all over the ring roads.\n', 'score': 0.5624202225026396}</t>
-  </si>
-  <si>
     <t>{'response': "143- First increase the width of the inner roads. Do not care for votes. This is very much required. Acquire the land and increase the road size to 40 ft. Also do not give permission to people build houses next to each other. As a mandate, everyone has to leave 3 ft all around their plot. It looks ugly there. pls acquire don't hear the public. You guys stop taking bribes and concentrate and pay the people wherever the land is acquired. Things will get in order.\n", 'score': 0.4716696638869656}</t>
-  </si>
-  <si>
-    <t>{'response': '205- Its all in theory, wherez the metro to serve the IT crowd of todays bangalore. Peripheral ring road has been on paper for last 10 years, where is the action? What is the plan on nice road-stalled.. what is the plan for congestion and pot holed roads to drive on everyday. Parking charges is only a scam by the people who take 20 to 40 rupees from every car or bike user with tax. \n', 'score': 0.5807874305786667}</t>
-  </si>
-  <si>
-    <t>{'response': '210- The infrastructure that is being built are not future focused and take a lot of time to complete \n', 'score': 0.5596929875679837}</t>
   </si>
   <si>
     <t xml:space="preserve">Buildings that generate more than 10 kgs of garbage per day will compulsorily need to set up waste management systems on their premises or work with BBMP vendors to manage their waste
@@ -2477,256 +2471,265 @@
 </t>
   </si>
   <si>
+    <t>{'response': '20- Every Citizen of Bangalore should be educated about segregation of waste into Dry &amp; Wet waste. People who violate the rules, who do not seggregate &amp; those who throw garbage in the public places should be fined. Waste bins should be provided by the government for those who cannot afford to buy 2 bins for Dry &amp; Wet waste. All those who work for BBMP should be given good salary &amp; provided with gloves, shoes &amp; masks for them to work safely in handling the waste. CCTV should be installed to monitor those who violate the rules. High end robot trucks should be used to sweep the roads regularly. Waste production should be reduced slowly by reducing the use of plastics bags. bottles etc.\n', 'score': 0.7673933058390286}</t>
+  </si>
+  <si>
+    <t>{'response': '75- garbage/landfills are not enough, Reverse Wending machine is a new idea which world is going to use..  bringing awareness to people about waste management and bringing more clear solutions to help residences to dispose their garbage.  cleaning existing drainage is necessary, open drainage needs to closed.  need to have more dustbins around corner of bus stands, streets.   \n', 'score': 0.7262826103411656}</t>
+  </si>
+  <si>
+    <t>{'response': '19- Th BBMP garbage auto are never on time and sometimes athy never come resulting people to dump the garbage in nearby area.There should be one common point and installation of dustbins so that it is easier for people to dump the garbage without waiting for the Garbage auto to come.\n', 'score': 0.7176706302566397}</t>
+  </si>
+  <si>
+    <t>{'response': '121- Build biogas plants, dry waste processing centres , incinerators in every ward . Every single eatery in the city is violating waste segregation rules. Need zero tolerance for people in food business. Every single shop on street is dumping waste on empty plots.  Please install huge 3 colour bins in public areas and educate the independent houses /shops abdcsegregate and deposit on theme bbmp bins. Give them an option to dispose off their waste responsibly.\n', 'score': 0.7176164096497711}</t>
+  </si>
+  <si>
+    <t>{'response': '85- Garbage is a bane of Bangalore, everything looks fine on paper but execution and accountability is nil. Collection and primary segregation to some extent is happening, but transportation is really bad. No place for consolidation nor secondary segregation. There is no concept of compaction . I feel designated areas in each ward to be allocated to carry out secondary segregation and compaction, reduce the burden of waste in volume. This is is the basic problem we face, the filth on the corners created by bbmp, the burning which goes unchecked leading to pollution and health hazards and also street dog menace. All hotels should be having biogas plants to reduce the load of food and wet waste. The abattoirs should have a plan to dispose the remains, all plastic paper, cups, plates should be banned a good idea to come back to earthenware pots and cups. Streets should be provided with bins at every corner which is easily operable and user friendly. I feel for the garbage handlers, they should be given a decent uniform and gloves for handling such waste. Finally the disposal is still a problem. By reducing the waste generated and proper segregation and compaction the volume can be brought down and this disposal should be done ward wise rather than taking it through the city spilling all over.  Awards for the best wards, recognition for the pourmikars , incentives, proper accountability and legislation would go a long way of getting rid of this problem \n', 'score': 0.714389949498623}</t>
+  </si>
+  <si>
+    <t>{'response': '102- Waste collection facility should be done 24x7.  Waste collection centers should be installed in every ward. Throwing waste on road should be strictly monitored and violators should be punished severely like disconnecting power/water etc.  The segregated waste can be bought by government for minimum price and the recycled output can be used/sold by government in various schemes. \n', 'score': 0.7115293952591347}</t>
+  </si>
+  <si>
+    <t>{'response': '16- There is absolutely no control over waste collection by BBMP and waste disposal by general public.  Need to do a campaign and educate people  regarding disposal of waste and timely collection by BBMP.  Bangalore to be at par with other major cities, should have proper sewage system, open drains for rain water.  The sewage line and storm water drains currently  in place is unplanned, whenever the work carry out by contractor, there was no supervision by BWSSB or BBMP Engineers.  It is left to the labours to do the job at their will and wish.  Therefore corrective action should be taken immediately to  ensure sewage line is properly laid, and open drains are constructed on each road (main road and cross roads).\n', 'score': 0.710547089833672}</t>
+  </si>
+  <si>
+    <t>{'response': '115- The better way to manage this is via private vendors like how Singapore or other cities manage it. These experienced waste management companies need to bring in their experience, and implement the comprehensive plans including keeping the city roads (not just the main roads but all artery and sub roads) clean. Once this happens, a lot of the space consumed today because people cannot walk on this path etc can be cleared out and better usage of the space we have.\n', 'score': 0.6973313741798141}</t>
+  </si>
+  <si>
+    <t>{'response': '49- Rather than implementing costly waste management ideas that fleece public funds the BDA must ensure that the contractors who collect garrbage also ensure that the collection modus will be seperate. The same teams working will only mess up the collection.. \n', 'score': 0.6968593765761144}</t>
+  </si>
+  <si>
+    <t>{'response': '132- Put hefty fines in place for people failing obey waste segregation rules. Make it an point that all organic waste should be take care in particular ward or area by decomposition techniques. Only inorganic waste needs to find its way out to waste processing units. Commercial premises, office spaces,restaurants, hotels and big apartment complexes are the real culprits who break the rules.so more stringent rules need to be in place. \n', 'score': 0.6879538873121912}</t>
+  </si>
+  <si>
+    <t>{'response': '81- After the BBMP drive on segregating the waste before disposal, I wonder if this is really implemented as it was driven by the authority. I often notice, that the garbage carrier, mixes all together, collected from different sources (Dry and Wet waste). A thorough check should be done with them, before they dispose them. Majority of the carrier vehicles are poorly maintained, dirty and releases thick smoke.\n', 'score': 0.687358953661044}</t>
+  </si>
+  <si>
+    <t>{'response': '23- Implementation should be equally planned. People throw garbage in plastic bags. Heavy fine should be laid upon them. It is equivalent to committing a crime. The main reason for throwing garbage is the corporation vehicles come at one particular time only. To change this permanent closed bins have to be placed for every 10 street atleast. And this bin should be regularly emptied. And the bins have to be separate for dry and wet waste. Main thing is CCTV cameras should be present at the bin collection point. Heavy fine should be laid for those not separating the waste. Through CCTV fine should be laid upon people. Main problem of waste management start from the people creating them. \n', 'score': 0.6812995046106534}</t>
+  </si>
+  <si>
+    <t>{'response': '26- Burning of garbage including plastic materials is a common sight in the city. This seems to be done by residents and by BBMP workers.Please use all the advertsing areas( experts visiting schools, colleges, using bill boards, TV ads,etc)   to educate the public about the consequences . Heavy fines to be charged for violating waste disposal rules. [ \n', 'score': 0.6746318533156392}</t>
+  </si>
+  <si>
+    <t>{'response': '123- My self iam a civil Engineer,my opinion towards waste management is ,most of the people are demolishing the old buildings after that they will get all waste materials from the building as steel and hardened broken pieces of concrete,steel etc. Most of the people will sell steel for scrap value but they are throwing the hardened broken pieces as wastage,no one is recycling .so my conclusion is government will implement the usage of   hardened broken concrete as a partial replacement of coarse aggregates then usage of aggregate and cement will get reduced due to this.\n', 'score': 0.6715485149921774}</t>
+  </si>
+  <si>
+    <t>{'response': '15- Provide waste bins to all houses with minimum charges for collection. Provide waste bins in every 50/ 100 meters in Bangalore. Currently people do not know where to throw garbage.  You should make sure that, the houses without registering for waste bins should have more taxes/ fines to be paid.\n', 'score': 0.6680931937335324}</t>
+  </si>
+  <si>
+    <t>{'response': '90- Enforcing waste segregation at the origination point is very important. Unless that is enforced, rest all will be very challenging to achieve. All the Large housing societies should at least be able to recycle all organic waste inhouse and use for landscaping etc. Then the plasctic waste is supposed to be segregated in recycled or non recyclable category. A lot of waste is still not classified correctly to be segregated.\n', 'score': 0.6661956017488642}</t>
+  </si>
+  <si>
+    <t>{'response': '74- There should be a plan for handling the STTP issue as well. Why every apartment complex should have its own STTP plant which is an additional expense for the residents and is always dangerous for the workers like recent deaths in one of the apartments. No other city in the world has this concept and waste is collected through the sewerage pipes and is processes in central plants. Citizens pay property tax, Water and Sewerage connection charges but end up arranging their own water and sewerage treatment plants. This is not what you expect from a state capital that aspires to be a leading smart city. The BDA and government should plan for laying the sewerage network and central processing plants.\n', 'score': 0.664177780040896}</t>
+  </si>
+  <si>
+    <t>{'response': '131- I think it is becoming very difficult for the house holders to dispatch there waste at right places and the BBMP has to find different options of collecting the waste from house holders\n', 'score': 0.661770873410665}</t>
+  </si>
+  <si>
+    <t>{'response': '87- 1.In every ward dry waste collection centres need to be established and they should work. 2. There shd be provision for sanitary waste to be collected separately and not mixed with wet waste. 3. Incinerators should be provided at the ward level to dispose sanitary waste.\n', 'score': 0.6596878643441314}</t>
+  </si>
+  <si>
+    <t>{'response': '62- More importance needs to be given to segregation at source with strict enforcement and deterrent measures such as big fines for non segregation at least of wet / dry waste. Of course this goes in par with frequent collection. If daily door to door collection is not possible, and since wet waste cannot be kept more than a day, maybe an option is to have wet waste collection points / composter in each street, maintained by the municipality. This could generate a good revenue by selling the compost as  manure and pay for the salary of the person in charge of maintenance.\n', 'score': 0.6565970445449482}</t>
+  </si>
+  <si>
+    <t>{'response': '48- Palike employees goes to every area &amp; collect garbage each day for this they demand money every week.one more question is why the palike employees are not wearing protection gloves &amp; mask before pitch into garbage cleaning &amp; touching this kind of ignorance might cause there life, please rework with all the corporators &amp; palike workers &amp; provide them protection accessories each day before they start there work.\n', 'score': 0.6514403822059651}</t>
+  </si>
+  <si>
+    <t>{'response': '72- Lack of facility and disorganised functioning. Need to streamline the pattern of door to door pick up,  bulk collection &amp; sweepers collection.  Absolutely no coordination hence black spot are simply multiplying and littering of garbage everywhere has become unstoppable &amp; uncontrollable.  Hence garbage pick up pattern should be looked into and installation of cameras is a must to monitor and penalize the dirty makers of the locality. \n', 'score': 0.6476332483097696}</t>
+  </si>
+  <si>
+    <t>{'response': '28- This is near the Air force colony near Murugeshpalya.  I have been traveling to this area from 10years. In the past 1 year itself , I have observed that the garbage is piling in the size of mini trucks. Please provide good waste management systems so that the people around do not litter theoir own city. To add to this it is a residential area, I do not understand how people are okay with living in sucha environment. THe garbage piles up in the morinng like a haystack. This is very harmful. It is setting the health facctor of the people around to a very bad state. I would like the authority to curb the add on garbage and hault it as soon as possible , so that it does not become a haazard to common human  life. Regards. Raj \n', 'score': 0.6469890750415885}</t>
+  </si>
+  <si>
+    <t>{'response': "96- Looks unrealistic not to have any land fills.. even developed countries have some land fill but their collection, segregation and most importantly, the citizens are involved with right education and awareness. Here even if citizen segregate, the collectors mix and take. So, patchy implementation and adherence in few wards doesn't solve the problem.  As photo op, politicians/leaders do launch some scheme and then no clear implementation and accountability exist down ward and this results in poor implementation. Completely privatize the collection of garbage to some good corporate.. and it will work. Otherwise, same contractors and lorry mafia will continue even at 2031. \n", 'score': 0.640519781097957}</t>
+  </si>
+  <si>
+    <t>{'response': "108- It's a good vision however the education and behavioral change in people has to be brought in.  Currently I see no segregation of waste even by those who are educated about it's importance. The garbage collections vehicles should deny accepting if not segregated.  Installation of CCTv's at areas where garbage is thrown by people regularly and a stringent policy to fine and punish the offenders. \n", 'score': 0.6396379405066924}</t>
+  </si>
+  <si>
+    <t>{'response': '109- I have a suggestion that please have waste collection cans, huge ones per street where each household /building should segregate and put their wastes. This will ease the job to bbmp and to the public\n', 'score': 0.6375773933787853}</t>
+  </si>
+  <si>
+    <t>{'response': '79- We need more frequent and timely garbage disposal vehicles in our area, and if its feasible we can do the same way, USA public disposes their garbage\n', 'score': 0.6346966472567855}</t>
+  </si>
+  <si>
+    <t>{'response': '107- It will be one of the great initiatives by which it help every public to have a infection/virus free hygienic life forward. This will also help city tourism development and increase business investments which will create more jobs and importantly will attract huge acknowledgment from countries all over.  Also there should be strict sessions/syllabus in every school and awareness programs in every single home and cleanliness starts from there. Proper management and installation of garbage boxes in each and every nook and corners of the city. \n', 'score': 0.6343063190544229}</t>
+  </si>
+  <si>
+    <t>{'response': '17- I think a master plan is all very well, but steps should be taken NOW.  Only then will this work by 2031.  Start with putting up trash cans by the road, and asking municipalities to make sure their workers empty them regularly.  Also close all the vats and get societies and buildings to have a compulsory trash removal system.  Fine People HEAVILY for littering or breaking the law.  And fine People for urinating in public.  It’s a health hazard and spreads diseases.  \n', 'score': 0.6341315017842487}</t>
+  </si>
+  <si>
+    <t>{'response': '34- Please educate people about waste segregation and educate people not tie garbage in plastic covers. Please ban plastic covers with all vendors and please provide alternative. Please ask groceries shop to stop packing groceries in plastic and educate people to Bring their own bags for groceries and vegetables. Please supply milk in booths to avoid plastic packaging. Please let us save the environment. Please educate women about sustainable menstruation products like cloth pads and menstrual cups.\n', 'score': 0.6326151230961604}</t>
+  </si>
+  <si>
+    <t>{'response': '94- All plans on paper look good. Implementation is the key. Businesses that do not comply with waste segregation and waste management should be forced to shut shop.\n', 'score': 0.6315240807518714}</t>
+  </si>
+  <si>
+    <t>{'response': '133- Get garbage clearing of wet waste on a daily basis. Fines for households that do not segregate waste\n', 'score': 0.630258094465594}</t>
+  </si>
+  <si>
     <t>{'response': '1- Place big waste box near two streets and deploy collectors on daily basis. If possible make use of water in repairing roads. \n', 'score': 0.6299416112292631}</t>
   </si>
   <si>
+    <t>{'response': '105- 1. Dustbins are not present beside road.. Should have closed ones, every 100ms. 2. Big dustbins for household garbage disposal.\n', 'score': 0.6298646876437646}</t>
+  </si>
+  <si>
+    <t>{'response': '77- Need to recycle efficiently as we see garbage getting dumped in lakes and also level of segregation very poor. Use technology where possible and reduce this problem\n', 'score': 0.6298465702148704}</t>
+  </si>
+  <si>
+    <t>{'response': '39- Initially Government has to pay for all waste to each individuals, so people will practice to store waste properly and they will give to waste management system regularly. Once the culture is set government can slowly educate people regarding charity by using their waste management money\n', 'score': 0.6293978084453966}</t>
+  </si>
+  <si>
+    <t>{'response': '135- It can be more better. Collect videos from nearby CCTV cam where throwing waste is prohibited and collect heavy fines. Using Bio gas plant can reduce dumping space and byproduct can be used to generate funds.\n', 'score': 0.6229218466034622}</t>
+  </si>
+  <si>
+    <t>{'response': '136- support groups like Sahaas and Hasiru Dala in actually supporting recycling.  many buildings (like mine) have recycle bins that are all used for garbage.  people dont even know which bin is for what.  Make sure that groups like carbon masters are engaged to turn waste into green resources\n', 'score': 0.6221783283822139}</t>
+  </si>
+  <si>
+    <t>{'response': '5- The amount of waste being generated every day cannot be accommodated in the proposed infrastructure. \n', 'score': 0.6194332120619733}</t>
+  </si>
+  <si>
+    <t>{'response': '45- Need to educate people starting from children in schools, and in turn parents by creating and making compulsory activities as well as strict rules by imposing files for littering. Strict rules will definitely make people stop littering and make the waste management easier\n', 'score': 0.6134577073550198}</t>
+  </si>
+  <si>
+    <t>{'response': "29- Government should adopt some of the waste management methodologies that was telecasted on one of the episodes in Aamir Khan's Satyamev Jayate TV Program.\n", 'score': 0.6123758297983154}</t>
+  </si>
+  <si>
+    <t>{'response': '12- Start putting penalties for not segregating wastes. As an immediate step, replace the 3 wheeler that are used to carry the waste. These are highly polluting and more often they keep littering the waste on the road\n', 'score': 0.6114231104647384}</t>
+  </si>
+  <si>
+    <t>{'response': '54- Please strictly ban plastic bag. Encourage just bag because paper bag can cause tree cutting. Create waste management plant in every square km. \n', 'score': 0.6092768455622105}</t>
+  </si>
+  <si>
+    <t>{'response': '117- The pornakarmikas to be given More safety measures and rights to refuse picking of waste if not segregated. No waste carrying in the open trucks and landfills to be far from schools n hospitals n other public spaces. \n', 'score': 0.6079075462118603}</t>
+  </si>
+  <si>
+    <t>{'response': '118- A definite MUST. Educate people from the ground level and the schools to be responcible for their own waste and the repurcussions of being negligent to this for our future. A clean well maintained city would be a pleasure to live in.\n', 'score': 0.606156006128968}</t>
+  </si>
+  <si>
+    <t>{'response': '119- I do not see any mention for Sewage Treatment. The current Sewage treatment plants barely manage 50% of the requirement, thus leading to pollution of the lakes and the surrounding land and ground water. Adding more strategically located sewage treatment plants with new efficient methodologies, will help reduce the discharge into our lakes, thus saving them. This also resolves our water problem as more and more lakes will become available for water supply.\n', 'score': 0.6055220942484604}</t>
+  </si>
+  <si>
+    <t>{'response': '111- Every 500m radius there should be a waste bin so that people throw waste in the waste bin and keep the city clean.\n', 'score': 0.6053586334334164}</t>
+  </si>
+  <si>
+    <t>{'response': "21- Good idea that dumps going out of city.   It's not always possible to be at home and wait for garbage van to throw garbage  Need big garbage bins in residential n public localities.  Segregation is not a very good idea and practically not everyone is doing this. As a result they throw the waste on vacant plots.  \n", 'score': 0.6018706416943311}</t>
+  </si>
+  <si>
+    <t>{'response': '4- Need to setup a team to study to manage urban waste. Landfill is not the solution. Burning of waste is a huge problem and this needs to be addressed at citizen level\n', 'score': 0.593146632760236}</t>
+  </si>
+  <si>
+    <t>{'response': '63- This is for corporations plz make sure everyone of ur employees do there work properly  Start construction of dustbin tank in the locality everywhere \n', 'score': 0.5930573697181454}</t>
+  </si>
+  <si>
+    <t>{'response': '124- every alternate day waste collecting should happen before office hours\n', 'score': 0.5807519252327936}</t>
+  </si>
+  <si>
+    <t>{'response': '56- Should try to keep our city clean in our surrounding by ensuring that public dont throw wste on roads...so strict action must be taken on people who throw garbage on roads..only thn people wil realise ..so some awareness must n created for it to keep our city clean amd beautiful\n', 'score': 0.576093815578077}</t>
+  </si>
+  <si>
+    <t>{'response': '65- KR market is situated near one of the oldest forts, KR market is filled with dirty garbages, kindly maintain it neatly and take necessary action On the people who spill garbage even after BBMPs board on the area \n', 'score': 0.5726346546895427}</t>
+  </si>
+  <si>
+    <t>{'response': "100- Why can't we use garbage into tar road making,  as it's already done at Kamraj  road ,where garbage was melt down due to high temperature of TAR material,  pollution less and there a Is huge requirement of good roads. \n", 'score': 0.5654305029148138}</t>
+  </si>
+  <si>
     <t>{'response': '2- Public Dustbins must be there in ample numbers that too in every ward which has two portions one side for wet waste and other for dry waste\n', 'score': 0.563800485683462}</t>
   </si>
   <si>
-    <t>{'response': '4- Need to setup a team to study to manage urban waste. Landfill is not the solution. Burning of waste is a huge problem and this needs to be addressed at citizen level\n', 'score': 0.593146632760236}</t>
-  </si>
-  <si>
-    <t>{'response': '5- The amount of waste being generated every day cannot be accommodated in the proposed infrastructure. \n', 'score': 0.6245294340571427}</t>
+    <t>{'response': '104- lot of data is inaccurate, the growth of bangalore is tremendous in the last ten years but data shows incorrect numbers hence, i am sure its plan by BBMP is slow and only PDF not in action.\n', 'score': 0.562768838946671}</t>
+  </si>
+  <si>
+    <t>{'response': '114- People involved in waste management need to be sensitized and educated on the impact of their work.  \n', 'score': 0.5566242699313436}</t>
+  </si>
+  <si>
+    <t>{'response': '126- More thoughts to be done on recycling the waste, rather processing. Example Glass waste, Plastic, paper..., if it is recycled more.., its more beneficial to environment. It can generate employment. state government should support people involved in recycling business.\n', 'score': 0.5520121118253751}</t>
+  </si>
+  <si>
+    <t>{'response': '112- Citizens need to know that roads and empty sites are not places to dump waste, awareness should be created by warning them that cameras are installed at particular places. Monthly survey at places can be done \n', 'score': 0.5509005868351474}</t>
+  </si>
+  <si>
+    <t>{'response': "69- In order to sustain a long life in this city,we have to clear the waste dumped on the roadsides and make sure we'll collect the waste and reuse,recycle it! In the metropolitan city,citizens are not at all aware of the waste that they are giving out,irresponsible of their own cleanliness! So let's join hands together and make our city healthy!\n", 'score': 0.5504503059329104}</t>
+  </si>
+  <si>
+    <t>{'response': '61- Should segregate the waste as soon as possible. So that even the pollution decreases. And people should segregate the waste seperately\n', 'score': 0.5456075632566652}</t>
   </si>
   <si>
     <t>{'response': '9- Outsource garbage problem to companies who will take garbage and give money to govt. They will use this garbage for productivity. Stop spending tax payers money in garbage problem. Watch very old tv serial "satyamev jayate" report about garbage on Star Plus. Please stop fooling public\n', 'score': 0.5447379202311292}</t>
   </si>
   <si>
+    <t>{'response': "22- Clear plan. But the middle men appointed to carry out the job is not done and it's not monitored properly. If this continues, the future plan will get distorted. Need officials regular visit to manage the contractor s work.\n", 'score': 0.543896509343576}</t>
+  </si>
+  <si>
+    <t>{'response': '59- It makes no sense when you start the plan by giving deadline " by 2031 " does it take a decade to get all these to Bangalore, with population increasing like wildfire we need these to be implemented on fastrack and I have no belief as to the fact that this would be done. The government in power or going to be in power will never do this.To keep this on record I have lost all faith. Though we have the knowledge to improve the status quo the government shows no dedication in order to achieve it.Instead of indira canteen that bhagya this bhagya..the government is least considered to improve the quality of life of people\n', 'score': 0.5409992446089169}</t>
+  </si>
+  <si>
     <t>{'response': '10- I feel like when we belong in a tech age. We should use more technology for everything. I read an article in the Bangalore mirror about this app called rubble made my teenagers meant to streamline waste collection. Called RUBBLE. Contact +91-9845309776 to know more about it. \n', 'score': 0.5400528127089051}</t>
   </si>
   <si>
-    <t>{'response': '12- Start putting penalties for not segregating wastes. As an immediate step, replace the 3 wheeler that are used to carry the waste. These are highly polluting and more often they keep littering the waste on the road\n', 'score': 0.6114231104647384}</t>
-  </si>
-  <si>
-    <t>{'response': '15- Provide waste bins to all houses with minimum charges for collection. Provide waste bins in every 50/ 100 meters in Bangalore. Currently people do not know where to throw garbage.  You should make sure that, the houses without registering for waste bins should have more taxes/ fines to be paid.\n', 'score': 0.6680931937335324}</t>
-  </si>
-  <si>
-    <t>{'response': '16- There is absolutely no control over waste collection by BBMP and waste disposal by general public.  Need to do a campaign and educate people  regarding disposal of waste and timely collection by BBMP.  Bangalore to be at par with other major cities, should have proper sewage system, open drains for rain water.  The sewage line and storm water drains currently  in place is unplanned, whenever the work carry out by contractor, there was no supervision by BWSSB or BBMP Engineers.  It is left to the labours to do the job at their will and wish.  Therefore corrective action should be taken immediately to  ensure sewage line is properly laid, and open drains are constructed on each road (main road and cross roads).\n', 'score': 0.7273873208159041}</t>
-  </si>
-  <si>
-    <t>{'response': '17- I think a master plan is all very well, but steps should be taken NOW.  Only then will this work by 2031.  Start with putting up trash cans by the road, and asking municipalities to make sure their workers empty them regularly.  Also close all the vats and get societies and buildings to have a compulsory trash removal system.  Fine People HEAVILY for littering or breaking the law.  And fine People for urinating in public.  It’s a health hazard and spreads diseases.  \n', 'score': 0.6348235719976355}</t>
-  </si>
-  <si>
-    <t>{'response': '19- Th BBMP garbage auto are never on time and sometimes athy never come resulting people to dump the garbage in nearby area.There should be one common point and installation of dustbins so that it is easier for people to dump the garbage without waiting for the Garbage auto to come.\n', 'score': 0.7176706302566397}</t>
-  </si>
-  <si>
-    <t>{'response': '20- Every Citizen of Bangalore should be educated about segregation of waste into Dry &amp; Wet waste. People who violate the rules, who do not seggregate &amp; those who throw garbage in the public places should be fined. Waste bins should be provided by the government for those who cannot afford to buy 2 bins for Dry &amp; Wet waste. All those who work for BBMP should be given good salary &amp; provided with gloves, shoes &amp; masks for them to work safely in handling the waste. CCTV should be installed to monitor those who violate the rules. High end robot trucks should be used to sweep the roads regularly. Waste production should be reduced slowly by reducing the use of plastics bags. bottles etc.\n', 'score': 0.7678855883268907}</t>
-  </si>
-  <si>
-    <t>{'response': "21- Good idea that dumps going out of city.   It's not always possible to be at home and wait for garbage van to throw garbage  Need big garbage bins in residential n public localities.  Segregation is not a very good idea and practically not everyone is doing this. As a result they throw the waste on vacant plots.  \n", 'score': 0.5892596009825937}</t>
-  </si>
-  <si>
-    <t>{'response': "22- Clear plan. But the middle men appointed to carry out the job is not done and it's not monitored properly. If this continues, the future plan will get distorted. Need officials regular visit to manage the contractor s work.\n", 'score': 0.543896509343576}</t>
-  </si>
-  <si>
-    <t>{'response': '23- Implementation should be equally planned. People throw garbage in plastic bags. Heavy fine should be laid upon them. It is equivalent to committing a crime. The main reason for throwing garbage is the corporation vehicles come at one particular time only. To change this permanent closed bins have to be placed for every 10 street atleast. And this bin should be regularly emptied. And the bins have to be separate for dry and wet waste. Main thing is CCTV cameras should be present at the bin collection point. Heavy fine should be laid for those not separating the waste. Through CCTV fine should be laid upon people. Main problem of waste management start from the people creating them. \n', 'score': 0.6864145389283407}</t>
-  </si>
-  <si>
-    <t>{'response': '26- Burning of garbage including plastic materials is a common sight in the city. This seems to be done by residents and by BBMP workers.Please use all the advertsing areas( experts visiting schools, colleges, using bill boards, TV ads,etc)   to educate the public about the consequences . Heavy fines to be charged for violating waste disposal rules. [ \n', 'score': 0.6789020572849722}</t>
-  </si>
-  <si>
-    <t>{'response': '27- No one segregates waste we need to enforce stricter laws\n', 'score': 0.5251390492418702}</t>
-  </si>
-  <si>
-    <t>{'response': '28- This is near the Air force colony near Murugeshpalya.  I have been traveling to this area from 10years. In the past 1 year itself , I have observed that the garbage is piling in the size of mini trucks. Please provide good waste management systems so that the people around do not litter theoir own city. To add to this it is a residential area, I do not understand how people are okay with living in sucha environment. THe garbage piles up in the morinng like a haystack. This is very harmful. It is setting the health facctor of the people around to a very bad state. I would like the authority to curb the add on garbage and hault it as soon as possible , so that it does not become a haazard to common human  life. Regards. Raj \n', 'score': 0.6486055543935654}</t>
-  </si>
-  <si>
-    <t>{'response': "29- Government should adopt some of the waste management methodologies that was telecasted on one of the episodes in Aamir Khan's Satyamev Jayate TV Program.\n", 'score': 0.5760026259393474}</t>
+    <t>{'response': '71- Lorrys carrying waste should be covered and mechanised enough to gather and unload waste \n', 'score': 0.5219587161825727}</t>
+  </si>
+  <si>
+    <t>{'response': '120- There are many places like Kodigehalli and Sahakarnagar where garbage are dumped on the road. No proper cleaning and picking of garbage yet\n', 'score': 0.5140085212638614}</t>
+  </si>
+  <si>
+    <t>{'response': '43- Invest in smart collection of garbage \n', 'score': 0.5038978523700949}</t>
+  </si>
+  <si>
+    <t>{'response': '27- No one segregates waste we need to enforce stricter laws\n', 'score': 0.5016258328253584}</t>
+  </si>
+  <si>
+    <t>{'response': '66- what about the garbage that is dumped on roadside all over bangalore in domlur, old airport road, wind tunnel road. The plan is very theoretical. Just graphs and flow chart wont be helpful  \n', 'score': 0.4990783130890878}</t>
+  </si>
+  <si>
+    <t>{'response': '82- Happy with the process of waste management....but again it all depends on how we as individuals contribute towards the success of this process. \n', 'score': 0.4775409587619857}</t>
   </si>
   <si>
     <t>{'response': '32- Kindly work on stopping plastic use. The rule is in place, it has to be strictly implemented. \n', 'score': 0.4231353118021666}</t>
   </si>
   <si>
-    <t>{'response': '34- Please educate people about waste segregation and educate people not tie garbage in plastic covers. Please ban plastic covers with all vendors and please provide alternative. Please ask groceries shop to stop packing groceries in plastic and educate people to Bring their own bags for groceries and vegetables. Please supply milk in booths to avoid plastic packaging. Please let us save the environment. Please educate women about sustainable menstruation products like cloth pads and menstrual cups.\n', 'score': 0.6326151230961604}</t>
-  </si>
-  <si>
-    <t>{'response': '39- Initially Government has to pay for all waste to each individuals, so people will practice to store waste properly and they will give to waste management system regularly. Once the culture is set government can slowly educate people regarding charity by using their waste management money\n', 'score': 0.6293978084453966}</t>
-  </si>
-  <si>
-    <t>{'response': '43- Invest in smart collection of garbage \n', 'score': 0.5038978523700949}</t>
-  </si>
-  <si>
-    <t>{'response': '45- Need to educate people starting from children in schools, and in turn parents by creating and making compulsory activities as well as strict rules by imposing files for littering. Strict rules will definitely make people stop littering and make the waste management easier\n', 'score': 0.6134577073550198}</t>
-  </si>
-  <si>
-    <t>{'response': '48- Palike employees goes to every area &amp; collect garbage each day for this they demand money every week.one more question is why the palike employees are not wearing protection gloves &amp; mask before pitch into garbage cleaning &amp; touching this kind of ignorance might cause there life, please rework with all the corporators &amp; palike workers &amp; provide them protection accessories each day before they start there work.\n', 'score': 0.6900361796873323}</t>
-  </si>
-  <si>
-    <t>{'response': '49- Rather than implementing costly waste management ideas that fleece public funds the BDA must ensure that the contractors who collect garrbage also ensure that the collection modus will be seperate. The same teams working will only mess up the collection.. \n', 'score': 0.7008470445980323}</t>
-  </si>
-  <si>
-    <t>{'response': '51- It sounds like a plan for the waste generated today. There is no foresightedness to what may be the case in 2030\n', 'score': 0.486751057888925}</t>
-  </si>
-  <si>
-    <t>{'response': '54- Please strictly ban plastic bag. Encourage just bag because paper bag can cause tree cutting. Create waste management plant in every square km. \n', 'score': 0.6251294035824498}</t>
-  </si>
-  <si>
-    <t>{'response': '56- Should try to keep our city clean in our surrounding by ensuring that public dont throw wste on roads...so strict action must be taken on people who throw garbage on roads..only thn people wil realise ..so some awareness must n created for it to keep our city clean amd beautiful\n', 'score': 0.5752212801752601}</t>
-  </si>
-  <si>
-    <t>{'response': '59- It makes no sense when you start the plan by giving deadline " by 2031 " does it take a decade to get all these to Bangalore, with population increasing like wildfire we need these to be implemented on fastrack and I have no belief as to the fact that this would be done. The government in power or going to be in power will never do this.To keep this on record I have lost all faith. Though we have the knowledge to improve the status quo the government shows no dedication in order to achieve it.Instead of indira canteen that bhagya this bhagya..the government is least considered to improve the quality of life of people\n', 'score': 0.5508897463610891}</t>
-  </si>
-  <si>
-    <t>{'response': '61- Should segregate the waste as soon as possible. So that even the pollution decreases. And people should segregate the waste seperately\n', 'score': 0.5529062291480952}</t>
-  </si>
-  <si>
-    <t>{'response': '62- More importance needs to be given to segregation at source with strict enforcement and deterrent measures such as big fines for non segregation at least of wet / dry waste. Of course this goes in par with frequent collection. If daily door to door collection is not possible, and since wet waste cannot be kept more than a day, maybe an option is to have wet waste collection points / composter in each street, maintained by the municipality. This could generate a good revenue by selling the compost as  manure and pay for the salary of the person in charge of maintenance.\n', 'score': 0.6720305965447012}</t>
-  </si>
-  <si>
-    <t>{'response': '63- This is for corporations plz make sure everyone of ur employees do there work properly  Start construction of dustbin tank in the locality everywhere \n', 'score': 0.5845467883632738}</t>
-  </si>
-  <si>
-    <t>{'response': '65- KR market is situated near one of the oldest forts, KR market is filled with dirty garbages, kindly maintain it neatly and take necessary action On the people who spill garbage even after BBMPs board on the area \n', 'score': 0.5726346546895427}</t>
-  </si>
-  <si>
-    <t>{'response': '66- what about the garbage that is dumped on roadside all over bangalore in domlur, old airport road, wind tunnel road. The plan is very theoretical. Just graphs and flow chart wont be helpful  \n', 'score': 0.5281259989828168}</t>
-  </si>
-  <si>
-    <t>{'response': "69- In order to sustain a long life in this city,we have to clear the waste dumped on the roadsides and make sure we'll collect the waste and reuse,recycle it! In the metropolitan city,citizens are not at all aware of the waste that they are giving out,irresponsible of their own cleanliness! So let's join hands together and make our city healthy!\n", 'score': 0.5504503059329104}</t>
-  </si>
-  <si>
-    <t>{'response': '71- Lorrys carrying waste should be covered and mechanised enough to gather and unload waste \n', 'score': 0.5219587161825727}</t>
-  </si>
-  <si>
-    <t>{'response': '72- Lack of facility and disorganised functioning. Need to streamline the pattern of door to door pick up,  bulk collection &amp; sweepers collection.  Absolutely no coordination hence black spot are simply multiplying and littering of garbage everywhere has become unstoppable &amp; uncontrollable.  Hence garbage pick up pattern should be looked into and installation of cameras is a must to monitor and penalize the dirty makers of the locality. \n', 'score': 0.6476332483097696}</t>
-  </si>
-  <si>
-    <t>{'response': '74- There should be a plan for handling the STTP issue as well. Why every apartment complex should have its own STTP plant which is an additional expense for the residents and is always dangerous for the workers like recent deaths in one of the apartments. No other city in the world has this concept and waste is collected through the sewerage pipes and is processes in central plants. Citizens pay property tax, Water and Sewerage connection charges but end up arranging their own water and sewerage treatment plants. This is not what you expect from a state capital that aspires to be a leading smart city. The BDA and government should plan for laying the sewerage network and central processing plants.\n', 'score': 0.6726381033144975}</t>
-  </si>
-  <si>
-    <t>{'response': '75- garbage/landfills are not enough, Reverse Wending machine is a new idea which world is going to use..  bringing awareness to people about waste management and bringing more clear solutions to help residences to dispose their garbage.  cleaning existing drainage is necessary, open drainage needs to closed.  need to have more dustbins around corner of bus stands, streets.   \n', 'score': 0.723168657755843}</t>
-  </si>
-  <si>
-    <t>{'response': '77- Need to recycle efficiently as we see garbage getting dumped in lakes and also level of segregation very poor. Use technology where possible and reduce this problem\n', 'score': 0.6298465701908511}</t>
-  </si>
-  <si>
-    <t>{'response': '79- We need more frequent and timely garbage disposal vehicles in our area, and if its feasible we can do the same way, USA public disposes their garbage\n', 'score': 0.6346966472567855}</t>
-  </si>
-  <si>
-    <t>{'response': '80- Regular waste collection and waste management system \n', 'score': 0.6133304005327402}</t>
-  </si>
-  <si>
-    <t>{'response': '81- After the BBMP drive on segregating the waste before disposal, I wonder if this is really implemented as it was driven by the authority. I often notice, that the garbage carrier, mixes all together, collected from different sources (Dry and Wet waste). A thorough check should be done with them, before they dispose them. Majority of the carrier vehicles are poorly maintained, dirty and releases thick smoke.\n', 'score': 0.6927816512451075}</t>
-  </si>
-  <si>
-    <t>{'response': '82- Happy with the process of waste management....but again it all depends on how we as individuals contribute towards the success of this process. \n', 'score': 0.4775409587619857}</t>
-  </si>
-  <si>
-    <t>{'response': '85- Garbage is a bane of Bangalore, everything looks fine on paper but execution and accountability is nil. Collection and primary segregation to some extent is happening, but transportation is really bad. No place for consolidation nor secondary segregation. There is no concept of compaction . I feel designated areas in each ward to be allocated to carry out secondary segregation and compaction, reduce the burden of waste in volume. This is is the basic problem we face, the filth on the corners created by bbmp, the burning which goes unchecked leading to pollution and health hazards and also street dog menace. All hotels should be having biogas plants to reduce the load of food and wet waste. The abattoirs should have a plan to dispose the remains, all plastic paper, cups, plates should be banned a good idea to come back to earthenware pots and cups. Streets should be provided with bins at every corner which is easily operable and user friendly. I feel for the garbage handlers, they should be given a decent uniform and gloves for handling such waste. Finally the disposal is still a problem. By reducing the waste generated and proper segregation and compaction the volume can be brought down and this disposal should be done ward wise rather than taking it through the city spilling all over.  Awards for the best wards, recognition for the pourmikars , incentives, proper accountability and legislation would go a long way of getting rid of this problem \n', 'score': 0.714389949498623}</t>
-  </si>
-  <si>
-    <t>{'response': '87- 1.In every ward dry waste collection centres need to be established and they should work. 2. There shd be provision for sanitary waste to be collected separately and not mixed with wet waste. 3. Incinerators should be provided at the ward level to dispose sanitary waste.\n', 'score': 0.6795397247594264}</t>
-  </si>
-  <si>
-    <t>{'response': '90- Enforcing waste segregation at the origination point is very important. Unless that is enforced, rest all will be very challenging to achieve. All the Large housing societies should at least be able to recycle all organic waste inhouse and use for landscaping etc. Then the plasctic waste is supposed to be segregated in recycled or non recyclable category. A lot of waste is still not classified correctly to be segregated.\n', 'score': 0.6661956017488642}</t>
-  </si>
-  <si>
-    <t>{'response': '94- All plans on paper look good. Implementation is the key. Businesses that do not comply with waste segregation and waste management should be forced to shut shop.\n', 'score': 0.6315240807518714}</t>
-  </si>
-  <si>
-    <t>{'response': "96- Looks unrealistic not to have any land fills.. even developed countries have some land fill but their collection, segregation and most importantly, the citizens are involved with right education and awareness. Here even if citizen segregate, the collectors mix and take. So, patchy implementation and adherence in few wards doesn't solve the problem.  As photo op, politicians/leaders do launch some scheme and then no clear implementation and accountability exist down ward and this results in poor implementation. Completely privatize the collection of garbage to some good corporate.. and it will work. Otherwise, same contractors and lorry mafia will continue even at 2031. \n", 'score': 0.640519781097957}</t>
-  </si>
-  <si>
-    <t>{'response': "100- Why can't we use garbage into tar road making,  as it's already done at Kamraj  road ,where garbage was melt down due to high temperature of TAR material,  pollution less and there a Is huge requirement of good roads. \n", 'score': 0.5919624708920259}</t>
-  </si>
-  <si>
-    <t>{'response': '102- Waste collection facility should be done 24x7.  Waste collection centers should be installed in every ward. Throwing waste on road should be strictly monitored and violators should be punished severely like disconnecting power/water etc.  The segregated waste can be bought by government for minimum price and the recycled output can be used/sold by government in various schemes. \n', 'score': 0.7115293952591347}</t>
-  </si>
-  <si>
-    <t>{'response': '103- Waste management in public areas should be organised. Recycle bins and wet and dry waste bins should be kept every 200 mts in roads and in cross roads. Loose or open food should not be allowed inside public transport. \n', 'score': 0.6716152770404293}</t>
-  </si>
-  <si>
-    <t>{'response': '104- lot of data is inaccurate, the growth of bangalore is tremendous in the last ten years but data shows incorrect numbers hence, i am sure its plan by BBMP is slow and only PDF not in action.\n', 'score': 0.5802651896459025}</t>
-  </si>
-  <si>
-    <t>{'response': '105- 1. Dustbins are not present beside road.. Should have closed ones, every 100ms. 2. Big dustbins for household garbage disposal.\n', 'score': 0.6232864158403919}</t>
-  </si>
-  <si>
-    <t>{'response': '107- It will be one of the great initiatives by which it help every public to have a infection/virus free hygienic life forward. This will also help city tourism development and increase business investments which will create more jobs and importantly will attract huge acknowledgment from countries all over.  Also there should be strict sessions/syllabus in every school and awareness programs in every single home and cleanliness starts from there. Proper management and installation of garbage boxes in each and every nook and corners of the city. \n', 'score': 0.6343063190544229}</t>
-  </si>
-  <si>
-    <t>{'response': "108- It's a good vision however the education and behavioral change in people has to be brought in.  Currently I see no segregation of waste even by those who are educated about it's importance. The garbage collections vehicles should deny accepting if not segregated.  Installation of CCTv's at areas where garbage is thrown by people regularly and a stringent policy to fine and punish the offenders. \n", 'score': 0.6348414435353513}</t>
-  </si>
-  <si>
-    <t>{'response': '109- I have a suggestion that please have waste collection cans, huge ones per street where each household /building should segregate and put their wastes. This will ease the job to bbmp and to the public\n', 'score': 0.6375773933787853}</t>
-  </si>
-  <si>
-    <t>{'response': '111- Every 500m radius there should be a waste bin so that people throw waste in the waste bin and keep the city clean.\n', 'score': 0.6053586334334164}</t>
-  </si>
-  <si>
-    <t>{'response': '112- Citizens need to know that roads and empty sites are not places to dump waste, awareness should be created by warning them that cameras are installed at particular places. Monthly survey at places can be done \n', 'score': 0.5509005868351474}</t>
-  </si>
-  <si>
-    <t>{'response': '114- People involved in waste management need to be sensitized and educated on the impact of their work.  \n', 'score': 0.5566242699313436}</t>
-  </si>
-  <si>
-    <t>{'response': '115- The better way to manage this is via private vendors like how Singapore or other cities manage it. These experienced waste management companies need to bring in their experience, and implement the comprehensive plans including keeping the city roads (not just the main roads but all artery and sub roads) clean. Once this happens, a lot of the space consumed today because people cannot walk on this path etc can be cleared out and better usage of the space we have.\n', 'score': 0.701316548655957}</t>
-  </si>
-  <si>
-    <t>{'response': '117- The pornakarmikas to be given More safety measures and rights to refuse picking of waste if not segregated. No waste carrying in the open trucks and landfills to be far from schools n hospitals n other public spaces. \n', 'score': 0.6079075462118603}</t>
-  </si>
-  <si>
-    <t>{'response': '118- A definite MUST. Educate people from the ground level and the schools to be responcible for their own waste and the repurcussions of being negligent to this for our future. A clean well maintained city would be a pleasure to live in.\n', 'score': 0.6078128298890788}</t>
-  </si>
-  <si>
-    <t>{'response': '119- I do not see any mention for Sewage Treatment. The current Sewage treatment plants barely manage 50% of the requirement, thus leading to pollution of the lakes and the surrounding land and ground water. Adding more strategically located sewage treatment plants with new efficient methodologies, will help reduce the discharge into our lakes, thus saving them. This also resolves our water problem as more and more lakes will become available for water supply.\n', 'score': 0.6110839823109745}</t>
-  </si>
-  <si>
-    <t>{'response': '120- There are many places like Kodigehalli and Sahakarnagar where garbage are dumped on the road. No proper cleaning and picking of garbage yet\n', 'score': 0.6027945333489653}</t>
-  </si>
-  <si>
-    <t>{'response': '121- Build biogas plants, dry waste processing centres , incinerators in every ward . Every single eatery in the city is violating waste segregation rules. Need zero tolerance for people in food business. Every single shop on street is dumping waste on empty plots.  Please install huge 3 colour bins in public areas and educate the independent houses /shops abdcsegregate and deposit on theme bbmp bins. Give them an option to dispose off their waste responsibly.\n', 'score': 0.7176164096497711}</t>
-  </si>
-  <si>
-    <t>{'response': '123- My self iam a civil Engineer,my opinion towards waste management is ,most of the people are demolishing the old buildings after that they will get all waste materials from the building as steel and hardened broken pieces of concrete,steel etc. Most of the people will sell steel for scrap value but they are throwing the hardened broken pieces as wastage,no one is recycling .so my conclusion is government will implement the usage of   hardened broken concrete as a partial replacement of coarse aggregates then usage of aggregate and cement will get reduced due to this.\n', 'score': 0.6724455314064219}</t>
-  </si>
-  <si>
-    <t>{'response': '124- every alternate day waste collecting should happen before office hours\n', 'score': 0.5807519252327936}</t>
-  </si>
-  <si>
-    <t>{'response': '126- More thoughts to be done on recycling the waste, rather processing. Example Glass waste, Plastic, paper..., if it is recycled more.., its more beneficial to environment. It can generate employment. state government should support people involved in recycling business.\n', 'score': 0.5520121118253751}</t>
-  </si>
-  <si>
-    <t>{'response': '131- I think it is becoming very difficult for the house holders to dispatch there waste at right places and the BBMP has to find different options of collecting the waste from house holders\n', 'score': 0.661770873410665}</t>
-  </si>
-  <si>
-    <t>{'response': '132- Put hefty fines in place for people failing obey waste segregation rules. Make it an point that all organic waste should be take care in particular ward or area by decomposition techniques. Only inorganic waste needs to find its way out to waste processing units. Commercial premises, office spaces,restaurants, hotels and big apartment complexes are the real culprits who break the rules.so more stringent rules need to be in place. \n', 'score': 0.6879538873121912}</t>
-  </si>
-  <si>
-    <t>{'response': '133- Get garbage clearing of wet waste on a daily basis. Fines for households that do not segregate waste\n', 'score': 0.630258094465594}</t>
-  </si>
-  <si>
-    <t>{'response': '135- It can be more better. Collect videos from nearby CCTV cam where throwing waste is prohibited and collect heavy fines. Using Bio gas plant can reduce dumping space and byproduct can be used to generate funds.\n', 'score': 0.6229218465591269}</t>
-  </si>
-  <si>
-    <t>{'response': '136- support groups like Sahaas and Hasiru Dala in actually supporting recycling.  many buildings (like mine) have recycle bins that are all used for garbage.  people dont even know which bin is for what.  Make sure that groups like carbon masters are engaged to turn waste into green resources\n', 'score': 0.636780124933559}</t>
+    <t>{'response': '106- Though looks good, the organic waste proceeding centres should be one in each ward, IE almost 200. The processed compost can be sold across counter to residents. The processing centre should have proper high raise enclosures with net cover over it. Continued use of abandoned quarries should be discontinued as it is objectionable and against objectives of pollution control board Other waste collection centres should have skid covered containers for collection and to transport the skid to segregation and processing centres \n', 'score': 0.7186367445528866}</t>
+  </si>
+  <si>
+    <t>{'response': '128- Educate the people to compost the wet waste at home itself. Demonstrations to each layouts, in schools for children helps reduce 60% waste deposits. Easy way of composting is to dump the wet waste in a pot and cover it with a layer of soil and the waste will decompose within a week. \n', 'score': 0.6153596524133261}</t>
+  </si>
+  <si>
+    <t>{'response': '37- in many areas i have seen waste collectors not segregating dry and wet waste  (i can give proof for following  pincode 560075 \n', 'score': 0.5847278748561188}</t>
   </si>
   <si>
     <t>{'response': '7- Overall landfill method will not sustain. The idea of reducing waste generation has to be brought city. As a city we  will have come up with ways where we reduce waste by 30% - 40% per household from what we do now. BBMP should become just governing body and provide the contracts to innovative companies for converting wastes and generating revenue out of it. \n', 'score': 0.5660897455248656}</t>
   </si>
   <si>
-    <t>{'response': '24- Point1) each &amp; every corner bang plastic ( eating these innocent way lots of cows died through  ailing. 2)  put road rules with fine.   3) Take care complete envirnament through effective plants to put . 4)Avoid writing in road side walls with the ugly hand writing. Instead than keep big boards with effective writing , which is useful for general public. 5)Bring awareness in public caution driving, keeping envirnament clean ( through alerting about infections , because of their sheer carelessness how many deaths through infections) these all can be manageable  through  big, big banners .  It should do without stoping again, again.  Thanks  Kind Regards. Radha srisailam.\n', 'score': 0.48447529897846664}</t>
-  </si>
-  <si>
-    <t>{'response': '37- in many areas i have seen waste collectors not segregating dry and wet waste  (i can give proof for following  pincode 560075 \n', 'score': 0.5847278748561188}</t>
-  </si>
-  <si>
-    <t>{'response': '67- Convert waste into energy. Follow Swiss model.\n', 'score': 0.4009201234761391}</t>
-  </si>
-  <si>
-    <t>{'response': '106- Though looks good, the organic waste proceeding centres should be one in each ward, IE almost 200. The processed compost can be sold across counter to residents. The processing centre should have proper high raise enclosures with net cover over it. Continued use of abandoned quarries should be discontinued as it is objectionable and against objectives of pollution control board Other waste collection centres should have skid covered containers for collection and to transport the skid to segregation and processing centres \n', 'score': 0.7235265363799877}</t>
-  </si>
-  <si>
-    <t>{'response': '128- Educate the people to compost the wet waste at home itself. Demonstrations to each layouts, in schools for children helps reduce 60% waste deposits. Easy way of composting is to dump the wet waste in a pot and cover it with a layer of soil and the waste will decompose within a week. \n', 'score': 0.6153596524133261}</t>
-  </si>
-  <si>
-    <t>{'response': '6- Waste should be collected althernative days. and dustbins should be provided more places , so peoplewill not throw the waste in the roads. \n', 'score': 0.6671712347095329}</t>
-  </si>
-  <si>
-    <t>{'response': '95- Current situation is everywhere we see garbage..And city being called as garbage city, you need to find recycling of waste into reusable products..\n', 'score': 0.6480294856073072}</t>
-  </si>
-  <si>
-    <t>['98- Plan is very good but we have to make sure that everybody should follow. If not followed that there should heavy fine. \n', '14- Also, make this job a bit dignified. The sewage pickers must have gloves and boots. It will make their job respectable as well as hygienic. \n', '50- Plan is good impletment asap\n', '8- Plan looks good when imlemented\n']</t>
+    <t>{'response': '24- Point1) each &amp; every corner bang plastic ( eating these innocent way lots of cows died through  ailing. 2)  put road rules with fine.   3) Take care complete envirnament through effective plants to put . 4)Avoid writing in road side walls with the ugly hand writing. Instead than keep big boards with effective writing , which is useful for general public. 5)Bring awareness in public caution driving, keeping envirnament clean ( through alerting about infections , because of their sheer carelessness how many deaths through infections) these all can be manageable  through  big, big banners .  It should do without stoping again, again.  Thanks  Kind Regards. Radha srisailam.\n', 'score': 0.4826264695859213}</t>
+  </si>
+  <si>
+    <t>{'response': '6- Waste should be collected althernative days. and dustbins should be provided more places , so peoplewill not throw the waste in the roads. \n', 'score': 0.7169485669973242}</t>
+  </si>
+  <si>
+    <t>{'response': '86- Having proper waste collection plans.\n', 'score': 0.6851464730339608}</t>
+  </si>
+  <si>
+    <t>{'response': '95- Current situation is everywhere we see garbage..And city being called as garbage city, you need to find recycling of waste into reusable products..\n', 'score': 0.662421092813998}</t>
+  </si>
+  <si>
+    <t>{'response': '80- Regular waste collection and waste management system \n', 'score': 0.6274987598045029}</t>
+  </si>
+  <si>
+    <t>{'response': '47- Dumping waste far away from Bengaluru is not solution .It will create pollution at the dumped site .Should process and minimise the dumping lot itself .\n', 'score': 0.6213180002849346}</t>
+  </si>
+  <si>
+    <t>{'response': '76- Sweden and other countries are successfully converting waste to energy - we must learn and adopt those methods\n', 'score': 0.560202456833001}</t>
+  </si>
+  <si>
+    <t>{'response': '13- No fluid waste should be allowed to flow into any of the lakes.\n', 'score': 0.5586553879226475}</t>
+  </si>
+  <si>
+    <t>{'response': '51- It sounds like a plan for the waste generated today. There is no foresightedness to what may be the case in 2030\n', 'score': 0.5010760773057406}</t>
+  </si>
+  <si>
+    <t>{'response': '67- Convert waste into energy. Follow Swiss model.\n', 'score': 0.4498052700981864}</t>
+  </si>
+  <si>
+    <t>['50- Plan is good impletment asap\n', '98- Plan is very good but we have to make sure that everybody should follow. If not followed that there should heavy fine. \n', '14- Also, make this job a bit dignified. The sewage pickers must have gloves and boots. It will make their job respectable as well as hygienic. \n', '8- Plan looks good when imlemented\n']</t>
   </si>
   <si>
     <t>['18- Lory points suck\n']</t>
@@ -2735,13 +2738,13 @@
     <t>['25- Daily pick up from every road must be done, and ensure all pick up points to be emptied now and then.\n', '52- Dustbins in every roads and it should be cleaned\n']</t>
   </si>
   <si>
-    <t>['129- this is also main issue in Bangalore. They have to take more concern in this. We have to give circular for each house\n', '138- Segregation at source must be made mandatory. Whoever doing right should be given incentives and people who are adamant should be penalized heavily\n', '40- Garbage burning has been a common issue in Bengaluru. How are they going to enforce law and punish the people burning waste? \n', '57- I have seen alot worse places in bengaluru ex: byrathi bande to chikka gubbi Hennur bagalur road frm gaddalahalli til hennur bande(waste water and smell)\n', '30- Lanfill should not be an option at the moment now... fill now and eradicate later is no joke!! This will cause lot of issue to the near by areas... example of such lanfill gone worse can be found in our country itself Delhi -Agra expressway!! Which might happen around Bangalore the so said green city turning to be a growing place for MNCs and majorly growing city across India.  Then request of a new budgetary/ tender to clear such land mass especially in a quarry land which if dumped with plastic would take longer time to decompose... or might never!!  After dumping in such areas how are they covered is there any layering of dirt on such garbage??!  If not then it doesn’t make any difference that the BBMP dump in such areas or the public dumping household garbage On their streets.  Hope to find a response to such poor act to play in future and pushing it for next 10years??!!  Yours concerned Citizen of Bangalore, HBR Layout-  560043\n']</t>
+    <t>['30- Lanfill should not be an option at the moment now... fill now and eradicate later is no joke!! This will cause lot of issue to the near by areas... example of such lanfill gone worse can be found in our country itself Delhi -Agra expressway!! Which might happen around Bangalore the so said green city turning to be a growing place for MNCs and majorly growing city across India.  Then request of a new budgetary/ tender to clear such land mass especially in a quarry land which if dumped with plastic would take longer time to decompose... or might never!!  After dumping in such areas how are they covered is there any layering of dirt on such garbage??!  If not then it doesn’t make any difference that the BBMP dump in such areas or the public dumping household garbage On their streets.  Hope to find a response to such poor act to play in future and pushing it for next 10years??!!  Yours concerned Citizen of Bangalore, HBR Layout-  560043\n', '138- Segregation at source must be made mandatory. Whoever doing right should be given incentives and people who are adamant should be penalized heavily\n', '129- this is also main issue in Bangalore. They have to take more concern in this. We have to give circular for each house\n', '57- I have seen alot worse places in bengaluru ex: byrathi bande to chikka gubbi Hennur bagalur road frm gaddalahalli til hennur bande(waste water and smell)\n', '40- Garbage burning has been a common issue in Bengaluru. How are they going to enforce law and punish the people burning waste? \n']</t>
   </si>
   <si>
     <t>['31- Our top leaders, burocrats has to come and see how middle, lower middle and poor income groups are living. They have to see the ground reality leaving their a/c rooms.\n']</t>
   </si>
   <si>
-    <t>['46- I feel we have to make use of the waste.. by bio diesel system generated.. there are lots of people who are unemployed in our country, and I think this will help in also eradicating the unemployment scenario in our country.\n', '78- Honestly current state of affairs is pathetic, Lets try to implement some model that is working in other states/countries. I can volunteer for the cause\n', '68- Plan to crush it at source layout wise. Make use of these as energy source wardwise at least. Also to do research on how building level crush and use as energy source. At least nearby street lights can get benefitted out of it.\n', '93- Please encourage compost making to big societies and reduce generation of garbage. Malls and eateries shoudl be fined for using use and throw cutlery and plates. IMPOSE FINE wherever required and get bodieds to collect fine. when there is no one to monitor , fine can also not help.\n', '33- Try to educate people\n', '83- The plan is good, but the implementation is where we fail. Strict fines and penalties, and awareness will help improve the participation of citizens in this exercise\n', "64- We still lady still sweeping the roads by broom manually. Your plans are made without knowing what's happening in ground. Please be realistic and responsible \n"]</t>
+    <t>['78- Honestly current state of affairs is pathetic, Lets try to implement some model that is working in other states/countries. I can volunteer for the cause\n', '83- The plan is good, but the implementation is where we fail. Strict fines and penalties, and awareness will help improve the participation of citizens in this exercise\n', '46- I feel we have to make use of the waste.. by bio diesel system generated.. there are lots of people who are unemployed in our country, and I think this will help in also eradicating the unemployment scenario in our country.\n', '33- Try to educate people\n']</t>
   </si>
   <si>
     <t>['36- Garbage everywhere. It stinks. Disease spread. Mosquito nuisance.\n']</t>
@@ -2753,6 +2756,9 @@
     <t>['53- Reference Page number is wrong\n']</t>
   </si>
   <si>
+    <t>["64- We still lady still sweeping the roads by broom manually. Your plans are made without knowing what's happening in ground. Please be realistic and responsible \n", '68- Plan to crush it at source layout wise. Make use of these as energy source wardwise at least. Also to do research on how building level crush and use as energy source. At least nearby street lights can get benefitted out of it.\n', '93- Please encourage compost making to big societies and reduce generation of garbage. Malls and eateries shoudl be fined for using use and throw cutlery and plates. IMPOSE FINE wherever required and get bodieds to collect fine. when there is no one to monitor , fine can also not help.\n']</t>
+  </si>
+  <si>
     <t>['70- Should look into turning bio wastes into bio gas. Set up bio gas plants. \n']</t>
   </si>
   <si>
@@ -2783,67 +2789,58 @@
     <t>['134- UGD should be provided to 100% residents\n']</t>
   </si>
   <si>
-    <t>{'response': '13- No fluid waste should be allowed to flow into any of the lakes.\n', 'score': 0.519899009052732}</t>
-  </si>
-  <si>
-    <t>{'response': '42- Effective segregation and implementation of ensuring non degradable material is eliminated at source \n', 'score': 0.5235482219663036}</t>
-  </si>
-  <si>
     <t>{'response': '60- Better waste collection system needs to be bought in. Waste segregation should be made compulsory. Solution to solve the stinking collection points.\n', 'score': 0.6880632589747456}</t>
   </si>
   <si>
-    <t>{'response': '86- Having proper waste collection plans.\n', 'score': 0.6182119550801367}</t>
-  </si>
-  <si>
-    <t>{'response': '88- Segregation can only be possible if there is a law and people fear the law. Let there be a law that criminalises non segregation and throwing of garbage instead of handing it to the Garbage management employees. Let it be a mandate that there be 3 bins one for wet, one for dry and one for sanitary at all house holds.\n', 'score': 0.6741977054834795}</t>
+    <t>{'response': '88- Segregation can only be possible if there is a law and people fear the law. Let there be a law that criminalises non segregation and throwing of garbage instead of handing it to the Garbage management employees. Let it be a mandate that there be 3 bins one for wet, one for dry and one for sanitary at all house holds.\n', 'score': 0.6811607005754167}</t>
+  </si>
+  <si>
+    <t>{'response': '103- Waste management in public areas should be organised. Recycle bins and wet and dry waste bins should be kept every 200 mts in roads and in cross roads. Loose or open food should not be allowed inside public transport. \n', 'score': 0.6506836945396822}</t>
+  </si>
+  <si>
+    <t>{'response': '137- Segregation should not be stopped at organic and inorganic waste, similar to developed countries, glass, plastic, paper, organic, medical should be split and treated or recycled accordingly.\n', 'score': 0.5532434583477431}</t>
+  </si>
+  <si>
+    <t>{'response': '42- Effective segregation and implementation of ensuring non degradable material is eliminated at source \n', 'score': 0.4831828100289648}</t>
+  </si>
+  <si>
+    <t>{'response': '127- I request government to implement the segregation of wastes very strict and provide something great in return to the community which follows it properly. Start implementing at the smallest level of change to be happening.\n', 'score': 0.4751728061822858}</t>
   </si>
   <si>
     <t>{'response': '91- Still Waste Management is challenge, people have gone to Singapore and studied and come. still there is no improvement in conditions. \n', 'score': 0.4688903770679966}</t>
   </si>
   <si>
-    <t>{'response': '127- I request government to implement the segregation of wastes very strict and provide something great in return to the community which follows it properly. Start implementing at the smallest level of change to be happening.\n', 'score': 0.4751728061822858}</t>
-  </si>
-  <si>
-    <t>{'response': '137- Segregation should not be stopped at organic and inorganic waste, similar to developed countries, glass, plastic, paper, organic, medical should be split and treated or recycled accordingly.\n', 'score': 0.5532434583477431}</t>
-  </si>
-  <si>
-    <t>{'response': '47- Dumping waste far away from Bengaluru is not solution .It will create pollution at the dumped site .Should process and minimise the dumping lot itself .\n', 'score': 0.606754368750584}</t>
+    <t>{'response': '55- Not Good. The Government has to provide the waste management facility.No one is going to build their own waste management systems\n', 'score': 0.6832692752641353}</t>
   </si>
   <si>
     <t>{'response': '35- Complete kormangala and ejipura area has the worst waste management \n', 'score': 0.6517112503543709}</t>
   </si>
   <si>
+    <t>{'response': '97- Shift out seegehalli and kannahalli waste treatment plants. Ward level waste processing units to be established\n', 'score': 0.6486455466666388}</t>
+  </si>
+  <si>
     <t>{'response': '44- Unauthorized constructions and poor waste management in those areas. \n', 'score': 0.6144831274377182}</t>
   </si>
   <si>
-    <t>{'response': '55- Not Good. The Government has to provide the waste management facility.No one is going to build their own waste management systems\n', 'score': 0.6832692752641353}</t>
-  </si>
-  <si>
-    <t>{'response': '76- Sweden and other countries are successfully converting waste to energy - we must learn and adopt those methods\n', 'score': 0.5106069554626074}</t>
+    <t>{'response': '99- Local waste management at ward level is the only solution.\n', 'score': 0.614338501108103}</t>
   </si>
   <si>
     <t>{'response': '84- There is very poor law enforcement for waste segregation. This needs to be tackled if any form of waste management to succeed. \n', 'score': 0.5411996775805824}</t>
   </si>
   <si>
-    <t>{'response': '97- Shift out seegehalli and kannahalli waste treatment plants. Ward level waste processing units to be established\n', 'score': 0.6486455466666388}</t>
-  </si>
-  <si>
-    <t>{'response': '99- Local waste management at ward level is the only solution.\n', 'score': 0.614338501108103}</t>
+    <t>{'response': '41- Under waste management there should be a cooperation between road management authority and waste management. Debris and garbage found on roads should be collected by gatbage collectors. The waste piled up is clogging our drains, canals and lakes. \n', 'score': 0.5866301933440179}</t>
+  </si>
+  <si>
+    <t>{'response': '73- Proper garbage collection is not done in most of the areas especially in our area Hoysala nagar ( hormavu ) ward no -25 \n', 'score': 0.573393667015205}</t>
   </si>
   <si>
     <t>{'response': '3- I have complained many times but still garabage is dump right near BBMP High school in East road Austin town BLR- 47\n', 'score': 0.5718853732082012}</t>
   </si>
   <si>
+    <t>{'response': '58- BBMP should be split to makes their task easier.\n', 'score': 0.5527179788552248}</t>
+  </si>
+  <si>
     <t>{'response': '11- No concrete solution,  still searching place to dump,  initiate ward wise handling,  then people will be responsible \n', 'score': 0.5230649507508046}</t>
-  </si>
-  <si>
-    <t>{'response': '41- Under waste management there should be a cooperation between road management authority and waste management. Debris and garbage found on roads should be collected by gatbage collectors. The waste piled up is clogging our drains, canals and lakes. \n', 'score': 0.5866301933440179}</t>
-  </si>
-  <si>
-    <t>{'response': '58- BBMP should be split to makes their task easier.\n', 'score': 0.5527179788552248}</t>
-  </si>
-  <si>
-    <t>{'response': '73- Proper garbage collection is not done in most of the areas especially in our area Hoysala nagar ( hormavu ) ward no -25 \n', 'score': 0.6618318961034715}</t>
   </si>
   <si>
     <t>{'response': '122- Need more micro planning...each ward must be made responsible and fines must be levied for not complying with rules.\n', 'score': 0.4387787668449888}</t>
@@ -2868,12 +2865,12 @@
 </t>
   </si>
   <si>
+    <t>{'response': '36- Lakes should be protected such that no garbage can be dumped into lakes and any unwanted growth in lake ( weeds choking the lake ) are removed\n', 'score': 0.6494215370575487}</t>
+  </si>
+  <si>
     <t>{'response': '27- We should look at options to revive the dying lakes as the first step towards water management \n', 'score': 0.5445814556182452}</t>
   </si>
   <si>
-    <t>{'response': '36- Lakes should be protected such that no garbage can be dumped into lakes and any unwanted growth in lake ( weeds choking the lake ) are removed\n', 'score': 0.6494215370575487}</t>
-  </si>
-  <si>
     <t>["8- (1) Water is Life. (2) Rejuvenation of Lake is mentioned in one para out of 200+ pages. Only way I see life to sustain is by 'recovering' the lost lakes all 300+ even though we may not be able to undo the 16 listed by Karnataka govt in http://www.karnataka.gov.in/Parisaramahiti/Pages/Lost-lakes-of-Bangalore.aspx (3) Robust programme to maintain cleanliness and protection of these lakes. (4) Improve ground water levels n every method possible.\n", '1- Presently the lakes are filled with drainage.  How can that be revived? \n', '47- Revive the lakes asap! \n', '37- I liked the ideA of Rally for rivers by Isha foundations, i think if we cam implement for all rivers in Karnataka, i am very sure all our lakes will be in par with finland or best in the world. Again i can be part of this initiative\n']</t>
   </si>
   <si>
@@ -2904,127 +2901,142 @@
     <t>['72- If it executed well and good\n']</t>
   </si>
   <si>
+    <t>{'response': '57- New areas added should be serviced by BBMP with schedule. Setting up water recycling centres at convenient nearby location is just a statement not necessarily to happen Locations should be identified now itself. Construction of duct along existing water line is must considering future expansions. Now existing water line and add recycled water line will be inside duct and should be large enough to add or replace with large did lines without digging the road. The number of inspection covers depend on length of a single pipe or flexible pipe.  Rain water harvesting should be made compulsory irrespective of the condition arra Storm water ducts on with side of road should have restricted flow barrages and several holes with tubing for water to seep in soil. Else, low-lying areas will be affected as happening now in several residential locations during monsoon. \n', 'score': 0.7118229626154234}</t>
+  </si>
+  <si>
+    <t>{'response': '74- Making it mandatory to have Rain water harvesting system in an existing property and in newly built property is the only way to increase the ground water table in the city where there is very less ground available for the natural percolation. Another point is to convert all the existing lakes into sewage treatment plants with natural methods or for example as the lake Hussain Sagar in Hyderabad which is a tourist attraction but actually a sewage treatment plant.\n', 'score': 0.6845286294669256}</t>
+  </si>
+  <si>
+    <t>{'response': '61- Sewage water needs to be handled properly.\n', 'score': 0.667954114933616}</t>
+  </si>
+  <si>
+    <t>{'response': "6- I believe the government should also consider public rainwater harvesting and recharge to offset the huge amount of land that has been paved with roads and concreted over. My suggestion is to mandatory have bottom stones in roadside drains removed or replaced by seepage gratings every 30 feet. Zain addition there can be recharge pits constructed at low points in roads etc where overflow can be run off in the normal roadside drains. Water recharge by the govt on such a scale would augment small measures by people in their own residences or apartment complexes. If we continue taking out ground water at the rate we currently are and don't do something to recharge this precious resource in a thought out and proactive way our future generations in Bangalore will be doomed. Kind regards, Glenn Rego\n", 'score': 0.6645578175351461}</t>
+  </si>
+  <si>
+    <t>{'response': '20- Unless there are major sewage treatments plants the problem of water contamination and loss of precious lakes cant be stopped, even at this point sewage treatment is still not considered as a major issue. The implementation of Rain Water Harvesting has not been completely. With the RWH facility we can improve the ground water table, which especially in Bangalore is depleting by the day.\n', 'score': 0.6640883879635108}</t>
+  </si>
+  <si>
     <t>{'response': '5- I would like to suggest that our storm water drains be made porous and incorporate recharge pits in them, so that the water outflow is reduced as a major part of the flow can get absorbed into the soil and restore the ground water . This simple system will recharge all the bore wells, open wells and also reduce the incidents of flooding.This has been implemented in many countries successfully and is is solution for the future of our cities.\n', 'score': 0.6373410396323231}</t>
   </si>
   <si>
-    <t>{'response': "6- I believe the government should also consider public rainwater harvesting and recharge to offset the huge amount of land that has been paved with roads and concreted over. My suggestion is to mandatory have bottom stones in roadside drains removed or replaced by seepage gratings every 30 feet. Zain addition there can be recharge pits constructed at low points in roads etc where overflow can be run off in the normal roadside drains. Water recharge by the govt on such a scale would augment small measures by people in their own residences or apartment complexes. If we continue taking out ground water at the rate we currently are and don't do something to recharge this precious resource in a thought out and proactive way our future generations in Bangalore will be doomed. Kind regards, Glenn Rego\n", 'score': 0.6705385218688232}</t>
-  </si>
-  <si>
-    <t>{'response': '10- Govt needs to come up with good plan to store water. Most of the areas in Bangalore are suffering from water deficiency. if this continues Bangalore will not have water in coming years.\n', 'score': 0.5432948621806694}</t>
+    <t>{'response': '21- As regarding storm water drains, they are closed by foot paths , as a result water is not being channeled into the drains .this is leading to flooding of roads. And also along with reviving lakes , air from.water systems on the lines of Israel needs to be looked into ..this can help.reduse dependence on cauvery water\n', 'score': 0.6345845745550069}</t>
+  </si>
+  <si>
+    <t>{'response': '65- Create drainage system around lakes and bypass drainage water into this. Create a walking track and hangout place on the drainage canal  around the lake.\n', 'score': 0.6302645504699573}</t>
+  </si>
+  <si>
+    <t>{'response': "31- how do you plan to tackle the water mafia?? they drain our water system and need to be monitored. checking on STP'S in large complexes is also to be considered\n", 'score': 0.6268213285003437}</t>
+  </si>
+  <si>
+    <t>{'response': '80- How does one get out of the Water mafia? A city dependent of private tankers for its citizens and expansion is risky and flawed. If the city cannot supply piped water supply to its citizens, BBMP / BWSSB should supply water out of the taxes we pay and not charged separately by private tankers. \n', 'score': 0.6207248525814093}</t>
+  </si>
+  <si>
+    <t>{'response': '64- Need to provide basic water facility to Blore nearby areas to sustain the growth and City need to be decongested by developing nearby places like Anekal, Attibele, Sarjapura, Hoskote, DB Pura by BDA\n', 'score': 0.6030942479090242}</t>
+  </si>
+  <si>
+    <t>{'response': '78- The Master plan should aim to supply 24x7 supply as considered for other Smart cities. The main source being Cauvery needs to be effectively and potentially utilised. Citizens should be made aware of the value of water and needs an intensive training.\n', 'score': 0.5846573195961454}</t>
+  </si>
+  <si>
+    <t>{'response': '62- Limited focus on improving water level in the city and identifying alternate source of supply of water to the city.\n', 'score': 0.5732554735416441}</t>
+  </si>
+  <si>
+    <t>{'response': '10- Govt needs to come up with good plan to store water. Most of the areas in Bangalore are suffering from water deficiency. if this continues Bangalore will not have water in coming years.\n', 'score': 0.5345512065432348}</t>
+  </si>
+  <si>
+    <t>{'response': '81- Unless you provide water to private layout residents, your master plan is useless.\n', 'score': 0.5271145034620504}</t>
+  </si>
+  <si>
+    <t>{'response': '67- Also water leakage mechanism should be put in place\n', 'score': 0.5257718807969406}</t>
+  </si>
+  <si>
+    <t>{'response': '73- Request to treat the water from vrishabhavathi and make it a river front and tourist attraction\n', 'score': 0.5255433562362748}</t>
+  </si>
+  <si>
+    <t>{'response': '24- Plan for future water problems \n', 'score': 0.4890129058299051}</t>
+  </si>
+  <si>
+    <t>{'response': '22- Their is no water connection here at whitefield  bangalore\n', 'score': 0.4868039243055855}</t>
   </si>
   <si>
     <t>{'response': '11- stop the water mafia currently run by political goons\n', 'score': 0.38902784878656776}</t>
   </si>
   <si>
-    <t>{'response': '20- Unless there are major sewage treatments plants the problem of water contamination and loss of precious lakes cant be stopped, even at this point sewage treatment is still not considered as a major issue. The implementation of Rain Water Harvesting has not been completely. With the RWH facility we can improve the ground water table, which especially in Bangalore is depleting by the day.\n', 'score': 0.6691517838378843}</t>
-  </si>
-  <si>
-    <t>{'response': '21- As regarding storm water drains, they are closed by foot paths , as a result water is not being channeled into the drains .this is leading to flooding of roads. And also along with reviving lakes , air from.water systems on the lines of Israel needs to be looked into ..this can help.reduse dependence on cauvery water\n', 'score': 0.6345845745550069}</t>
-  </si>
-  <si>
-    <t>{'response': '22- Their is no water connection here at whitefield  bangalore\n', 'score': 0.4150230887840742}</t>
-  </si>
-  <si>
-    <t>{'response': '24- Plan for future water problems \n', 'score': 0.4890129058299051}</t>
-  </si>
-  <si>
-    <t>{'response': "31- how do you plan to tackle the water mafia?? they drain our water system and need to be monitored. checking on STP'S in large complexes is also to be considered\n", 'score': 0.6268213285003437}</t>
-  </si>
-  <si>
-    <t>{'response': '57- New areas added should be serviced by BBMP with schedule. Setting up water recycling centres at convenient nearby location is just a statement not necessarily to happen Locations should be identified now itself. Construction of duct along existing water line is must considering future expansions. Now existing water line and add recycled water line will be inside duct and should be large enough to add or replace with large did lines without digging the road. The number of inspection covers depend on length of a single pipe or flexible pipe.  Rain water harvesting should be made compulsory irrespective of the condition arra Storm water ducts on with side of road should have restricted flow barrages and several holes with tubing for water to seep in soil. Else, low-lying areas will be affected as happening now in several residential locations during monsoon. \n', 'score': 0.7114536993921374}</t>
-  </si>
-  <si>
-    <t>{'response': '61- Sewage water needs to be handled properly.\n', 'score': 0.667954114933616}</t>
-  </si>
-  <si>
-    <t>{'response': '62- Limited focus on improving water level in the city and identifying alternate source of supply of water to the city.\n', 'score': 0.5732554735416441}</t>
-  </si>
-  <si>
-    <t>{'response': '64- Need to provide basic water facility to Blore nearby areas to sustain the growth and City need to be decongested by developing nearby places like Anekal, Attibele, Sarjapura, Hoskote, DB Pura by BDA\n', 'score': 0.609260162631504}</t>
-  </si>
-  <si>
-    <t>{'response': '65- Create drainage system around lakes and bypass drainage water into this. Create a walking track and hangout place on the drainage canal  around the lake.\n', 'score': 0.6302645504699573}</t>
-  </si>
-  <si>
-    <t>{'response': '67- Also water leakage mechanism should be put in place\n', 'score': 0.5257718807969406}</t>
-  </si>
-  <si>
-    <t>{'response': '73- Request to treat the water from vrishabhavathi and make it a river front and tourist attraction\n', 'score': 0.5255433562362748}</t>
-  </si>
-  <si>
-    <t>{'response': '74- Making it mandatory to have Rain water harvesting system in an existing property and in newly built property is the only way to increase the ground water table in the city where there is very less ground available for the natural percolation. Another point is to convert all the existing lakes into sewage treatment plants with natural methods or for example as the lake Hussain Sagar in Hyderabad which is a tourist attraction but actually a sewage treatment plant.\n', 'score': 0.6845286295962411}</t>
-  </si>
-  <si>
-    <t>{'response': '78- The Master plan should aim to supply 24x7 supply as considered for other Smart cities. The main source being Cauvery needs to be effectively and potentially utilised. Citizens should be made aware of the value of water and needs an intensive training.\n', 'score': 0.5846573195961454}</t>
-  </si>
-  <si>
-    <t>{'response': '80- How does one get out of the Water mafia? A city dependent of private tankers for its citizens and expansion is risky and flawed. If the city cannot supply piped water supply to its citizens, BBMP / BWSSB should supply water out of the taxes we pay and not charged separately by private tankers. \n', 'score': 0.6102280092887861}</t>
-  </si>
-  <si>
-    <t>{'response': '81- Unless you provide water to private layout residents, your master plan is useless.\n', 'score': 0.5271145034620504}</t>
-  </si>
-  <si>
-    <t>{'response': '18- There has been no mention of encroachment of lakes and how the action be taken against the real estate mafia. And help existing apartments to help build STPs as it is expensive to build one and not enough space to build it. Or build a common STP for a couple of buildings on a sharing basis. \n', 'score': 0.6065500809757863}</t>
+    <t>{'response': '82- STP should be must for all new apartment so that recycled water can be used for toilets &amp; gardening \n', 'score': 0.7609352923854322}</t>
+  </si>
+  <si>
+    <t>{'response': '49- In the plan, why BWSSB has no plans to recycle water and sell to the citizens by way of tankers/dedicated pipelines to big apartments. ?? They seem to be putting all the responsibility on the citizen even in the master plan!! Regarding Cauvery water supply, please have Tippagondahalli Reservoir functional by preventing misuse of land in and around it. It is a precious reservoir which has regained life after 2017 monsoon.. ensure its continuity so that it supplements cauvery water. \n', 'score': 0.6700001878448125}</t>
+  </si>
+  <si>
+    <t>{'response': '43- Rains are more than substantial in Bengaluru and bbmp should consider storing these water in underground reservoirs in the time of need. Proper drainage channels will help in this regard.\n', 'score': 0.6233947019778948}</t>
+  </si>
+  <si>
+    <t>{'response': '18- There has been no mention of encroachment of lakes and how the action be taken against the real estate mafia. And help existing apartments to help build STPs as it is expensive to build one and not enough space to build it. Or build a common STP for a couple of buildings on a sharing basis. \n', 'score': 0.5929890798143083}</t>
+  </si>
+  <si>
+    <t>{'response': '50- Before planning for new building and new areas.. please plan to fix current areas like bellandur which is known by other name water mafia by tankers\n', 'score': 0.5620101884497873}</t>
   </si>
   <si>
     <t>{'response': '32- You still have the rule of dual piping and STP but not implemented \n', 'score': 0.5344624784943052}</t>
   </si>
   <si>
-    <t>{'response': "41- BDA, BWSSB and BBMP are collectively responsible for gross water misuse, water overdraft, aggravating the tensions between Karnataka and Tamil Nadu over sharing the Kaveri water, and depriving the village panchayats surrounding Bangalore of their fair share of water. Stringent limiting of water use (residential, commercial, industrial, agricultural) should have been put in place when the city's population crossed 5 million. In early 2018 the population is 10 million and the 3 agencies have no water rationing mechanism for the city. An allocation of about 600 litres/day per typical household (see pg 105 for the figures) is far too high for a metro that has lost three-quarters of its water bodies over the last two decades. Projecting a population of 20 million in 12 years with this water allocation per household is incomprehensible and shows just how far out of touch with hydrographic cycles the 3 agencies are.\n", 'score': 0.4776805195604647}</t>
-  </si>
-  <si>
-    <t>{'response': '43- Rains are more than substantial in Bengaluru and bbmp should consider storing these water in underground reservoirs in the time of need. Proper drainage channels will help in this regard.\n', 'score': 0.6233947019778948}</t>
-  </si>
-  <si>
-    <t>{'response': '49- In the plan, why BWSSB has no plans to recycle water and sell to the citizens by way of tankers/dedicated pipelines to big apartments. ?? They seem to be putting all the responsibility on the citizen even in the master plan!! Regarding Cauvery water supply, please have Tippagondahalli Reservoir functional by preventing misuse of land in and around it. It is a precious reservoir which has regained life after 2017 monsoon.. ensure its continuity so that it supplements cauvery water. \n', 'score': 0.6628249174073424}</t>
-  </si>
-  <si>
-    <t>{'response': '50- Before planning for new building and new areas.. please plan to fix current areas like bellandur which is known by other name water mafia by tankers\n', 'score': 0.5620101884497873}</t>
-  </si>
-  <si>
-    <t>{'response': '82- STP should be must for all new apartment so that recycled water can be used for toilets &amp; gardening \n', 'score': 0.7609352923854322}</t>
+    <t>{'response': "41- BDA, BWSSB and BBMP are collectively responsible for gross water misuse, water overdraft, aggravating the tensions between Karnataka and Tamil Nadu over sharing the Kaveri water, and depriving the village panchayats surrounding Bangalore of their fair share of water. Stringent limiting of water use (residential, commercial, industrial, agricultural) should have been put in place when the city's population crossed 5 million. In early 2018 the population is 10 million and the 3 agencies have no water rationing mechanism for the city. An allocation of about 600 litres/day per typical household (see pg 105 for the figures) is far too high for a metro that has lost three-quarters of its water bodies over the last two decades. Projecting a population of 20 million in 12 years with this water allocation per household is incomprehensible and shows just how far out of touch with hydrographic cycles the 3 agencies are.\n", 'score': 0.49715395993943}</t>
+  </si>
+  <si>
+    <t>{'response': '66- City should build facility to store the rain water it receives and use it for drinking purpose... Should not only depend on cauvery water...some of the lakes should be identified and restored for this purpose\n', 'score': 0.7566333210673103}</t>
+  </si>
+  <si>
+    <t>{'response': "7- Please collect rain water from houses near borewells and get the water into the borewell. Most house owners are doing only name sake rainwater harvesting. It's not enough to drill borewells and provide taps from common taps. These borewells need to be fed. Rainwater that is anyway flowing into drains can be diverted at the cost of BBMP so that this water is diverted back into the water table.\n", 'score': 0.6939885801102067}</t>
+  </si>
+  <si>
+    <t>{'response': '75- Currently there is no proper supply of drinking water in many areas in Bengaluru. Where ever the existing lakes are there in and around Bengaluru, needs to be developed to increase the ground water level. Also it will be better to create Tree park to ensure the rain water does not flow out, but absorbed. In Government land dig the land for about 10 to 12 feet to collect the water during rainy days. This will ensure the ground water level increase.\n', 'score': 0.6873347750750984}</t>
   </si>
   <si>
     <t>{'response': '2- 24hours availability of water for recycled water should be ensured so that people need not have second overhead tank and can directly connect to toilets/garden. Rain water should not be let out of any site, but forced into rain-water pits, to improve ground water and reduced flooding.\n', 'score': 0.6723725485513491}</t>
   </si>
   <si>
-    <t>{'response': "7- Please collect rain water from houses near borewells and get the water into the borewell. Most house owners are doing only name sake rainwater harvesting. It's not enough to drill borewells and provide taps from common taps. These borewells need to be fed. Rainwater that is anyway flowing into drains can be diverted at the cost of BBMP so that this water is diverted back into the water table.\n", 'score': 0.6920087593517765}</t>
-  </si>
-  <si>
-    <t>{'response': '14- Waste water should be treated well to use it for city gardens, Bellandur,Ibloor, Sanky lake should be treated well, before it spoils the health of whole banglore. Man can not leave without water but Water can leave without a man...\n', 'score': 0.6401371059773953}</t>
-  </si>
-  <si>
-    <t>{'response': '15- In the early 16th and 17 centuries, Bangalore has around 262 lakes and which has been reduced to 32 now. We should renovate the lost lakes and make it reusable. Atleast 50 more so that we will not have water scarcity.\n', 'score': 0.5471539807686379}</t>
-  </si>
-  <si>
-    <t>{'response': '16- Please clean all the water boides which are startting to collect sewage and actual garbage. Take strict action against people throiwng garbage into theese water channels. The exsiting few channels are being polluted in a matter of months, I have seen this change in my area - there is a stream which passes thrugh the hal central township. It is has started to colelct garbage in a span of 1year. PLease do something to avoid such disasdters to other water bodies like the one near dmlur flyover area.  Regards Raj\n', 'score': 0.6252599224751054}</t>
-  </si>
-  <si>
-    <t>{'response': '17- What is the plan to actually protect the lakes and to raise the water table? There is no mention of RWH being mandated (and enforced) not only in apartments but also all over the city.\n', 'score': 0.6387429596634377}</t>
-  </si>
-  <si>
-    <t>{'response': '19- Carvery water should be made available and need to stop illegal ground water extraction. Every housing should work towards water conservation and ground water recharge. Se of them are paper not in real.\n', 'score': 0.5954023723493277}</t>
+    <t>{'response': "35- The proposed system is fine but what about it's maintenance, it's not just put the pipes and forget it.. There should be system to monitor it. And a proper system for sewage and care must be taken to see that there is no leakage/spillage of this drainage and Rajakaluve should be protected mostly as they are for purpose of rain water and not sewage water.\n", 'score': 0.6608764764795668}</t>
+  </si>
+  <si>
+    <t>{'response': '79- Concrete steps to be taken to conserve water as we see severe changes in climate last few years due to pollution. One step would be planting plants including fruit bearing/medicinal etc. along the both banks of the river Kaveri at least one kilometre on each side. so that ground water will increase in few years and steps also should be taken to manage waste from Industries and fine them if waste is not treated and being released into natural streams. Wastewater treatment plants to be constructed by the government for this purpose. \n', 'score': 0.654963400360458}</t>
+  </si>
+  <si>
+    <t>{'response': '55- Clean water storage and clean lakes with green cover for a good rainfall within city limits. Rainwater harvesting mandatory for all buildings. Clean  and honest water management Board.\n', 'score': 0.6505697852897168}</t>
+  </si>
+  <si>
+    <t>{'response': '77- Water is the main source for the people. we have to do proper plan and supply the water for each house. many people still they are using water. but they not paying the water bill to govt.\n', 'score': 0.650094301372829}</t>
+  </si>
+  <si>
+    <t>{'response': '14- Waste water should be treated well to use it for city gardens, Bellandur,Ibloor, Sanky lake should be treated well, before it spoils the health of whole banglore. Man can not leave without water but Water can leave without a man...\n', 'score': 0.6500231335319999}</t>
+  </si>
+  <si>
+    <t>{'response': '51- We Bangalorians have many lakes within and around the city. These lakes are not maintained, they are dirty. If we concentrate on cleaning and maintaining these lakes than Bengaluru will not face water crisis whole year. We can collect rain water in lakes and channelise this lake water for bathroom purpose, gardening, etc. We can learn to maintain lakes from Mumbai, Maharashtra. Mumbai is having only source of rain water for full year and that rain water is used even for every thing including drinking. Maintainence of lake should be started ASAP as Bengaluru is facing increase in water crisis year by year. \n', 'score': 0.6284255384240255}</t>
+  </si>
+  <si>
+    <t>{'response': '16- Please clean all the water boides which are startting to collect sewage and actual garbage. Take strict action against people throiwng garbage into theese water channels. The exsiting few channels are being polluted in a matter of months, I have seen this change in my area - there is a stream which passes thrugh the hal central township. It is has started to colelct garbage in a span of 1year. PLease do something to avoid such disasdters to other water bodies like the one near dmlur flyover area.  Regards Raj\n', 'score': 0.6278681367571899}</t>
+  </si>
+  <si>
+    <t>{'response': '17- What is the plan to actually protect the lakes and to raise the water table? There is no mention of RWH being mandated (and enforced) not only in apartments but also all over the city.\n', 'score': 0.6150833937801894}</t>
+  </si>
+  <si>
+    <t>{'response': '52- Due to enormous constructions of apartments, tech parks happening across the length &amp; breath of city, population has increased , so is the demand for water . In summer water levels go down &amp; citizens rely on tankers for water . Govt &amp; BBMP , other civic bodies need to think of reviving the lakes &amp; Add green cover to manage this crisis . \n', 'score': 0.613001344263304}</t>
+  </si>
+  <si>
+    <t>{'response': "38- Many areas in bangalore still don't have proper water facilities they wait for 6 day's to fetch drinking water which is once a week and this horrible condition is around shampur govindpur and few more. Please help \n", 'score': 0.60736417667122}</t>
   </si>
   <si>
     <t>{'response': '25- Please create artificial lakes in and around the city. This can store rain water and also increase beautiness of this city and will provide place for  people for recreation.   I think big lakes in and around the city is the need of the hour.\n', 'score': 0.6059771803366796}</t>
   </si>
   <si>
-    <t>{'response': "28- If there is any pipeline broken(Drinking water line) or need to fix immediately, BWSSB will never be on time and there will be enormous amount of water pooled which i've seen/herd couple of times.\n", 'score': 0.5282376294170964}</t>
-  </si>
-  <si>
-    <t>{'response': "35- The proposed system is fine but what about it's maintenance, it's not just put the pipes and forget it.. There should be system to monitor it. And a proper system for sewage and care must be taken to see that there is no leakage/spillage of this drainage and Rajakaluve should be protected mostly as they are for purpose of rain water and not sewage water.\n", 'score': 0.6499076155927348}</t>
-  </si>
-  <si>
-    <t>{'response': "38- Many areas in bangalore still don't have proper water facilities they wait for 6 day's to fetch drinking water which is once a week and this horrible condition is around shampur govindpur and few more. Please help \n", 'score': 0.5761759630609394}</t>
-  </si>
-  <si>
     <t>{'response': "44- Also Water Mafia should be controlled, All citizens and government officials should be made aware that water is a resource and it doesn't belong to individuals. Government should meter the use of water at every home and bill for this usage even when owners of property own their own bore-well. \n", 'score': 0.6017665763461328}</t>
   </si>
   <si>
-    <t>{'response': '51- We Bangalorians have many lakes within and around the city. These lakes are not maintained, they are dirty. If we concentrate on cleaning and maintaining these lakes than Bengaluru will not face water crisis whole year. We can collect rain water in lakes and channelise this lake water for bathroom purpose, gardening, etc. We can learn to maintain lakes from Mumbai, Maharashtra. Mumbai is having only source of rain water for full year and that rain water is used even for every thing including drinking. Maintainence of lake should be started ASAP as Bengaluru is facing increase in water crisis year by year. \n', 'score': 0.6277516466548962}</t>
-  </si>
-  <si>
-    <t>{'response': '52- Due to enormous constructions of apartments, tech parks happening across the length &amp; breath of city, population has increased , so is the demand for water . In summer water levels go down &amp; citizens rely on tankers for water . Govt &amp; BBMP , other civic bodies need to think of reviving the lakes &amp; Add green cover to manage this crisis . \n', 'score': 0.613001344263304}</t>
+    <t>{'response': '70- Strict measures to be taken to repair the pipes asap when water pipes are broken to avoid wastage of water through leakage. There is also need to educate and create awareness about water conservation.\n', 'score': 0.5824390544937379}</t>
+  </si>
+  <si>
+    <t>{'response': '15- In the early 16th and 17 centuries, Bangalore has around 262 lakes and which has been reduced to 32 now. We should renovate the lost lakes and make it reusable. Atleast 50 more so that we will not have water scarcity.\n', 'score': 0.5776105353659252}</t>
+  </si>
+  <si>
+    <t>{'response': "60- Rejuvenate water bodies and stop giving in for land mafia.I can't understand how can we not take care of lakes when we have 2 lakhs revenue in our budget. Come up with 5 year plan and ensure clean all lakes,so that people can trust your abilities and transparency in admission. \n", 'score': 0.5635444290091621}</t>
   </si>
   <si>
     <t>{'response': '53- Why are we looking at kavery water for every household in bangalore. why cant we look at our own lakes, revive them and reuse. this is some kind of scam too. Why cant BBMP help every household to do rainwater harvest.\n', 'score': 0.5589995055879288}</t>
@@ -3033,79 +3045,64 @@
     <t>{'response': '54- Ensure that the cavery water is supplied regularly and check for leakages\n', 'score': 0.5512267224604962}</t>
   </si>
   <si>
-    <t>{'response': '55- Clean water storage and clean lakes with green cover for a good rainfall within city limits. Rainwater harvesting mandatory for all buildings. Clean  and honest water management Board.\n', 'score': 0.6505697852897168}</t>
+    <t>{'response': '68- Rain water harvesting needs more focus\n', 'score': 0.5358129921274347}</t>
+  </si>
+  <si>
+    <t>{'response': "28- If there is any pipeline broken(Drinking water line) or need to fix immediately, BWSSB will never be on time and there will be enormous amount of water pooled which i've seen/herd couple of times.\n", 'score': 0.5129368785190449}</t>
   </si>
   <si>
     <t>{'response': '56- 1.quality of drinking water. 2.Renovating all lakes in the city. Re\n', 'score': 0.503168257574078}</t>
   </si>
   <si>
-    <t>{'response': "60- Rejuvenate water bodies and stop giving in for land mafia.I can't understand how can we not take care of lakes when we have 2 lakhs revenue in our budget. Come up with 5 year plan and ensure clean all lakes,so that people can trust your abilities and transparency in admission. \n", 'score': 0.5564408580228054}</t>
-  </si>
-  <si>
-    <t>{'response': '66- City should build facility to store the rain water it receives and use it for drinking purpose... Should not only depend on cauvery water...some of the lakes should be identified and restored for this purpose\n', 'score': 0.7566333210673103}</t>
-  </si>
-  <si>
-    <t>{'response': '68- Rain water harvesting needs more focus\n', 'score': 0.5358129921274347}</t>
-  </si>
-  <si>
-    <t>{'response': '70- Strict measures to be taken to repair the pipes asap when water pipes are broken to avoid wastage of water through leakage. There is also need to educate and create awareness about water conservation.\n', 'score': 0.5824390544937379}</t>
-  </si>
-  <si>
-    <t>{'response': '75- Currently there is no proper supply of drinking water in many areas in Bengaluru. Where ever the existing lakes are there in and around Bengaluru, needs to be developed to increase the ground water level. Also it will be better to create Tree park to ensure the rain water does not flow out, but absorbed. In Government land dig the land for about 10 to 12 feet to collect the water during rainy days. This will ensure the ground water level increase.\n', 'score': 0.6873347750750984}</t>
-  </si>
-  <si>
-    <t>{'response': '77- Water is the main source for the people. we have to do proper plan and supply the water for each house. many people still they are using water. but they not paying the water bill to govt.\n', 'score': 0.6430795223303596}</t>
-  </si>
-  <si>
-    <t>{'response': '79- Concrete steps to be taken to conserve water as we see severe changes in climate last few years due to pollution. One step would be planting plants including fruit bearing/medicinal etc. along the both banks of the river Kaveri at least one kilometre on each side. so that ground water will increase in few years and steps also should be taken to manage waste from Industries and fine them if waste is not treated and being released into natural streams. Wastewater treatment plants to be constructed by the government for this purpose. \n', 'score': 0.6526370665060189}</t>
+    <t>{'response': '69- Make water harvesting mandatory, recycling the water usage to best possible measure.   Ocean water to used in and around after treatment\n', 'score': 0.7120135567585916}</t>
+  </si>
+  <si>
+    <t>{'response': '34- Wanted to see our city to implement rain water storage so that ground water level increase and make bengaluru out of water problem. outer places to get drinking water through bengaluru if we do successfully installed rain water management \n', 'score': 0.6912736589926699}</t>
+  </si>
+  <si>
+    <t>{'response': "26- Ground water level is decreasing rapidly in Bangalore, recycling water is not the only thing to be done, more innovative ideas should be thought through. Some of the factories use lot of water resources they must be forced use recycled water and also strict  regulations have to be made for these companies to have filters so that they don't pollute near by water bodies. Similar rules are required for big apartments which are getting water from borewells and tankers.\n", 'score': 0.6787779146819876}</t>
+  </si>
+  <si>
+    <t>{'response': "42- 1. Make aerators compulsory for all buildings. They save a lot of water. 2. RO water purifiers are not needed in most areas. People who use them shd store the water water and use it for v Mopping , cleaning etc. 3.work with resident to tackle the problem of water leakage in pipes. 4. Do not harass residents of apt complex to retro fit STP. It's not feasible 5. Rain water harvesting should be encouraged. People should have incentives to do this. 6 .BWSSB shd advise people on how to install rain water harvesting systems.7. water saving methods should be taught at school and a gradual change in mind set will be seen.\n", 'score': 0.6617488059143449}</t>
+  </si>
+  <si>
+    <t>{'response': '83- Not reassuring to include but then name someone else responsible.  Also evaluate how to cut water wastage and management of water during heavy rains... storm drains should be used to harvest water and there should be significant punishment/fine for dumping or adding things that will block drains, even if it is "yard waste only" \n', 'score': 0.6452352123944233}</t>
+  </si>
+  <si>
+    <t>{'response': "71- Even we know Bangalore as Lake city but we can see that now a days condition of lakes are not good. Few of them are more dirty and few of them are very close to dry state (not this year, because of heavy rain). We need to do some program/guidance to increase ground water level. For this again we have to encourage people to use water harvesting in their house/society. Gov has to make tough rules for builders/individual owners to make the provision for rain water harvesting and without that don't give any kind of approval for that project. We also have to ask builder/individual owner to make provision to use the wate water in the house/society in other way. For example, in any society we can make a provision to use the water which is going out from water filter. This water can be used for flush/plantation etc. There should be a dedicated pipe line to utilize this water. We also encourage people to use some new technologies so we can save some water during our general usage like (hand wash, brushing etc...) Again it will not be possible from active participation of public but gov must start awareness program and keep doing this regularly instead of just for name shake.  \n", 'score': 0.6261180916466947}</t>
+  </si>
+  <si>
+    <t>{'response': "29- More innovative ways to solve water woes. Since Bengaluru is getting more drier every year, more water into our surrounding reserviors is needed. Prevent excessive pumping if underground water. Interlinking of rivers or smarter wats to provide for city's water needs.\n", 'score': 0.6177880284968296}</t>
   </si>
   <si>
     <t>{'response': '4- There is no mention how govt stops water mafia and groundwater exploitation. Rainwater harvesting is not still made mandatory. Also more technology should be used to identify water pilferage across the pipelines. Water rationing is must. Beyond certain usage, the price has to be increased significantly. \n', 'score': 0.6124435158690908}</t>
   </si>
   <si>
+    <t>{'response': '19- Carvery water should be made available and need to stop illegal ground water extraction. Every housing should work towards water conservation and ground water recharge. Se of them are paper not in real.\n', 'score': 0.6031536573668079}</t>
+  </si>
+  <si>
+    <t>{'response': '39- Water is getting wasted day by day in Bengaluru and we as residents are ignoring that.  It’s time for us to wake up and find some solution to save water for the future\n', 'score': 0.5928548259480835}</t>
+  </si>
+  <si>
+    <t>{'response': '30- Ban producing water to cool drink companies, water problem solved in seconds\n', 'score': 0.5851837790400722}</t>
+  </si>
+  <si>
     <t>{'response': '12- Rainwater must be absorbed as soon as it falls on the ground by remodelling rainwater drains. I can give technology for this.\n', 'score': 0.5812404160743115}</t>
   </si>
   <si>
+    <t>{'response': '45- Have a question here, how many times can d water be recycled to ensure there is no reverse impact. Also this topic HV to be linked with environment to ensure a proper mileage is received. Work on realising ground water issue and work towards addressing that. Get in to registration and track consumption. This will hold wastage.\n', 'score': 0.5759717517565766}</t>
+  </si>
+  <si>
     <t>{'response': "13- Recycling is most important, but the plan doesn't include any proposal to improve the ground water. Preservation of lakes and pond very important and should not make the lakes be the sewage facilities of bigger apartments inside Bangalore.\n", 'score': 0.5725514939116035}</t>
   </si>
   <si>
-    <t>{'response': "26- Ground water level is decreasing rapidly in Bangalore, recycling water is not the only thing to be done, more innovative ideas should be thought through. Some of the factories use lot of water resources they must be forced use recycled water and also strict  regulations have to be made for these companies to have filters so that they don't pollute near by water bodies. Similar rules are required for big apartments which are getting water from borewells and tankers.\n", 'score': 0.6883368684168943}</t>
-  </si>
-  <si>
-    <t>{'response': "29- More innovative ways to solve water woes. Since Bengaluru is getting more drier every year, more water into our surrounding reserviors is needed. Prevent excessive pumping if underground water. Interlinking of rivers or smarter wats to provide for city's water needs.\n", 'score': 0.6160555829345398}</t>
-  </si>
-  <si>
-    <t>{'response': '30- Ban producing water to cool drink companies, water problem solved in seconds\n', 'score': 0.5851837790400722}</t>
-  </si>
-  <si>
-    <t>{'response': '34- Wanted to see our city to implement rain water storage so that ground water level increase and make bengaluru out of water problem. outer places to get drinking water through bengaluru if we do successfully installed rain water management \n', 'score': 0.6912736589926699}</t>
-  </si>
-  <si>
-    <t>{'response': '39- Water is getting wasted day by day in Bengaluru and we as residents are ignoring that.  It’s time for us to wake up and find some solution to save water for the future\n', 'score': 0.5928548259480835}</t>
+    <t>{'response': '76- We are blessed with Mother Kaveri and we have to utilize water wisely, and management has to take more care on the same.  nowadays water is precious thing in the world, Management has to create awareness programs. \n', 'score': 0.5585015971325045}</t>
   </si>
   <si>
     <t>{'response': '40- Why water tanker lobby is not being penalized? Why its all black money. Why all water payment is not through digital.. And this is plain water. Why its being charged.. I can understand transportation charge but why its so high.. When will basic necessity of water being fulfilled by municipality. Let them charge as per the consumption but through private party is black money. Let it via "pay as you use" mode. North Bangalore is fully ignored by BWSSB,\n', 'score': 0.5535711147555208}</t>
   </si>
   <si>
-    <t>{'response': "42- 1. Make aerators compulsory for all buildings. They save a lot of water. 2. RO water purifiers are not needed in most areas. People who use them shd store the water water and use it for v Mopping , cleaning etc. 3.work with resident to tackle the problem of water leakage in pipes. 4. Do not harass residents of apt complex to retro fit STP. It's not feasible 5. Rain water harvesting should be encouraged. People should have incentives to do this. 6 .BWSSB shd advise people on how to install rain water harvesting systems.7. water saving methods should be taught at school and a gradual change in mind set will be seen.\n", 'score': 0.6409982914852097}</t>
-  </si>
-  <si>
-    <t>{'response': '45- Have a question here, how many times can d water be recycled to ensure there is no reverse impact. Also this topic HV to be linked with environment to ensure a proper mileage is received. Work on realising ground water issue and work towards addressing that. Get in to registration and track consumption. This will hold wastage.\n', 'score': 0.5759717517565766}</t>
-  </si>
-  <si>
     <t>{'response': '63- Again water tanckers are a menace. Where do they get the water from? and why is that water not available otherwise. We pay through our nose for the tankers. \n', 'score': 0.5427523449359045}</t>
-  </si>
-  <si>
-    <t>{'response': '69- Make water harvesting mandatory, recycling the water usage to best possible measure.   Ocean water to used in and around after treatment\n', 'score': 0.7120135567585916}</t>
-  </si>
-  <si>
-    <t>{'response': "71- Even we know Bangalore as Lake city but we can see that now a days condition of lakes are not good. Few of them are more dirty and few of them are very close to dry state (not this year, because of heavy rain). We need to do some program/guidance to increase ground water level. For this again we have to encourage people to use water harvesting in their house/society. Gov has to make tough rules for builders/individual owners to make the provision for rain water harvesting and without that don't give any kind of approval for that project. We also have to ask builder/individual owner to make provision to use the wate water in the house/society in other way. For example, in any society we can make a provision to use the water which is going out from water filter. This water can be used for flush/plantation etc. There should be a dedicated pipe line to utilize this water. We also encourage people to use some new technologies so we can save some water during our general usage like (hand wash, brushing etc...) Again it will not be possible from active participation of public but gov must start awareness program and keep doing this regularly instead of just for name shake.  \n", 'score': 0.6327833954163826}</t>
-  </si>
-  <si>
-    <t>{'response': '76- We are blessed with Mother Kaveri and we have to utilize water wisely, and management has to take more care on the same.  nowadays water is precious thing in the world, Management has to create awareness programs. \n', 'score': 0.5522391874253029}</t>
-  </si>
-  <si>
-    <t>{'response': '83- Not reassuring to include but then name someone else responsible.  Also evaluate how to cut water wastage and management of water during heavy rains... storm drains should be used to harvest water and there should be significant punishment/fine for dumping or adding things that will block drains, even if it is "yard waste only" \n', 'score': 0.6452352123944233}</t>
   </si>
 </sst>
 </file>
@@ -3635,7 +3632,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3643,28 +3640,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3672,28 +3669,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
         <v>499</v>
       </c>
       <c r="E2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H2" t="s">
+        <v>512</v>
+      </c>
+      <c r="I2" t="s">
         <v>514</v>
-      </c>
-      <c r="I2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3701,22 +3698,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D3" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="E3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H3" t="s">
+        <v>513</v>
+      </c>
+      <c r="I3" t="s">
         <v>515</v>
-      </c>
-      <c r="I3" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3724,19 +3718,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>490</v>
-      </c>
-      <c r="D4" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="E4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3744,13 +3735,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3758,13 +3749,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3772,10 +3763,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3783,10 +3774,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3794,10 +3785,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3805,7 +3796,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3813,7 +3804,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3821,6 +3812,22 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>498</v>
       </c>
     </row>
@@ -3831,7 +3838,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3839,37 +3846,37 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3877,37 +3884,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F2" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G2" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H2" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="I2" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="J2" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="K2" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="L2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3915,37 +3922,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C3" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="E3" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F3" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G3" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="H3" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="I3" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="J3" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="K3" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="L3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3953,34 +3960,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C4" t="s">
-        <v>571</v>
+        <v>564</v>
+      </c>
+      <c r="D4" t="s">
+        <v>569</v>
       </c>
       <c r="E4" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F4" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="H4" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="I4" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="J4" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="K4" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="L4" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3988,34 +3998,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="E5" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F5" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="G5" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="H5" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="I5" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="J5" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="K5" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="L5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4023,34 +4033,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E6" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F6" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G6" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="H6" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="I6" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="J6" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="K6" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="L6" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4058,28 +4068,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="H7" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="I7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="J7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="K7" t="s">
-        <v>720</v>
+        <v>713</v>
+      </c>
+      <c r="L7" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -4087,28 +4100,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E8" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F8" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G8" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="H8" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="I8" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="J8" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="K8" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4116,28 +4129,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E9" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F9" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="G9" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="H9" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="I9" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="J9" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="K9" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4145,28 +4158,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E10" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F10" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G10" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="H10" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="I10" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="J10" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="K10" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -4174,28 +4187,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E11" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F11" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="G11" t="s">
-        <v>635</v>
-      </c>
-      <c r="H11" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="I11" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="J11" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="K11" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4203,25 +4213,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E12" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F12" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G12" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="I12" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="J12" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="K12" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4229,25 +4239,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E13" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F13" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="G13" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="I13" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="J13" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="K13" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4255,25 +4265,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E14" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F14" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G14" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="I14" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="J14" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="K14" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4281,25 +4291,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E15" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F15" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="G15" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="I15" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J15" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="K15" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -4307,25 +4317,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E16" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F16" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G16" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="I16" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="J16" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="K16" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4333,25 +4343,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E17" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F17" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G17" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="I17" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="J17" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="K17" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4359,25 +4369,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E18" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F18" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G18" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="I18" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="J18" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="K18" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4385,22 +4395,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E19" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F19" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="G19" t="s">
-        <v>643</v>
+        <v>636</v>
+      </c>
+      <c r="I19" t="s">
+        <v>679</v>
       </c>
       <c r="J19" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="K19" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4408,22 +4421,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E20" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="F20" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G20" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="J20" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="K20" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4431,22 +4444,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E21" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F21" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="G21" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="J21" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="K21" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4454,22 +4467,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E22" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F22" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G22" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J22" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="K22" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4477,22 +4490,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E23" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F23" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G23" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="J23" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="K23" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4500,19 +4513,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E24" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G24" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="J24" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="K24" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4520,19 +4533,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E25" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="G25" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="J25" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="K25" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4540,19 +4553,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E26" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G26" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="J26" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="K26" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4560,19 +4573,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E27" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G27" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="J27" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="K27" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4580,19 +4593,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E28" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G28" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="J28" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="K28" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4600,16 +4613,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>558</v>
-      </c>
-      <c r="E29" t="s">
-        <v>603</v>
+        <v>556</v>
       </c>
       <c r="G29" t="s">
-        <v>653</v>
+        <v>646</v>
+      </c>
+      <c r="J29" t="s">
+        <v>707</v>
       </c>
       <c r="K29" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4617,13 +4630,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G30" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="K30" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4631,13 +4644,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G31" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="K31" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4645,13 +4658,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G32" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="K32" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4659,13 +4672,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G33" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="K33" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4673,74 +4686,56 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G34" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="K34" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>564</v>
-      </c>
       <c r="G35" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="K35" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>565</v>
-      </c>
-      <c r="G36" t="s">
-        <v>660</v>
-      </c>
       <c r="K36" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>566</v>
-      </c>
       <c r="K37" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>567</v>
-      </c>
       <c r="K38" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>568</v>
-      </c>
       <c r="K39" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4748,7 +4743,7 @@
         <v>38</v>
       </c>
       <c r="K40" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4756,7 +4751,7 @@
         <v>39</v>
       </c>
       <c r="K41" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4764,7 +4759,7 @@
         <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4772,7 +4767,7 @@
         <v>41</v>
       </c>
       <c r="K43" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -4780,7 +4775,7 @@
         <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -4788,7 +4783,7 @@
         <v>43</v>
       </c>
       <c r="K45" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -4796,7 +4791,7 @@
         <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -4804,7 +4799,7 @@
         <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -4812,7 +4807,7 @@
         <v>46</v>
       </c>
       <c r="K48" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -4820,7 +4815,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -4828,7 +4823,7 @@
         <v>48</v>
       </c>
       <c r="K50" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4836,7 +4831,7 @@
         <v>49</v>
       </c>
       <c r="K51" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4844,7 +4839,7 @@
         <v>50</v>
       </c>
       <c r="K52" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -4852,7 +4847,7 @@
         <v>51</v>
       </c>
       <c r="K53" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4860,7 +4855,7 @@
         <v>52</v>
       </c>
       <c r="K54" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -4868,7 +4863,7 @@
         <v>53</v>
       </c>
       <c r="K55" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -4876,7 +4871,7 @@
         <v>54</v>
       </c>
       <c r="K56" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -4884,7 +4879,7 @@
         <v>55</v>
       </c>
       <c r="K57" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4892,7 +4887,7 @@
         <v>56</v>
       </c>
       <c r="K58" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4900,7 +4895,7 @@
         <v>57</v>
       </c>
       <c r="K59" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4908,7 +4903,7 @@
         <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4916,7 +4911,7 @@
         <v>59</v>
       </c>
       <c r="K61" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4924,7 +4919,7 @@
         <v>60</v>
       </c>
       <c r="K62" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4932,7 +4927,7 @@
         <v>61</v>
       </c>
       <c r="K63" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4940,7 +4935,7 @@
         <v>62</v>
       </c>
       <c r="K64" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4948,7 +4943,7 @@
         <v>63</v>
       </c>
       <c r="K65" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4956,7 +4951,7 @@
         <v>64</v>
       </c>
       <c r="K66" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4964,7 +4959,39 @@
         <v>65</v>
       </c>
       <c r="K67" t="s">
-        <v>780</v>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="K68" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="K69" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="K70" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="K71" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -4974,7 +5001,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4982,28 +5009,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5011,28 +5038,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D2" t="s">
         <v>868</v>
       </c>
-      <c r="D2" t="s">
-        <v>874</v>
-      </c>
       <c r="E2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F2" t="s">
-        <v>895</v>
-      </c>
-      <c r="G2" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="H2" t="s">
         <v>904</v>
       </c>
       <c r="I2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5040,25 +5064,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C3" t="s">
+        <v>864</v>
+      </c>
+      <c r="D3" t="s">
         <v>869</v>
       </c>
-      <c r="D3" t="s">
-        <v>875</v>
-      </c>
       <c r="E3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F3" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="H3" t="s">
         <v>905</v>
       </c>
       <c r="I3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5066,22 +5090,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C4" t="s">
+        <v>865</v>
+      </c>
+      <c r="D4" t="s">
         <v>870</v>
       </c>
       <c r="E4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F4" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="H4" t="s">
         <v>906</v>
       </c>
       <c r="I4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5089,22 +5116,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C5" t="s">
+        <v>866</v>
+      </c>
+      <c r="D5" t="s">
         <v>871</v>
       </c>
       <c r="E5" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F5" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="H5" t="s">
         <v>907</v>
       </c>
       <c r="I5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5112,22 +5142,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C6" t="s">
+        <v>867</v>
+      </c>
+      <c r="D6" t="s">
         <v>872</v>
       </c>
       <c r="E6" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F6" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="H6" t="s">
         <v>908</v>
       </c>
       <c r="I6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5135,22 +5168,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>798</v>
-      </c>
-      <c r="C7" t="s">
+        <v>796</v>
+      </c>
+      <c r="D7" t="s">
         <v>873</v>
       </c>
       <c r="E7" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F7" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="H7" t="s">
         <v>909</v>
       </c>
       <c r="I7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5158,16 +5191,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>799</v>
+        <v>797</v>
+      </c>
+      <c r="D8" t="s">
+        <v>874</v>
       </c>
       <c r="E8" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F8" t="s">
-        <v>901</v>
-      </c>
-      <c r="H8" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5175,13 +5208,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>800</v>
+        <v>798</v>
+      </c>
+      <c r="D9" t="s">
+        <v>875</v>
       </c>
       <c r="E9" t="s">
-        <v>883</v>
-      </c>
-      <c r="F9" t="s">
-        <v>902</v>
+        <v>884</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5189,10 +5222,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>801</v>
+        <v>799</v>
+      </c>
+      <c r="D10" t="s">
+        <v>876</v>
       </c>
       <c r="E10" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5200,10 +5236,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E11" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5211,10 +5247,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E12" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5222,10 +5258,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E13" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5233,10 +5269,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E14" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5244,10 +5280,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E15" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5255,10 +5291,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E16" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5266,10 +5302,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E17" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5277,10 +5313,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E18" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5288,10 +5324,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E19" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5299,10 +5335,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E20" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5310,7 +5346,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>812</v>
+        <v>810</v>
+      </c>
+      <c r="E21" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5318,7 +5357,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5326,7 +5365,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5334,7 +5373,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5342,7 +5381,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5350,7 +5389,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5358,7 +5397,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5366,7 +5405,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5374,7 +5413,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5382,7 +5421,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5390,7 +5429,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5398,7 +5437,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5406,7 +5445,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5414,7 +5453,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5422,7 +5461,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5430,7 +5469,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5438,7 +5477,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5446,7 +5485,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5454,7 +5493,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5462,7 +5501,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5470,7 +5509,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5478,7 +5517,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5486,7 +5525,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5494,7 +5533,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5502,7 +5541,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5510,7 +5549,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5518,7 +5557,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5526,7 +5565,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5534,7 +5573,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5542,7 +5581,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5550,7 +5589,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5558,7 +5597,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5566,7 +5605,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5574,7 +5613,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5582,7 +5621,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5590,7 +5629,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5598,7 +5637,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5606,7 +5645,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5614,7 +5653,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5622,7 +5661,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5630,7 +5669,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5638,7 +5677,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5646,7 +5685,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5654,7 +5693,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5662,7 +5701,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5670,7 +5709,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5678,7 +5717,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5686,7 +5725,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5694,7 +5733,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5702,7 +5741,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5710,7 +5749,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5718,7 +5757,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5726,31 +5765,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -5760,7 +5775,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5768,22 +5783,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5791,22 +5806,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5814,22 +5829,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5837,19 +5852,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G4" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5857,19 +5872,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5877,19 +5892,19 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G6" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5897,19 +5912,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G7" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5917,19 +5932,19 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G8" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5937,16 +5952,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G9" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5954,16 +5969,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D10" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G10" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5971,16 +5986,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G11" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5988,13 +6003,13 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G12" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6002,13 +6017,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G13" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6016,13 +6031,13 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G14" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6030,13 +6045,13 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F15" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G15" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6044,13 +6059,13 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F16" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G16" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6058,13 +6073,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G17" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6072,10 +6087,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F18" t="s">
-        <v>977</v>
+        <v>976</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6083,10 +6101,10 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F19" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6094,10 +6112,10 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F20" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6105,10 +6123,10 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6116,7 +6134,7 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6124,7 +6142,7 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6132,7 +6150,7 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6140,15 +6158,7 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="F26" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -7604,6 +7614,9 @@
       <c r="C2" t="s">
         <v>314</v>
       </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
@@ -7622,9 +7635,6 @@
       </c>
       <c r="B4" t="s">
         <v>312</v>
-      </c>
-      <c r="C4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7688,13 +7698,13 @@
         <v>340</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" t="s">
         <v>353</v>
-      </c>
-      <c r="I2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7711,10 +7721,10 @@
         <v>341</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7728,7 +7738,7 @@
         <v>342</v>
       </c>
       <c r="I4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7742,7 +7752,7 @@
         <v>343</v>
       </c>
       <c r="I5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7756,7 +7766,7 @@
         <v>344</v>
       </c>
       <c r="I6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7820,9 +7830,6 @@
       </c>
       <c r="B12" t="s">
         <v>334</v>
-      </c>
-      <c r="D12" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7856,7 +7863,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7864,25 +7871,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7890,19 +7897,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7910,19 +7917,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7930,19 +7937,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -7950,19 +7957,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7970,16 +7977,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7987,16 +7994,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -8004,16 +8011,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -8021,13 +8028,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -8035,10 +8042,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -8046,10 +8053,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -8057,10 +8064,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -8068,15 +8075,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -8086,7 +8085,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8094,19 +8093,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8114,10 +8113,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D2" t="s">
         <v>431</v>
@@ -8126,7 +8125,7 @@
         <v>442</v>
       </c>
       <c r="F2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8134,10 +8133,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D3" t="s">
         <v>432</v>
@@ -8146,7 +8145,7 @@
         <v>443</v>
       </c>
       <c r="F3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8154,10 +8153,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D4" t="s">
         <v>433</v>
@@ -8166,7 +8165,7 @@
         <v>444</v>
       </c>
       <c r="F4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8174,10 +8173,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D5" t="s">
         <v>434</v>
@@ -8186,7 +8185,7 @@
         <v>445</v>
       </c>
       <c r="F5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8194,16 +8193,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="C6" t="s">
+        <v>430</v>
       </c>
       <c r="D6" t="s">
         <v>435</v>
       </c>
-      <c r="E6" t="s">
-        <v>446</v>
-      </c>
       <c r="F6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8211,13 +8210,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D7" t="s">
         <v>436</v>
       </c>
       <c r="F7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8225,13 +8224,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D8" t="s">
         <v>437</v>
       </c>
       <c r="F8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8239,13 +8238,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D9" t="s">
         <v>438</v>
       </c>
       <c r="F9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8253,13 +8252,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D10" t="s">
         <v>439</v>
       </c>
       <c r="F10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8267,13 +8266,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D11" t="s">
         <v>440</v>
       </c>
       <c r="F11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8281,13 +8280,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D12" t="s">
         <v>441</v>
       </c>
       <c r="F12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8295,10 +8294,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8306,10 +8305,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8317,10 +8316,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8328,18 +8327,21 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>425</v>
+      </c>
       <c r="F17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8347,7 +8349,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8355,7 +8357,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8363,7 +8365,7 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8371,7 +8373,7 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8379,7 +8381,7 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8387,7 +8389,7 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8395,7 +8397,7 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8403,7 +8405,7 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8411,7 +8413,7 @@
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8419,7 +8421,7 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8427,7 +8429,7 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8435,7 +8437,7 @@
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -8443,7 +8445,7 @@
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8451,7 +8453,7 @@
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8459,7 +8461,7 @@
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8467,15 +8469,7 @@
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="F34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
